--- a/£MHC.xlsx
+++ b/£MHC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AAE859-8FE0-4185-882C-DD53AD3F4201}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F300A499-15EF-4FF3-B6F8-20D7E15858C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="495" windowWidth="28800" windowHeight="18900" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
   </bookViews>
@@ -977,6 +977,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -984,6 +987,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -998,47 +1037,8 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1558,7 +1558,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1586,11 +1586,11 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="J2" s="108" t="s">
+      <c r="J2" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1605,10 +1605,10 @@
       <c r="J3" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="111" t="s">
+      <c r="K3" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="112"/>
+      <c r="L3" s="125"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1621,16 +1621,16 @@
       <c r="J4" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="111"/>
-      <c r="L4" s="112"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="125"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
+      <c r="B5" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1640,7 +1640,7 @@
       <c r="K5" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="128">
+      <c r="L5" s="108">
         <v>44825</v>
       </c>
     </row>
@@ -1659,10 +1659,10 @@
       <c r="J6" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="113" t="s">
+      <c r="K6" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="114"/>
+      <c r="L6" s="127"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1705,17 +1705,17 @@
         <v>90</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="111"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1835,11 +1835,11 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="1"/>
       <c r="F15" s="44">
         <v>44287</v>
@@ -1860,10 +1860,10 @@
       <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="124"/>
+      <c r="D16" s="113"/>
       <c r="E16" s="1"/>
       <c r="F16" s="44">
         <v>44317</v>
@@ -1883,10 +1883,10 @@
       <c r="B17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="124"/>
+      <c r="D17" s="113"/>
       <c r="F17" s="44">
         <v>44348</v>
       </c>
@@ -1905,8 +1905,8 @@
       <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
       <c r="F18" s="44">
         <v>44409</v>
       </c>
@@ -1923,8 +1923,8 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
       <c r="F19" s="44">
         <v>44440</v>
       </c>
@@ -1943,10 +1943,10 @@
       <c r="B20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="119" t="s">
+      <c r="C20" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="124"/>
+      <c r="D20" s="113"/>
       <c r="F20" s="44">
         <v>44501</v>
       </c>
@@ -1963,8 +1963,8 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
       <c r="F21" s="44">
         <v>44652</v>
       </c>
@@ -1981,8 +1981,8 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="20"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="126"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
       <c r="F22" s="44">
         <v>44726</v>
       </c>
@@ -2056,70 +2056,70 @@
       <c r="N26" s="28"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="115" t="s">
+      <c r="B27" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="111"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="29">
         <v>43922</v>
       </c>
-      <c r="C28" s="119" t="s">
+      <c r="C28" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="124"/>
+      <c r="D28" s="113"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="30">
         <v>44228</v>
       </c>
-      <c r="C29" s="125" t="s">
+      <c r="C29" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="126"/>
+      <c r="D29" s="115"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="110"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="111"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="29">
         <v>44136</v>
       </c>
-      <c r="C32" s="119" t="s">
+      <c r="C32" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="124"/>
-      <c r="F32" s="108" t="s">
+      <c r="D32" s="113"/>
+      <c r="F32" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="109"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="111"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="31">
         <v>44348</v>
       </c>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="126"/>
-      <c r="F33" s="120" t="s">
+      <c r="D33" s="115"/>
+      <c r="F33" s="117" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="121"/>
+      <c r="G33" s="118"/>
       <c r="H33" s="25" t="s">
         <v>108</v>
       </c>
@@ -2132,10 +2132,10 @@
       <c r="O33" s="26"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F34" s="120" t="s">
+      <c r="F34" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="121"/>
+      <c r="G34" s="118"/>
       <c r="H34" s="25" t="s">
         <v>109</v>
       </c>
@@ -2148,10 +2148,10 @@
       <c r="O34" s="26"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F35" s="122" t="s">
+      <c r="F35" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="123"/>
+      <c r="G35" s="120"/>
       <c r="H35" s="81" t="s">
         <v>135</v>
       </c>
@@ -2167,58 +2167,58 @@
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="110"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="111"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="116">
+      <c r="C37" s="121">
         <f>C6/'Financial Model'!P19</f>
         <v>6.3848982035928081</v>
       </c>
-      <c r="D37" s="117"/>
+      <c r="D37" s="122"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="116">
+      <c r="C38" s="121">
         <f>C6/'Financial Model'!I57</f>
         <v>1.6465343727852584</v>
       </c>
-      <c r="D38" s="117"/>
+      <c r="D38" s="122"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="88"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="119"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="112"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="116">
+      <c r="C40" s="121">
         <f>C12/'Financial Model'!H18</f>
         <v>3.098319988102372</v>
       </c>
-      <c r="D40" s="117"/>
+      <c r="D40" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
@@ -2230,15 +2230,15 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K6:L6" r:id="rId1" display="Link" xr:uid="{EBABCF04-F876-4DF1-ADF1-1B6F62DC4548}"/>
@@ -2254,10 +2254,10 @@
   <dimension ref="B1:BH61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5611,11 +5611,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" s="22">

--- a/£MHC.xlsx
+++ b/£MHC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F300A499-15EF-4FF3-B6F8-20D7E15858C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2D1C4D-555A-477B-8CB5-A59E3CD821DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="495" windowWidth="28800" windowHeight="18900" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="158">
   <si>
     <t>Stock Snapshot</t>
   </si>
@@ -492,6 +492,15 @@
   </si>
   <si>
     <t>Update</t>
+  </si>
+  <si>
+    <t>Presentations</t>
+  </si>
+  <si>
+    <t>FY 22</t>
+  </si>
+  <si>
+    <t>FY 21</t>
   </si>
 </sst>
 </file>
@@ -814,7 +823,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -989,19 +998,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1016,29 +1037,29 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1555,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A865B090-C0E4-4B85-AA22-AACD646D3083}">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,10 +1626,10 @@
       <c r="J3" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="124" t="s">
+      <c r="K3" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="125"/>
+      <c r="L3" s="113"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1621,8 +1642,8 @@
       <c r="J4" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="124"/>
-      <c r="L4" s="125"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1659,10 +1680,10 @@
       <c r="J6" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="126" t="s">
+      <c r="K6" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="127"/>
+      <c r="L6" s="115"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1860,10 +1881,10 @@
       <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="113"/>
+      <c r="D16" s="125"/>
       <c r="E16" s="1"/>
       <c r="F16" s="44">
         <v>44317</v>
@@ -1879,14 +1900,14 @@
       <c r="M16" s="25"/>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="113"/>
+      <c r="D17" s="125"/>
       <c r="F17" s="44">
         <v>44348</v>
       </c>
@@ -1901,12 +1922,12 @@
       <c r="M17" s="25"/>
       <c r="N17" s="26"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
       <c r="F18" s="44">
         <v>44409</v>
       </c>
@@ -1921,10 +1942,10 @@
       <c r="M18" s="25"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
       <c r="F19" s="44">
         <v>44440</v>
       </c>
@@ -1939,14 +1960,14 @@
       <c r="M19" s="25"/>
       <c r="N19" s="26"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="113"/>
+      <c r="D20" s="125"/>
       <c r="F20" s="44">
         <v>44501</v>
       </c>
@@ -1961,10 +1982,10 @@
       <c r="M20" s="25"/>
       <c r="N20" s="26"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
       <c r="F21" s="44">
         <v>44652</v>
       </c>
@@ -1979,10 +2000,10 @@
       <c r="M21" s="25"/>
       <c r="N21" s="26"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="20"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="115"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127"/>
       <c r="F22" s="44">
         <v>44726</v>
       </c>
@@ -1997,7 +2018,7 @@
       <c r="M22" s="25"/>
       <c r="N22" s="26"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F23" s="44"/>
       <c r="G23" s="85" t="s">
         <v>134</v>
@@ -2010,7 +2031,7 @@
       <c r="M23" s="25"/>
       <c r="N23" s="26"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F24" s="44">
         <v>44743</v>
       </c>
@@ -2024,8 +2045,13 @@
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="26"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="111"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F25" s="44">
         <v>44743</v>
       </c>
@@ -2039,8 +2065,15 @@
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
       <c r="N25" s="26"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q25" s="131" t="s">
+        <v>152</v>
+      </c>
+      <c r="R25" s="132"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F26" s="45">
         <v>44774</v>
       </c>
@@ -2054,47 +2087,57 @@
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
       <c r="N26" s="28"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="131" t="s">
+        <v>152</v>
+      </c>
+      <c r="R26" s="132"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="116" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="110"/>
       <c r="D27" s="111"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="93"/>
+      <c r="Q27" s="129"/>
+      <c r="R27" s="130"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="29">
         <v>43922</v>
       </c>
-      <c r="C28" s="112" t="s">
+      <c r="C28" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="113"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D28" s="125"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="30">
         <v>44228</v>
       </c>
-      <c r="C29" s="114" t="s">
+      <c r="C29" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="115"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="127"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="116" t="s">
         <v>62</v>
       </c>
       <c r="C31" s="110"/>
       <c r="D31" s="111"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="29">
         <v>44136</v>
       </c>
-      <c r="C32" s="112" t="s">
+      <c r="C32" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="113"/>
+      <c r="D32" s="125"/>
       <c r="F32" s="109" t="s">
         <v>103</v>
       </c>
@@ -2112,14 +2155,14 @@
       <c r="B33" s="31">
         <v>44348</v>
       </c>
-      <c r="C33" s="114" t="s">
+      <c r="C33" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="115"/>
-      <c r="F33" s="117" t="s">
+      <c r="D33" s="127"/>
+      <c r="F33" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="118"/>
+      <c r="G33" s="122"/>
       <c r="H33" s="25" t="s">
         <v>108</v>
       </c>
@@ -2132,10 +2175,10 @@
       <c r="O33" s="26"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F34" s="117" t="s">
+      <c r="F34" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="118"/>
+      <c r="G34" s="122"/>
       <c r="H34" s="25" t="s">
         <v>109</v>
       </c>
@@ -2148,10 +2191,10 @@
       <c r="O34" s="26"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F35" s="119" t="s">
+      <c r="F35" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="120"/>
+      <c r="G35" s="124"/>
       <c r="H35" s="81" t="s">
         <v>135</v>
       </c>
@@ -2177,75 +2220,81 @@
       <c r="B37" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="121">
+      <c r="C37" s="117">
         <f>C6/'Financial Model'!P19</f>
         <v>6.3848982035928081</v>
       </c>
-      <c r="D37" s="122"/>
+      <c r="D37" s="118"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="121">
+      <c r="C38" s="117">
         <f>C6/'Financial Model'!I57</f>
         <v>1.6465343727852584</v>
       </c>
-      <c r="D38" s="122"/>
+      <c r="D38" s="118"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="88"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="112"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="120"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="121">
+      <c r="C40" s="117">
         <f>C12/'Financial Model'!H18</f>
         <v>3.098319988102372</v>
       </c>
-      <c r="D40" s="122"/>
+      <c r="D40" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="33">
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B31:D31"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F9:N9"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F32:O32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K6:L6" r:id="rId1" display="Link" xr:uid="{EBABCF04-F876-4DF1-ADF1-1B6F62DC4548}"/>
+    <hyperlink ref="Q25:R25" r:id="rId2" display="Link" xr:uid="{B44AF9A0-26DA-4646-BD16-513FFB8F6C87}"/>
+    <hyperlink ref="Q26:R26" r:id="rId3" display="Link" xr:uid="{95CF8495-03C0-4884-AA67-0EF8E6A9DD47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/£MHC.xlsx
+++ b/£MHC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2D1C4D-555A-477B-8CB5-A59E3CD821DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6B7FBD-94A6-4045-B31B-C1A2C7BE5078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="495" windowWidth="28800" windowHeight="18900" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
+    <workbookView xWindow="2680" yWindow="500" windowWidth="28800" windowHeight="18900" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="159">
   <si>
     <t>Stock Snapshot</t>
   </si>
@@ -501,6 +511,9 @@
   </si>
   <si>
     <t>FY 21</t>
+  </si>
+  <si>
+    <t>16m share options granted to Exec. Dirs @ exercise price of 1.6p per share</t>
   </si>
 </sst>
 </file>
@@ -508,17 +521,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0;[Red]\ \ \-\ #,##0.0\ ;&quot;-&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0;[Black]\(#,##0.0\)\ "/>
-    <numFmt numFmtId="169" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0\x"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0;[Red]\ \ \-\ #,##0.0\ ;&quot;-&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0;[Black]\(#,##0.0\)\ "/>
+    <numFmt numFmtId="170" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="0.0\x"/>
+    <numFmt numFmtId="174" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -819,7 +832,7 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -830,23 +843,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -857,7 +870,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -881,11 +894,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="8" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -902,20 +915,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -947,7 +960,7 @@
     <xf numFmtId="17" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -979,14 +992,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,6 +1021,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1010,21 +1059,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1037,29 +1071,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1067,7 +1080,7 @@
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1579,16 +1592,16 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1597,7 +1610,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1607,13 +1620,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="J2" s="109" t="s">
+      <c r="J2" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K2" s="114"/>
+      <c r="L2" s="115"/>
+    </row>
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1626,12 +1639,12 @@
       <c r="J3" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="112" t="s">
+      <c r="K3" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="113"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L3" s="125"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1642,16 +1655,16 @@
       <c r="J4" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="112"/>
-      <c r="L4" s="113"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K4" s="124"/>
+      <c r="L4" s="125"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111"/>
+      <c r="B5" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="114"/>
+      <c r="D5" s="115"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1665,7 +1678,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>1</v>
@@ -1680,12 +1693,12 @@
       <c r="J6" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="114" t="s">
+      <c r="K6" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="115"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L6" s="127"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
@@ -1700,7 +1713,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
@@ -1714,7 +1727,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
         <v>4</v>
@@ -1726,19 +1739,19 @@
         <v>90</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="111"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="115"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
         <v>5</v>
@@ -1764,7 +1777,7 @@
       <c r="M10" s="33"/>
       <c r="N10" s="26"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
@@ -1789,7 +1802,7 @@
       <c r="M11" s="33"/>
       <c r="N11" s="26"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="9" t="s">
         <v>7</v>
@@ -1814,7 +1827,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1834,7 +1847,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="26"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1854,13 +1867,13 @@
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="1"/>
       <c r="F15" s="44">
         <v>44287</v>
@@ -1876,7 +1889,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="26"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="19" t="s">
         <v>11</v>
@@ -1884,7 +1897,7 @@
       <c r="C16" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="125"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="1"/>
       <c r="F16" s="44">
         <v>44317</v>
@@ -1900,14 +1913,14 @@
       <c r="M16" s="25"/>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="125"/>
+      <c r="D17" s="116"/>
       <c r="F17" s="44">
         <v>44348</v>
       </c>
@@ -1922,12 +1935,12 @@
       <c r="M17" s="25"/>
       <c r="N17" s="26"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
       <c r="F18" s="44">
         <v>44409</v>
       </c>
@@ -1942,10 +1955,10 @@
       <c r="M18" s="25"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="19"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
       <c r="F19" s="44">
         <v>44440</v>
       </c>
@@ -1960,14 +1973,14 @@
       <c r="M19" s="25"/>
       <c r="N19" s="26"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="125"/>
+      <c r="D20" s="116"/>
       <c r="F20" s="44">
         <v>44501</v>
       </c>
@@ -1982,10 +1995,10 @@
       <c r="M20" s="25"/>
       <c r="N20" s="26"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="19"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
       <c r="F21" s="44">
         <v>44652</v>
       </c>
@@ -2000,10 +2013,10 @@
       <c r="M21" s="25"/>
       <c r="N21" s="26"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="20"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="127"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="118"/>
       <c r="F22" s="44">
         <v>44726</v>
       </c>
@@ -2018,7 +2031,7 @@
       <c r="M22" s="25"/>
       <c r="N22" s="26"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="F23" s="44"/>
       <c r="G23" s="85" t="s">
         <v>134</v>
@@ -2031,7 +2044,7 @@
       <c r="M23" s="25"/>
       <c r="N23" s="26"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="F24" s="44">
         <v>44743</v>
       </c>
@@ -2045,13 +2058,13 @@
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="26"/>
-      <c r="P24" s="109" t="s">
+      <c r="P24" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="111"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="114"/>
+      <c r="R24" s="115"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="F25" s="44">
         <v>44743</v>
       </c>
@@ -2068,101 +2081,114 @@
       <c r="P25" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="Q25" s="131" t="s">
+      <c r="Q25" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="R25" s="132"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="F26" s="45">
+      <c r="R25" s="110"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="F26" s="44">
         <v>44774</v>
       </c>
-      <c r="G26" s="86" t="s">
+      <c r="G26" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="28"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="26"/>
       <c r="P26" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="Q26" s="131" t="s">
+      <c r="Q26" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="R26" s="132"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="116" t="s">
+      <c r="R26" s="110"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="111"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="115"/>
+      <c r="F27" s="45">
+        <v>44835</v>
+      </c>
+      <c r="G27" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="28"/>
       <c r="P27" s="93"/>
-      <c r="Q27" s="129"/>
-      <c r="R27" s="130"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q27" s="111"/>
+      <c r="R27" s="112"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="29">
         <v>43922</v>
       </c>
       <c r="C28" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="125"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D28" s="116"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="30">
         <v>44228</v>
       </c>
-      <c r="C29" s="126" t="s">
+      <c r="C29" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="127"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="116" t="s">
+      <c r="D29" s="118"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="111"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C31" s="114"/>
+      <c r="D31" s="115"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="29">
         <v>44136</v>
       </c>
       <c r="C32" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="125"/>
-      <c r="F32" s="109" t="s">
+      <c r="D32" s="116"/>
+      <c r="F32" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="111"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="115"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="31">
         <v>44348</v>
       </c>
-      <c r="C33" s="126" t="s">
+      <c r="C33" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="127"/>
-      <c r="F33" s="121" t="s">
+      <c r="D33" s="118"/>
+      <c r="F33" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="122"/>
+      <c r="G33" s="129"/>
       <c r="H33" s="25" t="s">
         <v>108</v>
       </c>
@@ -2174,11 +2200,11 @@
       <c r="N33" s="25"/>
       <c r="O33" s="26"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F34" s="121" t="s">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F34" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="122"/>
+      <c r="G34" s="129"/>
       <c r="H34" s="25" t="s">
         <v>109</v>
       </c>
@@ -2190,11 +2216,11 @@
       <c r="N34" s="25"/>
       <c r="O34" s="26"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F35" s="123" t="s">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F35" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="124"/>
+      <c r="G35" s="131"/>
       <c r="H35" s="81" t="s">
         <v>135</v>
       </c>
@@ -2209,67 +2235,50 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="116" t="s">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="119" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="110"/>
-      <c r="D36" s="111"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C36" s="114"/>
+      <c r="D36" s="115"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="117">
+      <c r="C37" s="121">
         <f>C6/'Financial Model'!P19</f>
         <v>6.3848982035928081</v>
       </c>
-      <c r="D37" s="118"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D37" s="122"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="117">
+      <c r="C38" s="121">
         <f>C6/'Financial Model'!I57</f>
         <v>1.6465343727852584</v>
       </c>
-      <c r="D38" s="118"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D38" s="122"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="88"/>
-      <c r="C39" s="119"/>
+      <c r="C39" s="123"/>
       <c r="D39" s="120"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="117">
+      <c r="C40" s="121">
         <f>C12/'Financial Model'!H18</f>
         <v>3.098319988102372</v>
       </c>
-      <c r="D40" s="118"/>
+      <c r="D40" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K6:L6"/>
@@ -2286,6 +2295,23 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K6:L6" r:id="rId1" display="Link" xr:uid="{EBABCF04-F876-4DF1-ADF1-1B6F62DC4548}"/>
@@ -2309,23 +2335,23 @@
       <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="36"/>
-    <col min="13" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="36" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="36" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="36"/>
+    <col min="13" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C1" s="13" t="s">
         <v>87</v>
       </c>
@@ -2398,7 +2424,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="2:27" s="100" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" s="100" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="97"/>
       <c r="C2" s="21">
         <v>43646</v>
@@ -2468,7 +2494,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:27" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="15"/>
       <c r="C3" s="14"/>
       <c r="D3" s="35"/>
@@ -2496,7 +2522,7 @@
       <c r="Z3" s="46"/>
       <c r="AA3" s="46"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
@@ -2584,7 +2610,7 @@
         <v>190.64173102378848</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -2672,7 +2698,7 @@
         <v>131.54279440641406</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -2748,7 +2774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
@@ -2844,7 +2870,7 @@
         <v>59.098936617374427</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
         <v>34</v>
       </c>
@@ -2921,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
@@ -2998,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -3086,7 +3112,7 @@
         <v>2.5529999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -3163,7 +3189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -3251,7 +3277,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -3346,7 +3372,7 @@
         <v>3.0790000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>55</v>
       </c>
@@ -3442,7 +3468,7 @@
         <v>56.019936617374427</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -3531,7 +3557,7 @@
         <v>9.7928837876293681E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
         <v>26</v>
       </c>
@@ -3627,7 +3653,7 @@
         <v>55.922007779498131</v>
       </c>
     </row>
-    <row r="17" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
         <v>24</v>
       </c>
@@ -3704,7 +3730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -3932,7 +3958,7 @@
         <v>39.426438587991925</v>
       </c>
     </row>
-    <row r="19" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
         <v>32</v>
       </c>
@@ -4028,7 +4054,7 @@
         <v>9.1329851754652344E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>2</v>
       </c>
@@ -4116,7 +4142,7 @@
         <v>710.85199999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
         <v>28</v>
       </c>
@@ -4214,7 +4240,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -4313,7 +4339,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
         <v>30</v>
       </c>
@@ -4413,7 +4439,7 @@
         <v>154.42854876708077</v>
       </c>
     </row>
-    <row r="25" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -4513,7 +4539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:60" x14ac:dyDescent="0.2">
       <c r="AC26" s="48" t="s">
         <v>123</v>
       </c>
@@ -4522,7 +4548,7 @@
         <v>161.42854876708077</v>
       </c>
     </row>
-    <row r="27" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>93</v>
       </c>
@@ -4562,7 +4588,7 @@
       </c>
       <c r="AF27" s="106"/>
     </row>
-    <row r="28" spans="2:60" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:60" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
         <v>97</v>
       </c>
@@ -4660,7 +4686,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:60" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>128</v>
       </c>
@@ -4717,7 +4743,7 @@
       <c r="AC29" s="48"/>
       <c r="AD29" s="49"/>
     </row>
-    <row r="30" spans="2:60" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:60" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
         <v>129</v>
       </c>
@@ -4777,7 +4803,7 @@
       <c r="AC30" s="50"/>
       <c r="AD30" s="105"/>
     </row>
-    <row r="31" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C31" s="16"/>
       <c r="D31" s="67"/>
       <c r="E31" s="18"/>
@@ -4802,7 +4828,7 @@
       <c r="AC31" s="48"/>
       <c r="AD31" s="49"/>
     </row>
-    <row r="32" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:60" x14ac:dyDescent="0.2">
       <c r="AC32" s="51" t="s">
         <v>126</v>
       </c>
@@ -4811,12 +4837,12 @@
         <v>11.496433372152271</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>69</v>
       </c>
@@ -4850,7 +4876,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>70</v>
       </c>
@@ -4884,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>71</v>
       </c>
@@ -4918,7 +4944,7 @@
         <v>2.2890000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>72</v>
       </c>
@@ -4952,7 +4978,7 @@
         <v>0.497</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>73</v>
       </c>
@@ -4986,7 +5012,7 @@
         <v>2.3319999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>74</v>
       </c>
@@ -5020,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
         <v>4</v>
       </c>
@@ -5059,7 +5085,7 @@
         <v>6.3869999999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>75</v>
       </c>
@@ -5099,7 +5125,7 @@
         <v>11.667999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D42" s="62"/>
       <c r="E42" s="43"/>
       <c r="F42" s="62">
@@ -5115,7 +5141,7 @@
       <c r="O42" s="43"/>
       <c r="P42" s="43"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>76</v>
       </c>
@@ -5149,7 +5175,7 @@
         <v>3.3149999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>77</v>
       </c>
@@ -5183,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>78</v>
       </c>
@@ -5217,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>79</v>
       </c>
@@ -5251,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>80</v>
       </c>
@@ -5285,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>130</v>
       </c>
@@ -5318,7 +5344,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>82</v>
       </c>
@@ -5355,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50" s="12" t="s">
         <v>83</v>
       </c>
@@ -5396,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>84</v>
       </c>
@@ -5436,7 +5462,7 @@
         <v>4.5549999999999997</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D52" s="62"/>
       <c r="E52" s="43"/>
       <c r="F52" s="62"/>
@@ -5449,7 +5475,7 @@
       <c r="O52" s="43"/>
       <c r="P52" s="43"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>85</v>
       </c>
@@ -5483,7 +5509,7 @@
         <v>7.1130000000000004</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>86</v>
       </c>
@@ -5523,7 +5549,7 @@
         <v>11.667999999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D55" s="62"/>
       <c r="E55" s="43"/>
       <c r="F55" s="62"/>
@@ -5533,7 +5559,7 @@
       <c r="O55" s="43"/>
       <c r="P55" s="43"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>143</v>
       </c>
@@ -5574,7 +5600,7 @@
         <v>7.1129999999999995</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>144</v>
       </c>
@@ -5615,7 +5641,7 @@
         <v>1.0006302296399251E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D58" s="62"/>
       <c r="E58" s="43"/>
       <c r="F58" s="62"/>
@@ -5625,7 +5651,7 @@
       <c r="O58" s="43"/>
       <c r="P58" s="43"/>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B61" s="32" t="s">
         <v>137</v>
       </c>
@@ -5652,21 +5678,21 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="128" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C2" s="22">
         <v>44196</v>
       </c>
@@ -5674,7 +5700,7 @@
         <v>44342</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="41" t="s">
         <v>39</v>
       </c>
@@ -5685,7 +5711,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>53</v>
       </c>
@@ -5696,7 +5722,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="41" t="s">
         <v>40</v>
       </c>
@@ -5707,7 +5733,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="41" t="s">
         <v>41</v>
       </c>
@@ -5718,7 +5744,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="41" t="s">
         <v>42</v>
       </c>
@@ -5729,7 +5755,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="41" t="s">
         <v>44</v>
       </c>
@@ -5740,7 +5766,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
         <v>43</v>
       </c>
@@ -5751,7 +5777,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="41" t="s">
         <v>45</v>
       </c>
@@ -5762,7 +5788,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="41" t="s">
         <v>46</v>
       </c>
@@ -5773,7 +5799,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="41" t="s">
         <v>47</v>
       </c>
@@ -5784,7 +5810,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="41" t="s">
         <v>48</v>
       </c>
@@ -5795,7 +5821,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
         <v>107</v>
       </c>
@@ -5806,7 +5832,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
         <v>127</v>
       </c>
@@ -5817,7 +5843,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
         <v>49</v>
       </c>

--- a/£MHC.xlsx
+++ b/£MHC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6B7FBD-94A6-4045-B31B-C1A2C7BE5078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7978C1-C5B0-9343-B8FE-B05DD446CD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="500" windowWidth="28800" windowHeight="18900" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="161">
   <si>
     <t>Stock Snapshot</t>
   </si>
@@ -514,6 +514,12 @@
   </si>
   <si>
     <t>16m share options granted to Exec. Dirs @ exercise price of 1.6p per share</t>
+  </si>
+  <si>
+    <t>P/S</t>
+  </si>
+  <si>
+    <t>EV/S</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1002,18 +1008,6 @@
     <xf numFmtId="16" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1021,30 +1015,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1059,6 +1029,9 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1069,6 +1042,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1589,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A865B090-C0E4-4B85-AA22-AACD646D3083}">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+      <selection activeCell="C41" sqref="C41:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1620,11 +1623,11 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="114"/>
-      <c r="L2" s="115"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="111"/>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1639,10 +1642,10 @@
       <c r="J3" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="124" t="s">
+      <c r="K3" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="125"/>
+      <c r="L3" s="113"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -1655,16 +1658,16 @@
       <c r="J4" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="124"/>
-      <c r="L4" s="125"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="115"/>
+      <c r="B5" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="110"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1684,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="23">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="1"/>
@@ -1693,10 +1696,10 @@
       <c r="J6" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="126" t="s">
+      <c r="K6" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="127"/>
+      <c r="L6" s="115"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -1720,7 +1723,7 @@
       </c>
       <c r="C8" s="6">
         <f>C6*C7</f>
-        <v>14.04162</v>
+        <v>12.871485000000002</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="1"/>
@@ -1739,17 +1742,17 @@
         <v>90</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="113" t="s">
+      <c r="F9" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="115"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="111"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -1809,7 +1812,7 @@
       </c>
       <c r="C12" s="10">
         <f>C8-C9+C10</f>
-        <v>7.04162</v>
+        <v>5.8714850000000016</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
@@ -1869,11 +1872,11 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="119" t="s">
+      <c r="B15" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="115"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="1"/>
       <c r="F15" s="44">
         <v>44287</v>
@@ -1894,10 +1897,10 @@
       <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="122"/>
       <c r="E16" s="1"/>
       <c r="F16" s="44">
         <v>44317</v>
@@ -1917,10 +1920,10 @@
       <c r="B17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="120" t="s">
+      <c r="C17" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="116"/>
+      <c r="D17" s="122"/>
       <c r="F17" s="44">
         <v>44348</v>
       </c>
@@ -1939,8 +1942,8 @@
       <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
       <c r="F18" s="44">
         <v>44409</v>
       </c>
@@ -1957,8 +1960,8 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="19"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
       <c r="F19" s="44">
         <v>44440</v>
       </c>
@@ -1977,10 +1980,10 @@
       <c r="B20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="120" t="s">
+      <c r="C20" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="116"/>
+      <c r="D20" s="122"/>
       <c r="F20" s="44">
         <v>44501</v>
       </c>
@@ -1997,8 +2000,8 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="19"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="122"/>
       <c r="F21" s="44">
         <v>44652</v>
       </c>
@@ -2015,8 +2018,8 @@
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="20"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="118"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="124"/>
       <c r="F22" s="44">
         <v>44726</v>
       </c>
@@ -2058,11 +2061,11 @@
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="26"/>
-      <c r="P24" s="113" t="s">
+      <c r="P24" s="109" t="s">
         <v>155</v>
       </c>
-      <c r="Q24" s="114"/>
-      <c r="R24" s="115"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="111"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="F25" s="44">
@@ -2081,10 +2084,10 @@
       <c r="P25" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="Q25" s="109" t="s">
+      <c r="Q25" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="R25" s="110"/>
+      <c r="R25" s="128"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="F26" s="44">
@@ -2103,17 +2106,17 @@
       <c r="P26" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="Q26" s="109" t="s">
+      <c r="Q26" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="R26" s="110"/>
+      <c r="R26" s="128"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="119" t="s">
+      <c r="B27" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="115"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="111"/>
       <c r="F27" s="45">
         <v>44835</v>
       </c>
@@ -2128,67 +2131,67 @@
       <c r="M27" s="27"/>
       <c r="N27" s="28"/>
       <c r="P27" s="93"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="112"/>
+      <c r="Q27" s="129"/>
+      <c r="R27" s="130"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="29">
         <v>43922</v>
       </c>
-      <c r="C28" s="120" t="s">
+      <c r="C28" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="116"/>
+      <c r="D28" s="122"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="30">
         <v>44228</v>
       </c>
-      <c r="C29" s="117" t="s">
+      <c r="C29" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="118"/>
+      <c r="D29" s="124"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="119" t="s">
+      <c r="B31" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="114"/>
-      <c r="D31" s="115"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="111"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="29">
         <v>44136</v>
       </c>
-      <c r="C32" s="120" t="s">
+      <c r="C32" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="116"/>
-      <c r="F32" s="113" t="s">
+      <c r="D32" s="122"/>
+      <c r="F32" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="115"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="111"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="31">
         <v>44348</v>
       </c>
-      <c r="C33" s="117" t="s">
+      <c r="C33" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="118"/>
-      <c r="F33" s="128" t="s">
+      <c r="D33" s="124"/>
+      <c r="F33" s="117" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="129"/>
+      <c r="G33" s="118"/>
       <c r="H33" s="25" t="s">
         <v>108</v>
       </c>
@@ -2201,10 +2204,10 @@
       <c r="O33" s="26"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F34" s="128" t="s">
+      <c r="F34" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="129"/>
+      <c r="G34" s="118"/>
       <c r="H34" s="25" t="s">
         <v>109</v>
       </c>
@@ -2217,10 +2220,10 @@
       <c r="O34" s="26"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F35" s="130" t="s">
+      <c r="F35" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="131"/>
+      <c r="G35" s="120"/>
       <c r="H35" s="81" t="s">
         <v>135</v>
       </c>
@@ -2236,49 +2239,82 @@
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="119" t="s">
+      <c r="B36" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="114"/>
-      <c r="D36" s="115"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="111"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="121">
+      <c r="C37" s="125">
         <f>C6/'Financial Model'!P19</f>
-        <v>6.3848982035928081</v>
-      </c>
-      <c r="D37" s="122"/>
+        <v>5.8528233532934077</v>
+      </c>
+      <c r="D37" s="126"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="121">
+      <c r="C38" s="125">
         <f>C6/'Financial Model'!I57</f>
-        <v>1.6465343727852584</v>
-      </c>
-      <c r="D38" s="122"/>
+        <v>1.5093231750531537</v>
+      </c>
+      <c r="D38" s="126"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="88"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="120"/>
+      <c r="B39" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="125">
+        <f>C8/SUM('Financial Model'!H4:I4)</f>
+        <v>0.56124384670610328</v>
+      </c>
+      <c r="D39" s="126"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="125">
+        <f>C12/SUM('Financial Model'!H4:I4)</f>
+        <v>0.25601823156202919</v>
+      </c>
+      <c r="D40" s="126"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="121">
+      <c r="C41" s="125">
         <f>C12/'Financial Model'!H18</f>
-        <v>3.098319988102372</v>
-      </c>
-      <c r="D40" s="122"/>
+        <v>2.5834593936257937</v>
+      </c>
+      <c r="D41" s="126"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K6:L6"/>
@@ -2295,23 +2331,6 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K6:L6" r:id="rId1" display="Link" xr:uid="{EBABCF04-F876-4DF1-ADF1-1B6F62DC4548}"/>
@@ -2329,7 +2348,7 @@
   <dimension ref="B1:BH61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
@@ -4683,7 +4702,7 @@
       </c>
       <c r="AD28" s="105">
         <f>Main!C6</f>
-        <v>1.7999999999999999E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="2:60" x14ac:dyDescent="0.2">
@@ -4834,7 +4853,7 @@
       </c>
       <c r="AD32" s="57">
         <f>AD27/AD28</f>
-        <v>11.496433372152271</v>
+        <v>12.541563678711567</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
@@ -5686,11 +5705,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C2" s="22">

--- a/£MHC.xlsx
+++ b/£MHC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7978C1-C5B0-9343-B8FE-B05DD446CD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D031E8F-6CCD-C641-95B5-7361C37EBDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="500" windowWidth="28800" windowHeight="18900" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
+    <workbookView xWindow="2680" yWindow="500" windowWidth="28800" windowHeight="18900" activeTab="1" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="163">
   <si>
     <t>Stock Snapshot</t>
   </si>
@@ -520,6 +520,12 @@
   </si>
   <si>
     <t>EV/S</t>
+  </si>
+  <si>
+    <t>ROCE</t>
+  </si>
+  <si>
+    <t>Share Price</t>
   </si>
 </sst>
 </file>
@@ -842,7 +848,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -963,9 +969,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,9 +984,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="15" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1008,6 +1008,18 @@
     <xf numFmtId="16" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1029,9 +1041,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1042,6 +1051,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1059,7 +1071,7 @@
     <xf numFmtId="173" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1069,9 +1081,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1202,7 +1211,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1252,7 +1261,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1592,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A865B090-C0E4-4B85-AA22-AACD646D3083}">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:D41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38:V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1623,11 +1632,11 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="J2" s="109" t="s">
+      <c r="J2" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="111"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="113"/>
     </row>
     <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1639,13 +1648,13 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="112" t="s">
+      <c r="K3" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="113"/>
+      <c r="L3" s="115"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -1655,29 +1664,29 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="112"/>
-      <c r="L4" s="113"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="115"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111"/>
+      <c r="B5" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="J5" s="92" t="s">
+      <c r="J5" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="91" t="s">
+      <c r="K5" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="108">
+      <c r="L5" s="106">
         <v>44825</v>
       </c>
     </row>
@@ -1693,13 +1702,13 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="J6" s="93" t="s">
+      <c r="J6" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="114" t="s">
+      <c r="K6" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="115"/>
+      <c r="L6" s="117"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -1742,17 +1751,17 @@
         <v>90</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="111"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="113"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -1872,11 +1881,11 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="113"/>
       <c r="E15" s="1"/>
       <c r="F15" s="44">
         <v>44287</v>
@@ -1897,10 +1906,10 @@
       <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="122"/>
+      <c r="D16" s="124"/>
       <c r="E16" s="1"/>
       <c r="F16" s="44">
         <v>44317</v>
@@ -1920,10 +1929,10 @@
       <c r="B17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="122"/>
+      <c r="D17" s="124"/>
       <c r="F17" s="44">
         <v>44348</v>
       </c>
@@ -1942,8 +1951,8 @@
       <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
       <c r="F18" s="44">
         <v>44409</v>
       </c>
@@ -1960,8 +1969,8 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="19"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
       <c r="F19" s="44">
         <v>44440</v>
       </c>
@@ -1980,10 +1989,10 @@
       <c r="B20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="122"/>
+      <c r="D20" s="124"/>
       <c r="F20" s="44">
         <v>44501</v>
       </c>
@@ -2000,8 +2009,8 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="19"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
       <c r="F21" s="44">
         <v>44652</v>
       </c>
@@ -2018,8 +2027,8 @@
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="20"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="124"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="126"/>
       <c r="F22" s="44">
         <v>44726</v>
       </c>
@@ -2061,11 +2070,11 @@
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="26"/>
-      <c r="P24" s="109" t="s">
+      <c r="P24" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="Q24" s="110"/>
-      <c r="R24" s="111"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="113"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="F25" s="44">
@@ -2081,13 +2090,13 @@
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
       <c r="N25" s="26"/>
-      <c r="P25" s="92" t="s">
+      <c r="P25" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="Q25" s="127" t="s">
+      <c r="Q25" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="R25" s="128"/>
+      <c r="R25" s="130"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="F26" s="44">
@@ -2103,20 +2112,20 @@
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
       <c r="N26" s="26"/>
-      <c r="P26" s="92" t="s">
+      <c r="P26" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="Q26" s="127" t="s">
+      <c r="Q26" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="R26" s="128"/>
+      <c r="R26" s="130"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="116" t="s">
+      <c r="B27" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="111"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="113"/>
       <c r="F27" s="45">
         <v>44835</v>
       </c>
@@ -2130,68 +2139,68 @@
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
       <c r="N27" s="28"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="129"/>
-      <c r="R27" s="130"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="110"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="29">
         <v>43922</v>
       </c>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="122"/>
+      <c r="D28" s="124"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="30">
         <v>44228</v>
       </c>
-      <c r="C29" s="123" t="s">
+      <c r="C29" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="124"/>
+      <c r="D29" s="126"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="116" t="s">
+      <c r="B31" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="111"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="113"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="29">
         <v>44136</v>
       </c>
-      <c r="C32" s="121" t="s">
+      <c r="C32" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="122"/>
-      <c r="F32" s="109" t="s">
+      <c r="D32" s="124"/>
+      <c r="F32" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="110"/>
-      <c r="O32" s="111"/>
+      <c r="G32" s="112"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="112"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="113"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="31">
         <v>44348</v>
       </c>
-      <c r="C33" s="123" t="s">
+      <c r="C33" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="124"/>
-      <c r="F33" s="117" t="s">
+      <c r="D33" s="126"/>
+      <c r="F33" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="118"/>
+      <c r="G33" s="119"/>
       <c r="H33" s="25" t="s">
         <v>108</v>
       </c>
@@ -2204,10 +2213,10 @@
       <c r="O33" s="26"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F34" s="117" t="s">
+      <c r="F34" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="118"/>
+      <c r="G34" s="119"/>
       <c r="H34" s="25" t="s">
         <v>109</v>
       </c>
@@ -2220,10 +2229,10 @@
       <c r="O34" s="26"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F35" s="119" t="s">
+      <c r="F35" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="120"/>
+      <c r="G35" s="121"/>
       <c r="H35" s="81" t="s">
         <v>135</v>
       </c>
@@ -2239,64 +2248,74 @@
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="116" t="s">
+      <c r="B36" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="110"/>
-      <c r="D36" s="111"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="113"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="125">
-        <f>C6/'Financial Model'!P19</f>
-        <v>5.8528233532934077</v>
-      </c>
-      <c r="D37" s="126"/>
+      <c r="C37" s="127">
+        <f>C6/SUM('Financial Model'!H19:I19)</f>
+        <v>5.1421061777869195</v>
+      </c>
+      <c r="D37" s="128"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="125">
+      <c r="C38" s="127">
         <f>C6/'Financial Model'!I57</f>
         <v>1.5093231750531537</v>
       </c>
-      <c r="D38" s="126"/>
+      <c r="D38" s="128"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="125">
+      <c r="C39" s="127">
         <f>C8/SUM('Financial Model'!H4:I4)</f>
         <v>0.56124384670610328</v>
       </c>
-      <c r="D39" s="126"/>
+      <c r="D39" s="128"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="88" t="s">
+      <c r="B40" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="125">
+      <c r="C40" s="127">
         <f>C12/SUM('Financial Model'!H4:I4)</f>
         <v>0.25601823156202919</v>
       </c>
-      <c r="D40" s="126"/>
+      <c r="D40" s="128"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="88" t="s">
+      <c r="B41" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="125">
-        <f>C12/'Financial Model'!H18</f>
-        <v>2.5834593936257937</v>
-      </c>
-      <c r="D41" s="126"/>
+      <c r="C41" s="127">
+        <f>C12/SUM('Financial Model'!H18:I18)</f>
+        <v>2.5732692238581207</v>
+      </c>
+      <c r="D41" s="128"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" s="108" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="109">
+        <f>'Financial Model'!I68</f>
+        <v>0.17112763138524958</v>
+      </c>
+      <c r="D42" s="110"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
     <mergeCell ref="Q26:R26"/>
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="P24:R24"/>
@@ -2308,6 +2327,7 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C41:D41"/>
@@ -2315,6 +2335,7 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K6:L6"/>
@@ -2330,7 +2351,6 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K6:L6" r:id="rId1" display="Link" xr:uid="{EBABCF04-F876-4DF1-ADF1-1B6F62DC4548}"/>
@@ -2345,13 +2365,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80596E7F-DECF-497C-AD87-2DA392DA01F4}">
-  <dimension ref="B1:BH61"/>
+  <dimension ref="B1:BH71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2364,10 +2384,11 @@
     <col min="6" max="6" width="10.5" style="36" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" style="36"/>
     <col min="13" max="16" width="10.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" x14ac:dyDescent="0.2">
@@ -2389,7 +2410,7 @@
       <c r="H1" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="93" t="s">
         <v>90</v>
       </c>
       <c r="J1" s="34" t="s">
@@ -2443,30 +2464,30 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="2:27" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="97"/>
+    <row r="2" spans="2:27" s="98" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="95"/>
       <c r="C2" s="21">
         <v>43646</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="96" t="s">
         <v>92</v>
       </c>
       <c r="E2" s="21">
         <v>44012</v>
       </c>
-      <c r="F2" s="98">
+      <c r="F2" s="96">
         <v>44196</v>
       </c>
       <c r="G2" s="21">
         <v>44377</v>
       </c>
-      <c r="H2" s="98">
+      <c r="H2" s="96">
         <v>44561</v>
       </c>
-      <c r="I2" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="99"/>
+      <c r="I2" s="21">
+        <v>44742</v>
+      </c>
+      <c r="J2" s="97"/>
       <c r="M2" s="21">
         <v>43465</v>
       </c>
@@ -2521,7 +2542,7 @@
       <c r="F3" s="35"/>
       <c r="G3" s="14"/>
       <c r="H3" s="35"/>
-      <c r="I3" s="95">
+      <c r="I3" s="94">
         <v>44825</v>
       </c>
       <c r="J3" s="84"/>
@@ -4605,102 +4626,102 @@
         <f>AD26/Main!C7</f>
         <v>0.20693580069874087</v>
       </c>
-      <c r="AF27" s="106"/>
+      <c r="AF27" s="104"/>
     </row>
     <row r="28" spans="2:60" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="101">
-        <v>0</v>
-      </c>
-      <c r="D28" s="102">
-        <v>0</v>
-      </c>
-      <c r="E28" s="103">
+      <c r="C28" s="99">
+        <v>0</v>
+      </c>
+      <c r="D28" s="100">
+        <v>0</v>
+      </c>
+      <c r="E28" s="101">
         <f>E4/C4-1</f>
         <v>-0.19151237513520392</v>
       </c>
-      <c r="F28" s="104">
+      <c r="F28" s="102">
         <f>F4/D4-1</f>
         <v>1.2625361471728298</v>
       </c>
-      <c r="G28" s="103">
+      <c r="G28" s="101">
         <f>G4/E4-1</f>
         <v>256.6646730148737</v>
       </c>
-      <c r="H28" s="104">
+      <c r="H28" s="102">
         <f>H4/F4-1</f>
         <v>355.29007695863817</v>
       </c>
-      <c r="I28" s="103">
+      <c r="I28" s="101">
         <f>I4/G4-1</f>
         <v>2.0029213733661768</v>
       </c>
       <c r="J28" s="66"/>
-      <c r="M28" s="101">
-        <v>0</v>
-      </c>
-      <c r="N28" s="103">
+      <c r="M28" s="99">
+        <v>0</v>
+      </c>
+      <c r="N28" s="101">
         <f>N4/M4-1</f>
         <v>5.6081025217031826</v>
       </c>
-      <c r="O28" s="103">
+      <c r="O28" s="101">
         <f>O4/N4-1</f>
         <v>0.54770096965905557</v>
       </c>
-      <c r="P28" s="103">
+      <c r="P28" s="101">
         <f>P4/O4-1</f>
         <v>329.9620048504446</v>
       </c>
-      <c r="Q28" s="103">
+      <c r="Q28" s="101">
         <f>Q4/P4-1</f>
         <v>0.25</v>
       </c>
-      <c r="R28" s="103">
+      <c r="R28" s="101">
         <f t="shared" ref="R28:S28" si="31">R4/Q4-1</f>
         <v>0.25</v>
       </c>
-      <c r="S28" s="103">
+      <c r="S28" s="101">
         <f t="shared" si="31"/>
         <v>0.25</v>
       </c>
-      <c r="T28" s="103">
+      <c r="T28" s="101">
         <f t="shared" ref="T28:AA28" si="32">T4/S4-1</f>
         <v>0.25</v>
       </c>
-      <c r="U28" s="103">
+      <c r="U28" s="101">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="V28" s="103">
+      <c r="V28" s="101">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="W28" s="103">
+      <c r="W28" s="101">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="X28" s="103">
+      <c r="X28" s="101">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="Y28" s="103">
+      <c r="Y28" s="101">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="Z28" s="103">
+      <c r="Z28" s="101">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="AA28" s="103">
+      <c r="AA28" s="101">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
       <c r="AC28" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="AD28" s="105">
+      <c r="AD28" s="103">
         <f>Main!C6</f>
         <v>1.6500000000000001E-2</v>
       </c>
@@ -4766,61 +4787,61 @@
       <c r="B30" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="101">
-        <v>0</v>
-      </c>
-      <c r="D30" s="102">
-        <v>0</v>
-      </c>
-      <c r="E30" s="103">
+      <c r="C30" s="99">
+        <v>0</v>
+      </c>
+      <c r="D30" s="100">
+        <v>0</v>
+      </c>
+      <c r="E30" s="101">
         <f>E18/C18-1</f>
         <v>6.9873023754210895E-2</v>
       </c>
-      <c r="F30" s="104">
+      <c r="F30" s="102">
         <f>F18/D18-1</f>
         <v>1.7142245402388041</v>
       </c>
-      <c r="G30" s="103">
+      <c r="G30" s="101">
         <f>G18/E18-1</f>
         <v>-0.80078168438751474</v>
       </c>
-      <c r="H30" s="104">
+      <c r="H30" s="102">
         <f>H18/F18-1</f>
         <v>-1.941605215233448</v>
       </c>
-      <c r="I30" s="103">
+      <c r="I30" s="101">
         <f>I18/G18-1</f>
         <v>-1.0334918614776643</v>
       </c>
       <c r="J30" s="66"/>
-      <c r="M30" s="101">
-        <v>0</v>
-      </c>
-      <c r="N30" s="103">
+      <c r="M30" s="99">
+        <v>0</v>
+      </c>
+      <c r="N30" s="101">
         <f>N18/M18-1</f>
         <v>-0.23581032497875432</v>
       </c>
-      <c r="O30" s="103">
+      <c r="O30" s="101">
         <f>O18/N18-1</f>
         <v>0.74997993072728897</v>
       </c>
-      <c r="P30" s="103">
+      <c r="P30" s="101">
         <f>P18/O18-1</f>
         <v>-1.5326175633671386</v>
       </c>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="103"/>
-      <c r="W30" s="103"/>
-      <c r="X30" s="103"/>
-      <c r="Y30" s="103"/>
-      <c r="Z30" s="103"/>
-      <c r="AA30" s="103"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="101"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="101"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
+      <c r="W30" s="101"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="101"/>
+      <c r="Z30" s="101"/>
+      <c r="AA30" s="101"/>
       <c r="AC30" s="50"/>
-      <c r="AD30" s="105"/>
+      <c r="AD30" s="103"/>
     </row>
     <row r="31" spans="2:60" x14ac:dyDescent="0.2">
       <c r="C31" s="16"/>
@@ -4916,7 +4937,7 @@
         <f>P35</f>
         <v>0</v>
       </c>
-      <c r="I35" s="107">
+      <c r="I35" s="105">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="N35" s="61">
@@ -5087,7 +5108,7 @@
         <f t="shared" si="35"/>
         <v>6.3869999999999996</v>
       </c>
-      <c r="I40" s="90">
+      <c r="I40" s="89">
         <v>6.9950000000000001</v>
       </c>
       <c r="J40" s="66"/>
@@ -5586,7 +5607,7 @@
         <f t="shared" ref="D56" si="37">D41-D51</f>
         <v>2.233822</v>
       </c>
-      <c r="E56" s="89">
+      <c r="E56" s="88">
         <f t="shared" ref="E56:F56" si="38">E41-E51</f>
         <v>2.625874</v>
       </c>
@@ -5594,7 +5615,7 @@
         <f t="shared" si="38"/>
         <v>0.52937599999999996</v>
       </c>
-      <c r="G56" s="89">
+      <c r="G56" s="88">
         <f t="shared" ref="G56:H56" si="39">G41-G51</f>
         <v>3.5457600000000009</v>
       </c>
@@ -5602,19 +5623,19 @@
         <f t="shared" si="39"/>
         <v>7.1129999999999995</v>
       </c>
-      <c r="I56" s="89">
+      <c r="I56" s="88">
         <f t="shared" ref="I56" si="40">I41-I51</f>
         <v>8.4660000000000011</v>
       </c>
-      <c r="N56" s="89">
+      <c r="N56" s="88">
         <f t="shared" ref="N56:O56" si="41">N41-N51</f>
         <v>2.233822</v>
       </c>
-      <c r="O56" s="89">
+      <c r="O56" s="88">
         <f t="shared" si="41"/>
         <v>0.52937599999999996</v>
       </c>
-      <c r="P56" s="89">
+      <c r="P56" s="88">
         <f>P41-P51</f>
         <v>7.1129999999999995</v>
       </c>
@@ -5670,8 +5691,131 @@
       <c r="O58" s="43"/>
       <c r="P58" s="43"/>
     </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" s="62"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="62"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="62"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="62"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+    </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B61" s="32" t="s">
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="62"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="62"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D62" s="62"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="62"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="62"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="62"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="62"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="62"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="38">
+        <f t="shared" ref="D68:I68" si="46">(D14+C14)/(D41-SUM(D48:D50))</f>
+        <v>-0.94713013945390168</v>
+      </c>
+      <c r="E68" s="87">
+        <f t="shared" si="46"/>
+        <v>-0.82098736405765438</v>
+      </c>
+      <c r="F68" s="38">
+        <f t="shared" si="46"/>
+        <v>-3.0525825165747973</v>
+      </c>
+      <c r="G68" s="87">
+        <f t="shared" si="46"/>
+        <v>-0.39580630424446428</v>
+      </c>
+      <c r="H68" s="38">
+        <f t="shared" si="46"/>
+        <v>0.19620253164556961</v>
+      </c>
+      <c r="I68" s="87">
+        <f t="shared" si="46"/>
+        <v>0.17112763138524958</v>
+      </c>
+      <c r="P68" s="87">
+        <f>P14/(P41-SUM(P48:P50))</f>
+        <v>0.19620253164556978</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B71" s="32" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5683,7 +5827,8 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="119" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
   <ignoredErrors>
-    <ignoredError sqref="D16 F16 F7 F41 F51 H7 H16 H51 H54" formula="1"/>
+    <ignoredError sqref="D16 F16 F7 F41 F51 H7 H16 H51 H54 H41" formula="1"/>
+    <ignoredError sqref="I68 P68 D68:G68" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
 </worksheet>
@@ -5705,11 +5850,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C2" s="22">

--- a/£MHC.xlsx
+++ b/£MHC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D031E8F-6CCD-C641-95B5-7361C37EBDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FC2545-068C-4A43-BB5F-746A9AD0B12D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="500" windowWidth="28800" windowHeight="18900" activeTab="1" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
+    <workbookView xWindow="2685" yWindow="495" windowWidth="28800" windowHeight="18900" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -533,17 +533,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0;[Red]\ \ \-\ #,##0.0\ ;&quot;-&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0%"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0;[Black]\(#,##0.0\)\ "/>
-    <numFmt numFmtId="170" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="0.0\x"/>
-    <numFmt numFmtId="174" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0;[Red]\ \ \-\ #,##0.0\ ;&quot;-&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0;[Black]\(#,##0.0\)\ "/>
+    <numFmt numFmtId="169" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0\x"/>
+    <numFmt numFmtId="173" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -844,7 +844,7 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -855,23 +855,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -882,7 +882,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -906,11 +906,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="8" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -927,20 +927,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -969,7 +969,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -998,13 +998,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1014,7 +1014,13 @@
     <xf numFmtId="17" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1027,6 +1033,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1053,36 +1083,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1092,7 +1092,7 @@
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="3" builtinId="5"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1603,17 +1603,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A865B090-C0E4-4B85-AA22-AACD646D3083}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38:V38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1622,7 +1622,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1632,13 +1632,13 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="J2" s="111" t="s">
+      <c r="J2" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="112"/>
-      <c r="L2" s="113"/>
-    </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="K2" s="114"/>
+      <c r="L2" s="115"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -1651,12 +1651,12 @@
       <c r="J3" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="114" t="s">
+      <c r="K3" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="115"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L3" s="125"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1667,16 +1667,16 @@
       <c r="J4" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="114"/>
-      <c r="L4" s="115"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K4" s="124"/>
+      <c r="L4" s="125"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
+      <c r="B5" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="114"/>
+      <c r="D5" s="115"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1690,7 +1690,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>1</v>
@@ -1705,12 +1705,12 @@
       <c r="J6" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="116" t="s">
+      <c r="K6" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="117"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L6" s="127"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
@@ -1725,7 +1725,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
         <v>3</v>
@@ -1739,7 +1739,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
         <v>4</v>
@@ -1751,19 +1751,19 @@
         <v>90</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="113"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="115"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
         <v>5</v>
@@ -1789,7 +1789,7 @@
       <c r="M10" s="33"/>
       <c r="N10" s="26"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
@@ -1814,7 +1814,7 @@
       <c r="M11" s="33"/>
       <c r="N11" s="26"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="9" t="s">
         <v>7</v>
@@ -1839,7 +1839,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1859,7 +1859,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="26"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1879,13 +1879,13 @@
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="113"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="115"/>
       <c r="E15" s="1"/>
       <c r="F15" s="44">
         <v>44287</v>
@@ -1901,15 +1901,15 @@
       <c r="M15" s="25"/>
       <c r="N15" s="26"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="124"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="1"/>
       <c r="F16" s="44">
         <v>44317</v>
@@ -1925,14 +1925,14 @@
       <c r="M16" s="25"/>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="124"/>
+      <c r="D17" s="116"/>
       <c r="F17" s="44">
         <v>44348</v>
       </c>
@@ -1947,12 +1947,12 @@
       <c r="M17" s="25"/>
       <c r="N17" s="26"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
       <c r="F18" s="44">
         <v>44409</v>
       </c>
@@ -1967,10 +1967,10 @@
       <c r="M18" s="25"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
       <c r="F19" s="44">
         <v>44440</v>
       </c>
@@ -1985,14 +1985,14 @@
       <c r="M19" s="25"/>
       <c r="N19" s="26"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="123" t="s">
+      <c r="C20" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="124"/>
+      <c r="D20" s="116"/>
       <c r="F20" s="44">
         <v>44501</v>
       </c>
@@ -2007,10 +2007,10 @@
       <c r="M20" s="25"/>
       <c r="N20" s="26"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
       <c r="F21" s="44">
         <v>44652</v>
       </c>
@@ -2025,10 +2025,10 @@
       <c r="M21" s="25"/>
       <c r="N21" s="26"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="20"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="126"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="118"/>
       <c r="F22" s="44">
         <v>44726</v>
       </c>
@@ -2043,7 +2043,7 @@
       <c r="M22" s="25"/>
       <c r="N22" s="26"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F23" s="44"/>
       <c r="G23" s="85" t="s">
         <v>134</v>
@@ -2056,7 +2056,7 @@
       <c r="M23" s="25"/>
       <c r="N23" s="26"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F24" s="44">
         <v>44743</v>
       </c>
@@ -2070,13 +2070,13 @@
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="26"/>
-      <c r="P24" s="111" t="s">
+      <c r="P24" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="113"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q24" s="114"/>
+      <c r="R24" s="115"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F25" s="44">
         <v>44743</v>
       </c>
@@ -2093,12 +2093,12 @@
       <c r="P25" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="Q25" s="129" t="s">
+      <c r="Q25" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="R25" s="130"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R25" s="110"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F26" s="44">
         <v>44774</v>
       </c>
@@ -2115,17 +2115,17 @@
       <c r="P26" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="Q26" s="129" t="s">
+      <c r="Q26" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="R26" s="130"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="122" t="s">
+      <c r="R26" s="110"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="113"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="115"/>
       <c r="F27" s="45">
         <v>44835</v>
       </c>
@@ -2140,67 +2140,67 @@
       <c r="M27" s="27"/>
       <c r="N27" s="28"/>
       <c r="P27" s="92"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="110"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q27" s="111"/>
+      <c r="R27" s="112"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28" s="29">
         <v>43922</v>
       </c>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="124"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D28" s="116"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="30">
         <v>44228</v>
       </c>
-      <c r="C29" s="125" t="s">
+      <c r="C29" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="126"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="122" t="s">
+      <c r="D29" s="118"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="112"/>
-      <c r="D31" s="113"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C31" s="114"/>
+      <c r="D31" s="115"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" s="29">
         <v>44136</v>
       </c>
-      <c r="C32" s="123" t="s">
+      <c r="C32" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="124"/>
-      <c r="F32" s="111" t="s">
+      <c r="D32" s="116"/>
+      <c r="F32" s="113" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="113"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="115"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="31">
         <v>44348</v>
       </c>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="126"/>
-      <c r="F33" s="118" t="s">
+      <c r="D33" s="118"/>
+      <c r="F33" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="119"/>
+      <c r="G33" s="129"/>
       <c r="H33" s="25" t="s">
         <v>108</v>
       </c>
@@ -2212,11 +2212,11 @@
       <c r="N33" s="25"/>
       <c r="O33" s="26"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F34" s="118" t="s">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F34" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="119"/>
+      <c r="G34" s="129"/>
       <c r="H34" s="25" t="s">
         <v>109</v>
       </c>
@@ -2228,11 +2228,11 @@
       <c r="N34" s="25"/>
       <c r="O34" s="26"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F35" s="120" t="s">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F35" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="121"/>
+      <c r="G35" s="131"/>
       <c r="H35" s="81" t="s">
         <v>135</v>
       </c>
@@ -2247,94 +2247,75 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="111" t="s">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="112"/>
-      <c r="D36" s="113"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C36" s="114"/>
+      <c r="D36" s="115"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="127">
+      <c r="C37" s="121">
         <f>C6/SUM('Financial Model'!H19:I19)</f>
         <v>5.1421061777869195</v>
       </c>
-      <c r="D37" s="128"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D37" s="122"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="127">
+      <c r="C38" s="121">
         <f>C6/'Financial Model'!I57</f>
         <v>1.5093231750531537</v>
       </c>
-      <c r="D38" s="128"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D38" s="122"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="127">
+      <c r="C39" s="121">
         <f>C8/SUM('Financial Model'!H4:I4)</f>
         <v>0.56124384670610328</v>
       </c>
-      <c r="D39" s="128"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D39" s="122"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="127">
+      <c r="C40" s="121">
         <f>C12/SUM('Financial Model'!H4:I4)</f>
         <v>0.25601823156202919</v>
       </c>
-      <c r="D40" s="128"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D40" s="122"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="107" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="127">
+      <c r="C41" s="121">
         <f>C12/SUM('Financial Model'!H18:I18)</f>
         <v>2.5732692238581207</v>
       </c>
-      <c r="D41" s="128"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D41" s="122"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="108" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="109">
+      <c r="C42" s="123">
         <f>'Financial Model'!I68</f>
         <v>0.17112763138524958</v>
       </c>
-      <c r="D42" s="110"/>
+      <c r="D42" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -2351,6 +2332,25 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K6:L6" r:id="rId1" display="Link" xr:uid="{EBABCF04-F876-4DF1-ADF1-1B6F62DC4548}"/>
@@ -2367,31 +2367,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80596E7F-DECF-497C-AD87-2DA392DA01F4}">
   <dimension ref="B1:BH71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="36" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="36" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="36"/>
-    <col min="13" max="16" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="36"/>
+    <col min="13" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C1" s="13" t="s">
         <v>87</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="2:27" s="98" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:27" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="95"/>
       <c r="C2" s="21">
         <v>43646</v>
@@ -2534,7 +2534,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:27" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
       <c r="C3" s="14"/>
       <c r="D3" s="35"/>
@@ -2562,7 +2562,7 @@
       <c r="Z3" s="46"/>
       <c r="AA3" s="46"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>190.64173102378848</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>131.54279440641406</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>59.098936617374427</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>34</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>2.5529999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>3.0790000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>55</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>56.019936617374427</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>9.7928837876293681E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>26</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>55.922007779498131</v>
       </c>
     </row>
-    <row r="17" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>24</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>39.426438587991925</v>
       </c>
     </row>
-    <row r="19" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>32</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>9.1329851754652344E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>2</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>710.85199999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>28</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
         <v>30</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>154.42854876708077</v>
       </c>
     </row>
-    <row r="25" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:60" x14ac:dyDescent="0.25">
       <c r="AC26" s="48" t="s">
         <v>123</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>161.42854876708077</v>
       </c>
     </row>
-    <row r="27" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>93</v>
       </c>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="AF27" s="104"/>
     </row>
-    <row r="28" spans="2:60" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:60" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>97</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:60" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>128</v>
       </c>
@@ -4783,7 +4783,7 @@
       <c r="AC29" s="48"/>
       <c r="AD29" s="49"/>
     </row>
-    <row r="30" spans="2:60" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:60" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>129</v>
       </c>
@@ -4843,7 +4843,7 @@
       <c r="AC30" s="50"/>
       <c r="AD30" s="103"/>
     </row>
-    <row r="31" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C31" s="16"/>
       <c r="D31" s="67"/>
       <c r="E31" s="18"/>
@@ -4868,7 +4868,7 @@
       <c r="AC31" s="48"/>
       <c r="AD31" s="49"/>
     </row>
-    <row r="32" spans="2:60" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:60" x14ac:dyDescent="0.25">
       <c r="AC32" s="51" t="s">
         <v>126</v>
       </c>
@@ -4877,12 +4877,12 @@
         <v>12.541563678711567</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>69</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>70</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>71</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>2.2890000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>72</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>0.497</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>73</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>2.3319999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>74</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>4</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>6.3869999999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>75</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>11.667999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D42" s="62"/>
       <c r="E42" s="43"/>
       <c r="F42" s="62">
@@ -5181,7 +5181,7 @@
       <c r="O42" s="43"/>
       <c r="P42" s="43"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>76</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>3.3149999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>77</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>78</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>79</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>80</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>130</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>82</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>83</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>84</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>4.5549999999999997</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D52" s="62"/>
       <c r="E52" s="43"/>
       <c r="F52" s="62"/>
@@ -5515,7 +5515,7 @@
       <c r="O52" s="43"/>
       <c r="P52" s="43"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>85</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>7.1130000000000004</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>86</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>11.667999999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D55" s="62"/>
       <c r="E55" s="43"/>
       <c r="F55" s="62"/>
@@ -5599,7 +5599,7 @@
       <c r="O55" s="43"/>
       <c r="P55" s="43"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>143</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>7.1129999999999995</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>144</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>1.0006302296399251E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D58" s="62"/>
       <c r="E58" s="43"/>
       <c r="F58" s="62"/>
@@ -5691,7 +5691,7 @@
       <c r="O58" s="43"/>
       <c r="P58" s="43"/>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>162</v>
       </c>
@@ -5704,7 +5704,7 @@
       <c r="O59" s="43"/>
       <c r="P59" s="43"/>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>3</v>
       </c>
@@ -5717,7 +5717,7 @@
       <c r="O60" s="43"/>
       <c r="P60" s="43"/>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>7</v>
       </c>
@@ -5730,7 +5730,7 @@
       <c r="O61" s="43"/>
       <c r="P61" s="43"/>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D62" s="62"/>
       <c r="E62" s="43"/>
       <c r="F62" s="62"/>
@@ -5740,7 +5740,7 @@
       <c r="O62" s="43"/>
       <c r="P62" s="43"/>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>142</v>
       </c>
@@ -5753,7 +5753,7 @@
       <c r="O63" s="43"/>
       <c r="P63" s="43"/>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>159</v>
       </c>
@@ -5766,22 +5766,22 @@
       <c r="O64" s="43"/>
       <c r="P64" s="43"/>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>161</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>0.19620253164556978</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" s="32" t="s">
         <v>137</v>
       </c>
@@ -5842,21 +5842,21 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="132" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="132"/>
       <c r="D1" s="132"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" s="22">
         <v>44196</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>44342</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="41" t="s">
         <v>39</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>53</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
         <v>40</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="41" t="s">
         <v>41</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="41" t="s">
         <v>42</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="41" t="s">
         <v>44</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="41" t="s">
         <v>43</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
         <v>45</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="41" t="s">
         <v>46</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="41" t="s">
         <v>47</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="41" t="s">
         <v>48</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>107</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>127</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>49</v>
       </c>

--- a/£MHC.xlsx
+++ b/£MHC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FC2545-068C-4A43-BB5F-746A9AD0B12D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E9525E-25BF-472C-B693-94E13EC62CA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="495" windowWidth="28800" windowHeight="18900" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
   </bookViews>
@@ -16,28 +16,19 @@
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
     <sheet name="Substantial Holdings" sheetId="3" r:id="rId3"/>
+    <sheet name="Historical Projections" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="237">
   <si>
     <t>Stock Snapshot</t>
   </si>
@@ -526,6 +517,228 @@
   </si>
   <si>
     <t>Share Price</t>
+  </si>
+  <si>
+    <t>FY22 Results Presentation</t>
+  </si>
+  <si>
+    <t>36% Y/Y revenue growth</t>
+  </si>
+  <si>
+    <t>Soft-launched DNA portfolio in Summer 2022 (Genome Store acq.)</t>
+  </si>
+  <si>
+    <t>D2C is not the aim of MHC, B2B2C distribution network is the goal</t>
+  </si>
+  <si>
+    <t>£0.5m reinvestment into digital platform that came from Nell Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital platform aims to lock-in long-term testing relationship </t>
+  </si>
+  <si>
+    <t>Over 17.3m tests delivered into the market in FY 2022</t>
+  </si>
+  <si>
+    <t>Wide range of products aiming for Spring 2023 release</t>
+  </si>
+  <si>
+    <t>12 blood &amp; urine tests, 5 DNA products, 6 lateral flow screeners</t>
+  </si>
+  <si>
+    <t>Digital platform built with customer &amp; possibly B2B needs in mind</t>
+  </si>
+  <si>
+    <t>"Looking to launch products this year in a very short space of time"</t>
+  </si>
+  <si>
+    <t>We want to drive marketing &amp; awareness of why tests are important</t>
+  </si>
+  <si>
+    <t>Focused on growing distribution network in the UK</t>
+  </si>
+  <si>
+    <t>"To do that we will grow our team and commercial heads"</t>
+  </si>
+  <si>
+    <t>Also aim to grow B2B channels</t>
+  </si>
+  <si>
+    <t>New product portfolios launch-ready for Q2 2023</t>
+  </si>
+  <si>
+    <t>"Strong cash position so we can fund our own growth"</t>
+  </si>
+  <si>
+    <t>What are you going to do about the share price &amp; shareholder value?</t>
+  </si>
+  <si>
+    <t>"We can't do anything about share price"</t>
+  </si>
+  <si>
+    <t>"We are committed to providing shareholder value"</t>
+  </si>
+  <si>
+    <t>"Strong market presense, expanding team &amp; delivering further growth"</t>
+  </si>
+  <si>
+    <t>"We are already expanding our team this year"</t>
+  </si>
+  <si>
+    <t>"I want to run the business as well as I can"</t>
+  </si>
+  <si>
+    <t>"There are some levers we can use as a Plc and important we consider those"</t>
+  </si>
+  <si>
+    <t>"Share consolodation (reduce volatility), move us out of penny share"</t>
+  </si>
+  <si>
+    <t>"Thinking about how we can really use our cash" [share buyback]</t>
+  </si>
+  <si>
+    <t>"My commitment is always on shareholder value"</t>
+  </si>
+  <si>
+    <t>Adam: "The current share price is effectively the cash we have in the business"</t>
+  </si>
+  <si>
+    <t>Adam: "There are big disparities in the market that hopefully will resolve"</t>
+  </si>
+  <si>
+    <t>Why are the new produts late &amp; where was the explaination to the market?</t>
+  </si>
+  <si>
+    <t>"We are a business 2 business 2 consumer organisation"</t>
+  </si>
+  <si>
+    <t>"Our most effective product launches will always be driven alongside our retailer base"</t>
+  </si>
+  <si>
+    <t>"We are going to work alongside THEIR timescales alongside that"</t>
+  </si>
+  <si>
+    <t>"The kind of partnerships we're looking to work with are extremely considered</t>
+  </si>
+  <si>
+    <t>and researched and that takes time"</t>
+  </si>
+  <si>
+    <t>"We're looking forward to updating shareholders WHEN we can"</t>
+  </si>
+  <si>
+    <t>"The most successful releases will be executed in partnerships"</t>
+  </si>
+  <si>
+    <t>Why is there no marketing and sales strategy for wellness products?</t>
+  </si>
+  <si>
+    <t>"Along the same lines as previous answer"</t>
+  </si>
+  <si>
+    <t>"There is a marketing strategy but NOT in the public domain"</t>
+  </si>
+  <si>
+    <t>"We're building out launch campaigns with the relevant parties"</t>
+  </si>
+  <si>
+    <t>"Essential that we don't burn through cash which can be easily done</t>
+  </si>
+  <si>
+    <t>with pointless marketing such as PPC campaigns"</t>
+  </si>
+  <si>
+    <t>What will be different in regards to release of next line of products?</t>
+  </si>
+  <si>
+    <t>"Original portfolio was a soft launch &amp; were keen to demonstrate</t>
+  </si>
+  <si>
+    <t>ability to bring products to market that they previously announced"</t>
+  </si>
+  <si>
+    <t>"We could have held back but we wanted to show shareholders that</t>
+  </si>
+  <si>
+    <t>we can actually release products"</t>
+  </si>
+  <si>
+    <t>"Always planned to be rolled out with a greater distribution channel"</t>
+  </si>
+  <si>
+    <t>"We put them on the shop window, soft launch with a view to something</t>
+  </si>
+  <si>
+    <t>much bigger"</t>
+  </si>
+  <si>
+    <t>"We have a truly unique offering from LFT to DNA sampling"</t>
+  </si>
+  <si>
+    <t>"We have been building through a retailer partner, really unique"</t>
+  </si>
+  <si>
+    <t>"We're looking to 2023 being the year where this all happens"</t>
+  </si>
+  <si>
+    <t>Competative landscape &amp; MyHealthChecked's USP</t>
+  </si>
+  <si>
+    <t>"It is a busy market out there and a new category for consumers"</t>
+  </si>
+  <si>
+    <t>"As time goes on there will be greater demand but finite number</t>
+  </si>
+  <si>
+    <t>of suppliers who will be successful with that"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"The winners will be well-tuned into the customer with great </t>
+  </si>
+  <si>
+    <t>digital solutions tailored to the needs and wants of customers"</t>
+  </si>
+  <si>
+    <t>"It is still early-days for us, just the start of our post-COVID strategy"</t>
+  </si>
+  <si>
+    <t>"Quality of our service is really key to us, demonstrated this through</t>
+  </si>
+  <si>
+    <t>COVID. Selected by Lloyds &amp; Boots is evidence of this"</t>
+  </si>
+  <si>
+    <t>Closing Comments</t>
+  </si>
+  <si>
+    <t>"We couldn't be more proud of what we've delivered &amp; the results</t>
+  </si>
+  <si>
+    <t>we do understand the market is tricky &amp; share price is frustrating</t>
+  </si>
+  <si>
+    <t>we feel it all of the time."</t>
+  </si>
+  <si>
+    <t>"We can't control the stock market but we are committed to</t>
+  </si>
+  <si>
+    <t>delivering the best shareholder value that we can"</t>
+  </si>
+  <si>
+    <t>"Really exciting time for consumer healthcare, front and centre</t>
+  </si>
+  <si>
+    <t>with the most important health care retailers in the country"</t>
+  </si>
+  <si>
+    <t>"Continued to be well placed to rolling out the portfolio and</t>
+  </si>
+  <si>
+    <t>building the digital assets &amp; building the team"</t>
+  </si>
+  <si>
+    <t>"Most importantly to get close to our customer to meet their needs"</t>
   </si>
 </sst>
 </file>
@@ -545,7 +758,7 @@
     <numFmt numFmtId="172" formatCode="0.0\x"/>
     <numFmt numFmtId="173" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,8 +857,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,6 +931,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,7 +1088,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -898,7 +1138,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -911,12 +1150,6 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="8" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1014,13 +1247,7 @@
     <xf numFmtId="17" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1033,30 +1260,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1083,9 +1286,75 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="13" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="13" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="14" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="14" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="13" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1601,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A865B090-C0E4-4B85-AA22-AACD646D3083}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:AC105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V64" sqref="V64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,11 +1901,11 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="114"/>
-      <c r="L2" s="115"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="110"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1648,13 +1917,13 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="J3" s="91" t="s">
+      <c r="J3" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="124" t="s">
+      <c r="K3" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="125"/>
+      <c r="L3" s="112"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1664,29 +1933,29 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="J4" s="91" t="s">
+      <c r="J4" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="124"/>
-      <c r="L4" s="125"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="112"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="115"/>
+      <c r="B5" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="J5" s="91" t="s">
+      <c r="J5" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="90" t="s">
+      <c r="K5" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="106">
+      <c r="L5" s="103">
         <v>44825</v>
       </c>
     </row>
@@ -1696,19 +1965,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="23">
-        <v>1.6500000000000001E-2</v>
+        <v>1.0349000000000001E-2</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="J6" s="92" t="s">
+      <c r="J6" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="126" t="s">
+      <c r="K6" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="127"/>
+      <c r="L6" s="114"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1718,7 +1987,7 @@
       <c r="C7" s="6">
         <v>780.09</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="77" t="s">
         <v>90</v>
       </c>
       <c r="E7" s="1"/>
@@ -1732,7 +2001,7 @@
       </c>
       <c r="C8" s="6">
         <f>C6*C7</f>
-        <v>12.871485000000002</v>
+        <v>8.0731514100000012</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="1"/>
@@ -1747,21 +2016,21 @@
       <c r="C9" s="6">
         <v>7</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="77" t="s">
         <v>90</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="113" t="s">
+      <c r="F9" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="115"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="110"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -1771,11 +2040,11 @@
       <c r="C10" s="6">
         <v>0</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="77" t="s">
         <v>90</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="44">
+      <c r="F10" s="146">
         <v>43770</v>
       </c>
       <c r="G10" s="25" t="s">
@@ -1784,9 +2053,9 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
       <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1800,7 +2069,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="44">
+      <c r="F11" s="146">
         <v>43891</v>
       </c>
       <c r="G11" s="25" t="s">
@@ -1809,9 +2078,9 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
       <c r="N11" s="26"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1821,11 +2090,11 @@
       </c>
       <c r="C12" s="10">
         <f>C8-C9+C10</f>
-        <v>5.8714850000000016</v>
+        <v>1.0731514100000012</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="44">
+      <c r="F12" s="146">
         <v>44166</v>
       </c>
       <c r="G12" s="25" t="s">
@@ -1845,7 +2114,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="44">
+      <c r="F13" s="146">
         <v>44166</v>
       </c>
       <c r="G13" s="25" t="s">
@@ -1865,7 +2134,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="44">
+      <c r="F14" s="146">
         <v>44197</v>
       </c>
       <c r="G14" s="25" t="s">
@@ -1884,10 +2153,10 @@
       <c r="B15" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="115"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="44">
+      <c r="F15" s="146">
         <v>44287</v>
       </c>
       <c r="G15" s="25" t="s">
@@ -1909,9 +2178,9 @@
       <c r="C16" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="44">
+      <c r="F16" s="146">
         <v>44317</v>
       </c>
       <c r="G16" s="25" t="s">
@@ -1925,15 +2194,15 @@
       <c r="M16" s="25"/>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="116"/>
-      <c r="F17" s="44">
+      <c r="D17" s="121"/>
+      <c r="F17" s="146">
         <v>44348</v>
       </c>
       <c r="G17" s="25" t="s">
@@ -1947,13 +2216,13 @@
       <c r="M17" s="25"/>
       <c r="N17" s="26"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="F18" s="44">
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="F18" s="146">
         <v>44409</v>
       </c>
       <c r="G18" s="25" t="s">
@@ -1967,11 +2236,11 @@
       <c r="M18" s="25"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="F19" s="44">
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="F19" s="146">
         <v>44440</v>
       </c>
       <c r="G19" s="25" t="s">
@@ -1985,15 +2254,15 @@
       <c r="M19" s="25"/>
       <c r="N19" s="26"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="F20" s="44">
+      <c r="D20" s="121"/>
+      <c r="F20" s="146">
         <v>44501</v>
       </c>
       <c r="G20" s="25" t="s">
@@ -2007,11 +2276,11 @@
       <c r="M20" s="25"/>
       <c r="N20" s="26"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="F21" s="44">
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="F21" s="146">
         <v>44652</v>
       </c>
       <c r="G21" s="25" t="s">
@@ -2025,11 +2294,11 @@
       <c r="M21" s="25"/>
       <c r="N21" s="26"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="20"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="118"/>
-      <c r="F22" s="44">
+      <c r="C22" s="122"/>
+      <c r="D22" s="123"/>
+      <c r="F22" s="146">
         <v>44726</v>
       </c>
       <c r="G22" s="25" t="s">
@@ -2043,9 +2312,9 @@
       <c r="M22" s="25"/>
       <c r="N22" s="26"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="F23" s="44"/>
-      <c r="G23" s="85" t="s">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="F23" s="146"/>
+      <c r="G23" s="82" t="s">
         <v>134</v>
       </c>
       <c r="H23" s="25"/>
@@ -2056,11 +2325,11 @@
       <c r="M23" s="25"/>
       <c r="N23" s="26"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="F24" s="44">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="F24" s="146">
         <v>44743</v>
       </c>
-      <c r="G24" s="85" t="s">
+      <c r="G24" s="82" t="s">
         <v>136</v>
       </c>
       <c r="H24" s="25"/>
@@ -2070,14 +2339,23 @@
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="26"/>
-      <c r="P24" s="113" t="s">
+      <c r="P24" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="Q24" s="114"/>
-      <c r="R24" s="115"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="F25" s="44">
+      <c r="Q24" s="109"/>
+      <c r="R24" s="110"/>
+      <c r="W24" s="108" t="s">
+        <v>163</v>
+      </c>
+      <c r="X24" s="109"/>
+      <c r="Y24" s="109"/>
+      <c r="Z24" s="109"/>
+      <c r="AA24" s="109"/>
+      <c r="AB24" s="109"/>
+      <c r="AC24" s="110"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="F25" s="146">
         <v>44743</v>
       </c>
       <c r="G25" s="25" t="s">
@@ -2090,16 +2368,25 @@
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
       <c r="N25" s="26"/>
-      <c r="P25" s="91" t="s">
+      <c r="P25" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="Q25" s="109" t="s">
+      <c r="Q25" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="R25" s="110"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="F26" s="44">
+      <c r="R25" s="127"/>
+      <c r="W25" s="144" t="s">
+        <v>164</v>
+      </c>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="26"/>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="F26" s="146">
         <v>44774</v>
       </c>
       <c r="G26" s="25" t="s">
@@ -2112,95 +2399,171 @@
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
       <c r="N26" s="26"/>
-      <c r="P26" s="91" t="s">
+      <c r="P26" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="Q26" s="109" t="s">
+      <c r="Q26" s="126" t="s">
         <v>152</v>
       </c>
-      <c r="R26" s="110"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R26" s="127"/>
+      <c r="W26" s="144" t="s">
+        <v>169</v>
+      </c>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="26"/>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="115"/>
-      <c r="F27" s="45">
+      <c r="C27" s="109"/>
+      <c r="D27" s="110"/>
+      <c r="F27" s="146">
         <v>44835</v>
       </c>
-      <c r="G27" s="86" t="s">
+      <c r="G27" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="28"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="112"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="26"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="107"/>
+      <c r="W27" s="144" t="s">
+        <v>165</v>
+      </c>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="26"/>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" s="29">
         <v>43922</v>
       </c>
       <c r="C28" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="116"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D28" s="121"/>
+      <c r="F28" s="147">
+        <v>45017</v>
+      </c>
+      <c r="G28" s="83"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="28"/>
+      <c r="W28" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="26"/>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B29" s="30">
         <v>44228</v>
       </c>
-      <c r="C29" s="117" t="s">
+      <c r="C29" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="118"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D29" s="123"/>
+      <c r="W29" s="144" t="s">
+        <v>167</v>
+      </c>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="26"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W30" s="144" t="s">
+        <v>168</v>
+      </c>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="26"/>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B31" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="114"/>
-      <c r="D31" s="115"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C31" s="109"/>
+      <c r="D31" s="110"/>
+      <c r="W31" s="144" t="s">
+        <v>170</v>
+      </c>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="26"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32" s="29">
         <v>44136</v>
       </c>
       <c r="C32" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="116"/>
-      <c r="F32" s="113" t="s">
+      <c r="D32" s="121"/>
+      <c r="F32" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="115"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="110"/>
+      <c r="W32" s="149" t="s">
+        <v>171</v>
+      </c>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="26"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33" s="31">
         <v>44348</v>
       </c>
-      <c r="C33" s="117" t="s">
+      <c r="C33" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="118"/>
-      <c r="F33" s="128" t="s">
+      <c r="D33" s="123"/>
+      <c r="F33" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="129"/>
+      <c r="G33" s="116"/>
       <c r="H33" s="25" t="s">
         <v>108</v>
       </c>
@@ -2211,12 +2574,21 @@
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
       <c r="O33" s="26"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F34" s="128" t="s">
+      <c r="W33" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="26"/>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="F34" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="129"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="25" t="s">
         <v>109</v>
       </c>
@@ -2227,13 +2599,22 @@
       <c r="M34" s="25"/>
       <c r="N34" s="25"/>
       <c r="O34" s="26"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F35" s="130" t="s">
+      <c r="W34" s="144" t="s">
+        <v>173</v>
+      </c>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="26"/>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="F35" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="131"/>
-      <c r="H35" s="81" t="s">
+      <c r="G35" s="118"/>
+      <c r="H35" s="78" t="s">
         <v>135</v>
       </c>
       <c r="I35" s="27"/>
@@ -2243,79 +2624,848 @@
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
       <c r="O35" s="28"/>
-      <c r="P35" s="82" t="s">
+      <c r="P35" s="79" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="113" t="s">
+      <c r="W35" s="149" t="s">
+        <v>174</v>
+      </c>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="26"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B36" s="108" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="114"/>
-      <c r="D36" s="115"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="107" t="s">
+      <c r="C36" s="109"/>
+      <c r="D36" s="110"/>
+      <c r="W36" s="144" t="s">
+        <v>175</v>
+      </c>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="26"/>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B37" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="121">
+      <c r="C37" s="124">
         <f>C6/SUM('Financial Model'!H19:I19)</f>
-        <v>5.1421061777869195</v>
-      </c>
-      <c r="D37" s="122"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="107" t="s">
+        <v>3.225191323267687</v>
+      </c>
+      <c r="D37" s="125"/>
+      <c r="W37" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="26"/>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B38" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="121">
+      <c r="C38" s="124">
         <f>C6/'Financial Model'!I57</f>
-        <v>1.5093231750531537</v>
-      </c>
-      <c r="D38" s="122"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="107" t="s">
+        <v>0.94666579021970221</v>
+      </c>
+      <c r="D38" s="125"/>
+      <c r="W38" s="149" t="s">
+        <v>177</v>
+      </c>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="26"/>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B39" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="121">
+      <c r="C39" s="124">
         <f>C8/SUM('Financial Model'!H4:I4)</f>
-        <v>0.56124384670610328</v>
-      </c>
-      <c r="D39" s="122"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="107" t="s">
+        <v>0.35201894360978564</v>
+      </c>
+      <c r="D39" s="125"/>
+      <c r="W39" s="144" t="s">
+        <v>178</v>
+      </c>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="26"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B40" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="121">
+      <c r="C40" s="124">
         <f>C12/SUM('Financial Model'!H4:I4)</f>
-        <v>0.25601823156202919</v>
-      </c>
-      <c r="D40" s="122"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="107" t="s">
+        <v>4.6793328465711555E-2</v>
+      </c>
+      <c r="D40" s="125"/>
+      <c r="W40" s="150" t="s">
+        <v>179</v>
+      </c>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="26"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B41" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="121">
+      <c r="C41" s="124">
         <f>C12/SUM('Financial Model'!H18:I18)</f>
-        <v>2.5732692238581207</v>
-      </c>
-      <c r="D41" s="122"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="108" t="s">
+        <v>0.47032522366879081</v>
+      </c>
+      <c r="D41" s="125"/>
+      <c r="W41" s="144"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="26"/>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B42" s="105" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="123">
+      <c r="C42" s="106">
         <f>'Financial Model'!I68</f>
         <v>0.17112763138524958</v>
       </c>
-      <c r="D42" s="112"/>
+      <c r="D42" s="107"/>
+      <c r="W42" s="151" t="s">
+        <v>180</v>
+      </c>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="26"/>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W43" s="144" t="s">
+        <v>181</v>
+      </c>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="26"/>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W44" s="144" t="s">
+        <v>182</v>
+      </c>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="26"/>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W45" s="144" t="s">
+        <v>183</v>
+      </c>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="26"/>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W46" s="144" t="s">
+        <v>184</v>
+      </c>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="26"/>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W47" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="26"/>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W48" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="26"/>
+    </row>
+    <row r="49" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W49" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="25"/>
+      <c r="AC49" s="26"/>
+    </row>
+    <row r="50" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W50" s="144" t="s">
+        <v>188</v>
+      </c>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="25"/>
+      <c r="AA50" s="25"/>
+      <c r="AB50" s="25"/>
+      <c r="AC50" s="26"/>
+    </row>
+    <row r="51" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W51" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="26"/>
+    </row>
+    <row r="52" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W52" s="144"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="25"/>
+      <c r="AA52" s="25"/>
+      <c r="AB52" s="25"/>
+      <c r="AC52" s="26"/>
+    </row>
+    <row r="53" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W53" s="144" t="s">
+        <v>190</v>
+      </c>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
+      <c r="AA53" s="25"/>
+      <c r="AB53" s="25"/>
+      <c r="AC53" s="26"/>
+    </row>
+    <row r="54" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W54" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="25"/>
+      <c r="AA54" s="25"/>
+      <c r="AB54" s="25"/>
+      <c r="AC54" s="26"/>
+    </row>
+    <row r="55" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W55" s="144"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="25"/>
+      <c r="AA55" s="25"/>
+      <c r="AB55" s="25"/>
+      <c r="AC55" s="26"/>
+    </row>
+    <row r="56" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W56" s="151" t="s">
+        <v>192</v>
+      </c>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="25"/>
+      <c r="AA56" s="25"/>
+      <c r="AB56" s="25"/>
+      <c r="AC56" s="26"/>
+    </row>
+    <row r="57" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W57" s="144" t="s">
+        <v>193</v>
+      </c>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="25"/>
+      <c r="Z57" s="25"/>
+      <c r="AA57" s="25"/>
+      <c r="AB57" s="25"/>
+      <c r="AC57" s="26"/>
+    </row>
+    <row r="58" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W58" s="144" t="s">
+        <v>194</v>
+      </c>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="25"/>
+      <c r="Z58" s="25"/>
+      <c r="AA58" s="25"/>
+      <c r="AB58" s="25"/>
+      <c r="AC58" s="26"/>
+    </row>
+    <row r="59" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W59" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="25"/>
+      <c r="Z59" s="25"/>
+      <c r="AA59" s="25"/>
+      <c r="AB59" s="25"/>
+      <c r="AC59" s="26"/>
+    </row>
+    <row r="60" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W60" s="144" t="s">
+        <v>196</v>
+      </c>
+      <c r="X60" s="25"/>
+      <c r="Y60" s="25"/>
+      <c r="Z60" s="25"/>
+      <c r="AA60" s="25"/>
+      <c r="AB60" s="25"/>
+      <c r="AC60" s="26"/>
+    </row>
+    <row r="61" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W61" s="148" t="s">
+        <v>197</v>
+      </c>
+      <c r="X61" s="25"/>
+      <c r="Y61" s="25"/>
+      <c r="Z61" s="25"/>
+      <c r="AA61" s="25"/>
+      <c r="AB61" s="25"/>
+      <c r="AC61" s="26"/>
+    </row>
+    <row r="62" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W62" s="144" t="s">
+        <v>198</v>
+      </c>
+      <c r="X62" s="25"/>
+      <c r="Y62" s="25"/>
+      <c r="Z62" s="25"/>
+      <c r="AA62" s="25"/>
+      <c r="AB62" s="25"/>
+      <c r="AC62" s="26"/>
+    </row>
+    <row r="63" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W63" s="144" t="s">
+        <v>199</v>
+      </c>
+      <c r="X63" s="25"/>
+      <c r="Y63" s="25"/>
+      <c r="Z63" s="25"/>
+      <c r="AA63" s="25"/>
+      <c r="AB63" s="25"/>
+      <c r="AC63" s="26"/>
+    </row>
+    <row r="64" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W64" s="144"/>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="25"/>
+      <c r="Z64" s="25"/>
+      <c r="AA64" s="25"/>
+      <c r="AB64" s="25"/>
+      <c r="AC64" s="26"/>
+    </row>
+    <row r="65" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W65" s="151" t="s">
+        <v>200</v>
+      </c>
+      <c r="X65" s="25"/>
+      <c r="Y65" s="25"/>
+      <c r="Z65" s="25"/>
+      <c r="AA65" s="25"/>
+      <c r="AB65" s="25"/>
+      <c r="AC65" s="26"/>
+    </row>
+    <row r="66" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W66" s="144" t="s">
+        <v>201</v>
+      </c>
+      <c r="X66" s="25"/>
+      <c r="Y66" s="25"/>
+      <c r="Z66" s="25"/>
+      <c r="AA66" s="25"/>
+      <c r="AB66" s="25"/>
+      <c r="AC66" s="26"/>
+    </row>
+    <row r="67" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W67" s="144" t="s">
+        <v>202</v>
+      </c>
+      <c r="X67" s="25"/>
+      <c r="Y67" s="25"/>
+      <c r="Z67" s="25"/>
+      <c r="AA67" s="25"/>
+      <c r="AB67" s="25"/>
+      <c r="AC67" s="26"/>
+    </row>
+    <row r="68" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W68" s="144" t="s">
+        <v>203</v>
+      </c>
+      <c r="X68" s="25"/>
+      <c r="Y68" s="25"/>
+      <c r="Z68" s="25"/>
+      <c r="AA68" s="25"/>
+      <c r="AB68" s="25"/>
+      <c r="AC68" s="26"/>
+    </row>
+    <row r="69" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W69" s="144" t="s">
+        <v>204</v>
+      </c>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="25"/>
+      <c r="AB69" s="25"/>
+      <c r="AC69" s="26"/>
+    </row>
+    <row r="70" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W70" s="148" t="s">
+        <v>205</v>
+      </c>
+      <c r="X70" s="25"/>
+      <c r="Y70" s="25"/>
+      <c r="Z70" s="25"/>
+      <c r="AA70" s="25"/>
+      <c r="AB70" s="25"/>
+      <c r="AC70" s="26"/>
+    </row>
+    <row r="71" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W71" s="144"/>
+      <c r="X71" s="25"/>
+      <c r="Y71" s="25"/>
+      <c r="Z71" s="25"/>
+      <c r="AA71" s="25"/>
+      <c r="AB71" s="25"/>
+      <c r="AC71" s="26"/>
+    </row>
+    <row r="72" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W72" s="151" t="s">
+        <v>206</v>
+      </c>
+      <c r="X72" s="25"/>
+      <c r="Y72" s="25"/>
+      <c r="Z72" s="25"/>
+      <c r="AA72" s="25"/>
+      <c r="AB72" s="25"/>
+      <c r="AC72" s="26"/>
+    </row>
+    <row r="73" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W73" s="144" t="s">
+        <v>207</v>
+      </c>
+      <c r="X73" s="25"/>
+      <c r="Y73" s="25"/>
+      <c r="Z73" s="25"/>
+      <c r="AA73" s="25"/>
+      <c r="AB73" s="25"/>
+      <c r="AC73" s="26"/>
+    </row>
+    <row r="74" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W74" s="148" t="s">
+        <v>208</v>
+      </c>
+      <c r="X74" s="25"/>
+      <c r="Y74" s="25"/>
+      <c r="Z74" s="25"/>
+      <c r="AA74" s="25"/>
+      <c r="AB74" s="25"/>
+      <c r="AC74" s="26"/>
+    </row>
+    <row r="75" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W75" s="144" t="s">
+        <v>209</v>
+      </c>
+      <c r="X75" s="25"/>
+      <c r="Y75" s="25"/>
+      <c r="Z75" s="25"/>
+      <c r="AA75" s="25"/>
+      <c r="AB75" s="25"/>
+      <c r="AC75" s="26"/>
+    </row>
+    <row r="76" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W76" s="148" t="s">
+        <v>210</v>
+      </c>
+      <c r="X76" s="25"/>
+      <c r="Y76" s="25"/>
+      <c r="Z76" s="25"/>
+      <c r="AA76" s="25"/>
+      <c r="AB76" s="25"/>
+      <c r="AC76" s="26"/>
+    </row>
+    <row r="77" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W77" s="144" t="s">
+        <v>211</v>
+      </c>
+      <c r="X77" s="25"/>
+      <c r="Y77" s="25"/>
+      <c r="Z77" s="25"/>
+      <c r="AA77" s="25"/>
+      <c r="AB77" s="25"/>
+      <c r="AC77" s="26"/>
+    </row>
+    <row r="78" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W78" s="144" t="s">
+        <v>212</v>
+      </c>
+      <c r="X78" s="25"/>
+      <c r="Y78" s="25"/>
+      <c r="Z78" s="25"/>
+      <c r="AA78" s="25"/>
+      <c r="AB78" s="25"/>
+      <c r="AC78" s="26"/>
+    </row>
+    <row r="79" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W79" s="148" t="s">
+        <v>213</v>
+      </c>
+      <c r="X79" s="25"/>
+      <c r="Y79" s="25"/>
+      <c r="Z79" s="25"/>
+      <c r="AA79" s="25"/>
+      <c r="AB79" s="25"/>
+      <c r="AC79" s="26"/>
+    </row>
+    <row r="80" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W80" s="144" t="s">
+        <v>214</v>
+      </c>
+      <c r="X80" s="25"/>
+      <c r="Y80" s="25"/>
+      <c r="Z80" s="25"/>
+      <c r="AA80" s="25"/>
+      <c r="AB80" s="25"/>
+      <c r="AC80" s="26"/>
+    </row>
+    <row r="81" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W81" s="144" t="s">
+        <v>215</v>
+      </c>
+      <c r="X81" s="25"/>
+      <c r="Y81" s="25"/>
+      <c r="Z81" s="25"/>
+      <c r="AA81" s="25"/>
+      <c r="AB81" s="25"/>
+      <c r="AC81" s="26"/>
+    </row>
+    <row r="82" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W82" s="144" t="s">
+        <v>216</v>
+      </c>
+      <c r="X82" s="25"/>
+      <c r="Y82" s="25"/>
+      <c r="Z82" s="25"/>
+      <c r="AA82" s="25"/>
+      <c r="AB82" s="25"/>
+      <c r="AC82" s="26"/>
+    </row>
+    <row r="83" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W83" s="144"/>
+      <c r="X83" s="25"/>
+      <c r="Y83" s="25"/>
+      <c r="Z83" s="25"/>
+      <c r="AA83" s="25"/>
+      <c r="AB83" s="25"/>
+      <c r="AC83" s="26"/>
+    </row>
+    <row r="84" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W84" s="151" t="s">
+        <v>217</v>
+      </c>
+      <c r="X84" s="25"/>
+      <c r="Y84" s="25"/>
+      <c r="Z84" s="25"/>
+      <c r="AA84" s="25"/>
+      <c r="AB84" s="25"/>
+      <c r="AC84" s="26"/>
+    </row>
+    <row r="85" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W85" s="144" t="s">
+        <v>218</v>
+      </c>
+      <c r="X85" s="25"/>
+      <c r="Y85" s="25"/>
+      <c r="Z85" s="25"/>
+      <c r="AA85" s="25"/>
+      <c r="AB85" s="25"/>
+      <c r="AC85" s="26"/>
+    </row>
+    <row r="86" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W86" s="144" t="s">
+        <v>219</v>
+      </c>
+      <c r="X86" s="25"/>
+      <c r="Y86" s="25"/>
+      <c r="Z86" s="25"/>
+      <c r="AA86" s="25"/>
+      <c r="AB86" s="25"/>
+      <c r="AC86" s="26"/>
+    </row>
+    <row r="87" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W87" s="148" t="s">
+        <v>220</v>
+      </c>
+      <c r="X87" s="25"/>
+      <c r="Y87" s="25"/>
+      <c r="Z87" s="25"/>
+      <c r="AA87" s="25"/>
+      <c r="AB87" s="25"/>
+      <c r="AC87" s="26"/>
+    </row>
+    <row r="88" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W88" s="144" t="s">
+        <v>221</v>
+      </c>
+      <c r="X88" s="25"/>
+      <c r="Y88" s="25"/>
+      <c r="Z88" s="25"/>
+      <c r="AA88" s="25"/>
+      <c r="AB88" s="25"/>
+      <c r="AC88" s="26"/>
+    </row>
+    <row r="89" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W89" s="148" t="s">
+        <v>222</v>
+      </c>
+      <c r="X89" s="25"/>
+      <c r="Y89" s="25"/>
+      <c r="Z89" s="25"/>
+      <c r="AA89" s="25"/>
+      <c r="AB89" s="25"/>
+      <c r="AC89" s="26"/>
+    </row>
+    <row r="90" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W90" s="144" t="s">
+        <v>223</v>
+      </c>
+      <c r="X90" s="25"/>
+      <c r="Y90" s="25"/>
+      <c r="Z90" s="25"/>
+      <c r="AA90" s="25"/>
+      <c r="AB90" s="25"/>
+      <c r="AC90" s="26"/>
+    </row>
+    <row r="91" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W91" s="144" t="s">
+        <v>224</v>
+      </c>
+      <c r="X91" s="25"/>
+      <c r="Y91" s="25"/>
+      <c r="Z91" s="25"/>
+      <c r="AA91" s="25"/>
+      <c r="AB91" s="25"/>
+      <c r="AC91" s="26"/>
+    </row>
+    <row r="92" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W92" s="148" t="s">
+        <v>225</v>
+      </c>
+      <c r="X92" s="25"/>
+      <c r="Y92" s="25"/>
+      <c r="Z92" s="25"/>
+      <c r="AA92" s="25"/>
+      <c r="AB92" s="25"/>
+      <c r="AC92" s="26"/>
+    </row>
+    <row r="93" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W93" s="144"/>
+      <c r="X93" s="25"/>
+      <c r="Y93" s="25"/>
+      <c r="Z93" s="25"/>
+      <c r="AA93" s="25"/>
+      <c r="AB93" s="25"/>
+      <c r="AC93" s="26"/>
+    </row>
+    <row r="94" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W94" s="144"/>
+      <c r="X94" s="25"/>
+      <c r="Y94" s="25"/>
+      <c r="Z94" s="25"/>
+      <c r="AA94" s="25"/>
+      <c r="AB94" s="25"/>
+      <c r="AC94" s="26"/>
+    </row>
+    <row r="95" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W95" s="151" t="s">
+        <v>226</v>
+      </c>
+      <c r="X95" s="25"/>
+      <c r="Y95" s="25"/>
+      <c r="Z95" s="25"/>
+      <c r="AA95" s="25"/>
+      <c r="AB95" s="25"/>
+      <c r="AC95" s="26"/>
+    </row>
+    <row r="96" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W96" s="144" t="s">
+        <v>227</v>
+      </c>
+      <c r="X96" s="25"/>
+      <c r="Y96" s="25"/>
+      <c r="Z96" s="25"/>
+      <c r="AA96" s="25"/>
+      <c r="AB96" s="25"/>
+      <c r="AC96" s="26"/>
+    </row>
+    <row r="97" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W97" s="144" t="s">
+        <v>228</v>
+      </c>
+      <c r="X97" s="25"/>
+      <c r="Y97" s="25"/>
+      <c r="Z97" s="25"/>
+      <c r="AA97" s="25"/>
+      <c r="AB97" s="25"/>
+      <c r="AC97" s="26"/>
+    </row>
+    <row r="98" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W98" s="144" t="s">
+        <v>229</v>
+      </c>
+      <c r="X98" s="25"/>
+      <c r="Y98" s="25"/>
+      <c r="Z98" s="25"/>
+      <c r="AA98" s="25"/>
+      <c r="AB98" s="25"/>
+      <c r="AC98" s="26"/>
+    </row>
+    <row r="99" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W99" s="144" t="s">
+        <v>230</v>
+      </c>
+      <c r="X99" s="25"/>
+      <c r="Y99" s="25"/>
+      <c r="Z99" s="25"/>
+      <c r="AA99" s="25"/>
+      <c r="AB99" s="25"/>
+      <c r="AC99" s="26"/>
+    </row>
+    <row r="100" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W100" s="144" t="s">
+        <v>231</v>
+      </c>
+      <c r="X100" s="25"/>
+      <c r="Y100" s="25"/>
+      <c r="Z100" s="25"/>
+      <c r="AA100" s="25"/>
+      <c r="AB100" s="25"/>
+      <c r="AC100" s="26"/>
+    </row>
+    <row r="101" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W101" s="144" t="s">
+        <v>232</v>
+      </c>
+      <c r="X101" s="25"/>
+      <c r="Y101" s="25"/>
+      <c r="Z101" s="25"/>
+      <c r="AA101" s="25"/>
+      <c r="AB101" s="25"/>
+      <c r="AC101" s="26"/>
+    </row>
+    <row r="102" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W102" s="144" t="s">
+        <v>233</v>
+      </c>
+      <c r="X102" s="25"/>
+      <c r="Y102" s="25"/>
+      <c r="Z102" s="25"/>
+      <c r="AA102" s="25"/>
+      <c r="AB102" s="25"/>
+      <c r="AC102" s="26"/>
+    </row>
+    <row r="103" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W103" s="144" t="s">
+        <v>234</v>
+      </c>
+      <c r="X103" s="25"/>
+      <c r="Y103" s="25"/>
+      <c r="Z103" s="25"/>
+      <c r="AA103" s="25"/>
+      <c r="AB103" s="25"/>
+      <c r="AC103" s="26"/>
+    </row>
+    <row r="104" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W104" s="144" t="s">
+        <v>235</v>
+      </c>
+      <c r="X104" s="25"/>
+      <c r="Y104" s="25"/>
+      <c r="Z104" s="25"/>
+      <c r="AA104" s="25"/>
+      <c r="AB104" s="25"/>
+      <c r="AC104" s="26"/>
+    </row>
+    <row r="105" spans="23:29" x14ac:dyDescent="0.25">
+      <c r="W105" s="145" t="s">
+        <v>236</v>
+      </c>
+      <c r="X105" s="27"/>
+      <c r="Y105" s="27"/>
+      <c r="Z105" s="27"/>
+      <c r="AA105" s="27"/>
+      <c r="AB105" s="27"/>
+      <c r="AC105" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
+    <mergeCell ref="W24:AC24"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -2332,25 +3482,6 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K6:L6" r:id="rId1" display="Link" xr:uid="{EBABCF04-F876-4DF1-ADF1-1B6F62DC4548}"/>
@@ -2371,7 +3502,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,13 +3510,13 @@
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="35" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="35" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="36"/>
+    <col min="10" max="10" width="8.85546875" style="35"/>
     <col min="13" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9.140625" bestFit="1" customWidth="1"/>
@@ -2395,25 +3526,25 @@
       <c r="C1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>94</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>96</v>
       </c>
       <c r="K1" s="13"/>
@@ -2464,30 +3595,30 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="2:27" s="98" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="95"/>
+    <row r="2" spans="2:27" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="92"/>
       <c r="C2" s="21">
         <v>43646</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="93" t="s">
         <v>92</v>
       </c>
       <c r="E2" s="21">
         <v>44012</v>
       </c>
-      <c r="F2" s="96">
+      <c r="F2" s="93">
         <v>44196</v>
       </c>
       <c r="G2" s="21">
         <v>44377</v>
       </c>
-      <c r="H2" s="96">
+      <c r="H2" s="93">
         <v>44561</v>
       </c>
       <c r="I2" s="21">
         <v>44742</v>
       </c>
-      <c r="J2" s="97"/>
+      <c r="J2" s="94"/>
       <c r="M2" s="21">
         <v>43465</v>
       </c>
@@ -2500,152 +3631,152 @@
       <c r="P2" s="21">
         <v>44561</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="R2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="46" t="s">
+      <c r="S2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="46" t="s">
+      <c r="T2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="46" t="s">
+      <c r="U2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="46" t="s">
+      <c r="W2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="46" t="s">
+      <c r="X2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="46" t="s">
+      <c r="Y2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="46" t="s">
+      <c r="Z2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="46" t="s">
+      <c r="AA2" s="43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:27" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="35"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="35"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="94">
+      <c r="H3" s="34"/>
+      <c r="I3" s="91">
         <v>44825</v>
       </c>
-      <c r="J3" s="84"/>
+      <c r="J3" s="81"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="46"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="66">
         <v>1.5716999999999998E-2</v>
       </c>
-      <c r="D4" s="75">
+      <c r="D4" s="72">
         <f>N4-C4</f>
         <v>1.6253E-2</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="66">
         <v>1.2707E-2</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="72">
         <f>O4-E4</f>
         <v>3.6773E-2</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="66">
         <v>3.2741449999999999</v>
       </c>
-      <c r="H4" s="75">
+      <c r="H4" s="72">
         <f>P4-G4</f>
         <v>13.101855</v>
       </c>
-      <c r="I4" s="77">
+      <c r="I4" s="74">
         <v>9.8320000000000007</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="69">
+      <c r="J4" s="73"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="66">
         <v>4.8380000000000003E-3</v>
       </c>
-      <c r="N4" s="69">
+      <c r="N4" s="66">
         <v>3.1969999999999998E-2</v>
       </c>
-      <c r="O4" s="69">
+      <c r="O4" s="66">
         <v>4.9480000000000003E-2</v>
       </c>
-      <c r="P4" s="69">
+      <c r="P4" s="66">
         <v>16.376000000000001</v>
       </c>
-      <c r="Q4" s="77">
+      <c r="Q4" s="74">
         <f>P4*1.25</f>
         <v>20.470000000000002</v>
       </c>
-      <c r="R4" s="77">
+      <c r="R4" s="74">
         <f t="shared" ref="R4:AA4" si="0">Q4*1.25</f>
         <v>25.587500000000002</v>
       </c>
-      <c r="S4" s="77">
+      <c r="S4" s="74">
         <f t="shared" si="0"/>
         <v>31.984375000000004</v>
       </c>
-      <c r="T4" s="77">
+      <c r="T4" s="74">
         <f t="shared" si="0"/>
         <v>39.980468750000007</v>
       </c>
-      <c r="U4" s="77">
+      <c r="U4" s="74">
         <f t="shared" si="0"/>
         <v>49.975585937500007</v>
       </c>
-      <c r="V4" s="77">
+      <c r="V4" s="74">
         <f t="shared" si="0"/>
         <v>62.469482421875007</v>
       </c>
-      <c r="W4" s="77">
+      <c r="W4" s="74">
         <f t="shared" si="0"/>
         <v>78.086853027343764</v>
       </c>
-      <c r="X4" s="77">
+      <c r="X4" s="74">
         <f t="shared" si="0"/>
         <v>97.608566284179702</v>
       </c>
-      <c r="Y4" s="77">
+      <c r="Y4" s="74">
         <f t="shared" si="0"/>
         <v>122.01070785522462</v>
       </c>
-      <c r="Z4" s="77">
+      <c r="Z4" s="74">
         <f t="shared" si="0"/>
         <v>152.51338481903079</v>
       </c>
-      <c r="AA4" s="77">
+      <c r="AA4" s="74">
         <f t="shared" si="0"/>
         <v>190.64173102378848</v>
       </c>
@@ -2654,86 +3785,86 @@
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="67">
         <v>0.24007999999999999</v>
       </c>
-      <c r="D5" s="78">
+      <c r="D5" s="75">
         <f>N5-C5</f>
         <v>0.25205600000000006</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="67">
         <v>0.174067</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="75">
         <f>O5-E5</f>
         <v>-3.2727000000000006E-2</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="67">
         <v>2.1742710000000001</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="75">
         <f>P5-G5</f>
         <v>9.0767290000000003</v>
       </c>
-      <c r="I5" s="73">
+      <c r="I5" s="70">
         <v>8.3209999999999997</v>
       </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="70">
+      <c r="J5" s="73"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="67">
         <v>0.54072100000000001</v>
       </c>
-      <c r="N5" s="70">
+      <c r="N5" s="67">
         <v>0.49213600000000002</v>
       </c>
-      <c r="O5" s="70">
+      <c r="O5" s="67">
         <v>0.14133999999999999</v>
       </c>
-      <c r="P5" s="70">
+      <c r="P5" s="67">
         <v>11.250999999999999</v>
       </c>
-      <c r="Q5" s="74">
+      <c r="Q5" s="71">
         <f>Q4-Q7</f>
         <v>14.124300000000002</v>
       </c>
-      <c r="R5" s="74">
+      <c r="R5" s="71">
         <f t="shared" ref="R5:AA5" si="1">R4-R7</f>
         <v>17.655374999999999</v>
       </c>
-      <c r="S5" s="74">
+      <c r="S5" s="71">
         <f t="shared" si="1"/>
         <v>22.069218750000005</v>
       </c>
-      <c r="T5" s="74">
+      <c r="T5" s="71">
         <f t="shared" si="1"/>
         <v>27.586523437500006</v>
       </c>
-      <c r="U5" s="74">
+      <c r="U5" s="71">
         <f t="shared" si="1"/>
         <v>34.483154296875007</v>
       </c>
-      <c r="V5" s="74">
+      <c r="V5" s="71">
         <f t="shared" si="1"/>
         <v>43.10394287109375</v>
       </c>
-      <c r="W5" s="74">
+      <c r="W5" s="71">
         <f t="shared" si="1"/>
         <v>53.879928588867202</v>
       </c>
-      <c r="X5" s="74">
+      <c r="X5" s="71">
         <f t="shared" si="1"/>
         <v>67.349910736083999</v>
       </c>
-      <c r="Y5" s="74">
+      <c r="Y5" s="71">
         <f t="shared" si="1"/>
         <v>84.18738842010498</v>
       </c>
-      <c r="Z5" s="74">
+      <c r="Z5" s="71">
         <f t="shared" si="1"/>
         <v>105.23423552513125</v>
       </c>
-      <c r="AA5" s="74">
+      <c r="AA5" s="71">
         <f t="shared" si="1"/>
         <v>131.54279440641406</v>
       </c>
@@ -2742,75 +3873,75 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="71">
-        <v>0</v>
-      </c>
-      <c r="D6" s="78">
-        <v>0</v>
-      </c>
-      <c r="E6" s="71">
-        <v>0</v>
-      </c>
-      <c r="F6" s="78">
+      <c r="C6" s="68">
+        <v>0</v>
+      </c>
+      <c r="D6" s="75">
+        <v>0</v>
+      </c>
+      <c r="E6" s="68">
+        <v>0</v>
+      </c>
+      <c r="F6" s="75">
         <f>O6-E6</f>
         <v>0.54844199999999999</v>
       </c>
-      <c r="G6" s="71">
-        <v>0</v>
-      </c>
-      <c r="H6" s="78">
+      <c r="G6" s="68">
+        <v>0</v>
+      </c>
+      <c r="H6" s="75">
         <f>P6-G6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="73">
-        <v>0</v>
-      </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="71">
-        <v>0</v>
-      </c>
-      <c r="N6" s="71">
-        <v>0</v>
-      </c>
-      <c r="O6" s="71">
+      <c r="I6" s="70">
+        <v>0</v>
+      </c>
+      <c r="J6" s="73"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="68">
+        <v>0</v>
+      </c>
+      <c r="N6" s="68">
+        <v>0</v>
+      </c>
+      <c r="O6" s="68">
         <v>0.54844199999999999</v>
       </c>
-      <c r="P6" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="79">
-        <v>0</v>
-      </c>
-      <c r="R6" s="79">
+      <c r="P6" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="76">
+        <v>0</v>
+      </c>
+      <c r="R6" s="76">
         <v>1</v>
       </c>
-      <c r="S6" s="79">
+      <c r="S6" s="76">
         <v>2</v>
       </c>
-      <c r="T6" s="79">
+      <c r="T6" s="76">
         <v>3</v>
       </c>
-      <c r="U6" s="79">
+      <c r="U6" s="76">
         <v>4</v>
       </c>
-      <c r="V6" s="79">
+      <c r="V6" s="76">
         <v>5</v>
       </c>
-      <c r="W6" s="79">
+      <c r="W6" s="76">
         <v>6</v>
       </c>
-      <c r="X6" s="79">
+      <c r="X6" s="76">
         <v>7</v>
       </c>
-      <c r="Y6" s="79">
+      <c r="Y6" s="76">
         <v>8</v>
       </c>
-      <c r="Z6" s="79">
+      <c r="Z6" s="76">
         <v>9</v>
       </c>
-      <c r="AA6" s="79">
+      <c r="AA6" s="76">
         <v>10</v>
       </c>
     </row>
@@ -2818,94 +3949,94 @@
       <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="66">
         <f t="shared" ref="C7:I7" si="2">C4-C5-C6</f>
         <v>-0.22436299999999998</v>
       </c>
-      <c r="D7" s="75">
+      <c r="D7" s="72">
         <f t="shared" si="2"/>
         <v>-0.23580300000000007</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="66">
         <f t="shared" si="2"/>
         <v>-0.16136</v>
       </c>
-      <c r="F7" s="75">
+      <c r="F7" s="72">
         <f t="shared" si="2"/>
         <v>-0.47894199999999998</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="66">
         <f t="shared" si="2"/>
         <v>1.0998739999999998</v>
       </c>
-      <c r="H7" s="75">
+      <c r="H7" s="72">
         <f t="shared" si="2"/>
         <v>4.0251260000000002</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="66">
         <f t="shared" si="2"/>
         <v>1.511000000000001</v>
       </c>
-      <c r="J7" s="76"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="69">
+      <c r="J7" s="73"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="66">
         <f>M4-M5-M6</f>
         <v>-0.535883</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="66">
         <f>N4-N5-N6</f>
         <v>-0.46016600000000002</v>
       </c>
-      <c r="O7" s="69">
+      <c r="O7" s="66">
         <f>O4-O5-O6</f>
         <v>-0.64030199999999993</v>
       </c>
-      <c r="P7" s="69">
+      <c r="P7" s="66">
         <f>P4-P5-P6</f>
         <v>5.1250000000000018</v>
       </c>
-      <c r="Q7" s="77">
+      <c r="Q7" s="74">
         <f>Q4*0.31</f>
         <v>6.3457000000000008</v>
       </c>
-      <c r="R7" s="77">
+      <c r="R7" s="74">
         <f t="shared" ref="R7:AA7" si="3">R4*0.31</f>
         <v>7.932125000000001</v>
       </c>
-      <c r="S7" s="77">
+      <c r="S7" s="74">
         <f t="shared" si="3"/>
         <v>9.9151562500000008</v>
       </c>
-      <c r="T7" s="77">
+      <c r="T7" s="74">
         <f t="shared" si="3"/>
         <v>12.393945312500001</v>
       </c>
-      <c r="U7" s="77">
+      <c r="U7" s="74">
         <f t="shared" si="3"/>
         <v>15.492431640625002</v>
       </c>
-      <c r="V7" s="77">
+      <c r="V7" s="74">
         <f t="shared" si="3"/>
         <v>19.365539550781254</v>
       </c>
-      <c r="W7" s="77">
+      <c r="W7" s="74">
         <f t="shared" si="3"/>
         <v>24.206924438476566</v>
       </c>
-      <c r="X7" s="77">
+      <c r="X7" s="74">
         <f t="shared" si="3"/>
         <v>30.258655548095707</v>
       </c>
-      <c r="Y7" s="77">
+      <c r="Y7" s="74">
         <f t="shared" si="3"/>
         <v>37.823319435119636</v>
       </c>
-      <c r="Z7" s="77">
+      <c r="Z7" s="74">
         <f t="shared" si="3"/>
         <v>47.279149293899543</v>
       </c>
-      <c r="AA7" s="77">
+      <c r="AA7" s="74">
         <f t="shared" si="3"/>
         <v>59.098936617374427</v>
       </c>
@@ -2914,76 +4045,76 @@
       <c r="B8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="71">
-        <v>0</v>
-      </c>
-      <c r="D8" s="78">
+      <c r="C8" s="68">
+        <v>0</v>
+      </c>
+      <c r="D8" s="75">
         <f>N8-C8</f>
         <v>0</v>
       </c>
-      <c r="E8" s="71">
-        <v>0</v>
-      </c>
-      <c r="F8" s="78">
+      <c r="E8" s="68">
+        <v>0</v>
+      </c>
+      <c r="F8" s="75">
         <f>O8-E8</f>
         <v>0.62167300000000003</v>
       </c>
-      <c r="G8" s="71">
-        <v>0</v>
-      </c>
-      <c r="H8" s="78">
+      <c r="G8" s="68">
+        <v>0</v>
+      </c>
+      <c r="H8" s="75">
         <f>P8-G8</f>
         <v>0.41399999999999998</v>
       </c>
-      <c r="I8" s="73">
-        <v>0</v>
-      </c>
-      <c r="J8" s="76"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="71">
-        <v>0</v>
-      </c>
-      <c r="N8" s="71">
-        <v>0</v>
-      </c>
-      <c r="O8" s="71">
+      <c r="I8" s="70">
+        <v>0</v>
+      </c>
+      <c r="J8" s="73"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="68">
+        <v>0</v>
+      </c>
+      <c r="N8" s="68">
+        <v>0</v>
+      </c>
+      <c r="O8" s="68">
         <v>0.62167300000000003</v>
       </c>
-      <c r="P8" s="71">
+      <c r="P8" s="68">
         <v>0.41399999999999998</v>
       </c>
-      <c r="Q8" s="73">
-        <v>0</v>
-      </c>
-      <c r="R8" s="73">
-        <v>0</v>
-      </c>
-      <c r="S8" s="73">
-        <v>0</v>
-      </c>
-      <c r="T8" s="73">
-        <v>0</v>
-      </c>
-      <c r="U8" s="73">
-        <v>0</v>
-      </c>
-      <c r="V8" s="73">
-        <v>0</v>
-      </c>
-      <c r="W8" s="73">
-        <v>0</v>
-      </c>
-      <c r="X8" s="73">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="73">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="73">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="73">
+      <c r="Q8" s="70">
+        <v>0</v>
+      </c>
+      <c r="R8" s="70">
+        <v>0</v>
+      </c>
+      <c r="S8" s="70">
+        <v>0</v>
+      </c>
+      <c r="T8" s="70">
+        <v>0</v>
+      </c>
+      <c r="U8" s="70">
+        <v>0</v>
+      </c>
+      <c r="V8" s="70">
+        <v>0</v>
+      </c>
+      <c r="W8" s="70">
+        <v>0</v>
+      </c>
+      <c r="X8" s="70">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="70">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="70">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="70">
         <v>0</v>
       </c>
     </row>
@@ -2991,76 +4122,76 @@
       <c r="B9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="71">
-        <v>0</v>
-      </c>
-      <c r="D9" s="78">
+      <c r="C9" s="68">
+        <v>0</v>
+      </c>
+      <c r="D9" s="75">
         <f>N9-C9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="71">
-        <v>0</v>
-      </c>
-      <c r="F9" s="78">
+      <c r="E9" s="68">
+        <v>0</v>
+      </c>
+      <c r="F9" s="75">
         <f>O9-E9</f>
         <v>0.17971799999999999</v>
       </c>
-      <c r="G9" s="71">
-        <v>0</v>
-      </c>
-      <c r="H9" s="78">
+      <c r="G9" s="68">
+        <v>0</v>
+      </c>
+      <c r="H9" s="75">
         <f>P9-G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="73">
-        <v>0</v>
-      </c>
-      <c r="J9" s="76"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="71">
-        <v>0</v>
-      </c>
-      <c r="N9" s="71">
-        <v>0</v>
-      </c>
-      <c r="O9" s="71">
+      <c r="I9" s="70">
+        <v>0</v>
+      </c>
+      <c r="J9" s="73"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="68">
+        <v>0</v>
+      </c>
+      <c r="N9" s="68">
+        <v>0</v>
+      </c>
+      <c r="O9" s="68">
         <v>0.17971799999999999</v>
       </c>
-      <c r="P9" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="73">
-        <v>0</v>
-      </c>
-      <c r="R9" s="73">
-        <v>0</v>
-      </c>
-      <c r="S9" s="73">
-        <v>0</v>
-      </c>
-      <c r="T9" s="73">
-        <v>0</v>
-      </c>
-      <c r="U9" s="73">
-        <v>0</v>
-      </c>
-      <c r="V9" s="73">
-        <v>0</v>
-      </c>
-      <c r="W9" s="73">
-        <v>0</v>
-      </c>
-      <c r="X9" s="73">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="73">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="73">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="73">
+      <c r="P9" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="70">
+        <v>0</v>
+      </c>
+      <c r="R9" s="70">
+        <v>0</v>
+      </c>
+      <c r="S9" s="70">
+        <v>0</v>
+      </c>
+      <c r="T9" s="70">
+        <v>0</v>
+      </c>
+      <c r="U9" s="70">
+        <v>0</v>
+      </c>
+      <c r="V9" s="70">
+        <v>0</v>
+      </c>
+      <c r="W9" s="70">
+        <v>0</v>
+      </c>
+      <c r="X9" s="70">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="70">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="70">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="70">
         <v>0</v>
       </c>
     </row>
@@ -3068,86 +4199,86 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="69">
         <v>0.96812500000000001</v>
       </c>
-      <c r="D10" s="78">
+      <c r="D10" s="75">
         <f>N10-C10</f>
         <v>0.97057000000000004</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="69">
         <v>1.0099990000000001</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="75">
         <f>O10-E10</f>
         <v>1.2030096000000001</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="69">
         <v>1.299544</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="75">
         <f>P10-G10</f>
         <v>1.2534559999999999</v>
       </c>
-      <c r="I10" s="73">
+      <c r="I10" s="70">
         <v>1.395</v>
       </c>
-      <c r="J10" s="76"/>
+      <c r="J10" s="73"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="72">
+      <c r="L10" s="70"/>
+      <c r="M10" s="69">
         <v>2.213695</v>
       </c>
-      <c r="N10" s="72">
+      <c r="N10" s="69">
         <v>1.9386950000000001</v>
       </c>
-      <c r="O10" s="72">
+      <c r="O10" s="69">
         <v>2.2130086000000002</v>
       </c>
-      <c r="P10" s="72">
+      <c r="P10" s="69">
         <v>2.5529999999999999</v>
       </c>
-      <c r="Q10" s="73">
+      <c r="Q10" s="70">
         <f>P10*1</f>
         <v>2.5529999999999999</v>
       </c>
-      <c r="R10" s="73">
+      <c r="R10" s="70">
         <f t="shared" ref="R10:AA10" si="4">Q10*1</f>
         <v>2.5529999999999999</v>
       </c>
-      <c r="S10" s="73">
+      <c r="S10" s="70">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="T10" s="73">
+      <c r="T10" s="70">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="U10" s="73">
+      <c r="U10" s="70">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="V10" s="73">
+      <c r="V10" s="70">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="W10" s="73">
+      <c r="W10" s="70">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="X10" s="73">
+      <c r="X10" s="70">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="Y10" s="73">
+      <c r="Y10" s="70">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="Z10" s="73">
+      <c r="Z10" s="70">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="AA10" s="73">
+      <c r="AA10" s="70">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
@@ -3156,76 +4287,76 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="72">
-        <v>0</v>
-      </c>
-      <c r="D11" s="78">
+      <c r="C11" s="69">
+        <v>0</v>
+      </c>
+      <c r="D11" s="75">
         <f>N11-C11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="69">
         <v>0.100989</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="75">
         <f>O11-E11</f>
         <v>-0.100989</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="69">
         <v>6.0677000000000002E-2</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="75">
         <f>P11-G11</f>
         <v>-6.0677000000000002E-2</v>
       </c>
-      <c r="I11" s="73">
-        <v>0</v>
-      </c>
-      <c r="J11" s="76"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="71">
-        <v>0</v>
-      </c>
-      <c r="N11" s="71">
-        <v>0</v>
-      </c>
-      <c r="O11" s="71">
-        <v>0</v>
-      </c>
-      <c r="P11" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="79">
-        <v>0</v>
-      </c>
-      <c r="R11" s="79">
+      <c r="I11" s="70">
+        <v>0</v>
+      </c>
+      <c r="J11" s="73"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="68">
+        <v>0</v>
+      </c>
+      <c r="N11" s="68">
+        <v>0</v>
+      </c>
+      <c r="O11" s="68">
+        <v>0</v>
+      </c>
+      <c r="P11" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="76">
+        <v>0</v>
+      </c>
+      <c r="R11" s="76">
         <v>1</v>
       </c>
-      <c r="S11" s="79">
+      <c r="S11" s="76">
         <v>2</v>
       </c>
-      <c r="T11" s="79">
+      <c r="T11" s="76">
         <v>3</v>
       </c>
-      <c r="U11" s="79">
+      <c r="U11" s="76">
         <v>4</v>
       </c>
-      <c r="V11" s="79">
+      <c r="V11" s="76">
         <v>5</v>
       </c>
-      <c r="W11" s="79">
+      <c r="W11" s="76">
         <v>6</v>
       </c>
-      <c r="X11" s="79">
+      <c r="X11" s="76">
         <v>7</v>
       </c>
-      <c r="Y11" s="79">
+      <c r="Y11" s="76">
         <v>8</v>
       </c>
-      <c r="Z11" s="79">
+      <c r="Z11" s="76">
         <v>9</v>
       </c>
-      <c r="AA11" s="79">
+      <c r="AA11" s="76">
         <v>10</v>
       </c>
     </row>
@@ -3233,86 +4364,86 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="69">
         <v>0.126301</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="75">
         <f>N12-C12</f>
         <v>-5.6579999999999991E-2</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="69">
         <v>7.4552999999999994E-2</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="75">
         <f>O12-E12</f>
         <v>2.8737000000000013E-2</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="69">
         <v>6.5929999999999999E-3</v>
       </c>
-      <c r="H12" s="78">
+      <c r="H12" s="75">
         <f>P12-G12</f>
         <v>0.105407</v>
       </c>
-      <c r="I12" s="73">
+      <c r="I12" s="70">
         <v>0.104</v>
       </c>
-      <c r="J12" s="76"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="72">
+      <c r="J12" s="73"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="69">
         <v>9.2290999999999998E-2</v>
       </c>
-      <c r="N12" s="72">
+      <c r="N12" s="69">
         <v>6.9721000000000005E-2</v>
       </c>
-      <c r="O12" s="72">
+      <c r="O12" s="69">
         <v>0.10329000000000001</v>
       </c>
-      <c r="P12" s="72">
+      <c r="P12" s="69">
         <v>0.112</v>
       </c>
-      <c r="Q12" s="72">
+      <c r="Q12" s="69">
         <f>P12</f>
         <v>0.112</v>
       </c>
-      <c r="R12" s="72">
+      <c r="R12" s="69">
         <f t="shared" ref="R12:AA12" si="5">Q12</f>
         <v>0.112</v>
       </c>
-      <c r="S12" s="72">
+      <c r="S12" s="69">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="T12" s="72">
+      <c r="T12" s="69">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="U12" s="72">
+      <c r="U12" s="69">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="V12" s="72">
+      <c r="V12" s="69">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="W12" s="72">
+      <c r="W12" s="69">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="X12" s="72">
+      <c r="X12" s="69">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="Y12" s="72">
+      <c r="Y12" s="69">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="Z12" s="72">
+      <c r="Z12" s="69">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="AA12" s="72">
+      <c r="AA12" s="69">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
@@ -3321,93 +4452,93 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="69">
         <f t="shared" ref="C13:H13" si="6">SUM(C8:C12)</f>
         <v>1.0944259999999999</v>
       </c>
-      <c r="D13" s="78">
+      <c r="D13" s="75">
         <f t="shared" si="6"/>
         <v>0.91399000000000008</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="69">
         <f t="shared" si="6"/>
         <v>1.1855410000000002</v>
       </c>
-      <c r="F13" s="78">
+      <c r="F13" s="75">
         <f t="shared" si="6"/>
         <v>1.9321486000000003</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="69">
         <f t="shared" si="6"/>
         <v>1.3668140000000002</v>
       </c>
-      <c r="H13" s="78">
+      <c r="H13" s="75">
         <f t="shared" si="6"/>
         <v>1.7121859999999998</v>
       </c>
-      <c r="I13" s="73">
+      <c r="I13" s="70">
         <v>1.4990000000000001</v>
       </c>
-      <c r="J13" s="76"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="72">
+      <c r="J13" s="73"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="69">
         <f>SUM(M8:M12)</f>
         <v>2.3059859999999999</v>
       </c>
-      <c r="N13" s="72">
+      <c r="N13" s="69">
         <f>SUM(N8:N12)</f>
         <v>2.008416</v>
       </c>
-      <c r="O13" s="72">
+      <c r="O13" s="69">
         <f>SUM(O8:O12)</f>
         <v>3.1176895999999998</v>
       </c>
-      <c r="P13" s="72">
+      <c r="P13" s="69">
         <f>SUM(P8:P12)</f>
         <v>3.0790000000000002</v>
       </c>
-      <c r="Q13" s="73">
+      <c r="Q13" s="70">
         <f>P13</f>
         <v>3.0790000000000002</v>
       </c>
-      <c r="R13" s="73">
+      <c r="R13" s="70">
         <f t="shared" ref="R13:AA13" si="7">Q13</f>
         <v>3.0790000000000002</v>
       </c>
-      <c r="S13" s="73">
+      <c r="S13" s="70">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="T13" s="73">
+      <c r="T13" s="70">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="U13" s="73">
+      <c r="U13" s="70">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="V13" s="73">
+      <c r="V13" s="70">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="W13" s="73">
+      <c r="W13" s="70">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="X13" s="73">
+      <c r="X13" s="70">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="Y13" s="73">
+      <c r="Y13" s="70">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="Z13" s="73">
+      <c r="Z13" s="70">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="AA13" s="73">
+      <c r="AA13" s="70">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
@@ -3416,94 +4547,94 @@
       <c r="B14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="66">
         <f t="shared" ref="C14:I14" si="8">C7-C13</f>
         <v>-1.3187889999999998</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="72">
         <f t="shared" si="8"/>
         <v>-1.1497930000000001</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="66">
         <f t="shared" si="8"/>
         <v>-1.3469010000000001</v>
       </c>
-      <c r="F14" s="75">
+      <c r="F14" s="72">
         <f t="shared" si="8"/>
         <v>-2.4110906000000005</v>
       </c>
-      <c r="G14" s="69">
+      <c r="G14" s="66">
         <f t="shared" si="8"/>
         <v>-0.2669400000000004</v>
       </c>
-      <c r="H14" s="75">
+      <c r="H14" s="72">
         <f t="shared" si="8"/>
         <v>2.3129400000000002</v>
       </c>
-      <c r="I14" s="69">
+      <c r="I14" s="66">
         <f t="shared" si="8"/>
         <v>1.2000000000000899E-2</v>
       </c>
-      <c r="J14" s="76"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="69">
+      <c r="J14" s="73"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="66">
         <f>M7-M13</f>
         <v>-2.841869</v>
       </c>
-      <c r="N14" s="69">
+      <c r="N14" s="66">
         <f>N7-N13</f>
         <v>-2.4685820000000001</v>
       </c>
-      <c r="O14" s="69">
+      <c r="O14" s="66">
         <f>O7-O13</f>
         <v>-3.7579915999999995</v>
       </c>
-      <c r="P14" s="69">
+      <c r="P14" s="66">
         <f>P7-P13</f>
         <v>2.0460000000000016</v>
       </c>
-      <c r="Q14" s="69">
+      <c r="Q14" s="66">
         <f>Q7-Q13</f>
         <v>3.2667000000000006</v>
       </c>
-      <c r="R14" s="69">
+      <c r="R14" s="66">
         <f t="shared" ref="R14:AA14" si="9">R7-R13</f>
         <v>4.8531250000000004</v>
       </c>
-      <c r="S14" s="69">
+      <c r="S14" s="66">
         <f t="shared" si="9"/>
         <v>6.8361562500000002</v>
       </c>
-      <c r="T14" s="69">
+      <c r="T14" s="66">
         <f t="shared" si="9"/>
         <v>9.3149453125000008</v>
       </c>
-      <c r="U14" s="69">
+      <c r="U14" s="66">
         <f t="shared" si="9"/>
         <v>12.413431640625001</v>
       </c>
-      <c r="V14" s="69">
+      <c r="V14" s="66">
         <f t="shared" si="9"/>
         <v>16.286539550781253</v>
       </c>
-      <c r="W14" s="69">
+      <c r="W14" s="66">
         <f t="shared" si="9"/>
         <v>21.127924438476565</v>
       </c>
-      <c r="X14" s="69">
+      <c r="X14" s="66">
         <f t="shared" si="9"/>
         <v>27.179655548095706</v>
       </c>
-      <c r="Y14" s="69">
+      <c r="Y14" s="66">
         <f t="shared" si="9"/>
         <v>34.744319435119635</v>
       </c>
-      <c r="Z14" s="69">
+      <c r="Z14" s="66">
         <f t="shared" si="9"/>
         <v>44.200149293899543</v>
       </c>
-      <c r="AA14" s="69">
+      <c r="AA14" s="66">
         <f t="shared" si="9"/>
         <v>56.019936617374427</v>
       </c>
@@ -3512,87 +4643,87 @@
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="72">
+      <c r="C15" s="69">
         <v>1.1476E-2</v>
       </c>
-      <c r="D15" s="78">
+      <c r="D15" s="75">
         <f>N15-C15</f>
         <v>1.4870999999999999E-2</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="69">
         <v>1.9810000000000001E-3</v>
       </c>
-      <c r="F15" s="78">
+      <c r="F15" s="75">
         <f>O15-E15</f>
         <v>2.5770000000000003E-3</v>
       </c>
-      <c r="G15" s="72">
+      <c r="G15" s="69">
         <v>1.7819999999999999E-3</v>
       </c>
-      <c r="H15" s="78">
+      <c r="H15" s="75">
         <f>P15-G15</f>
         <v>4.0218000000000004E-2</v>
       </c>
-      <c r="I15" s="73">
+      <c r="I15" s="70">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J15" s="76"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="72">
+      <c r="J15" s="73"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="69">
         <v>2.3914999999999999E-2</v>
       </c>
-      <c r="N15" s="72">
+      <c r="N15" s="69">
         <v>2.6346999999999999E-2</v>
       </c>
-      <c r="O15" s="72">
+      <c r="O15" s="69">
         <v>4.5580000000000004E-3</v>
       </c>
-      <c r="P15" s="72">
+      <c r="P15" s="69">
         <f>0.002+0.04</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="Q15" s="73">
+      <c r="Q15" s="70">
         <f>P15*1.08</f>
         <v>4.5360000000000004E-2</v>
       </c>
-      <c r="R15" s="73">
+      <c r="R15" s="70">
         <f t="shared" ref="R15:AA15" si="10">Q15*1.08</f>
         <v>4.8988800000000006E-2</v>
       </c>
-      <c r="S15" s="73">
+      <c r="S15" s="70">
         <f t="shared" si="10"/>
         <v>5.2907904000000013E-2</v>
       </c>
-      <c r="T15" s="73">
+      <c r="T15" s="70">
         <f t="shared" si="10"/>
         <v>5.7140536320000018E-2</v>
       </c>
-      <c r="U15" s="73">
+      <c r="U15" s="70">
         <f t="shared" si="10"/>
         <v>6.1711779225600026E-2</v>
       </c>
-      <c r="V15" s="73">
+      <c r="V15" s="70">
         <f t="shared" si="10"/>
         <v>6.6648721563648039E-2</v>
       </c>
-      <c r="W15" s="73">
+      <c r="W15" s="70">
         <f t="shared" si="10"/>
         <v>7.1980619288739889E-2</v>
       </c>
-      <c r="X15" s="73">
+      <c r="X15" s="70">
         <f t="shared" si="10"/>
         <v>7.7739068831839078E-2</v>
       </c>
-      <c r="Y15" s="73">
+      <c r="Y15" s="70">
         <f t="shared" si="10"/>
         <v>8.3958194338386208E-2</v>
       </c>
-      <c r="Z15" s="73">
+      <c r="Z15" s="70">
         <f t="shared" si="10"/>
         <v>9.0674849885457112E-2</v>
       </c>
-      <c r="AA15" s="73">
+      <c r="AA15" s="70">
         <f t="shared" si="10"/>
         <v>9.7928837876293681E-2</v>
       </c>
@@ -3601,94 +4732,94 @@
       <c r="B16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="66">
         <f t="shared" ref="C16:I16" si="11">C14-C15</f>
         <v>-1.3302649999999998</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="72">
         <f t="shared" si="11"/>
         <v>-1.1646640000000001</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="66">
         <f t="shared" si="11"/>
         <v>-1.3488820000000001</v>
       </c>
-      <c r="F16" s="75">
+      <c r="F16" s="72">
         <f t="shared" si="11"/>
         <v>-2.4136676000000006</v>
       </c>
-      <c r="G16" s="69">
+      <c r="G16" s="66">
         <f t="shared" si="11"/>
         <v>-0.2687220000000004</v>
       </c>
-      <c r="H16" s="75">
+      <c r="H16" s="72">
         <f t="shared" si="11"/>
         <v>2.2727220000000004</v>
       </c>
-      <c r="I16" s="69">
+      <c r="I16" s="66">
         <f t="shared" si="11"/>
         <v>9.0000000000008996E-3</v>
       </c>
-      <c r="J16" s="76"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="69">
+      <c r="J16" s="73"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="66">
         <f>M14-M15</f>
         <v>-2.8657840000000001</v>
       </c>
-      <c r="N16" s="69">
+      <c r="N16" s="66">
         <f>N14-N15</f>
         <v>-2.494929</v>
       </c>
-      <c r="O16" s="69">
+      <c r="O16" s="66">
         <f>O14-O15</f>
         <v>-3.7625495999999994</v>
       </c>
-      <c r="P16" s="69">
+      <c r="P16" s="66">
         <f>P14-P15</f>
         <v>2.0040000000000018</v>
       </c>
-      <c r="Q16" s="69">
+      <c r="Q16" s="66">
         <f>Q14-Q15</f>
         <v>3.2213400000000005</v>
       </c>
-      <c r="R16" s="69">
+      <c r="R16" s="66">
         <f t="shared" ref="R16:AA16" si="12">R14-R15</f>
         <v>4.8041362000000003</v>
       </c>
-      <c r="S16" s="69">
+      <c r="S16" s="66">
         <f t="shared" si="12"/>
         <v>6.7832483459999997</v>
       </c>
-      <c r="T16" s="69">
+      <c r="T16" s="66">
         <f t="shared" si="12"/>
         <v>9.2578047761800004</v>
       </c>
-      <c r="U16" s="69">
+      <c r="U16" s="66">
         <f t="shared" si="12"/>
         <v>12.351719861399401</v>
       </c>
-      <c r="V16" s="69">
+      <c r="V16" s="66">
         <f t="shared" si="12"/>
         <v>16.219890829217604</v>
       </c>
-      <c r="W16" s="69">
+      <c r="W16" s="66">
         <f t="shared" si="12"/>
         <v>21.055943819187824</v>
       </c>
-      <c r="X16" s="69">
+      <c r="X16" s="66">
         <f t="shared" si="12"/>
         <v>27.101916479263867</v>
       </c>
-      <c r="Y16" s="69">
+      <c r="Y16" s="66">
         <f t="shared" si="12"/>
         <v>34.660361240781249</v>
       </c>
-      <c r="Z16" s="69">
+      <c r="Z16" s="66">
         <f t="shared" si="12"/>
         <v>44.109474444014083</v>
       </c>
-      <c r="AA16" s="69">
+      <c r="AA16" s="66">
         <f t="shared" si="12"/>
         <v>55.922007779498131</v>
       </c>
@@ -3697,76 +4828,76 @@
       <c r="B17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="72">
+      <c r="C17" s="69">
         <v>6.9477999999999998E-2</v>
       </c>
-      <c r="D17" s="78">
+      <c r="D17" s="75">
         <f>N17-C17</f>
         <v>0.27539800000000003</v>
       </c>
-      <c r="E17" s="72">
-        <v>0</v>
-      </c>
-      <c r="F17" s="78">
+      <c r="E17" s="69">
+        <v>0</v>
+      </c>
+      <c r="F17" s="75">
         <f>O17-E17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="72">
-        <v>0</v>
-      </c>
-      <c r="H17" s="78">
+      <c r="G17" s="69">
+        <v>0</v>
+      </c>
+      <c r="H17" s="75">
         <f>P17-G17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="72">
-        <v>0</v>
-      </c>
-      <c r="J17" s="78"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72">
+      <c r="I17" s="69">
+        <v>0</v>
+      </c>
+      <c r="J17" s="75"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69">
         <v>5.2276999999999997E-2</v>
       </c>
-      <c r="N17" s="72">
+      <c r="N17" s="69">
         <v>0.34487600000000002</v>
       </c>
-      <c r="O17" s="72">
-        <v>0</v>
-      </c>
-      <c r="P17" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="72">
+      <c r="O17" s="69">
+        <v>0</v>
+      </c>
+      <c r="P17" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="69">
         <v>-1</v>
       </c>
-      <c r="R17" s="72">
-        <v>0</v>
-      </c>
-      <c r="S17" s="72">
+      <c r="R17" s="69">
+        <v>0</v>
+      </c>
+      <c r="S17" s="69">
         <v>1</v>
       </c>
-      <c r="T17" s="72">
+      <c r="T17" s="69">
         <v>2</v>
       </c>
-      <c r="U17" s="72">
+      <c r="U17" s="69">
         <v>3</v>
       </c>
-      <c r="V17" s="72">
+      <c r="V17" s="69">
         <v>4</v>
       </c>
-      <c r="W17" s="72">
+      <c r="W17" s="69">
         <v>5</v>
       </c>
-      <c r="X17" s="72">
+      <c r="X17" s="69">
         <v>6</v>
       </c>
-      <c r="Y17" s="72">
+      <c r="Y17" s="69">
         <v>7</v>
       </c>
-      <c r="Z17" s="72">
+      <c r="Z17" s="69">
         <v>8</v>
       </c>
-      <c r="AA17" s="72">
+      <c r="AA17" s="69">
         <v>9</v>
       </c>
     </row>
@@ -3774,226 +4905,226 @@
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="66">
         <f t="shared" ref="C18:I18" si="13">C16+C17</f>
         <v>-1.2607869999999999</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="72">
         <f t="shared" si="13"/>
         <v>-0.88926600000000011</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="66">
         <f t="shared" si="13"/>
         <v>-1.3488820000000001</v>
       </c>
-      <c r="F18" s="75">
+      <c r="F18" s="72">
         <f t="shared" si="13"/>
         <v>-2.4136676000000006</v>
       </c>
-      <c r="G18" s="69">
+      <c r="G18" s="66">
         <f t="shared" si="13"/>
         <v>-0.2687220000000004</v>
       </c>
-      <c r="H18" s="75">
+      <c r="H18" s="72">
         <f t="shared" si="13"/>
         <v>2.2727220000000004</v>
       </c>
-      <c r="I18" s="69">
+      <c r="I18" s="66">
         <f t="shared" si="13"/>
         <v>9.0000000000008996E-3</v>
       </c>
-      <c r="J18" s="76"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="69">
+      <c r="J18" s="73"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="66">
         <f>M16+M17</f>
         <v>-2.813507</v>
       </c>
-      <c r="N18" s="69">
+      <c r="N18" s="66">
         <f>N16+N17</f>
         <v>-2.1500529999999998</v>
       </c>
-      <c r="O18" s="69">
+      <c r="O18" s="66">
         <f>O16+O17</f>
         <v>-3.7625495999999994</v>
       </c>
-      <c r="P18" s="69">
+      <c r="P18" s="66">
         <f>P16+P17</f>
         <v>2.0040000000000018</v>
       </c>
-      <c r="Q18" s="69">
+      <c r="Q18" s="66">
         <f>Q16+Q17</f>
         <v>2.2213400000000005</v>
       </c>
-      <c r="R18" s="69">
+      <c r="R18" s="66">
         <f t="shared" ref="R18:AA18" si="14">R16+R17</f>
         <v>4.8041362000000003</v>
       </c>
-      <c r="S18" s="69">
+      <c r="S18" s="66">
         <f t="shared" si="14"/>
         <v>7.7832483459999997</v>
       </c>
-      <c r="T18" s="69">
+      <c r="T18" s="66">
         <f t="shared" si="14"/>
         <v>11.25780477618</v>
       </c>
-      <c r="U18" s="69">
+      <c r="U18" s="66">
         <f t="shared" si="14"/>
         <v>15.351719861399401</v>
       </c>
-      <c r="V18" s="69">
+      <c r="V18" s="66">
         <f t="shared" si="14"/>
         <v>20.219890829217604</v>
       </c>
-      <c r="W18" s="69">
+      <c r="W18" s="66">
         <f t="shared" si="14"/>
         <v>26.055943819187824</v>
       </c>
-      <c r="X18" s="69">
+      <c r="X18" s="66">
         <f t="shared" si="14"/>
         <v>33.101916479263863</v>
       </c>
-      <c r="Y18" s="69">
+      <c r="Y18" s="66">
         <f t="shared" si="14"/>
         <v>41.660361240781249</v>
       </c>
-      <c r="Z18" s="69">
+      <c r="Z18" s="66">
         <f t="shared" si="14"/>
         <v>52.109474444014083</v>
       </c>
-      <c r="AA18" s="69">
+      <c r="AA18" s="66">
         <f t="shared" si="14"/>
         <v>64.922007779498131</v>
       </c>
-      <c r="AB18" s="59">
+      <c r="AB18" s="56">
         <f t="shared" ref="AB18:BH18" si="15">AA18*(1+$AD$22)</f>
         <v>63.948177662805655</v>
       </c>
-      <c r="AC18" s="59">
+      <c r="AC18" s="56">
         <f t="shared" si="15"/>
         <v>62.988954997863573</v>
       </c>
-      <c r="AD18" s="59">
+      <c r="AD18" s="56">
         <f t="shared" si="15"/>
         <v>62.044120672895616</v>
       </c>
-      <c r="AE18" s="59">
+      <c r="AE18" s="56">
         <f t="shared" si="15"/>
         <v>61.113458862802183</v>
       </c>
-      <c r="AF18" s="59">
+      <c r="AF18" s="56">
         <f t="shared" si="15"/>
         <v>60.196756979860147</v>
       </c>
-      <c r="AG18" s="59">
+      <c r="AG18" s="56">
         <f t="shared" si="15"/>
         <v>59.293805625162243</v>
       </c>
-      <c r="AH18" s="59">
+      <c r="AH18" s="56">
         <f t="shared" si="15"/>
         <v>58.404398540784811</v>
       </c>
-      <c r="AI18" s="59">
+      <c r="AI18" s="56">
         <f t="shared" si="15"/>
         <v>57.528332562673036</v>
       </c>
-      <c r="AJ18" s="59">
+      <c r="AJ18" s="56">
         <f t="shared" si="15"/>
         <v>56.665407574232937</v>
       </c>
-      <c r="AK18" s="59">
+      <c r="AK18" s="56">
         <f t="shared" si="15"/>
         <v>55.815426460619442</v>
       </c>
-      <c r="AL18" s="59">
+      <c r="AL18" s="56">
         <f t="shared" si="15"/>
         <v>54.978195063710146</v>
       </c>
-      <c r="AM18" s="59">
+      <c r="AM18" s="56">
         <f t="shared" si="15"/>
         <v>54.153522137754493</v>
       </c>
-      <c r="AN18" s="59">
+      <c r="AN18" s="56">
         <f t="shared" si="15"/>
         <v>53.341219305688178</v>
       </c>
-      <c r="AO18" s="59">
+      <c r="AO18" s="56">
         <f t="shared" si="15"/>
         <v>52.541101016102857</v>
       </c>
-      <c r="AP18" s="59">
+      <c r="AP18" s="56">
         <f t="shared" si="15"/>
         <v>51.752984500861317</v>
       </c>
-      <c r="AQ18" s="59">
+      <c r="AQ18" s="56">
         <f t="shared" si="15"/>
         <v>50.976689733348394</v>
       </c>
-      <c r="AR18" s="59">
+      <c r="AR18" s="56">
         <f t="shared" si="15"/>
         <v>50.21203938734817</v>
       </c>
-      <c r="AS18" s="59">
+      <c r="AS18" s="56">
         <f t="shared" si="15"/>
         <v>49.458858796537946</v>
       </c>
-      <c r="AT18" s="59">
+      <c r="AT18" s="56">
         <f t="shared" si="15"/>
         <v>48.716975914589874</v>
       </c>
-      <c r="AU18" s="59">
+      <c r="AU18" s="56">
         <f t="shared" si="15"/>
         <v>47.986221275871024</v>
       </c>
-      <c r="AV18" s="59">
+      <c r="AV18" s="56">
         <f t="shared" si="15"/>
         <v>47.266427956732961</v>
       </c>
-      <c r="AW18" s="59">
+      <c r="AW18" s="56">
         <f t="shared" si="15"/>
         <v>46.557431537381966</v>
       </c>
-      <c r="AX18" s="59">
+      <c r="AX18" s="56">
         <f t="shared" si="15"/>
         <v>45.859070064321237</v>
       </c>
-      <c r="AY18" s="59">
+      <c r="AY18" s="56">
         <f t="shared" si="15"/>
         <v>45.171184013356417</v>
       </c>
-      <c r="AZ18" s="59">
+      <c r="AZ18" s="56">
         <f t="shared" si="15"/>
         <v>44.49361625315607</v>
       </c>
-      <c r="BA18" s="59">
+      <c r="BA18" s="56">
         <f t="shared" si="15"/>
         <v>43.826212009358727</v>
       </c>
-      <c r="BB18" s="59">
+      <c r="BB18" s="56">
         <f t="shared" si="15"/>
         <v>43.168818829218345</v>
       </c>
-      <c r="BC18" s="59">
+      <c r="BC18" s="56">
         <f t="shared" si="15"/>
         <v>42.521286546780068</v>
       </c>
-      <c r="BD18" s="59">
+      <c r="BD18" s="56">
         <f t="shared" si="15"/>
         <v>41.88346724857837</v>
       </c>
-      <c r="BE18" s="59">
+      <c r="BE18" s="56">
         <f t="shared" si="15"/>
         <v>41.255215239849697</v>
       </c>
-      <c r="BF18" s="59">
+      <c r="BF18" s="56">
         <f t="shared" si="15"/>
         <v>40.636387011251948</v>
       </c>
-      <c r="BG18" s="59">
+      <c r="BG18" s="56">
         <f t="shared" si="15"/>
         <v>40.026841206083169</v>
       </c>
-      <c r="BH18" s="59">
+      <c r="BH18" s="56">
         <f t="shared" si="15"/>
         <v>39.426438587991925</v>
       </c>
@@ -4002,94 +5133,94 @@
       <c r="B19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="69">
         <f t="shared" ref="C19:I19" si="16">(C18/C20)</f>
         <v>-5.8309467350935564E-3</v>
       </c>
-      <c r="D19" s="78">
+      <c r="D19" s="75">
         <f t="shared" si="16"/>
         <v>-3.6932717437238396E-3</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="69">
         <f t="shared" si="16"/>
         <v>-3.9258307454951135E-3</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="75">
         <f t="shared" si="16"/>
         <v>-4.6611916836287381E-3</v>
       </c>
-      <c r="G19" s="72">
+      <c r="G19" s="69">
         <f t="shared" si="16"/>
         <v>-4.0439192608093311E-4</v>
       </c>
-      <c r="H19" s="78">
+      <c r="H19" s="75">
         <f t="shared" si="16"/>
         <v>3.1971802850663715E-3</v>
       </c>
-      <c r="I19" s="72">
+      <c r="I19" s="69">
         <f t="shared" si="16"/>
         <v>1.1621600681801736E-5</v>
       </c>
-      <c r="J19" s="76"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="72">
+      <c r="J19" s="73"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="69">
         <f>(M18/M20)</f>
         <v>-1.7770826388743045E-2</v>
       </c>
-      <c r="N19" s="72">
+      <c r="N19" s="69">
         <f>(N18/N20)</f>
         <v>-8.9295328871323888E-3</v>
       </c>
-      <c r="O19" s="72">
+      <c r="O19" s="69">
         <f>(O18/O20)</f>
         <v>-7.2661061136838519E-3</v>
       </c>
-      <c r="P19" s="72">
+      <c r="P19" s="69">
         <f>(P18/P20)</f>
         <v>2.8191522285932963E-3</v>
       </c>
-      <c r="Q19" s="72">
+      <c r="Q19" s="69">
         <f>(Q18/Q20)</f>
         <v>3.1248980097122897E-3</v>
       </c>
-      <c r="R19" s="72">
+      <c r="R19" s="69">
         <f t="shared" ref="R19:AA19" si="17">(R18/R20)</f>
         <v>6.7582790791894803E-3</v>
       </c>
-      <c r="S19" s="72">
+      <c r="S19" s="69">
         <f t="shared" si="17"/>
         <v>1.0949182594970542E-2</v>
       </c>
-      <c r="T19" s="72">
+      <c r="T19" s="69">
         <f t="shared" si="17"/>
         <v>1.583705859472858E-2</v>
       </c>
-      <c r="U19" s="72">
+      <c r="U19" s="69">
         <f t="shared" si="17"/>
         <v>2.1596225179642742E-2</v>
       </c>
-      <c r="V19" s="72">
+      <c r="V19" s="69">
         <f t="shared" si="17"/>
         <v>2.8444585974601751E-2</v>
       </c>
-      <c r="W19" s="72">
+      <c r="W19" s="69">
         <f t="shared" si="17"/>
         <v>3.6654526989004496E-2</v>
       </c>
-      <c r="X19" s="72">
+      <c r="X19" s="69">
         <f t="shared" si="17"/>
         <v>4.6566537731150597E-2</v>
       </c>
-      <c r="Y19" s="72">
+      <c r="Y19" s="69">
         <f t="shared" si="17"/>
         <v>5.8606237642689692E-2</v>
       </c>
-      <c r="Z19" s="72">
+      <c r="Z19" s="69">
         <f t="shared" si="17"/>
         <v>7.330565918646087E-2</v>
       </c>
-      <c r="AA19" s="72">
+      <c r="AA19" s="69">
         <f t="shared" si="17"/>
         <v>9.1329851754652344E-2</v>
       </c>
@@ -4098,86 +5229,86 @@
       <c r="B20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="69">
         <v>216.223378</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="75">
         <f>N20</f>
         <v>240.78000800000001</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="69">
         <v>343.59148099999999</v>
       </c>
-      <c r="F20" s="78">
+      <c r="F20" s="75">
         <f>O20</f>
         <v>517.822</v>
       </c>
-      <c r="G20" s="72">
+      <c r="G20" s="69">
         <v>664.50881600000002</v>
       </c>
-      <c r="H20" s="76">
+      <c r="H20" s="73">
         <f>P20</f>
         <v>710.85199999999998</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="70">
         <v>774.42</v>
       </c>
-      <c r="J20" s="76"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="72">
+      <c r="J20" s="73"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="69">
         <v>158.321675</v>
       </c>
-      <c r="N20" s="72">
+      <c r="N20" s="69">
         <v>240.78000800000001</v>
       </c>
-      <c r="O20" s="72">
+      <c r="O20" s="69">
         <v>517.822</v>
       </c>
-      <c r="P20" s="72">
+      <c r="P20" s="69">
         <v>710.85199999999998</v>
       </c>
-      <c r="Q20" s="72">
+      <c r="Q20" s="69">
         <f>P20</f>
         <v>710.85199999999998</v>
       </c>
-      <c r="R20" s="72">
+      <c r="R20" s="69">
         <f t="shared" ref="R20:AA20" si="18">Q20</f>
         <v>710.85199999999998</v>
       </c>
-      <c r="S20" s="72">
+      <c r="S20" s="69">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="T20" s="72">
+      <c r="T20" s="69">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="U20" s="72">
+      <c r="U20" s="69">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="V20" s="72">
+      <c r="V20" s="69">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="W20" s="72">
+      <c r="W20" s="69">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="X20" s="72">
+      <c r="X20" s="69">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="Y20" s="72">
+      <c r="Y20" s="69">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="Z20" s="72">
+      <c r="Z20" s="69">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="AA20" s="72">
+      <c r="AA20" s="69">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
@@ -4190,7 +5321,7 @@
         <f t="shared" ref="C22:H22" si="19">C7/C4</f>
         <v>-14.275179741680983</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="36">
         <f t="shared" si="19"/>
         <v>-14.508275395311639</v>
       </c>
@@ -4198,7 +5329,7 @@
         <f t="shared" si="19"/>
         <v>-12.698512630833399</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="36">
         <f t="shared" si="19"/>
         <v>-13.024284121502188</v>
       </c>
@@ -4206,11 +5337,11 @@
         <f t="shared" si="19"/>
         <v>0.33592708936226096</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="36">
         <f t="shared" si="19"/>
         <v>0.30721802370732998</v>
       </c>
-      <c r="I22" s="87">
+      <c r="I22" s="84">
         <v>0.31</v>
       </c>
       <c r="M22" s="17">
@@ -4273,10 +5404,10 @@
         <f t="shared" si="20"/>
         <v>0.31</v>
       </c>
-      <c r="AC22" s="47" t="s">
+      <c r="AC22" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="AD22" s="52">
+      <c r="AD22" s="49">
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
@@ -4288,7 +5419,7 @@
         <f t="shared" ref="C23:H23" si="21">C14/C4</f>
         <v>-83.908443087103137</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="36">
         <f t="shared" si="21"/>
         <v>-70.743431981787978</v>
       </c>
@@ -4296,7 +5427,7 @@
         <f t="shared" si="21"/>
         <v>-105.99677343196664</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="36">
         <f t="shared" si="21"/>
         <v>-65.566872433578993</v>
       </c>
@@ -4304,7 +5435,7 @@
         <f t="shared" si="21"/>
         <v>-8.1529681794789297E-2</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="36">
         <f t="shared" si="21"/>
         <v>0.1765353074049438</v>
       </c>
@@ -4372,10 +5503,10 @@
         <f t="shared" si="23"/>
         <v>0.2938492863893698</v>
       </c>
-      <c r="AC23" s="48" t="s">
+      <c r="AC23" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="AD23" s="53">
+      <c r="AD23" s="50">
         <v>0.15</v>
       </c>
     </row>
@@ -4387,7 +5518,7 @@
         <f t="shared" ref="C24:H24" si="24">C18/C4</f>
         <v>-80.218044156009412</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="36">
         <f t="shared" si="24"/>
         <v>-54.713960499600077</v>
       </c>
@@ -4395,7 +5526,7 @@
         <f t="shared" si="24"/>
         <v>-106.15267175572521</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="36">
         <f t="shared" si="24"/>
         <v>-65.636951023849036</v>
       </c>
@@ -4403,7 +5534,7 @@
         <f t="shared" si="24"/>
         <v>-8.2073946022549527E-2</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <f t="shared" si="24"/>
         <v>0.17346566573969871</v>
       </c>
@@ -4471,10 +5602,10 @@
         <f t="shared" si="26"/>
         <v>0.34054457767904495</v>
       </c>
-      <c r="AC24" s="48" t="s">
+      <c r="AC24" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AD24" s="54">
+      <c r="AD24" s="51">
         <f>NPV(AD23,P18:BH18)</f>
         <v>154.42854876708077</v>
       </c>
@@ -4487,7 +5618,7 @@
         <f t="shared" ref="C25:H25" si="27">C17/C16</f>
         <v>-5.222869127579844E-2</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="36">
         <f t="shared" si="27"/>
         <v>-0.23646133133676323</v>
       </c>
@@ -4495,7 +5626,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="36">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -4503,7 +5634,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="36">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -4571,19 +5702,19 @@
         <f t="shared" si="29"/>
         <v>0.1609384275952184</v>
       </c>
-      <c r="AC25" s="48" t="s">
+      <c r="AC25" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AD25" s="55">
+      <c r="AD25" s="52">
         <f>Main!C11</f>
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="AC26" s="48" t="s">
+      <c r="AC26" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="AD26" s="56">
+      <c r="AD26" s="53">
         <f>AD25+AD24</f>
         <v>161.42854876708077</v>
       </c>
@@ -4595,15 +5726,15 @@
       <c r="C27" s="16">
         <v>0</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="37">
         <f t="shared" ref="D27:I27" si="30">D4/C4-1</f>
         <v>3.410320035630221E-2</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="39">
         <f t="shared" si="30"/>
         <v>-0.21817510613425217</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="37">
         <f t="shared" si="30"/>
         <v>1.893916738805383</v>
       </c>
@@ -4611,7 +5742,7 @@
         <f t="shared" si="30"/>
         <v>88.036657330106323</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="37">
         <f t="shared" si="30"/>
         <v>3.0016111076326801</v>
       </c>
@@ -4619,111 +5750,111 @@
         <f t="shared" si="30"/>
         <v>-0.24957191176363958</v>
       </c>
-      <c r="AC27" s="50" t="s">
+      <c r="AC27" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="AD27" s="58">
+      <c r="AD27" s="55">
         <f>AD26/Main!C7</f>
         <v>0.20693580069874087</v>
       </c>
-      <c r="AF27" s="104"/>
+      <c r="AF27" s="101"/>
     </row>
     <row r="28" spans="2:60" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="99">
-        <v>0</v>
-      </c>
-      <c r="D28" s="100">
-        <v>0</v>
-      </c>
-      <c r="E28" s="101">
+      <c r="C28" s="96">
+        <v>0</v>
+      </c>
+      <c r="D28" s="97">
+        <v>0</v>
+      </c>
+      <c r="E28" s="98">
         <f>E4/C4-1</f>
         <v>-0.19151237513520392</v>
       </c>
-      <c r="F28" s="102">
+      <c r="F28" s="99">
         <f>F4/D4-1</f>
         <v>1.2625361471728298</v>
       </c>
-      <c r="G28" s="101">
+      <c r="G28" s="98">
         <f>G4/E4-1</f>
         <v>256.6646730148737</v>
       </c>
-      <c r="H28" s="102">
+      <c r="H28" s="99">
         <f>H4/F4-1</f>
         <v>355.29007695863817</v>
       </c>
-      <c r="I28" s="101">
+      <c r="I28" s="98">
         <f>I4/G4-1</f>
         <v>2.0029213733661768</v>
       </c>
-      <c r="J28" s="66"/>
-      <c r="M28" s="99">
-        <v>0</v>
-      </c>
-      <c r="N28" s="101">
+      <c r="J28" s="63"/>
+      <c r="M28" s="96">
+        <v>0</v>
+      </c>
+      <c r="N28" s="98">
         <f>N4/M4-1</f>
         <v>5.6081025217031826</v>
       </c>
-      <c r="O28" s="101">
+      <c r="O28" s="98">
         <f>O4/N4-1</f>
         <v>0.54770096965905557</v>
       </c>
-      <c r="P28" s="101">
+      <c r="P28" s="98">
         <f>P4/O4-1</f>
         <v>329.9620048504446</v>
       </c>
-      <c r="Q28" s="101">
+      <c r="Q28" s="98">
         <f>Q4/P4-1</f>
         <v>0.25</v>
       </c>
-      <c r="R28" s="101">
+      <c r="R28" s="98">
         <f t="shared" ref="R28:S28" si="31">R4/Q4-1</f>
         <v>0.25</v>
       </c>
-      <c r="S28" s="101">
+      <c r="S28" s="98">
         <f t="shared" si="31"/>
         <v>0.25</v>
       </c>
-      <c r="T28" s="101">
+      <c r="T28" s="98">
         <f t="shared" ref="T28:AA28" si="32">T4/S4-1</f>
         <v>0.25</v>
       </c>
-      <c r="U28" s="101">
+      <c r="U28" s="98">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="V28" s="101">
+      <c r="V28" s="98">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="W28" s="101">
+      <c r="W28" s="98">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="X28" s="101">
+      <c r="X28" s="98">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="Y28" s="101">
+      <c r="Y28" s="98">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="Z28" s="101">
+      <c r="Z28" s="98">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="AA28" s="101">
+      <c r="AA28" s="98">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="AC28" s="50" t="s">
+      <c r="AC28" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="AD28" s="103">
+      <c r="AD28" s="100">
         <f>Main!C6</f>
-        <v>1.6500000000000001E-2</v>
+        <v>1.0349000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="2:60" x14ac:dyDescent="0.25">
@@ -4733,7 +5864,7 @@
       <c r="C29" s="16">
         <v>0</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="38">
         <f t="shared" ref="D29:I29" si="33">D18/C18-1</f>
         <v>-0.29467388226560065</v>
       </c>
@@ -4741,7 +5872,7 @@
         <f t="shared" si="33"/>
         <v>0.51684872692760098</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="38">
         <f t="shared" si="33"/>
         <v>0.78938380080689075</v>
       </c>
@@ -4749,7 +5880,7 @@
         <f t="shared" si="33"/>
         <v>-0.8886665255812356</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="38">
         <f t="shared" si="33"/>
         <v>-9.4575211556924881</v>
       </c>
@@ -4780,76 +5911,76 @@
       <c r="Y29" s="18"/>
       <c r="Z29" s="18"/>
       <c r="AA29" s="18"/>
-      <c r="AC29" s="48"/>
-      <c r="AD29" s="49"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="46"/>
     </row>
     <row r="30" spans="2:60" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="99">
-        <v>0</v>
-      </c>
-      <c r="D30" s="100">
-        <v>0</v>
-      </c>
-      <c r="E30" s="101">
+      <c r="C30" s="96">
+        <v>0</v>
+      </c>
+      <c r="D30" s="97">
+        <v>0</v>
+      </c>
+      <c r="E30" s="98">
         <f>E18/C18-1</f>
         <v>6.9873023754210895E-2</v>
       </c>
-      <c r="F30" s="102">
+      <c r="F30" s="99">
         <f>F18/D18-1</f>
         <v>1.7142245402388041</v>
       </c>
-      <c r="G30" s="101">
+      <c r="G30" s="98">
         <f>G18/E18-1</f>
         <v>-0.80078168438751474</v>
       </c>
-      <c r="H30" s="102">
+      <c r="H30" s="99">
         <f>H18/F18-1</f>
         <v>-1.941605215233448</v>
       </c>
-      <c r="I30" s="101">
+      <c r="I30" s="98">
         <f>I18/G18-1</f>
         <v>-1.0334918614776643</v>
       </c>
-      <c r="J30" s="66"/>
-      <c r="M30" s="99">
-        <v>0</v>
-      </c>
-      <c r="N30" s="101">
+      <c r="J30" s="63"/>
+      <c r="M30" s="96">
+        <v>0</v>
+      </c>
+      <c r="N30" s="98">
         <f>N18/M18-1</f>
         <v>-0.23581032497875432</v>
       </c>
-      <c r="O30" s="101">
+      <c r="O30" s="98">
         <f>O18/N18-1</f>
         <v>0.74997993072728897</v>
       </c>
-      <c r="P30" s="101">
+      <c r="P30" s="98">
         <f>P18/O18-1</f>
         <v>-1.5326175633671386</v>
       </c>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="101"/>
-      <c r="AA30" s="101"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="103"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="100"/>
     </row>
     <row r="31" spans="2:60" x14ac:dyDescent="0.25">
       <c r="C31" s="16"/>
-      <c r="D31" s="67"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="39"/>
+      <c r="F31" s="38"/>
       <c r="G31" s="18"/>
-      <c r="H31" s="39"/>
+      <c r="H31" s="38"/>
       <c r="M31" s="16"/>
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
@@ -4865,16 +5996,16 @@
       <c r="Y31" s="18"/>
       <c r="Z31" s="18"/>
       <c r="AA31" s="18"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="49"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="46"/>
     </row>
     <row r="32" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="AC32" s="51" t="s">
+      <c r="AC32" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="AD32" s="57">
+      <c r="AD32" s="54">
         <f>AD27/AD28</f>
-        <v>12.541563678711567</v>
+        <v>19.995729123465154</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -4886,33 +6017,33 @@
       <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="62">
+      <c r="D34" s="59">
         <v>0.25986100000000001</v>
       </c>
-      <c r="E34" s="60">
+      <c r="E34" s="57">
         <v>7.0184999999999997E-2</v>
       </c>
-      <c r="F34" s="62">
+      <c r="F34" s="59">
         <f t="shared" ref="F34:F40" si="34">O34</f>
         <v>5.5516999999999997E-2</v>
       </c>
-      <c r="G34" s="60">
+      <c r="G34" s="57">
         <v>0.15177399999999999</v>
       </c>
-      <c r="H34" s="62">
+      <c r="H34" s="59">
         <f>P34</f>
         <v>0.16300000000000001</v>
       </c>
-      <c r="I34" s="60">
+      <c r="I34" s="57">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="N34" s="60">
+      <c r="N34" s="57">
         <v>0.25986100000000001</v>
       </c>
-      <c r="O34" s="60">
+      <c r="O34" s="57">
         <v>5.5516999999999997E-2</v>
       </c>
-      <c r="P34" s="60">
+      <c r="P34" s="57">
         <v>0.16300000000000001</v>
       </c>
     </row>
@@ -4920,33 +6051,33 @@
       <c r="B35" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="62">
+      <c r="D35" s="59">
         <v>0.44419799999999998</v>
       </c>
-      <c r="E35" s="61">
-        <v>0</v>
-      </c>
-      <c r="F35" s="62">
+      <c r="E35" s="58">
+        <v>0</v>
+      </c>
+      <c r="F35" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G35" s="61">
-        <v>0</v>
-      </c>
-      <c r="H35" s="62">
+      <c r="G35" s="58">
+        <v>0</v>
+      </c>
+      <c r="H35" s="59">
         <f>P35</f>
         <v>0</v>
       </c>
-      <c r="I35" s="105">
+      <c r="I35" s="102">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="N35" s="61">
+      <c r="N35" s="58">
         <v>0.44419799999999998</v>
       </c>
-      <c r="O35" s="61">
-        <v>0</v>
-      </c>
-      <c r="P35" s="61">
+      <c r="O35" s="58">
+        <v>0</v>
+      </c>
+      <c r="P35" s="58">
         <v>0</v>
       </c>
     </row>
@@ -4954,33 +6085,33 @@
       <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="62">
+      <c r="D36" s="59">
         <v>0.79053300000000004</v>
       </c>
-      <c r="E36" s="60">
+      <c r="E36" s="57">
         <v>0.74207100000000004</v>
       </c>
-      <c r="F36" s="62">
+      <c r="F36" s="59">
         <f t="shared" si="34"/>
         <v>0.61656</v>
       </c>
-      <c r="G36" s="60">
+      <c r="G36" s="57">
         <v>0.50338899999999998</v>
       </c>
-      <c r="H36" s="62">
+      <c r="H36" s="59">
         <f>P36</f>
         <v>2.2890000000000001</v>
       </c>
-      <c r="I36" s="60">
+      <c r="I36" s="57">
         <v>2.52</v>
       </c>
-      <c r="N36" s="60">
+      <c r="N36" s="57">
         <v>0.79053300000000004</v>
       </c>
-      <c r="O36" s="60">
+      <c r="O36" s="57">
         <v>0.61656</v>
       </c>
-      <c r="P36" s="60">
+      <c r="P36" s="57">
         <v>2.2890000000000001</v>
       </c>
     </row>
@@ -4988,33 +6119,33 @@
       <c r="B37" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="62">
+      <c r="D37" s="59">
         <v>0.38020500000000002</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E37" s="57">
         <v>0.476802</v>
       </c>
-      <c r="F37" s="62">
+      <c r="F37" s="59">
         <f t="shared" si="34"/>
         <v>2.8080000000000002E-3</v>
       </c>
-      <c r="G37" s="60">
+      <c r="G37" s="57">
         <v>0.78258399999999995</v>
       </c>
-      <c r="H37" s="62">
+      <c r="H37" s="59">
         <f t="shared" ref="H37:H54" si="35">P37</f>
         <v>0.497</v>
       </c>
-      <c r="I37" s="60">
+      <c r="I37" s="57">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N37" s="60">
+      <c r="N37" s="57">
         <v>0.38020500000000002</v>
       </c>
-      <c r="O37" s="60">
+      <c r="O37" s="57">
         <v>2.8080000000000002E-3</v>
       </c>
-      <c r="P37" s="60">
+      <c r="P37" s="57">
         <v>0.497</v>
       </c>
     </row>
@@ -5022,33 +6153,33 @@
       <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="62">
+      <c r="D38" s="59">
         <v>0.122765</v>
       </c>
-      <c r="E38" s="60">
+      <c r="E38" s="57">
         <v>0.22198100000000001</v>
       </c>
-      <c r="F38" s="62">
+      <c r="F38" s="59">
         <f t="shared" si="34"/>
         <v>0.19489699999999999</v>
       </c>
-      <c r="G38" s="60">
+      <c r="G38" s="57">
         <v>3.1137700000000001</v>
       </c>
-      <c r="H38" s="62">
+      <c r="H38" s="59">
         <f t="shared" si="35"/>
         <v>2.3319999999999999</v>
       </c>
-      <c r="I38" s="60">
+      <c r="I38" s="57">
         <v>3.2240000000000002</v>
       </c>
-      <c r="N38" s="60">
+      <c r="N38" s="57">
         <v>0.122765</v>
       </c>
-      <c r="O38" s="60">
+      <c r="O38" s="57">
         <v>0.19489699999999999</v>
       </c>
-      <c r="P38" s="60">
+      <c r="P38" s="57">
         <v>2.3319999999999999</v>
       </c>
     </row>
@@ -5056,33 +6187,33 @@
       <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="62">
+      <c r="D39" s="59">
         <v>0.17830299999999999</v>
       </c>
-      <c r="E39" s="60">
+      <c r="E39" s="57">
         <v>0.17830199999999999</v>
       </c>
-      <c r="F39" s="62">
+      <c r="F39" s="59">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G39" s="60">
-        <v>0</v>
-      </c>
-      <c r="H39" s="62">
+      <c r="G39" s="57">
+        <v>0</v>
+      </c>
+      <c r="H39" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I39" s="60">
-        <v>0</v>
-      </c>
-      <c r="N39" s="60">
+      <c r="I39" s="57">
+        <v>0</v>
+      </c>
+      <c r="N39" s="57">
         <v>0.17830299999999999</v>
       </c>
-      <c r="O39" s="60">
-        <v>0</v>
-      </c>
-      <c r="P39" s="60">
+      <c r="O39" s="57">
+        <v>0</v>
+      </c>
+      <c r="P39" s="57">
         <v>0</v>
       </c>
     </row>
@@ -5091,37 +6222,37 @@
         <v>4</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="63">
+      <c r="D40" s="60">
         <v>0.61626300000000001</v>
       </c>
-      <c r="E40" s="64">
+      <c r="E40" s="61">
         <v>1.3517459999999999</v>
       </c>
-      <c r="F40" s="63">
+      <c r="F40" s="60">
         <f t="shared" si="34"/>
         <v>0.465671</v>
       </c>
-      <c r="G40" s="64">
+      <c r="G40" s="61">
         <v>2.214496</v>
       </c>
-      <c r="H40" s="63">
+      <c r="H40" s="60">
         <f t="shared" si="35"/>
         <v>6.3869999999999996</v>
       </c>
-      <c r="I40" s="89">
+      <c r="I40" s="86">
         <v>6.9950000000000001</v>
       </c>
-      <c r="J40" s="66"/>
+      <c r="J40" s="63"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
-      <c r="N40" s="64">
+      <c r="N40" s="61">
         <v>0.61626300000000001</v>
       </c>
-      <c r="O40" s="64">
+      <c r="O40" s="61">
         <v>0.465671</v>
       </c>
-      <c r="P40" s="64">
+      <c r="P40" s="61">
         <v>6.3869999999999996</v>
       </c>
     </row>
@@ -5129,89 +6260,89 @@
       <c r="B41" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="62">
+      <c r="D41" s="59">
         <v>2.7921279999999999</v>
       </c>
-      <c r="E41" s="43">
+      <c r="E41" s="42">
         <f>SUM(E34:E40)</f>
         <v>3.0410870000000001</v>
       </c>
-      <c r="F41" s="62">
+      <c r="F41" s="59">
         <f>SUM(F34:F40)</f>
         <v>1.335453</v>
       </c>
-      <c r="G41" s="43">
+      <c r="G41" s="42">
         <f>SUM(G34:G40)</f>
         <v>6.7660130000000009</v>
       </c>
-      <c r="H41" s="62">
+      <c r="H41" s="59">
         <f t="shared" si="35"/>
         <v>11.667999999999999</v>
       </c>
-      <c r="I41" s="43">
+      <c r="I41" s="42">
         <f>SUM(I34:I40)</f>
         <v>13.626000000000001</v>
       </c>
-      <c r="N41" s="43">
+      <c r="N41" s="42">
         <f>SUM(N34:N40)</f>
         <v>2.7921279999999999</v>
       </c>
-      <c r="O41" s="43">
+      <c r="O41" s="42">
         <f>SUM(O34:O40)</f>
         <v>1.335453</v>
       </c>
-      <c r="P41" s="43">
+      <c r="P41" s="42">
         <f>SUM(P34:P40)</f>
         <v>11.667999999999999</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D42" s="62"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="62">
+      <c r="D42" s="59"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="59">
         <f t="shared" ref="F42:F47" si="36">O42</f>
         <v>0</v>
       </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="62">
+      <c r="G42" s="42"/>
+      <c r="H42" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="62">
+      <c r="D43" s="59">
         <v>0.27152300000000001</v>
       </c>
-      <c r="E43" s="43">
+      <c r="E43" s="42">
         <v>0.31251600000000002</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="59">
         <f t="shared" si="36"/>
         <v>0.38318600000000003</v>
       </c>
-      <c r="G43" s="43">
+      <c r="G43" s="42">
         <v>2.9940030000000002</v>
       </c>
-      <c r="H43" s="62">
+      <c r="H43" s="59">
         <f t="shared" si="35"/>
         <v>3.3149999999999999</v>
       </c>
-      <c r="I43" s="43">
+      <c r="I43" s="42">
         <v>5.0940000000000003</v>
       </c>
-      <c r="N43" s="43">
+      <c r="N43" s="42">
         <v>0.27152300000000001</v>
       </c>
-      <c r="O43" s="43">
+      <c r="O43" s="42">
         <v>0.38318600000000003</v>
       </c>
-      <c r="P43" s="43">
+      <c r="P43" s="42">
         <v>3.3149999999999999</v>
       </c>
     </row>
@@ -5219,33 +6350,33 @@
       <c r="B44" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="62">
-        <v>0</v>
-      </c>
-      <c r="E44" s="43">
-        <v>0</v>
-      </c>
-      <c r="F44" s="62">
+      <c r="D44" s="59">
+        <v>0</v>
+      </c>
+      <c r="E44" s="42">
+        <v>0</v>
+      </c>
+      <c r="F44" s="59">
         <f t="shared" si="36"/>
         <v>8.7378999999999998E-2</v>
       </c>
-      <c r="G44" s="43">
-        <v>0</v>
-      </c>
-      <c r="H44" s="62">
+      <c r="G44" s="42">
+        <v>0</v>
+      </c>
+      <c r="H44" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I44" s="43">
-        <v>0</v>
-      </c>
-      <c r="N44" s="43">
-        <v>0</v>
-      </c>
-      <c r="O44" s="43">
+      <c r="I44" s="42">
+        <v>0</v>
+      </c>
+      <c r="N44" s="42">
+        <v>0</v>
+      </c>
+      <c r="O44" s="42">
         <v>8.7378999999999998E-2</v>
       </c>
-      <c r="P44" s="43">
+      <c r="P44" s="42">
         <v>0</v>
       </c>
     </row>
@@ -5253,33 +6384,33 @@
       <c r="B45" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="62">
+      <c r="D45" s="59">
         <v>0.101036</v>
       </c>
-      <c r="E45" s="43">
-        <v>0</v>
-      </c>
-      <c r="F45" s="62">
+      <c r="E45" s="42">
+        <v>0</v>
+      </c>
+      <c r="F45" s="59">
         <f t="shared" si="36"/>
         <v>4.895E-3</v>
       </c>
-      <c r="G45" s="43">
-        <v>0</v>
-      </c>
-      <c r="H45" s="62">
+      <c r="G45" s="42">
+        <v>0</v>
+      </c>
+      <c r="H45" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I45" s="43">
+      <c r="I45" s="42">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="N45" s="43">
+      <c r="N45" s="42">
         <v>0.101036</v>
       </c>
-      <c r="O45" s="43">
+      <c r="O45" s="42">
         <v>4.895E-3</v>
       </c>
-      <c r="P45" s="43">
+      <c r="P45" s="42">
         <v>0</v>
       </c>
     </row>
@@ -5287,33 +6418,33 @@
       <c r="B46" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="62">
-        <v>0</v>
-      </c>
-      <c r="E46" s="43">
+      <c r="D46" s="59">
+        <v>0</v>
+      </c>
+      <c r="E46" s="42">
         <v>0.102697</v>
       </c>
-      <c r="F46" s="62">
+      <c r="F46" s="59">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G46" s="43">
-        <v>0</v>
-      </c>
-      <c r="H46" s="62">
+      <c r="G46" s="42">
+        <v>0</v>
+      </c>
+      <c r="H46" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I46" s="43">
-        <v>0</v>
-      </c>
-      <c r="N46" s="43">
-        <v>0</v>
-      </c>
-      <c r="O46" s="43">
-        <v>0</v>
-      </c>
-      <c r="P46" s="43">
+      <c r="I46" s="42">
+        <v>0</v>
+      </c>
+      <c r="N46" s="42">
+        <v>0</v>
+      </c>
+      <c r="O46" s="42">
+        <v>0</v>
+      </c>
+      <c r="P46" s="42">
         <v>0</v>
       </c>
     </row>
@@ -5321,33 +6452,33 @@
       <c r="B47" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="62">
-        <v>0</v>
-      </c>
-      <c r="E47" s="43">
-        <v>0</v>
-      </c>
-      <c r="F47" s="62">
+      <c r="D47" s="59">
+        <v>0</v>
+      </c>
+      <c r="E47" s="42">
+        <v>0</v>
+      </c>
+      <c r="F47" s="59">
         <f t="shared" si="36"/>
         <v>0.22625000000000001</v>
       </c>
-      <c r="G47" s="43">
+      <c r="G47" s="42">
         <v>0.22625000000000001</v>
       </c>
-      <c r="H47" s="62">
+      <c r="H47" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I47" s="43">
-        <v>0</v>
-      </c>
-      <c r="N47" s="43">
-        <v>0</v>
-      </c>
-      <c r="O47" s="43">
+      <c r="I47" s="42">
+        <v>0</v>
+      </c>
+      <c r="N47" s="42">
+        <v>0</v>
+      </c>
+      <c r="O47" s="42">
         <v>0.22625000000000001</v>
       </c>
-      <c r="P47" s="43">
+      <c r="P47" s="42">
         <v>0</v>
       </c>
     </row>
@@ -5355,32 +6486,32 @@
       <c r="B48" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="62">
-        <v>0</v>
-      </c>
-      <c r="E48" s="43">
-        <v>0</v>
-      </c>
-      <c r="F48" s="62">
-        <v>0</v>
-      </c>
-      <c r="G48" s="43">
-        <v>0</v>
-      </c>
-      <c r="H48" s="62">
+      <c r="D48" s="59">
+        <v>0</v>
+      </c>
+      <c r="E48" s="42">
+        <v>0</v>
+      </c>
+      <c r="F48" s="59">
+        <v>0</v>
+      </c>
+      <c r="G48" s="42">
+        <v>0</v>
+      </c>
+      <c r="H48" s="59">
         <f t="shared" si="35"/>
         <v>1.24</v>
       </c>
-      <c r="I48" s="43">
-        <v>0</v>
-      </c>
-      <c r="N48" s="43">
-        <v>0</v>
-      </c>
-      <c r="O48" s="43">
-        <v>0</v>
-      </c>
-      <c r="P48" s="43">
+      <c r="I48" s="42">
+        <v>0</v>
+      </c>
+      <c r="N48" s="42">
+        <v>0</v>
+      </c>
+      <c r="O48" s="42">
+        <v>0</v>
+      </c>
+      <c r="P48" s="42">
         <v>1.24</v>
       </c>
     </row>
@@ -5391,33 +6522,33 @@
       <c r="C49" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="62">
+      <c r="D49" s="59">
         <v>0.185747</v>
       </c>
-      <c r="E49" s="43">
-        <v>0</v>
-      </c>
-      <c r="F49" s="62">
+      <c r="E49" s="42">
+        <v>0</v>
+      </c>
+      <c r="F49" s="59">
         <f>O49</f>
         <v>0</v>
       </c>
-      <c r="G49" s="43">
-        <v>0</v>
-      </c>
-      <c r="H49" s="62">
+      <c r="G49" s="42">
+        <v>0</v>
+      </c>
+      <c r="H49" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I49" s="43">
+      <c r="I49" s="42">
         <v>0.04</v>
       </c>
-      <c r="N49" s="43">
+      <c r="N49" s="42">
         <v>0.185747</v>
       </c>
-      <c r="O49" s="43">
-        <v>0</v>
-      </c>
-      <c r="P49" s="43">
+      <c r="O49" s="42">
+        <v>0</v>
+      </c>
+      <c r="P49" s="42">
         <v>0</v>
       </c>
     </row>
@@ -5428,37 +6559,37 @@
       <c r="C50" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="63">
-        <v>0</v>
-      </c>
-      <c r="E50" s="65">
-        <v>0</v>
-      </c>
-      <c r="F50" s="63">
+      <c r="D50" s="60">
+        <v>0</v>
+      </c>
+      <c r="E50" s="62">
+        <v>0</v>
+      </c>
+      <c r="F50" s="60">
         <f>O50</f>
         <v>0.104367</v>
       </c>
-      <c r="G50" s="65">
-        <v>0</v>
-      </c>
-      <c r="H50" s="62">
+      <c r="G50" s="62">
+        <v>0</v>
+      </c>
+      <c r="H50" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I50" s="65">
-        <v>0</v>
-      </c>
-      <c r="J50" s="66"/>
+      <c r="I50" s="62">
+        <v>0</v>
+      </c>
+      <c r="J50" s="63"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
-      <c r="N50" s="65">
-        <v>0</v>
-      </c>
-      <c r="O50" s="65">
+      <c r="N50" s="62">
+        <v>0</v>
+      </c>
+      <c r="O50" s="62">
         <v>0.104367</v>
       </c>
-      <c r="P50" s="65">
+      <c r="P50" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5466,86 +6597,86 @@
       <c r="B51" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="62">
+      <c r="D51" s="59">
         <v>0.55830599999999997</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="42">
         <f>SUM(E43:E50)</f>
         <v>0.415213</v>
       </c>
-      <c r="F51" s="62">
+      <c r="F51" s="59">
         <f>SUM(F43:F50)</f>
         <v>0.80607700000000004</v>
       </c>
-      <c r="G51" s="43">
+      <c r="G51" s="42">
         <f>SUM(G43:G50)</f>
         <v>3.220253</v>
       </c>
-      <c r="H51" s="62">
+      <c r="H51" s="59">
         <f t="shared" si="35"/>
         <v>4.5549999999999997</v>
       </c>
-      <c r="I51" s="43">
+      <c r="I51" s="42">
         <f>SUM(I43:I50)</f>
         <v>5.16</v>
       </c>
-      <c r="N51" s="43">
+      <c r="N51" s="42">
         <f>SUM(N43:N50)</f>
         <v>0.55830599999999997</v>
       </c>
-      <c r="O51" s="43">
+      <c r="O51" s="42">
         <f>SUM(O43:O50)</f>
         <v>0.80607700000000004</v>
       </c>
-      <c r="P51" s="43">
+      <c r="P51" s="42">
         <f>SUM(P43:P50)</f>
         <v>4.5549999999999997</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D52" s="62"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="62">
+      <c r="D52" s="59"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="59">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="62">
+      <c r="D53" s="59">
         <v>2.233822</v>
       </c>
-      <c r="E53" s="43">
+      <c r="E53" s="42">
         <v>2.625874</v>
       </c>
-      <c r="F53" s="62">
+      <c r="F53" s="59">
         <f>O53</f>
         <v>0.52937599999999996</v>
       </c>
-      <c r="G53" s="43">
+      <c r="G53" s="42">
         <v>3.54576</v>
       </c>
-      <c r="H53" s="62">
+      <c r="H53" s="59">
         <f t="shared" si="35"/>
         <v>7.1130000000000004</v>
       </c>
-      <c r="I53" s="43">
+      <c r="I53" s="42">
         <v>8.4659999999999993</v>
       </c>
-      <c r="N53" s="43">
+      <c r="N53" s="42">
         <v>2.233822</v>
       </c>
-      <c r="O53" s="43">
+      <c r="O53" s="42">
         <v>0.52937599999999996</v>
       </c>
-      <c r="P53" s="43">
+      <c r="P53" s="42">
         <v>7.1130000000000004</v>
       </c>
     </row>
@@ -5553,89 +6684,89 @@
       <c r="B54" t="s">
         <v>86</v>
       </c>
-      <c r="D54" s="62">
+      <c r="D54" s="59">
         <v>2.7921279999999999</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="42">
         <f>E53+E51</f>
         <v>3.0410870000000001</v>
       </c>
-      <c r="F54" s="62">
+      <c r="F54" s="59">
         <f>F53+F51</f>
         <v>1.335453</v>
       </c>
-      <c r="G54" s="43">
+      <c r="G54" s="42">
         <f>G53+G51</f>
         <v>6.7660130000000001</v>
       </c>
-      <c r="H54" s="62">
+      <c r="H54" s="59">
         <f t="shared" si="35"/>
         <v>11.667999999999999</v>
       </c>
-      <c r="I54" s="43">
+      <c r="I54" s="42">
         <f>I53+I51</f>
         <v>13.625999999999999</v>
       </c>
-      <c r="N54" s="43">
+      <c r="N54" s="42">
         <f>N53+N51</f>
         <v>2.7921279999999999</v>
       </c>
-      <c r="O54" s="43">
+      <c r="O54" s="42">
         <f>O53+O51</f>
         <v>1.335453</v>
       </c>
-      <c r="P54" s="43">
+      <c r="P54" s="42">
         <f>P53+P51</f>
         <v>11.667999999999999</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D55" s="62"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="62"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="43"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="59"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="62">
+      <c r="D56" s="59">
         <f t="shared" ref="D56" si="37">D41-D51</f>
         <v>2.233822</v>
       </c>
-      <c r="E56" s="88">
+      <c r="E56" s="85">
         <f t="shared" ref="E56:F56" si="38">E41-E51</f>
         <v>2.625874</v>
       </c>
-      <c r="F56" s="62">
+      <c r="F56" s="59">
         <f t="shared" si="38"/>
         <v>0.52937599999999996</v>
       </c>
-      <c r="G56" s="88">
+      <c r="G56" s="85">
         <f t="shared" ref="G56:H56" si="39">G41-G51</f>
         <v>3.5457600000000009</v>
       </c>
-      <c r="H56" s="62">
+      <c r="H56" s="59">
         <f t="shared" si="39"/>
         <v>7.1129999999999995</v>
       </c>
-      <c r="I56" s="88">
+      <c r="I56" s="85">
         <f t="shared" ref="I56" si="40">I41-I51</f>
         <v>8.4660000000000011</v>
       </c>
-      <c r="N56" s="88">
+      <c r="N56" s="85">
         <f t="shared" ref="N56:O56" si="41">N41-N51</f>
         <v>2.233822</v>
       </c>
-      <c r="O56" s="88">
+      <c r="O56" s="85">
         <f t="shared" si="41"/>
         <v>0.52937599999999996</v>
       </c>
-      <c r="P56" s="88">
+      <c r="P56" s="85">
         <f>P41-P51</f>
         <v>7.1129999999999995</v>
       </c>
@@ -5644,127 +6775,127 @@
       <c r="B57" t="s">
         <v>144</v>
       </c>
-      <c r="D57" s="62">
+      <c r="D57" s="59">
         <f t="shared" ref="D57:H57" si="42">D56/D20</f>
         <v>9.2774396784636708E-3</v>
       </c>
-      <c r="E57" s="43">
+      <c r="E57" s="42">
         <f t="shared" ref="E57" si="43">E56/E20</f>
         <v>7.6424304594443658E-3</v>
       </c>
-      <c r="F57" s="62">
+      <c r="F57" s="59">
         <f t="shared" si="42"/>
         <v>1.0223126865988698E-3</v>
       </c>
-      <c r="G57" s="43">
+      <c r="G57" s="42">
         <f t="shared" si="42"/>
         <v>5.3359111491456885E-3</v>
       </c>
-      <c r="H57" s="62">
+      <c r="H57" s="59">
         <f t="shared" si="42"/>
         <v>1.0006302296399251E-2</v>
       </c>
-      <c r="I57" s="43">
+      <c r="I57" s="42">
         <f t="shared" ref="I57" si="44">I56/I20</f>
         <v>1.0932052374680408E-2</v>
       </c>
-      <c r="N57" s="43">
+      <c r="N57" s="42">
         <f t="shared" ref="N57:O57" si="45">N56/N20</f>
         <v>9.2774396784636708E-3</v>
       </c>
-      <c r="O57" s="43">
+      <c r="O57" s="42">
         <f t="shared" si="45"/>
         <v>1.0223126865988698E-3</v>
       </c>
-      <c r="P57" s="43">
+      <c r="P57" s="42">
         <f>P56/P20</f>
         <v>1.0006302296399251E-2</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D58" s="62"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="62"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="43"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="59"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="62"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="62"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="59"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="62"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="62"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="43"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="59"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="62"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="62"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="43"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="59"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D62" s="62"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="62"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="59"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>142</v>
       </c>
-      <c r="D63" s="62"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="62"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="59"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="62"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="62"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="59"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
@@ -5785,31 +6916,31 @@
       <c r="B68" t="s">
         <v>161</v>
       </c>
-      <c r="D68" s="38">
+      <c r="D68" s="37">
         <f t="shared" ref="D68:I68" si="46">(D14+C14)/(D41-SUM(D48:D50))</f>
         <v>-0.94713013945390168</v>
       </c>
-      <c r="E68" s="87">
+      <c r="E68" s="84">
         <f t="shared" si="46"/>
         <v>-0.82098736405765438</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="37">
         <f t="shared" si="46"/>
         <v>-3.0525825165747973</v>
       </c>
-      <c r="G68" s="87">
+      <c r="G68" s="84">
         <f t="shared" si="46"/>
         <v>-0.39580630424446428</v>
       </c>
-      <c r="H68" s="38">
+      <c r="H68" s="37">
         <f t="shared" si="46"/>
         <v>0.19620253164556961</v>
       </c>
-      <c r="I68" s="87">
+      <c r="I68" s="84">
         <f t="shared" si="46"/>
         <v>0.17112763138524958</v>
       </c>
-      <c r="P68" s="87">
+      <c r="P68" s="84">
         <f>P14/(P41-SUM(P48:P50))</f>
         <v>0.19620253164556978</v>
       </c>
@@ -5850,11 +6981,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" s="22">
@@ -5865,13 +6996,13 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>0.121</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="41">
         <v>0.126</v>
       </c>
     </row>
@@ -5879,109 +7010,109 @@
       <c r="B4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="68">
+      <c r="C4" s="65">
         <v>0.115</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="65">
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>9.4E-2</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="41">
         <v>0.11</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="41">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="41">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="41">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="41">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="41">
         <v>3.1E-2</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="41">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="41">
         <v>0.03</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="41">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
@@ -5989,10 +7120,10 @@
       <c r="B14" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="68">
-        <v>0</v>
-      </c>
-      <c r="D14" s="68">
+      <c r="C14" s="65">
+        <v>0</v>
+      </c>
+      <c r="D14" s="65">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
@@ -6000,10 +7131,10 @@
       <c r="B15" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="65">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="65">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
@@ -6011,10 +7142,10 @@
       <c r="B16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="65">
         <v>2.4E-2</v>
       </c>
-      <c r="D16" s="68">
+      <c r="D16" s="65">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
@@ -6025,4 +7156,232 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="119" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07E9ED6-1590-4E51-9AEA-DA97942BD76A}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" style="131" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="131"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="133" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="134" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="133" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="135">
+        <v>20.470000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="131" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="136">
+        <v>14.124300000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="131" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="135">
+        <v>6.3457000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="131" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="131" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="131" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="137">
+        <v>2.5529999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="131" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="138">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="137">
+        <v>3.0790000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="132" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="139">
+        <v>3.2667000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="137">
+        <v>4.5360000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="139">
+        <v>3.2213400000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="138">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="139">
+        <v>2.2213400000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="131" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="138">
+        <v>3.1248980097122897E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="138">
+        <v>710.85199999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="140"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="141">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="141">
+        <v>0.1595847581827064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="131" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="141">
+        <v>0.10851685393258428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="141">
+        <v>-0.31042982113033701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="140"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="131" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="140"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="132" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="142">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="131" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="143"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="132" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="142"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
 </file>
--- a/£MHC.xlsx
+++ b/£MHC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E9525E-25BF-472C-B693-94E13EC62CA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C8440E-96F3-41A2-A524-96208E544915}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="495" windowWidth="28800" windowHeight="18900" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="241">
   <si>
     <t>Stock Snapshot</t>
   </si>
@@ -739,6 +739,18 @@
   </si>
   <si>
     <t>"Most importantly to get close to our customer to meet their needs"</t>
+  </si>
+  <si>
+    <t>Share Consolodations</t>
+  </si>
+  <si>
+    <t>15:1 consolodation</t>
+  </si>
+  <si>
+    <t>MHC sign 12-month non-exclusive retail contact with Boots for wellness tests</t>
+  </si>
+  <si>
+    <t>15:1 share consolodation approved &amp; undertaken to boost liquidity</t>
   </si>
 </sst>
 </file>
@@ -941,7 +953,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1080,6 +1092,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1088,7 +1111,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1247,78 +1270,6 @@
     <xf numFmtId="17" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1355,6 +1306,84 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1872,8 +1901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A865B090-C0E4-4B85-AA22-AACD646D3083}">
   <dimension ref="A1:AC105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V64" sqref="V64"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,11 +1930,11 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="J2" s="108" t="s">
+      <c r="J2" s="128" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="109"/>
-      <c r="L2" s="110"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="130"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1920,10 +1949,10 @@
       <c r="J3" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="111" t="s">
+      <c r="K3" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="112"/>
+      <c r="L3" s="144"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1936,16 +1965,16 @@
       <c r="J4" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="111"/>
-      <c r="L4" s="112"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="144"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
+      <c r="B5" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="129"/>
+      <c r="D5" s="130"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1965,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="23">
-        <v>1.0349000000000001E-2</v>
+        <v>0.25</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="1"/>
@@ -1974,10 +2003,10 @@
       <c r="J6" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="113" t="s">
+      <c r="K6" s="145" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="114"/>
+      <c r="L6" s="146"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1985,7 +2014,8 @@
         <v>2</v>
       </c>
       <c r="C7" s="6">
-        <v>780.09</v>
+        <f>780.09/15</f>
+        <v>52.006</v>
       </c>
       <c r="D7" s="77" t="s">
         <v>90</v>
@@ -2001,7 +2031,7 @@
       </c>
       <c r="C8" s="6">
         <f>C6*C7</f>
-        <v>8.0731514100000012</v>
+        <v>13.0015</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="1"/>
@@ -2020,17 +2050,17 @@
         <v>90</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="110"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="130"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -2044,7 +2074,7 @@
         <v>90</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="146">
+      <c r="F10" s="122">
         <v>43770</v>
       </c>
       <c r="G10" s="25" t="s">
@@ -2069,7 +2099,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="146">
+      <c r="F11" s="122">
         <v>43891</v>
       </c>
       <c r="G11" s="25" t="s">
@@ -2090,11 +2120,11 @@
       </c>
       <c r="C12" s="10">
         <f>C8-C9+C10</f>
-        <v>1.0731514100000012</v>
+        <v>6.0015000000000001</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="146">
+      <c r="F12" s="122">
         <v>44166</v>
       </c>
       <c r="G12" s="25" t="s">
@@ -2114,7 +2144,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="146">
+      <c r="F13" s="122">
         <v>44166</v>
       </c>
       <c r="G13" s="25" t="s">
@@ -2134,7 +2164,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="146">
+      <c r="F14" s="122">
         <v>44197</v>
       </c>
       <c r="G14" s="25" t="s">
@@ -2150,13 +2180,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="119" t="s">
+      <c r="B15" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="130"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="146">
+      <c r="F15" s="122">
         <v>44287</v>
       </c>
       <c r="G15" s="25" t="s">
@@ -2175,12 +2205,12 @@
       <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="121"/>
+      <c r="D16" s="135"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="146">
+      <c r="F16" s="122">
         <v>44317</v>
       </c>
       <c r="G16" s="25" t="s">
@@ -2198,11 +2228,11 @@
       <c r="B17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="120" t="s">
+      <c r="C17" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="121"/>
-      <c r="F17" s="146">
+      <c r="D17" s="135"/>
+      <c r="F17" s="122">
         <v>44348</v>
       </c>
       <c r="G17" s="25" t="s">
@@ -2220,9 +2250,9 @@
       <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="F18" s="146">
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="F18" s="122">
         <v>44409</v>
       </c>
       <c r="G18" s="25" t="s">
@@ -2238,9 +2268,9 @@
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="F19" s="146">
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="F19" s="122">
         <v>44440</v>
       </c>
       <c r="G19" s="25" t="s">
@@ -2258,11 +2288,11 @@
       <c r="B20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="120" t="s">
+      <c r="C20" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="121"/>
-      <c r="F20" s="146">
+      <c r="D20" s="135"/>
+      <c r="F20" s="122">
         <v>44501</v>
       </c>
       <c r="G20" s="25" t="s">
@@ -2278,9 +2308,9 @@
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="F21" s="146">
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="F21" s="122">
         <v>44652</v>
       </c>
       <c r="G21" s="25" t="s">
@@ -2296,9 +2326,9 @@
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="20"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="123"/>
-      <c r="F22" s="146">
+      <c r="C22" s="136"/>
+      <c r="D22" s="137"/>
+      <c r="F22" s="122">
         <v>44726</v>
       </c>
       <c r="G22" s="25" t="s">
@@ -2313,7 +2343,7 @@
       <c r="N22" s="26"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F23" s="146"/>
+      <c r="F23" s="122"/>
       <c r="G23" s="82" t="s">
         <v>134</v>
       </c>
@@ -2326,7 +2356,12 @@
       <c r="N23" s="26"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F24" s="146">
+      <c r="B24" s="128" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="129"/>
+      <c r="D24" s="130"/>
+      <c r="F24" s="122">
         <v>44743</v>
       </c>
       <c r="G24" s="82" t="s">
@@ -2339,23 +2374,30 @@
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="26"/>
-      <c r="P24" s="108" t="s">
+      <c r="P24" s="128" t="s">
         <v>155</v>
       </c>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="110"/>
-      <c r="W24" s="108" t="s">
+      <c r="Q24" s="129"/>
+      <c r="R24" s="130"/>
+      <c r="W24" s="128" t="s">
         <v>163</v>
       </c>
-      <c r="X24" s="109"/>
-      <c r="Y24" s="109"/>
-      <c r="Z24" s="109"/>
-      <c r="AA24" s="109"/>
-      <c r="AB24" s="109"/>
-      <c r="AC24" s="110"/>
+      <c r="X24" s="129"/>
+      <c r="Y24" s="129"/>
+      <c r="Z24" s="129"/>
+      <c r="AA24" s="129"/>
+      <c r="AB24" s="129"/>
+      <c r="AC24" s="130"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F25" s="146">
+      <c r="B25" s="152">
+        <v>45047</v>
+      </c>
+      <c r="C25" s="153" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="137"/>
+      <c r="F25" s="122">
         <v>44743</v>
       </c>
       <c r="G25" s="25" t="s">
@@ -2371,11 +2413,11 @@
       <c r="P25" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="Q25" s="126" t="s">
+      <c r="Q25" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="R25" s="127"/>
-      <c r="W25" s="144" t="s">
+      <c r="R25" s="132"/>
+      <c r="W25" s="120" t="s">
         <v>164</v>
       </c>
       <c r="X25" s="25"/>
@@ -2386,7 +2428,7 @@
       <c r="AC25" s="26"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F26" s="146">
+      <c r="F26" s="122">
         <v>44774</v>
       </c>
       <c r="G26" s="25" t="s">
@@ -2402,11 +2444,11 @@
       <c r="P26" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="Q26" s="126" t="s">
+      <c r="Q26" s="131" t="s">
         <v>152</v>
       </c>
-      <c r="R26" s="127"/>
-      <c r="W26" s="144" t="s">
+      <c r="R26" s="132"/>
+      <c r="W26" s="120" t="s">
         <v>169</v>
       </c>
       <c r="X26" s="25"/>
@@ -2417,15 +2459,15 @@
       <c r="AC26" s="26"/>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B27" s="119" t="s">
+      <c r="B27" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="110"/>
-      <c r="F27" s="146">
+      <c r="C27" s="129"/>
+      <c r="D27" s="130"/>
+      <c r="F27" s="122">
         <v>44835</v>
       </c>
-      <c r="G27" s="130" t="s">
+      <c r="G27" s="106" t="s">
         <v>158</v>
       </c>
       <c r="H27" s="25"/>
@@ -2436,9 +2478,9 @@
       <c r="M27" s="25"/>
       <c r="N27" s="26"/>
       <c r="P27" s="89"/>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="107"/>
-      <c r="W27" s="144" t="s">
+      <c r="Q27" s="133"/>
+      <c r="R27" s="134"/>
+      <c r="W27" s="120" t="s">
         <v>165</v>
       </c>
       <c r="X27" s="25"/>
@@ -2452,22 +2494,24 @@
       <c r="B28" s="29">
         <v>43922</v>
       </c>
-      <c r="C28" s="120" t="s">
+      <c r="C28" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="121"/>
-      <c r="F28" s="147">
-        <v>45017</v>
-      </c>
-      <c r="G28" s="83"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="28"/>
-      <c r="W28" s="144" t="s">
+      <c r="D28" s="135"/>
+      <c r="F28" s="122">
+        <v>45047</v>
+      </c>
+      <c r="G28" s="106" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="26"/>
+      <c r="W28" s="120" t="s">
         <v>166</v>
       </c>
       <c r="X28" s="25"/>
@@ -2481,11 +2525,24 @@
       <c r="B29" s="30">
         <v>44228</v>
       </c>
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="123"/>
-      <c r="W29" s="144" t="s">
+      <c r="D29" s="137"/>
+      <c r="F29" s="122">
+        <v>45047</v>
+      </c>
+      <c r="G29" s="106" t="s">
+        <v>239</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="26"/>
+      <c r="W29" s="120" t="s">
         <v>167</v>
       </c>
       <c r="X29" s="25"/>
@@ -2496,7 +2553,16 @@
       <c r="AC29" s="26"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W30" s="144" t="s">
+      <c r="F30" s="123"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="28"/>
+      <c r="W30" s="120" t="s">
         <v>168</v>
       </c>
       <c r="X30" s="25"/>
@@ -2507,12 +2573,12 @@
       <c r="AC30" s="26"/>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B31" s="119" t="s">
+      <c r="B31" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="109"/>
-      <c r="D31" s="110"/>
-      <c r="W31" s="144" t="s">
+      <c r="C31" s="129"/>
+      <c r="D31" s="130"/>
+      <c r="W31" s="120" t="s">
         <v>170</v>
       </c>
       <c r="X31" s="25"/>
@@ -2526,23 +2592,23 @@
       <c r="B32" s="29">
         <v>44136</v>
       </c>
-      <c r="C32" s="120" t="s">
+      <c r="C32" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="121"/>
-      <c r="F32" s="108" t="s">
+      <c r="D32" s="135"/>
+      <c r="F32" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="109"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="110"/>
-      <c r="W32" s="149" t="s">
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="130"/>
+      <c r="W32" s="125" t="s">
         <v>171</v>
       </c>
       <c r="X32" s="25"/>
@@ -2556,14 +2622,14 @@
       <c r="B33" s="31">
         <v>44348</v>
       </c>
-      <c r="C33" s="122" t="s">
+      <c r="C33" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="123"/>
-      <c r="F33" s="115" t="s">
+      <c r="D33" s="137"/>
+      <c r="F33" s="147" t="s">
         <v>104</v>
       </c>
-      <c r="G33" s="116"/>
+      <c r="G33" s="148"/>
       <c r="H33" s="25" t="s">
         <v>108</v>
       </c>
@@ -2574,7 +2640,7 @@
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
       <c r="O33" s="26"/>
-      <c r="W33" s="144" t="s">
+      <c r="W33" s="120" t="s">
         <v>172</v>
       </c>
       <c r="X33" s="25"/>
@@ -2585,10 +2651,10 @@
       <c r="AC33" s="26"/>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="147" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="148"/>
       <c r="H34" s="25" t="s">
         <v>109</v>
       </c>
@@ -2599,7 +2665,7 @@
       <c r="M34" s="25"/>
       <c r="N34" s="25"/>
       <c r="O34" s="26"/>
-      <c r="W34" s="144" t="s">
+      <c r="W34" s="120" t="s">
         <v>173</v>
       </c>
       <c r="X34" s="25"/>
@@ -2610,10 +2676,10 @@
       <c r="AC34" s="26"/>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F35" s="117" t="s">
+      <c r="F35" s="149" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="118"/>
+      <c r="G35" s="150"/>
       <c r="H35" s="78" t="s">
         <v>135</v>
       </c>
@@ -2627,7 +2693,7 @@
       <c r="P35" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="W35" s="149" t="s">
+      <c r="W35" s="125" t="s">
         <v>174</v>
       </c>
       <c r="X35" s="25"/>
@@ -2638,12 +2704,12 @@
       <c r="AC35" s="26"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B36" s="108" t="s">
+      <c r="B36" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="109"/>
-      <c r="D36" s="110"/>
-      <c r="W36" s="144" t="s">
+      <c r="C36" s="129"/>
+      <c r="D36" s="130"/>
+      <c r="W36" s="120" t="s">
         <v>175</v>
       </c>
       <c r="X36" s="25"/>
@@ -2657,12 +2723,12 @@
       <c r="B37" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="124">
+      <c r="C37" s="140">
         <f>C6/SUM('Financial Model'!H19:I19)</f>
-        <v>3.225191323267687</v>
-      </c>
-      <c r="D37" s="125"/>
-      <c r="W37" s="149" t="s">
+        <v>77.91069966343818</v>
+      </c>
+      <c r="D37" s="141"/>
+      <c r="W37" s="125" t="s">
         <v>176</v>
       </c>
       <c r="X37" s="25"/>
@@ -2676,12 +2742,12 @@
       <c r="B38" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="124">
+      <c r="C38" s="140">
         <f>C6/'Financial Model'!I57</f>
-        <v>0.94666579021970221</v>
-      </c>
-      <c r="D38" s="125"/>
-      <c r="W38" s="149" t="s">
+        <v>22.868532955350812</v>
+      </c>
+      <c r="D38" s="141"/>
+      <c r="W38" s="125" t="s">
         <v>177</v>
       </c>
       <c r="X38" s="25"/>
@@ -2695,12 +2761,12 @@
       <c r="B39" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="124">
+      <c r="C39" s="140">
         <f>C8/SUM('Financial Model'!H4:I4)</f>
-        <v>0.35201894360978564</v>
-      </c>
-      <c r="D39" s="125"/>
-      <c r="W39" s="144" t="s">
+        <v>0.5669129764708114</v>
+      </c>
+      <c r="D39" s="141"/>
+      <c r="W39" s="120" t="s">
         <v>178</v>
       </c>
       <c r="X39" s="25"/>
@@ -2714,12 +2780,12 @@
       <c r="B40" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="124">
+      <c r="C40" s="140">
         <f>C12/SUM('Financial Model'!H4:I4)</f>
-        <v>4.6793328465711555E-2</v>
-      </c>
-      <c r="D40" s="125"/>
-      <c r="W40" s="150" t="s">
+        <v>0.26168736132673726</v>
+      </c>
+      <c r="D40" s="141"/>
+      <c r="W40" s="126" t="s">
         <v>179</v>
       </c>
       <c r="X40" s="25"/>
@@ -2733,12 +2799,12 @@
       <c r="B41" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="124">
+      <c r="C41" s="140">
         <f>C12/SUM('Financial Model'!H18:I18)</f>
-        <v>0.47032522366879081</v>
-      </c>
-      <c r="D41" s="125"/>
-      <c r="W41" s="144"/>
+        <v>2.6302503109493607</v>
+      </c>
+      <c r="D41" s="141"/>
+      <c r="W41" s="120"/>
       <c r="X41" s="25"/>
       <c r="Y41" s="25"/>
       <c r="Z41" s="25"/>
@@ -2750,12 +2816,12 @@
       <c r="B42" s="105" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="106">
+      <c r="C42" s="142">
         <f>'Financial Model'!I68</f>
         <v>0.17112763138524958</v>
       </c>
-      <c r="D42" s="107"/>
-      <c r="W42" s="151" t="s">
+      <c r="D42" s="134"/>
+      <c r="W42" s="127" t="s">
         <v>180</v>
       </c>
       <c r="X42" s="25"/>
@@ -2766,7 +2832,7 @@
       <c r="AC42" s="26"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W43" s="144" t="s">
+      <c r="W43" s="120" t="s">
         <v>181</v>
       </c>
       <c r="X43" s="25"/>
@@ -2777,7 +2843,7 @@
       <c r="AC43" s="26"/>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W44" s="144" t="s">
+      <c r="W44" s="120" t="s">
         <v>182</v>
       </c>
       <c r="X44" s="25"/>
@@ -2788,7 +2854,7 @@
       <c r="AC44" s="26"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W45" s="144" t="s">
+      <c r="W45" s="120" t="s">
         <v>183</v>
       </c>
       <c r="X45" s="25"/>
@@ -2799,7 +2865,7 @@
       <c r="AC45" s="26"/>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W46" s="144" t="s">
+      <c r="W46" s="120" t="s">
         <v>184</v>
       </c>
       <c r="X46" s="25"/>
@@ -2810,7 +2876,7 @@
       <c r="AC46" s="26"/>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W47" s="144" t="s">
+      <c r="W47" s="120" t="s">
         <v>185</v>
       </c>
       <c r="X47" s="25"/>
@@ -2821,7 +2887,7 @@
       <c r="AC47" s="26"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W48" s="144" t="s">
+      <c r="W48" s="120" t="s">
         <v>186</v>
       </c>
       <c r="X48" s="25"/>
@@ -2832,7 +2898,7 @@
       <c r="AC48" s="26"/>
     </row>
     <row r="49" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W49" s="144" t="s">
+      <c r="W49" s="120" t="s">
         <v>187</v>
       </c>
       <c r="X49" s="25"/>
@@ -2843,7 +2909,7 @@
       <c r="AC49" s="26"/>
     </row>
     <row r="50" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W50" s="144" t="s">
+      <c r="W50" s="120" t="s">
         <v>188</v>
       </c>
       <c r="X50" s="25"/>
@@ -2854,7 +2920,7 @@
       <c r="AC50" s="26"/>
     </row>
     <row r="51" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W51" s="144" t="s">
+      <c r="W51" s="120" t="s">
         <v>189</v>
       </c>
       <c r="X51" s="25"/>
@@ -2865,7 +2931,7 @@
       <c r="AC51" s="26"/>
     </row>
     <row r="52" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W52" s="144"/>
+      <c r="W52" s="120"/>
       <c r="X52" s="25"/>
       <c r="Y52" s="25"/>
       <c r="Z52" s="25"/>
@@ -2874,7 +2940,7 @@
       <c r="AC52" s="26"/>
     </row>
     <row r="53" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W53" s="144" t="s">
+      <c r="W53" s="120" t="s">
         <v>190</v>
       </c>
       <c r="X53" s="25"/>
@@ -2885,7 +2951,7 @@
       <c r="AC53" s="26"/>
     </row>
     <row r="54" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W54" s="144" t="s">
+      <c r="W54" s="120" t="s">
         <v>191</v>
       </c>
       <c r="X54" s="25"/>
@@ -2896,7 +2962,7 @@
       <c r="AC54" s="26"/>
     </row>
     <row r="55" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W55" s="144"/>
+      <c r="W55" s="120"/>
       <c r="X55" s="25"/>
       <c r="Y55" s="25"/>
       <c r="Z55" s="25"/>
@@ -2905,7 +2971,7 @@
       <c r="AC55" s="26"/>
     </row>
     <row r="56" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W56" s="151" t="s">
+      <c r="W56" s="127" t="s">
         <v>192</v>
       </c>
       <c r="X56" s="25"/>
@@ -2916,7 +2982,7 @@
       <c r="AC56" s="26"/>
     </row>
     <row r="57" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W57" s="144" t="s">
+      <c r="W57" s="120" t="s">
         <v>193</v>
       </c>
       <c r="X57" s="25"/>
@@ -2927,7 +2993,7 @@
       <c r="AC57" s="26"/>
     </row>
     <row r="58" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W58" s="144" t="s">
+      <c r="W58" s="120" t="s">
         <v>194</v>
       </c>
       <c r="X58" s="25"/>
@@ -2938,7 +3004,7 @@
       <c r="AC58" s="26"/>
     </row>
     <row r="59" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W59" s="144" t="s">
+      <c r="W59" s="120" t="s">
         <v>195</v>
       </c>
       <c r="X59" s="25"/>
@@ -2949,7 +3015,7 @@
       <c r="AC59" s="26"/>
     </row>
     <row r="60" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W60" s="144" t="s">
+      <c r="W60" s="120" t="s">
         <v>196</v>
       </c>
       <c r="X60" s="25"/>
@@ -2960,7 +3026,7 @@
       <c r="AC60" s="26"/>
     </row>
     <row r="61" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W61" s="148" t="s">
+      <c r="W61" s="124" t="s">
         <v>197</v>
       </c>
       <c r="X61" s="25"/>
@@ -2971,7 +3037,7 @@
       <c r="AC61" s="26"/>
     </row>
     <row r="62" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W62" s="144" t="s">
+      <c r="W62" s="120" t="s">
         <v>198</v>
       </c>
       <c r="X62" s="25"/>
@@ -2982,7 +3048,7 @@
       <c r="AC62" s="26"/>
     </row>
     <row r="63" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W63" s="144" t="s">
+      <c r="W63" s="120" t="s">
         <v>199</v>
       </c>
       <c r="X63" s="25"/>
@@ -2993,7 +3059,7 @@
       <c r="AC63" s="26"/>
     </row>
     <row r="64" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W64" s="144"/>
+      <c r="W64" s="120"/>
       <c r="X64" s="25"/>
       <c r="Y64" s="25"/>
       <c r="Z64" s="25"/>
@@ -3002,7 +3068,7 @@
       <c r="AC64" s="26"/>
     </row>
     <row r="65" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W65" s="151" t="s">
+      <c r="W65" s="127" t="s">
         <v>200</v>
       </c>
       <c r="X65" s="25"/>
@@ -3013,7 +3079,7 @@
       <c r="AC65" s="26"/>
     </row>
     <row r="66" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W66" s="144" t="s">
+      <c r="W66" s="120" t="s">
         <v>201</v>
       </c>
       <c r="X66" s="25"/>
@@ -3024,7 +3090,7 @@
       <c r="AC66" s="26"/>
     </row>
     <row r="67" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W67" s="144" t="s">
+      <c r="W67" s="120" t="s">
         <v>202</v>
       </c>
       <c r="X67" s="25"/>
@@ -3035,7 +3101,7 @@
       <c r="AC67" s="26"/>
     </row>
     <row r="68" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W68" s="144" t="s">
+      <c r="W68" s="120" t="s">
         <v>203</v>
       </c>
       <c r="X68" s="25"/>
@@ -3046,7 +3112,7 @@
       <c r="AC68" s="26"/>
     </row>
     <row r="69" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W69" s="144" t="s">
+      <c r="W69" s="120" t="s">
         <v>204</v>
       </c>
       <c r="X69" s="25"/>
@@ -3057,7 +3123,7 @@
       <c r="AC69" s="26"/>
     </row>
     <row r="70" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W70" s="148" t="s">
+      <c r="W70" s="124" t="s">
         <v>205</v>
       </c>
       <c r="X70" s="25"/>
@@ -3068,7 +3134,7 @@
       <c r="AC70" s="26"/>
     </row>
     <row r="71" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W71" s="144"/>
+      <c r="W71" s="120"/>
       <c r="X71" s="25"/>
       <c r="Y71" s="25"/>
       <c r="Z71" s="25"/>
@@ -3077,7 +3143,7 @@
       <c r="AC71" s="26"/>
     </row>
     <row r="72" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W72" s="151" t="s">
+      <c r="W72" s="127" t="s">
         <v>206</v>
       </c>
       <c r="X72" s="25"/>
@@ -3088,7 +3154,7 @@
       <c r="AC72" s="26"/>
     </row>
     <row r="73" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W73" s="144" t="s">
+      <c r="W73" s="120" t="s">
         <v>207</v>
       </c>
       <c r="X73" s="25"/>
@@ -3099,7 +3165,7 @@
       <c r="AC73" s="26"/>
     </row>
     <row r="74" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W74" s="148" t="s">
+      <c r="W74" s="124" t="s">
         <v>208</v>
       </c>
       <c r="X74" s="25"/>
@@ -3110,7 +3176,7 @@
       <c r="AC74" s="26"/>
     </row>
     <row r="75" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W75" s="144" t="s">
+      <c r="W75" s="120" t="s">
         <v>209</v>
       </c>
       <c r="X75" s="25"/>
@@ -3121,7 +3187,7 @@
       <c r="AC75" s="26"/>
     </row>
     <row r="76" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W76" s="148" t="s">
+      <c r="W76" s="124" t="s">
         <v>210</v>
       </c>
       <c r="X76" s="25"/>
@@ -3132,7 +3198,7 @@
       <c r="AC76" s="26"/>
     </row>
     <row r="77" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W77" s="144" t="s">
+      <c r="W77" s="120" t="s">
         <v>211</v>
       </c>
       <c r="X77" s="25"/>
@@ -3143,7 +3209,7 @@
       <c r="AC77" s="26"/>
     </row>
     <row r="78" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W78" s="144" t="s">
+      <c r="W78" s="120" t="s">
         <v>212</v>
       </c>
       <c r="X78" s="25"/>
@@ -3154,7 +3220,7 @@
       <c r="AC78" s="26"/>
     </row>
     <row r="79" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W79" s="148" t="s">
+      <c r="W79" s="124" t="s">
         <v>213</v>
       </c>
       <c r="X79" s="25"/>
@@ -3165,7 +3231,7 @@
       <c r="AC79" s="26"/>
     </row>
     <row r="80" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W80" s="144" t="s">
+      <c r="W80" s="120" t="s">
         <v>214</v>
       </c>
       <c r="X80" s="25"/>
@@ -3176,7 +3242,7 @@
       <c r="AC80" s="26"/>
     </row>
     <row r="81" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W81" s="144" t="s">
+      <c r="W81" s="120" t="s">
         <v>215</v>
       </c>
       <c r="X81" s="25"/>
@@ -3187,7 +3253,7 @@
       <c r="AC81" s="26"/>
     </row>
     <row r="82" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W82" s="144" t="s">
+      <c r="W82" s="120" t="s">
         <v>216</v>
       </c>
       <c r="X82" s="25"/>
@@ -3198,7 +3264,7 @@
       <c r="AC82" s="26"/>
     </row>
     <row r="83" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W83" s="144"/>
+      <c r="W83" s="120"/>
       <c r="X83" s="25"/>
       <c r="Y83" s="25"/>
       <c r="Z83" s="25"/>
@@ -3207,7 +3273,7 @@
       <c r="AC83" s="26"/>
     </row>
     <row r="84" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W84" s="151" t="s">
+      <c r="W84" s="127" t="s">
         <v>217</v>
       </c>
       <c r="X84" s="25"/>
@@ -3218,7 +3284,7 @@
       <c r="AC84" s="26"/>
     </row>
     <row r="85" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W85" s="144" t="s">
+      <c r="W85" s="120" t="s">
         <v>218</v>
       </c>
       <c r="X85" s="25"/>
@@ -3229,7 +3295,7 @@
       <c r="AC85" s="26"/>
     </row>
     <row r="86" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W86" s="144" t="s">
+      <c r="W86" s="120" t="s">
         <v>219</v>
       </c>
       <c r="X86" s="25"/>
@@ -3240,7 +3306,7 @@
       <c r="AC86" s="26"/>
     </row>
     <row r="87" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W87" s="148" t="s">
+      <c r="W87" s="124" t="s">
         <v>220</v>
       </c>
       <c r="X87" s="25"/>
@@ -3251,7 +3317,7 @@
       <c r="AC87" s="26"/>
     </row>
     <row r="88" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W88" s="144" t="s">
+      <c r="W88" s="120" t="s">
         <v>221</v>
       </c>
       <c r="X88" s="25"/>
@@ -3262,7 +3328,7 @@
       <c r="AC88" s="26"/>
     </row>
     <row r="89" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W89" s="148" t="s">
+      <c r="W89" s="124" t="s">
         <v>222</v>
       </c>
       <c r="X89" s="25"/>
@@ -3273,7 +3339,7 @@
       <c r="AC89" s="26"/>
     </row>
     <row r="90" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W90" s="144" t="s">
+      <c r="W90" s="120" t="s">
         <v>223</v>
       </c>
       <c r="X90" s="25"/>
@@ -3284,7 +3350,7 @@
       <c r="AC90" s="26"/>
     </row>
     <row r="91" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W91" s="144" t="s">
+      <c r="W91" s="120" t="s">
         <v>224</v>
       </c>
       <c r="X91" s="25"/>
@@ -3295,7 +3361,7 @@
       <c r="AC91" s="26"/>
     </row>
     <row r="92" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W92" s="148" t="s">
+      <c r="W92" s="124" t="s">
         <v>225</v>
       </c>
       <c r="X92" s="25"/>
@@ -3306,7 +3372,7 @@
       <c r="AC92" s="26"/>
     </row>
     <row r="93" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W93" s="144"/>
+      <c r="W93" s="120"/>
       <c r="X93" s="25"/>
       <c r="Y93" s="25"/>
       <c r="Z93" s="25"/>
@@ -3315,7 +3381,7 @@
       <c r="AC93" s="26"/>
     </row>
     <row r="94" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W94" s="144"/>
+      <c r="W94" s="120"/>
       <c r="X94" s="25"/>
       <c r="Y94" s="25"/>
       <c r="Z94" s="25"/>
@@ -3324,7 +3390,7 @@
       <c r="AC94" s="26"/>
     </row>
     <row r="95" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W95" s="151" t="s">
+      <c r="W95" s="127" t="s">
         <v>226</v>
       </c>
       <c r="X95" s="25"/>
@@ -3335,7 +3401,7 @@
       <c r="AC95" s="26"/>
     </row>
     <row r="96" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W96" s="144" t="s">
+      <c r="W96" s="120" t="s">
         <v>227</v>
       </c>
       <c r="X96" s="25"/>
@@ -3346,7 +3412,7 @@
       <c r="AC96" s="26"/>
     </row>
     <row r="97" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W97" s="144" t="s">
+      <c r="W97" s="120" t="s">
         <v>228</v>
       </c>
       <c r="X97" s="25"/>
@@ -3357,7 +3423,7 @@
       <c r="AC97" s="26"/>
     </row>
     <row r="98" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W98" s="144" t="s">
+      <c r="W98" s="120" t="s">
         <v>229</v>
       </c>
       <c r="X98" s="25"/>
@@ -3368,7 +3434,7 @@
       <c r="AC98" s="26"/>
     </row>
     <row r="99" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W99" s="144" t="s">
+      <c r="W99" s="120" t="s">
         <v>230</v>
       </c>
       <c r="X99" s="25"/>
@@ -3379,7 +3445,7 @@
       <c r="AC99" s="26"/>
     </row>
     <row r="100" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W100" s="144" t="s">
+      <c r="W100" s="120" t="s">
         <v>231</v>
       </c>
       <c r="X100" s="25"/>
@@ -3390,7 +3456,7 @@
       <c r="AC100" s="26"/>
     </row>
     <row r="101" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W101" s="144" t="s">
+      <c r="W101" s="120" t="s">
         <v>232</v>
       </c>
       <c r="X101" s="25"/>
@@ -3401,7 +3467,7 @@
       <c r="AC101" s="26"/>
     </row>
     <row r="102" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W102" s="144" t="s">
+      <c r="W102" s="120" t="s">
         <v>233</v>
       </c>
       <c r="X102" s="25"/>
@@ -3412,7 +3478,7 @@
       <c r="AC102" s="26"/>
     </row>
     <row r="103" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W103" s="144" t="s">
+      <c r="W103" s="120" t="s">
         <v>234</v>
       </c>
       <c r="X103" s="25"/>
@@ -3423,7 +3489,7 @@
       <c r="AC103" s="26"/>
     </row>
     <row r="104" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W104" s="144" t="s">
+      <c r="W104" s="120" t="s">
         <v>235</v>
       </c>
       <c r="X104" s="25"/>
@@ -3434,7 +3500,7 @@
       <c r="AC104" s="26"/>
     </row>
     <row r="105" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W105" s="145" t="s">
+      <c r="W105" s="121" t="s">
         <v>236</v>
       </c>
       <c r="X105" s="27"/>
@@ -3445,27 +3511,7 @@
       <c r="AC105" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="W24:AC24"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C40:D40"/>
+  <mergeCells count="38">
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -3482,6 +3528,28 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="W24:AC24"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Q25:R25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K6:L6" r:id="rId1" display="Link" xr:uid="{EBABCF04-F876-4DF1-ADF1-1B6F62DC4548}"/>
@@ -5755,7 +5823,7 @@
       </c>
       <c r="AD27" s="55">
         <f>AD26/Main!C7</f>
-        <v>0.20693580069874087</v>
+        <v>3.1040370104811132</v>
       </c>
       <c r="AF27" s="101"/>
     </row>
@@ -5854,7 +5922,7 @@
       </c>
       <c r="AD28" s="100">
         <f>Main!C6</f>
-        <v>1.0349000000000001E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="2:60" x14ac:dyDescent="0.25">
@@ -6005,7 +6073,7 @@
       </c>
       <c r="AD32" s="54">
         <f>AD27/AD28</f>
-        <v>19.995729123465154</v>
+        <v>12.416148041924453</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -6981,11 +7049,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" s="22">
@@ -7168,217 +7236,217 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="131" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="131"/>
+    <col min="1" max="1" width="30.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="107"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="133" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="134" t="s">
+    <row r="1" spans="1:5" s="109" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="133" t="s">
+      <c r="E1" s="109" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="135">
+      <c r="D2" s="111">
         <v>20.470000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="136">
+      <c r="D3" s="112">
         <v>14.124300000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="137">
+      <c r="D4" s="113">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="135">
+      <c r="D5" s="111">
         <v>6.3457000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="137">
+      <c r="D6" s="113">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="137">
+      <c r="D7" s="113">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="137">
+      <c r="D8" s="113">
         <v>2.5529999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="137">
+      <c r="D9" s="113">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="138">
+      <c r="D10" s="114">
         <v>0.112</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="137">
+      <c r="D11" s="113">
         <v>3.0790000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="139">
+      <c r="D12" s="115">
         <v>3.2667000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="131" t="s">
+      <c r="A13" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="137">
+      <c r="D13" s="113">
         <v>4.5360000000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="139">
+      <c r="D14" s="115">
         <v>3.2213400000000005</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="138">
+      <c r="D15" s="114">
         <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="132" t="s">
+      <c r="A16" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="139">
+      <c r="D16" s="115">
         <v>2.2213400000000005</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="138">
+      <c r="D17" s="114">
         <v>3.1248980097122897E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="131" t="s">
+      <c r="A18" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="138">
+      <c r="D18" s="114">
         <v>710.85199999999998</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="140"/>
+      <c r="D19" s="116"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="131" t="s">
+      <c r="A20" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="141">
+      <c r="D20" s="117">
         <v>0.31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="131" t="s">
+      <c r="A21" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="141">
+      <c r="D21" s="117">
         <v>0.1595847581827064</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="131" t="s">
+      <c r="A22" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="141">
+      <c r="D22" s="117">
         <v>0.10851685393258428</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="131" t="s">
+      <c r="A23" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="141">
+      <c r="D23" s="117">
         <v>-0.31042982113033701</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="140"/>
+      <c r="D24" s="116"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="131" t="s">
+      <c r="A25" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="140"/>
+      <c r="D25" s="116"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="132" t="s">
+      <c r="A26" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="142">
+      <c r="D26" s="118">
         <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="131" t="s">
+      <c r="A27" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="143"/>
+      <c r="D27" s="119"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="132" t="s">
+      <c r="A28" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="142"/>
+      <c r="D28" s="118"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/£MHC.xlsx
+++ b/£MHC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C8440E-96F3-41A2-A524-96208E544915}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D29C5BA-E703-4191-861A-F9ED6600E468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="495" windowWidth="28800" windowHeight="18900" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="243">
   <si>
     <t>Stock Snapshot</t>
   </si>
@@ -751,6 +760,12 @@
   </si>
   <si>
     <t>15:1 share consolodation approved &amp; undertaken to boost liquidity</t>
+  </si>
+  <si>
+    <t>CFO Nick Edwards leaves MHC after only 15 months in position</t>
+  </si>
+  <si>
+    <t>H123</t>
   </si>
 </sst>
 </file>
@@ -1111,31 +1126,30 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,19 +1159,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1169,11 +1182,11 @@
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="8" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1189,11 +1202,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1208,26 +1221,23 @@
     <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1242,7 +1252,7 @@
     <xf numFmtId="15" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1260,7 +1270,6 @@
     <xf numFmtId="166" fontId="2" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1270,7 +1279,7 @@
     <xf numFmtId="17" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1306,6 +1315,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1315,43 +1333,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1366,7 +1348,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1375,14 +1357,41 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1551,13 +1560,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -1901,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A865B090-C0E4-4B85-AA22-AACD646D3083}">
   <dimension ref="A1:AC105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,11 +1939,11 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="J2" s="128" t="s">
+      <c r="J2" s="125" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="129"/>
-      <c r="L2" s="130"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="127"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1946,13 +1955,13 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="J3" s="88" t="s">
+      <c r="J3" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="143" t="s">
+      <c r="K3" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="144"/>
+      <c r="L3" s="129"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1962,29 +1971,29 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="143"/>
-      <c r="L4" s="144"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="129"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="130"/>
+      <c r="B5" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="126"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="J5" s="88" t="s">
+      <c r="J5" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="87" t="s">
+      <c r="K5" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="103">
+      <c r="L5" s="97">
         <v>44825</v>
       </c>
     </row>
@@ -1993,20 +2002,20 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>0.25</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="J6" s="89" t="s">
+      <c r="J6" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="146"/>
+      <c r="L6" s="131"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -2017,7 +2026,7 @@
         <f>780.09/15</f>
         <v>52.006</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="74" t="s">
         <v>90</v>
       </c>
       <c r="E7" s="1"/>
@@ -2046,21 +2055,21 @@
       <c r="C9" s="6">
         <v>7</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="74" t="s">
         <v>90</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="128" t="s">
+      <c r="F9" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="130"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="127"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -2070,23 +2079,23 @@
       <c r="C10" s="6">
         <v>0</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="74" t="s">
         <v>90</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="122">
+      <c r="F10" s="116">
         <v>43770</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="26"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -2099,19 +2108,19 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="122">
+      <c r="F11" s="116">
         <v>43891</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="26"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -2124,19 +2133,19 @@
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="122">
+      <c r="F12" s="116">
         <v>44166</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -2144,19 +2153,19 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="122">
+      <c r="F13" s="116">
         <v>44166</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="26"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -2164,1370 +2173,1378 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="122">
+      <c r="F14" s="116">
         <v>44197</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="26"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="138" t="s">
+      <c r="B15" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="130"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="122">
+      <c r="F15" s="116">
         <v>44287</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="26"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="135"/>
+      <c r="D16" s="138"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="122">
+      <c r="F16" s="116">
         <v>44317</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="26"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="139" t="s">
+      <c r="C17" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="F17" s="122">
+      <c r="D17" s="138"/>
+      <c r="F17" s="116">
         <v>44348</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
-      <c r="F18" s="122">
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="F18" s="116">
         <v>44409</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="26"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="F19" s="122">
+      <c r="B19" s="18"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="F19" s="116">
         <v>44440</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="26"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="135"/>
-      <c r="F20" s="122">
+      <c r="D20" s="138"/>
+      <c r="F20" s="116">
         <v>44501</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="26"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="F21" s="122">
+      <c r="B21" s="18"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+      <c r="F21" s="116">
         <v>44652</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="26"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B22" s="20"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="137"/>
-      <c r="F22" s="122">
+      <c r="B22" s="19"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="140"/>
+      <c r="F22" s="116">
         <v>44726</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="26"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="24"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F23" s="122"/>
-      <c r="G23" s="82" t="s">
+      <c r="F23" s="116"/>
+      <c r="G23" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="26"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="24"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B24" s="128" t="s">
+      <c r="B24" s="125" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="129"/>
-      <c r="D24" s="130"/>
-      <c r="F24" s="122">
+      <c r="C24" s="126"/>
+      <c r="D24" s="127"/>
+      <c r="F24" s="116">
         <v>44743</v>
       </c>
-      <c r="G24" s="82" t="s">
+      <c r="G24" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="26"/>
-      <c r="P24" s="128" t="s">
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="24"/>
+      <c r="P24" s="125" t="s">
         <v>155</v>
       </c>
-      <c r="Q24" s="129"/>
-      <c r="R24" s="130"/>
-      <c r="W24" s="128" t="s">
+      <c r="Q24" s="126"/>
+      <c r="R24" s="127"/>
+      <c r="W24" s="125" t="s">
         <v>163</v>
       </c>
-      <c r="X24" s="129"/>
-      <c r="Y24" s="129"/>
-      <c r="Z24" s="129"/>
-      <c r="AA24" s="129"/>
-      <c r="AB24" s="129"/>
-      <c r="AC24" s="130"/>
+      <c r="X24" s="126"/>
+      <c r="Y24" s="126"/>
+      <c r="Z24" s="126"/>
+      <c r="AA24" s="126"/>
+      <c r="AB24" s="126"/>
+      <c r="AC24" s="127"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B25" s="152">
+      <c r="B25" s="122">
         <v>45047</v>
       </c>
-      <c r="C25" s="153" t="s">
+      <c r="C25" s="143" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="137"/>
-      <c r="F25" s="122">
+      <c r="D25" s="140"/>
+      <c r="F25" s="116">
         <v>44743</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="26"/>
-      <c r="P25" s="88" t="s">
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="24"/>
+      <c r="P25" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="Q25" s="131" t="s">
+      <c r="Q25" s="144" t="s">
         <v>152</v>
       </c>
-      <c r="R25" s="132"/>
-      <c r="W25" s="120" t="s">
+      <c r="R25" s="145"/>
+      <c r="W25" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="26"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="24"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F26" s="122">
+      <c r="F26" s="116">
         <v>44774</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="26"/>
-      <c r="P26" s="88" t="s">
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="24"/>
+      <c r="P26" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="Q26" s="131" t="s">
+      <c r="Q26" s="144" t="s">
         <v>152</v>
       </c>
-      <c r="R26" s="132"/>
-      <c r="W26" s="120" t="s">
+      <c r="R26" s="145"/>
+      <c r="W26" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="26"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="24"/>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B27" s="138" t="s">
+      <c r="B27" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="129"/>
-      <c r="D27" s="130"/>
-      <c r="F27" s="122">
+      <c r="C27" s="126"/>
+      <c r="D27" s="127"/>
+      <c r="F27" s="116">
         <v>44835</v>
       </c>
-      <c r="G27" s="106" t="s">
+      <c r="G27" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="26"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="133"/>
-      <c r="R27" s="134"/>
-      <c r="W27" s="120" t="s">
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="24"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="124"/>
+      <c r="W27" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="26"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="24"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B28" s="29">
+      <c r="B28" s="27">
         <v>43922</v>
       </c>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="135"/>
-      <c r="F28" s="122">
+      <c r="D28" s="138"/>
+      <c r="F28" s="116">
         <v>45047</v>
       </c>
-      <c r="G28" s="106" t="s">
+      <c r="G28" s="100" t="s">
         <v>240</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="26"/>
-      <c r="W28" s="120" t="s">
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="24"/>
+      <c r="W28" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="26"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="24"/>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B29" s="30">
+      <c r="B29" s="28">
         <v>44228</v>
       </c>
-      <c r="C29" s="136" t="s">
+      <c r="C29" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="137"/>
-      <c r="F29" s="122">
+      <c r="D29" s="140"/>
+      <c r="F29" s="116">
         <v>45047</v>
       </c>
-      <c r="G29" s="106" t="s">
+      <c r="G29" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="26"/>
-      <c r="W29" s="120" t="s">
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="24"/>
+      <c r="W29" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="26"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="24"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F30" s="123"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="28"/>
-      <c r="W30" s="120" t="s">
+      <c r="F30" s="116">
+        <v>45108</v>
+      </c>
+      <c r="G30" s="100" t="s">
+        <v>241</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="24"/>
+      <c r="W30" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="26"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="24"/>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B31" s="138" t="s">
+      <c r="B31" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="129"/>
-      <c r="D31" s="130"/>
-      <c r="W31" s="120" t="s">
+      <c r="C31" s="126"/>
+      <c r="D31" s="127"/>
+      <c r="F31" s="117">
+        <v>45139</v>
+      </c>
+      <c r="G31" s="79"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="26"/>
+      <c r="W31" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="26"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="24"/>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B32" s="29">
+      <c r="B32" s="27">
         <v>44136</v>
       </c>
-      <c r="C32" s="139" t="s">
+      <c r="C32" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="135"/>
-      <c r="F32" s="128" t="s">
+      <c r="D32" s="138"/>
+      <c r="W32" s="119" t="s">
+        <v>171</v>
+      </c>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="24"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B33" s="29">
+        <v>44348</v>
+      </c>
+      <c r="C33" s="139" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="140"/>
+      <c r="W33" s="114" t="s">
+        <v>172</v>
+      </c>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="24"/>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W34" s="114" t="s">
+        <v>173</v>
+      </c>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="24"/>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="W35" s="119" t="s">
+        <v>174</v>
+      </c>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="24"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B36" s="125" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="126"/>
+      <c r="D36" s="127"/>
+      <c r="F36" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="129"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="129"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
-      <c r="N32" s="129"/>
-      <c r="O32" s="130"/>
-      <c r="W32" s="125" t="s">
-        <v>171</v>
-      </c>
-      <c r="X32" s="25"/>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="25"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="26"/>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B33" s="31">
-        <v>44348</v>
-      </c>
-      <c r="C33" s="136" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="137"/>
-      <c r="F33" s="147" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="148"/>
-      <c r="H33" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="26"/>
-      <c r="W33" s="120" t="s">
-        <v>172</v>
-      </c>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="26"/>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F34" s="147" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="148"/>
-      <c r="H34" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="26"/>
-      <c r="W34" s="120" t="s">
-        <v>173</v>
-      </c>
-      <c r="X34" s="25"/>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="25"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="26"/>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F35" s="149" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="150"/>
-      <c r="H35" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="79" t="s">
-        <v>131</v>
-      </c>
-      <c r="W35" s="125" t="s">
-        <v>174</v>
-      </c>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="26"/>
-    </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B36" s="128" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="129"/>
-      <c r="D36" s="130"/>
-      <c r="W36" s="120" t="s">
+      <c r="G36" s="126"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="126"/>
+      <c r="O36" s="127"/>
+      <c r="W36" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="25"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="26"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="24"/>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B37" s="104" t="s">
+      <c r="B37" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="140">
+      <c r="C37" s="141">
         <f>C6/SUM('Financial Model'!H19:I19)</f>
         <v>77.91069966343818</v>
       </c>
-      <c r="D37" s="141"/>
-      <c r="W37" s="125" t="s">
+      <c r="D37" s="142"/>
+      <c r="F37" s="132" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="133"/>
+      <c r="H37" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="24"/>
+      <c r="W37" s="119" t="s">
         <v>176</v>
       </c>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="26"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="24"/>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="140">
+      <c r="C38" s="141">
         <f>C6/'Financial Model'!I57</f>
         <v>22.868532955350812</v>
       </c>
-      <c r="D38" s="141"/>
-      <c r="W38" s="125" t="s">
+      <c r="D38" s="142"/>
+      <c r="F38" s="132" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="133"/>
+      <c r="H38" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="24"/>
+      <c r="W38" s="119" t="s">
         <v>177</v>
       </c>
-      <c r="X38" s="25"/>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="25"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="26"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="24"/>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="140">
+      <c r="C39" s="141">
         <f>C8/SUM('Financial Model'!H4:I4)</f>
         <v>0.5669129764708114</v>
       </c>
-      <c r="D39" s="141"/>
-      <c r="W39" s="120" t="s">
+      <c r="D39" s="142"/>
+      <c r="F39" s="134" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="135"/>
+      <c r="H39" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="W39" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="25"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="26"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="24"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B40" s="104" t="s">
+      <c r="B40" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="140">
+      <c r="C40" s="141">
         <f>C12/SUM('Financial Model'!H4:I4)</f>
         <v>0.26168736132673726</v>
       </c>
-      <c r="D40" s="141"/>
-      <c r="W40" s="126" t="s">
+      <c r="D40" s="142"/>
+      <c r="W40" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="X40" s="25"/>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="25"/>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="26"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="24"/>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B41" s="104" t="s">
+      <c r="B41" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="140">
+      <c r="C41" s="141">
         <f>C12/SUM('Financial Model'!H18:I18)</f>
         <v>2.6302503109493607</v>
       </c>
-      <c r="D41" s="141"/>
-      <c r="W41" s="120"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="25"/>
-      <c r="AA41" s="25"/>
-      <c r="AB41" s="25"/>
-      <c r="AC41" s="26"/>
+      <c r="D41" s="142"/>
+      <c r="W41" s="114"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="24"/>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B42" s="105" t="s">
+      <c r="B42" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="142">
+      <c r="C42" s="123">
         <f>'Financial Model'!I68</f>
         <v>0.17112763138524958</v>
       </c>
-      <c r="D42" s="134"/>
-      <c r="W42" s="127" t="s">
+      <c r="D42" s="124"/>
+      <c r="W42" s="121" t="s">
         <v>180</v>
       </c>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="26"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="24"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W43" s="120" t="s">
+      <c r="W43" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="26"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="23"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="24"/>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W44" s="120" t="s">
+      <c r="W44" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="26"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="24"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W45" s="120" t="s">
+      <c r="W45" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="25"/>
-      <c r="AA45" s="25"/>
-      <c r="AB45" s="25"/>
-      <c r="AC45" s="26"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="23"/>
+      <c r="AA45" s="23"/>
+      <c r="AB45" s="23"/>
+      <c r="AC45" s="24"/>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W46" s="120" t="s">
+      <c r="W46" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="26"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="23"/>
+      <c r="AB46" s="23"/>
+      <c r="AC46" s="24"/>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W47" s="120" t="s">
+      <c r="W47" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="25"/>
-      <c r="AA47" s="25"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="26"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23"/>
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="24"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W48" s="120" t="s">
+      <c r="W48" s="114" t="s">
         <v>186</v>
       </c>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="25"/>
-      <c r="AA48" s="25"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="26"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="23"/>
+      <c r="AA48" s="23"/>
+      <c r="AB48" s="23"/>
+      <c r="AC48" s="24"/>
     </row>
     <row r="49" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W49" s="120" t="s">
+      <c r="W49" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="25"/>
-      <c r="AA49" s="25"/>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="26"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23"/>
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="24"/>
     </row>
     <row r="50" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W50" s="120" t="s">
+      <c r="W50" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="25"/>
-      <c r="Z50" s="25"/>
-      <c r="AA50" s="25"/>
-      <c r="AB50" s="25"/>
-      <c r="AC50" s="26"/>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="23"/>
+      <c r="Z50" s="23"/>
+      <c r="AA50" s="23"/>
+      <c r="AB50" s="23"/>
+      <c r="AC50" s="24"/>
     </row>
     <row r="51" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W51" s="120" t="s">
+      <c r="W51" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="25"/>
-      <c r="Z51" s="25"/>
-      <c r="AA51" s="25"/>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="26"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="23"/>
+      <c r="AA51" s="23"/>
+      <c r="AB51" s="23"/>
+      <c r="AC51" s="24"/>
     </row>
     <row r="52" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W52" s="120"/>
-      <c r="X52" s="25"/>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="25"/>
-      <c r="AA52" s="25"/>
-      <c r="AB52" s="25"/>
-      <c r="AC52" s="26"/>
+      <c r="W52" s="114"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="23"/>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="23"/>
+      <c r="AB52" s="23"/>
+      <c r="AC52" s="24"/>
     </row>
     <row r="53" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W53" s="120" t="s">
+      <c r="W53" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="X53" s="25"/>
-      <c r="Y53" s="25"/>
-      <c r="Z53" s="25"/>
-      <c r="AA53" s="25"/>
-      <c r="AB53" s="25"/>
-      <c r="AC53" s="26"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="23"/>
+      <c r="Z53" s="23"/>
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="24"/>
     </row>
     <row r="54" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W54" s="120" t="s">
+      <c r="W54" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="X54" s="25"/>
-      <c r="Y54" s="25"/>
-      <c r="Z54" s="25"/>
-      <c r="AA54" s="25"/>
-      <c r="AB54" s="25"/>
-      <c r="AC54" s="26"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="23"/>
+      <c r="AC54" s="24"/>
     </row>
     <row r="55" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W55" s="120"/>
-      <c r="X55" s="25"/>
-      <c r="Y55" s="25"/>
-      <c r="Z55" s="25"/>
-      <c r="AA55" s="25"/>
-      <c r="AB55" s="25"/>
-      <c r="AC55" s="26"/>
+      <c r="W55" s="114"/>
+      <c r="X55" s="23"/>
+      <c r="Y55" s="23"/>
+      <c r="Z55" s="23"/>
+      <c r="AA55" s="23"/>
+      <c r="AB55" s="23"/>
+      <c r="AC55" s="24"/>
     </row>
     <row r="56" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W56" s="127" t="s">
+      <c r="W56" s="121" t="s">
         <v>192</v>
       </c>
-      <c r="X56" s="25"/>
-      <c r="Y56" s="25"/>
-      <c r="Z56" s="25"/>
-      <c r="AA56" s="25"/>
-      <c r="AB56" s="25"/>
-      <c r="AC56" s="26"/>
+      <c r="X56" s="23"/>
+      <c r="Y56" s="23"/>
+      <c r="Z56" s="23"/>
+      <c r="AA56" s="23"/>
+      <c r="AB56" s="23"/>
+      <c r="AC56" s="24"/>
     </row>
     <row r="57" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W57" s="120" t="s">
+      <c r="W57" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="X57" s="25"/>
-      <c r="Y57" s="25"/>
-      <c r="Z57" s="25"/>
-      <c r="AA57" s="25"/>
-      <c r="AB57" s="25"/>
-      <c r="AC57" s="26"/>
+      <c r="X57" s="23"/>
+      <c r="Y57" s="23"/>
+      <c r="Z57" s="23"/>
+      <c r="AA57" s="23"/>
+      <c r="AB57" s="23"/>
+      <c r="AC57" s="24"/>
     </row>
     <row r="58" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W58" s="120" t="s">
+      <c r="W58" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="X58" s="25"/>
-      <c r="Y58" s="25"/>
-      <c r="Z58" s="25"/>
-      <c r="AA58" s="25"/>
-      <c r="AB58" s="25"/>
-      <c r="AC58" s="26"/>
+      <c r="X58" s="23"/>
+      <c r="Y58" s="23"/>
+      <c r="Z58" s="23"/>
+      <c r="AA58" s="23"/>
+      <c r="AB58" s="23"/>
+      <c r="AC58" s="24"/>
     </row>
     <row r="59" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W59" s="120" t="s">
+      <c r="W59" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="X59" s="25"/>
-      <c r="Y59" s="25"/>
-      <c r="Z59" s="25"/>
-      <c r="AA59" s="25"/>
-      <c r="AB59" s="25"/>
-      <c r="AC59" s="26"/>
+      <c r="X59" s="23"/>
+      <c r="Y59" s="23"/>
+      <c r="Z59" s="23"/>
+      <c r="AA59" s="23"/>
+      <c r="AB59" s="23"/>
+      <c r="AC59" s="24"/>
     </row>
     <row r="60" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W60" s="120" t="s">
+      <c r="W60" s="114" t="s">
         <v>196</v>
       </c>
-      <c r="X60" s="25"/>
-      <c r="Y60" s="25"/>
-      <c r="Z60" s="25"/>
-      <c r="AA60" s="25"/>
-      <c r="AB60" s="25"/>
-      <c r="AC60" s="26"/>
+      <c r="X60" s="23"/>
+      <c r="Y60" s="23"/>
+      <c r="Z60" s="23"/>
+      <c r="AA60" s="23"/>
+      <c r="AB60" s="23"/>
+      <c r="AC60" s="24"/>
     </row>
     <row r="61" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W61" s="124" t="s">
+      <c r="W61" s="118" t="s">
         <v>197</v>
       </c>
-      <c r="X61" s="25"/>
-      <c r="Y61" s="25"/>
-      <c r="Z61" s="25"/>
-      <c r="AA61" s="25"/>
-      <c r="AB61" s="25"/>
-      <c r="AC61" s="26"/>
+      <c r="X61" s="23"/>
+      <c r="Y61" s="23"/>
+      <c r="Z61" s="23"/>
+      <c r="AA61" s="23"/>
+      <c r="AB61" s="23"/>
+      <c r="AC61" s="24"/>
     </row>
     <row r="62" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W62" s="120" t="s">
+      <c r="W62" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="X62" s="25"/>
-      <c r="Y62" s="25"/>
-      <c r="Z62" s="25"/>
-      <c r="AA62" s="25"/>
-      <c r="AB62" s="25"/>
-      <c r="AC62" s="26"/>
+      <c r="X62" s="23"/>
+      <c r="Y62" s="23"/>
+      <c r="Z62" s="23"/>
+      <c r="AA62" s="23"/>
+      <c r="AB62" s="23"/>
+      <c r="AC62" s="24"/>
     </row>
     <row r="63" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W63" s="120" t="s">
+      <c r="W63" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="X63" s="25"/>
-      <c r="Y63" s="25"/>
-      <c r="Z63" s="25"/>
-      <c r="AA63" s="25"/>
-      <c r="AB63" s="25"/>
-      <c r="AC63" s="26"/>
+      <c r="X63" s="23"/>
+      <c r="Y63" s="23"/>
+      <c r="Z63" s="23"/>
+      <c r="AA63" s="23"/>
+      <c r="AB63" s="23"/>
+      <c r="AC63" s="24"/>
     </row>
     <row r="64" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W64" s="120"/>
-      <c r="X64" s="25"/>
-      <c r="Y64" s="25"/>
-      <c r="Z64" s="25"/>
-      <c r="AA64" s="25"/>
-      <c r="AB64" s="25"/>
-      <c r="AC64" s="26"/>
+      <c r="W64" s="114"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="23"/>
+      <c r="Z64" s="23"/>
+      <c r="AA64" s="23"/>
+      <c r="AB64" s="23"/>
+      <c r="AC64" s="24"/>
     </row>
     <row r="65" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W65" s="127" t="s">
+      <c r="W65" s="121" t="s">
         <v>200</v>
       </c>
-      <c r="X65" s="25"/>
-      <c r="Y65" s="25"/>
-      <c r="Z65" s="25"/>
-      <c r="AA65" s="25"/>
-      <c r="AB65" s="25"/>
-      <c r="AC65" s="26"/>
+      <c r="X65" s="23"/>
+      <c r="Y65" s="23"/>
+      <c r="Z65" s="23"/>
+      <c r="AA65" s="23"/>
+      <c r="AB65" s="23"/>
+      <c r="AC65" s="24"/>
     </row>
     <row r="66" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W66" s="120" t="s">
+      <c r="W66" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="X66" s="25"/>
-      <c r="Y66" s="25"/>
-      <c r="Z66" s="25"/>
-      <c r="AA66" s="25"/>
-      <c r="AB66" s="25"/>
-      <c r="AC66" s="26"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="23"/>
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="24"/>
     </row>
     <row r="67" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W67" s="120" t="s">
+      <c r="W67" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="X67" s="25"/>
-      <c r="Y67" s="25"/>
-      <c r="Z67" s="25"/>
-      <c r="AA67" s="25"/>
-      <c r="AB67" s="25"/>
-      <c r="AC67" s="26"/>
+      <c r="X67" s="23"/>
+      <c r="Y67" s="23"/>
+      <c r="Z67" s="23"/>
+      <c r="AA67" s="23"/>
+      <c r="AB67" s="23"/>
+      <c r="AC67" s="24"/>
     </row>
     <row r="68" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W68" s="120" t="s">
+      <c r="W68" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="X68" s="25"/>
-      <c r="Y68" s="25"/>
-      <c r="Z68" s="25"/>
-      <c r="AA68" s="25"/>
-      <c r="AB68" s="25"/>
-      <c r="AC68" s="26"/>
+      <c r="X68" s="23"/>
+      <c r="Y68" s="23"/>
+      <c r="Z68" s="23"/>
+      <c r="AA68" s="23"/>
+      <c r="AB68" s="23"/>
+      <c r="AC68" s="24"/>
     </row>
     <row r="69" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W69" s="120" t="s">
+      <c r="W69" s="114" t="s">
         <v>204</v>
       </c>
-      <c r="X69" s="25"/>
-      <c r="Y69" s="25"/>
-      <c r="Z69" s="25"/>
-      <c r="AA69" s="25"/>
-      <c r="AB69" s="25"/>
-      <c r="AC69" s="26"/>
+      <c r="X69" s="23"/>
+      <c r="Y69" s="23"/>
+      <c r="Z69" s="23"/>
+      <c r="AA69" s="23"/>
+      <c r="AB69" s="23"/>
+      <c r="AC69" s="24"/>
     </row>
     <row r="70" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W70" s="124" t="s">
+      <c r="W70" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="X70" s="25"/>
-      <c r="Y70" s="25"/>
-      <c r="Z70" s="25"/>
-      <c r="AA70" s="25"/>
-      <c r="AB70" s="25"/>
-      <c r="AC70" s="26"/>
+      <c r="X70" s="23"/>
+      <c r="Y70" s="23"/>
+      <c r="Z70" s="23"/>
+      <c r="AA70" s="23"/>
+      <c r="AB70" s="23"/>
+      <c r="AC70" s="24"/>
     </row>
     <row r="71" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W71" s="120"/>
-      <c r="X71" s="25"/>
-      <c r="Y71" s="25"/>
-      <c r="Z71" s="25"/>
-      <c r="AA71" s="25"/>
-      <c r="AB71" s="25"/>
-      <c r="AC71" s="26"/>
+      <c r="W71" s="114"/>
+      <c r="X71" s="23"/>
+      <c r="Y71" s="23"/>
+      <c r="Z71" s="23"/>
+      <c r="AA71" s="23"/>
+      <c r="AB71" s="23"/>
+      <c r="AC71" s="24"/>
     </row>
     <row r="72" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W72" s="127" t="s">
+      <c r="W72" s="121" t="s">
         <v>206</v>
       </c>
-      <c r="X72" s="25"/>
-      <c r="Y72" s="25"/>
-      <c r="Z72" s="25"/>
-      <c r="AA72" s="25"/>
-      <c r="AB72" s="25"/>
-      <c r="AC72" s="26"/>
+      <c r="X72" s="23"/>
+      <c r="Y72" s="23"/>
+      <c r="Z72" s="23"/>
+      <c r="AA72" s="23"/>
+      <c r="AB72" s="23"/>
+      <c r="AC72" s="24"/>
     </row>
     <row r="73" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W73" s="120" t="s">
+      <c r="W73" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="X73" s="25"/>
-      <c r="Y73" s="25"/>
-      <c r="Z73" s="25"/>
-      <c r="AA73" s="25"/>
-      <c r="AB73" s="25"/>
-      <c r="AC73" s="26"/>
+      <c r="X73" s="23"/>
+      <c r="Y73" s="23"/>
+      <c r="Z73" s="23"/>
+      <c r="AA73" s="23"/>
+      <c r="AB73" s="23"/>
+      <c r="AC73" s="24"/>
     </row>
     <row r="74" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W74" s="124" t="s">
+      <c r="W74" s="118" t="s">
         <v>208</v>
       </c>
-      <c r="X74" s="25"/>
-      <c r="Y74" s="25"/>
-      <c r="Z74" s="25"/>
-      <c r="AA74" s="25"/>
-      <c r="AB74" s="25"/>
-      <c r="AC74" s="26"/>
+      <c r="X74" s="23"/>
+      <c r="Y74" s="23"/>
+      <c r="Z74" s="23"/>
+      <c r="AA74" s="23"/>
+      <c r="AB74" s="23"/>
+      <c r="AC74" s="24"/>
     </row>
     <row r="75" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W75" s="120" t="s">
+      <c r="W75" s="114" t="s">
         <v>209</v>
       </c>
-      <c r="X75" s="25"/>
-      <c r="Y75" s="25"/>
-      <c r="Z75" s="25"/>
-      <c r="AA75" s="25"/>
-      <c r="AB75" s="25"/>
-      <c r="AC75" s="26"/>
+      <c r="X75" s="23"/>
+      <c r="Y75" s="23"/>
+      <c r="Z75" s="23"/>
+      <c r="AA75" s="23"/>
+      <c r="AB75" s="23"/>
+      <c r="AC75" s="24"/>
     </row>
     <row r="76" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W76" s="124" t="s">
+      <c r="W76" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="X76" s="25"/>
-      <c r="Y76" s="25"/>
-      <c r="Z76" s="25"/>
-      <c r="AA76" s="25"/>
-      <c r="AB76" s="25"/>
-      <c r="AC76" s="26"/>
+      <c r="X76" s="23"/>
+      <c r="Y76" s="23"/>
+      <c r="Z76" s="23"/>
+      <c r="AA76" s="23"/>
+      <c r="AB76" s="23"/>
+      <c r="AC76" s="24"/>
     </row>
     <row r="77" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W77" s="120" t="s">
+      <c r="W77" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="X77" s="25"/>
-      <c r="Y77" s="25"/>
-      <c r="Z77" s="25"/>
-      <c r="AA77" s="25"/>
-      <c r="AB77" s="25"/>
-      <c r="AC77" s="26"/>
+      <c r="X77" s="23"/>
+      <c r="Y77" s="23"/>
+      <c r="Z77" s="23"/>
+      <c r="AA77" s="23"/>
+      <c r="AB77" s="23"/>
+      <c r="AC77" s="24"/>
     </row>
     <row r="78" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W78" s="120" t="s">
+      <c r="W78" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="X78" s="25"/>
-      <c r="Y78" s="25"/>
-      <c r="Z78" s="25"/>
-      <c r="AA78" s="25"/>
-      <c r="AB78" s="25"/>
-      <c r="AC78" s="26"/>
+      <c r="X78" s="23"/>
+      <c r="Y78" s="23"/>
+      <c r="Z78" s="23"/>
+      <c r="AA78" s="23"/>
+      <c r="AB78" s="23"/>
+      <c r="AC78" s="24"/>
     </row>
     <row r="79" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W79" s="124" t="s">
+      <c r="W79" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="X79" s="25"/>
-      <c r="Y79" s="25"/>
-      <c r="Z79" s="25"/>
-      <c r="AA79" s="25"/>
-      <c r="AB79" s="25"/>
-      <c r="AC79" s="26"/>
+      <c r="X79" s="23"/>
+      <c r="Y79" s="23"/>
+      <c r="Z79" s="23"/>
+      <c r="AA79" s="23"/>
+      <c r="AB79" s="23"/>
+      <c r="AC79" s="24"/>
     </row>
     <row r="80" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W80" s="120" t="s">
+      <c r="W80" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="X80" s="25"/>
-      <c r="Y80" s="25"/>
-      <c r="Z80" s="25"/>
-      <c r="AA80" s="25"/>
-      <c r="AB80" s="25"/>
-      <c r="AC80" s="26"/>
+      <c r="X80" s="23"/>
+      <c r="Y80" s="23"/>
+      <c r="Z80" s="23"/>
+      <c r="AA80" s="23"/>
+      <c r="AB80" s="23"/>
+      <c r="AC80" s="24"/>
     </row>
     <row r="81" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W81" s="120" t="s">
+      <c r="W81" s="114" t="s">
         <v>215</v>
       </c>
-      <c r="X81" s="25"/>
-      <c r="Y81" s="25"/>
-      <c r="Z81" s="25"/>
-      <c r="AA81" s="25"/>
-      <c r="AB81" s="25"/>
-      <c r="AC81" s="26"/>
+      <c r="X81" s="23"/>
+      <c r="Y81" s="23"/>
+      <c r="Z81" s="23"/>
+      <c r="AA81" s="23"/>
+      <c r="AB81" s="23"/>
+      <c r="AC81" s="24"/>
     </row>
     <row r="82" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W82" s="120" t="s">
+      <c r="W82" s="114" t="s">
         <v>216</v>
       </c>
-      <c r="X82" s="25"/>
-      <c r="Y82" s="25"/>
-      <c r="Z82" s="25"/>
-      <c r="AA82" s="25"/>
-      <c r="AB82" s="25"/>
-      <c r="AC82" s="26"/>
+      <c r="X82" s="23"/>
+      <c r="Y82" s="23"/>
+      <c r="Z82" s="23"/>
+      <c r="AA82" s="23"/>
+      <c r="AB82" s="23"/>
+      <c r="AC82" s="24"/>
     </row>
     <row r="83" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W83" s="120"/>
-      <c r="X83" s="25"/>
-      <c r="Y83" s="25"/>
-      <c r="Z83" s="25"/>
-      <c r="AA83" s="25"/>
-      <c r="AB83" s="25"/>
-      <c r="AC83" s="26"/>
+      <c r="W83" s="114"/>
+      <c r="X83" s="23"/>
+      <c r="Y83" s="23"/>
+      <c r="Z83" s="23"/>
+      <c r="AA83" s="23"/>
+      <c r="AB83" s="23"/>
+      <c r="AC83" s="24"/>
     </row>
     <row r="84" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W84" s="127" t="s">
+      <c r="W84" s="121" t="s">
         <v>217</v>
       </c>
-      <c r="X84" s="25"/>
-      <c r="Y84" s="25"/>
-      <c r="Z84" s="25"/>
-      <c r="AA84" s="25"/>
-      <c r="AB84" s="25"/>
-      <c r="AC84" s="26"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="23"/>
+      <c r="Z84" s="23"/>
+      <c r="AA84" s="23"/>
+      <c r="AB84" s="23"/>
+      <c r="AC84" s="24"/>
     </row>
     <row r="85" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W85" s="120" t="s">
+      <c r="W85" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="X85" s="25"/>
-      <c r="Y85" s="25"/>
-      <c r="Z85" s="25"/>
-      <c r="AA85" s="25"/>
-      <c r="AB85" s="25"/>
-      <c r="AC85" s="26"/>
+      <c r="X85" s="23"/>
+      <c r="Y85" s="23"/>
+      <c r="Z85" s="23"/>
+      <c r="AA85" s="23"/>
+      <c r="AB85" s="23"/>
+      <c r="AC85" s="24"/>
     </row>
     <row r="86" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W86" s="120" t="s">
+      <c r="W86" s="114" t="s">
         <v>219</v>
       </c>
-      <c r="X86" s="25"/>
-      <c r="Y86" s="25"/>
-      <c r="Z86" s="25"/>
-      <c r="AA86" s="25"/>
-      <c r="AB86" s="25"/>
-      <c r="AC86" s="26"/>
+      <c r="X86" s="23"/>
+      <c r="Y86" s="23"/>
+      <c r="Z86" s="23"/>
+      <c r="AA86" s="23"/>
+      <c r="AB86" s="23"/>
+      <c r="AC86" s="24"/>
     </row>
     <row r="87" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W87" s="124" t="s">
+      <c r="W87" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="X87" s="25"/>
-      <c r="Y87" s="25"/>
-      <c r="Z87" s="25"/>
-      <c r="AA87" s="25"/>
-      <c r="AB87" s="25"/>
-      <c r="AC87" s="26"/>
+      <c r="X87" s="23"/>
+      <c r="Y87" s="23"/>
+      <c r="Z87" s="23"/>
+      <c r="AA87" s="23"/>
+      <c r="AB87" s="23"/>
+      <c r="AC87" s="24"/>
     </row>
     <row r="88" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W88" s="120" t="s">
+      <c r="W88" s="114" t="s">
         <v>221</v>
       </c>
-      <c r="X88" s="25"/>
-      <c r="Y88" s="25"/>
-      <c r="Z88" s="25"/>
-      <c r="AA88" s="25"/>
-      <c r="AB88" s="25"/>
-      <c r="AC88" s="26"/>
+      <c r="X88" s="23"/>
+      <c r="Y88" s="23"/>
+      <c r="Z88" s="23"/>
+      <c r="AA88" s="23"/>
+      <c r="AB88" s="23"/>
+      <c r="AC88" s="24"/>
     </row>
     <row r="89" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W89" s="124" t="s">
+      <c r="W89" s="118" t="s">
         <v>222</v>
       </c>
-      <c r="X89" s="25"/>
-      <c r="Y89" s="25"/>
-      <c r="Z89" s="25"/>
-      <c r="AA89" s="25"/>
-      <c r="AB89" s="25"/>
-      <c r="AC89" s="26"/>
+      <c r="X89" s="23"/>
+      <c r="Y89" s="23"/>
+      <c r="Z89" s="23"/>
+      <c r="AA89" s="23"/>
+      <c r="AB89" s="23"/>
+      <c r="AC89" s="24"/>
     </row>
     <row r="90" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W90" s="120" t="s">
+      <c r="W90" s="114" t="s">
         <v>223</v>
       </c>
-      <c r="X90" s="25"/>
-      <c r="Y90" s="25"/>
-      <c r="Z90" s="25"/>
-      <c r="AA90" s="25"/>
-      <c r="AB90" s="25"/>
-      <c r="AC90" s="26"/>
+      <c r="X90" s="23"/>
+      <c r="Y90" s="23"/>
+      <c r="Z90" s="23"/>
+      <c r="AA90" s="23"/>
+      <c r="AB90" s="23"/>
+      <c r="AC90" s="24"/>
     </row>
     <row r="91" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W91" s="120" t="s">
+      <c r="W91" s="114" t="s">
         <v>224</v>
       </c>
-      <c r="X91" s="25"/>
-      <c r="Y91" s="25"/>
-      <c r="Z91" s="25"/>
-      <c r="AA91" s="25"/>
-      <c r="AB91" s="25"/>
-      <c r="AC91" s="26"/>
+      <c r="X91" s="23"/>
+      <c r="Y91" s="23"/>
+      <c r="Z91" s="23"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="24"/>
     </row>
     <row r="92" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W92" s="124" t="s">
+      <c r="W92" s="118" t="s">
         <v>225</v>
       </c>
-      <c r="X92" s="25"/>
-      <c r="Y92" s="25"/>
-      <c r="Z92" s="25"/>
-      <c r="AA92" s="25"/>
-      <c r="AB92" s="25"/>
-      <c r="AC92" s="26"/>
+      <c r="X92" s="23"/>
+      <c r="Y92" s="23"/>
+      <c r="Z92" s="23"/>
+      <c r="AA92" s="23"/>
+      <c r="AB92" s="23"/>
+      <c r="AC92" s="24"/>
     </row>
     <row r="93" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W93" s="120"/>
-      <c r="X93" s="25"/>
-      <c r="Y93" s="25"/>
-      <c r="Z93" s="25"/>
-      <c r="AA93" s="25"/>
-      <c r="AB93" s="25"/>
-      <c r="AC93" s="26"/>
+      <c r="W93" s="114"/>
+      <c r="X93" s="23"/>
+      <c r="Y93" s="23"/>
+      <c r="Z93" s="23"/>
+      <c r="AA93" s="23"/>
+      <c r="AB93" s="23"/>
+      <c r="AC93" s="24"/>
     </row>
     <row r="94" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W94" s="120"/>
-      <c r="X94" s="25"/>
-      <c r="Y94" s="25"/>
-      <c r="Z94" s="25"/>
-      <c r="AA94" s="25"/>
-      <c r="AB94" s="25"/>
-      <c r="AC94" s="26"/>
+      <c r="W94" s="114"/>
+      <c r="X94" s="23"/>
+      <c r="Y94" s="23"/>
+      <c r="Z94" s="23"/>
+      <c r="AA94" s="23"/>
+      <c r="AB94" s="23"/>
+      <c r="AC94" s="24"/>
     </row>
     <row r="95" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W95" s="127" t="s">
+      <c r="W95" s="121" t="s">
         <v>226</v>
       </c>
-      <c r="X95" s="25"/>
-      <c r="Y95" s="25"/>
-      <c r="Z95" s="25"/>
-      <c r="AA95" s="25"/>
-      <c r="AB95" s="25"/>
-      <c r="AC95" s="26"/>
+      <c r="X95" s="23"/>
+      <c r="Y95" s="23"/>
+      <c r="Z95" s="23"/>
+      <c r="AA95" s="23"/>
+      <c r="AB95" s="23"/>
+      <c r="AC95" s="24"/>
     </row>
     <row r="96" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W96" s="120" t="s">
+      <c r="W96" s="114" t="s">
         <v>227</v>
       </c>
-      <c r="X96" s="25"/>
-      <c r="Y96" s="25"/>
-      <c r="Z96" s="25"/>
-      <c r="AA96" s="25"/>
-      <c r="AB96" s="25"/>
-      <c r="AC96" s="26"/>
+      <c r="X96" s="23"/>
+      <c r="Y96" s="23"/>
+      <c r="Z96" s="23"/>
+      <c r="AA96" s="23"/>
+      <c r="AB96" s="23"/>
+      <c r="AC96" s="24"/>
     </row>
     <row r="97" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W97" s="120" t="s">
+      <c r="W97" s="114" t="s">
         <v>228</v>
       </c>
-      <c r="X97" s="25"/>
-      <c r="Y97" s="25"/>
-      <c r="Z97" s="25"/>
-      <c r="AA97" s="25"/>
-      <c r="AB97" s="25"/>
-      <c r="AC97" s="26"/>
+      <c r="X97" s="23"/>
+      <c r="Y97" s="23"/>
+      <c r="Z97" s="23"/>
+      <c r="AA97" s="23"/>
+      <c r="AB97" s="23"/>
+      <c r="AC97" s="24"/>
     </row>
     <row r="98" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W98" s="120" t="s">
+      <c r="W98" s="114" t="s">
         <v>229</v>
       </c>
-      <c r="X98" s="25"/>
-      <c r="Y98" s="25"/>
-      <c r="Z98" s="25"/>
-      <c r="AA98" s="25"/>
-      <c r="AB98" s="25"/>
-      <c r="AC98" s="26"/>
+      <c r="X98" s="23"/>
+      <c r="Y98" s="23"/>
+      <c r="Z98" s="23"/>
+      <c r="AA98" s="23"/>
+      <c r="AB98" s="23"/>
+      <c r="AC98" s="24"/>
     </row>
     <row r="99" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W99" s="120" t="s">
+      <c r="W99" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="X99" s="25"/>
-      <c r="Y99" s="25"/>
-      <c r="Z99" s="25"/>
-      <c r="AA99" s="25"/>
-      <c r="AB99" s="25"/>
-      <c r="AC99" s="26"/>
+      <c r="X99" s="23"/>
+      <c r="Y99" s="23"/>
+      <c r="Z99" s="23"/>
+      <c r="AA99" s="23"/>
+      <c r="AB99" s="23"/>
+      <c r="AC99" s="24"/>
     </row>
     <row r="100" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W100" s="120" t="s">
+      <c r="W100" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="X100" s="25"/>
-      <c r="Y100" s="25"/>
-      <c r="Z100" s="25"/>
-      <c r="AA100" s="25"/>
-      <c r="AB100" s="25"/>
-      <c r="AC100" s="26"/>
+      <c r="X100" s="23"/>
+      <c r="Y100" s="23"/>
+      <c r="Z100" s="23"/>
+      <c r="AA100" s="23"/>
+      <c r="AB100" s="23"/>
+      <c r="AC100" s="24"/>
     </row>
     <row r="101" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W101" s="120" t="s">
+      <c r="W101" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="X101" s="25"/>
-      <c r="Y101" s="25"/>
-      <c r="Z101" s="25"/>
-      <c r="AA101" s="25"/>
-      <c r="AB101" s="25"/>
-      <c r="AC101" s="26"/>
+      <c r="X101" s="23"/>
+      <c r="Y101" s="23"/>
+      <c r="Z101" s="23"/>
+      <c r="AA101" s="23"/>
+      <c r="AB101" s="23"/>
+      <c r="AC101" s="24"/>
     </row>
     <row r="102" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W102" s="120" t="s">
+      <c r="W102" s="114" t="s">
         <v>233</v>
       </c>
-      <c r="X102" s="25"/>
-      <c r="Y102" s="25"/>
-      <c r="Z102" s="25"/>
-      <c r="AA102" s="25"/>
-      <c r="AB102" s="25"/>
-      <c r="AC102" s="26"/>
+      <c r="X102" s="23"/>
+      <c r="Y102" s="23"/>
+      <c r="Z102" s="23"/>
+      <c r="AA102" s="23"/>
+      <c r="AB102" s="23"/>
+      <c r="AC102" s="24"/>
     </row>
     <row r="103" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W103" s="120" t="s">
+      <c r="W103" s="114" t="s">
         <v>234</v>
       </c>
-      <c r="X103" s="25"/>
-      <c r="Y103" s="25"/>
-      <c r="Z103" s="25"/>
-      <c r="AA103" s="25"/>
-      <c r="AB103" s="25"/>
-      <c r="AC103" s="26"/>
+      <c r="X103" s="23"/>
+      <c r="Y103" s="23"/>
+      <c r="Z103" s="23"/>
+      <c r="AA103" s="23"/>
+      <c r="AB103" s="23"/>
+      <c r="AC103" s="24"/>
     </row>
     <row r="104" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W104" s="120" t="s">
+      <c r="W104" s="114" t="s">
         <v>235</v>
       </c>
-      <c r="X104" s="25"/>
-      <c r="Y104" s="25"/>
-      <c r="Z104" s="25"/>
-      <c r="AA104" s="25"/>
-      <c r="AB104" s="25"/>
-      <c r="AC104" s="26"/>
+      <c r="X104" s="23"/>
+      <c r="Y104" s="23"/>
+      <c r="Z104" s="23"/>
+      <c r="AA104" s="23"/>
+      <c r="AB104" s="23"/>
+      <c r="AC104" s="24"/>
     </row>
     <row r="105" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W105" s="121" t="s">
+      <c r="W105" s="115" t="s">
         <v>236</v>
       </c>
-      <c r="X105" s="27"/>
-      <c r="Y105" s="27"/>
-      <c r="Z105" s="27"/>
-      <c r="AA105" s="27"/>
-      <c r="AB105" s="27"/>
-      <c r="AC105" s="28"/>
+      <c r="X105" s="25"/>
+      <c r="Y105" s="25"/>
+      <c r="Z105" s="25"/>
+      <c r="AA105" s="25"/>
+      <c r="AB105" s="25"/>
+      <c r="AC105" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F9:N9"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F32:O32"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="W24:AC24"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C38:D38"/>
@@ -3541,15 +3558,22 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="W24:AC24"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F36:O36"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K6:L6" r:id="rId1" display="Link" xr:uid="{EBABCF04-F876-4DF1-ADF1-1B6F62DC4548}"/>
@@ -3564,13 +3588,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80596E7F-DECF-497C-AD87-2DA392DA01F4}">
-  <dimension ref="B1:BH71"/>
+  <dimension ref="B1:BI71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,3443 +3602,3475 @@
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="33" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="33" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="35"/>
-    <col min="13" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="33"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
       <c r="C1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="31" t="s">
         <v>94</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="13"/>
+      <c r="K1" s="13" t="s">
+        <v>242</v>
+      </c>
       <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="2:27" s="95" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="92"/>
-      <c r="C2" s="21">
+    <row r="2" spans="2:28" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="87"/>
+      <c r="C2" s="20">
         <v>43646</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <v>44012</v>
       </c>
-      <c r="F2" s="93">
+      <c r="F2" s="88">
         <v>44196</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <v>44377</v>
       </c>
-      <c r="H2" s="93">
+      <c r="H2" s="88">
         <v>44561</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="20">
         <v>44742</v>
       </c>
-      <c r="J2" s="94"/>
-      <c r="M2" s="21">
+      <c r="J2" s="89"/>
+      <c r="N2" s="20">
         <v>43465</v>
       </c>
-      <c r="N2" s="21">
+      <c r="O2" s="20">
         <v>43830</v>
       </c>
-      <c r="O2" s="21">
+      <c r="P2" s="20">
         <v>44196</v>
       </c>
-      <c r="P2" s="21">
+      <c r="Q2" s="20">
         <v>44561</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="R2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="S2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="T2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="U2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="V2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="W2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="X2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="Y2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="43" t="s">
+      <c r="Z2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="43" t="s">
+      <c r="AA2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="43" t="s">
+      <c r="AB2" s="41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:27" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
+    <row r="3" spans="2:28" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="34"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="34"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="91">
+      <c r="H3" s="32"/>
+      <c r="I3" s="86">
         <v>44825</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="14"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="86">
+        <v>45146</v>
+      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
       <c r="P3" s="14"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="66">
+      <c r="C4" s="64">
         <v>1.5716999999999998E-2</v>
       </c>
-      <c r="D4" s="72">
-        <f>N4-C4</f>
+      <c r="D4" s="70">
+        <f>O4-C4</f>
         <v>1.6253E-2</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="64">
         <v>1.2707E-2</v>
       </c>
-      <c r="F4" s="72">
-        <f>O4-E4</f>
+      <c r="F4" s="70">
+        <f>P4-E4</f>
         <v>3.6773E-2</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="64">
         <v>3.2741449999999999</v>
       </c>
-      <c r="H4" s="72">
-        <f>P4-G4</f>
+      <c r="H4" s="70">
+        <f>Q4-G4</f>
         <v>13.101855</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="72">
         <v>9.8320000000000007</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="66">
+      <c r="J4" s="71"/>
+      <c r="K4" s="72">
+        <v>2.5</v>
+      </c>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="64">
         <v>4.8380000000000003E-3</v>
       </c>
-      <c r="N4" s="66">
+      <c r="O4" s="64">
         <v>3.1969999999999998E-2</v>
       </c>
-      <c r="O4" s="66">
+      <c r="P4" s="64">
         <v>4.9480000000000003E-2</v>
       </c>
-      <c r="P4" s="66">
+      <c r="Q4" s="64">
         <v>16.376000000000001</v>
       </c>
-      <c r="Q4" s="74">
-        <f>P4*1.25</f>
+      <c r="R4" s="72">
+        <f>Q4*1.25</f>
         <v>20.470000000000002</v>
       </c>
-      <c r="R4" s="74">
-        <f t="shared" ref="R4:AA4" si="0">Q4*1.25</f>
+      <c r="S4" s="72">
+        <f t="shared" ref="S4:AB4" si="0">R4*1.25</f>
         <v>25.587500000000002</v>
       </c>
-      <c r="S4" s="74">
+      <c r="T4" s="72">
         <f t="shared" si="0"/>
         <v>31.984375000000004</v>
       </c>
-      <c r="T4" s="74">
+      <c r="U4" s="72">
         <f t="shared" si="0"/>
         <v>39.980468750000007</v>
       </c>
-      <c r="U4" s="74">
+      <c r="V4" s="72">
         <f t="shared" si="0"/>
         <v>49.975585937500007</v>
       </c>
-      <c r="V4" s="74">
+      <c r="W4" s="72">
         <f t="shared" si="0"/>
         <v>62.469482421875007</v>
       </c>
-      <c r="W4" s="74">
+      <c r="X4" s="72">
         <f t="shared" si="0"/>
         <v>78.086853027343764</v>
       </c>
-      <c r="X4" s="74">
+      <c r="Y4" s="72">
         <f t="shared" si="0"/>
         <v>97.608566284179702</v>
       </c>
-      <c r="Y4" s="74">
+      <c r="Z4" s="72">
         <f t="shared" si="0"/>
         <v>122.01070785522462</v>
       </c>
-      <c r="Z4" s="74">
+      <c r="AA4" s="72">
         <f t="shared" si="0"/>
         <v>152.51338481903079</v>
       </c>
-      <c r="AA4" s="74">
+      <c r="AB4" s="72">
         <f t="shared" si="0"/>
         <v>190.64173102378848</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="65">
         <v>0.24007999999999999</v>
       </c>
-      <c r="D5" s="75">
-        <f>N5-C5</f>
+      <c r="D5" s="73">
+        <f>O5-C5</f>
         <v>0.25205600000000006</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="65">
         <v>0.174067</v>
       </c>
-      <c r="F5" s="75">
-        <f>O5-E5</f>
+      <c r="F5" s="73">
+        <f>P5-E5</f>
         <v>-3.2727000000000006E-2</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="65">
         <v>2.1742710000000001</v>
       </c>
-      <c r="H5" s="75">
-        <f>P5-G5</f>
+      <c r="H5" s="73">
+        <f>Q5-G5</f>
         <v>9.0767290000000003</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="68">
         <v>8.3209999999999997</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="67">
+      <c r="J5" s="71"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="65">
         <v>0.54072100000000001</v>
       </c>
-      <c r="N5" s="67">
+      <c r="O5" s="65">
         <v>0.49213600000000002</v>
       </c>
-      <c r="O5" s="67">
+      <c r="P5" s="65">
         <v>0.14133999999999999</v>
       </c>
-      <c r="P5" s="67">
+      <c r="Q5" s="65">
         <v>11.250999999999999</v>
       </c>
-      <c r="Q5" s="71">
-        <f>Q4-Q7</f>
+      <c r="R5" s="69">
+        <f>R4-R7</f>
         <v>14.124300000000002</v>
       </c>
-      <c r="R5" s="71">
-        <f t="shared" ref="R5:AA5" si="1">R4-R7</f>
+      <c r="S5" s="69">
+        <f t="shared" ref="S5:AB5" si="1">S4-S7</f>
         <v>17.655374999999999</v>
       </c>
-      <c r="S5" s="71">
+      <c r="T5" s="69">
         <f t="shared" si="1"/>
         <v>22.069218750000005</v>
       </c>
-      <c r="T5" s="71">
+      <c r="U5" s="69">
         <f t="shared" si="1"/>
         <v>27.586523437500006</v>
       </c>
-      <c r="U5" s="71">
+      <c r="V5" s="69">
         <f t="shared" si="1"/>
         <v>34.483154296875007</v>
       </c>
-      <c r="V5" s="71">
+      <c r="W5" s="69">
         <f t="shared" si="1"/>
         <v>43.10394287109375</v>
       </c>
-      <c r="W5" s="71">
+      <c r="X5" s="69">
         <f t="shared" si="1"/>
         <v>53.879928588867202</v>
       </c>
-      <c r="X5" s="71">
+      <c r="Y5" s="69">
         <f t="shared" si="1"/>
         <v>67.349910736083999</v>
       </c>
-      <c r="Y5" s="71">
+      <c r="Z5" s="69">
         <f t="shared" si="1"/>
         <v>84.18738842010498</v>
       </c>
-      <c r="Z5" s="71">
+      <c r="AA5" s="69">
         <f t="shared" si="1"/>
         <v>105.23423552513125</v>
       </c>
-      <c r="AA5" s="71">
+      <c r="AB5" s="69">
         <f t="shared" si="1"/>
         <v>131.54279440641406</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="68">
-        <v>0</v>
-      </c>
-      <c r="D6" s="75">
-        <v>0</v>
-      </c>
-      <c r="E6" s="68">
-        <v>0</v>
-      </c>
-      <c r="F6" s="75">
-        <f>O6-E6</f>
+      <c r="C6" s="66">
+        <v>0</v>
+      </c>
+      <c r="D6" s="73">
+        <v>0</v>
+      </c>
+      <c r="E6" s="66">
+        <v>0</v>
+      </c>
+      <c r="F6" s="73">
+        <f>P6-E6</f>
         <v>0.54844199999999999</v>
       </c>
-      <c r="G6" s="68">
-        <v>0</v>
-      </c>
-      <c r="H6" s="75">
-        <f>P6-G6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="70">
-        <v>0</v>
-      </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="68">
-        <v>0</v>
-      </c>
-      <c r="N6" s="68">
-        <v>0</v>
-      </c>
-      <c r="O6" s="68">
+      <c r="G6" s="66">
+        <v>0</v>
+      </c>
+      <c r="H6" s="73">
+        <f>Q6-G6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="68">
+        <v>0</v>
+      </c>
+      <c r="J6" s="71"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="66">
+        <v>0</v>
+      </c>
+      <c r="O6" s="66">
+        <v>0</v>
+      </c>
+      <c r="P6" s="66">
         <v>0.54844199999999999</v>
       </c>
-      <c r="P6" s="68">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="76">
-        <v>0</v>
-      </c>
-      <c r="R6" s="76">
+      <c r="Q6" s="66">
+        <v>0</v>
+      </c>
+      <c r="R6" s="68">
+        <v>0</v>
+      </c>
+      <c r="S6" s="68">
         <v>1</v>
       </c>
-      <c r="S6" s="76">
+      <c r="T6" s="68">
         <v>2</v>
       </c>
-      <c r="T6" s="76">
+      <c r="U6" s="68">
         <v>3</v>
       </c>
-      <c r="U6" s="76">
+      <c r="V6" s="68">
         <v>4</v>
       </c>
-      <c r="V6" s="76">
+      <c r="W6" s="68">
         <v>5</v>
       </c>
-      <c r="W6" s="76">
+      <c r="X6" s="68">
         <v>6</v>
       </c>
-      <c r="X6" s="76">
+      <c r="Y6" s="68">
         <v>7</v>
       </c>
-      <c r="Y6" s="76">
+      <c r="Z6" s="68">
         <v>8</v>
       </c>
-      <c r="Z6" s="76">
+      <c r="AA6" s="68">
         <v>9</v>
       </c>
-      <c r="AA6" s="76">
+      <c r="AB6" s="68">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="64">
         <f t="shared" ref="C7:I7" si="2">C4-C5-C6</f>
         <v>-0.22436299999999998</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="70">
         <f t="shared" si="2"/>
         <v>-0.23580300000000007</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="64">
         <f t="shared" si="2"/>
         <v>-0.16136</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="70">
         <f t="shared" si="2"/>
         <v>-0.47894199999999998</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="64">
         <f t="shared" si="2"/>
         <v>1.0998739999999998</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="70">
         <f t="shared" si="2"/>
         <v>4.0251260000000002</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="64">
         <f t="shared" si="2"/>
         <v>1.511000000000001</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="66">
-        <f>M4-M5-M6</f>
+      <c r="J7" s="71"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="64">
+        <f>N4-N5-N6</f>
         <v>-0.535883</v>
       </c>
-      <c r="N7" s="66">
-        <f>N4-N5-N6</f>
+      <c r="O7" s="64">
+        <f>O4-O5-O6</f>
         <v>-0.46016600000000002</v>
       </c>
-      <c r="O7" s="66">
-        <f>O4-O5-O6</f>
+      <c r="P7" s="64">
+        <f>P4-P5-P6</f>
         <v>-0.64030199999999993</v>
       </c>
-      <c r="P7" s="66">
-        <f>P4-P5-P6</f>
+      <c r="Q7" s="64">
+        <f>Q4-Q5-Q6</f>
         <v>5.1250000000000018</v>
       </c>
-      <c r="Q7" s="74">
-        <f>Q4*0.31</f>
+      <c r="R7" s="72">
+        <f>R4*0.31</f>
         <v>6.3457000000000008</v>
       </c>
-      <c r="R7" s="74">
-        <f t="shared" ref="R7:AA7" si="3">R4*0.31</f>
+      <c r="S7" s="72">
+        <f t="shared" ref="S7:AB7" si="3">S4*0.31</f>
         <v>7.932125000000001</v>
       </c>
-      <c r="S7" s="74">
+      <c r="T7" s="72">
         <f t="shared" si="3"/>
         <v>9.9151562500000008</v>
       </c>
-      <c r="T7" s="74">
+      <c r="U7" s="72">
         <f t="shared" si="3"/>
         <v>12.393945312500001</v>
       </c>
-      <c r="U7" s="74">
+      <c r="V7" s="72">
         <f t="shared" si="3"/>
         <v>15.492431640625002</v>
       </c>
-      <c r="V7" s="74">
+      <c r="W7" s="72">
         <f t="shared" si="3"/>
         <v>19.365539550781254</v>
       </c>
-      <c r="W7" s="74">
+      <c r="X7" s="72">
         <f t="shared" si="3"/>
         <v>24.206924438476566</v>
       </c>
-      <c r="X7" s="74">
+      <c r="Y7" s="72">
         <f t="shared" si="3"/>
         <v>30.258655548095707</v>
       </c>
-      <c r="Y7" s="74">
+      <c r="Z7" s="72">
         <f t="shared" si="3"/>
         <v>37.823319435119636</v>
       </c>
-      <c r="Z7" s="74">
+      <c r="AA7" s="72">
         <f t="shared" si="3"/>
         <v>47.279149293899543</v>
       </c>
-      <c r="AA7" s="74">
+      <c r="AB7" s="72">
         <f t="shared" si="3"/>
         <v>59.098936617374427</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="68">
-        <v>0</v>
-      </c>
-      <c r="D8" s="75">
-        <f>N8-C8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="68">
-        <v>0</v>
-      </c>
-      <c r="F8" s="75">
-        <f>O8-E8</f>
+      <c r="C8" s="66">
+        <v>0</v>
+      </c>
+      <c r="D8" s="73">
+        <f>O8-C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="66">
+        <v>0</v>
+      </c>
+      <c r="F8" s="73">
+        <f>P8-E8</f>
         <v>0.62167300000000003</v>
       </c>
-      <c r="G8" s="68">
-        <v>0</v>
-      </c>
-      <c r="H8" s="75">
-        <f>P8-G8</f>
+      <c r="G8" s="66">
+        <v>0</v>
+      </c>
+      <c r="H8" s="73">
+        <f>Q8-G8</f>
         <v>0.41399999999999998</v>
       </c>
-      <c r="I8" s="70">
-        <v>0</v>
-      </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="68">
-        <v>0</v>
-      </c>
-      <c r="N8" s="68">
-        <v>0</v>
-      </c>
-      <c r="O8" s="68">
+      <c r="I8" s="68">
+        <v>0</v>
+      </c>
+      <c r="J8" s="71"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="66">
+        <v>0</v>
+      </c>
+      <c r="O8" s="66">
+        <v>0</v>
+      </c>
+      <c r="P8" s="66">
         <v>0.62167300000000003</v>
       </c>
-      <c r="P8" s="68">
+      <c r="Q8" s="66">
         <v>0.41399999999999998</v>
       </c>
-      <c r="Q8" s="70">
-        <v>0</v>
-      </c>
-      <c r="R8" s="70">
-        <v>0</v>
-      </c>
-      <c r="S8" s="70">
-        <v>0</v>
-      </c>
-      <c r="T8" s="70">
-        <v>0</v>
-      </c>
-      <c r="U8" s="70">
-        <v>0</v>
-      </c>
-      <c r="V8" s="70">
-        <v>0</v>
-      </c>
-      <c r="W8" s="70">
-        <v>0</v>
-      </c>
-      <c r="X8" s="70">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="70">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="70">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="R8" s="68">
+        <v>0</v>
+      </c>
+      <c r="S8" s="68">
+        <v>0</v>
+      </c>
+      <c r="T8" s="68">
+        <v>0</v>
+      </c>
+      <c r="U8" s="68">
+        <v>0</v>
+      </c>
+      <c r="V8" s="68">
+        <v>0</v>
+      </c>
+      <c r="W8" s="68">
+        <v>0</v>
+      </c>
+      <c r="X8" s="68">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="68">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="68">
-        <v>0</v>
-      </c>
-      <c r="D9" s="75">
-        <f>N9-C9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="68">
-        <v>0</v>
-      </c>
-      <c r="F9" s="75">
-        <f>O9-E9</f>
+      <c r="C9" s="66">
+        <v>0</v>
+      </c>
+      <c r="D9" s="73">
+        <f>O9-C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="66">
+        <v>0</v>
+      </c>
+      <c r="F9" s="73">
+        <f>P9-E9</f>
         <v>0.17971799999999999</v>
       </c>
-      <c r="G9" s="68">
-        <v>0</v>
-      </c>
-      <c r="H9" s="75">
-        <f>P9-G9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="70">
-        <v>0</v>
-      </c>
-      <c r="J9" s="73"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="68">
-        <v>0</v>
-      </c>
-      <c r="N9" s="68">
-        <v>0</v>
-      </c>
-      <c r="O9" s="68">
+      <c r="G9" s="66">
+        <v>0</v>
+      </c>
+      <c r="H9" s="73">
+        <f>Q9-G9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="68">
+        <v>0</v>
+      </c>
+      <c r="J9" s="71"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="66">
+        <v>0</v>
+      </c>
+      <c r="O9" s="66">
+        <v>0</v>
+      </c>
+      <c r="P9" s="66">
         <v>0.17971799999999999</v>
       </c>
-      <c r="P9" s="68">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="70">
-        <v>0</v>
-      </c>
-      <c r="R9" s="70">
-        <v>0</v>
-      </c>
-      <c r="S9" s="70">
-        <v>0</v>
-      </c>
-      <c r="T9" s="70">
-        <v>0</v>
-      </c>
-      <c r="U9" s="70">
-        <v>0</v>
-      </c>
-      <c r="V9" s="70">
-        <v>0</v>
-      </c>
-      <c r="W9" s="70">
-        <v>0</v>
-      </c>
-      <c r="X9" s="70">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="70">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="70">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q9" s="66">
+        <v>0</v>
+      </c>
+      <c r="R9" s="68">
+        <v>0</v>
+      </c>
+      <c r="S9" s="68">
+        <v>0</v>
+      </c>
+      <c r="T9" s="68">
+        <v>0</v>
+      </c>
+      <c r="U9" s="68">
+        <v>0</v>
+      </c>
+      <c r="V9" s="68">
+        <v>0</v>
+      </c>
+      <c r="W9" s="68">
+        <v>0</v>
+      </c>
+      <c r="X9" s="68">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="68">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="68">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="68">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="67">
         <v>0.96812500000000001</v>
       </c>
-      <c r="D10" s="75">
-        <f>N10-C10</f>
+      <c r="D10" s="73">
+        <f>O10-C10</f>
         <v>0.97057000000000004</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="67">
         <v>1.0099990000000001</v>
       </c>
-      <c r="F10" s="75">
-        <f>O10-E10</f>
+      <c r="F10" s="73">
+        <f>P10-E10</f>
         <v>1.2030096000000001</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="67">
         <v>1.299544</v>
       </c>
-      <c r="H10" s="75">
-        <f>P10-G10</f>
+      <c r="H10" s="73">
+        <f>Q10-G10</f>
         <v>1.2534559999999999</v>
       </c>
-      <c r="I10" s="70">
+      <c r="I10" s="68">
         <v>1.395</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="69">
+      <c r="J10" s="71"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="67">
         <v>2.213695</v>
       </c>
-      <c r="N10" s="69">
+      <c r="O10" s="67">
         <v>1.9386950000000001</v>
       </c>
-      <c r="O10" s="69">
+      <c r="P10" s="67">
         <v>2.2130086000000002</v>
       </c>
-      <c r="P10" s="69">
+      <c r="Q10" s="67">
         <v>2.5529999999999999</v>
       </c>
-      <c r="Q10" s="70">
-        <f>P10*1</f>
+      <c r="R10" s="68">
+        <f>Q10*1</f>
         <v>2.5529999999999999</v>
       </c>
-      <c r="R10" s="70">
-        <f t="shared" ref="R10:AA10" si="4">Q10*1</f>
+      <c r="S10" s="68">
+        <f t="shared" ref="S10:AB10" si="4">R10*1</f>
         <v>2.5529999999999999</v>
       </c>
-      <c r="S10" s="70">
+      <c r="T10" s="68">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="T10" s="70">
+      <c r="U10" s="68">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="U10" s="70">
+      <c r="V10" s="68">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="V10" s="70">
+      <c r="W10" s="68">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="W10" s="70">
+      <c r="X10" s="68">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="X10" s="70">
+      <c r="Y10" s="68">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="Y10" s="70">
+      <c r="Z10" s="68">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="Z10" s="70">
+      <c r="AA10" s="68">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="AA10" s="70">
+      <c r="AB10" s="68">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="69">
-        <v>0</v>
-      </c>
-      <c r="D11" s="75">
-        <f>N11-C11</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="69">
+      <c r="C11" s="67">
+        <v>0</v>
+      </c>
+      <c r="D11" s="73">
+        <f>O11-C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="67">
         <v>0.100989</v>
       </c>
-      <c r="F11" s="75">
-        <f>O11-E11</f>
+      <c r="F11" s="73">
+        <f>P11-E11</f>
         <v>-0.100989</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="67">
         <v>6.0677000000000002E-2</v>
       </c>
-      <c r="H11" s="75">
-        <f>P11-G11</f>
+      <c r="H11" s="73">
+        <f>Q11-G11</f>
         <v>-6.0677000000000002E-2</v>
       </c>
-      <c r="I11" s="70">
-        <v>0</v>
-      </c>
-      <c r="J11" s="73"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="68">
-        <v>0</v>
-      </c>
-      <c r="N11" s="68">
-        <v>0</v>
-      </c>
-      <c r="O11" s="68">
-        <v>0</v>
-      </c>
-      <c r="P11" s="68">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="76">
-        <v>0</v>
-      </c>
-      <c r="R11" s="76">
+      <c r="I11" s="68">
+        <v>0</v>
+      </c>
+      <c r="J11" s="71"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="66">
+        <v>0</v>
+      </c>
+      <c r="O11" s="66">
+        <v>0</v>
+      </c>
+      <c r="P11" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="66">
+        <v>0</v>
+      </c>
+      <c r="R11" s="68">
+        <v>0</v>
+      </c>
+      <c r="S11" s="68">
         <v>1</v>
       </c>
-      <c r="S11" s="76">
+      <c r="T11" s="68">
         <v>2</v>
       </c>
-      <c r="T11" s="76">
+      <c r="U11" s="68">
         <v>3</v>
       </c>
-      <c r="U11" s="76">
+      <c r="V11" s="68">
         <v>4</v>
       </c>
-      <c r="V11" s="76">
+      <c r="W11" s="68">
         <v>5</v>
       </c>
-      <c r="W11" s="76">
+      <c r="X11" s="68">
         <v>6</v>
       </c>
-      <c r="X11" s="76">
+      <c r="Y11" s="68">
         <v>7</v>
       </c>
-      <c r="Y11" s="76">
+      <c r="Z11" s="68">
         <v>8</v>
       </c>
-      <c r="Z11" s="76">
+      <c r="AA11" s="68">
         <v>9</v>
       </c>
-      <c r="AA11" s="76">
+      <c r="AB11" s="68">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="67">
         <v>0.126301</v>
       </c>
-      <c r="D12" s="75">
-        <f>N12-C12</f>
+      <c r="D12" s="73">
+        <f>O12-C12</f>
         <v>-5.6579999999999991E-2</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="67">
         <v>7.4552999999999994E-2</v>
       </c>
-      <c r="F12" s="75">
-        <f>O12-E12</f>
+      <c r="F12" s="73">
+        <f>P12-E12</f>
         <v>2.8737000000000013E-2</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="67">
         <v>6.5929999999999999E-3</v>
       </c>
-      <c r="H12" s="75">
-        <f>P12-G12</f>
+      <c r="H12" s="73">
+        <f>Q12-G12</f>
         <v>0.105407</v>
       </c>
-      <c r="I12" s="70">
+      <c r="I12" s="68">
         <v>0.104</v>
       </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="69">
+      <c r="J12" s="71"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="67">
         <v>9.2290999999999998E-2</v>
       </c>
-      <c r="N12" s="69">
+      <c r="O12" s="67">
         <v>6.9721000000000005E-2</v>
       </c>
-      <c r="O12" s="69">
+      <c r="P12" s="67">
         <v>0.10329000000000001</v>
       </c>
-      <c r="P12" s="69">
+      <c r="Q12" s="67">
         <v>0.112</v>
       </c>
-      <c r="Q12" s="69">
-        <f>P12</f>
+      <c r="R12" s="67">
+        <f>Q12</f>
         <v>0.112</v>
       </c>
-      <c r="R12" s="69">
-        <f t="shared" ref="R12:AA12" si="5">Q12</f>
+      <c r="S12" s="67">
+        <f t="shared" ref="S12:AB12" si="5">R12</f>
         <v>0.112</v>
       </c>
-      <c r="S12" s="69">
+      <c r="T12" s="67">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="T12" s="69">
+      <c r="U12" s="67">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="U12" s="69">
+      <c r="V12" s="67">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="V12" s="69">
+      <c r="W12" s="67">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="W12" s="69">
+      <c r="X12" s="67">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="X12" s="69">
+      <c r="Y12" s="67">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="Y12" s="69">
+      <c r="Z12" s="67">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="Z12" s="69">
+      <c r="AA12" s="67">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="AA12" s="69">
+      <c r="AB12" s="67">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="67">
         <f t="shared" ref="C13:H13" si="6">SUM(C8:C12)</f>
         <v>1.0944259999999999</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="73">
         <f t="shared" si="6"/>
         <v>0.91399000000000008</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="67">
         <f t="shared" si="6"/>
         <v>1.1855410000000002</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="73">
         <f t="shared" si="6"/>
         <v>1.9321486000000003</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="67">
         <f t="shared" si="6"/>
         <v>1.3668140000000002</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="73">
         <f t="shared" si="6"/>
         <v>1.7121859999999998</v>
       </c>
-      <c r="I13" s="70">
+      <c r="I13" s="68">
         <v>1.4990000000000001</v>
       </c>
-      <c r="J13" s="73"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="69">
-        <f>SUM(M8:M12)</f>
+      <c r="J13" s="71"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="67">
+        <f>SUM(N8:N12)</f>
         <v>2.3059859999999999</v>
       </c>
-      <c r="N13" s="69">
-        <f>SUM(N8:N12)</f>
+      <c r="O13" s="67">
+        <f>SUM(O8:O12)</f>
         <v>2.008416</v>
       </c>
-      <c r="O13" s="69">
-        <f>SUM(O8:O12)</f>
+      <c r="P13" s="67">
+        <f>SUM(P8:P12)</f>
         <v>3.1176895999999998</v>
       </c>
-      <c r="P13" s="69">
-        <f>SUM(P8:P12)</f>
+      <c r="Q13" s="67">
+        <f>SUM(Q8:Q12)</f>
         <v>3.0790000000000002</v>
       </c>
-      <c r="Q13" s="70">
-        <f>P13</f>
+      <c r="R13" s="68">
+        <f>Q13</f>
         <v>3.0790000000000002</v>
       </c>
-      <c r="R13" s="70">
-        <f t="shared" ref="R13:AA13" si="7">Q13</f>
+      <c r="S13" s="68">
+        <f t="shared" ref="S13:AB13" si="7">R13</f>
         <v>3.0790000000000002</v>
       </c>
-      <c r="S13" s="70">
+      <c r="T13" s="68">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="T13" s="70">
+      <c r="U13" s="68">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="U13" s="70">
+      <c r="V13" s="68">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="V13" s="70">
+      <c r="W13" s="68">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="W13" s="70">
+      <c r="X13" s="68">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="X13" s="70">
+      <c r="Y13" s="68">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="Y13" s="70">
+      <c r="Z13" s="68">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="Z13" s="70">
+      <c r="AA13" s="68">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="AA13" s="70">
+      <c r="AB13" s="68">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="66">
+      <c r="C14" s="64">
         <f t="shared" ref="C14:I14" si="8">C7-C13</f>
         <v>-1.3187889999999998</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="70">
         <f t="shared" si="8"/>
         <v>-1.1497930000000001</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="64">
         <f t="shared" si="8"/>
         <v>-1.3469010000000001</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="70">
         <f t="shared" si="8"/>
         <v>-2.4110906000000005</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="64">
         <f t="shared" si="8"/>
         <v>-0.2669400000000004</v>
       </c>
-      <c r="H14" s="72">
+      <c r="H14" s="70">
         <f t="shared" si="8"/>
         <v>2.3129400000000002</v>
       </c>
-      <c r="I14" s="66">
+      <c r="I14" s="64">
         <f t="shared" si="8"/>
         <v>1.2000000000000899E-2</v>
       </c>
-      <c r="J14" s="73"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="66">
-        <f>M7-M13</f>
+      <c r="J14" s="71"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="64">
+        <f>N7-N13</f>
         <v>-2.841869</v>
       </c>
-      <c r="N14" s="66">
-        <f>N7-N13</f>
+      <c r="O14" s="64">
+        <f>O7-O13</f>
         <v>-2.4685820000000001</v>
       </c>
-      <c r="O14" s="66">
-        <f>O7-O13</f>
+      <c r="P14" s="64">
+        <f>P7-P13</f>
         <v>-3.7579915999999995</v>
       </c>
-      <c r="P14" s="66">
-        <f>P7-P13</f>
+      <c r="Q14" s="64">
+        <f>Q7-Q13</f>
         <v>2.0460000000000016</v>
       </c>
-      <c r="Q14" s="66">
-        <f>Q7-Q13</f>
+      <c r="R14" s="64">
+        <f>R7-R13</f>
         <v>3.2667000000000006</v>
       </c>
-      <c r="R14" s="66">
-        <f t="shared" ref="R14:AA14" si="9">R7-R13</f>
+      <c r="S14" s="64">
+        <f t="shared" ref="S14:AB14" si="9">S7-S13</f>
         <v>4.8531250000000004</v>
       </c>
-      <c r="S14" s="66">
+      <c r="T14" s="64">
         <f t="shared" si="9"/>
         <v>6.8361562500000002</v>
       </c>
-      <c r="T14" s="66">
+      <c r="U14" s="64">
         <f t="shared" si="9"/>
         <v>9.3149453125000008</v>
       </c>
-      <c r="U14" s="66">
+      <c r="V14" s="64">
         <f t="shared" si="9"/>
         <v>12.413431640625001</v>
       </c>
-      <c r="V14" s="66">
+      <c r="W14" s="64">
         <f t="shared" si="9"/>
         <v>16.286539550781253</v>
       </c>
-      <c r="W14" s="66">
+      <c r="X14" s="64">
         <f t="shared" si="9"/>
         <v>21.127924438476565</v>
       </c>
-      <c r="X14" s="66">
+      <c r="Y14" s="64">
         <f t="shared" si="9"/>
         <v>27.179655548095706</v>
       </c>
-      <c r="Y14" s="66">
+      <c r="Z14" s="64">
         <f t="shared" si="9"/>
         <v>34.744319435119635</v>
       </c>
-      <c r="Z14" s="66">
+      <c r="AA14" s="64">
         <f t="shared" si="9"/>
         <v>44.200149293899543</v>
       </c>
-      <c r="AA14" s="66">
+      <c r="AB14" s="64">
         <f t="shared" si="9"/>
         <v>56.019936617374427</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="67">
         <v>1.1476E-2</v>
       </c>
-      <c r="D15" s="75">
-        <f>N15-C15</f>
+      <c r="D15" s="73">
+        <f>O15-C15</f>
         <v>1.4870999999999999E-2</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="67">
         <v>1.9810000000000001E-3</v>
       </c>
-      <c r="F15" s="75">
-        <f>O15-E15</f>
+      <c r="F15" s="73">
+        <f>P15-E15</f>
         <v>2.5770000000000003E-3</v>
       </c>
-      <c r="G15" s="69">
+      <c r="G15" s="67">
         <v>1.7819999999999999E-3</v>
       </c>
-      <c r="H15" s="75">
-        <f>P15-G15</f>
+      <c r="H15" s="73">
+        <f>Q15-G15</f>
         <v>4.0218000000000004E-2</v>
       </c>
-      <c r="I15" s="70">
+      <c r="I15" s="68">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J15" s="73"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="69">
+      <c r="J15" s="71"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="67">
         <v>2.3914999999999999E-2</v>
       </c>
-      <c r="N15" s="69">
+      <c r="O15" s="67">
         <v>2.6346999999999999E-2</v>
       </c>
-      <c r="O15" s="69">
+      <c r="P15" s="67">
         <v>4.5580000000000004E-3</v>
       </c>
-      <c r="P15" s="69">
+      <c r="Q15" s="67">
         <f>0.002+0.04</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="Q15" s="70">
-        <f>P15*1.08</f>
+      <c r="R15" s="68">
+        <f>Q15*1.08</f>
         <v>4.5360000000000004E-2</v>
       </c>
-      <c r="R15" s="70">
-        <f t="shared" ref="R15:AA15" si="10">Q15*1.08</f>
+      <c r="S15" s="68">
+        <f t="shared" ref="S15:AB15" si="10">R15*1.08</f>
         <v>4.8988800000000006E-2</v>
       </c>
-      <c r="S15" s="70">
+      <c r="T15" s="68">
         <f t="shared" si="10"/>
         <v>5.2907904000000013E-2</v>
       </c>
-      <c r="T15" s="70">
+      <c r="U15" s="68">
         <f t="shared" si="10"/>
         <v>5.7140536320000018E-2</v>
       </c>
-      <c r="U15" s="70">
+      <c r="V15" s="68">
         <f t="shared" si="10"/>
         <v>6.1711779225600026E-2</v>
       </c>
-      <c r="V15" s="70">
+      <c r="W15" s="68">
         <f t="shared" si="10"/>
         <v>6.6648721563648039E-2</v>
       </c>
-      <c r="W15" s="70">
+      <c r="X15" s="68">
         <f t="shared" si="10"/>
         <v>7.1980619288739889E-2</v>
       </c>
-      <c r="X15" s="70">
+      <c r="Y15" s="68">
         <f t="shared" si="10"/>
         <v>7.7739068831839078E-2</v>
       </c>
-      <c r="Y15" s="70">
+      <c r="Z15" s="68">
         <f t="shared" si="10"/>
         <v>8.3958194338386208E-2</v>
       </c>
-      <c r="Z15" s="70">
+      <c r="AA15" s="68">
         <f t="shared" si="10"/>
         <v>9.0674849885457112E-2</v>
       </c>
-      <c r="AA15" s="70">
+      <c r="AB15" s="68">
         <f t="shared" si="10"/>
         <v>9.7928837876293681E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="64">
         <f t="shared" ref="C16:I16" si="11">C14-C15</f>
         <v>-1.3302649999999998</v>
       </c>
-      <c r="D16" s="72">
+      <c r="D16" s="70">
         <f t="shared" si="11"/>
         <v>-1.1646640000000001</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="64">
         <f t="shared" si="11"/>
         <v>-1.3488820000000001</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="70">
         <f t="shared" si="11"/>
         <v>-2.4136676000000006</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="64">
         <f t="shared" si="11"/>
         <v>-0.2687220000000004</v>
       </c>
-      <c r="H16" s="72">
+      <c r="H16" s="70">
         <f t="shared" si="11"/>
         <v>2.2727220000000004</v>
       </c>
-      <c r="I16" s="66">
+      <c r="I16" s="64">
         <f t="shared" si="11"/>
         <v>9.0000000000008996E-3</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="66">
-        <f>M14-M15</f>
+      <c r="J16" s="71"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="64">
+        <f>N14-N15</f>
         <v>-2.8657840000000001</v>
       </c>
-      <c r="N16" s="66">
-        <f>N14-N15</f>
+      <c r="O16" s="64">
+        <f>O14-O15</f>
         <v>-2.494929</v>
       </c>
-      <c r="O16" s="66">
-        <f>O14-O15</f>
+      <c r="P16" s="64">
+        <f>P14-P15</f>
         <v>-3.7625495999999994</v>
       </c>
-      <c r="P16" s="66">
-        <f>P14-P15</f>
+      <c r="Q16" s="64">
+        <f>Q14-Q15</f>
         <v>2.0040000000000018</v>
       </c>
-      <c r="Q16" s="66">
-        <f>Q14-Q15</f>
+      <c r="R16" s="64">
+        <f>R14-R15</f>
         <v>3.2213400000000005</v>
       </c>
-      <c r="R16" s="66">
-        <f t="shared" ref="R16:AA16" si="12">R14-R15</f>
+      <c r="S16" s="64">
+        <f t="shared" ref="S16:AB16" si="12">S14-S15</f>
         <v>4.8041362000000003</v>
       </c>
-      <c r="S16" s="66">
+      <c r="T16" s="64">
         <f t="shared" si="12"/>
         <v>6.7832483459999997</v>
       </c>
-      <c r="T16" s="66">
+      <c r="U16" s="64">
         <f t="shared" si="12"/>
         <v>9.2578047761800004</v>
       </c>
-      <c r="U16" s="66">
+      <c r="V16" s="64">
         <f t="shared" si="12"/>
         <v>12.351719861399401</v>
       </c>
-      <c r="V16" s="66">
+      <c r="W16" s="64">
         <f t="shared" si="12"/>
         <v>16.219890829217604</v>
       </c>
-      <c r="W16" s="66">
+      <c r="X16" s="64">
         <f t="shared" si="12"/>
         <v>21.055943819187824</v>
       </c>
-      <c r="X16" s="66">
+      <c r="Y16" s="64">
         <f t="shared" si="12"/>
         <v>27.101916479263867</v>
       </c>
-      <c r="Y16" s="66">
+      <c r="Z16" s="64">
         <f t="shared" si="12"/>
         <v>34.660361240781249</v>
       </c>
-      <c r="Z16" s="66">
+      <c r="AA16" s="64">
         <f t="shared" si="12"/>
         <v>44.109474444014083</v>
       </c>
-      <c r="AA16" s="66">
+      <c r="AB16" s="64">
         <f t="shared" si="12"/>
         <v>55.922007779498131</v>
       </c>
     </row>
-    <row r="17" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
+    <row r="17" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="67">
         <v>6.9477999999999998E-2</v>
       </c>
-      <c r="D17" s="75">
-        <f>N17-C17</f>
+      <c r="D17" s="73">
+        <f>O17-C17</f>
         <v>0.27539800000000003</v>
       </c>
-      <c r="E17" s="69">
-        <v>0</v>
-      </c>
-      <c r="F17" s="75">
-        <f>O17-E17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="69">
-        <v>0</v>
-      </c>
-      <c r="H17" s="75">
-        <f>P17-G17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="69">
-        <v>0</v>
-      </c>
-      <c r="J17" s="75"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69">
+      <c r="E17" s="67">
+        <v>0</v>
+      </c>
+      <c r="F17" s="73">
+        <f>P17-E17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="67">
+        <v>0</v>
+      </c>
+      <c r="H17" s="73">
+        <f>Q17-G17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="67">
+        <v>0</v>
+      </c>
+      <c r="J17" s="73"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67">
         <v>5.2276999999999997E-2</v>
       </c>
-      <c r="N17" s="69">
+      <c r="O17" s="67">
         <v>0.34487600000000002</v>
       </c>
-      <c r="O17" s="69">
-        <v>0</v>
-      </c>
-      <c r="P17" s="69">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="69">
+      <c r="P17" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="67">
+        <v>0</v>
+      </c>
+      <c r="R17" s="67">
         <v>-1</v>
       </c>
-      <c r="R17" s="69">
-        <v>0</v>
-      </c>
-      <c r="S17" s="69">
+      <c r="S17" s="67">
+        <v>0</v>
+      </c>
+      <c r="T17" s="67">
         <v>1</v>
       </c>
-      <c r="T17" s="69">
+      <c r="U17" s="67">
         <v>2</v>
       </c>
-      <c r="U17" s="69">
+      <c r="V17" s="67">
         <v>3</v>
       </c>
-      <c r="V17" s="69">
+      <c r="W17" s="67">
         <v>4</v>
       </c>
-      <c r="W17" s="69">
+      <c r="X17" s="67">
         <v>5</v>
       </c>
-      <c r="X17" s="69">
+      <c r="Y17" s="67">
         <v>6</v>
       </c>
-      <c r="Y17" s="69">
+      <c r="Z17" s="67">
         <v>7</v>
       </c>
-      <c r="Z17" s="69">
+      <c r="AA17" s="67">
         <v>8</v>
       </c>
-      <c r="AA17" s="69">
+      <c r="AB17" s="67">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="64">
         <f t="shared" ref="C18:I18" si="13">C16+C17</f>
         <v>-1.2607869999999999</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="70">
         <f t="shared" si="13"/>
         <v>-0.88926600000000011</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="64">
         <f t="shared" si="13"/>
         <v>-1.3488820000000001</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="70">
         <f t="shared" si="13"/>
         <v>-2.4136676000000006</v>
       </c>
-      <c r="G18" s="66">
+      <c r="G18" s="64">
         <f t="shared" si="13"/>
         <v>-0.2687220000000004</v>
       </c>
-      <c r="H18" s="72">
+      <c r="H18" s="70">
         <f t="shared" si="13"/>
         <v>2.2727220000000004</v>
       </c>
-      <c r="I18" s="66">
+      <c r="I18" s="64">
         <f t="shared" si="13"/>
         <v>9.0000000000008996E-3</v>
       </c>
-      <c r="J18" s="73"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="66">
-        <f>M16+M17</f>
+      <c r="J18" s="71"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="64">
+        <f>N16+N17</f>
         <v>-2.813507</v>
       </c>
-      <c r="N18" s="66">
-        <f>N16+N17</f>
+      <c r="O18" s="64">
+        <f>O16+O17</f>
         <v>-2.1500529999999998</v>
       </c>
-      <c r="O18" s="66">
-        <f>O16+O17</f>
+      <c r="P18" s="64">
+        <f>P16+P17</f>
         <v>-3.7625495999999994</v>
       </c>
-      <c r="P18" s="66">
-        <f>P16+P17</f>
+      <c r="Q18" s="64">
+        <f>Q16+Q17</f>
         <v>2.0040000000000018</v>
       </c>
-      <c r="Q18" s="66">
-        <f>Q16+Q17</f>
+      <c r="R18" s="64">
+        <f>R16+R17</f>
         <v>2.2213400000000005</v>
       </c>
-      <c r="R18" s="66">
-        <f t="shared" ref="R18:AA18" si="14">R16+R17</f>
+      <c r="S18" s="64">
+        <f t="shared" ref="S18:AB18" si="14">S16+S17</f>
         <v>4.8041362000000003</v>
       </c>
-      <c r="S18" s="66">
+      <c r="T18" s="64">
         <f t="shared" si="14"/>
         <v>7.7832483459999997</v>
       </c>
-      <c r="T18" s="66">
+      <c r="U18" s="64">
         <f t="shared" si="14"/>
         <v>11.25780477618</v>
       </c>
-      <c r="U18" s="66">
+      <c r="V18" s="64">
         <f t="shared" si="14"/>
         <v>15.351719861399401</v>
       </c>
-      <c r="V18" s="66">
+      <c r="W18" s="64">
         <f t="shared" si="14"/>
         <v>20.219890829217604</v>
       </c>
-      <c r="W18" s="66">
+      <c r="X18" s="64">
         <f t="shared" si="14"/>
         <v>26.055943819187824</v>
       </c>
-      <c r="X18" s="66">
+      <c r="Y18" s="64">
         <f t="shared" si="14"/>
         <v>33.101916479263863</v>
       </c>
-      <c r="Y18" s="66">
+      <c r="Z18" s="64">
         <f t="shared" si="14"/>
         <v>41.660361240781249</v>
       </c>
-      <c r="Z18" s="66">
+      <c r="AA18" s="64">
         <f t="shared" si="14"/>
         <v>52.109474444014083</v>
       </c>
-      <c r="AA18" s="66">
+      <c r="AB18" s="64">
         <f t="shared" si="14"/>
         <v>64.922007779498131</v>
       </c>
-      <c r="AB18" s="56">
-        <f t="shared" ref="AB18:BH18" si="15">AA18*(1+$AD$22)</f>
+      <c r="AC18" s="54">
+        <f t="shared" ref="AC18:BI18" si="15">AB18*(1+$AE$22)</f>
         <v>63.948177662805655</v>
       </c>
-      <c r="AC18" s="56">
+      <c r="AD18" s="54">
         <f t="shared" si="15"/>
         <v>62.988954997863573</v>
       </c>
-      <c r="AD18" s="56">
+      <c r="AE18" s="54">
         <f t="shared" si="15"/>
         <v>62.044120672895616</v>
       </c>
-      <c r="AE18" s="56">
+      <c r="AF18" s="54">
         <f t="shared" si="15"/>
         <v>61.113458862802183</v>
       </c>
-      <c r="AF18" s="56">
+      <c r="AG18" s="54">
         <f t="shared" si="15"/>
         <v>60.196756979860147</v>
       </c>
-      <c r="AG18" s="56">
+      <c r="AH18" s="54">
         <f t="shared" si="15"/>
         <v>59.293805625162243</v>
       </c>
-      <c r="AH18" s="56">
+      <c r="AI18" s="54">
         <f t="shared" si="15"/>
         <v>58.404398540784811</v>
       </c>
-      <c r="AI18" s="56">
+      <c r="AJ18" s="54">
         <f t="shared" si="15"/>
         <v>57.528332562673036</v>
       </c>
-      <c r="AJ18" s="56">
+      <c r="AK18" s="54">
         <f t="shared" si="15"/>
         <v>56.665407574232937</v>
       </c>
-      <c r="AK18" s="56">
+      <c r="AL18" s="54">
         <f t="shared" si="15"/>
         <v>55.815426460619442</v>
       </c>
-      <c r="AL18" s="56">
+      <c r="AM18" s="54">
         <f t="shared" si="15"/>
         <v>54.978195063710146</v>
       </c>
-      <c r="AM18" s="56">
+      <c r="AN18" s="54">
         <f t="shared" si="15"/>
         <v>54.153522137754493</v>
       </c>
-      <c r="AN18" s="56">
+      <c r="AO18" s="54">
         <f t="shared" si="15"/>
         <v>53.341219305688178</v>
       </c>
-      <c r="AO18" s="56">
+      <c r="AP18" s="54">
         <f t="shared" si="15"/>
         <v>52.541101016102857</v>
       </c>
-      <c r="AP18" s="56">
+      <c r="AQ18" s="54">
         <f t="shared" si="15"/>
         <v>51.752984500861317</v>
       </c>
-      <c r="AQ18" s="56">
+      <c r="AR18" s="54">
         <f t="shared" si="15"/>
         <v>50.976689733348394</v>
       </c>
-      <c r="AR18" s="56">
+      <c r="AS18" s="54">
         <f t="shared" si="15"/>
         <v>50.21203938734817</v>
       </c>
-      <c r="AS18" s="56">
+      <c r="AT18" s="54">
         <f t="shared" si="15"/>
         <v>49.458858796537946</v>
       </c>
-      <c r="AT18" s="56">
+      <c r="AU18" s="54">
         <f t="shared" si="15"/>
         <v>48.716975914589874</v>
       </c>
-      <c r="AU18" s="56">
+      <c r="AV18" s="54">
         <f t="shared" si="15"/>
         <v>47.986221275871024</v>
       </c>
-      <c r="AV18" s="56">
+      <c r="AW18" s="54">
         <f t="shared" si="15"/>
         <v>47.266427956732961</v>
       </c>
-      <c r="AW18" s="56">
+      <c r="AX18" s="54">
         <f t="shared" si="15"/>
         <v>46.557431537381966</v>
       </c>
-      <c r="AX18" s="56">
+      <c r="AY18" s="54">
         <f t="shared" si="15"/>
         <v>45.859070064321237</v>
       </c>
-      <c r="AY18" s="56">
+      <c r="AZ18" s="54">
         <f t="shared" si="15"/>
         <v>45.171184013356417</v>
       </c>
-      <c r="AZ18" s="56">
+      <c r="BA18" s="54">
         <f t="shared" si="15"/>
         <v>44.49361625315607</v>
       </c>
-      <c r="BA18" s="56">
+      <c r="BB18" s="54">
         <f t="shared" si="15"/>
         <v>43.826212009358727</v>
       </c>
-      <c r="BB18" s="56">
+      <c r="BC18" s="54">
         <f t="shared" si="15"/>
         <v>43.168818829218345</v>
       </c>
-      <c r="BC18" s="56">
+      <c r="BD18" s="54">
         <f t="shared" si="15"/>
         <v>42.521286546780068</v>
       </c>
-      <c r="BD18" s="56">
+      <c r="BE18" s="54">
         <f t="shared" si="15"/>
         <v>41.88346724857837</v>
       </c>
-      <c r="BE18" s="56">
+      <c r="BF18" s="54">
         <f t="shared" si="15"/>
         <v>41.255215239849697</v>
       </c>
-      <c r="BF18" s="56">
+      <c r="BG18" s="54">
         <f t="shared" si="15"/>
         <v>40.636387011251948</v>
       </c>
-      <c r="BG18" s="56">
+      <c r="BH18" s="54">
         <f t="shared" si="15"/>
         <v>40.026841206083169</v>
       </c>
-      <c r="BH18" s="56">
+      <c r="BI18" s="54">
         <f t="shared" si="15"/>
         <v>39.426438587991925</v>
       </c>
     </row>
-    <row r="19" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+    <row r="19" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="67">
         <f t="shared" ref="C19:I19" si="16">(C18/C20)</f>
         <v>-5.8309467350935564E-3</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="73">
         <f t="shared" si="16"/>
         <v>-3.6932717437238396E-3</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E19" s="67">
         <f t="shared" si="16"/>
         <v>-3.9258307454951135E-3</v>
       </c>
-      <c r="F19" s="75">
+      <c r="F19" s="73">
         <f t="shared" si="16"/>
         <v>-4.6611916836287381E-3</v>
       </c>
-      <c r="G19" s="69">
+      <c r="G19" s="67">
         <f t="shared" si="16"/>
         <v>-4.0439192608093311E-4</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="73">
         <f t="shared" si="16"/>
         <v>3.1971802850663715E-3</v>
       </c>
-      <c r="I19" s="69">
+      <c r="I19" s="67">
         <f t="shared" si="16"/>
         <v>1.1621600681801736E-5</v>
       </c>
-      <c r="J19" s="73"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="69">
-        <f>(M18/M20)</f>
+      <c r="J19" s="71"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="67">
+        <f>(N18/N20)</f>
         <v>-1.7770826388743045E-2</v>
       </c>
-      <c r="N19" s="69">
-        <f>(N18/N20)</f>
+      <c r="O19" s="67">
+        <f>(O18/O20)</f>
         <v>-8.9295328871323888E-3</v>
       </c>
-      <c r="O19" s="69">
-        <f>(O18/O20)</f>
+      <c r="P19" s="67">
+        <f>(P18/P20)</f>
         <v>-7.2661061136838519E-3</v>
       </c>
-      <c r="P19" s="69">
-        <f>(P18/P20)</f>
+      <c r="Q19" s="67">
+        <f>(Q18/Q20)</f>
         <v>2.8191522285932963E-3</v>
       </c>
-      <c r="Q19" s="69">
-        <f>(Q18/Q20)</f>
+      <c r="R19" s="67">
+        <f>(R18/R20)</f>
         <v>3.1248980097122897E-3</v>
       </c>
-      <c r="R19" s="69">
-        <f t="shared" ref="R19:AA19" si="17">(R18/R20)</f>
+      <c r="S19" s="67">
+        <f t="shared" ref="S19:AB19" si="17">(S18/S20)</f>
         <v>6.7582790791894803E-3</v>
       </c>
-      <c r="S19" s="69">
+      <c r="T19" s="67">
         <f t="shared" si="17"/>
         <v>1.0949182594970542E-2</v>
       </c>
-      <c r="T19" s="69">
+      <c r="U19" s="67">
         <f t="shared" si="17"/>
         <v>1.583705859472858E-2</v>
       </c>
-      <c r="U19" s="69">
+      <c r="V19" s="67">
         <f t="shared" si="17"/>
         <v>2.1596225179642742E-2</v>
       </c>
-      <c r="V19" s="69">
+      <c r="W19" s="67">
         <f t="shared" si="17"/>
         <v>2.8444585974601751E-2</v>
       </c>
-      <c r="W19" s="69">
+      <c r="X19" s="67">
         <f t="shared" si="17"/>
         <v>3.6654526989004496E-2</v>
       </c>
-      <c r="X19" s="69">
+      <c r="Y19" s="67">
         <f t="shared" si="17"/>
         <v>4.6566537731150597E-2</v>
       </c>
-      <c r="Y19" s="69">
+      <c r="Z19" s="67">
         <f t="shared" si="17"/>
         <v>5.8606237642689692E-2</v>
       </c>
-      <c r="Z19" s="69">
+      <c r="AA19" s="67">
         <f t="shared" si="17"/>
         <v>7.330565918646087E-2</v>
       </c>
-      <c r="AA19" s="69">
+      <c r="AB19" s="67">
         <f t="shared" si="17"/>
         <v>9.1329851754652344E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="69">
+      <c r="C20" s="67">
         <v>216.223378</v>
       </c>
-      <c r="D20" s="75">
-        <f>N20</f>
+      <c r="D20" s="73">
+        <f>O20</f>
         <v>240.78000800000001</v>
       </c>
-      <c r="E20" s="69">
+      <c r="E20" s="67">
         <v>343.59148099999999</v>
       </c>
-      <c r="F20" s="75">
-        <f>O20</f>
+      <c r="F20" s="73">
+        <f>P20</f>
         <v>517.822</v>
       </c>
-      <c r="G20" s="69">
+      <c r="G20" s="67">
         <v>664.50881600000002</v>
       </c>
-      <c r="H20" s="73">
-        <f>P20</f>
+      <c r="H20" s="71">
+        <f>Q20</f>
         <v>710.85199999999998</v>
       </c>
-      <c r="I20" s="70">
+      <c r="I20" s="68">
         <v>774.42</v>
       </c>
-      <c r="J20" s="73"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="69">
+      <c r="J20" s="71"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="67">
         <v>158.321675</v>
       </c>
-      <c r="N20" s="69">
+      <c r="O20" s="67">
         <v>240.78000800000001</v>
       </c>
-      <c r="O20" s="69">
+      <c r="P20" s="67">
         <v>517.822</v>
       </c>
-      <c r="P20" s="69">
+      <c r="Q20" s="67">
         <v>710.85199999999998</v>
       </c>
-      <c r="Q20" s="69">
-        <f>P20</f>
+      <c r="R20" s="67">
+        <f>Q20</f>
         <v>710.85199999999998</v>
       </c>
-      <c r="R20" s="69">
-        <f t="shared" ref="R20:AA20" si="18">Q20</f>
+      <c r="S20" s="67">
+        <f t="shared" ref="S20:AB20" si="18">R20</f>
         <v>710.85199999999998</v>
       </c>
-      <c r="S20" s="69">
+      <c r="T20" s="67">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="T20" s="69">
+      <c r="U20" s="67">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="U20" s="69">
+      <c r="V20" s="67">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="V20" s="69">
+      <c r="W20" s="67">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="W20" s="69">
+      <c r="X20" s="67">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="X20" s="69">
+      <c r="Y20" s="67">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="Y20" s="69">
+      <c r="Z20" s="67">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="Z20" s="69">
+      <c r="AA20" s="67">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="AA20" s="69">
+      <c r="AB20" s="67">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
     </row>
-    <row r="22" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+    <row r="22" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <f t="shared" ref="C22:H22" si="19">C7/C4</f>
         <v>-14.275179741680983</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="34">
         <f t="shared" si="19"/>
         <v>-14.508275395311639</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <f t="shared" si="19"/>
         <v>-12.698512630833399</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="34">
         <f t="shared" si="19"/>
         <v>-13.024284121502188</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="16">
         <f t="shared" si="19"/>
         <v>0.33592708936226096</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="34">
         <f t="shared" si="19"/>
         <v>0.30721802370732998</v>
       </c>
-      <c r="I22" s="84">
+      <c r="I22" s="37">
         <v>0.31</v>
       </c>
-      <c r="M22" s="17">
-        <f>M7/M4</f>
+      <c r="N22" s="16">
+        <f>N7/N4</f>
         <v>-110.76539892517569</v>
       </c>
-      <c r="N22" s="17">
-        <f>N7/N4</f>
+      <c r="O22" s="16">
+        <f>O7/O4</f>
         <v>-14.393681576477949</v>
       </c>
-      <c r="O22" s="17">
-        <f>O7/O4</f>
+      <c r="P22" s="16">
+        <f>P7/P4</f>
         <v>-12.940622473726757</v>
       </c>
-      <c r="P22" s="17">
-        <f>P7/P4</f>
+      <c r="Q22" s="16">
+        <f>Q7/Q4</f>
         <v>0.31295798729848567</v>
       </c>
-      <c r="Q22" s="17">
-        <f>Q7/Q4</f>
+      <c r="R22" s="16">
+        <f>R7/R4</f>
         <v>0.31</v>
       </c>
-      <c r="R22" s="17">
-        <f t="shared" ref="R22:AA22" si="20">R7/R4</f>
+      <c r="S22" s="16">
+        <f t="shared" ref="S22:AB22" si="20">S7/S4</f>
         <v>0.31</v>
       </c>
-      <c r="S22" s="17">
+      <c r="T22" s="16">
         <f t="shared" si="20"/>
         <v>0.31</v>
       </c>
-      <c r="T22" s="17">
+      <c r="U22" s="16">
         <f t="shared" si="20"/>
         <v>0.31</v>
       </c>
-      <c r="U22" s="17">
+      <c r="V22" s="16">
         <f t="shared" si="20"/>
         <v>0.31</v>
       </c>
-      <c r="V22" s="17">
+      <c r="W22" s="16">
         <f t="shared" si="20"/>
         <v>0.31</v>
       </c>
-      <c r="W22" s="17">
+      <c r="X22" s="16">
         <f t="shared" si="20"/>
         <v>0.31</v>
       </c>
-      <c r="X22" s="17">
+      <c r="Y22" s="16">
         <f t="shared" si="20"/>
         <v>0.31</v>
       </c>
-      <c r="Y22" s="17">
+      <c r="Z22" s="16">
         <f t="shared" si="20"/>
         <v>0.31</v>
       </c>
-      <c r="Z22" s="17">
+      <c r="AA22" s="16">
         <f t="shared" si="20"/>
         <v>0.31</v>
       </c>
-      <c r="AA22" s="17">
+      <c r="AB22" s="16">
         <f t="shared" si="20"/>
         <v>0.31</v>
       </c>
-      <c r="AC22" s="44" t="s">
+      <c r="AD22" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="AD22" s="49">
+      <c r="AE22" s="47">
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <f t="shared" ref="C23:H23" si="21">C14/C4</f>
         <v>-83.908443087103137</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="34">
         <f t="shared" si="21"/>
         <v>-70.743431981787978</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="16">
         <f t="shared" si="21"/>
         <v>-105.99677343196664</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="34">
         <f t="shared" si="21"/>
         <v>-65.566872433578993</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="16">
         <f t="shared" si="21"/>
         <v>-8.1529681794789297E-2</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="34">
         <f t="shared" si="21"/>
         <v>0.1765353074049438</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="16">
         <f t="shared" ref="I23" si="22">I14/I4</f>
         <v>1.220504475183167E-3</v>
       </c>
-      <c r="M23" s="17">
-        <f>M14/M4</f>
+      <c r="N23" s="16">
+        <f>N14/N4</f>
         <v>-587.40574617610582</v>
       </c>
-      <c r="N23" s="17">
-        <f>N14/N4</f>
+      <c r="O23" s="16">
+        <f>O14/O4</f>
         <v>-77.215577103534571</v>
       </c>
-      <c r="O23" s="17">
-        <f>O14/O4</f>
+      <c r="P23" s="16">
+        <f>P14/P4</f>
         <v>-75.949708973322544</v>
       </c>
-      <c r="P23" s="17">
-        <f>P14/P4</f>
+      <c r="Q23" s="16">
+        <f>Q14/Q4</f>
         <v>0.12493893502686867</v>
       </c>
-      <c r="Q23" s="17">
-        <f>Q14/Q4</f>
+      <c r="R23" s="16">
+        <f>R14/R4</f>
         <v>0.1595847581827064</v>
       </c>
-      <c r="R23" s="17">
-        <f t="shared" ref="R23:AA23" si="23">R14/R4</f>
+      <c r="S23" s="16">
+        <f t="shared" ref="S23:AB23" si="23">S14/S4</f>
         <v>0.18966780654616511</v>
       </c>
-      <c r="S23" s="17">
+      <c r="T23" s="16">
         <f t="shared" si="23"/>
         <v>0.21373424523693207</v>
       </c>
-      <c r="T23" s="17">
+      <c r="U23" s="16">
         <f t="shared" si="23"/>
         <v>0.23298739618954564</v>
       </c>
-      <c r="U23" s="17">
+      <c r="V23" s="16">
         <f t="shared" si="23"/>
         <v>0.24838991695163654</v>
       </c>
-      <c r="V23" s="17">
+      <c r="W23" s="16">
         <f t="shared" si="23"/>
         <v>0.26071193356130923</v>
       </c>
-      <c r="W23" s="17">
+      <c r="X23" s="16">
         <f t="shared" si="23"/>
         <v>0.27056954684904738</v>
       </c>
-      <c r="X23" s="17">
+      <c r="Y23" s="16">
         <f t="shared" si="23"/>
         <v>0.27845563747923791</v>
       </c>
-      <c r="Y23" s="17">
+      <c r="Z23" s="16">
         <f t="shared" si="23"/>
         <v>0.28476450998339037</v>
       </c>
-      <c r="Z23" s="17">
+      <c r="AA23" s="16">
         <f t="shared" si="23"/>
         <v>0.28981160798671224</v>
       </c>
-      <c r="AA23" s="17">
+      <c r="AB23" s="16">
         <f t="shared" si="23"/>
         <v>0.2938492863893698</v>
       </c>
-      <c r="AC23" s="45" t="s">
+      <c r="AD23" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="AD23" s="50">
+      <c r="AE23" s="48">
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <f t="shared" ref="C24:H24" si="24">C18/C4</f>
         <v>-80.218044156009412</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="34">
         <f t="shared" si="24"/>
         <v>-54.713960499600077</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="16">
         <f t="shared" si="24"/>
         <v>-106.15267175572521</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="34">
         <f t="shared" si="24"/>
         <v>-65.636951023849036</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="16">
         <f t="shared" si="24"/>
         <v>-8.2073946022549527E-2</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="34">
         <f t="shared" si="24"/>
         <v>0.17346566573969871</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="16">
         <f t="shared" ref="I24" si="25">I18/I4</f>
         <v>9.1537835638739822E-4</v>
       </c>
-      <c r="M24" s="17">
-        <f>M18/M4</f>
+      <c r="N24" s="16">
+        <f>N18/N4</f>
         <v>-581.54340636626705</v>
       </c>
-      <c r="N24" s="17">
-        <f>N18/N4</f>
+      <c r="O24" s="16">
+        <f>O18/O4</f>
         <v>-67.252205192367839</v>
       </c>
-      <c r="O24" s="17">
-        <f>O18/O4</f>
+      <c r="P24" s="16">
+        <f>P18/P4</f>
         <v>-76.041827000808397</v>
       </c>
-      <c r="P24" s="17">
-        <f>P18/P4</f>
+      <c r="Q24" s="16">
+        <f>Q18/Q4</f>
         <v>0.12237420615534939</v>
       </c>
-      <c r="Q24" s="17">
-        <f>Q18/Q4</f>
+      <c r="R24" s="16">
+        <f>R18/R4</f>
         <v>0.10851685393258428</v>
       </c>
-      <c r="R24" s="17">
-        <f t="shared" ref="R24:AA24" si="26">R18/R4</f>
+      <c r="S24" s="16">
+        <f t="shared" ref="S24:AB24" si="26">S18/S4</f>
         <v>0.18775324670249144</v>
       </c>
-      <c r="S24" s="17">
+      <c r="T24" s="16">
         <f t="shared" si="26"/>
         <v>0.24334533177528087</v>
       </c>
-      <c r="T24" s="17">
+      <c r="U24" s="16">
         <f t="shared" si="26"/>
         <v>0.28158261091373521</v>
       </c>
-      <c r="U24" s="17">
+      <c r="V24" s="16">
         <f t="shared" si="26"/>
         <v>0.30718438960572514</v>
       </c>
-      <c r="V24" s="17">
+      <c r="W24" s="16">
         <f t="shared" si="26"/>
         <v>0.32367629833502803</v>
       </c>
-      <c r="W24" s="17">
+      <c r="X24" s="16">
         <f t="shared" si="26"/>
         <v>0.33367901008974948</v>
       </c>
-      <c r="X24" s="17">
+      <c r="Y24" s="16">
         <f t="shared" si="26"/>
         <v>0.33912921518476385</v>
       </c>
-      <c r="Y24" s="17">
+      <c r="Z24" s="16">
         <f t="shared" si="26"/>
         <v>0.34144840213708594</v>
       </c>
-      <c r="Z24" s="17">
+      <c r="AA24" s="16">
         <f t="shared" si="26"/>
         <v>0.3416714834953411</v>
       </c>
-      <c r="AA24" s="17">
+      <c r="AB24" s="16">
         <f t="shared" si="26"/>
         <v>0.34054457767904495</v>
       </c>
-      <c r="AC24" s="45" t="s">
+      <c r="AD24" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="AD24" s="51">
-        <f>NPV(AD23,P18:BH18)</f>
+      <c r="AE24" s="49">
+        <f>NPV(AE23,Q18:BI18)</f>
         <v>154.42854876708077</v>
       </c>
     </row>
-    <row r="25" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <f t="shared" ref="C25:H25" si="27">C17/C16</f>
         <v>-5.222869127579844E-2</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="34">
         <f t="shared" si="27"/>
         <v>-0.23646133133676323</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="34">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="34">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="16">
         <f t="shared" ref="I25" si="28">I17/I16</f>
         <v>0</v>
       </c>
-      <c r="M25" s="17">
-        <f>M17/M16</f>
+      <c r="N25" s="16">
+        <f>N17/N16</f>
         <v>-1.8241779561893007E-2</v>
       </c>
-      <c r="N25" s="17">
-        <f>N17/N16</f>
+      <c r="O25" s="16">
+        <f>O17/O16</f>
         <v>-0.1382307873290182</v>
       </c>
-      <c r="O25" s="17">
-        <f>O17/O16</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="17">
+      <c r="P25" s="16">
         <f>P17/P16</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="Q25" s="16">
         <f>Q17/Q16</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="16">
+        <f>R17/R16</f>
         <v>-0.31042982113033701</v>
       </c>
-      <c r="R25" s="17">
-        <f t="shared" ref="R25:AA25" si="29">R17/R16</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="17">
+      <c r="S25" s="16">
+        <f t="shared" ref="S25:AB25" si="29">S17/S16</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="16">
         <f t="shared" si="29"/>
         <v>0.14742199444749624</v>
       </c>
-      <c r="T25" s="17">
+      <c r="U25" s="16">
         <f t="shared" si="29"/>
         <v>0.21603393551200478</v>
       </c>
-      <c r="U25" s="17">
+      <c r="V25" s="16">
         <f t="shared" si="29"/>
         <v>0.24288115611942901</v>
       </c>
-      <c r="V25" s="17">
+      <c r="W25" s="16">
         <f t="shared" si="29"/>
         <v>0.24661078438300113</v>
       </c>
-      <c r="W25" s="17">
+      <c r="X25" s="16">
         <f t="shared" si="29"/>
         <v>0.23746263966774117</v>
       </c>
-      <c r="X25" s="17">
+      <c r="Y25" s="16">
         <f t="shared" si="29"/>
         <v>0.22138655783219985</v>
       </c>
-      <c r="Y25" s="17">
+      <c r="Z25" s="16">
         <f t="shared" si="29"/>
         <v>0.20195981084478215</v>
       </c>
-      <c r="Z25" s="17">
+      <c r="AA25" s="16">
         <f t="shared" si="29"/>
         <v>0.18136693082013466</v>
       </c>
-      <c r="AA25" s="17">
+      <c r="AB25" s="16">
         <f t="shared" si="29"/>
         <v>0.1609384275952184</v>
       </c>
-      <c r="AC25" s="45" t="s">
+      <c r="AD25" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AD25" s="52">
+      <c r="AE25" s="50">
         <f>Main!C11</f>
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="AC26" s="45" t="s">
+    <row r="26" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="AD26" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="AD26" s="53">
-        <f>AD25+AD24</f>
+      <c r="AE26" s="51">
+        <f>AE25+AE24</f>
         <v>161.42854876708077</v>
       </c>
     </row>
-    <row r="27" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="16">
-        <v>0</v>
-      </c>
-      <c r="D27" s="37">
+      <c r="C27" s="15">
+        <v>0</v>
+      </c>
+      <c r="D27" s="35">
         <f t="shared" ref="D27:I27" si="30">D4/C4-1</f>
         <v>3.410320035630221E-2</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="37">
         <f t="shared" si="30"/>
         <v>-0.21817510613425217</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="35">
         <f t="shared" si="30"/>
         <v>1.893916738805383</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="17">
         <f t="shared" si="30"/>
         <v>88.036657330106323</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="35">
         <f t="shared" si="30"/>
         <v>3.0016111076326801</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="17">
         <f t="shared" si="30"/>
         <v>-0.24957191176363958</v>
       </c>
-      <c r="AC27" s="47" t="s">
+      <c r="AD27" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="AD27" s="55">
-        <f>AD26/Main!C7</f>
+      <c r="AE27" s="53">
+        <f>AE26/Main!C7</f>
         <v>3.1040370104811132</v>
       </c>
-      <c r="AF27" s="101"/>
-    </row>
-    <row r="28" spans="2:60" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG27" s="96"/>
+    </row>
+    <row r="28" spans="2:61" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="96">
-        <v>0</v>
-      </c>
-      <c r="D28" s="97">
-        <v>0</v>
-      </c>
-      <c r="E28" s="98">
+      <c r="C28" s="91">
+        <v>0</v>
+      </c>
+      <c r="D28" s="92">
+        <v>0</v>
+      </c>
+      <c r="E28" s="93">
         <f>E4/C4-1</f>
         <v>-0.19151237513520392</v>
       </c>
-      <c r="F28" s="99">
+      <c r="F28" s="94">
         <f>F4/D4-1</f>
         <v>1.2625361471728298</v>
       </c>
-      <c r="G28" s="98">
+      <c r="G28" s="93">
         <f>G4/E4-1</f>
         <v>256.6646730148737</v>
       </c>
-      <c r="H28" s="99">
+      <c r="H28" s="94">
         <f>H4/F4-1</f>
         <v>355.29007695863817</v>
       </c>
-      <c r="I28" s="98">
+      <c r="I28" s="93">
         <f>I4/G4-1</f>
         <v>2.0029213733661768</v>
       </c>
-      <c r="J28" s="63"/>
-      <c r="M28" s="96">
-        <v>0</v>
-      </c>
-      <c r="N28" s="98">
-        <f>N4/M4-1</f>
+      <c r="J28" s="61"/>
+      <c r="K28" s="93">
+        <f>K4/I4-1</f>
+        <v>-0.7457282343368592</v>
+      </c>
+      <c r="N28" s="91">
+        <v>0</v>
+      </c>
+      <c r="O28" s="93">
+        <f>O4/N4-1</f>
         <v>5.6081025217031826</v>
       </c>
-      <c r="O28" s="98">
-        <f>O4/N4-1</f>
+      <c r="P28" s="93">
+        <f>P4/O4-1</f>
         <v>0.54770096965905557</v>
       </c>
-      <c r="P28" s="98">
-        <f>P4/O4-1</f>
+      <c r="Q28" s="93">
+        <f>Q4/P4-1</f>
         <v>329.9620048504446</v>
       </c>
-      <c r="Q28" s="98">
-        <f>Q4/P4-1</f>
+      <c r="R28" s="93">
+        <f>R4/Q4-1</f>
         <v>0.25</v>
       </c>
-      <c r="R28" s="98">
-        <f t="shared" ref="R28:S28" si="31">R4/Q4-1</f>
+      <c r="S28" s="93">
+        <f t="shared" ref="S28:T28" si="31">S4/R4-1</f>
         <v>0.25</v>
       </c>
-      <c r="S28" s="98">
+      <c r="T28" s="93">
         <f t="shared" si="31"/>
         <v>0.25</v>
       </c>
-      <c r="T28" s="98">
-        <f t="shared" ref="T28:AA28" si="32">T4/S4-1</f>
+      <c r="U28" s="93">
+        <f t="shared" ref="U28:AB28" si="32">U4/T4-1</f>
         <v>0.25</v>
       </c>
-      <c r="U28" s="98">
+      <c r="V28" s="93">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="V28" s="98">
+      <c r="W28" s="93">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="W28" s="98">
+      <c r="X28" s="93">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="X28" s="98">
+      <c r="Y28" s="93">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="Y28" s="98">
+      <c r="Z28" s="93">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="Z28" s="98">
+      <c r="AA28" s="93">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="AA28" s="98">
+      <c r="AB28" s="93">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="AC28" s="47" t="s">
+      <c r="AD28" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="AD28" s="100">
+      <c r="AE28" s="95">
         <f>Main!C6</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="2:60" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:61" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="16">
-        <v>0</v>
-      </c>
-      <c r="D29" s="38">
+      <c r="C29" s="15">
+        <v>0</v>
+      </c>
+      <c r="D29" s="36">
         <f t="shared" ref="D29:I29" si="33">D18/C18-1</f>
         <v>-0.29467388226560065</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="17">
         <f t="shared" si="33"/>
         <v>0.51684872692760098</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="36">
         <f t="shared" si="33"/>
         <v>0.78938380080689075</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="17">
         <f t="shared" si="33"/>
         <v>-0.8886665255812356</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="36">
         <f t="shared" si="33"/>
         <v>-9.4575211556924881</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="17">
         <f t="shared" si="33"/>
         <v>-0.99603999081277828</v>
       </c>
-      <c r="M29" s="16">
-        <v>0</v>
-      </c>
-      <c r="N29" s="16">
-        <v>0</v>
-      </c>
-      <c r="O29" s="16">
-        <v>0</v>
-      </c>
-      <c r="P29" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="46"/>
-    </row>
-    <row r="30" spans="2:60" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N29" s="15">
+        <v>0</v>
+      </c>
+      <c r="O29" s="15">
+        <v>0</v>
+      </c>
+      <c r="P29" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>0</v>
+      </c>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="44"/>
+    </row>
+    <row r="30" spans="2:61" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="96">
-        <v>0</v>
-      </c>
-      <c r="D30" s="97">
-        <v>0</v>
-      </c>
-      <c r="E30" s="98">
+      <c r="C30" s="91">
+        <v>0</v>
+      </c>
+      <c r="D30" s="92">
+        <v>0</v>
+      </c>
+      <c r="E30" s="93">
         <f>E18/C18-1</f>
         <v>6.9873023754210895E-2</v>
       </c>
-      <c r="F30" s="99">
+      <c r="F30" s="94">
         <f>F18/D18-1</f>
         <v>1.7142245402388041</v>
       </c>
-      <c r="G30" s="98">
+      <c r="G30" s="93">
         <f>G18/E18-1</f>
         <v>-0.80078168438751474</v>
       </c>
-      <c r="H30" s="99">
+      <c r="H30" s="94">
         <f>H18/F18-1</f>
         <v>-1.941605215233448</v>
       </c>
-      <c r="I30" s="98">
+      <c r="I30" s="93">
         <f>I18/G18-1</f>
         <v>-1.0334918614776643</v>
       </c>
-      <c r="J30" s="63"/>
-      <c r="M30" s="96">
-        <v>0</v>
-      </c>
-      <c r="N30" s="98">
-        <f>N18/M18-1</f>
+      <c r="J30" s="61"/>
+      <c r="N30" s="91">
+        <v>0</v>
+      </c>
+      <c r="O30" s="93">
+        <f>O18/N18-1</f>
         <v>-0.23581032497875432</v>
       </c>
-      <c r="O30" s="98">
-        <f>O18/N18-1</f>
+      <c r="P30" s="93">
+        <f>P18/O18-1</f>
         <v>0.74997993072728897</v>
       </c>
-      <c r="P30" s="98">
-        <f>P18/O18-1</f>
+      <c r="Q30" s="93">
+        <f>Q18/P18-1</f>
         <v>-1.5326175633671386</v>
       </c>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="98"/>
-      <c r="AC30" s="47"/>
-      <c r="AD30" s="100"/>
-    </row>
-    <row r="31" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="C31" s="16"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="38"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="46"/>
-    </row>
-    <row r="32" spans="2:60" x14ac:dyDescent="0.25">
-      <c r="AC32" s="48" t="s">
+      <c r="R30" s="93"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="93"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="93"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="95"/>
+    </row>
+    <row r="31" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="C31" s="15"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="36"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="44"/>
+    </row>
+    <row r="32" spans="2:61" x14ac:dyDescent="0.25">
+      <c r="AD32" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="AD32" s="54">
-        <f>AD27/AD28</f>
+      <c r="AE32" s="52">
+        <f>AE27/AE28</f>
         <v>12.416148041924453</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="32" t="s">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="59">
+      <c r="D34" s="57">
         <v>0.25986100000000001</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="55">
         <v>7.0184999999999997E-2</v>
       </c>
-      <c r="F34" s="59">
-        <f t="shared" ref="F34:F40" si="34">O34</f>
+      <c r="F34" s="57">
+        <f t="shared" ref="F34:F40" si="34">P34</f>
         <v>5.5516999999999997E-2</v>
       </c>
-      <c r="G34" s="57">
+      <c r="G34" s="55">
         <v>0.15177399999999999</v>
       </c>
-      <c r="H34" s="59">
-        <f>P34</f>
+      <c r="H34" s="57">
+        <f>Q34</f>
         <v>0.16300000000000001</v>
       </c>
-      <c r="I34" s="57">
+      <c r="I34" s="55">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="N34" s="57">
+      <c r="O34" s="55">
         <v>0.25986100000000001</v>
       </c>
-      <c r="O34" s="57">
+      <c r="P34" s="55">
         <v>5.5516999999999997E-2</v>
       </c>
-      <c r="P34" s="57">
+      <c r="Q34" s="55">
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="59">
+      <c r="D35" s="57">
         <v>0.44419799999999998</v>
       </c>
-      <c r="E35" s="58">
-        <v>0</v>
-      </c>
-      <c r="F35" s="59">
+      <c r="E35" s="56">
+        <v>0</v>
+      </c>
+      <c r="F35" s="57">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G35" s="58">
-        <v>0</v>
-      </c>
-      <c r="H35" s="59">
-        <f>P35</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="102">
+      <c r="G35" s="56">
+        <v>0</v>
+      </c>
+      <c r="H35" s="57">
+        <f>Q35</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="40">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="N35" s="58">
+      <c r="O35" s="56">
         <v>0.44419799999999998</v>
       </c>
-      <c r="O35" s="58">
-        <v>0</v>
-      </c>
-      <c r="P35" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P35" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="59">
+      <c r="D36" s="57">
         <v>0.79053300000000004</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="55">
         <v>0.74207100000000004</v>
       </c>
-      <c r="F36" s="59">
+      <c r="F36" s="57">
         <f t="shared" si="34"/>
         <v>0.61656</v>
       </c>
-      <c r="G36" s="57">
+      <c r="G36" s="55">
         <v>0.50338899999999998</v>
       </c>
-      <c r="H36" s="59">
-        <f>P36</f>
+      <c r="H36" s="57">
+        <f>Q36</f>
         <v>2.2890000000000001</v>
       </c>
-      <c r="I36" s="57">
+      <c r="I36" s="55">
         <v>2.52</v>
       </c>
-      <c r="N36" s="57">
+      <c r="O36" s="55">
         <v>0.79053300000000004</v>
       </c>
-      <c r="O36" s="57">
+      <c r="P36" s="55">
         <v>0.61656</v>
       </c>
-      <c r="P36" s="57">
+      <c r="Q36" s="55">
         <v>2.2890000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="59">
+      <c r="D37" s="57">
         <v>0.38020500000000002</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="55">
         <v>0.476802</v>
       </c>
-      <c r="F37" s="59">
+      <c r="F37" s="57">
         <f t="shared" si="34"/>
         <v>2.8080000000000002E-3</v>
       </c>
-      <c r="G37" s="57">
+      <c r="G37" s="55">
         <v>0.78258399999999995</v>
       </c>
-      <c r="H37" s="59">
-        <f t="shared" ref="H37:H54" si="35">P37</f>
+      <c r="H37" s="57">
+        <f t="shared" ref="H37:H54" si="35">Q37</f>
         <v>0.497</v>
       </c>
-      <c r="I37" s="57">
+      <c r="I37" s="55">
         <v>0.71099999999999997</v>
       </c>
-      <c r="N37" s="57">
+      <c r="O37" s="55">
         <v>0.38020500000000002</v>
       </c>
-      <c r="O37" s="57">
+      <c r="P37" s="55">
         <v>2.8080000000000002E-3</v>
       </c>
-      <c r="P37" s="57">
+      <c r="Q37" s="55">
         <v>0.497</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="59">
+      <c r="D38" s="57">
         <v>0.122765</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="55">
         <v>0.22198100000000001</v>
       </c>
-      <c r="F38" s="59">
+      <c r="F38" s="57">
         <f t="shared" si="34"/>
         <v>0.19489699999999999</v>
       </c>
-      <c r="G38" s="57">
+      <c r="G38" s="55">
         <v>3.1137700000000001</v>
       </c>
-      <c r="H38" s="59">
+      <c r="H38" s="57">
         <f t="shared" si="35"/>
         <v>2.3319999999999999</v>
       </c>
-      <c r="I38" s="57">
+      <c r="I38" s="55">
         <v>3.2240000000000002</v>
       </c>
-      <c r="N38" s="57">
+      <c r="O38" s="55">
         <v>0.122765</v>
       </c>
-      <c r="O38" s="57">
+      <c r="P38" s="55">
         <v>0.19489699999999999</v>
       </c>
-      <c r="P38" s="57">
+      <c r="Q38" s="55">
         <v>2.3319999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="59">
+      <c r="D39" s="57">
         <v>0.17830299999999999</v>
       </c>
-      <c r="E39" s="57">
+      <c r="E39" s="55">
         <v>0.17830199999999999</v>
       </c>
-      <c r="F39" s="59">
+      <c r="F39" s="57">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G39" s="57">
-        <v>0</v>
-      </c>
-      <c r="H39" s="59">
+      <c r="G39" s="55">
+        <v>0</v>
+      </c>
+      <c r="H39" s="57">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I39" s="57">
-        <v>0</v>
-      </c>
-      <c r="N39" s="57">
+      <c r="I39" s="55">
+        <v>0</v>
+      </c>
+      <c r="O39" s="55">
         <v>0.17830299999999999</v>
       </c>
-      <c r="O39" s="57">
-        <v>0</v>
-      </c>
-      <c r="P39" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P39" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="60">
+      <c r="D40" s="58">
         <v>0.61626300000000001</v>
       </c>
-      <c r="E40" s="61">
+      <c r="E40" s="59">
         <v>1.3517459999999999</v>
       </c>
-      <c r="F40" s="60">
+      <c r="F40" s="58">
         <f t="shared" si="34"/>
         <v>0.465671</v>
       </c>
-      <c r="G40" s="61">
+      <c r="G40" s="59">
         <v>2.214496</v>
       </c>
-      <c r="H40" s="60">
+      <c r="H40" s="58">
         <f t="shared" si="35"/>
         <v>6.3869999999999996</v>
       </c>
-      <c r="I40" s="86">
+      <c r="I40" s="81">
         <v>6.9950000000000001</v>
       </c>
-      <c r="J40" s="63"/>
+      <c r="J40" s="61"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
-      <c r="N40" s="61">
+      <c r="N40" s="12"/>
+      <c r="O40" s="59">
         <v>0.61626300000000001</v>
       </c>
-      <c r="O40" s="61">
+      <c r="P40" s="59">
         <v>0.465671</v>
       </c>
-      <c r="P40" s="61">
+      <c r="Q40" s="59">
         <v>6.3869999999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="59">
+      <c r="D41" s="57">
         <v>2.7921279999999999</v>
       </c>
-      <c r="E41" s="42">
+      <c r="E41" s="40">
         <f>SUM(E34:E40)</f>
         <v>3.0410870000000001</v>
       </c>
-      <c r="F41" s="59">
+      <c r="F41" s="57">
         <f>SUM(F34:F40)</f>
         <v>1.335453</v>
       </c>
-      <c r="G41" s="42">
+      <c r="G41" s="40">
         <f>SUM(G34:G40)</f>
         <v>6.7660130000000009</v>
       </c>
-      <c r="H41" s="59">
+      <c r="H41" s="57">
         <f t="shared" si="35"/>
         <v>11.667999999999999</v>
       </c>
-      <c r="I41" s="42">
+      <c r="I41" s="40">
         <f>SUM(I34:I40)</f>
         <v>13.626000000000001</v>
       </c>
-      <c r="N41" s="42">
-        <f>SUM(N34:N40)</f>
+      <c r="O41" s="40">
+        <f>SUM(O34:O40)</f>
         <v>2.7921279999999999</v>
       </c>
-      <c r="O41" s="42">
-        <f>SUM(O34:O40)</f>
+      <c r="P41" s="40">
+        <f>SUM(P34:P40)</f>
         <v>1.335453</v>
       </c>
-      <c r="P41" s="42">
-        <f>SUM(P34:P40)</f>
+      <c r="Q41" s="40">
+        <f>SUM(Q34:Q40)</f>
         <v>11.667999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D42" s="59"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="59">
-        <f t="shared" ref="F42:F47" si="36">O42</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="42"/>
-      <c r="H42" s="59">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D42" s="57"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="57">
+        <f t="shared" ref="F42:F47" si="36">P42</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="40"/>
+      <c r="H42" s="57">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="59">
+      <c r="D43" s="57">
         <v>0.27152300000000001</v>
       </c>
-      <c r="E43" s="42">
+      <c r="E43" s="40">
         <v>0.31251600000000002</v>
       </c>
-      <c r="F43" s="59">
+      <c r="F43" s="57">
         <f t="shared" si="36"/>
         <v>0.38318600000000003</v>
       </c>
-      <c r="G43" s="42">
+      <c r="G43" s="40">
         <v>2.9940030000000002</v>
       </c>
-      <c r="H43" s="59">
+      <c r="H43" s="57">
         <f t="shared" si="35"/>
         <v>3.3149999999999999</v>
       </c>
-      <c r="I43" s="42">
+      <c r="I43" s="40">
         <v>5.0940000000000003</v>
       </c>
-      <c r="N43" s="42">
+      <c r="O43" s="40">
         <v>0.27152300000000001</v>
       </c>
-      <c r="O43" s="42">
+      <c r="P43" s="40">
         <v>0.38318600000000003</v>
       </c>
-      <c r="P43" s="42">
+      <c r="Q43" s="40">
         <v>3.3149999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="59">
-        <v>0</v>
-      </c>
-      <c r="E44" s="42">
-        <v>0</v>
-      </c>
-      <c r="F44" s="59">
+      <c r="D44" s="57">
+        <v>0</v>
+      </c>
+      <c r="E44" s="40">
+        <v>0</v>
+      </c>
+      <c r="F44" s="57">
         <f t="shared" si="36"/>
         <v>8.7378999999999998E-2</v>
       </c>
-      <c r="G44" s="42">
-        <v>0</v>
-      </c>
-      <c r="H44" s="59">
+      <c r="G44" s="40">
+        <v>0</v>
+      </c>
+      <c r="H44" s="57">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I44" s="42">
-        <v>0</v>
-      </c>
-      <c r="N44" s="42">
-        <v>0</v>
-      </c>
-      <c r="O44" s="42">
+      <c r="I44" s="40">
+        <v>0</v>
+      </c>
+      <c r="O44" s="40">
+        <v>0</v>
+      </c>
+      <c r="P44" s="40">
         <v>8.7378999999999998E-2</v>
       </c>
-      <c r="P44" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q44" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="59">
+      <c r="D45" s="57">
         <v>0.101036</v>
       </c>
-      <c r="E45" s="42">
-        <v>0</v>
-      </c>
-      <c r="F45" s="59">
+      <c r="E45" s="40">
+        <v>0</v>
+      </c>
+      <c r="F45" s="57">
         <f t="shared" si="36"/>
         <v>4.895E-3</v>
       </c>
-      <c r="G45" s="42">
-        <v>0</v>
-      </c>
-      <c r="H45" s="59">
+      <c r="G45" s="40">
+        <v>0</v>
+      </c>
+      <c r="H45" s="57">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I45" s="42">
+      <c r="I45" s="40">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="N45" s="42">
+      <c r="O45" s="40">
         <v>0.101036</v>
       </c>
-      <c r="O45" s="42">
+      <c r="P45" s="40">
         <v>4.895E-3</v>
       </c>
-      <c r="P45" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q45" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="59">
-        <v>0</v>
-      </c>
-      <c r="E46" s="42">
+      <c r="D46" s="57">
+        <v>0</v>
+      </c>
+      <c r="E46" s="40">
         <v>0.102697</v>
       </c>
-      <c r="F46" s="59">
+      <c r="F46" s="57">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G46" s="42">
-        <v>0</v>
-      </c>
-      <c r="H46" s="59">
+      <c r="G46" s="40">
+        <v>0</v>
+      </c>
+      <c r="H46" s="57">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I46" s="42">
-        <v>0</v>
-      </c>
-      <c r="N46" s="42">
-        <v>0</v>
-      </c>
-      <c r="O46" s="42">
-        <v>0</v>
-      </c>
-      <c r="P46" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I46" s="40">
+        <v>0</v>
+      </c>
+      <c r="O46" s="40">
+        <v>0</v>
+      </c>
+      <c r="P46" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="59">
-        <v>0</v>
-      </c>
-      <c r="E47" s="42">
-        <v>0</v>
-      </c>
-      <c r="F47" s="59">
+      <c r="D47" s="57">
+        <v>0</v>
+      </c>
+      <c r="E47" s="40">
+        <v>0</v>
+      </c>
+      <c r="F47" s="57">
         <f t="shared" si="36"/>
         <v>0.22625000000000001</v>
       </c>
-      <c r="G47" s="42">
+      <c r="G47" s="40">
         <v>0.22625000000000001</v>
       </c>
-      <c r="H47" s="59">
+      <c r="H47" s="57">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I47" s="42">
-        <v>0</v>
-      </c>
-      <c r="N47" s="42">
-        <v>0</v>
-      </c>
-      <c r="O47" s="42">
+      <c r="I47" s="40">
+        <v>0</v>
+      </c>
+      <c r="O47" s="40">
+        <v>0</v>
+      </c>
+      <c r="P47" s="40">
         <v>0.22625000000000001</v>
       </c>
-      <c r="P47" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q47" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="59">
-        <v>0</v>
-      </c>
-      <c r="E48" s="42">
-        <v>0</v>
-      </c>
-      <c r="F48" s="59">
-        <v>0</v>
-      </c>
-      <c r="G48" s="42">
-        <v>0</v>
-      </c>
-      <c r="H48" s="59">
+      <c r="D48" s="57">
+        <v>0</v>
+      </c>
+      <c r="E48" s="40">
+        <v>0</v>
+      </c>
+      <c r="F48" s="57">
+        <v>0</v>
+      </c>
+      <c r="G48" s="40">
+        <v>0</v>
+      </c>
+      <c r="H48" s="57">
         <f t="shared" si="35"/>
         <v>1.24</v>
       </c>
-      <c r="I48" s="42">
-        <v>0</v>
-      </c>
-      <c r="N48" s="42">
-        <v>0</v>
-      </c>
-      <c r="O48" s="42">
-        <v>0</v>
-      </c>
-      <c r="P48" s="42">
+      <c r="I48" s="40">
+        <v>0</v>
+      </c>
+      <c r="O48" s="40">
+        <v>0</v>
+      </c>
+      <c r="P48" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="40">
         <v>1.24</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>82</v>
       </c>
       <c r="C49" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="59">
+      <c r="D49" s="57">
         <v>0.185747</v>
       </c>
-      <c r="E49" s="42">
-        <v>0</v>
-      </c>
-      <c r="F49" s="59">
-        <f>O49</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="42">
-        <v>0</v>
-      </c>
-      <c r="H49" s="59">
+      <c r="E49" s="40">
+        <v>0</v>
+      </c>
+      <c r="F49" s="57">
+        <f>P49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="40">
+        <v>0</v>
+      </c>
+      <c r="H49" s="57">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I49" s="42">
+      <c r="I49" s="40">
         <v>0.04</v>
       </c>
-      <c r="N49" s="42">
+      <c r="O49" s="40">
         <v>0.185747</v>
       </c>
-      <c r="O49" s="42">
-        <v>0</v>
-      </c>
-      <c r="P49" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P49" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="60">
-        <v>0</v>
-      </c>
-      <c r="E50" s="62">
-        <v>0</v>
-      </c>
-      <c r="F50" s="60">
-        <f>O50</f>
+      <c r="D50" s="58">
+        <v>0</v>
+      </c>
+      <c r="E50" s="60">
+        <v>0</v>
+      </c>
+      <c r="F50" s="58">
+        <f>P50</f>
         <v>0.104367</v>
       </c>
-      <c r="G50" s="62">
-        <v>0</v>
-      </c>
-      <c r="H50" s="59">
+      <c r="G50" s="60">
+        <v>0</v>
+      </c>
+      <c r="H50" s="57">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I50" s="62">
-        <v>0</v>
-      </c>
-      <c r="J50" s="63"/>
+      <c r="I50" s="60">
+        <v>0</v>
+      </c>
+      <c r="J50" s="61"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
-      <c r="N50" s="62">
-        <v>0</v>
-      </c>
-      <c r="O50" s="62">
+      <c r="N50" s="12"/>
+      <c r="O50" s="60">
+        <v>0</v>
+      </c>
+      <c r="P50" s="60">
         <v>0.104367</v>
       </c>
-      <c r="P50" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q50" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="59">
+      <c r="D51" s="57">
         <v>0.55830599999999997</v>
       </c>
-      <c r="E51" s="42">
+      <c r="E51" s="40">
         <f>SUM(E43:E50)</f>
         <v>0.415213</v>
       </c>
-      <c r="F51" s="59">
+      <c r="F51" s="57">
         <f>SUM(F43:F50)</f>
         <v>0.80607700000000004</v>
       </c>
-      <c r="G51" s="42">
+      <c r="G51" s="40">
         <f>SUM(G43:G50)</f>
         <v>3.220253</v>
       </c>
-      <c r="H51" s="59">
+      <c r="H51" s="57">
         <f t="shared" si="35"/>
         <v>4.5549999999999997</v>
       </c>
-      <c r="I51" s="42">
+      <c r="I51" s="40">
         <f>SUM(I43:I50)</f>
         <v>5.16</v>
       </c>
-      <c r="N51" s="42">
-        <f>SUM(N43:N50)</f>
+      <c r="O51" s="40">
+        <f>SUM(O43:O50)</f>
         <v>0.55830599999999997</v>
       </c>
-      <c r="O51" s="42">
-        <f>SUM(O43:O50)</f>
+      <c r="P51" s="40">
+        <f>SUM(P43:P50)</f>
         <v>0.80607700000000004</v>
       </c>
-      <c r="P51" s="42">
-        <f>SUM(P43:P50)</f>
+      <c r="Q51" s="40">
+        <f>SUM(Q43:Q50)</f>
         <v>4.5549999999999997</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D52" s="59"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="59">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D52" s="57"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="57">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="59">
+      <c r="D53" s="57">
         <v>2.233822</v>
       </c>
-      <c r="E53" s="42">
+      <c r="E53" s="40">
         <v>2.625874</v>
       </c>
-      <c r="F53" s="59">
-        <f>O53</f>
+      <c r="F53" s="57">
+        <f>P53</f>
         <v>0.52937599999999996</v>
       </c>
-      <c r="G53" s="42">
+      <c r="G53" s="40">
         <v>3.54576</v>
       </c>
-      <c r="H53" s="59">
+      <c r="H53" s="57">
         <f t="shared" si="35"/>
         <v>7.1130000000000004</v>
       </c>
-      <c r="I53" s="42">
+      <c r="I53" s="40">
         <v>8.4659999999999993</v>
       </c>
-      <c r="N53" s="42">
+      <c r="O53" s="40">
         <v>2.233822</v>
       </c>
-      <c r="O53" s="42">
+      <c r="P53" s="40">
         <v>0.52937599999999996</v>
       </c>
-      <c r="P53" s="42">
+      <c r="Q53" s="40">
         <v>7.1130000000000004</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>86</v>
       </c>
-      <c r="D54" s="59">
+      <c r="D54" s="57">
         <v>2.7921279999999999</v>
       </c>
-      <c r="E54" s="42">
+      <c r="E54" s="40">
         <f>E53+E51</f>
         <v>3.0410870000000001</v>
       </c>
-      <c r="F54" s="59">
+      <c r="F54" s="57">
         <f>F53+F51</f>
         <v>1.335453</v>
       </c>
-      <c r="G54" s="42">
+      <c r="G54" s="40">
         <f>G53+G51</f>
         <v>6.7660130000000001</v>
       </c>
-      <c r="H54" s="59">
+      <c r="H54" s="57">
         <f t="shared" si="35"/>
         <v>11.667999999999999</v>
       </c>
-      <c r="I54" s="42">
+      <c r="I54" s="40">
         <f>I53+I51</f>
         <v>13.625999999999999</v>
       </c>
-      <c r="N54" s="42">
-        <f>N53+N51</f>
+      <c r="O54" s="40">
+        <f>O53+O51</f>
         <v>2.7921279999999999</v>
       </c>
-      <c r="O54" s="42">
-        <f>O53+O51</f>
+      <c r="P54" s="40">
+        <f>P53+P51</f>
         <v>1.335453</v>
       </c>
-      <c r="P54" s="42">
-        <f>P53+P51</f>
+      <c r="Q54" s="40">
+        <f>Q53+Q51</f>
         <v>11.667999999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D55" s="59"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="59"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="42"/>
-      <c r="P55" s="42"/>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D55" s="57"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="57"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="59">
+      <c r="D56" s="57">
         <f t="shared" ref="D56" si="37">D41-D51</f>
         <v>2.233822</v>
       </c>
-      <c r="E56" s="85">
+      <c r="E56" s="80">
         <f t="shared" ref="E56:F56" si="38">E41-E51</f>
         <v>2.625874</v>
       </c>
-      <c r="F56" s="59">
+      <c r="F56" s="57">
         <f t="shared" si="38"/>
         <v>0.52937599999999996</v>
       </c>
-      <c r="G56" s="85">
+      <c r="G56" s="80">
         <f t="shared" ref="G56:H56" si="39">G41-G51</f>
         <v>3.5457600000000009</v>
       </c>
-      <c r="H56" s="59">
+      <c r="H56" s="57">
         <f t="shared" si="39"/>
         <v>7.1129999999999995</v>
       </c>
-      <c r="I56" s="85">
+      <c r="I56" s="80">
         <f t="shared" ref="I56" si="40">I41-I51</f>
         <v>8.4660000000000011</v>
       </c>
-      <c r="N56" s="85">
-        <f t="shared" ref="N56:O56" si="41">N41-N51</f>
+      <c r="O56" s="80">
+        <f t="shared" ref="O56:P56" si="41">O41-O51</f>
         <v>2.233822</v>
       </c>
-      <c r="O56" s="85">
+      <c r="P56" s="80">
         <f t="shared" si="41"/>
         <v>0.52937599999999996</v>
       </c>
-      <c r="P56" s="85">
-        <f>P41-P51</f>
+      <c r="Q56" s="80">
+        <f>Q41-Q51</f>
         <v>7.1129999999999995</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>144</v>
       </c>
-      <c r="D57" s="59">
+      <c r="D57" s="57">
         <f t="shared" ref="D57:H57" si="42">D56/D20</f>
         <v>9.2774396784636708E-3</v>
       </c>
-      <c r="E57" s="42">
+      <c r="E57" s="40">
         <f t="shared" ref="E57" si="43">E56/E20</f>
         <v>7.6424304594443658E-3</v>
       </c>
-      <c r="F57" s="59">
+      <c r="F57" s="57">
         <f t="shared" si="42"/>
         <v>1.0223126865988698E-3</v>
       </c>
-      <c r="G57" s="42">
+      <c r="G57" s="40">
         <f t="shared" si="42"/>
         <v>5.3359111491456885E-3</v>
       </c>
-      <c r="H57" s="59">
+      <c r="H57" s="57">
         <f t="shared" si="42"/>
         <v>1.0006302296399251E-2</v>
       </c>
-      <c r="I57" s="42">
+      <c r="I57" s="40">
         <f t="shared" ref="I57" si="44">I56/I20</f>
         <v>1.0932052374680408E-2</v>
       </c>
-      <c r="N57" s="42">
-        <f t="shared" ref="N57:O57" si="45">N56/N20</f>
+      <c r="O57" s="40">
+        <f t="shared" ref="O57:P57" si="45">O56/O20</f>
         <v>9.2774396784636708E-3</v>
       </c>
-      <c r="O57" s="42">
+      <c r="P57" s="40">
         <f t="shared" si="45"/>
         <v>1.0223126865988698E-3</v>
       </c>
-      <c r="P57" s="42">
-        <f>P56/P20</f>
+      <c r="Q57" s="40">
+        <f>Q56/Q20</f>
         <v>1.0006302296399251E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D58" s="59"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="59"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D58" s="57"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="57"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="59"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="59"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D59" s="57"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="57"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="59"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="59"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D60" s="57"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="57"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="59"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="59"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D62" s="59"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="59"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D61" s="57"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="57"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D62" s="57"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="57"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>142</v>
       </c>
-      <c r="D63" s="59"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="59"/>
-      <c r="N63" s="42"/>
-      <c r="O63" s="42"/>
-      <c r="P63" s="42"/>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D63" s="57"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="57"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="59"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="59"/>
-      <c r="N64" s="42"/>
-      <c r="O64" s="42"/>
-      <c r="P64" s="42"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D64" s="57"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="57"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>161</v>
       </c>
-      <c r="D68" s="37">
+      <c r="D68" s="35">
         <f t="shared" ref="D68:I68" si="46">(D14+C14)/(D41-SUM(D48:D50))</f>
         <v>-0.94713013945390168</v>
       </c>
-      <c r="E68" s="84">
+      <c r="E68" s="37">
         <f t="shared" si="46"/>
         <v>-0.82098736405765438</v>
       </c>
-      <c r="F68" s="37">
+      <c r="F68" s="35">
         <f t="shared" si="46"/>
         <v>-3.0525825165747973</v>
       </c>
-      <c r="G68" s="84">
+      <c r="G68" s="37">
         <f t="shared" si="46"/>
         <v>-0.39580630424446428</v>
       </c>
-      <c r="H68" s="37">
+      <c r="H68" s="35">
         <f t="shared" si="46"/>
         <v>0.19620253164556961</v>
       </c>
-      <c r="I68" s="84">
+      <c r="I68" s="37">
         <f t="shared" si="46"/>
         <v>0.17112763138524958</v>
       </c>
-      <c r="P68" s="84">
-        <f>P14/(P41-SUM(P48:P50))</f>
+      <c r="Q68" s="37">
+        <f>Q14/(Q41-SUM(Q48:Q50))</f>
         <v>0.19620253164556978</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B71" s="32" t="s">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B71" s="30" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7027,7 +7083,7 @@
   <pageSetup paperSize="119" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
   <ignoredErrors>
     <ignoredError sqref="D16 F16 F7 F41 F51 H7 H16 H51 H54 H41" formula="1"/>
-    <ignoredError sqref="I68 P68 D68:G68" formulaRange="1"/>
+    <ignoredError sqref="I68 Q68 D68:G68" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
 </worksheet>
@@ -7049,171 +7105,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>44196</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <v>44342</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="39">
         <v>0.121</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="39">
         <v>0.126</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="63">
         <v>0.115</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="63">
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="39">
         <v>9.4E-2</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="39">
         <v>0.11</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="39">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="39">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="39">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="39">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="39">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="39">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="39">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="39">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="39">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="39">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="39">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="39">
         <v>3.1E-2</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="39">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="39">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="39">
         <v>0.03</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="39">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="65">
-        <v>0</v>
-      </c>
-      <c r="D14" s="65">
+      <c r="C14" s="63">
+        <v>0</v>
+      </c>
+      <c r="D14" s="63">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="65">
+      <c r="C15" s="63">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D15" s="65">
+      <c r="D15" s="63">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="63">
         <v>2.4E-2</v>
       </c>
-      <c r="D16" s="65">
+      <c r="D16" s="63">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
@@ -7236,217 +7292,217 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="107" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="107"/>
+    <col min="1" max="1" width="30.85546875" style="101" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="110" t="s">
+    <row r="1" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="103" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="111">
+      <c r="D2" s="105">
         <v>20.470000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="112">
+      <c r="D3" s="106">
         <v>14.124300000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="113">
+      <c r="D4" s="107">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="111">
+      <c r="D5" s="105">
         <v>6.3457000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="113">
+      <c r="D6" s="107">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="113">
+      <c r="D7" s="107">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="113">
+      <c r="D8" s="107">
         <v>2.5529999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="113">
+      <c r="D9" s="107">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="114">
+      <c r="D10" s="108">
         <v>0.112</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="113">
+      <c r="D11" s="107">
         <v>3.0790000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="115">
+      <c r="D12" s="109">
         <v>3.2667000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="113">
+      <c r="D13" s="107">
         <v>4.5360000000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="115">
+      <c r="D14" s="109">
         <v>3.2213400000000005</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="114">
+      <c r="D15" s="108">
         <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="115">
+      <c r="D16" s="109">
         <v>2.2213400000000005</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="114">
+      <c r="D17" s="108">
         <v>3.1248980097122897E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="114">
+      <c r="D18" s="108">
         <v>710.85199999999998</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="116"/>
+      <c r="D19" s="110"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="117">
+      <c r="D20" s="111">
         <v>0.31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="117">
+      <c r="D21" s="111">
         <v>0.1595847581827064</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="117">
+      <c r="D22" s="111">
         <v>0.10851685393258428</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="117">
+      <c r="D23" s="111">
         <v>-0.31042982113033701</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="116"/>
+      <c r="D24" s="110"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="116"/>
+      <c r="D25" s="110"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="118">
+      <c r="D26" s="112">
         <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="107" t="s">
+      <c r="A27" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="119"/>
+      <c r="D27" s="113"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="118"/>
+      <c r="D28" s="112"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/£MHC.xlsx
+++ b/£MHC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D29C5BA-E703-4191-861A-F9ED6600E468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734C0DCC-9AEA-44C5-9436-CBCFC1196CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="245">
   <si>
     <t>Stock Snapshot</t>
   </si>
@@ -766,18 +766,23 @@
   </si>
   <si>
     <t>H123</t>
+  </si>
+  <si>
+    <t>Trading Update shows strong cash, LFT's still strongest product in H223</t>
+  </si>
+  <si>
+    <t>H223</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;[Red]\ \ \-\ #,##0.0\ ;&quot;-&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
     <numFmt numFmtId="168" formatCode="#,##0.0;[Black]\(#,##0.0\)\ "/>
     <numFmt numFmtId="169" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
     <numFmt numFmtId="170" formatCode="0.000"/>
@@ -1126,7 +1131,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1159,7 +1164,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1318,7 +1322,13 @@
     <xf numFmtId="17" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1331,6 +1341,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1355,39 +1392,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1910,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A865B090-C0E4-4B85-AA22-AACD646D3083}">
   <dimension ref="A1:AC105"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,11 +1943,11 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="J2" s="125" t="s">
+      <c r="J2" s="126" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="126"/>
-      <c r="L2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="128"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1955,13 +1959,13 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="128" t="s">
+      <c r="K3" s="138" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="129"/>
+      <c r="L3" s="139"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1971,29 +1975,29 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="J4" s="83" t="s">
+      <c r="J4" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="128"/>
-      <c r="L4" s="129"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="126"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="J5" s="83" t="s">
+      <c r="J5" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="82" t="s">
+      <c r="K5" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="97">
+      <c r="L5" s="96">
         <v>44825</v>
       </c>
     </row>
@@ -2002,20 +2006,20 @@
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="22">
-        <v>0.25</v>
+      <c r="C6" s="65">
+        <v>0.13</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="J6" s="84" t="s">
+      <c r="J6" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="130" t="s">
+      <c r="K6" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="131"/>
+      <c r="L6" s="141"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -2026,7 +2030,7 @@
         <f>780.09/15</f>
         <v>52.006</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="73" t="s">
         <v>90</v>
       </c>
       <c r="E7" s="1"/>
@@ -2040,7 +2044,7 @@
       </c>
       <c r="C8" s="6">
         <f>C6*C7</f>
-        <v>13.0015</v>
+        <v>6.7607800000000005</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="1"/>
@@ -2053,23 +2057,23 @@
         <v>4</v>
       </c>
       <c r="C9" s="6">
-        <v>7</v>
-      </c>
-      <c r="D9" s="74" t="s">
-        <v>90</v>
+        <v>7.75</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>244</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="125" t="s">
+      <c r="F9" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="128"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -2079,23 +2083,23 @@
       <c r="C10" s="6">
         <v>0</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>90</v>
+      <c r="D10" s="73" t="s">
+        <v>244</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="116">
+      <c r="F10" s="115">
         <v>43770</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -2104,23 +2108,23 @@
       </c>
       <c r="C11" s="6">
         <f>C9-C10</f>
-        <v>7</v>
+        <v>7.75</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="116">
+      <c r="F11" s="115">
         <v>43891</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -2129,23 +2133,23 @@
       </c>
       <c r="C12" s="10">
         <f>C8-C9+C10</f>
-        <v>6.0015000000000001</v>
+        <v>-0.98921999999999954</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="116">
+      <c r="F12" s="115">
         <v>44166</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="24"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -2153,19 +2157,19 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="116">
+      <c r="F13" s="115">
         <v>44166</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="24"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -2173,1391 +2177,1371 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="116">
+      <c r="F14" s="115">
         <v>44197</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="24"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="128"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="116">
+      <c r="F15" s="115">
         <v>44287</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="24"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="23"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="137" t="s">
+      <c r="C16" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="138"/>
+      <c r="D16" s="130"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="116">
+      <c r="F16" s="115">
         <v>44317</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="24"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="138"/>
-      <c r="F17" s="116">
+      <c r="D17" s="130"/>
+      <c r="F17" s="115">
         <v>44348</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="24"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="F18" s="116">
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="F18" s="115">
         <v>44409</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="24"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="F19" s="116">
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="F19" s="115">
         <v>44440</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="24"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="138"/>
-      <c r="F20" s="116">
+      <c r="D20" s="130"/>
+      <c r="F20" s="115">
         <v>44501</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="24"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="F21" s="116">
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="F21" s="115">
         <v>44652</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="24"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="140"/>
-      <c r="F22" s="116">
+      <c r="C22" s="134"/>
+      <c r="D22" s="135"/>
+      <c r="F22" s="115">
         <v>44726</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="24"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F23" s="116"/>
-      <c r="G23" s="78" t="s">
+      <c r="F23" s="115"/>
+      <c r="G23" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="24"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B24" s="125" t="s">
+      <c r="B24" s="126" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="126"/>
-      <c r="D24" s="127"/>
-      <c r="F24" s="116">
+      <c r="C24" s="127"/>
+      <c r="D24" s="128"/>
+      <c r="F24" s="115">
         <v>44743</v>
       </c>
-      <c r="G24" s="78" t="s">
+      <c r="G24" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="24"/>
-      <c r="P24" s="125" t="s">
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="23"/>
+      <c r="P24" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="Q24" s="126"/>
-      <c r="R24" s="127"/>
-      <c r="W24" s="125" t="s">
+      <c r="Q24" s="127"/>
+      <c r="R24" s="128"/>
+      <c r="W24" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="X24" s="126"/>
-      <c r="Y24" s="126"/>
-      <c r="Z24" s="126"/>
-      <c r="AA24" s="126"/>
-      <c r="AB24" s="126"/>
-      <c r="AC24" s="127"/>
+      <c r="X24" s="127"/>
+      <c r="Y24" s="127"/>
+      <c r="Z24" s="127"/>
+      <c r="AA24" s="127"/>
+      <c r="AB24" s="127"/>
+      <c r="AC24" s="128"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B25" s="122">
+      <c r="B25" s="121">
         <v>45047</v>
       </c>
-      <c r="C25" s="143" t="s">
+      <c r="C25" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="140"/>
-      <c r="F25" s="116">
+      <c r="D25" s="135"/>
+      <c r="F25" s="115">
         <v>44743</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="24"/>
-      <c r="P25" s="83" t="s">
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="23"/>
+      <c r="P25" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="Q25" s="144" t="s">
+      <c r="Q25" s="122" t="s">
         <v>152</v>
       </c>
-      <c r="R25" s="145"/>
-      <c r="W25" s="114" t="s">
+      <c r="R25" s="123"/>
+      <c r="W25" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="24"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="23"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F26" s="116">
+      <c r="F26" s="115">
         <v>44774</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="24"/>
-      <c r="P26" s="83" t="s">
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="23"/>
+      <c r="P26" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="Q26" s="144" t="s">
+      <c r="Q26" s="122" t="s">
         <v>152</v>
       </c>
-      <c r="R26" s="145"/>
-      <c r="W26" s="114" t="s">
+      <c r="R26" s="123"/>
+      <c r="W26" s="113" t="s">
         <v>169</v>
       </c>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="24"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="23"/>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B27" s="136" t="s">
+      <c r="B27" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="126"/>
-      <c r="D27" s="127"/>
-      <c r="F27" s="116">
+      <c r="C27" s="127"/>
+      <c r="D27" s="128"/>
+      <c r="F27" s="115">
         <v>44835</v>
       </c>
-      <c r="G27" s="100" t="s">
+      <c r="G27" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="24"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="124"/>
-      <c r="W27" s="114" t="s">
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="23"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="124"/>
+      <c r="R27" s="125"/>
+      <c r="W27" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
-      <c r="AB27" s="23"/>
-      <c r="AC27" s="24"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="23"/>
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B28" s="27">
+      <c r="B28" s="26">
         <v>43922</v>
       </c>
-      <c r="C28" s="137" t="s">
+      <c r="C28" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="F28" s="116">
+      <c r="D28" s="130"/>
+      <c r="F28" s="115">
         <v>45047</v>
       </c>
-      <c r="G28" s="100" t="s">
+      <c r="G28" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
-      <c r="W28" s="114" t="s">
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="23"/>
+      <c r="W28" s="113" t="s">
         <v>166</v>
       </c>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="24"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="23"/>
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B29" s="28">
+      <c r="B29" s="27">
         <v>44228</v>
       </c>
-      <c r="C29" s="139" t="s">
+      <c r="C29" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="140"/>
-      <c r="F29" s="116">
+      <c r="D29" s="135"/>
+      <c r="F29" s="115">
         <v>45047</v>
       </c>
-      <c r="G29" s="100" t="s">
+      <c r="G29" s="99" t="s">
         <v>239</v>
       </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="24"/>
-      <c r="W29" s="114" t="s">
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="23"/>
+      <c r="W29" s="113" t="s">
         <v>167</v>
       </c>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="24"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="23"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F30" s="116">
+      <c r="F30" s="115">
         <v>45108</v>
       </c>
-      <c r="G30" s="100" t="s">
+      <c r="G30" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="24"/>
-      <c r="W30" s="114" t="s">
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="23"/>
+      <c r="W30" s="113" t="s">
         <v>168</v>
       </c>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="23"/>
-      <c r="AB30" s="23"/>
-      <c r="AC30" s="24"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="23"/>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B31" s="136" t="s">
+      <c r="B31" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="126"/>
-      <c r="D31" s="127"/>
-      <c r="F31" s="117">
-        <v>45139</v>
-      </c>
-      <c r="G31" s="79"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="26"/>
-      <c r="W31" s="114" t="s">
+      <c r="C31" s="127"/>
+      <c r="D31" s="128"/>
+      <c r="F31" s="116">
+        <v>45292</v>
+      </c>
+      <c r="G31" s="78" t="s">
+        <v>243</v>
+      </c>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="25"/>
+      <c r="W31" s="113" t="s">
         <v>170</v>
       </c>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="24"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="23"/>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B32" s="27">
+      <c r="B32" s="26">
         <v>44136</v>
       </c>
-      <c r="C32" s="137" t="s">
+      <c r="C32" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="138"/>
-      <c r="W32" s="119" t="s">
+      <c r="D32" s="130"/>
+      <c r="W32" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="X32" s="23"/>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="24"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="23"/>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B33" s="29">
+      <c r="B33" s="28">
         <v>44348</v>
       </c>
-      <c r="C33" s="139" t="s">
+      <c r="C33" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="140"/>
-      <c r="W33" s="114" t="s">
+      <c r="D33" s="135"/>
+      <c r="W33" s="113" t="s">
         <v>172</v>
       </c>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="24"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="23"/>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W34" s="114" t="s">
+      <c r="W34" s="113" t="s">
         <v>173</v>
       </c>
-      <c r="X34" s="23"/>
-      <c r="Y34" s="23"/>
-      <c r="Z34" s="23"/>
-      <c r="AA34" s="23"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="24"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="23"/>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W35" s="119" t="s">
+      <c r="W35" s="118" t="s">
         <v>174</v>
       </c>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="24"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="23"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B36" s="125" t="s">
+      <c r="B36" s="126" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="126"/>
-      <c r="D36" s="127"/>
-      <c r="F36" s="125" t="s">
+      <c r="C36" s="127"/>
+      <c r="D36" s="128"/>
+      <c r="F36" s="126" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
-      <c r="O36" s="127"/>
-      <c r="W36" s="114" t="s">
+      <c r="G36" s="127"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="127"/>
+      <c r="O36" s="128"/>
+      <c r="W36" s="113" t="s">
         <v>175</v>
       </c>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="24"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="23"/>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="141">
+      <c r="C37" s="132">
         <f>C6/SUM('Financial Model'!H19:I19)</f>
-        <v>77.91069966343818</v>
-      </c>
-      <c r="D37" s="142"/>
-      <c r="F37" s="132" t="s">
+        <v>40.513563824987855</v>
+      </c>
+      <c r="D37" s="133"/>
+      <c r="F37" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="G37" s="133"/>
-      <c r="H37" s="23" t="s">
+      <c r="G37" s="143"/>
+      <c r="H37" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="24"/>
-      <c r="W37" s="119" t="s">
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="23"/>
+      <c r="W37" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
-      <c r="AA37" s="23"/>
-      <c r="AB37" s="23"/>
-      <c r="AC37" s="24"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="23"/>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="141">
+      <c r="C38" s="132">
         <f>C6/'Financial Model'!I57</f>
-        <v>22.868532955350812</v>
-      </c>
-      <c r="D38" s="142"/>
-      <c r="F38" s="132" t="s">
+        <v>11.891637136782423</v>
+      </c>
+      <c r="D38" s="133"/>
+      <c r="F38" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="133"/>
-      <c r="H38" s="23" t="s">
+      <c r="G38" s="143"/>
+      <c r="H38" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="24"/>
-      <c r="W38" s="119" t="s">
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="23"/>
+      <c r="W38" s="118" t="s">
         <v>177</v>
       </c>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="23"/>
-      <c r="AA38" s="23"/>
-      <c r="AB38" s="23"/>
-      <c r="AC38" s="24"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="23"/>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="141">
+      <c r="C39" s="132">
         <f>C8/SUM('Financial Model'!H4:I4)</f>
-        <v>0.5669129764708114</v>
-      </c>
-      <c r="D39" s="142"/>
-      <c r="F39" s="134" t="s">
+        <v>0.2947947477648219</v>
+      </c>
+      <c r="D39" s="133"/>
+      <c r="F39" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="135"/>
-      <c r="H39" s="25" t="s">
+      <c r="G39" s="145"/>
+      <c r="H39" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="75" t="s">
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="W39" s="114" t="s">
+      <c r="W39" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="23"/>
-      <c r="AA39" s="23"/>
-      <c r="AB39" s="23"/>
-      <c r="AC39" s="24"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="23"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B40" s="98" t="s">
+      <c r="B40" s="97" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="141">
+      <c r="C40" s="132">
         <f>C12/SUM('Financial Model'!H4:I4)</f>
-        <v>0.26168736132673726</v>
-      </c>
-      <c r="D40" s="142"/>
-      <c r="W40" s="120" t="s">
+        <v>-4.3133611858974408E-2</v>
+      </c>
+      <c r="D40" s="133"/>
+      <c r="W40" s="119" t="s">
         <v>179</v>
       </c>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="23"/>
-      <c r="AA40" s="23"/>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="24"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="23"/>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="141">
+      <c r="C41" s="132">
         <f>C12/SUM('Financial Model'!H18:I18)</f>
-        <v>2.6302503109493607</v>
-      </c>
-      <c r="D41" s="142"/>
-      <c r="W41" s="114"/>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="23"/>
-      <c r="Z41" s="23"/>
-      <c r="AA41" s="23"/>
-      <c r="AB41" s="23"/>
-      <c r="AC41" s="24"/>
+        <v>-0.43354098352034082</v>
+      </c>
+      <c r="D41" s="133"/>
+      <c r="W41" s="113"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="23"/>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B42" s="99" t="s">
+      <c r="B42" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="123">
+      <c r="C42" s="137">
         <f>'Financial Model'!I68</f>
         <v>0.17112763138524958</v>
       </c>
-      <c r="D42" s="124"/>
-      <c r="W42" s="121" t="s">
+      <c r="D42" s="125"/>
+      <c r="W42" s="120" t="s">
         <v>180</v>
       </c>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
-      <c r="AA42" s="23"/>
-      <c r="AB42" s="23"/>
-      <c r="AC42" s="24"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="23"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W43" s="114" t="s">
+      <c r="W43" s="113" t="s">
         <v>181</v>
       </c>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="23"/>
-      <c r="AA43" s="23"/>
-      <c r="AB43" s="23"/>
-      <c r="AC43" s="24"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="23"/>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W44" s="114" t="s">
+      <c r="W44" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="23"/>
-      <c r="Z44" s="23"/>
-      <c r="AA44" s="23"/>
-      <c r="AB44" s="23"/>
-      <c r="AC44" s="24"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="23"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W45" s="114" t="s">
+      <c r="W45" s="113" t="s">
         <v>183</v>
       </c>
-      <c r="X45" s="23"/>
-      <c r="Y45" s="23"/>
-      <c r="Z45" s="23"/>
-      <c r="AA45" s="23"/>
-      <c r="AB45" s="23"/>
-      <c r="AC45" s="24"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="23"/>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W46" s="114" t="s">
+      <c r="W46" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="23"/>
-      <c r="Z46" s="23"/>
-      <c r="AA46" s="23"/>
-      <c r="AB46" s="23"/>
-      <c r="AC46" s="24"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="23"/>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W47" s="114" t="s">
+      <c r="W47" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23"/>
-      <c r="AA47" s="23"/>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="24"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="23"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W48" s="114" t="s">
+      <c r="W48" s="113" t="s">
         <v>186</v>
       </c>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="23"/>
-      <c r="Z48" s="23"/>
-      <c r="AA48" s="23"/>
-      <c r="AB48" s="23"/>
-      <c r="AC48" s="24"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="23"/>
     </row>
     <row r="49" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W49" s="114" t="s">
+      <c r="W49" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="23"/>
-      <c r="Z49" s="23"/>
-      <c r="AA49" s="23"/>
-      <c r="AB49" s="23"/>
-      <c r="AC49" s="24"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="23"/>
     </row>
     <row r="50" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W50" s="114" t="s">
+      <c r="W50" s="113" t="s">
         <v>188</v>
       </c>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="23"/>
-      <c r="Z50" s="23"/>
-      <c r="AA50" s="23"/>
-      <c r="AB50" s="23"/>
-      <c r="AC50" s="24"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="23"/>
     </row>
     <row r="51" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W51" s="114" t="s">
+      <c r="W51" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="23"/>
-      <c r="AA51" s="23"/>
-      <c r="AB51" s="23"/>
-      <c r="AC51" s="24"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="23"/>
     </row>
     <row r="52" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W52" s="114"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="23"/>
-      <c r="Z52" s="23"/>
-      <c r="AA52" s="23"/>
-      <c r="AB52" s="23"/>
-      <c r="AC52" s="24"/>
+      <c r="W52" s="113"/>
+      <c r="X52" s="22"/>
+      <c r="Y52" s="22"/>
+      <c r="Z52" s="22"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="23"/>
     </row>
     <row r="53" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W53" s="114" t="s">
+      <c r="W53" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="X53" s="23"/>
-      <c r="Y53" s="23"/>
-      <c r="Z53" s="23"/>
-      <c r="AA53" s="23"/>
-      <c r="AB53" s="23"/>
-      <c r="AC53" s="24"/>
+      <c r="X53" s="22"/>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="22"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="23"/>
     </row>
     <row r="54" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W54" s="114" t="s">
+      <c r="W54" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="23"/>
-      <c r="Z54" s="23"/>
-      <c r="AA54" s="23"/>
-      <c r="AB54" s="23"/>
-      <c r="AC54" s="24"/>
+      <c r="X54" s="22"/>
+      <c r="Y54" s="22"/>
+      <c r="Z54" s="22"/>
+      <c r="AA54" s="22"/>
+      <c r="AB54" s="22"/>
+      <c r="AC54" s="23"/>
     </row>
     <row r="55" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W55" s="114"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="23"/>
-      <c r="Z55" s="23"/>
-      <c r="AA55" s="23"/>
-      <c r="AB55" s="23"/>
-      <c r="AC55" s="24"/>
+      <c r="W55" s="113"/>
+      <c r="X55" s="22"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="23"/>
     </row>
     <row r="56" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W56" s="121" t="s">
+      <c r="W56" s="120" t="s">
         <v>192</v>
       </c>
-      <c r="X56" s="23"/>
-      <c r="Y56" s="23"/>
-      <c r="Z56" s="23"/>
-      <c r="AA56" s="23"/>
-      <c r="AB56" s="23"/>
-      <c r="AC56" s="24"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="23"/>
     </row>
     <row r="57" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W57" s="114" t="s">
+      <c r="W57" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="X57" s="23"/>
-      <c r="Y57" s="23"/>
-      <c r="Z57" s="23"/>
-      <c r="AA57" s="23"/>
-      <c r="AB57" s="23"/>
-      <c r="AC57" s="24"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="23"/>
     </row>
     <row r="58" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W58" s="114" t="s">
+      <c r="W58" s="113" t="s">
         <v>194</v>
       </c>
-      <c r="X58" s="23"/>
-      <c r="Y58" s="23"/>
-      <c r="Z58" s="23"/>
-      <c r="AA58" s="23"/>
-      <c r="AB58" s="23"/>
-      <c r="AC58" s="24"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="22"/>
+      <c r="AC58" s="23"/>
     </row>
     <row r="59" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W59" s="114" t="s">
+      <c r="W59" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="X59" s="23"/>
-      <c r="Y59" s="23"/>
-      <c r="Z59" s="23"/>
-      <c r="AA59" s="23"/>
-      <c r="AB59" s="23"/>
-      <c r="AC59" s="24"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="23"/>
     </row>
     <row r="60" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W60" s="114" t="s">
+      <c r="W60" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="X60" s="23"/>
-      <c r="Y60" s="23"/>
-      <c r="Z60" s="23"/>
-      <c r="AA60" s="23"/>
-      <c r="AB60" s="23"/>
-      <c r="AC60" s="24"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="22"/>
+      <c r="AC60" s="23"/>
     </row>
     <row r="61" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W61" s="118" t="s">
+      <c r="W61" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="X61" s="23"/>
-      <c r="Y61" s="23"/>
-      <c r="Z61" s="23"/>
-      <c r="AA61" s="23"/>
-      <c r="AB61" s="23"/>
-      <c r="AC61" s="24"/>
+      <c r="X61" s="22"/>
+      <c r="Y61" s="22"/>
+      <c r="Z61" s="22"/>
+      <c r="AA61" s="22"/>
+      <c r="AB61" s="22"/>
+      <c r="AC61" s="23"/>
     </row>
     <row r="62" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W62" s="114" t="s">
+      <c r="W62" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="X62" s="23"/>
-      <c r="Y62" s="23"/>
-      <c r="Z62" s="23"/>
-      <c r="AA62" s="23"/>
-      <c r="AB62" s="23"/>
-      <c r="AC62" s="24"/>
+      <c r="X62" s="22"/>
+      <c r="Y62" s="22"/>
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="22"/>
+      <c r="AB62" s="22"/>
+      <c r="AC62" s="23"/>
     </row>
     <row r="63" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W63" s="114" t="s">
+      <c r="W63" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="X63" s="23"/>
-      <c r="Y63" s="23"/>
-      <c r="Z63" s="23"/>
-      <c r="AA63" s="23"/>
-      <c r="AB63" s="23"/>
-      <c r="AC63" s="24"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="23"/>
     </row>
     <row r="64" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W64" s="114"/>
-      <c r="X64" s="23"/>
-      <c r="Y64" s="23"/>
-      <c r="Z64" s="23"/>
-      <c r="AA64" s="23"/>
-      <c r="AB64" s="23"/>
-      <c r="AC64" s="24"/>
+      <c r="W64" s="113"/>
+      <c r="X64" s="22"/>
+      <c r="Y64" s="22"/>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="22"/>
+      <c r="AB64" s="22"/>
+      <c r="AC64" s="23"/>
     </row>
     <row r="65" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W65" s="121" t="s">
+      <c r="W65" s="120" t="s">
         <v>200</v>
       </c>
-      <c r="X65" s="23"/>
-      <c r="Y65" s="23"/>
-      <c r="Z65" s="23"/>
-      <c r="AA65" s="23"/>
-      <c r="AB65" s="23"/>
-      <c r="AC65" s="24"/>
+      <c r="X65" s="22"/>
+      <c r="Y65" s="22"/>
+      <c r="Z65" s="22"/>
+      <c r="AA65" s="22"/>
+      <c r="AB65" s="22"/>
+      <c r="AC65" s="23"/>
     </row>
     <row r="66" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W66" s="114" t="s">
+      <c r="W66" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="X66" s="23"/>
-      <c r="Y66" s="23"/>
-      <c r="Z66" s="23"/>
-      <c r="AA66" s="23"/>
-      <c r="AB66" s="23"/>
-      <c r="AC66" s="24"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="22"/>
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="23"/>
     </row>
     <row r="67" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W67" s="114" t="s">
+      <c r="W67" s="113" t="s">
         <v>202</v>
       </c>
-      <c r="X67" s="23"/>
-      <c r="Y67" s="23"/>
-      <c r="Z67" s="23"/>
-      <c r="AA67" s="23"/>
-      <c r="AB67" s="23"/>
-      <c r="AC67" s="24"/>
+      <c r="X67" s="22"/>
+      <c r="Y67" s="22"/>
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="22"/>
+      <c r="AB67" s="22"/>
+      <c r="AC67" s="23"/>
     </row>
     <row r="68" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W68" s="114" t="s">
+      <c r="W68" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="X68" s="23"/>
-      <c r="Y68" s="23"/>
-      <c r="Z68" s="23"/>
-      <c r="AA68" s="23"/>
-      <c r="AB68" s="23"/>
-      <c r="AC68" s="24"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="22"/>
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="22"/>
+      <c r="AB68" s="22"/>
+      <c r="AC68" s="23"/>
     </row>
     <row r="69" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W69" s="114" t="s">
+      <c r="W69" s="113" t="s">
         <v>204</v>
       </c>
-      <c r="X69" s="23"/>
-      <c r="Y69" s="23"/>
-      <c r="Z69" s="23"/>
-      <c r="AA69" s="23"/>
-      <c r="AB69" s="23"/>
-      <c r="AC69" s="24"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="22"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="23"/>
     </row>
     <row r="70" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W70" s="118" t="s">
+      <c r="W70" s="117" t="s">
         <v>205</v>
       </c>
-      <c r="X70" s="23"/>
-      <c r="Y70" s="23"/>
-      <c r="Z70" s="23"/>
-      <c r="AA70" s="23"/>
-      <c r="AB70" s="23"/>
-      <c r="AC70" s="24"/>
+      <c r="X70" s="22"/>
+      <c r="Y70" s="22"/>
+      <c r="Z70" s="22"/>
+      <c r="AA70" s="22"/>
+      <c r="AB70" s="22"/>
+      <c r="AC70" s="23"/>
     </row>
     <row r="71" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W71" s="114"/>
-      <c r="X71" s="23"/>
-      <c r="Y71" s="23"/>
-      <c r="Z71" s="23"/>
-      <c r="AA71" s="23"/>
-      <c r="AB71" s="23"/>
-      <c r="AC71" s="24"/>
+      <c r="W71" s="113"/>
+      <c r="X71" s="22"/>
+      <c r="Y71" s="22"/>
+      <c r="Z71" s="22"/>
+      <c r="AA71" s="22"/>
+      <c r="AB71" s="22"/>
+      <c r="AC71" s="23"/>
     </row>
     <row r="72" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W72" s="121" t="s">
+      <c r="W72" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="X72" s="23"/>
-      <c r="Y72" s="23"/>
-      <c r="Z72" s="23"/>
-      <c r="AA72" s="23"/>
-      <c r="AB72" s="23"/>
-      <c r="AC72" s="24"/>
+      <c r="X72" s="22"/>
+      <c r="Y72" s="22"/>
+      <c r="Z72" s="22"/>
+      <c r="AA72" s="22"/>
+      <c r="AB72" s="22"/>
+      <c r="AC72" s="23"/>
     </row>
     <row r="73" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W73" s="114" t="s">
+      <c r="W73" s="113" t="s">
         <v>207</v>
       </c>
-      <c r="X73" s="23"/>
-      <c r="Y73" s="23"/>
-      <c r="Z73" s="23"/>
-      <c r="AA73" s="23"/>
-      <c r="AB73" s="23"/>
-      <c r="AC73" s="24"/>
+      <c r="X73" s="22"/>
+      <c r="Y73" s="22"/>
+      <c r="Z73" s="22"/>
+      <c r="AA73" s="22"/>
+      <c r="AB73" s="22"/>
+      <c r="AC73" s="23"/>
     </row>
     <row r="74" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W74" s="118" t="s">
+      <c r="W74" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="X74" s="23"/>
-      <c r="Y74" s="23"/>
-      <c r="Z74" s="23"/>
-      <c r="AA74" s="23"/>
-      <c r="AB74" s="23"/>
-      <c r="AC74" s="24"/>
+      <c r="X74" s="22"/>
+      <c r="Y74" s="22"/>
+      <c r="Z74" s="22"/>
+      <c r="AA74" s="22"/>
+      <c r="AB74" s="22"/>
+      <c r="AC74" s="23"/>
     </row>
     <row r="75" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W75" s="114" t="s">
+      <c r="W75" s="113" t="s">
         <v>209</v>
       </c>
-      <c r="X75" s="23"/>
-      <c r="Y75" s="23"/>
-      <c r="Z75" s="23"/>
-      <c r="AA75" s="23"/>
-      <c r="AB75" s="23"/>
-      <c r="AC75" s="24"/>
+      <c r="X75" s="22"/>
+      <c r="Y75" s="22"/>
+      <c r="Z75" s="22"/>
+      <c r="AA75" s="22"/>
+      <c r="AB75" s="22"/>
+      <c r="AC75" s="23"/>
     </row>
     <row r="76" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W76" s="118" t="s">
+      <c r="W76" s="117" t="s">
         <v>210</v>
       </c>
-      <c r="X76" s="23"/>
-      <c r="Y76" s="23"/>
-      <c r="Z76" s="23"/>
-      <c r="AA76" s="23"/>
-      <c r="AB76" s="23"/>
-      <c r="AC76" s="24"/>
+      <c r="X76" s="22"/>
+      <c r="Y76" s="22"/>
+      <c r="Z76" s="22"/>
+      <c r="AA76" s="22"/>
+      <c r="AB76" s="22"/>
+      <c r="AC76" s="23"/>
     </row>
     <row r="77" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W77" s="114" t="s">
+      <c r="W77" s="113" t="s">
         <v>211</v>
       </c>
-      <c r="X77" s="23"/>
-      <c r="Y77" s="23"/>
-      <c r="Z77" s="23"/>
-      <c r="AA77" s="23"/>
-      <c r="AB77" s="23"/>
-      <c r="AC77" s="24"/>
+      <c r="X77" s="22"/>
+      <c r="Y77" s="22"/>
+      <c r="Z77" s="22"/>
+      <c r="AA77" s="22"/>
+      <c r="AB77" s="22"/>
+      <c r="AC77" s="23"/>
     </row>
     <row r="78" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W78" s="114" t="s">
+      <c r="W78" s="113" t="s">
         <v>212</v>
       </c>
-      <c r="X78" s="23"/>
-      <c r="Y78" s="23"/>
-      <c r="Z78" s="23"/>
-      <c r="AA78" s="23"/>
-      <c r="AB78" s="23"/>
-      <c r="AC78" s="24"/>
+      <c r="X78" s="22"/>
+      <c r="Y78" s="22"/>
+      <c r="Z78" s="22"/>
+      <c r="AA78" s="22"/>
+      <c r="AB78" s="22"/>
+      <c r="AC78" s="23"/>
     </row>
     <row r="79" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W79" s="118" t="s">
+      <c r="W79" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="X79" s="23"/>
-      <c r="Y79" s="23"/>
-      <c r="Z79" s="23"/>
-      <c r="AA79" s="23"/>
-      <c r="AB79" s="23"/>
-      <c r="AC79" s="24"/>
+      <c r="X79" s="22"/>
+      <c r="Y79" s="22"/>
+      <c r="Z79" s="22"/>
+      <c r="AA79" s="22"/>
+      <c r="AB79" s="22"/>
+      <c r="AC79" s="23"/>
     </row>
     <row r="80" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W80" s="114" t="s">
+      <c r="W80" s="113" t="s">
         <v>214</v>
       </c>
-      <c r="X80" s="23"/>
-      <c r="Y80" s="23"/>
-      <c r="Z80" s="23"/>
-      <c r="AA80" s="23"/>
-      <c r="AB80" s="23"/>
-      <c r="AC80" s="24"/>
+      <c r="X80" s="22"/>
+      <c r="Y80" s="22"/>
+      <c r="Z80" s="22"/>
+      <c r="AA80" s="22"/>
+      <c r="AB80" s="22"/>
+      <c r="AC80" s="23"/>
     </row>
     <row r="81" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W81" s="114" t="s">
+      <c r="W81" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="X81" s="23"/>
-      <c r="Y81" s="23"/>
-      <c r="Z81" s="23"/>
-      <c r="AA81" s="23"/>
-      <c r="AB81" s="23"/>
-      <c r="AC81" s="24"/>
+      <c r="X81" s="22"/>
+      <c r="Y81" s="22"/>
+      <c r="Z81" s="22"/>
+      <c r="AA81" s="22"/>
+      <c r="AB81" s="22"/>
+      <c r="AC81" s="23"/>
     </row>
     <row r="82" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W82" s="114" t="s">
+      <c r="W82" s="113" t="s">
         <v>216</v>
       </c>
-      <c r="X82" s="23"/>
-      <c r="Y82" s="23"/>
-      <c r="Z82" s="23"/>
-      <c r="AA82" s="23"/>
-      <c r="AB82" s="23"/>
-      <c r="AC82" s="24"/>
+      <c r="X82" s="22"/>
+      <c r="Y82" s="22"/>
+      <c r="Z82" s="22"/>
+      <c r="AA82" s="22"/>
+      <c r="AB82" s="22"/>
+      <c r="AC82" s="23"/>
     </row>
     <row r="83" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W83" s="114"/>
-      <c r="X83" s="23"/>
-      <c r="Y83" s="23"/>
-      <c r="Z83" s="23"/>
-      <c r="AA83" s="23"/>
-      <c r="AB83" s="23"/>
-      <c r="AC83" s="24"/>
+      <c r="W83" s="113"/>
+      <c r="X83" s="22"/>
+      <c r="Y83" s="22"/>
+      <c r="Z83" s="22"/>
+      <c r="AA83" s="22"/>
+      <c r="AB83" s="22"/>
+      <c r="AC83" s="23"/>
     </row>
     <row r="84" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W84" s="121" t="s">
+      <c r="W84" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="X84" s="23"/>
-      <c r="Y84" s="23"/>
-      <c r="Z84" s="23"/>
-      <c r="AA84" s="23"/>
-      <c r="AB84" s="23"/>
-      <c r="AC84" s="24"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="22"/>
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="22"/>
+      <c r="AC84" s="23"/>
     </row>
     <row r="85" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W85" s="114" t="s">
+      <c r="W85" s="113" t="s">
         <v>218</v>
       </c>
-      <c r="X85" s="23"/>
-      <c r="Y85" s="23"/>
-      <c r="Z85" s="23"/>
-      <c r="AA85" s="23"/>
-      <c r="AB85" s="23"/>
-      <c r="AC85" s="24"/>
+      <c r="X85" s="22"/>
+      <c r="Y85" s="22"/>
+      <c r="Z85" s="22"/>
+      <c r="AA85" s="22"/>
+      <c r="AB85" s="22"/>
+      <c r="AC85" s="23"/>
     </row>
     <row r="86" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W86" s="114" t="s">
+      <c r="W86" s="113" t="s">
         <v>219</v>
       </c>
-      <c r="X86" s="23"/>
-      <c r="Y86" s="23"/>
-      <c r="Z86" s="23"/>
-      <c r="AA86" s="23"/>
-      <c r="AB86" s="23"/>
-      <c r="AC86" s="24"/>
+      <c r="X86" s="22"/>
+      <c r="Y86" s="22"/>
+      <c r="Z86" s="22"/>
+      <c r="AA86" s="22"/>
+      <c r="AB86" s="22"/>
+      <c r="AC86" s="23"/>
     </row>
     <row r="87" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W87" s="118" t="s">
+      <c r="W87" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="X87" s="23"/>
-      <c r="Y87" s="23"/>
-      <c r="Z87" s="23"/>
-      <c r="AA87" s="23"/>
-      <c r="AB87" s="23"/>
-      <c r="AC87" s="24"/>
+      <c r="X87" s="22"/>
+      <c r="Y87" s="22"/>
+      <c r="Z87" s="22"/>
+      <c r="AA87" s="22"/>
+      <c r="AB87" s="22"/>
+      <c r="AC87" s="23"/>
     </row>
     <row r="88" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W88" s="114" t="s">
+      <c r="W88" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="X88" s="23"/>
-      <c r="Y88" s="23"/>
-      <c r="Z88" s="23"/>
-      <c r="AA88" s="23"/>
-      <c r="AB88" s="23"/>
-      <c r="AC88" s="24"/>
+      <c r="X88" s="22"/>
+      <c r="Y88" s="22"/>
+      <c r="Z88" s="22"/>
+      <c r="AA88" s="22"/>
+      <c r="AB88" s="22"/>
+      <c r="AC88" s="23"/>
     </row>
     <row r="89" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W89" s="118" t="s">
+      <c r="W89" s="117" t="s">
         <v>222</v>
       </c>
-      <c r="X89" s="23"/>
-      <c r="Y89" s="23"/>
-      <c r="Z89" s="23"/>
-      <c r="AA89" s="23"/>
-      <c r="AB89" s="23"/>
-      <c r="AC89" s="24"/>
+      <c r="X89" s="22"/>
+      <c r="Y89" s="22"/>
+      <c r="Z89" s="22"/>
+      <c r="AA89" s="22"/>
+      <c r="AB89" s="22"/>
+      <c r="AC89" s="23"/>
     </row>
     <row r="90" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W90" s="114" t="s">
+      <c r="W90" s="113" t="s">
         <v>223</v>
       </c>
-      <c r="X90" s="23"/>
-      <c r="Y90" s="23"/>
-      <c r="Z90" s="23"/>
-      <c r="AA90" s="23"/>
-      <c r="AB90" s="23"/>
-      <c r="AC90" s="24"/>
+      <c r="X90" s="22"/>
+      <c r="Y90" s="22"/>
+      <c r="Z90" s="22"/>
+      <c r="AA90" s="22"/>
+      <c r="AB90" s="22"/>
+      <c r="AC90" s="23"/>
     </row>
     <row r="91" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W91" s="114" t="s">
+      <c r="W91" s="113" t="s">
         <v>224</v>
       </c>
-      <c r="X91" s="23"/>
-      <c r="Y91" s="23"/>
-      <c r="Z91" s="23"/>
-      <c r="AA91" s="23"/>
-      <c r="AB91" s="23"/>
-      <c r="AC91" s="24"/>
+      <c r="X91" s="22"/>
+      <c r="Y91" s="22"/>
+      <c r="Z91" s="22"/>
+      <c r="AA91" s="22"/>
+      <c r="AB91" s="22"/>
+      <c r="AC91" s="23"/>
     </row>
     <row r="92" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W92" s="118" t="s">
+      <c r="W92" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="X92" s="23"/>
-      <c r="Y92" s="23"/>
-      <c r="Z92" s="23"/>
-      <c r="AA92" s="23"/>
-      <c r="AB92" s="23"/>
-      <c r="AC92" s="24"/>
+      <c r="X92" s="22"/>
+      <c r="Y92" s="22"/>
+      <c r="Z92" s="22"/>
+      <c r="AA92" s="22"/>
+      <c r="AB92" s="22"/>
+      <c r="AC92" s="23"/>
     </row>
     <row r="93" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W93" s="114"/>
-      <c r="X93" s="23"/>
-      <c r="Y93" s="23"/>
-      <c r="Z93" s="23"/>
-      <c r="AA93" s="23"/>
-      <c r="AB93" s="23"/>
-      <c r="AC93" s="24"/>
+      <c r="W93" s="113"/>
+      <c r="X93" s="22"/>
+      <c r="Y93" s="22"/>
+      <c r="Z93" s="22"/>
+      <c r="AA93" s="22"/>
+      <c r="AB93" s="22"/>
+      <c r="AC93" s="23"/>
     </row>
     <row r="94" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W94" s="114"/>
-      <c r="X94" s="23"/>
-      <c r="Y94" s="23"/>
-      <c r="Z94" s="23"/>
-      <c r="AA94" s="23"/>
-      <c r="AB94" s="23"/>
-      <c r="AC94" s="24"/>
+      <c r="W94" s="113"/>
+      <c r="X94" s="22"/>
+      <c r="Y94" s="22"/>
+      <c r="Z94" s="22"/>
+      <c r="AA94" s="22"/>
+      <c r="AB94" s="22"/>
+      <c r="AC94" s="23"/>
     </row>
     <row r="95" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W95" s="121" t="s">
+      <c r="W95" s="120" t="s">
         <v>226</v>
       </c>
-      <c r="X95" s="23"/>
-      <c r="Y95" s="23"/>
-      <c r="Z95" s="23"/>
-      <c r="AA95" s="23"/>
-      <c r="AB95" s="23"/>
-      <c r="AC95" s="24"/>
+      <c r="X95" s="22"/>
+      <c r="Y95" s="22"/>
+      <c r="Z95" s="22"/>
+      <c r="AA95" s="22"/>
+      <c r="AB95" s="22"/>
+      <c r="AC95" s="23"/>
     </row>
     <row r="96" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W96" s="114" t="s">
+      <c r="W96" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="X96" s="23"/>
-      <c r="Y96" s="23"/>
-      <c r="Z96" s="23"/>
-      <c r="AA96" s="23"/>
-      <c r="AB96" s="23"/>
-      <c r="AC96" s="24"/>
+      <c r="X96" s="22"/>
+      <c r="Y96" s="22"/>
+      <c r="Z96" s="22"/>
+      <c r="AA96" s="22"/>
+      <c r="AB96" s="22"/>
+      <c r="AC96" s="23"/>
     </row>
     <row r="97" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W97" s="114" t="s">
+      <c r="W97" s="113" t="s">
         <v>228</v>
       </c>
-      <c r="X97" s="23"/>
-      <c r="Y97" s="23"/>
-      <c r="Z97" s="23"/>
-      <c r="AA97" s="23"/>
-      <c r="AB97" s="23"/>
-      <c r="AC97" s="24"/>
+      <c r="X97" s="22"/>
+      <c r="Y97" s="22"/>
+      <c r="Z97" s="22"/>
+      <c r="AA97" s="22"/>
+      <c r="AB97" s="22"/>
+      <c r="AC97" s="23"/>
     </row>
     <row r="98" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W98" s="114" t="s">
+      <c r="W98" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="X98" s="23"/>
-      <c r="Y98" s="23"/>
-      <c r="Z98" s="23"/>
-      <c r="AA98" s="23"/>
-      <c r="AB98" s="23"/>
-      <c r="AC98" s="24"/>
+      <c r="X98" s="22"/>
+      <c r="Y98" s="22"/>
+      <c r="Z98" s="22"/>
+      <c r="AA98" s="22"/>
+      <c r="AB98" s="22"/>
+      <c r="AC98" s="23"/>
     </row>
     <row r="99" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W99" s="114" t="s">
+      <c r="W99" s="113" t="s">
         <v>230</v>
       </c>
-      <c r="X99" s="23"/>
-      <c r="Y99" s="23"/>
-      <c r="Z99" s="23"/>
-      <c r="AA99" s="23"/>
-      <c r="AB99" s="23"/>
-      <c r="AC99" s="24"/>
+      <c r="X99" s="22"/>
+      <c r="Y99" s="22"/>
+      <c r="Z99" s="22"/>
+      <c r="AA99" s="22"/>
+      <c r="AB99" s="22"/>
+      <c r="AC99" s="23"/>
     </row>
     <row r="100" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W100" s="114" t="s">
+      <c r="W100" s="113" t="s">
         <v>231</v>
       </c>
-      <c r="X100" s="23"/>
-      <c r="Y100" s="23"/>
-      <c r="Z100" s="23"/>
-      <c r="AA100" s="23"/>
-      <c r="AB100" s="23"/>
-      <c r="AC100" s="24"/>
+      <c r="X100" s="22"/>
+      <c r="Y100" s="22"/>
+      <c r="Z100" s="22"/>
+      <c r="AA100" s="22"/>
+      <c r="AB100" s="22"/>
+      <c r="AC100" s="23"/>
     </row>
     <row r="101" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W101" s="114" t="s">
+      <c r="W101" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="X101" s="23"/>
-      <c r="Y101" s="23"/>
-      <c r="Z101" s="23"/>
-      <c r="AA101" s="23"/>
-      <c r="AB101" s="23"/>
-      <c r="AC101" s="24"/>
+      <c r="X101" s="22"/>
+      <c r="Y101" s="22"/>
+      <c r="Z101" s="22"/>
+      <c r="AA101" s="22"/>
+      <c r="AB101" s="22"/>
+      <c r="AC101" s="23"/>
     </row>
     <row r="102" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W102" s="114" t="s">
+      <c r="W102" s="113" t="s">
         <v>233</v>
       </c>
-      <c r="X102" s="23"/>
-      <c r="Y102" s="23"/>
-      <c r="Z102" s="23"/>
-      <c r="AA102" s="23"/>
-      <c r="AB102" s="23"/>
-      <c r="AC102" s="24"/>
+      <c r="X102" s="22"/>
+      <c r="Y102" s="22"/>
+      <c r="Z102" s="22"/>
+      <c r="AA102" s="22"/>
+      <c r="AB102" s="22"/>
+      <c r="AC102" s="23"/>
     </row>
     <row r="103" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W103" s="114" t="s">
+      <c r="W103" s="113" t="s">
         <v>234</v>
       </c>
-      <c r="X103" s="23"/>
-      <c r="Y103" s="23"/>
-      <c r="Z103" s="23"/>
-      <c r="AA103" s="23"/>
-      <c r="AB103" s="23"/>
-      <c r="AC103" s="24"/>
+      <c r="X103" s="22"/>
+      <c r="Y103" s="22"/>
+      <c r="Z103" s="22"/>
+      <c r="AA103" s="22"/>
+      <c r="AB103" s="22"/>
+      <c r="AC103" s="23"/>
     </row>
     <row r="104" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W104" s="114" t="s">
+      <c r="W104" s="113" t="s">
         <v>235</v>
       </c>
-      <c r="X104" s="23"/>
-      <c r="Y104" s="23"/>
-      <c r="Z104" s="23"/>
-      <c r="AA104" s="23"/>
-      <c r="AB104" s="23"/>
-      <c r="AC104" s="24"/>
+      <c r="X104" s="22"/>
+      <c r="Y104" s="22"/>
+      <c r="Z104" s="22"/>
+      <c r="AA104" s="22"/>
+      <c r="AB104" s="22"/>
+      <c r="AC104" s="23"/>
     </row>
     <row r="105" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W105" s="115" t="s">
+      <c r="W105" s="114" t="s">
         <v>236</v>
       </c>
-      <c r="X105" s="25"/>
-      <c r="Y105" s="25"/>
-      <c r="Z105" s="25"/>
-      <c r="AA105" s="25"/>
-      <c r="AB105" s="25"/>
-      <c r="AC105" s="26"/>
+      <c r="X105" s="24"/>
+      <c r="Y105" s="24"/>
+      <c r="Z105" s="24"/>
+      <c r="AA105" s="24"/>
+      <c r="AB105" s="24"/>
+      <c r="AC105" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="W24:AC24"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -3574,6 +3558,28 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="W24:AC24"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K6:L6" r:id="rId1" display="Link" xr:uid="{EBABCF04-F876-4DF1-ADF1-1B6F62DC4548}"/>
@@ -3590,7 +3596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80596E7F-DECF-497C-AD87-2DA392DA01F4}">
   <dimension ref="B1:BI71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3602,13 +3608,13 @@
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="32" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="32" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="33"/>
+    <col min="10" max="10" width="8.85546875" style="32"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -3619,25 +3625,25 @@
       <c r="C1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>94</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="85" t="s">
+      <c r="I1" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>96</v>
       </c>
       <c r="K1" s="13" t="s">
@@ -3691,30 +3697,30 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="2:28" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="87"/>
+    <row r="2" spans="2:28" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="86"/>
       <c r="C2" s="20">
         <v>43646</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="87" t="s">
         <v>92</v>
       </c>
       <c r="E2" s="20">
         <v>44012</v>
       </c>
-      <c r="F2" s="88">
+      <c r="F2" s="87">
         <v>44196</v>
       </c>
       <c r="G2" s="20">
         <v>44377</v>
       </c>
-      <c r="H2" s="88">
+      <c r="H2" s="87">
         <v>44561</v>
       </c>
       <c r="I2" s="20">
         <v>44742</v>
       </c>
-      <c r="J2" s="89"/>
+      <c r="J2" s="88"/>
       <c r="N2" s="20">
         <v>43465</v>
       </c>
@@ -3727,158 +3733,158 @@
       <c r="Q2" s="20">
         <v>44561</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="U2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="V2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" s="41" t="s">
+      <c r="AB2" s="40" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:28" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:28" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="32"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="32"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="86">
+      <c r="H3" s="31"/>
+      <c r="I3" s="85">
         <v>44825</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="86">
+      <c r="J3" s="76"/>
+      <c r="K3" s="85">
         <v>45146</v>
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="63">
         <v>1.5716999999999998E-2</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="69">
         <f>O4-C4</f>
         <v>1.6253E-2</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="63">
         <v>1.2707E-2</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="69">
         <f>P4-E4</f>
         <v>3.6773E-2</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="63">
         <v>3.2741449999999999</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="69">
         <f>Q4-G4</f>
         <v>13.101855</v>
       </c>
-      <c r="I4" s="72">
+      <c r="I4" s="71">
         <v>9.8320000000000007</v>
       </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72">
+      <c r="J4" s="70"/>
+      <c r="K4" s="71">
         <v>2.5</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="64">
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="63">
         <v>4.8380000000000003E-3</v>
       </c>
-      <c r="O4" s="64">
+      <c r="O4" s="63">
         <v>3.1969999999999998E-2</v>
       </c>
-      <c r="P4" s="64">
+      <c r="P4" s="63">
         <v>4.9480000000000003E-2</v>
       </c>
-      <c r="Q4" s="64">
+      <c r="Q4" s="63">
         <v>16.376000000000001</v>
       </c>
-      <c r="R4" s="72">
+      <c r="R4" s="71">
         <f>Q4*1.25</f>
         <v>20.470000000000002</v>
       </c>
-      <c r="S4" s="72">
+      <c r="S4" s="71">
         <f t="shared" ref="S4:AB4" si="0">R4*1.25</f>
         <v>25.587500000000002</v>
       </c>
-      <c r="T4" s="72">
+      <c r="T4" s="71">
         <f t="shared" si="0"/>
         <v>31.984375000000004</v>
       </c>
-      <c r="U4" s="72">
+      <c r="U4" s="71">
         <f t="shared" si="0"/>
         <v>39.980468750000007</v>
       </c>
-      <c r="V4" s="72">
+      <c r="V4" s="71">
         <f t="shared" si="0"/>
         <v>49.975585937500007</v>
       </c>
-      <c r="W4" s="72">
+      <c r="W4" s="71">
         <f t="shared" si="0"/>
         <v>62.469482421875007</v>
       </c>
-      <c r="X4" s="72">
+      <c r="X4" s="71">
         <f t="shared" si="0"/>
         <v>78.086853027343764</v>
       </c>
-      <c r="Y4" s="72">
+      <c r="Y4" s="71">
         <f t="shared" si="0"/>
         <v>97.608566284179702</v>
       </c>
-      <c r="Z4" s="72">
+      <c r="Z4" s="71">
         <f t="shared" si="0"/>
         <v>122.01070785522462</v>
       </c>
-      <c r="AA4" s="72">
+      <c r="AA4" s="71">
         <f t="shared" si="0"/>
         <v>152.51338481903079</v>
       </c>
-      <c r="AB4" s="72">
+      <c r="AB4" s="71">
         <f t="shared" si="0"/>
         <v>190.64173102378848</v>
       </c>
@@ -3887,87 +3893,87 @@
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="64">
         <v>0.24007999999999999</v>
       </c>
-      <c r="D5" s="73">
+      <c r="D5" s="72">
         <f>O5-C5</f>
         <v>0.25205600000000006</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="64">
         <v>0.174067</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="72">
         <f>P5-E5</f>
         <v>-3.2727000000000006E-2</v>
       </c>
-      <c r="G5" s="65">
+      <c r="G5" s="64">
         <v>2.1742710000000001</v>
       </c>
-      <c r="H5" s="73">
+      <c r="H5" s="72">
         <f>Q5-G5</f>
         <v>9.0767290000000003</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="67">
         <v>8.3209999999999997</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="65">
+      <c r="J5" s="70"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="64">
         <v>0.54072100000000001</v>
       </c>
-      <c r="O5" s="65">
+      <c r="O5" s="64">
         <v>0.49213600000000002</v>
       </c>
-      <c r="P5" s="65">
+      <c r="P5" s="64">
         <v>0.14133999999999999</v>
       </c>
-      <c r="Q5" s="65">
+      <c r="Q5" s="64">
         <v>11.250999999999999</v>
       </c>
-      <c r="R5" s="69">
+      <c r="R5" s="68">
         <f>R4-R7</f>
         <v>14.124300000000002</v>
       </c>
-      <c r="S5" s="69">
+      <c r="S5" s="68">
         <f t="shared" ref="S5:AB5" si="1">S4-S7</f>
         <v>17.655374999999999</v>
       </c>
-      <c r="T5" s="69">
+      <c r="T5" s="68">
         <f t="shared" si="1"/>
         <v>22.069218750000005</v>
       </c>
-      <c r="U5" s="69">
+      <c r="U5" s="68">
         <f t="shared" si="1"/>
         <v>27.586523437500006</v>
       </c>
-      <c r="V5" s="69">
+      <c r="V5" s="68">
         <f t="shared" si="1"/>
         <v>34.483154296875007</v>
       </c>
-      <c r="W5" s="69">
+      <c r="W5" s="68">
         <f t="shared" si="1"/>
         <v>43.10394287109375</v>
       </c>
-      <c r="X5" s="69">
+      <c r="X5" s="68">
         <f t="shared" si="1"/>
         <v>53.879928588867202</v>
       </c>
-      <c r="Y5" s="69">
+      <c r="Y5" s="68">
         <f t="shared" si="1"/>
         <v>67.349910736083999</v>
       </c>
-      <c r="Z5" s="69">
+      <c r="Z5" s="68">
         <f t="shared" si="1"/>
         <v>84.18738842010498</v>
       </c>
-      <c r="AA5" s="69">
+      <c r="AA5" s="68">
         <f t="shared" si="1"/>
         <v>105.23423552513125</v>
       </c>
-      <c r="AB5" s="69">
+      <c r="AB5" s="68">
         <f t="shared" si="1"/>
         <v>131.54279440641406</v>
       </c>
@@ -3976,76 +3982,76 @@
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="66">
-        <v>0</v>
-      </c>
-      <c r="D6" s="73">
-        <v>0</v>
-      </c>
-      <c r="E6" s="66">
-        <v>0</v>
-      </c>
-      <c r="F6" s="73">
+      <c r="C6" s="65">
+        <v>0</v>
+      </c>
+      <c r="D6" s="72">
+        <v>0</v>
+      </c>
+      <c r="E6" s="65">
+        <v>0</v>
+      </c>
+      <c r="F6" s="72">
         <f>P6-E6</f>
         <v>0.54844199999999999</v>
       </c>
-      <c r="G6" s="66">
-        <v>0</v>
-      </c>
-      <c r="H6" s="73">
+      <c r="G6" s="65">
+        <v>0</v>
+      </c>
+      <c r="H6" s="72">
         <f>Q6-G6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="68">
-        <v>0</v>
-      </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="66">
-        <v>0</v>
-      </c>
-      <c r="O6" s="66">
-        <v>0</v>
-      </c>
-      <c r="P6" s="66">
+      <c r="I6" s="67">
+        <v>0</v>
+      </c>
+      <c r="J6" s="70"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="65">
+        <v>0</v>
+      </c>
+      <c r="O6" s="65">
+        <v>0</v>
+      </c>
+      <c r="P6" s="65">
         <v>0.54844199999999999</v>
       </c>
-      <c r="Q6" s="66">
-        <v>0</v>
-      </c>
-      <c r="R6" s="68">
-        <v>0</v>
-      </c>
-      <c r="S6" s="68">
+      <c r="Q6" s="65">
+        <v>0</v>
+      </c>
+      <c r="R6" s="67">
+        <v>0</v>
+      </c>
+      <c r="S6" s="67">
         <v>1</v>
       </c>
-      <c r="T6" s="68">
+      <c r="T6" s="67">
         <v>2</v>
       </c>
-      <c r="U6" s="68">
+      <c r="U6" s="67">
         <v>3</v>
       </c>
-      <c r="V6" s="68">
+      <c r="V6" s="67">
         <v>4</v>
       </c>
-      <c r="W6" s="68">
+      <c r="W6" s="67">
         <v>5</v>
       </c>
-      <c r="X6" s="68">
+      <c r="X6" s="67">
         <v>6</v>
       </c>
-      <c r="Y6" s="68">
+      <c r="Y6" s="67">
         <v>7</v>
       </c>
-      <c r="Z6" s="68">
+      <c r="Z6" s="67">
         <v>8</v>
       </c>
-      <c r="AA6" s="68">
+      <c r="AA6" s="67">
         <v>9</v>
       </c>
-      <c r="AB6" s="68">
+      <c r="AB6" s="67">
         <v>10</v>
       </c>
     </row>
@@ -4053,95 +4059,95 @@
       <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="63">
         <f t="shared" ref="C7:I7" si="2">C4-C5-C6</f>
         <v>-0.22436299999999998</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="69">
         <f t="shared" si="2"/>
         <v>-0.23580300000000007</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="63">
         <f t="shared" si="2"/>
         <v>-0.16136</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="69">
         <f t="shared" si="2"/>
         <v>-0.47894199999999998</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="63">
         <f t="shared" si="2"/>
         <v>1.0998739999999998</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="69">
         <f t="shared" si="2"/>
         <v>4.0251260000000002</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="63">
         <f t="shared" si="2"/>
         <v>1.511000000000001</v>
       </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="64">
+      <c r="J7" s="70"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="63">
         <f>N4-N5-N6</f>
         <v>-0.535883</v>
       </c>
-      <c r="O7" s="64">
+      <c r="O7" s="63">
         <f>O4-O5-O6</f>
         <v>-0.46016600000000002</v>
       </c>
-      <c r="P7" s="64">
+      <c r="P7" s="63">
         <f>P4-P5-P6</f>
         <v>-0.64030199999999993</v>
       </c>
-      <c r="Q7" s="64">
+      <c r="Q7" s="63">
         <f>Q4-Q5-Q6</f>
         <v>5.1250000000000018</v>
       </c>
-      <c r="R7" s="72">
+      <c r="R7" s="71">
         <f>R4*0.31</f>
         <v>6.3457000000000008</v>
       </c>
-      <c r="S7" s="72">
+      <c r="S7" s="71">
         <f t="shared" ref="S7:AB7" si="3">S4*0.31</f>
         <v>7.932125000000001</v>
       </c>
-      <c r="T7" s="72">
+      <c r="T7" s="71">
         <f t="shared" si="3"/>
         <v>9.9151562500000008</v>
       </c>
-      <c r="U7" s="72">
+      <c r="U7" s="71">
         <f t="shared" si="3"/>
         <v>12.393945312500001</v>
       </c>
-      <c r="V7" s="72">
+      <c r="V7" s="71">
         <f t="shared" si="3"/>
         <v>15.492431640625002</v>
       </c>
-      <c r="W7" s="72">
+      <c r="W7" s="71">
         <f t="shared" si="3"/>
         <v>19.365539550781254</v>
       </c>
-      <c r="X7" s="72">
+      <c r="X7" s="71">
         <f t="shared" si="3"/>
         <v>24.206924438476566</v>
       </c>
-      <c r="Y7" s="72">
+      <c r="Y7" s="71">
         <f t="shared" si="3"/>
         <v>30.258655548095707</v>
       </c>
-      <c r="Z7" s="72">
+      <c r="Z7" s="71">
         <f t="shared" si="3"/>
         <v>37.823319435119636</v>
       </c>
-      <c r="AA7" s="72">
+      <c r="AA7" s="71">
         <f t="shared" si="3"/>
         <v>47.279149293899543</v>
       </c>
-      <c r="AB7" s="72">
+      <c r="AB7" s="71">
         <f t="shared" si="3"/>
         <v>59.098936617374427</v>
       </c>
@@ -4150,77 +4156,77 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="66">
-        <v>0</v>
-      </c>
-      <c r="D8" s="73">
+      <c r="C8" s="65">
+        <v>0</v>
+      </c>
+      <c r="D8" s="72">
         <f>O8-C8</f>
         <v>0</v>
       </c>
-      <c r="E8" s="66">
-        <v>0</v>
-      </c>
-      <c r="F8" s="73">
+      <c r="E8" s="65">
+        <v>0</v>
+      </c>
+      <c r="F8" s="72">
         <f>P8-E8</f>
         <v>0.62167300000000003</v>
       </c>
-      <c r="G8" s="66">
-        <v>0</v>
-      </c>
-      <c r="H8" s="73">
+      <c r="G8" s="65">
+        <v>0</v>
+      </c>
+      <c r="H8" s="72">
         <f>Q8-G8</f>
         <v>0.41399999999999998</v>
       </c>
-      <c r="I8" s="68">
-        <v>0</v>
-      </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="66">
-        <v>0</v>
-      </c>
-      <c r="O8" s="66">
-        <v>0</v>
-      </c>
-      <c r="P8" s="66">
+      <c r="I8" s="67">
+        <v>0</v>
+      </c>
+      <c r="J8" s="70"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="65">
+        <v>0</v>
+      </c>
+      <c r="O8" s="65">
+        <v>0</v>
+      </c>
+      <c r="P8" s="65">
         <v>0.62167300000000003</v>
       </c>
-      <c r="Q8" s="66">
+      <c r="Q8" s="65">
         <v>0.41399999999999998</v>
       </c>
-      <c r="R8" s="68">
-        <v>0</v>
-      </c>
-      <c r="S8" s="68">
-        <v>0</v>
-      </c>
-      <c r="T8" s="68">
-        <v>0</v>
-      </c>
-      <c r="U8" s="68">
-        <v>0</v>
-      </c>
-      <c r="V8" s="68">
-        <v>0</v>
-      </c>
-      <c r="W8" s="68">
-        <v>0</v>
-      </c>
-      <c r="X8" s="68">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="68">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="68">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="68">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="68">
+      <c r="R8" s="67">
+        <v>0</v>
+      </c>
+      <c r="S8" s="67">
+        <v>0</v>
+      </c>
+      <c r="T8" s="67">
+        <v>0</v>
+      </c>
+      <c r="U8" s="67">
+        <v>0</v>
+      </c>
+      <c r="V8" s="67">
+        <v>0</v>
+      </c>
+      <c r="W8" s="67">
+        <v>0</v>
+      </c>
+      <c r="X8" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="67">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="67">
         <v>0</v>
       </c>
     </row>
@@ -4228,77 +4234,77 @@
       <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="66">
-        <v>0</v>
-      </c>
-      <c r="D9" s="73">
+      <c r="C9" s="65">
+        <v>0</v>
+      </c>
+      <c r="D9" s="72">
         <f>O9-C9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="66">
-        <v>0</v>
-      </c>
-      <c r="F9" s="73">
+      <c r="E9" s="65">
+        <v>0</v>
+      </c>
+      <c r="F9" s="72">
         <f>P9-E9</f>
         <v>0.17971799999999999</v>
       </c>
-      <c r="G9" s="66">
-        <v>0</v>
-      </c>
-      <c r="H9" s="73">
+      <c r="G9" s="65">
+        <v>0</v>
+      </c>
+      <c r="H9" s="72">
         <f>Q9-G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="68">
-        <v>0</v>
-      </c>
-      <c r="J9" s="71"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="66">
-        <v>0</v>
-      </c>
-      <c r="O9" s="66">
-        <v>0</v>
-      </c>
-      <c r="P9" s="66">
+      <c r="I9" s="67">
+        <v>0</v>
+      </c>
+      <c r="J9" s="70"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="65">
+        <v>0</v>
+      </c>
+      <c r="O9" s="65">
+        <v>0</v>
+      </c>
+      <c r="P9" s="65">
         <v>0.17971799999999999</v>
       </c>
-      <c r="Q9" s="66">
-        <v>0</v>
-      </c>
-      <c r="R9" s="68">
-        <v>0</v>
-      </c>
-      <c r="S9" s="68">
-        <v>0</v>
-      </c>
-      <c r="T9" s="68">
-        <v>0</v>
-      </c>
-      <c r="U9" s="68">
-        <v>0</v>
-      </c>
-      <c r="V9" s="68">
-        <v>0</v>
-      </c>
-      <c r="W9" s="68">
-        <v>0</v>
-      </c>
-      <c r="X9" s="68">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="68">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="68">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="68">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="68">
+      <c r="Q9" s="65">
+        <v>0</v>
+      </c>
+      <c r="R9" s="67">
+        <v>0</v>
+      </c>
+      <c r="S9" s="67">
+        <v>0</v>
+      </c>
+      <c r="T9" s="67">
+        <v>0</v>
+      </c>
+      <c r="U9" s="67">
+        <v>0</v>
+      </c>
+      <c r="V9" s="67">
+        <v>0</v>
+      </c>
+      <c r="W9" s="67">
+        <v>0</v>
+      </c>
+      <c r="X9" s="67">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="67">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="67">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="67">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="67">
         <v>0</v>
       </c>
     </row>
@@ -4306,87 +4312,87 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="66">
         <v>0.96812500000000001</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="72">
         <f>O10-C10</f>
         <v>0.97057000000000004</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="66">
         <v>1.0099990000000001</v>
       </c>
-      <c r="F10" s="73">
+      <c r="F10" s="72">
         <f>P10-E10</f>
         <v>1.2030096000000001</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="66">
         <v>1.299544</v>
       </c>
-      <c r="H10" s="73">
+      <c r="H10" s="72">
         <f>Q10-G10</f>
         <v>1.2534559999999999</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="67">
         <v>1.395</v>
       </c>
-      <c r="J10" s="71"/>
+      <c r="J10" s="70"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="67">
+      <c r="M10" s="67"/>
+      <c r="N10" s="66">
         <v>2.213695</v>
       </c>
-      <c r="O10" s="67">
+      <c r="O10" s="66">
         <v>1.9386950000000001</v>
       </c>
-      <c r="P10" s="67">
+      <c r="P10" s="66">
         <v>2.2130086000000002</v>
       </c>
-      <c r="Q10" s="67">
+      <c r="Q10" s="66">
         <v>2.5529999999999999</v>
       </c>
-      <c r="R10" s="68">
+      <c r="R10" s="67">
         <f>Q10*1</f>
         <v>2.5529999999999999</v>
       </c>
-      <c r="S10" s="68">
+      <c r="S10" s="67">
         <f t="shared" ref="S10:AB10" si="4">R10*1</f>
         <v>2.5529999999999999</v>
       </c>
-      <c r="T10" s="68">
+      <c r="T10" s="67">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="U10" s="68">
+      <c r="U10" s="67">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="V10" s="68">
+      <c r="V10" s="67">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="W10" s="68">
+      <c r="W10" s="67">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="X10" s="68">
+      <c r="X10" s="67">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="Y10" s="68">
+      <c r="Y10" s="67">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="Z10" s="68">
+      <c r="Z10" s="67">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="AA10" s="68">
+      <c r="AA10" s="67">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
-      <c r="AB10" s="68">
+      <c r="AB10" s="67">
         <f t="shared" si="4"/>
         <v>2.5529999999999999</v>
       </c>
@@ -4395,77 +4401,77 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="67">
-        <v>0</v>
-      </c>
-      <c r="D11" s="73">
+      <c r="C11" s="66">
+        <v>0</v>
+      </c>
+      <c r="D11" s="72">
         <f>O11-C11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="66">
         <v>0.100989</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="72">
         <f>P11-E11</f>
         <v>-0.100989</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="66">
         <v>6.0677000000000002E-2</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="72">
         <f>Q11-G11</f>
         <v>-6.0677000000000002E-2</v>
       </c>
-      <c r="I11" s="68">
-        <v>0</v>
-      </c>
-      <c r="J11" s="71"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="66">
-        <v>0</v>
-      </c>
-      <c r="O11" s="66">
-        <v>0</v>
-      </c>
-      <c r="P11" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="66">
-        <v>0</v>
-      </c>
-      <c r="R11" s="68">
-        <v>0</v>
-      </c>
-      <c r="S11" s="68">
+      <c r="I11" s="67">
+        <v>0</v>
+      </c>
+      <c r="J11" s="70"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="65">
+        <v>0</v>
+      </c>
+      <c r="O11" s="65">
+        <v>0</v>
+      </c>
+      <c r="P11" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="65">
+        <v>0</v>
+      </c>
+      <c r="R11" s="67">
+        <v>0</v>
+      </c>
+      <c r="S11" s="67">
         <v>1</v>
       </c>
-      <c r="T11" s="68">
+      <c r="T11" s="67">
         <v>2</v>
       </c>
-      <c r="U11" s="68">
+      <c r="U11" s="67">
         <v>3</v>
       </c>
-      <c r="V11" s="68">
+      <c r="V11" s="67">
         <v>4</v>
       </c>
-      <c r="W11" s="68">
+      <c r="W11" s="67">
         <v>5</v>
       </c>
-      <c r="X11" s="68">
+      <c r="X11" s="67">
         <v>6</v>
       </c>
-      <c r="Y11" s="68">
+      <c r="Y11" s="67">
         <v>7</v>
       </c>
-      <c r="Z11" s="68">
+      <c r="Z11" s="67">
         <v>8</v>
       </c>
-      <c r="AA11" s="68">
+      <c r="AA11" s="67">
         <v>9</v>
       </c>
-      <c r="AB11" s="68">
+      <c r="AB11" s="67">
         <v>10</v>
       </c>
     </row>
@@ -4473,87 +4479,87 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="66">
         <v>0.126301</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="72">
         <f>O12-C12</f>
         <v>-5.6579999999999991E-2</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="66">
         <v>7.4552999999999994E-2</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="72">
         <f>P12-E12</f>
         <v>2.8737000000000013E-2</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="66">
         <v>6.5929999999999999E-3</v>
       </c>
-      <c r="H12" s="73">
+      <c r="H12" s="72">
         <f>Q12-G12</f>
         <v>0.105407</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="67">
         <v>0.104</v>
       </c>
-      <c r="J12" s="71"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="67">
+      <c r="J12" s="70"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="66">
         <v>9.2290999999999998E-2</v>
       </c>
-      <c r="O12" s="67">
+      <c r="O12" s="66">
         <v>6.9721000000000005E-2</v>
       </c>
-      <c r="P12" s="67">
+      <c r="P12" s="66">
         <v>0.10329000000000001</v>
       </c>
-      <c r="Q12" s="67">
+      <c r="Q12" s="66">
         <v>0.112</v>
       </c>
-      <c r="R12" s="67">
+      <c r="R12" s="66">
         <f>Q12</f>
         <v>0.112</v>
       </c>
-      <c r="S12" s="67">
+      <c r="S12" s="66">
         <f t="shared" ref="S12:AB12" si="5">R12</f>
         <v>0.112</v>
       </c>
-      <c r="T12" s="67">
+      <c r="T12" s="66">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="U12" s="67">
+      <c r="U12" s="66">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="V12" s="67">
+      <c r="V12" s="66">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="W12" s="67">
+      <c r="W12" s="66">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="X12" s="67">
+      <c r="X12" s="66">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="Y12" s="67">
+      <c r="Y12" s="66">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="Z12" s="67">
+      <c r="Z12" s="66">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="AA12" s="67">
+      <c r="AA12" s="66">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
-      <c r="AB12" s="67">
+      <c r="AB12" s="66">
         <f t="shared" si="5"/>
         <v>0.112</v>
       </c>
@@ -4562,94 +4568,94 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="66">
         <f t="shared" ref="C13:H13" si="6">SUM(C8:C12)</f>
         <v>1.0944259999999999</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="72">
         <f t="shared" si="6"/>
         <v>0.91399000000000008</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="66">
         <f t="shared" si="6"/>
         <v>1.1855410000000002</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="72">
         <f t="shared" si="6"/>
         <v>1.9321486000000003</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="66">
         <f t="shared" si="6"/>
         <v>1.3668140000000002</v>
       </c>
-      <c r="H13" s="73">
+      <c r="H13" s="72">
         <f t="shared" si="6"/>
         <v>1.7121859999999998</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="67">
         <v>1.4990000000000001</v>
       </c>
-      <c r="J13" s="71"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="67">
+      <c r="J13" s="70"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="66">
         <f>SUM(N8:N12)</f>
         <v>2.3059859999999999</v>
       </c>
-      <c r="O13" s="67">
+      <c r="O13" s="66">
         <f>SUM(O8:O12)</f>
         <v>2.008416</v>
       </c>
-      <c r="P13" s="67">
+      <c r="P13" s="66">
         <f>SUM(P8:P12)</f>
         <v>3.1176895999999998</v>
       </c>
-      <c r="Q13" s="67">
+      <c r="Q13" s="66">
         <f>SUM(Q8:Q12)</f>
         <v>3.0790000000000002</v>
       </c>
-      <c r="R13" s="68">
+      <c r="R13" s="67">
         <f>Q13</f>
         <v>3.0790000000000002</v>
       </c>
-      <c r="S13" s="68">
+      <c r="S13" s="67">
         <f t="shared" ref="S13:AB13" si="7">R13</f>
         <v>3.0790000000000002</v>
       </c>
-      <c r="T13" s="68">
+      <c r="T13" s="67">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="U13" s="68">
+      <c r="U13" s="67">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="V13" s="68">
+      <c r="V13" s="67">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="W13" s="68">
+      <c r="W13" s="67">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="X13" s="68">
+      <c r="X13" s="67">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="Y13" s="68">
+      <c r="Y13" s="67">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="Z13" s="68">
+      <c r="Z13" s="67">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="AA13" s="68">
+      <c r="AA13" s="67">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="AB13" s="68">
+      <c r="AB13" s="67">
         <f t="shared" si="7"/>
         <v>3.0790000000000002</v>
       </c>
@@ -4658,95 +4664,95 @@
       <c r="B14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="63">
         <f t="shared" ref="C14:I14" si="8">C7-C13</f>
         <v>-1.3187889999999998</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="69">
         <f t="shared" si="8"/>
         <v>-1.1497930000000001</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="63">
         <f t="shared" si="8"/>
         <v>-1.3469010000000001</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="69">
         <f t="shared" si="8"/>
         <v>-2.4110906000000005</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="63">
         <f t="shared" si="8"/>
         <v>-0.2669400000000004</v>
       </c>
-      <c r="H14" s="70">
+      <c r="H14" s="69">
         <f t="shared" si="8"/>
         <v>2.3129400000000002</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="63">
         <f t="shared" si="8"/>
         <v>1.2000000000000899E-2</v>
       </c>
-      <c r="J14" s="71"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="64">
+      <c r="J14" s="70"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="63">
         <f>N7-N13</f>
         <v>-2.841869</v>
       </c>
-      <c r="O14" s="64">
+      <c r="O14" s="63">
         <f>O7-O13</f>
         <v>-2.4685820000000001</v>
       </c>
-      <c r="P14" s="64">
+      <c r="P14" s="63">
         <f>P7-P13</f>
         <v>-3.7579915999999995</v>
       </c>
-      <c r="Q14" s="64">
+      <c r="Q14" s="63">
         <f>Q7-Q13</f>
         <v>2.0460000000000016</v>
       </c>
-      <c r="R14" s="64">
+      <c r="R14" s="63">
         <f>R7-R13</f>
         <v>3.2667000000000006</v>
       </c>
-      <c r="S14" s="64">
+      <c r="S14" s="63">
         <f t="shared" ref="S14:AB14" si="9">S7-S13</f>
         <v>4.8531250000000004</v>
       </c>
-      <c r="T14" s="64">
+      <c r="T14" s="63">
         <f t="shared" si="9"/>
         <v>6.8361562500000002</v>
       </c>
-      <c r="U14" s="64">
+      <c r="U14" s="63">
         <f t="shared" si="9"/>
         <v>9.3149453125000008</v>
       </c>
-      <c r="V14" s="64">
+      <c r="V14" s="63">
         <f t="shared" si="9"/>
         <v>12.413431640625001</v>
       </c>
-      <c r="W14" s="64">
+      <c r="W14" s="63">
         <f t="shared" si="9"/>
         <v>16.286539550781253</v>
       </c>
-      <c r="X14" s="64">
+      <c r="X14" s="63">
         <f t="shared" si="9"/>
         <v>21.127924438476565</v>
       </c>
-      <c r="Y14" s="64">
+      <c r="Y14" s="63">
         <f t="shared" si="9"/>
         <v>27.179655548095706</v>
       </c>
-      <c r="Z14" s="64">
+      <c r="Z14" s="63">
         <f t="shared" si="9"/>
         <v>34.744319435119635</v>
       </c>
-      <c r="AA14" s="64">
+      <c r="AA14" s="63">
         <f t="shared" si="9"/>
         <v>44.200149293899543</v>
       </c>
-      <c r="AB14" s="64">
+      <c r="AB14" s="63">
         <f t="shared" si="9"/>
         <v>56.019936617374427</v>
       </c>
@@ -4755,88 +4761,88 @@
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="66">
         <v>1.1476E-2</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="72">
         <f>O15-C15</f>
         <v>1.4870999999999999E-2</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="66">
         <v>1.9810000000000001E-3</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="72">
         <f>P15-E15</f>
         <v>2.5770000000000003E-3</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="66">
         <v>1.7819999999999999E-3</v>
       </c>
-      <c r="H15" s="73">
+      <c r="H15" s="72">
         <f>Q15-G15</f>
         <v>4.0218000000000004E-2</v>
       </c>
-      <c r="I15" s="68">
+      <c r="I15" s="67">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J15" s="71"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="67">
+      <c r="J15" s="70"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="66">
         <v>2.3914999999999999E-2</v>
       </c>
-      <c r="O15" s="67">
+      <c r="O15" s="66">
         <v>2.6346999999999999E-2</v>
       </c>
-      <c r="P15" s="67">
+      <c r="P15" s="66">
         <v>4.5580000000000004E-3</v>
       </c>
-      <c r="Q15" s="67">
+      <c r="Q15" s="66">
         <f>0.002+0.04</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="R15" s="68">
+      <c r="R15" s="67">
         <f>Q15*1.08</f>
         <v>4.5360000000000004E-2</v>
       </c>
-      <c r="S15" s="68">
+      <c r="S15" s="67">
         <f t="shared" ref="S15:AB15" si="10">R15*1.08</f>
         <v>4.8988800000000006E-2</v>
       </c>
-      <c r="T15" s="68">
+      <c r="T15" s="67">
         <f t="shared" si="10"/>
         <v>5.2907904000000013E-2</v>
       </c>
-      <c r="U15" s="68">
+      <c r="U15" s="67">
         <f t="shared" si="10"/>
         <v>5.7140536320000018E-2</v>
       </c>
-      <c r="V15" s="68">
+      <c r="V15" s="67">
         <f t="shared" si="10"/>
         <v>6.1711779225600026E-2</v>
       </c>
-      <c r="W15" s="68">
+      <c r="W15" s="67">
         <f t="shared" si="10"/>
         <v>6.6648721563648039E-2</v>
       </c>
-      <c r="X15" s="68">
+      <c r="X15" s="67">
         <f t="shared" si="10"/>
         <v>7.1980619288739889E-2</v>
       </c>
-      <c r="Y15" s="68">
+      <c r="Y15" s="67">
         <f t="shared" si="10"/>
         <v>7.7739068831839078E-2</v>
       </c>
-      <c r="Z15" s="68">
+      <c r="Z15" s="67">
         <f t="shared" si="10"/>
         <v>8.3958194338386208E-2</v>
       </c>
-      <c r="AA15" s="68">
+      <c r="AA15" s="67">
         <f t="shared" si="10"/>
         <v>9.0674849885457112E-2</v>
       </c>
-      <c r="AB15" s="68">
+      <c r="AB15" s="67">
         <f t="shared" si="10"/>
         <v>9.7928837876293681E-2</v>
       </c>
@@ -4845,95 +4851,95 @@
       <c r="B16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="63">
         <f t="shared" ref="C16:I16" si="11">C14-C15</f>
         <v>-1.3302649999999998</v>
       </c>
-      <c r="D16" s="70">
+      <c r="D16" s="69">
         <f t="shared" si="11"/>
         <v>-1.1646640000000001</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="63">
         <f t="shared" si="11"/>
         <v>-1.3488820000000001</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="69">
         <f t="shared" si="11"/>
         <v>-2.4136676000000006</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="63">
         <f t="shared" si="11"/>
         <v>-0.2687220000000004</v>
       </c>
-      <c r="H16" s="70">
+      <c r="H16" s="69">
         <f t="shared" si="11"/>
         <v>2.2727220000000004</v>
       </c>
-      <c r="I16" s="64">
+      <c r="I16" s="63">
         <f t="shared" si="11"/>
         <v>9.0000000000008996E-3</v>
       </c>
-      <c r="J16" s="71"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="64">
+      <c r="J16" s="70"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="63">
         <f>N14-N15</f>
         <v>-2.8657840000000001</v>
       </c>
-      <c r="O16" s="64">
+      <c r="O16" s="63">
         <f>O14-O15</f>
         <v>-2.494929</v>
       </c>
-      <c r="P16" s="64">
+      <c r="P16" s="63">
         <f>P14-P15</f>
         <v>-3.7625495999999994</v>
       </c>
-      <c r="Q16" s="64">
+      <c r="Q16" s="63">
         <f>Q14-Q15</f>
         <v>2.0040000000000018</v>
       </c>
-      <c r="R16" s="64">
+      <c r="R16" s="63">
         <f>R14-R15</f>
         <v>3.2213400000000005</v>
       </c>
-      <c r="S16" s="64">
+      <c r="S16" s="63">
         <f t="shared" ref="S16:AB16" si="12">S14-S15</f>
         <v>4.8041362000000003</v>
       </c>
-      <c r="T16" s="64">
+      <c r="T16" s="63">
         <f t="shared" si="12"/>
         <v>6.7832483459999997</v>
       </c>
-      <c r="U16" s="64">
+      <c r="U16" s="63">
         <f t="shared" si="12"/>
         <v>9.2578047761800004</v>
       </c>
-      <c r="V16" s="64">
+      <c r="V16" s="63">
         <f t="shared" si="12"/>
         <v>12.351719861399401</v>
       </c>
-      <c r="W16" s="64">
+      <c r="W16" s="63">
         <f t="shared" si="12"/>
         <v>16.219890829217604</v>
       </c>
-      <c r="X16" s="64">
+      <c r="X16" s="63">
         <f t="shared" si="12"/>
         <v>21.055943819187824</v>
       </c>
-      <c r="Y16" s="64">
+      <c r="Y16" s="63">
         <f t="shared" si="12"/>
         <v>27.101916479263867</v>
       </c>
-      <c r="Z16" s="64">
+      <c r="Z16" s="63">
         <f t="shared" si="12"/>
         <v>34.660361240781249</v>
       </c>
-      <c r="AA16" s="64">
+      <c r="AA16" s="63">
         <f t="shared" si="12"/>
         <v>44.109474444014083</v>
       </c>
-      <c r="AB16" s="64">
+      <c r="AB16" s="63">
         <f t="shared" si="12"/>
         <v>55.922007779498131</v>
       </c>
@@ -4942,77 +4948,77 @@
       <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="66">
         <v>6.9477999999999998E-2</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="72">
         <f>O17-C17</f>
         <v>0.27539800000000003</v>
       </c>
-      <c r="E17" s="67">
-        <v>0</v>
-      </c>
-      <c r="F17" s="73">
+      <c r="E17" s="66">
+        <v>0</v>
+      </c>
+      <c r="F17" s="72">
         <f>P17-E17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="67">
-        <v>0</v>
-      </c>
-      <c r="H17" s="73">
+      <c r="G17" s="66">
+        <v>0</v>
+      </c>
+      <c r="H17" s="72">
         <f>Q17-G17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="67">
-        <v>0</v>
-      </c>
-      <c r="J17" s="73"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67">
+      <c r="I17" s="66">
+        <v>0</v>
+      </c>
+      <c r="J17" s="72"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66">
         <v>5.2276999999999997E-2</v>
       </c>
-      <c r="O17" s="67">
+      <c r="O17" s="66">
         <v>0.34487600000000002</v>
       </c>
-      <c r="P17" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="67">
-        <v>0</v>
-      </c>
-      <c r="R17" s="67">
+      <c r="P17" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="66">
+        <v>0</v>
+      </c>
+      <c r="R17" s="66">
         <v>-1</v>
       </c>
-      <c r="S17" s="67">
-        <v>0</v>
-      </c>
-      <c r="T17" s="67">
+      <c r="S17" s="66">
+        <v>0</v>
+      </c>
+      <c r="T17" s="66">
         <v>1</v>
       </c>
-      <c r="U17" s="67">
+      <c r="U17" s="66">
         <v>2</v>
       </c>
-      <c r="V17" s="67">
+      <c r="V17" s="66">
         <v>3</v>
       </c>
-      <c r="W17" s="67">
+      <c r="W17" s="66">
         <v>4</v>
       </c>
-      <c r="X17" s="67">
+      <c r="X17" s="66">
         <v>5</v>
       </c>
-      <c r="Y17" s="67">
+      <c r="Y17" s="66">
         <v>6</v>
       </c>
-      <c r="Z17" s="67">
+      <c r="Z17" s="66">
         <v>7</v>
       </c>
-      <c r="AA17" s="67">
+      <c r="AA17" s="66">
         <v>8</v>
       </c>
-      <c r="AB17" s="67">
+      <c r="AB17" s="66">
         <v>9</v>
       </c>
     </row>
@@ -5020,227 +5026,227 @@
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="63">
         <f t="shared" ref="C18:I18" si="13">C16+C17</f>
         <v>-1.2607869999999999</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="69">
         <f t="shared" si="13"/>
         <v>-0.88926600000000011</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="63">
         <f t="shared" si="13"/>
         <v>-1.3488820000000001</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="69">
         <f t="shared" si="13"/>
         <v>-2.4136676000000006</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="63">
         <f t="shared" si="13"/>
         <v>-0.2687220000000004</v>
       </c>
-      <c r="H18" s="70">
+      <c r="H18" s="69">
         <f t="shared" si="13"/>
         <v>2.2727220000000004</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="63">
         <f t="shared" si="13"/>
         <v>9.0000000000008996E-3</v>
       </c>
-      <c r="J18" s="71"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="64">
+      <c r="J18" s="70"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="63">
         <f>N16+N17</f>
         <v>-2.813507</v>
       </c>
-      <c r="O18" s="64">
+      <c r="O18" s="63">
         <f>O16+O17</f>
         <v>-2.1500529999999998</v>
       </c>
-      <c r="P18" s="64">
+      <c r="P18" s="63">
         <f>P16+P17</f>
         <v>-3.7625495999999994</v>
       </c>
-      <c r="Q18" s="64">
+      <c r="Q18" s="63">
         <f>Q16+Q17</f>
         <v>2.0040000000000018</v>
       </c>
-      <c r="R18" s="64">
+      <c r="R18" s="63">
         <f>R16+R17</f>
         <v>2.2213400000000005</v>
       </c>
-      <c r="S18" s="64">
+      <c r="S18" s="63">
         <f t="shared" ref="S18:AB18" si="14">S16+S17</f>
         <v>4.8041362000000003</v>
       </c>
-      <c r="T18" s="64">
+      <c r="T18" s="63">
         <f t="shared" si="14"/>
         <v>7.7832483459999997</v>
       </c>
-      <c r="U18" s="64">
+      <c r="U18" s="63">
         <f t="shared" si="14"/>
         <v>11.25780477618</v>
       </c>
-      <c r="V18" s="64">
+      <c r="V18" s="63">
         <f t="shared" si="14"/>
         <v>15.351719861399401</v>
       </c>
-      <c r="W18" s="64">
+      <c r="W18" s="63">
         <f t="shared" si="14"/>
         <v>20.219890829217604</v>
       </c>
-      <c r="X18" s="64">
+      <c r="X18" s="63">
         <f t="shared" si="14"/>
         <v>26.055943819187824</v>
       </c>
-      <c r="Y18" s="64">
+      <c r="Y18" s="63">
         <f t="shared" si="14"/>
         <v>33.101916479263863</v>
       </c>
-      <c r="Z18" s="64">
+      <c r="Z18" s="63">
         <f t="shared" si="14"/>
         <v>41.660361240781249</v>
       </c>
-      <c r="AA18" s="64">
+      <c r="AA18" s="63">
         <f t="shared" si="14"/>
         <v>52.109474444014083</v>
       </c>
-      <c r="AB18" s="64">
+      <c r="AB18" s="63">
         <f t="shared" si="14"/>
         <v>64.922007779498131</v>
       </c>
-      <c r="AC18" s="54">
+      <c r="AC18" s="53">
         <f t="shared" ref="AC18:BI18" si="15">AB18*(1+$AE$22)</f>
         <v>63.948177662805655</v>
       </c>
-      <c r="AD18" s="54">
+      <c r="AD18" s="53">
         <f t="shared" si="15"/>
         <v>62.988954997863573</v>
       </c>
-      <c r="AE18" s="54">
+      <c r="AE18" s="53">
         <f t="shared" si="15"/>
         <v>62.044120672895616</v>
       </c>
-      <c r="AF18" s="54">
+      <c r="AF18" s="53">
         <f t="shared" si="15"/>
         <v>61.113458862802183</v>
       </c>
-      <c r="AG18" s="54">
+      <c r="AG18" s="53">
         <f t="shared" si="15"/>
         <v>60.196756979860147</v>
       </c>
-      <c r="AH18" s="54">
+      <c r="AH18" s="53">
         <f t="shared" si="15"/>
         <v>59.293805625162243</v>
       </c>
-      <c r="AI18" s="54">
+      <c r="AI18" s="53">
         <f t="shared" si="15"/>
         <v>58.404398540784811</v>
       </c>
-      <c r="AJ18" s="54">
+      <c r="AJ18" s="53">
         <f t="shared" si="15"/>
         <v>57.528332562673036</v>
       </c>
-      <c r="AK18" s="54">
+      <c r="AK18" s="53">
         <f t="shared" si="15"/>
         <v>56.665407574232937</v>
       </c>
-      <c r="AL18" s="54">
+      <c r="AL18" s="53">
         <f t="shared" si="15"/>
         <v>55.815426460619442</v>
       </c>
-      <c r="AM18" s="54">
+      <c r="AM18" s="53">
         <f t="shared" si="15"/>
         <v>54.978195063710146</v>
       </c>
-      <c r="AN18" s="54">
+      <c r="AN18" s="53">
         <f t="shared" si="15"/>
         <v>54.153522137754493</v>
       </c>
-      <c r="AO18" s="54">
+      <c r="AO18" s="53">
         <f t="shared" si="15"/>
         <v>53.341219305688178</v>
       </c>
-      <c r="AP18" s="54">
+      <c r="AP18" s="53">
         <f t="shared" si="15"/>
         <v>52.541101016102857</v>
       </c>
-      <c r="AQ18" s="54">
+      <c r="AQ18" s="53">
         <f t="shared" si="15"/>
         <v>51.752984500861317</v>
       </c>
-      <c r="AR18" s="54">
+      <c r="AR18" s="53">
         <f t="shared" si="15"/>
         <v>50.976689733348394</v>
       </c>
-      <c r="AS18" s="54">
+      <c r="AS18" s="53">
         <f t="shared" si="15"/>
         <v>50.21203938734817</v>
       </c>
-      <c r="AT18" s="54">
+      <c r="AT18" s="53">
         <f t="shared" si="15"/>
         <v>49.458858796537946</v>
       </c>
-      <c r="AU18" s="54">
+      <c r="AU18" s="53">
         <f t="shared" si="15"/>
         <v>48.716975914589874</v>
       </c>
-      <c r="AV18" s="54">
+      <c r="AV18" s="53">
         <f t="shared" si="15"/>
         <v>47.986221275871024</v>
       </c>
-      <c r="AW18" s="54">
+      <c r="AW18" s="53">
         <f t="shared" si="15"/>
         <v>47.266427956732961</v>
       </c>
-      <c r="AX18" s="54">
+      <c r="AX18" s="53">
         <f t="shared" si="15"/>
         <v>46.557431537381966</v>
       </c>
-      <c r="AY18" s="54">
+      <c r="AY18" s="53">
         <f t="shared" si="15"/>
         <v>45.859070064321237</v>
       </c>
-      <c r="AZ18" s="54">
+      <c r="AZ18" s="53">
         <f t="shared" si="15"/>
         <v>45.171184013356417</v>
       </c>
-      <c r="BA18" s="54">
+      <c r="BA18" s="53">
         <f t="shared" si="15"/>
         <v>44.49361625315607</v>
       </c>
-      <c r="BB18" s="54">
+      <c r="BB18" s="53">
         <f t="shared" si="15"/>
         <v>43.826212009358727</v>
       </c>
-      <c r="BC18" s="54">
+      <c r="BC18" s="53">
         <f t="shared" si="15"/>
         <v>43.168818829218345</v>
       </c>
-      <c r="BD18" s="54">
+      <c r="BD18" s="53">
         <f t="shared" si="15"/>
         <v>42.521286546780068</v>
       </c>
-      <c r="BE18" s="54">
+      <c r="BE18" s="53">
         <f t="shared" si="15"/>
         <v>41.88346724857837</v>
       </c>
-      <c r="BF18" s="54">
+      <c r="BF18" s="53">
         <f t="shared" si="15"/>
         <v>41.255215239849697</v>
       </c>
-      <c r="BG18" s="54">
+      <c r="BG18" s="53">
         <f t="shared" si="15"/>
         <v>40.636387011251948</v>
       </c>
-      <c r="BH18" s="54">
+      <c r="BH18" s="53">
         <f t="shared" si="15"/>
         <v>40.026841206083169</v>
       </c>
-      <c r="BI18" s="54">
+      <c r="BI18" s="53">
         <f t="shared" si="15"/>
         <v>39.426438587991925</v>
       </c>
@@ -5249,95 +5255,95 @@
       <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="66">
         <f t="shared" ref="C19:I19" si="16">(C18/C20)</f>
         <v>-5.8309467350935564E-3</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="72">
         <f t="shared" si="16"/>
         <v>-3.6932717437238396E-3</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="66">
         <f t="shared" si="16"/>
         <v>-3.9258307454951135E-3</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="72">
         <f t="shared" si="16"/>
         <v>-4.6611916836287381E-3</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="66">
         <f t="shared" si="16"/>
         <v>-4.0439192608093311E-4</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="72">
         <f t="shared" si="16"/>
         <v>3.1971802850663715E-3</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="66">
         <f t="shared" si="16"/>
         <v>1.1621600681801736E-5</v>
       </c>
-      <c r="J19" s="71"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="67">
+      <c r="J19" s="70"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="66">
         <f>(N18/N20)</f>
         <v>-1.7770826388743045E-2</v>
       </c>
-      <c r="O19" s="67">
+      <c r="O19" s="66">
         <f>(O18/O20)</f>
         <v>-8.9295328871323888E-3</v>
       </c>
-      <c r="P19" s="67">
+      <c r="P19" s="66">
         <f>(P18/P20)</f>
         <v>-7.2661061136838519E-3</v>
       </c>
-      <c r="Q19" s="67">
+      <c r="Q19" s="66">
         <f>(Q18/Q20)</f>
         <v>2.8191522285932963E-3</v>
       </c>
-      <c r="R19" s="67">
+      <c r="R19" s="66">
         <f>(R18/R20)</f>
         <v>3.1248980097122897E-3</v>
       </c>
-      <c r="S19" s="67">
+      <c r="S19" s="66">
         <f t="shared" ref="S19:AB19" si="17">(S18/S20)</f>
         <v>6.7582790791894803E-3</v>
       </c>
-      <c r="T19" s="67">
+      <c r="T19" s="66">
         <f t="shared" si="17"/>
         <v>1.0949182594970542E-2</v>
       </c>
-      <c r="U19" s="67">
+      <c r="U19" s="66">
         <f t="shared" si="17"/>
         <v>1.583705859472858E-2</v>
       </c>
-      <c r="V19" s="67">
+      <c r="V19" s="66">
         <f t="shared" si="17"/>
         <v>2.1596225179642742E-2</v>
       </c>
-      <c r="W19" s="67">
+      <c r="W19" s="66">
         <f t="shared" si="17"/>
         <v>2.8444585974601751E-2</v>
       </c>
-      <c r="X19" s="67">
+      <c r="X19" s="66">
         <f t="shared" si="17"/>
         <v>3.6654526989004496E-2</v>
       </c>
-      <c r="Y19" s="67">
+      <c r="Y19" s="66">
         <f t="shared" si="17"/>
         <v>4.6566537731150597E-2</v>
       </c>
-      <c r="Z19" s="67">
+      <c r="Z19" s="66">
         <f t="shared" si="17"/>
         <v>5.8606237642689692E-2</v>
       </c>
-      <c r="AA19" s="67">
+      <c r="AA19" s="66">
         <f t="shared" si="17"/>
         <v>7.330565918646087E-2</v>
       </c>
-      <c r="AB19" s="67">
+      <c r="AB19" s="66">
         <f t="shared" si="17"/>
         <v>9.1329851754652344E-2</v>
       </c>
@@ -5346,87 +5352,87 @@
       <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="66">
         <v>216.223378</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="72">
         <f>O20</f>
         <v>240.78000800000001</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="66">
         <v>343.59148099999999</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="72">
         <f>P20</f>
         <v>517.822</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="66">
         <v>664.50881600000002</v>
       </c>
-      <c r="H20" s="71">
+      <c r="H20" s="70">
         <f>Q20</f>
         <v>710.85199999999998</v>
       </c>
-      <c r="I20" s="68">
+      <c r="I20" s="67">
         <v>774.42</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="67">
+      <c r="J20" s="70"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="66">
         <v>158.321675</v>
       </c>
-      <c r="O20" s="67">
+      <c r="O20" s="66">
         <v>240.78000800000001</v>
       </c>
-      <c r="P20" s="67">
+      <c r="P20" s="66">
         <v>517.822</v>
       </c>
-      <c r="Q20" s="67">
+      <c r="Q20" s="66">
         <v>710.85199999999998</v>
       </c>
-      <c r="R20" s="67">
+      <c r="R20" s="66">
         <f>Q20</f>
         <v>710.85199999999998</v>
       </c>
-      <c r="S20" s="67">
+      <c r="S20" s="66">
         <f t="shared" ref="S20:AB20" si="18">R20</f>
         <v>710.85199999999998</v>
       </c>
-      <c r="T20" s="67">
+      <c r="T20" s="66">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="U20" s="67">
+      <c r="U20" s="66">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="V20" s="67">
+      <c r="V20" s="66">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="W20" s="67">
+      <c r="W20" s="66">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="X20" s="67">
+      <c r="X20" s="66">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="Y20" s="67">
+      <c r="Y20" s="66">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="Z20" s="67">
+      <c r="Z20" s="66">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="AA20" s="67">
+      <c r="AA20" s="66">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
-      <c r="AB20" s="67">
+      <c r="AB20" s="66">
         <f t="shared" si="18"/>
         <v>710.85199999999998</v>
       </c>
@@ -5439,7 +5445,7 @@
         <f t="shared" ref="C22:H22" si="19">C7/C4</f>
         <v>-14.275179741680983</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="33">
         <f t="shared" si="19"/>
         <v>-14.508275395311639</v>
       </c>
@@ -5447,7 +5453,7 @@
         <f t="shared" si="19"/>
         <v>-12.698512630833399</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="33">
         <f t="shared" si="19"/>
         <v>-13.024284121502188</v>
       </c>
@@ -5455,11 +5461,11 @@
         <f t="shared" si="19"/>
         <v>0.33592708936226096</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="33">
         <f t="shared" si="19"/>
         <v>0.30721802370732998</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="36">
         <v>0.31</v>
       </c>
       <c r="N22" s="16">
@@ -5522,10 +5528,10 @@
         <f t="shared" si="20"/>
         <v>0.31</v>
       </c>
-      <c r="AD22" s="42" t="s">
+      <c r="AD22" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="AE22" s="47">
+      <c r="AE22" s="46">
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
@@ -5537,7 +5543,7 @@
         <f t="shared" ref="C23:H23" si="21">C14/C4</f>
         <v>-83.908443087103137</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="33">
         <f t="shared" si="21"/>
         <v>-70.743431981787978</v>
       </c>
@@ -5545,7 +5551,7 @@
         <f t="shared" si="21"/>
         <v>-105.99677343196664</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="33">
         <f t="shared" si="21"/>
         <v>-65.566872433578993</v>
       </c>
@@ -5553,7 +5559,7 @@
         <f t="shared" si="21"/>
         <v>-8.1529681794789297E-2</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="33">
         <f t="shared" si="21"/>
         <v>0.1765353074049438</v>
       </c>
@@ -5621,10 +5627,10 @@
         <f t="shared" si="23"/>
         <v>0.2938492863893698</v>
       </c>
-      <c r="AD23" s="43" t="s">
+      <c r="AD23" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="AE23" s="48">
+      <c r="AE23" s="47">
         <v>0.15</v>
       </c>
     </row>
@@ -5636,7 +5642,7 @@
         <f t="shared" ref="C24:H24" si="24">C18/C4</f>
         <v>-80.218044156009412</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="33">
         <f t="shared" si="24"/>
         <v>-54.713960499600077</v>
       </c>
@@ -5644,7 +5650,7 @@
         <f t="shared" si="24"/>
         <v>-106.15267175572521</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="33">
         <f t="shared" si="24"/>
         <v>-65.636951023849036</v>
       </c>
@@ -5652,7 +5658,7 @@
         <f t="shared" si="24"/>
         <v>-8.2073946022549527E-2</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="33">
         <f t="shared" si="24"/>
         <v>0.17346566573969871</v>
       </c>
@@ -5720,10 +5726,10 @@
         <f t="shared" si="26"/>
         <v>0.34054457767904495</v>
       </c>
-      <c r="AD24" s="43" t="s">
+      <c r="AD24" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="AE24" s="49">
+      <c r="AE24" s="48">
         <f>NPV(AE23,Q18:BI18)</f>
         <v>154.42854876708077</v>
       </c>
@@ -5736,7 +5742,7 @@
         <f t="shared" ref="C25:H25" si="27">C17/C16</f>
         <v>-5.222869127579844E-2</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="33">
         <f t="shared" si="27"/>
         <v>-0.23646133133676323</v>
       </c>
@@ -5744,7 +5750,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="33">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -5752,7 +5758,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="33">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -5820,21 +5826,21 @@
         <f t="shared" si="29"/>
         <v>0.1609384275952184</v>
       </c>
-      <c r="AD25" s="43" t="s">
+      <c r="AD25" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AE25" s="50">
+      <c r="AE25" s="49">
         <f>Main!C11</f>
-        <v>7</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="26" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="AD26" s="43" t="s">
+      <c r="AD26" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="AE26" s="51">
+      <c r="AE26" s="50">
         <f>AE25+AE24</f>
-        <v>161.42854876708077</v>
+        <v>162.17854876708077</v>
       </c>
     </row>
     <row r="27" spans="2:61" x14ac:dyDescent="0.25">
@@ -5844,15 +5850,15 @@
       <c r="C27" s="15">
         <v>0</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="34">
         <f t="shared" ref="D27:I27" si="30">D4/C4-1</f>
         <v>3.410320035630221E-2</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="36">
         <f t="shared" si="30"/>
         <v>-0.21817510613425217</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="34">
         <f t="shared" si="30"/>
         <v>1.893916738805383</v>
       </c>
@@ -5860,7 +5866,7 @@
         <f t="shared" si="30"/>
         <v>88.036657330106323</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="34">
         <f t="shared" si="30"/>
         <v>3.0016111076326801</v>
       </c>
@@ -5868,115 +5874,115 @@
         <f t="shared" si="30"/>
         <v>-0.24957191176363958</v>
       </c>
-      <c r="AD27" s="45" t="s">
+      <c r="AD27" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="AE27" s="53">
+      <c r="AE27" s="52">
         <f>AE26/Main!C7</f>
-        <v>3.1040370104811132</v>
-      </c>
-      <c r="AG27" s="96"/>
+        <v>3.1184584233950075</v>
+      </c>
+      <c r="AG27" s="95"/>
     </row>
     <row r="28" spans="2:61" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="91">
-        <v>0</v>
-      </c>
-      <c r="D28" s="92">
-        <v>0</v>
-      </c>
-      <c r="E28" s="93">
+      <c r="C28" s="90">
+        <v>0</v>
+      </c>
+      <c r="D28" s="91">
+        <v>0</v>
+      </c>
+      <c r="E28" s="92">
         <f>E4/C4-1</f>
         <v>-0.19151237513520392</v>
       </c>
-      <c r="F28" s="94">
+      <c r="F28" s="93">
         <f>F4/D4-1</f>
         <v>1.2625361471728298</v>
       </c>
-      <c r="G28" s="93">
+      <c r="G28" s="92">
         <f>G4/E4-1</f>
         <v>256.6646730148737</v>
       </c>
-      <c r="H28" s="94">
+      <c r="H28" s="93">
         <f>H4/F4-1</f>
         <v>355.29007695863817</v>
       </c>
-      <c r="I28" s="93">
+      <c r="I28" s="92">
         <f>I4/G4-1</f>
         <v>2.0029213733661768</v>
       </c>
-      <c r="J28" s="61"/>
-      <c r="K28" s="93">
+      <c r="J28" s="60"/>
+      <c r="K28" s="92">
         <f>K4/I4-1</f>
         <v>-0.7457282343368592</v>
       </c>
-      <c r="N28" s="91">
-        <v>0</v>
-      </c>
-      <c r="O28" s="93">
+      <c r="N28" s="90">
+        <v>0</v>
+      </c>
+      <c r="O28" s="92">
         <f>O4/N4-1</f>
         <v>5.6081025217031826</v>
       </c>
-      <c r="P28" s="93">
+      <c r="P28" s="92">
         <f>P4/O4-1</f>
         <v>0.54770096965905557</v>
       </c>
-      <c r="Q28" s="93">
+      <c r="Q28" s="92">
         <f>Q4/P4-1</f>
         <v>329.9620048504446</v>
       </c>
-      <c r="R28" s="93">
+      <c r="R28" s="92">
         <f>R4/Q4-1</f>
         <v>0.25</v>
       </c>
-      <c r="S28" s="93">
+      <c r="S28" s="92">
         <f t="shared" ref="S28:T28" si="31">S4/R4-1</f>
         <v>0.25</v>
       </c>
-      <c r="T28" s="93">
+      <c r="T28" s="92">
         <f t="shared" si="31"/>
         <v>0.25</v>
       </c>
-      <c r="U28" s="93">
+      <c r="U28" s="92">
         <f t="shared" ref="U28:AB28" si="32">U4/T4-1</f>
         <v>0.25</v>
       </c>
-      <c r="V28" s="93">
+      <c r="V28" s="92">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="W28" s="93">
+      <c r="W28" s="92">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="X28" s="93">
+      <c r="X28" s="92">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="Y28" s="93">
+      <c r="Y28" s="92">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="Z28" s="93">
+      <c r="Z28" s="92">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="AA28" s="93">
+      <c r="AA28" s="92">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="AB28" s="93">
+      <c r="AB28" s="92">
         <f t="shared" si="32"/>
         <v>0.25</v>
       </c>
-      <c r="AD28" s="45" t="s">
+      <c r="AD28" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="AE28" s="95">
+      <c r="AE28" s="94">
         <f>Main!C6</f>
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="29" spans="2:61" x14ac:dyDescent="0.25">
@@ -5986,7 +5992,7 @@
       <c r="C29" s="15">
         <v>0</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="35">
         <f t="shared" ref="D29:I29" si="33">D18/C18-1</f>
         <v>-0.29467388226560065</v>
       </c>
@@ -5994,7 +6000,7 @@
         <f t="shared" si="33"/>
         <v>0.51684872692760098</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="35">
         <f t="shared" si="33"/>
         <v>0.78938380080689075</v>
       </c>
@@ -6002,7 +6008,7 @@
         <f t="shared" si="33"/>
         <v>-0.8886665255812356</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="35">
         <f t="shared" si="33"/>
         <v>-9.4575211556924881</v>
       </c>
@@ -6033,76 +6039,76 @@
       <c r="Z29" s="17"/>
       <c r="AA29" s="17"/>
       <c r="AB29" s="17"/>
-      <c r="AD29" s="43"/>
-      <c r="AE29" s="44"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="43"/>
     </row>
     <row r="30" spans="2:61" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="91">
-        <v>0</v>
-      </c>
-      <c r="D30" s="92">
-        <v>0</v>
-      </c>
-      <c r="E30" s="93">
+      <c r="C30" s="90">
+        <v>0</v>
+      </c>
+      <c r="D30" s="91">
+        <v>0</v>
+      </c>
+      <c r="E30" s="92">
         <f>E18/C18-1</f>
         <v>6.9873023754210895E-2</v>
       </c>
-      <c r="F30" s="94">
+      <c r="F30" s="93">
         <f>F18/D18-1</f>
         <v>1.7142245402388041</v>
       </c>
-      <c r="G30" s="93">
+      <c r="G30" s="92">
         <f>G18/E18-1</f>
         <v>-0.80078168438751474</v>
       </c>
-      <c r="H30" s="94">
+      <c r="H30" s="93">
         <f>H18/F18-1</f>
         <v>-1.941605215233448</v>
       </c>
-      <c r="I30" s="93">
+      <c r="I30" s="92">
         <f>I18/G18-1</f>
         <v>-1.0334918614776643</v>
       </c>
-      <c r="J30" s="61"/>
-      <c r="N30" s="91">
-        <v>0</v>
-      </c>
-      <c r="O30" s="93">
+      <c r="J30" s="60"/>
+      <c r="N30" s="90">
+        <v>0</v>
+      </c>
+      <c r="O30" s="92">
         <f>O18/N18-1</f>
         <v>-0.23581032497875432</v>
       </c>
-      <c r="P30" s="93">
+      <c r="P30" s="92">
         <f>P18/O18-1</f>
         <v>0.74997993072728897</v>
       </c>
-      <c r="Q30" s="93">
+      <c r="Q30" s="92">
         <f>Q18/P18-1</f>
         <v>-1.5326175633671386</v>
       </c>
-      <c r="R30" s="93"/>
-      <c r="S30" s="93"/>
-      <c r="T30" s="93"/>
-      <c r="U30" s="93"/>
-      <c r="V30" s="93"/>
-      <c r="W30" s="93"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="93"/>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="93"/>
-      <c r="AB30" s="93"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="95"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="92"/>
+      <c r="Z30" s="92"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="92"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="94"/>
     </row>
     <row r="31" spans="2:61" x14ac:dyDescent="0.25">
       <c r="C31" s="15"/>
-      <c r="D31" s="62"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="36"/>
+      <c r="F31" s="35"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="36"/>
+      <c r="H31" s="35"/>
       <c r="N31" s="15"/>
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
@@ -6118,20 +6124,20 @@
       <c r="Z31" s="17"/>
       <c r="AA31" s="17"/>
       <c r="AB31" s="17"/>
-      <c r="AD31" s="43"/>
-      <c r="AE31" s="44"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="43"/>
     </row>
     <row r="32" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="AD32" s="46" t="s">
+      <c r="AD32" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="AE32" s="52">
+      <c r="AE32" s="51">
         <f>AE27/AE28</f>
-        <v>12.416148041924453</v>
+        <v>23.988141718423133</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6139,33 +6145,33 @@
       <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="57">
+      <c r="D34" s="56">
         <v>0.25986100000000001</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="54">
         <v>7.0184999999999997E-2</v>
       </c>
-      <c r="F34" s="57">
+      <c r="F34" s="56">
         <f t="shared" ref="F34:F40" si="34">P34</f>
         <v>5.5516999999999997E-2</v>
       </c>
-      <c r="G34" s="55">
+      <c r="G34" s="54">
         <v>0.15177399999999999</v>
       </c>
-      <c r="H34" s="57">
+      <c r="H34" s="56">
         <f>Q34</f>
         <v>0.16300000000000001</v>
       </c>
-      <c r="I34" s="55">
+      <c r="I34" s="54">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="O34" s="55">
+      <c r="O34" s="54">
         <v>0.25986100000000001</v>
       </c>
-      <c r="P34" s="55">
+      <c r="P34" s="54">
         <v>5.5516999999999997E-2</v>
       </c>
-      <c r="Q34" s="55">
+      <c r="Q34" s="54">
         <v>0.16300000000000001</v>
       </c>
     </row>
@@ -6173,33 +6179,33 @@
       <c r="B35" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="57">
+      <c r="D35" s="56">
         <v>0.44419799999999998</v>
       </c>
-      <c r="E35" s="56">
-        <v>0</v>
-      </c>
-      <c r="F35" s="57">
+      <c r="E35" s="55">
+        <v>0</v>
+      </c>
+      <c r="F35" s="56">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G35" s="56">
-        <v>0</v>
-      </c>
-      <c r="H35" s="57">
+      <c r="G35" s="55">
+        <v>0</v>
+      </c>
+      <c r="H35" s="56">
         <f>Q35</f>
         <v>0</v>
       </c>
-      <c r="I35" s="40">
+      <c r="I35" s="39">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="O35" s="56">
+      <c r="O35" s="55">
         <v>0.44419799999999998</v>
       </c>
-      <c r="P35" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="56">
+      <c r="P35" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="55">
         <v>0</v>
       </c>
     </row>
@@ -6207,33 +6213,33 @@
       <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="57">
+      <c r="D36" s="56">
         <v>0.79053300000000004</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E36" s="54">
         <v>0.74207100000000004</v>
       </c>
-      <c r="F36" s="57">
+      <c r="F36" s="56">
         <f t="shared" si="34"/>
         <v>0.61656</v>
       </c>
-      <c r="G36" s="55">
+      <c r="G36" s="54">
         <v>0.50338899999999998</v>
       </c>
-      <c r="H36" s="57">
+      <c r="H36" s="56">
         <f>Q36</f>
         <v>2.2890000000000001</v>
       </c>
-      <c r="I36" s="55">
+      <c r="I36" s="54">
         <v>2.52</v>
       </c>
-      <c r="O36" s="55">
+      <c r="O36" s="54">
         <v>0.79053300000000004</v>
       </c>
-      <c r="P36" s="55">
+      <c r="P36" s="54">
         <v>0.61656</v>
       </c>
-      <c r="Q36" s="55">
+      <c r="Q36" s="54">
         <v>2.2890000000000001</v>
       </c>
     </row>
@@ -6241,33 +6247,33 @@
       <c r="B37" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="57">
+      <c r="D37" s="56">
         <v>0.38020500000000002</v>
       </c>
-      <c r="E37" s="55">
+      <c r="E37" s="54">
         <v>0.476802</v>
       </c>
-      <c r="F37" s="57">
+      <c r="F37" s="56">
         <f t="shared" si="34"/>
         <v>2.8080000000000002E-3</v>
       </c>
-      <c r="G37" s="55">
+      <c r="G37" s="54">
         <v>0.78258399999999995</v>
       </c>
-      <c r="H37" s="57">
+      <c r="H37" s="56">
         <f t="shared" ref="H37:H54" si="35">Q37</f>
         <v>0.497</v>
       </c>
-      <c r="I37" s="55">
+      <c r="I37" s="54">
         <v>0.71099999999999997</v>
       </c>
-      <c r="O37" s="55">
+      <c r="O37" s="54">
         <v>0.38020500000000002</v>
       </c>
-      <c r="P37" s="55">
+      <c r="P37" s="54">
         <v>2.8080000000000002E-3</v>
       </c>
-      <c r="Q37" s="55">
+      <c r="Q37" s="54">
         <v>0.497</v>
       </c>
     </row>
@@ -6275,33 +6281,33 @@
       <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="56">
         <v>0.122765</v>
       </c>
-      <c r="E38" s="55">
+      <c r="E38" s="54">
         <v>0.22198100000000001</v>
       </c>
-      <c r="F38" s="57">
+      <c r="F38" s="56">
         <f t="shared" si="34"/>
         <v>0.19489699999999999</v>
       </c>
-      <c r="G38" s="55">
+      <c r="G38" s="54">
         <v>3.1137700000000001</v>
       </c>
-      <c r="H38" s="57">
+      <c r="H38" s="56">
         <f t="shared" si="35"/>
         <v>2.3319999999999999</v>
       </c>
-      <c r="I38" s="55">
+      <c r="I38" s="54">
         <v>3.2240000000000002</v>
       </c>
-      <c r="O38" s="55">
+      <c r="O38" s="54">
         <v>0.122765</v>
       </c>
-      <c r="P38" s="55">
+      <c r="P38" s="54">
         <v>0.19489699999999999</v>
       </c>
-      <c r="Q38" s="55">
+      <c r="Q38" s="54">
         <v>2.3319999999999999</v>
       </c>
     </row>
@@ -6309,33 +6315,33 @@
       <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="57">
+      <c r="D39" s="56">
         <v>0.17830299999999999</v>
       </c>
-      <c r="E39" s="55">
+      <c r="E39" s="54">
         <v>0.17830199999999999</v>
       </c>
-      <c r="F39" s="57">
+      <c r="F39" s="56">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="G39" s="55">
-        <v>0</v>
-      </c>
-      <c r="H39" s="57">
+      <c r="G39" s="54">
+        <v>0</v>
+      </c>
+      <c r="H39" s="56">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I39" s="55">
-        <v>0</v>
-      </c>
-      <c r="O39" s="55">
+      <c r="I39" s="54">
+        <v>0</v>
+      </c>
+      <c r="O39" s="54">
         <v>0.17830299999999999</v>
       </c>
-      <c r="P39" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="55">
+      <c r="P39" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="54">
         <v>0</v>
       </c>
     </row>
@@ -6344,38 +6350,38 @@
         <v>4</v>
       </c>
       <c r="C40" s="12"/>
-      <c r="D40" s="58">
+      <c r="D40" s="57">
         <v>0.61626300000000001</v>
       </c>
-      <c r="E40" s="59">
+      <c r="E40" s="58">
         <v>1.3517459999999999</v>
       </c>
-      <c r="F40" s="58">
+      <c r="F40" s="57">
         <f t="shared" si="34"/>
         <v>0.465671</v>
       </c>
-      <c r="G40" s="59">
+      <c r="G40" s="58">
         <v>2.214496</v>
       </c>
-      <c r="H40" s="58">
+      <c r="H40" s="57">
         <f t="shared" si="35"/>
         <v>6.3869999999999996</v>
       </c>
-      <c r="I40" s="81">
+      <c r="I40" s="80">
         <v>6.9950000000000001</v>
       </c>
-      <c r="J40" s="61"/>
+      <c r="J40" s="60"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
-      <c r="O40" s="59">
+      <c r="O40" s="58">
         <v>0.61626300000000001</v>
       </c>
-      <c r="P40" s="59">
+      <c r="P40" s="58">
         <v>0.465671</v>
       </c>
-      <c r="Q40" s="59">
+      <c r="Q40" s="58">
         <v>6.3869999999999996</v>
       </c>
     </row>
@@ -6383,89 +6389,89 @@
       <c r="B41" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="57">
+      <c r="D41" s="56">
         <v>2.7921279999999999</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="39">
         <f>SUM(E34:E40)</f>
         <v>3.0410870000000001</v>
       </c>
-      <c r="F41" s="57">
+      <c r="F41" s="56">
         <f>SUM(F34:F40)</f>
         <v>1.335453</v>
       </c>
-      <c r="G41" s="40">
+      <c r="G41" s="39">
         <f>SUM(G34:G40)</f>
         <v>6.7660130000000009</v>
       </c>
-      <c r="H41" s="57">
+      <c r="H41" s="56">
         <f t="shared" si="35"/>
         <v>11.667999999999999</v>
       </c>
-      <c r="I41" s="40">
+      <c r="I41" s="39">
         <f>SUM(I34:I40)</f>
         <v>13.626000000000001</v>
       </c>
-      <c r="O41" s="40">
+      <c r="O41" s="39">
         <f>SUM(O34:O40)</f>
         <v>2.7921279999999999</v>
       </c>
-      <c r="P41" s="40">
+      <c r="P41" s="39">
         <f>SUM(P34:P40)</f>
         <v>1.335453</v>
       </c>
-      <c r="Q41" s="40">
+      <c r="Q41" s="39">
         <f>SUM(Q34:Q40)</f>
         <v>11.667999999999999</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D42" s="57"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="57">
+      <c r="D42" s="56"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="56">
         <f t="shared" ref="F42:F47" si="36">P42</f>
         <v>0</v>
       </c>
-      <c r="G42" s="40"/>
-      <c r="H42" s="57">
+      <c r="G42" s="39"/>
+      <c r="H42" s="56">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="57">
+      <c r="D43" s="56">
         <v>0.27152300000000001</v>
       </c>
-      <c r="E43" s="40">
+      <c r="E43" s="39">
         <v>0.31251600000000002</v>
       </c>
-      <c r="F43" s="57">
+      <c r="F43" s="56">
         <f t="shared" si="36"/>
         <v>0.38318600000000003</v>
       </c>
-      <c r="G43" s="40">
+      <c r="G43" s="39">
         <v>2.9940030000000002</v>
       </c>
-      <c r="H43" s="57">
+      <c r="H43" s="56">
         <f t="shared" si="35"/>
         <v>3.3149999999999999</v>
       </c>
-      <c r="I43" s="40">
+      <c r="I43" s="39">
         <v>5.0940000000000003</v>
       </c>
-      <c r="O43" s="40">
+      <c r="O43" s="39">
         <v>0.27152300000000001</v>
       </c>
-      <c r="P43" s="40">
+      <c r="P43" s="39">
         <v>0.38318600000000003</v>
       </c>
-      <c r="Q43" s="40">
+      <c r="Q43" s="39">
         <v>3.3149999999999999</v>
       </c>
     </row>
@@ -6473,33 +6479,33 @@
       <c r="B44" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="57">
-        <v>0</v>
-      </c>
-      <c r="E44" s="40">
-        <v>0</v>
-      </c>
-      <c r="F44" s="57">
+      <c r="D44" s="56">
+        <v>0</v>
+      </c>
+      <c r="E44" s="39">
+        <v>0</v>
+      </c>
+      <c r="F44" s="56">
         <f t="shared" si="36"/>
         <v>8.7378999999999998E-2</v>
       </c>
-      <c r="G44" s="40">
-        <v>0</v>
-      </c>
-      <c r="H44" s="57">
+      <c r="G44" s="39">
+        <v>0</v>
+      </c>
+      <c r="H44" s="56">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I44" s="40">
-        <v>0</v>
-      </c>
-      <c r="O44" s="40">
-        <v>0</v>
-      </c>
-      <c r="P44" s="40">
+      <c r="I44" s="39">
+        <v>0</v>
+      </c>
+      <c r="O44" s="39">
+        <v>0</v>
+      </c>
+      <c r="P44" s="39">
         <v>8.7378999999999998E-2</v>
       </c>
-      <c r="Q44" s="40">
+      <c r="Q44" s="39">
         <v>0</v>
       </c>
     </row>
@@ -6507,33 +6513,33 @@
       <c r="B45" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="57">
+      <c r="D45" s="56">
         <v>0.101036</v>
       </c>
-      <c r="E45" s="40">
-        <v>0</v>
-      </c>
-      <c r="F45" s="57">
+      <c r="E45" s="39">
+        <v>0</v>
+      </c>
+      <c r="F45" s="56">
         <f t="shared" si="36"/>
         <v>4.895E-3</v>
       </c>
-      <c r="G45" s="40">
-        <v>0</v>
-      </c>
-      <c r="H45" s="57">
+      <c r="G45" s="39">
+        <v>0</v>
+      </c>
+      <c r="H45" s="56">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I45" s="40">
+      <c r="I45" s="39">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O45" s="40">
+      <c r="O45" s="39">
         <v>0.101036</v>
       </c>
-      <c r="P45" s="40">
+      <c r="P45" s="39">
         <v>4.895E-3</v>
       </c>
-      <c r="Q45" s="40">
+      <c r="Q45" s="39">
         <v>0</v>
       </c>
     </row>
@@ -6541,33 +6547,33 @@
       <c r="B46" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="57">
-        <v>0</v>
-      </c>
-      <c r="E46" s="40">
+      <c r="D46" s="56">
+        <v>0</v>
+      </c>
+      <c r="E46" s="39">
         <v>0.102697</v>
       </c>
-      <c r="F46" s="57">
+      <c r="F46" s="56">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G46" s="40">
-        <v>0</v>
-      </c>
-      <c r="H46" s="57">
+      <c r="G46" s="39">
+        <v>0</v>
+      </c>
+      <c r="H46" s="56">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I46" s="40">
-        <v>0</v>
-      </c>
-      <c r="O46" s="40">
-        <v>0</v>
-      </c>
-      <c r="P46" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="40">
+      <c r="I46" s="39">
+        <v>0</v>
+      </c>
+      <c r="O46" s="39">
+        <v>0</v>
+      </c>
+      <c r="P46" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="39">
         <v>0</v>
       </c>
     </row>
@@ -6575,33 +6581,33 @@
       <c r="B47" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="57">
-        <v>0</v>
-      </c>
-      <c r="E47" s="40">
-        <v>0</v>
-      </c>
-      <c r="F47" s="57">
+      <c r="D47" s="56">
+        <v>0</v>
+      </c>
+      <c r="E47" s="39">
+        <v>0</v>
+      </c>
+      <c r="F47" s="56">
         <f t="shared" si="36"/>
         <v>0.22625000000000001</v>
       </c>
-      <c r="G47" s="40">
+      <c r="G47" s="39">
         <v>0.22625000000000001</v>
       </c>
-      <c r="H47" s="57">
+      <c r="H47" s="56">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I47" s="40">
-        <v>0</v>
-      </c>
-      <c r="O47" s="40">
-        <v>0</v>
-      </c>
-      <c r="P47" s="40">
+      <c r="I47" s="39">
+        <v>0</v>
+      </c>
+      <c r="O47" s="39">
+        <v>0</v>
+      </c>
+      <c r="P47" s="39">
         <v>0.22625000000000001</v>
       </c>
-      <c r="Q47" s="40">
+      <c r="Q47" s="39">
         <v>0</v>
       </c>
     </row>
@@ -6609,32 +6615,32 @@
       <c r="B48" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="57">
-        <v>0</v>
-      </c>
-      <c r="E48" s="40">
-        <v>0</v>
-      </c>
-      <c r="F48" s="57">
-        <v>0</v>
-      </c>
-      <c r="G48" s="40">
-        <v>0</v>
-      </c>
-      <c r="H48" s="57">
+      <c r="D48" s="56">
+        <v>0</v>
+      </c>
+      <c r="E48" s="39">
+        <v>0</v>
+      </c>
+      <c r="F48" s="56">
+        <v>0</v>
+      </c>
+      <c r="G48" s="39">
+        <v>0</v>
+      </c>
+      <c r="H48" s="56">
         <f t="shared" si="35"/>
         <v>1.24</v>
       </c>
-      <c r="I48" s="40">
-        <v>0</v>
-      </c>
-      <c r="O48" s="40">
-        <v>0</v>
-      </c>
-      <c r="P48" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="40">
+      <c r="I48" s="39">
+        <v>0</v>
+      </c>
+      <c r="O48" s="39">
+        <v>0</v>
+      </c>
+      <c r="P48" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="39">
         <v>1.24</v>
       </c>
     </row>
@@ -6645,33 +6651,33 @@
       <c r="C49" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="57">
+      <c r="D49" s="56">
         <v>0.185747</v>
       </c>
-      <c r="E49" s="40">
-        <v>0</v>
-      </c>
-      <c r="F49" s="57">
+      <c r="E49" s="39">
+        <v>0</v>
+      </c>
+      <c r="F49" s="56">
         <f>P49</f>
         <v>0</v>
       </c>
-      <c r="G49" s="40">
-        <v>0</v>
-      </c>
-      <c r="H49" s="57">
+      <c r="G49" s="39">
+        <v>0</v>
+      </c>
+      <c r="H49" s="56">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I49" s="40">
+      <c r="I49" s="39">
         <v>0.04</v>
       </c>
-      <c r="O49" s="40">
+      <c r="O49" s="39">
         <v>0.185747</v>
       </c>
-      <c r="P49" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="40">
+      <c r="P49" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="39">
         <v>0</v>
       </c>
     </row>
@@ -6682,38 +6688,38 @@
       <c r="C50" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="58">
-        <v>0</v>
-      </c>
-      <c r="E50" s="60">
-        <v>0</v>
-      </c>
-      <c r="F50" s="58">
+      <c r="D50" s="57">
+        <v>0</v>
+      </c>
+      <c r="E50" s="59">
+        <v>0</v>
+      </c>
+      <c r="F50" s="57">
         <f>P50</f>
         <v>0.104367</v>
       </c>
-      <c r="G50" s="60">
-        <v>0</v>
-      </c>
-      <c r="H50" s="57">
+      <c r="G50" s="59">
+        <v>0</v>
+      </c>
+      <c r="H50" s="56">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I50" s="60">
-        <v>0</v>
-      </c>
-      <c r="J50" s="61"/>
+      <c r="I50" s="59">
+        <v>0</v>
+      </c>
+      <c r="J50" s="60"/>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
-      <c r="O50" s="60">
-        <v>0</v>
-      </c>
-      <c r="P50" s="60">
+      <c r="O50" s="59">
+        <v>0</v>
+      </c>
+      <c r="P50" s="59">
         <v>0.104367</v>
       </c>
-      <c r="Q50" s="60">
+      <c r="Q50" s="59">
         <v>0</v>
       </c>
     </row>
@@ -6721,86 +6727,86 @@
       <c r="B51" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="57">
+      <c r="D51" s="56">
         <v>0.55830599999999997</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E51" s="39">
         <f>SUM(E43:E50)</f>
         <v>0.415213</v>
       </c>
-      <c r="F51" s="57">
+      <c r="F51" s="56">
         <f>SUM(F43:F50)</f>
         <v>0.80607700000000004</v>
       </c>
-      <c r="G51" s="40">
+      <c r="G51" s="39">
         <f>SUM(G43:G50)</f>
         <v>3.220253</v>
       </c>
-      <c r="H51" s="57">
+      <c r="H51" s="56">
         <f t="shared" si="35"/>
         <v>4.5549999999999997</v>
       </c>
-      <c r="I51" s="40">
+      <c r="I51" s="39">
         <f>SUM(I43:I50)</f>
         <v>5.16</v>
       </c>
-      <c r="O51" s="40">
+      <c r="O51" s="39">
         <f>SUM(O43:O50)</f>
         <v>0.55830599999999997</v>
       </c>
-      <c r="P51" s="40">
+      <c r="P51" s="39">
         <f>SUM(P43:P50)</f>
         <v>0.80607700000000004</v>
       </c>
-      <c r="Q51" s="40">
+      <c r="Q51" s="39">
         <f>SUM(Q43:Q50)</f>
         <v>4.5549999999999997</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="57"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="57">
+      <c r="D52" s="56"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="56">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="39"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="57">
+      <c r="D53" s="56">
         <v>2.233822</v>
       </c>
-      <c r="E53" s="40">
+      <c r="E53" s="39">
         <v>2.625874</v>
       </c>
-      <c r="F53" s="57">
+      <c r="F53" s="56">
         <f>P53</f>
         <v>0.52937599999999996</v>
       </c>
-      <c r="G53" s="40">
+      <c r="G53" s="39">
         <v>3.54576</v>
       </c>
-      <c r="H53" s="57">
+      <c r="H53" s="56">
         <f t="shared" si="35"/>
         <v>7.1130000000000004</v>
       </c>
-      <c r="I53" s="40">
+      <c r="I53" s="39">
         <v>8.4659999999999993</v>
       </c>
-      <c r="O53" s="40">
+      <c r="O53" s="39">
         <v>2.233822</v>
       </c>
-      <c r="P53" s="40">
+      <c r="P53" s="39">
         <v>0.52937599999999996</v>
       </c>
-      <c r="Q53" s="40">
+      <c r="Q53" s="39">
         <v>7.1130000000000004</v>
       </c>
     </row>
@@ -6808,89 +6814,89 @@
       <c r="B54" t="s">
         <v>86</v>
       </c>
-      <c r="D54" s="57">
+      <c r="D54" s="56">
         <v>2.7921279999999999</v>
       </c>
-      <c r="E54" s="40">
+      <c r="E54" s="39">
         <f>E53+E51</f>
         <v>3.0410870000000001</v>
       </c>
-      <c r="F54" s="57">
+      <c r="F54" s="56">
         <f>F53+F51</f>
         <v>1.335453</v>
       </c>
-      <c r="G54" s="40">
+      <c r="G54" s="39">
         <f>G53+G51</f>
         <v>6.7660130000000001</v>
       </c>
-      <c r="H54" s="57">
+      <c r="H54" s="56">
         <f t="shared" si="35"/>
         <v>11.667999999999999</v>
       </c>
-      <c r="I54" s="40">
+      <c r="I54" s="39">
         <f>I53+I51</f>
         <v>13.625999999999999</v>
       </c>
-      <c r="O54" s="40">
+      <c r="O54" s="39">
         <f>O53+O51</f>
         <v>2.7921279999999999</v>
       </c>
-      <c r="P54" s="40">
+      <c r="P54" s="39">
         <f>P53+P51</f>
         <v>1.335453</v>
       </c>
-      <c r="Q54" s="40">
+      <c r="Q54" s="39">
         <f>Q53+Q51</f>
         <v>11.667999999999999</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D55" s="57"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="57"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="56"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="57">
+      <c r="D56" s="56">
         <f t="shared" ref="D56" si="37">D41-D51</f>
         <v>2.233822</v>
       </c>
-      <c r="E56" s="80">
+      <c r="E56" s="79">
         <f t="shared" ref="E56:F56" si="38">E41-E51</f>
         <v>2.625874</v>
       </c>
-      <c r="F56" s="57">
+      <c r="F56" s="56">
         <f t="shared" si="38"/>
         <v>0.52937599999999996</v>
       </c>
-      <c r="G56" s="80">
+      <c r="G56" s="79">
         <f t="shared" ref="G56:H56" si="39">G41-G51</f>
         <v>3.5457600000000009</v>
       </c>
-      <c r="H56" s="57">
+      <c r="H56" s="56">
         <f t="shared" si="39"/>
         <v>7.1129999999999995</v>
       </c>
-      <c r="I56" s="80">
+      <c r="I56" s="79">
         <f t="shared" ref="I56" si="40">I41-I51</f>
         <v>8.4660000000000011</v>
       </c>
-      <c r="O56" s="80">
+      <c r="O56" s="79">
         <f t="shared" ref="O56:P56" si="41">O41-O51</f>
         <v>2.233822</v>
       </c>
-      <c r="P56" s="80">
+      <c r="P56" s="79">
         <f t="shared" si="41"/>
         <v>0.52937599999999996</v>
       </c>
-      <c r="Q56" s="80">
+      <c r="Q56" s="79">
         <f>Q41-Q51</f>
         <v>7.1129999999999995</v>
       </c>
@@ -6899,127 +6905,127 @@
       <c r="B57" t="s">
         <v>144</v>
       </c>
-      <c r="D57" s="57">
+      <c r="D57" s="56">
         <f t="shared" ref="D57:H57" si="42">D56/D20</f>
         <v>9.2774396784636708E-3</v>
       </c>
-      <c r="E57" s="40">
+      <c r="E57" s="39">
         <f t="shared" ref="E57" si="43">E56/E20</f>
         <v>7.6424304594443658E-3</v>
       </c>
-      <c r="F57" s="57">
+      <c r="F57" s="56">
         <f t="shared" si="42"/>
         <v>1.0223126865988698E-3</v>
       </c>
-      <c r="G57" s="40">
+      <c r="G57" s="39">
         <f t="shared" si="42"/>
         <v>5.3359111491456885E-3</v>
       </c>
-      <c r="H57" s="57">
+      <c r="H57" s="56">
         <f t="shared" si="42"/>
         <v>1.0006302296399251E-2</v>
       </c>
-      <c r="I57" s="40">
+      <c r="I57" s="39">
         <f t="shared" ref="I57" si="44">I56/I20</f>
         <v>1.0932052374680408E-2</v>
       </c>
-      <c r="O57" s="40">
+      <c r="O57" s="39">
         <f t="shared" ref="O57:P57" si="45">O56/O20</f>
         <v>9.2774396784636708E-3</v>
       </c>
-      <c r="P57" s="40">
+      <c r="P57" s="39">
         <f t="shared" si="45"/>
         <v>1.0223126865988698E-3</v>
       </c>
-      <c r="Q57" s="40">
+      <c r="Q57" s="39">
         <f>Q56/Q20</f>
         <v>1.0006302296399251E-2</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D58" s="57"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="57"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="56"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="57"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="57"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="56"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="57"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="57"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="56"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="57"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="57"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="56"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D62" s="57"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="57"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="56"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>142</v>
       </c>
-      <c r="D63" s="57"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="57"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="56"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>159</v>
       </c>
-      <c r="D64" s="57"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="57"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="56"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
@@ -7040,37 +7046,37 @@
       <c r="B68" t="s">
         <v>161</v>
       </c>
-      <c r="D68" s="35">
+      <c r="D68" s="34">
         <f t="shared" ref="D68:I68" si="46">(D14+C14)/(D41-SUM(D48:D50))</f>
         <v>-0.94713013945390168</v>
       </c>
-      <c r="E68" s="37">
+      <c r="E68" s="36">
         <f t="shared" si="46"/>
         <v>-0.82098736405765438</v>
       </c>
-      <c r="F68" s="35">
+      <c r="F68" s="34">
         <f t="shared" si="46"/>
         <v>-3.0525825165747973</v>
       </c>
-      <c r="G68" s="37">
+      <c r="G68" s="36">
         <f t="shared" si="46"/>
         <v>-0.39580630424446428</v>
       </c>
-      <c r="H68" s="35">
+      <c r="H68" s="34">
         <f t="shared" si="46"/>
         <v>0.19620253164556961</v>
       </c>
-      <c r="I68" s="37">
+      <c r="I68" s="36">
         <f t="shared" si="46"/>
         <v>0.17112763138524958</v>
       </c>
-      <c r="Q68" s="37">
+      <c r="Q68" s="36">
         <f>Q14/(Q41-SUM(Q48:Q50))</f>
         <v>0.19620253164556978</v>
       </c>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="29" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7105,11 +7111,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" s="21">
@@ -7120,13 +7126,13 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="38">
         <v>0.121</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="38">
         <v>0.126</v>
       </c>
     </row>
@@ -7134,109 +7140,109 @@
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="62">
         <v>0.115</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="62">
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="38">
         <v>9.4E-2</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="38">
         <v>0.11</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="38">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="38">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="38">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="38">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="38">
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="38">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="38">
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="38">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="38">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="38">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
         <v>3.1E-2</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="38">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="38">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="38">
         <v>0.03</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="38">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
@@ -7244,10 +7250,10 @@
       <c r="B14" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="63">
-        <v>0</v>
-      </c>
-      <c r="D14" s="63">
+      <c r="C14" s="62">
+        <v>0</v>
+      </c>
+      <c r="D14" s="62">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
@@ -7255,10 +7261,10 @@
       <c r="B15" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="63">
+      <c r="C15" s="62">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="62">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
@@ -7266,10 +7272,10 @@
       <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C16" s="62">
         <v>2.4E-2</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="62">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
@@ -7292,217 +7298,217 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="101" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="101"/>
+    <col min="1" max="1" width="30.85546875" style="100" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="103" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="104" t="s">
+    <row r="1" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="102" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="105">
+      <c r="D2" s="104">
         <v>20.470000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="106">
+      <c r="D3" s="105">
         <v>14.124300000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="107">
+      <c r="D4" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="105">
+      <c r="D5" s="104">
         <v>6.3457000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="107">
+      <c r="D6" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="107">
+      <c r="D7" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="107">
+      <c r="D8" s="106">
         <v>2.5529999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="107">
+      <c r="D9" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="108">
+      <c r="D10" s="107">
         <v>0.112</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="107">
+      <c r="D11" s="106">
         <v>3.0790000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="109">
+      <c r="D12" s="108">
         <v>3.2667000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="107">
+      <c r="D13" s="106">
         <v>4.5360000000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="109">
+      <c r="D14" s="108">
         <v>3.2213400000000005</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="108">
+      <c r="D15" s="107">
         <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="102" t="s">
+      <c r="A16" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="109">
+      <c r="D16" s="108">
         <v>2.2213400000000005</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="108">
+      <c r="D17" s="107">
         <v>3.1248980097122897E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="108">
+      <c r="D18" s="107">
         <v>710.85199999999998</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="110"/>
+      <c r="D19" s="109"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="111">
+      <c r="D20" s="110">
         <v>0.31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="111">
+      <c r="D21" s="110">
         <v>0.1595847581827064</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="111">
+      <c r="D22" s="110">
         <v>0.10851685393258428</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="111">
+      <c r="D23" s="110">
         <v>-0.31042982113033701</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="110"/>
+      <c r="D24" s="109"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="110"/>
+      <c r="D25" s="109"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="112">
+      <c r="D26" s="111">
         <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="101" t="s">
+      <c r="A27" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="113"/>
+      <c r="D27" s="112"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="112"/>
+      <c r="D28" s="111"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/£MHC.xlsx
+++ b/£MHC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734C0DCC-9AEA-44C5-9436-CBCFC1196CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6B11A4-FC2D-4FDC-B9FF-A82DE4480D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="249">
   <si>
     <t>Stock Snapshot</t>
   </si>
@@ -772,25 +772,38 @@
   </si>
   <si>
     <t>H223</t>
+  </si>
+  <si>
+    <t>H124</t>
+  </si>
+  <si>
+    <t>Sales &amp; Marketing</t>
+  </si>
+  <si>
+    <t>H224</t>
+  </si>
+  <si>
+    <t>Projected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;[Red]\ \ \-\ #,##0.0\ ;&quot;-&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0%"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0;[Black]\(#,##0.0\)\ "/>
-    <numFmt numFmtId="169" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0\x"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="167" formatCode="#,##0.0;[Black]\(#,##0.0\)\ "/>
+    <numFmt numFmtId="168" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0\x"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,6 +916,22 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1131,7 +1160,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1200,12 +1229,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1239,7 +1268,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1260,9 +1289,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1322,13 +1348,7 @@
     <xf numFmtId="17" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1341,33 +1361,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1394,9 +1387,62 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="15" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1514,15 +1560,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1538,8 +1584,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7134225" y="19050"/>
-          <a:ext cx="0" cy="12258675"/>
+          <a:off x="9991725" y="19050"/>
+          <a:ext cx="0" cy="14354175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1564,15 +1610,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1588,8 +1634,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11677650" y="0"/>
-          <a:ext cx="0" cy="12458700"/>
+          <a:off x="15144750" y="0"/>
+          <a:ext cx="0" cy="14554200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1914,7 +1960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A865B090-C0E4-4B85-AA22-AACD646D3083}">
   <dimension ref="A1:AC105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1943,11 +1989,11 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="J2" s="126" t="s">
+      <c r="J2" s="123" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="127"/>
-      <c r="L2" s="128"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="125"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1962,10 +2008,10 @@
       <c r="J3" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="138" t="s">
+      <c r="K3" s="126" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="139"/>
+      <c r="L3" s="127"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1978,16 +2024,16 @@
       <c r="J4" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="138"/>
-      <c r="L4" s="139"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1997,7 +2043,7 @@
       <c r="K5" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="96">
+      <c r="L5" s="95">
         <v>44825</v>
       </c>
     </row>
@@ -2007,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="65">
-        <v>0.13</v>
+        <v>0.12620000000000001</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="1"/>
@@ -2016,10 +2062,10 @@
       <c r="J6" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="140" t="s">
+      <c r="K6" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="141"/>
+      <c r="L6" s="129"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -2044,7 +2090,7 @@
       </c>
       <c r="C8" s="6">
         <f>C6*C7</f>
-        <v>6.7607800000000005</v>
+        <v>6.5631572</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="1"/>
@@ -2063,17 +2109,17 @@
         <v>244</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="126" t="s">
+      <c r="F9" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="128"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="124"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="125"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -2087,7 +2133,7 @@
         <v>244</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="115">
+      <c r="F10" s="114">
         <v>43770</v>
       </c>
       <c r="G10" s="22" t="s">
@@ -2112,7 +2158,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="115">
+      <c r="F11" s="114">
         <v>43891</v>
       </c>
       <c r="G11" s="22" t="s">
@@ -2133,11 +2179,11 @@
       </c>
       <c r="C12" s="10">
         <f>C8-C9+C10</f>
-        <v>-0.98921999999999954</v>
+        <v>-1.1868428</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="115">
+      <c r="F12" s="114">
         <v>44166</v>
       </c>
       <c r="G12" s="22" t="s">
@@ -2157,7 +2203,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="115">
+      <c r="F13" s="114">
         <v>44166</v>
       </c>
       <c r="G13" s="22" t="s">
@@ -2177,7 +2223,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="115">
+      <c r="F14" s="114">
         <v>44197</v>
       </c>
       <c r="G14" s="22" t="s">
@@ -2193,13 +2239,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="128"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="125"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="115">
+      <c r="F15" s="114">
         <v>44287</v>
       </c>
       <c r="G15" s="22" t="s">
@@ -2218,12 +2264,12 @@
       <c r="B16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="130"/>
+      <c r="D16" s="136"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="115">
+      <c r="F16" s="114">
         <v>44317</v>
       </c>
       <c r="G16" s="22" t="s">
@@ -2241,11 +2287,11 @@
       <c r="B17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C17" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="130"/>
-      <c r="F17" s="115">
+      <c r="D17" s="136"/>
+      <c r="F17" s="114">
         <v>44348</v>
       </c>
       <c r="G17" s="22" t="s">
@@ -2263,9 +2309,9 @@
       <c r="B18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="F18" s="115">
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="F18" s="114">
         <v>44409</v>
       </c>
       <c r="G18" s="22" t="s">
@@ -2281,9 +2327,9 @@
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="F19" s="115">
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="F19" s="114">
         <v>44440</v>
       </c>
       <c r="G19" s="22" t="s">
@@ -2301,11 +2347,11 @@
       <c r="B20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="130"/>
-      <c r="F20" s="115">
+      <c r="D20" s="136"/>
+      <c r="F20" s="114">
         <v>44501</v>
       </c>
       <c r="G20" s="22" t="s">
@@ -2321,9 +2367,9 @@
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="F21" s="115">
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="F21" s="114">
         <v>44652</v>
       </c>
       <c r="G21" s="22" t="s">
@@ -2339,9 +2385,9 @@
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="135"/>
-      <c r="F22" s="115">
+      <c r="C22" s="137"/>
+      <c r="D22" s="138"/>
+      <c r="F22" s="114">
         <v>44726</v>
       </c>
       <c r="G22" s="22" t="s">
@@ -2356,7 +2402,7 @@
       <c r="N22" s="23"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F23" s="115"/>
+      <c r="F23" s="114"/>
       <c r="G23" s="77" t="s">
         <v>134</v>
       </c>
@@ -2369,12 +2415,12 @@
       <c r="N23" s="23"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="123" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="127"/>
-      <c r="D24" s="128"/>
-      <c r="F24" s="115">
+      <c r="C24" s="124"/>
+      <c r="D24" s="125"/>
+      <c r="F24" s="114">
         <v>44743</v>
       </c>
       <c r="G24" s="77" t="s">
@@ -2387,30 +2433,30 @@
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
       <c r="N24" s="23"/>
-      <c r="P24" s="126" t="s">
+      <c r="P24" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="128"/>
-      <c r="W24" s="126" t="s">
+      <c r="Q24" s="124"/>
+      <c r="R24" s="125"/>
+      <c r="W24" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="X24" s="127"/>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="127"/>
-      <c r="AC24" s="128"/>
+      <c r="X24" s="124"/>
+      <c r="Y24" s="124"/>
+      <c r="Z24" s="124"/>
+      <c r="AA24" s="124"/>
+      <c r="AB24" s="124"/>
+      <c r="AC24" s="125"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B25" s="121">
+      <c r="B25" s="120">
         <v>45047</v>
       </c>
-      <c r="C25" s="136" t="s">
+      <c r="C25" s="141" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="135"/>
-      <c r="F25" s="115">
+      <c r="D25" s="138"/>
+      <c r="F25" s="114">
         <v>44743</v>
       </c>
       <c r="G25" s="22" t="s">
@@ -2426,11 +2472,11 @@
       <c r="P25" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="Q25" s="122" t="s">
+      <c r="Q25" s="142" t="s">
         <v>152</v>
       </c>
-      <c r="R25" s="123"/>
-      <c r="W25" s="113" t="s">
+      <c r="R25" s="143"/>
+      <c r="W25" s="112" t="s">
         <v>164</v>
       </c>
       <c r="X25" s="22"/>
@@ -2441,7 +2487,7 @@
       <c r="AC25" s="23"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F26" s="115">
+      <c r="F26" s="114">
         <v>44774</v>
       </c>
       <c r="G26" s="22" t="s">
@@ -2457,11 +2503,11 @@
       <c r="P26" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="Q26" s="122" t="s">
+      <c r="Q26" s="142" t="s">
         <v>152</v>
       </c>
-      <c r="R26" s="123"/>
-      <c r="W26" s="113" t="s">
+      <c r="R26" s="143"/>
+      <c r="W26" s="112" t="s">
         <v>169</v>
       </c>
       <c r="X26" s="22"/>
@@ -2472,15 +2518,15 @@
       <c r="AC26" s="23"/>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="127"/>
-      <c r="D27" s="128"/>
-      <c r="F27" s="115">
+      <c r="C27" s="124"/>
+      <c r="D27" s="125"/>
+      <c r="F27" s="114">
         <v>44835</v>
       </c>
-      <c r="G27" s="99" t="s">
+      <c r="G27" s="98" t="s">
         <v>158</v>
       </c>
       <c r="H27" s="22"/>
@@ -2491,9 +2537,9 @@
       <c r="M27" s="22"/>
       <c r="N27" s="23"/>
       <c r="P27" s="83"/>
-      <c r="Q27" s="124"/>
-      <c r="R27" s="125"/>
-      <c r="W27" s="113" t="s">
+      <c r="Q27" s="144"/>
+      <c r="R27" s="122"/>
+      <c r="W27" s="112" t="s">
         <v>165</v>
       </c>
       <c r="X27" s="22"/>
@@ -2507,14 +2553,14 @@
       <c r="B28" s="26">
         <v>43922</v>
       </c>
-      <c r="C28" s="131" t="s">
+      <c r="C28" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="130"/>
-      <c r="F28" s="115">
+      <c r="D28" s="136"/>
+      <c r="F28" s="114">
         <v>45047</v>
       </c>
-      <c r="G28" s="99" t="s">
+      <c r="G28" s="98" t="s">
         <v>240</v>
       </c>
       <c r="H28" s="22"/>
@@ -2524,7 +2570,7 @@
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="23"/>
-      <c r="W28" s="113" t="s">
+      <c r="W28" s="112" t="s">
         <v>166</v>
       </c>
       <c r="X28" s="22"/>
@@ -2538,14 +2584,14 @@
       <c r="B29" s="27">
         <v>44228</v>
       </c>
-      <c r="C29" s="134" t="s">
+      <c r="C29" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="135"/>
-      <c r="F29" s="115">
+      <c r="D29" s="138"/>
+      <c r="F29" s="114">
         <v>45047</v>
       </c>
-      <c r="G29" s="99" t="s">
+      <c r="G29" s="98" t="s">
         <v>239</v>
       </c>
       <c r="H29" s="22"/>
@@ -2555,7 +2601,7 @@
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
       <c r="N29" s="23"/>
-      <c r="W29" s="113" t="s">
+      <c r="W29" s="112" t="s">
         <v>167</v>
       </c>
       <c r="X29" s="22"/>
@@ -2566,10 +2612,10 @@
       <c r="AC29" s="23"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F30" s="115">
+      <c r="F30" s="114">
         <v>45108</v>
       </c>
-      <c r="G30" s="99" t="s">
+      <c r="G30" s="98" t="s">
         <v>241</v>
       </c>
       <c r="H30" s="22"/>
@@ -2579,7 +2625,7 @@
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
       <c r="N30" s="23"/>
-      <c r="W30" s="113" t="s">
+      <c r="W30" s="112" t="s">
         <v>168</v>
       </c>
       <c r="X30" s="22"/>
@@ -2590,12 +2636,12 @@
       <c r="AC30" s="23"/>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B31" s="129" t="s">
+      <c r="B31" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="127"/>
-      <c r="D31" s="128"/>
-      <c r="F31" s="116">
+      <c r="C31" s="124"/>
+      <c r="D31" s="125"/>
+      <c r="F31" s="115">
         <v>45292</v>
       </c>
       <c r="G31" s="78" t="s">
@@ -2608,7 +2654,7 @@
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
       <c r="N31" s="25"/>
-      <c r="W31" s="113" t="s">
+      <c r="W31" s="112" t="s">
         <v>170</v>
       </c>
       <c r="X31" s="22"/>
@@ -2622,11 +2668,11 @@
       <c r="B32" s="26">
         <v>44136</v>
       </c>
-      <c r="C32" s="131" t="s">
+      <c r="C32" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="130"/>
-      <c r="W32" s="118" t="s">
+      <c r="D32" s="136"/>
+      <c r="W32" s="117" t="s">
         <v>171</v>
       </c>
       <c r="X32" s="22"/>
@@ -2640,11 +2686,11 @@
       <c r="B33" s="28">
         <v>44348</v>
       </c>
-      <c r="C33" s="134" t="s">
+      <c r="C33" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="135"/>
-      <c r="W33" s="113" t="s">
+      <c r="D33" s="138"/>
+      <c r="W33" s="112" t="s">
         <v>172</v>
       </c>
       <c r="X33" s="22"/>
@@ -2655,7 +2701,7 @@
       <c r="AC33" s="23"/>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W34" s="113" t="s">
+      <c r="W34" s="112" t="s">
         <v>173</v>
       </c>
       <c r="X34" s="22"/>
@@ -2666,7 +2712,7 @@
       <c r="AC34" s="23"/>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W35" s="118" t="s">
+      <c r="W35" s="117" t="s">
         <v>174</v>
       </c>
       <c r="X35" s="22"/>
@@ -2677,24 +2723,24 @@
       <c r="AC35" s="23"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B36" s="126" t="s">
+      <c r="B36" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="127"/>
-      <c r="D36" s="128"/>
-      <c r="F36" s="126" t="s">
+      <c r="C36" s="124"/>
+      <c r="D36" s="125"/>
+      <c r="F36" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="127"/>
-      <c r="L36" s="127"/>
-      <c r="M36" s="127"/>
-      <c r="N36" s="127"/>
-      <c r="O36" s="128"/>
-      <c r="W36" s="113" t="s">
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="124"/>
+      <c r="M36" s="124"/>
+      <c r="N36" s="124"/>
+      <c r="O36" s="125"/>
+      <c r="W36" s="112" t="s">
         <v>175</v>
       </c>
       <c r="X36" s="22"/>
@@ -2705,18 +2751,18 @@
       <c r="AC36" s="23"/>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B37" s="97" t="s">
+      <c r="B37" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="132">
-        <f>C6/SUM('Financial Model'!H19:I19)</f>
-        <v>40.513563824987855</v>
-      </c>
-      <c r="D37" s="133"/>
-      <c r="F37" s="142" t="s">
+      <c r="C37" s="139">
+        <f>C6/SUM('Financial Model'!H20:I20)</f>
+        <v>39.329321190103592</v>
+      </c>
+      <c r="D37" s="140"/>
+      <c r="F37" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="G37" s="143"/>
+      <c r="G37" s="131"/>
       <c r="H37" s="22" t="s">
         <v>108</v>
       </c>
@@ -2727,7 +2773,7 @@
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="23"/>
-      <c r="W37" s="118" t="s">
+      <c r="W37" s="117" t="s">
         <v>176</v>
       </c>
       <c r="X37" s="22"/>
@@ -2738,18 +2784,18 @@
       <c r="AC37" s="23"/>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B38" s="97" t="s">
+      <c r="B38" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="132">
-        <f>C6/'Financial Model'!I57</f>
-        <v>11.891637136782423</v>
-      </c>
-      <c r="D38" s="133"/>
-      <c r="F38" s="142" t="s">
+      <c r="C38" s="139">
+        <f>C6/'Financial Model'!I58</f>
+        <v>11.54403543586109</v>
+      </c>
+      <c r="D38" s="140"/>
+      <c r="F38" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="143"/>
+      <c r="G38" s="131"/>
       <c r="H38" s="22" t="s">
         <v>109</v>
       </c>
@@ -2760,7 +2806,7 @@
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="23"/>
-      <c r="W38" s="118" t="s">
+      <c r="W38" s="117" t="s">
         <v>177</v>
       </c>
       <c r="X38" s="22"/>
@@ -2771,18 +2817,18 @@
       <c r="AC38" s="23"/>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B39" s="97" t="s">
+      <c r="B39" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="132">
+      <c r="C39" s="139">
         <f>C8/SUM('Financial Model'!H4:I4)</f>
-        <v>0.2947947477648219</v>
-      </c>
-      <c r="D39" s="133"/>
-      <c r="F39" s="144" t="s">
+        <v>0.28617767052246557</v>
+      </c>
+      <c r="D39" s="140"/>
+      <c r="F39" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="145"/>
+      <c r="G39" s="133"/>
       <c r="H39" s="24" t="s">
         <v>135</v>
       </c>
@@ -2796,7 +2842,7 @@
       <c r="P39" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="W39" s="113" t="s">
+      <c r="W39" s="112" t="s">
         <v>178</v>
       </c>
       <c r="X39" s="22"/>
@@ -2807,15 +2853,15 @@
       <c r="AC39" s="23"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B40" s="97" t="s">
+      <c r="B40" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="132">
+      <c r="C40" s="139">
         <f>C12/SUM('Financial Model'!H4:I4)</f>
-        <v>-4.3133611858974408E-2</v>
-      </c>
-      <c r="D40" s="133"/>
-      <c r="W40" s="119" t="s">
+        <v>-5.1750689101330759E-2</v>
+      </c>
+      <c r="D40" s="140"/>
+      <c r="W40" s="118" t="s">
         <v>179</v>
       </c>
       <c r="X40" s="22"/>
@@ -2826,15 +2872,15 @@
       <c r="AC40" s="23"/>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="132">
-        <f>C12/SUM('Financial Model'!H18:I18)</f>
-        <v>-0.43354098352034082</v>
-      </c>
-      <c r="D41" s="133"/>
-      <c r="W41" s="113"/>
+      <c r="C41" s="139">
+        <f>C12/SUM('Financial Model'!H19:I19)</f>
+        <v>-0.52015223589902682</v>
+      </c>
+      <c r="D41" s="140"/>
+      <c r="W41" s="112"/>
       <c r="X41" s="22"/>
       <c r="Y41" s="22"/>
       <c r="Z41" s="22"/>
@@ -2843,15 +2889,15 @@
       <c r="AC41" s="23"/>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B42" s="98" t="s">
+      <c r="B42" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="137">
-        <f>'Financial Model'!I68</f>
+      <c r="C42" s="121">
+        <f>'Financial Model'!I69</f>
         <v>0.17112763138524958</v>
       </c>
-      <c r="D42" s="125"/>
-      <c r="W42" s="120" t="s">
+      <c r="D42" s="122"/>
+      <c r="W42" s="119" t="s">
         <v>180</v>
       </c>
       <c r="X42" s="22"/>
@@ -2862,7 +2908,7 @@
       <c r="AC42" s="23"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W43" s="113" t="s">
+      <c r="W43" s="112" t="s">
         <v>181</v>
       </c>
       <c r="X43" s="22"/>
@@ -2873,7 +2919,7 @@
       <c r="AC43" s="23"/>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W44" s="113" t="s">
+      <c r="W44" s="112" t="s">
         <v>182</v>
       </c>
       <c r="X44" s="22"/>
@@ -2884,7 +2930,7 @@
       <c r="AC44" s="23"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W45" s="113" t="s">
+      <c r="W45" s="112" t="s">
         <v>183</v>
       </c>
       <c r="X45" s="22"/>
@@ -2895,7 +2941,7 @@
       <c r="AC45" s="23"/>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W46" s="113" t="s">
+      <c r="W46" s="112" t="s">
         <v>184</v>
       </c>
       <c r="X46" s="22"/>
@@ -2906,7 +2952,7 @@
       <c r="AC46" s="23"/>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W47" s="113" t="s">
+      <c r="W47" s="112" t="s">
         <v>185</v>
       </c>
       <c r="X47" s="22"/>
@@ -2917,7 +2963,7 @@
       <c r="AC47" s="23"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W48" s="113" t="s">
+      <c r="W48" s="112" t="s">
         <v>186</v>
       </c>
       <c r="X48" s="22"/>
@@ -2928,7 +2974,7 @@
       <c r="AC48" s="23"/>
     </row>
     <row r="49" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W49" s="113" t="s">
+      <c r="W49" s="112" t="s">
         <v>187</v>
       </c>
       <c r="X49" s="22"/>
@@ -2939,7 +2985,7 @@
       <c r="AC49" s="23"/>
     </row>
     <row r="50" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W50" s="113" t="s">
+      <c r="W50" s="112" t="s">
         <v>188</v>
       </c>
       <c r="X50" s="22"/>
@@ -2950,7 +2996,7 @@
       <c r="AC50" s="23"/>
     </row>
     <row r="51" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W51" s="113" t="s">
+      <c r="W51" s="112" t="s">
         <v>189</v>
       </c>
       <c r="X51" s="22"/>
@@ -2961,7 +3007,7 @@
       <c r="AC51" s="23"/>
     </row>
     <row r="52" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W52" s="113"/>
+      <c r="W52" s="112"/>
       <c r="X52" s="22"/>
       <c r="Y52" s="22"/>
       <c r="Z52" s="22"/>
@@ -2970,7 +3016,7 @@
       <c r="AC52" s="23"/>
     </row>
     <row r="53" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W53" s="113" t="s">
+      <c r="W53" s="112" t="s">
         <v>190</v>
       </c>
       <c r="X53" s="22"/>
@@ -2981,7 +3027,7 @@
       <c r="AC53" s="23"/>
     </row>
     <row r="54" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W54" s="113" t="s">
+      <c r="W54" s="112" t="s">
         <v>191</v>
       </c>
       <c r="X54" s="22"/>
@@ -2992,7 +3038,7 @@
       <c r="AC54" s="23"/>
     </row>
     <row r="55" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W55" s="113"/>
+      <c r="W55" s="112"/>
       <c r="X55" s="22"/>
       <c r="Y55" s="22"/>
       <c r="Z55" s="22"/>
@@ -3001,7 +3047,7 @@
       <c r="AC55" s="23"/>
     </row>
     <row r="56" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W56" s="120" t="s">
+      <c r="W56" s="119" t="s">
         <v>192</v>
       </c>
       <c r="X56" s="22"/>
@@ -3012,7 +3058,7 @@
       <c r="AC56" s="23"/>
     </row>
     <row r="57" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W57" s="113" t="s">
+      <c r="W57" s="112" t="s">
         <v>193</v>
       </c>
       <c r="X57" s="22"/>
@@ -3023,7 +3069,7 @@
       <c r="AC57" s="23"/>
     </row>
     <row r="58" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W58" s="113" t="s">
+      <c r="W58" s="112" t="s">
         <v>194</v>
       </c>
       <c r="X58" s="22"/>
@@ -3034,7 +3080,7 @@
       <c r="AC58" s="23"/>
     </row>
     <row r="59" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W59" s="113" t="s">
+      <c r="W59" s="112" t="s">
         <v>195</v>
       </c>
       <c r="X59" s="22"/>
@@ -3045,7 +3091,7 @@
       <c r="AC59" s="23"/>
     </row>
     <row r="60" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W60" s="113" t="s">
+      <c r="W60" s="112" t="s">
         <v>196</v>
       </c>
       <c r="X60" s="22"/>
@@ -3056,7 +3102,7 @@
       <c r="AC60" s="23"/>
     </row>
     <row r="61" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W61" s="117" t="s">
+      <c r="W61" s="116" t="s">
         <v>197</v>
       </c>
       <c r="X61" s="22"/>
@@ -3067,7 +3113,7 @@
       <c r="AC61" s="23"/>
     </row>
     <row r="62" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W62" s="113" t="s">
+      <c r="W62" s="112" t="s">
         <v>198</v>
       </c>
       <c r="X62" s="22"/>
@@ -3078,7 +3124,7 @@
       <c r="AC62" s="23"/>
     </row>
     <row r="63" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W63" s="113" t="s">
+      <c r="W63" s="112" t="s">
         <v>199</v>
       </c>
       <c r="X63" s="22"/>
@@ -3089,7 +3135,7 @@
       <c r="AC63" s="23"/>
     </row>
     <row r="64" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W64" s="113"/>
+      <c r="W64" s="112"/>
       <c r="X64" s="22"/>
       <c r="Y64" s="22"/>
       <c r="Z64" s="22"/>
@@ -3098,7 +3144,7 @@
       <c r="AC64" s="23"/>
     </row>
     <row r="65" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W65" s="120" t="s">
+      <c r="W65" s="119" t="s">
         <v>200</v>
       </c>
       <c r="X65" s="22"/>
@@ -3109,7 +3155,7 @@
       <c r="AC65" s="23"/>
     </row>
     <row r="66" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W66" s="113" t="s">
+      <c r="W66" s="112" t="s">
         <v>201</v>
       </c>
       <c r="X66" s="22"/>
@@ -3120,7 +3166,7 @@
       <c r="AC66" s="23"/>
     </row>
     <row r="67" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W67" s="113" t="s">
+      <c r="W67" s="112" t="s">
         <v>202</v>
       </c>
       <c r="X67" s="22"/>
@@ -3131,7 +3177,7 @@
       <c r="AC67" s="23"/>
     </row>
     <row r="68" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W68" s="113" t="s">
+      <c r="W68" s="112" t="s">
         <v>203</v>
       </c>
       <c r="X68" s="22"/>
@@ -3142,7 +3188,7 @@
       <c r="AC68" s="23"/>
     </row>
     <row r="69" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W69" s="113" t="s">
+      <c r="W69" s="112" t="s">
         <v>204</v>
       </c>
       <c r="X69" s="22"/>
@@ -3153,7 +3199,7 @@
       <c r="AC69" s="23"/>
     </row>
     <row r="70" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W70" s="117" t="s">
+      <c r="W70" s="116" t="s">
         <v>205</v>
       </c>
       <c r="X70" s="22"/>
@@ -3164,7 +3210,7 @@
       <c r="AC70" s="23"/>
     </row>
     <row r="71" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W71" s="113"/>
+      <c r="W71" s="112"/>
       <c r="X71" s="22"/>
       <c r="Y71" s="22"/>
       <c r="Z71" s="22"/>
@@ -3173,7 +3219,7 @@
       <c r="AC71" s="23"/>
     </row>
     <row r="72" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W72" s="120" t="s">
+      <c r="W72" s="119" t="s">
         <v>206</v>
       </c>
       <c r="X72" s="22"/>
@@ -3184,7 +3230,7 @@
       <c r="AC72" s="23"/>
     </row>
     <row r="73" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W73" s="113" t="s">
+      <c r="W73" s="112" t="s">
         <v>207</v>
       </c>
       <c r="X73" s="22"/>
@@ -3195,7 +3241,7 @@
       <c r="AC73" s="23"/>
     </row>
     <row r="74" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W74" s="117" t="s">
+      <c r="W74" s="116" t="s">
         <v>208</v>
       </c>
       <c r="X74" s="22"/>
@@ -3206,7 +3252,7 @@
       <c r="AC74" s="23"/>
     </row>
     <row r="75" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W75" s="113" t="s">
+      <c r="W75" s="112" t="s">
         <v>209</v>
       </c>
       <c r="X75" s="22"/>
@@ -3217,7 +3263,7 @@
       <c r="AC75" s="23"/>
     </row>
     <row r="76" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W76" s="117" t="s">
+      <c r="W76" s="116" t="s">
         <v>210</v>
       </c>
       <c r="X76" s="22"/>
@@ -3228,7 +3274,7 @@
       <c r="AC76" s="23"/>
     </row>
     <row r="77" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W77" s="113" t="s">
+      <c r="W77" s="112" t="s">
         <v>211</v>
       </c>
       <c r="X77" s="22"/>
@@ -3239,7 +3285,7 @@
       <c r="AC77" s="23"/>
     </row>
     <row r="78" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W78" s="113" t="s">
+      <c r="W78" s="112" t="s">
         <v>212</v>
       </c>
       <c r="X78" s="22"/>
@@ -3250,7 +3296,7 @@
       <c r="AC78" s="23"/>
     </row>
     <row r="79" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W79" s="117" t="s">
+      <c r="W79" s="116" t="s">
         <v>213</v>
       </c>
       <c r="X79" s="22"/>
@@ -3261,7 +3307,7 @@
       <c r="AC79" s="23"/>
     </row>
     <row r="80" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W80" s="113" t="s">
+      <c r="W80" s="112" t="s">
         <v>214</v>
       </c>
       <c r="X80" s="22"/>
@@ -3272,7 +3318,7 @@
       <c r="AC80" s="23"/>
     </row>
     <row r="81" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W81" s="113" t="s">
+      <c r="W81" s="112" t="s">
         <v>215</v>
       </c>
       <c r="X81" s="22"/>
@@ -3283,7 +3329,7 @@
       <c r="AC81" s="23"/>
     </row>
     <row r="82" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W82" s="113" t="s">
+      <c r="W82" s="112" t="s">
         <v>216</v>
       </c>
       <c r="X82" s="22"/>
@@ -3294,7 +3340,7 @@
       <c r="AC82" s="23"/>
     </row>
     <row r="83" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W83" s="113"/>
+      <c r="W83" s="112"/>
       <c r="X83" s="22"/>
       <c r="Y83" s="22"/>
       <c r="Z83" s="22"/>
@@ -3303,7 +3349,7 @@
       <c r="AC83" s="23"/>
     </row>
     <row r="84" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W84" s="120" t="s">
+      <c r="W84" s="119" t="s">
         <v>217</v>
       </c>
       <c r="X84" s="22"/>
@@ -3314,7 +3360,7 @@
       <c r="AC84" s="23"/>
     </row>
     <row r="85" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W85" s="113" t="s">
+      <c r="W85" s="112" t="s">
         <v>218</v>
       </c>
       <c r="X85" s="22"/>
@@ -3325,7 +3371,7 @@
       <c r="AC85" s="23"/>
     </row>
     <row r="86" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W86" s="113" t="s">
+      <c r="W86" s="112" t="s">
         <v>219</v>
       </c>
       <c r="X86" s="22"/>
@@ -3336,7 +3382,7 @@
       <c r="AC86" s="23"/>
     </row>
     <row r="87" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W87" s="117" t="s">
+      <c r="W87" s="116" t="s">
         <v>220</v>
       </c>
       <c r="X87" s="22"/>
@@ -3347,7 +3393,7 @@
       <c r="AC87" s="23"/>
     </row>
     <row r="88" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W88" s="113" t="s">
+      <c r="W88" s="112" t="s">
         <v>221</v>
       </c>
       <c r="X88" s="22"/>
@@ -3358,7 +3404,7 @@
       <c r="AC88" s="23"/>
     </row>
     <row r="89" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W89" s="117" t="s">
+      <c r="W89" s="116" t="s">
         <v>222</v>
       </c>
       <c r="X89" s="22"/>
@@ -3369,7 +3415,7 @@
       <c r="AC89" s="23"/>
     </row>
     <row r="90" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W90" s="113" t="s">
+      <c r="W90" s="112" t="s">
         <v>223</v>
       </c>
       <c r="X90" s="22"/>
@@ -3380,7 +3426,7 @@
       <c r="AC90" s="23"/>
     </row>
     <row r="91" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W91" s="113" t="s">
+      <c r="W91" s="112" t="s">
         <v>224</v>
       </c>
       <c r="X91" s="22"/>
@@ -3391,7 +3437,7 @@
       <c r="AC91" s="23"/>
     </row>
     <row r="92" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W92" s="117" t="s">
+      <c r="W92" s="116" t="s">
         <v>225</v>
       </c>
       <c r="X92" s="22"/>
@@ -3402,7 +3448,7 @@
       <c r="AC92" s="23"/>
     </row>
     <row r="93" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W93" s="113"/>
+      <c r="W93" s="112"/>
       <c r="X93" s="22"/>
       <c r="Y93" s="22"/>
       <c r="Z93" s="22"/>
@@ -3411,7 +3457,7 @@
       <c r="AC93" s="23"/>
     </row>
     <row r="94" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W94" s="113"/>
+      <c r="W94" s="112"/>
       <c r="X94" s="22"/>
       <c r="Y94" s="22"/>
       <c r="Z94" s="22"/>
@@ -3420,7 +3466,7 @@
       <c r="AC94" s="23"/>
     </row>
     <row r="95" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W95" s="120" t="s">
+      <c r="W95" s="119" t="s">
         <v>226</v>
       </c>
       <c r="X95" s="22"/>
@@ -3431,7 +3477,7 @@
       <c r="AC95" s="23"/>
     </row>
     <row r="96" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W96" s="113" t="s">
+      <c r="W96" s="112" t="s">
         <v>227</v>
       </c>
       <c r="X96" s="22"/>
@@ -3442,7 +3488,7 @@
       <c r="AC96" s="23"/>
     </row>
     <row r="97" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W97" s="113" t="s">
+      <c r="W97" s="112" t="s">
         <v>228</v>
       </c>
       <c r="X97" s="22"/>
@@ -3453,7 +3499,7 @@
       <c r="AC97" s="23"/>
     </row>
     <row r="98" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W98" s="113" t="s">
+      <c r="W98" s="112" t="s">
         <v>229</v>
       </c>
       <c r="X98" s="22"/>
@@ -3464,7 +3510,7 @@
       <c r="AC98" s="23"/>
     </row>
     <row r="99" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W99" s="113" t="s">
+      <c r="W99" s="112" t="s">
         <v>230</v>
       </c>
       <c r="X99" s="22"/>
@@ -3475,7 +3521,7 @@
       <c r="AC99" s="23"/>
     </row>
     <row r="100" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W100" s="113" t="s">
+      <c r="W100" s="112" t="s">
         <v>231</v>
       </c>
       <c r="X100" s="22"/>
@@ -3486,7 +3532,7 @@
       <c r="AC100" s="23"/>
     </row>
     <row r="101" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W101" s="113" t="s">
+      <c r="W101" s="112" t="s">
         <v>232</v>
       </c>
       <c r="X101" s="22"/>
@@ -3497,7 +3543,7 @@
       <c r="AC101" s="23"/>
     </row>
     <row r="102" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W102" s="113" t="s">
+      <c r="W102" s="112" t="s">
         <v>233</v>
       </c>
       <c r="X102" s="22"/>
@@ -3508,7 +3554,7 @@
       <c r="AC102" s="23"/>
     </row>
     <row r="103" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W103" s="113" t="s">
+      <c r="W103" s="112" t="s">
         <v>234</v>
       </c>
       <c r="X103" s="22"/>
@@ -3519,7 +3565,7 @@
       <c r="AC103" s="23"/>
     </row>
     <row r="104" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W104" s="113" t="s">
+      <c r="W104" s="112" t="s">
         <v>235</v>
       </c>
       <c r="X104" s="22"/>
@@ -3530,7 +3576,7 @@
       <c r="AC104" s="23"/>
     </row>
     <row r="105" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W105" s="114" t="s">
+      <c r="W105" s="113" t="s">
         <v>236</v>
       </c>
       <c r="X105" s="24"/>
@@ -3542,6 +3588,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="W24:AC24"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -3558,28 +3626,6 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="W24:AC24"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K6:L6" r:id="rId1" display="Link" xr:uid="{EBABCF04-F876-4DF1-ADF1-1B6F62DC4548}"/>
@@ -3594,13 +3640,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80596E7F-DECF-497C-AD87-2DA392DA01F4}">
-  <dimension ref="B1:BI71"/>
+  <dimension ref="B1:BK72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomRight" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3614,14 +3660,17 @@
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" style="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="32"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="157"/>
+    <col min="16" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C1" s="13" t="s">
         <v>87</v>
       </c>
@@ -3649,55 +3698,63 @@
       <c r="K1" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13" t="s">
+      <c r="L1" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" s="149" t="s">
+        <v>245</v>
+      </c>
+      <c r="N1" s="151" t="s">
+        <v>247</v>
+      </c>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="U1" s="149" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="2:28" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:30" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="86"/>
       <c r="C2" s="20">
         <v>43646</v>
@@ -3720,30 +3777,38 @@
       <c r="I2" s="20">
         <v>44742</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="N2" s="20">
+      <c r="J2" s="87">
+        <f>T2</f>
+        <v>44926</v>
+      </c>
+      <c r="K2" s="20">
+        <v>45107</v>
+      </c>
+      <c r="L2" s="87">
+        <f>U2</f>
+        <v>45291</v>
+      </c>
+      <c r="M2" s="20">
+        <v>45473</v>
+      </c>
+      <c r="N2" s="152"/>
+      <c r="P2" s="20">
         <v>43465</v>
       </c>
-      <c r="O2" s="20">
+      <c r="Q2" s="20">
         <v>43830</v>
       </c>
-      <c r="P2" s="20">
+      <c r="R2" s="20">
         <v>44196</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="S2" s="20">
         <v>44561</v>
       </c>
-      <c r="R2" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="U2" s="40" t="s">
-        <v>56</v>
+      <c r="T2" s="20">
+        <v>44926</v>
+      </c>
+      <c r="U2" s="20">
+        <v>45291</v>
       </c>
       <c r="V2" s="40" t="s">
         <v>56</v>
@@ -3766,8 +3831,14 @@
       <c r="AB2" s="40" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="2:28" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC2" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:30" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3"/>
       <c r="C3" s="14"/>
       <c r="D3" s="31"/>
@@ -3782,12 +3853,17 @@
       <c r="K3" s="85">
         <v>45146</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="146">
+        <v>45561</v>
+      </c>
+      <c r="N3" s="152" t="s">
+        <v>248</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
       <c r="T3" s="40"/>
       <c r="U3" s="40"/>
       <c r="V3" s="40"/>
@@ -3797,8 +3873,10 @@
       <c r="Z3" s="40"/>
       <c r="AA3" s="40"/>
       <c r="AB3" s="40"/>
-    </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
@@ -3806,90 +3884,101 @@
         <v>1.5716999999999998E-2</v>
       </c>
       <c r="D4" s="69">
-        <f>O4-C4</f>
+        <f>Q4-C4</f>
         <v>1.6253E-2</v>
       </c>
       <c r="E4" s="63">
         <v>1.2707E-2</v>
       </c>
       <c r="F4" s="69">
-        <f>P4-E4</f>
+        <f>R4-E4</f>
         <v>3.6773E-2</v>
       </c>
       <c r="G4" s="63">
         <v>3.2741449999999999</v>
       </c>
       <c r="H4" s="69">
-        <f>Q4-G4</f>
+        <f>S4-G4</f>
         <v>13.101855</v>
       </c>
       <c r="I4" s="71">
         <v>9.8320000000000007</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="150">
+        <f>T4-I4</f>
+        <v>12.481999999999999</v>
+      </c>
       <c r="K4" s="71">
-        <v>2.5</v>
-      </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="63">
+        <v>2.464</v>
+      </c>
+      <c r="L4" s="150">
+        <f>U4-K4</f>
+        <v>8.5129999999999999</v>
+      </c>
+      <c r="M4" s="71">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="N4" s="153">
+        <f>+M4*2.75</f>
+        <v>2.4227500000000002</v>
+      </c>
+      <c r="O4" s="67"/>
+      <c r="P4" s="63">
         <v>4.8380000000000003E-3</v>
       </c>
-      <c r="O4" s="63">
+      <c r="Q4" s="63">
         <v>3.1969999999999998E-2</v>
       </c>
-      <c r="P4" s="63">
+      <c r="R4" s="63">
         <v>4.9480000000000003E-2</v>
       </c>
-      <c r="Q4" s="63">
+      <c r="S4" s="63">
         <v>16.376000000000001</v>
       </c>
-      <c r="R4" s="71">
-        <f>Q4*1.25</f>
-        <v>20.470000000000002</v>
-      </c>
-      <c r="S4" s="71">
-        <f t="shared" ref="S4:AB4" si="0">R4*1.25</f>
-        <v>25.587500000000002</v>
-      </c>
       <c r="T4" s="71">
-        <f t="shared" si="0"/>
-        <v>31.984375000000004</v>
+        <v>22.314</v>
       </c>
       <c r="U4" s="71">
-        <f t="shared" si="0"/>
-        <v>39.980468750000007</v>
+        <v>10.977</v>
       </c>
       <c r="V4" s="71">
-        <f t="shared" si="0"/>
-        <v>49.975585937500007</v>
+        <f>N4+M4</f>
+        <v>3.30375</v>
       </c>
       <c r="W4" s="71">
-        <f t="shared" si="0"/>
-        <v>62.469482421875007</v>
+        <f t="shared" ref="U4:AD4" si="0">V4*1.25</f>
+        <v>4.1296875000000002</v>
       </c>
       <c r="X4" s="71">
         <f t="shared" si="0"/>
-        <v>78.086853027343764</v>
+        <v>5.162109375</v>
       </c>
       <c r="Y4" s="71">
         <f t="shared" si="0"/>
-        <v>97.608566284179702</v>
+        <v>6.45263671875</v>
       </c>
       <c r="Z4" s="71">
         <f t="shared" si="0"/>
-        <v>122.01070785522462</v>
+        <v>8.0657958984375</v>
       </c>
       <c r="AA4" s="71">
         <f t="shared" si="0"/>
-        <v>152.51338481903079</v>
+        <v>10.082244873046875</v>
       </c>
       <c r="AB4" s="71">
         <f t="shared" si="0"/>
-        <v>190.64173102378848</v>
-      </c>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+        <v>12.602806091308594</v>
+      </c>
+      <c r="AC4" s="71">
+        <f t="shared" si="0"/>
+        <v>15.753507614135742</v>
+      </c>
+      <c r="AD4" s="71">
+        <f t="shared" si="0"/>
+        <v>19.691884517669678</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>17</v>
       </c>
@@ -3897,88 +3986,98 @@
         <v>0.24007999999999999</v>
       </c>
       <c r="D5" s="72">
-        <f>O5-C5</f>
+        <f>Q5-C5</f>
         <v>0.25205600000000006</v>
       </c>
       <c r="E5" s="64">
         <v>0.174067</v>
       </c>
       <c r="F5" s="72">
-        <f>P5-E5</f>
+        <f>R5-E5</f>
         <v>-3.2727000000000006E-2</v>
       </c>
       <c r="G5" s="64">
         <v>2.1742710000000001</v>
       </c>
       <c r="H5" s="72">
-        <f>Q5-G5</f>
+        <f>S5-G5</f>
         <v>9.0767290000000003</v>
       </c>
       <c r="I5" s="67">
         <v>8.3209999999999997</v>
       </c>
-      <c r="J5" s="70"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="64">
+      <c r="J5" s="70">
+        <f>T5-I5</f>
+        <v>9.2080000000000002</v>
+      </c>
+      <c r="K5" s="67">
+        <v>1.863</v>
+      </c>
+      <c r="L5" s="70">
+        <f>U5-K5</f>
+        <v>7.0660000000000007</v>
+      </c>
+      <c r="M5" s="67">
+        <v>1.167</v>
+      </c>
+      <c r="N5" s="154"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="64">
         <v>0.54072100000000001</v>
       </c>
-      <c r="O5" s="64">
+      <c r="Q5" s="64">
         <v>0.49213600000000002</v>
       </c>
-      <c r="P5" s="64">
+      <c r="R5" s="64">
         <v>0.14133999999999999</v>
       </c>
-      <c r="Q5" s="64">
+      <c r="S5" s="64">
         <v>11.250999999999999</v>
       </c>
-      <c r="R5" s="68">
-        <f>R4-R7</f>
-        <v>14.124300000000002</v>
-      </c>
-      <c r="S5" s="68">
-        <f t="shared" ref="S5:AB5" si="1">S4-S7</f>
-        <v>17.655374999999999</v>
-      </c>
       <c r="T5" s="68">
-        <f t="shared" si="1"/>
-        <v>22.069218750000005</v>
+        <v>17.529</v>
       </c>
       <c r="U5" s="68">
-        <f t="shared" si="1"/>
-        <v>27.586523437500006</v>
+        <v>8.9290000000000003</v>
       </c>
       <c r="V5" s="68">
-        <f t="shared" si="1"/>
-        <v>34.483154296875007</v>
+        <f t="shared" ref="U5:AD5" si="1">V4-V7</f>
+        <v>2.2795874999999999</v>
       </c>
       <c r="W5" s="68">
         <f t="shared" si="1"/>
-        <v>43.10394287109375</v>
+        <v>2.8494843750000003</v>
       </c>
       <c r="X5" s="68">
         <f t="shared" si="1"/>
-        <v>53.879928588867202</v>
+        <v>3.5618554687500001</v>
       </c>
       <c r="Y5" s="68">
         <f t="shared" si="1"/>
-        <v>67.349910736083999</v>
+        <v>4.4523193359375002</v>
       </c>
       <c r="Z5" s="68">
         <f t="shared" si="1"/>
-        <v>84.18738842010498</v>
+        <v>5.565399169921875</v>
       </c>
       <c r="AA5" s="68">
         <f t="shared" si="1"/>
-        <v>105.23423552513125</v>
+        <v>6.9567489624023438</v>
       </c>
       <c r="AB5" s="68">
         <f t="shared" si="1"/>
-        <v>131.54279440641406</v>
-      </c>
-    </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+        <v>8.6959362030029297</v>
+      </c>
+      <c r="AC5" s="68">
+        <f t="shared" si="1"/>
+        <v>10.869920253753662</v>
+      </c>
+      <c r="AD5" s="68">
+        <f t="shared" si="1"/>
+        <v>13.587400317192078</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>33</v>
       </c>
@@ -3992,75 +4091,87 @@
         <v>0</v>
       </c>
       <c r="F6" s="72">
-        <f>P6-E6</f>
+        <f>R6-E6</f>
         <v>0.54844199999999999</v>
       </c>
       <c r="G6" s="65">
         <v>0</v>
       </c>
       <c r="H6" s="72">
-        <f>Q6-G6</f>
+        <f>S6-G6</f>
         <v>0</v>
       </c>
       <c r="I6" s="67">
         <v>0</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="65">
-        <v>0</v>
-      </c>
-      <c r="O6" s="65">
-        <v>0</v>
-      </c>
+      <c r="J6" s="70">
+        <f>T6-I6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="67">
+        <v>0</v>
+      </c>
+      <c r="L6" s="70">
+        <f>U6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="67">
+        <v>0</v>
+      </c>
+      <c r="N6" s="154"/>
+      <c r="O6" s="67"/>
       <c r="P6" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="65">
+        <v>0</v>
+      </c>
+      <c r="R6" s="65">
         <v>0.54844199999999999</v>
       </c>
-      <c r="Q6" s="65">
-        <v>0</v>
-      </c>
-      <c r="R6" s="67">
-        <v>0</v>
-      </c>
-      <c r="S6" s="67">
-        <v>1</v>
+      <c r="S6" s="65">
+        <v>0</v>
       </c>
       <c r="T6" s="67">
+        <v>0</v>
+      </c>
+      <c r="U6" s="67">
+        <v>0</v>
+      </c>
+      <c r="V6" s="67">
         <v>2</v>
       </c>
-      <c r="U6" s="67">
+      <c r="W6" s="67">
         <v>3</v>
       </c>
-      <c r="V6" s="67">
+      <c r="X6" s="67">
         <v>4</v>
       </c>
-      <c r="W6" s="67">
+      <c r="Y6" s="67">
         <v>5</v>
       </c>
-      <c r="X6" s="67">
+      <c r="Z6" s="67">
         <v>6</v>
       </c>
-      <c r="Y6" s="67">
+      <c r="AA6" s="67">
         <v>7</v>
       </c>
-      <c r="Z6" s="67">
+      <c r="AB6" s="67">
         <v>8</v>
       </c>
-      <c r="AA6" s="67">
+      <c r="AC6" s="67">
         <v>9</v>
       </c>
-      <c r="AB6" s="67">
+      <c r="AD6" s="67">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="63">
-        <f t="shared" ref="C7:I7" si="2">C4-C5-C6</f>
+        <f t="shared" ref="C7:M7" si="2">C4-C5-C6</f>
         <v>-0.22436299999999998</v>
       </c>
       <c r="D7" s="69">
@@ -4087,72 +4198,89 @@
         <f t="shared" si="2"/>
         <v>1.511000000000001</v>
       </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="63">
-        <f>N4-N5-N6</f>
-        <v>-0.535883</v>
-      </c>
-      <c r="O7" s="63">
-        <f>O4-O5-O6</f>
-        <v>-0.46016600000000002</v>
-      </c>
+      <c r="J7" s="150">
+        <f>T7-I7</f>
+        <v>3.2739999999999991</v>
+      </c>
+      <c r="K7" s="63">
+        <f t="shared" si="2"/>
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="L7" s="69">
+        <f t="shared" si="2"/>
+        <v>1.4469999999999992</v>
+      </c>
+      <c r="M7" s="63">
+        <f t="shared" si="2"/>
+        <v>-0.28600000000000003</v>
+      </c>
+      <c r="N7" s="154">
+        <f>N4*N23</f>
+        <v>0.67837000000000014</v>
+      </c>
+      <c r="O7" s="36"/>
       <c r="P7" s="63">
         <f>P4-P5-P6</f>
-        <v>-0.64030199999999993</v>
+        <v>-0.535883</v>
       </c>
       <c r="Q7" s="63">
         <f>Q4-Q5-Q6</f>
+        <v>-0.46016600000000002</v>
+      </c>
+      <c r="R7" s="63">
+        <f>R4-R5-R6</f>
+        <v>-0.64030199999999993</v>
+      </c>
+      <c r="S7" s="63">
+        <f>S4-S5-S6</f>
         <v>5.1250000000000018</v>
       </c>
-      <c r="R7" s="71">
-        <f>R4*0.31</f>
-        <v>6.3457000000000008</v>
-      </c>
-      <c r="S7" s="71">
-        <f t="shared" ref="S7:AB7" si="3">S4*0.31</f>
-        <v>7.932125000000001</v>
-      </c>
-      <c r="T7" s="71">
+      <c r="T7" s="63">
+        <f t="shared" ref="T7:U7" si="3">T4-T5-T6</f>
+        <v>4.7850000000000001</v>
+      </c>
+      <c r="U7" s="147">
         <f t="shared" si="3"/>
-        <v>9.9151562500000008</v>
-      </c>
-      <c r="U7" s="71">
-        <f t="shared" si="3"/>
-        <v>12.393945312500001</v>
+        <v>2.048</v>
       </c>
       <c r="V7" s="71">
-        <f t="shared" si="3"/>
-        <v>15.492431640625002</v>
+        <f t="shared" ref="U7:AD7" si="4">V4*0.31</f>
+        <v>1.0241625000000001</v>
       </c>
       <c r="W7" s="71">
-        <f t="shared" si="3"/>
-        <v>19.365539550781254</v>
+        <f t="shared" si="4"/>
+        <v>1.2802031250000001</v>
       </c>
       <c r="X7" s="71">
-        <f t="shared" si="3"/>
-        <v>24.206924438476566</v>
+        <f t="shared" si="4"/>
+        <v>1.6002539062500001</v>
       </c>
       <c r="Y7" s="71">
-        <f t="shared" si="3"/>
-        <v>30.258655548095707</v>
+        <f t="shared" si="4"/>
+        <v>2.0003173828124998</v>
       </c>
       <c r="Z7" s="71">
-        <f t="shared" si="3"/>
-        <v>37.823319435119636</v>
+        <f t="shared" si="4"/>
+        <v>2.500396728515625</v>
       </c>
       <c r="AA7" s="71">
-        <f t="shared" si="3"/>
-        <v>47.279149293899543</v>
+        <f t="shared" si="4"/>
+        <v>3.1254959106445313</v>
       </c>
       <c r="AB7" s="71">
-        <f t="shared" si="3"/>
-        <v>59.098936617374427</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.9068698883056641</v>
+      </c>
+      <c r="AC7" s="71">
+        <f t="shared" si="4"/>
+        <v>4.8835873603820801</v>
+      </c>
+      <c r="AD7" s="71">
+        <f t="shared" si="4"/>
+        <v>6.1044842004776001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>34</v>
       </c>
@@ -4160,48 +4288,54 @@
         <v>0</v>
       </c>
       <c r="D8" s="72">
-        <f>O8-C8</f>
+        <f>Q8-C8</f>
         <v>0</v>
       </c>
       <c r="E8" s="65">
         <v>0</v>
       </c>
       <c r="F8" s="72">
-        <f>P8-E8</f>
+        <f>R8-E8</f>
         <v>0.62167300000000003</v>
       </c>
       <c r="G8" s="65">
         <v>0</v>
       </c>
       <c r="H8" s="72">
-        <f>Q8-G8</f>
+        <f>S8-G8</f>
         <v>0.41399999999999998</v>
       </c>
       <c r="I8" s="67">
         <v>0</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="65">
-        <v>0</v>
-      </c>
-      <c r="O8" s="65">
-        <v>0</v>
-      </c>
+      <c r="J8" s="70">
+        <f t="shared" ref="J8:J14" si="5">T8-I8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="67">
+        <v>0</v>
+      </c>
+      <c r="L8" s="70">
+        <f>U8-K8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="67">
+        <v>0</v>
+      </c>
+      <c r="N8" s="154"/>
+      <c r="O8" s="67"/>
       <c r="P8" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="65">
+        <v>0</v>
+      </c>
+      <c r="R8" s="65">
         <v>0.62167300000000003</v>
       </c>
-      <c r="Q8" s="65">
+      <c r="S8" s="65">
         <v>0.41399999999999998</v>
       </c>
-      <c r="R8" s="67">
-        <v>0</v>
-      </c>
-      <c r="S8" s="67">
-        <v>0</v>
-      </c>
       <c r="T8" s="67">
         <v>0</v>
       </c>
@@ -4229,8 +4363,14 @@
       <c r="AB8" s="67">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC8" s="67">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>35</v>
       </c>
@@ -4238,46 +4378,52 @@
         <v>0</v>
       </c>
       <c r="D9" s="72">
-        <f>O9-C9</f>
+        <f>Q9-C9</f>
         <v>0</v>
       </c>
       <c r="E9" s="65">
         <v>0</v>
       </c>
       <c r="F9" s="72">
-        <f>P9-E9</f>
+        <f>R9-E9</f>
         <v>0.17971799999999999</v>
       </c>
       <c r="G9" s="65">
         <v>0</v>
       </c>
       <c r="H9" s="72">
-        <f>Q9-G9</f>
+        <f>S9-G9</f>
         <v>0</v>
       </c>
       <c r="I9" s="67">
         <v>0</v>
       </c>
-      <c r="J9" s="70"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="65">
-        <v>0</v>
-      </c>
-      <c r="O9" s="65">
-        <v>0</v>
-      </c>
+      <c r="J9" s="70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="67">
+        <v>0</v>
+      </c>
+      <c r="L9" s="70">
+        <f>U9-K9</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="67">
+        <v>0</v>
+      </c>
+      <c r="N9" s="154"/>
+      <c r="O9" s="67"/>
       <c r="P9" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="65">
+        <v>0</v>
+      </c>
+      <c r="R9" s="65">
         <v>0.17971799999999999</v>
       </c>
-      <c r="Q9" s="65">
-        <v>0</v>
-      </c>
-      <c r="R9" s="67">
-        <v>0</v>
-      </c>
-      <c r="S9" s="67">
+      <c r="S9" s="65">
         <v>0</v>
       </c>
       <c r="T9" s="67">
@@ -4307,8 +4453,14 @@
       <c r="AB9" s="67">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC9" s="67">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>19</v>
       </c>
@@ -4316,88 +4468,98 @@
         <v>0.96812500000000001</v>
       </c>
       <c r="D10" s="72">
-        <f>O10-C10</f>
+        <f>Q10-C10</f>
         <v>0.97057000000000004</v>
       </c>
       <c r="E10" s="66">
         <v>1.0099990000000001</v>
       </c>
       <c r="F10" s="72">
-        <f>P10-E10</f>
+        <f>R10-E10</f>
         <v>1.2030096000000001</v>
       </c>
       <c r="G10" s="66">
         <v>1.299544</v>
       </c>
       <c r="H10" s="72">
-        <f>Q10-G10</f>
+        <f>S10-G10</f>
         <v>1.2534559999999999</v>
       </c>
       <c r="I10" s="67">
         <v>1.395</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="66">
+      <c r="J10" s="70">
+        <f t="shared" si="5"/>
+        <v>0.69200000000000017</v>
+      </c>
+      <c r="K10" s="67">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="L10" s="70">
+        <f>U10-K10</f>
+        <v>0.87999999999999989</v>
+      </c>
+      <c r="M10" s="67">
+        <v>0.76</v>
+      </c>
+      <c r="N10" s="155"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="66">
         <v>2.213695</v>
       </c>
-      <c r="O10" s="66">
+      <c r="Q10" s="66">
         <v>1.9386950000000001</v>
       </c>
-      <c r="P10" s="66">
+      <c r="R10" s="66">
         <v>2.2130086000000002</v>
       </c>
-      <c r="Q10" s="66">
+      <c r="S10" s="66">
         <v>2.5529999999999999</v>
       </c>
-      <c r="R10" s="67">
-        <f>Q10*1</f>
-        <v>2.5529999999999999</v>
-      </c>
-      <c r="S10" s="67">
-        <f t="shared" ref="S10:AB10" si="4">R10*1</f>
-        <v>2.5529999999999999</v>
-      </c>
       <c r="T10" s="67">
-        <f t="shared" si="4"/>
-        <v>2.5529999999999999</v>
+        <v>2.0870000000000002</v>
       </c>
       <c r="U10" s="67">
-        <f t="shared" si="4"/>
-        <v>2.5529999999999999</v>
+        <v>1.6359999999999999</v>
       </c>
       <c r="V10" s="67">
-        <f t="shared" si="4"/>
-        <v>2.5529999999999999</v>
+        <f t="shared" ref="U10:AD10" si="6">U10*1</f>
+        <v>1.6359999999999999</v>
       </c>
       <c r="W10" s="67">
-        <f t="shared" si="4"/>
-        <v>2.5529999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.6359999999999999</v>
       </c>
       <c r="X10" s="67">
-        <f t="shared" si="4"/>
-        <v>2.5529999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.6359999999999999</v>
       </c>
       <c r="Y10" s="67">
-        <f t="shared" si="4"/>
-        <v>2.5529999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.6359999999999999</v>
       </c>
       <c r="Z10" s="67">
-        <f t="shared" si="4"/>
-        <v>2.5529999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.6359999999999999</v>
       </c>
       <c r="AA10" s="67">
-        <f t="shared" si="4"/>
-        <v>2.5529999999999999</v>
+        <f t="shared" si="6"/>
+        <v>1.6359999999999999</v>
       </c>
       <c r="AB10" s="67">
-        <f t="shared" si="4"/>
-        <v>2.5529999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="AC10" s="67">
+        <f t="shared" si="6"/>
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="AD10" s="67">
+        <f t="shared" si="6"/>
+        <v>1.6359999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -4405,77 +4567,90 @@
         <v>0</v>
       </c>
       <c r="D11" s="72">
-        <f>O11-C11</f>
+        <f>Q11-C11</f>
         <v>0</v>
       </c>
       <c r="E11" s="66">
         <v>0.100989</v>
       </c>
       <c r="F11" s="72">
-        <f>P11-E11</f>
+        <f>R11-E11</f>
         <v>-0.100989</v>
       </c>
       <c r="G11" s="66">
         <v>6.0677000000000002E-2</v>
       </c>
       <c r="H11" s="72">
-        <f>Q11-G11</f>
+        <f>S11-G11</f>
         <v>-6.0677000000000002E-2</v>
       </c>
       <c r="I11" s="67">
         <v>0</v>
       </c>
-      <c r="J11" s="70"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="65">
-        <v>0</v>
-      </c>
-      <c r="O11" s="65">
-        <v>0</v>
-      </c>
+      <c r="J11" s="70">
+        <f t="shared" si="5"/>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="K11" s="67">
+        <v>0</v>
+      </c>
+      <c r="L11" s="70">
+        <f>U11-K11</f>
+        <v>0.114</v>
+      </c>
+      <c r="M11" s="67">
+        <v>0</v>
+      </c>
+      <c r="N11" s="154"/>
+      <c r="O11" s="67"/>
       <c r="P11" s="65">
         <v>0</v>
       </c>
       <c r="Q11" s="65">
         <v>0</v>
       </c>
-      <c r="R11" s="67">
-        <v>0</v>
-      </c>
-      <c r="S11" s="67">
-        <v>1</v>
+      <c r="R11" s="65">
+        <v>0</v>
+      </c>
+      <c r="S11" s="65">
+        <v>0</v>
       </c>
       <c r="T11" s="67">
+        <f>0.226+0.05</f>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="U11" s="67">
+        <v>0.114</v>
+      </c>
+      <c r="V11" s="67">
         <v>2</v>
       </c>
-      <c r="U11" s="67">
+      <c r="W11" s="67">
         <v>3</v>
       </c>
-      <c r="V11" s="67">
+      <c r="X11" s="67">
         <v>4</v>
       </c>
-      <c r="W11" s="67">
+      <c r="Y11" s="67">
         <v>5</v>
       </c>
-      <c r="X11" s="67">
+      <c r="Z11" s="67">
         <v>6</v>
       </c>
-      <c r="Y11" s="67">
+      <c r="AA11" s="67">
         <v>7</v>
       </c>
-      <c r="Z11" s="67">
+      <c r="AB11" s="67">
         <v>8</v>
       </c>
-      <c r="AA11" s="67">
+      <c r="AC11" s="67">
         <v>9</v>
       </c>
-      <c r="AB11" s="67">
+      <c r="AD11" s="67">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -4483,2600 +4658,2949 @@
         <v>0.126301</v>
       </c>
       <c r="D12" s="72">
-        <f>O12-C12</f>
+        <f>Q12-C12</f>
         <v>-5.6579999999999991E-2</v>
       </c>
       <c r="E12" s="66">
         <v>7.4552999999999994E-2</v>
       </c>
       <c r="F12" s="72">
-        <f>P12-E12</f>
+        <f>R12-E12</f>
         <v>2.8737000000000013E-2</v>
       </c>
       <c r="G12" s="66">
         <v>6.5929999999999999E-3</v>
       </c>
       <c r="H12" s="72">
-        <f>Q12-G12</f>
+        <f>S12-G12</f>
         <v>0.105407</v>
       </c>
       <c r="I12" s="67">
         <v>0.104</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="66">
+      <c r="J12" s="70">
+        <f t="shared" si="5"/>
+        <v>-0.124</v>
+      </c>
+      <c r="K12" s="67">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L12" s="70">
+        <f>U12-K12</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="M12" s="67">
+        <v>0.03</v>
+      </c>
+      <c r="N12" s="154"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="66">
         <v>9.2290999999999998E-2</v>
       </c>
-      <c r="O12" s="66">
+      <c r="Q12" s="66">
         <v>6.9721000000000005E-2</v>
       </c>
-      <c r="P12" s="66">
+      <c r="R12" s="66">
         <v>0.10329000000000001</v>
       </c>
-      <c r="Q12" s="66">
+      <c r="S12" s="66">
         <v>0.112</v>
       </c>
-      <c r="R12" s="66">
-        <f>Q12</f>
-        <v>0.112</v>
-      </c>
-      <c r="S12" s="66">
-        <f t="shared" ref="S12:AB12" si="5">R12</f>
-        <v>0.112</v>
-      </c>
       <c r="T12" s="66">
-        <f t="shared" si="5"/>
-        <v>0.112</v>
+        <v>-0.02</v>
       </c>
       <c r="U12" s="66">
-        <f t="shared" si="5"/>
-        <v>0.112</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="V12" s="66">
-        <f t="shared" si="5"/>
-        <v>0.112</v>
+        <f t="shared" ref="U12:AD12" si="7">U12</f>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="W12" s="66">
-        <f t="shared" si="5"/>
-        <v>0.112</v>
+        <f t="shared" si="7"/>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="X12" s="66">
-        <f t="shared" si="5"/>
-        <v>0.112</v>
+        <f t="shared" si="7"/>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="Y12" s="66">
-        <f t="shared" si="5"/>
-        <v>0.112</v>
+        <f t="shared" si="7"/>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="Z12" s="66">
-        <f t="shared" si="5"/>
-        <v>0.112</v>
+        <f t="shared" si="7"/>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AA12" s="66">
-        <f t="shared" si="5"/>
-        <v>0.112</v>
+        <f t="shared" si="7"/>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AB12" s="66">
-        <f t="shared" si="5"/>
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AC12" s="66">
+        <f t="shared" si="7"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AD12" s="66">
+        <f t="shared" si="7"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="66">
-        <f t="shared" ref="C13:H13" si="6">SUM(C8:C12)</f>
+        <f t="shared" ref="C13:H13" si="8">SUM(C8:C12)</f>
         <v>1.0944259999999999</v>
       </c>
       <c r="D13" s="72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.91399000000000008</v>
       </c>
       <c r="E13" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1855410000000002</v>
       </c>
       <c r="F13" s="72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9321486000000003</v>
       </c>
       <c r="G13" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3668140000000002</v>
       </c>
       <c r="H13" s="72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7121859999999998</v>
       </c>
       <c r="I13" s="67">
         <v>1.4990000000000001</v>
       </c>
-      <c r="J13" s="70"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="66">
-        <f>SUM(N8:N12)</f>
-        <v>2.3059859999999999</v>
-      </c>
-      <c r="O13" s="66">
-        <f>SUM(O8:O12)</f>
-        <v>2.008416</v>
-      </c>
+      <c r="J13" s="70">
+        <f t="shared" si="5"/>
+        <v>0.84400000000000031</v>
+      </c>
+      <c r="K13" s="67">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="L13" s="70">
+        <f>U13-K13</f>
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="M13" s="67">
+        <v>0.79</v>
+      </c>
+      <c r="N13" s="154"/>
+      <c r="O13" s="67"/>
       <c r="P13" s="66">
         <f>SUM(P8:P12)</f>
-        <v>3.1176895999999998</v>
+        <v>2.3059859999999999</v>
       </c>
       <c r="Q13" s="66">
         <f>SUM(Q8:Q12)</f>
+        <v>2.008416</v>
+      </c>
+      <c r="R13" s="66">
+        <f>SUM(R8:R12)</f>
+        <v>3.1176895999999998</v>
+      </c>
+      <c r="S13" s="66">
+        <f>SUM(S8:S12)</f>
         <v>3.0790000000000002</v>
       </c>
-      <c r="R13" s="67">
-        <f>Q13</f>
-        <v>3.0790000000000002</v>
-      </c>
-      <c r="S13" s="67">
-        <f t="shared" ref="S13:AB13" si="7">R13</f>
-        <v>3.0790000000000002</v>
-      </c>
-      <c r="T13" s="67">
-        <f t="shared" si="7"/>
-        <v>3.0790000000000002</v>
-      </c>
-      <c r="U13" s="67">
-        <f t="shared" si="7"/>
-        <v>3.0790000000000002</v>
+      <c r="T13" s="148">
+        <f>SUM(T8:T12)</f>
+        <v>2.3430000000000004</v>
+      </c>
+      <c r="U13" s="66">
+        <f>SUM(U8:U12)</f>
+        <v>1.788</v>
       </c>
       <c r="V13" s="67">
-        <f t="shared" si="7"/>
-        <v>3.0790000000000002</v>
+        <f t="shared" ref="U13:AD13" si="9">U13</f>
+        <v>1.788</v>
       </c>
       <c r="W13" s="67">
-        <f t="shared" si="7"/>
-        <v>3.0790000000000002</v>
+        <f t="shared" si="9"/>
+        <v>1.788</v>
       </c>
       <c r="X13" s="67">
-        <f t="shared" si="7"/>
-        <v>3.0790000000000002</v>
+        <f t="shared" si="9"/>
+        <v>1.788</v>
       </c>
       <c r="Y13" s="67">
-        <f t="shared" si="7"/>
-        <v>3.0790000000000002</v>
+        <f t="shared" si="9"/>
+        <v>1.788</v>
       </c>
       <c r="Z13" s="67">
-        <f t="shared" si="7"/>
-        <v>3.0790000000000002</v>
+        <f t="shared" si="9"/>
+        <v>1.788</v>
       </c>
       <c r="AA13" s="67">
-        <f t="shared" si="7"/>
-        <v>3.0790000000000002</v>
+        <f t="shared" si="9"/>
+        <v>1.788</v>
       </c>
       <c r="AB13" s="67">
-        <f t="shared" si="7"/>
-        <v>3.0790000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+        <f t="shared" si="9"/>
+        <v>1.788</v>
+      </c>
+      <c r="AC13" s="67">
+        <f t="shared" si="9"/>
+        <v>1.788</v>
+      </c>
+      <c r="AD13" s="67">
+        <f t="shared" si="9"/>
+        <v>1.788</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="66">
+        <v>0</v>
+      </c>
+      <c r="D14" s="72">
+        <v>0</v>
+      </c>
+      <c r="E14" s="66">
+        <v>0</v>
+      </c>
+      <c r="F14" s="72">
+        <v>0</v>
+      </c>
+      <c r="G14" s="66">
+        <v>0</v>
+      </c>
+      <c r="H14" s="72">
+        <v>0</v>
+      </c>
+      <c r="I14" s="67">
+        <v>0</v>
+      </c>
+      <c r="J14" s="70">
+        <f t="shared" si="5"/>
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="K14" s="67">
+        <v>0.23</v>
+      </c>
+      <c r="L14" s="70">
+        <f>U14-K14</f>
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="M14" s="67">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="N14" s="154"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="66">
+        <v>0</v>
+      </c>
+      <c r="R14" s="66">
+        <v>0</v>
+      </c>
+      <c r="S14" s="66">
+        <v>0</v>
+      </c>
+      <c r="T14" s="67">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="U14" s="67">
+        <v>0.621</v>
+      </c>
+      <c r="V14" s="67">
+        <f>V4*0.05</f>
+        <v>0.16518750000000001</v>
+      </c>
+      <c r="W14" s="67">
+        <f t="shared" ref="W14:AD14" si="10">W4*0.05</f>
+        <v>0.20648437500000003</v>
+      </c>
+      <c r="X14" s="67">
+        <f t="shared" si="10"/>
+        <v>0.25810546875000001</v>
+      </c>
+      <c r="Y14" s="67">
+        <f t="shared" si="10"/>
+        <v>0.3226318359375</v>
+      </c>
+      <c r="Z14" s="67">
+        <f t="shared" si="10"/>
+        <v>0.403289794921875</v>
+      </c>
+      <c r="AA14" s="67">
+        <f t="shared" si="10"/>
+        <v>0.50411224365234375</v>
+      </c>
+      <c r="AB14" s="67">
+        <f t="shared" si="10"/>
+        <v>0.63014030456542969</v>
+      </c>
+      <c r="AC14" s="67">
+        <f t="shared" si="10"/>
+        <v>0.78767538070678711</v>
+      </c>
+      <c r="AD14" s="67">
+        <f t="shared" si="10"/>
+        <v>0.98459422588348389</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="63">
-        <f t="shared" ref="C14:I14" si="8">C7-C13</f>
+      <c r="C15" s="63">
+        <f t="shared" ref="C15:M15" si="11">C7-C13</f>
         <v>-1.3187889999999998</v>
       </c>
-      <c r="D14" s="69">
-        <f t="shared" si="8"/>
+      <c r="D15" s="69">
+        <f t="shared" si="11"/>
         <v>-1.1497930000000001</v>
       </c>
-      <c r="E14" s="63">
-        <f t="shared" si="8"/>
+      <c r="E15" s="63">
+        <f t="shared" si="11"/>
         <v>-1.3469010000000001</v>
       </c>
-      <c r="F14" s="69">
-        <f t="shared" si="8"/>
+      <c r="F15" s="69">
+        <f t="shared" si="11"/>
         <v>-2.4110906000000005</v>
       </c>
-      <c r="G14" s="63">
-        <f t="shared" si="8"/>
+      <c r="G15" s="63">
+        <f t="shared" si="11"/>
         <v>-0.2669400000000004</v>
       </c>
-      <c r="H14" s="69">
-        <f t="shared" si="8"/>
+      <c r="H15" s="69">
+        <f t="shared" si="11"/>
         <v>2.3129400000000002</v>
       </c>
-      <c r="I14" s="63">
-        <f t="shared" si="8"/>
+      <c r="I15" s="63">
+        <f t="shared" si="11"/>
         <v>1.2000000000000899E-2</v>
       </c>
-      <c r="J14" s="70"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="63">
-        <f>N7-N13</f>
+      <c r="J15" s="69">
+        <f>J7-J13-J14</f>
+        <v>1.4939999999999989</v>
+      </c>
+      <c r="K15" s="63">
+        <f>K7-K13-K14</f>
+        <v>-0.40400000000000003</v>
+      </c>
+      <c r="L15" s="69">
+        <f>L7-L13-L14</f>
+        <v>4.2999999999999261E-2</v>
+      </c>
+      <c r="M15" s="63">
+        <f>M7-M13-M14</f>
+        <v>-1.3480000000000001</v>
+      </c>
+      <c r="N15" s="154"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="63">
+        <f>P7-P13</f>
         <v>-2.841869</v>
       </c>
-      <c r="O14" s="63">
-        <f>O7-O13</f>
+      <c r="Q15" s="63">
+        <f>Q7-Q13</f>
         <v>-2.4685820000000001</v>
       </c>
-      <c r="P14" s="63">
-        <f>P7-P13</f>
+      <c r="R15" s="63">
+        <f>R7-R13</f>
         <v>-3.7579915999999995</v>
       </c>
-      <c r="Q14" s="63">
-        <f>Q7-Q13</f>
+      <c r="S15" s="63">
+        <f>S7-S13</f>
         <v>2.0460000000000016</v>
       </c>
-      <c r="R14" s="63">
-        <f>R7-R13</f>
-        <v>3.2667000000000006</v>
-      </c>
-      <c r="S14" s="63">
-        <f t="shared" ref="S14:AB14" si="9">S7-S13</f>
-        <v>4.8531250000000004</v>
-      </c>
-      <c r="T14" s="63">
-        <f t="shared" si="9"/>
-        <v>6.8361562500000002</v>
-      </c>
-      <c r="U14" s="63">
-        <f t="shared" si="9"/>
-        <v>9.3149453125000008</v>
-      </c>
-      <c r="V14" s="63">
-        <f t="shared" si="9"/>
-        <v>12.413431640625001</v>
-      </c>
-      <c r="W14" s="63">
-        <f t="shared" si="9"/>
-        <v>16.286539550781253</v>
-      </c>
-      <c r="X14" s="63">
-        <f t="shared" si="9"/>
-        <v>21.127924438476565</v>
-      </c>
-      <c r="Y14" s="63">
-        <f t="shared" si="9"/>
-        <v>27.179655548095706</v>
-      </c>
-      <c r="Z14" s="63">
-        <f t="shared" si="9"/>
-        <v>34.744319435119635</v>
-      </c>
-      <c r="AA14" s="63">
-        <f t="shared" si="9"/>
-        <v>44.200149293899543</v>
-      </c>
-      <c r="AB14" s="63">
-        <f t="shared" si="9"/>
-        <v>56.019936617374427</v>
-      </c>
-    </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="T15" s="63">
+        <f>T7-T13-T14</f>
+        <v>1.5059999999999998</v>
+      </c>
+      <c r="U15" s="63">
+        <f>U7-U13-U14</f>
+        <v>-0.36099999999999999</v>
+      </c>
+      <c r="V15" s="63">
+        <f t="shared" ref="V15:AD15" si="12">V7-V13-V14</f>
+        <v>-0.92902499999999999</v>
+      </c>
+      <c r="W15" s="63">
+        <f t="shared" si="12"/>
+        <v>-0.71428124999999998</v>
+      </c>
+      <c r="X15" s="63">
+        <f t="shared" si="12"/>
+        <v>-0.44585156249999996</v>
+      </c>
+      <c r="Y15" s="63">
+        <f t="shared" si="12"/>
+        <v>-0.11031445312500021</v>
+      </c>
+      <c r="Z15" s="63">
+        <f t="shared" si="12"/>
+        <v>0.30910693359374997</v>
+      </c>
+      <c r="AA15" s="63">
+        <f t="shared" si="12"/>
+        <v>0.83338366699218747</v>
+      </c>
+      <c r="AB15" s="63">
+        <f t="shared" si="12"/>
+        <v>1.4887295837402341</v>
+      </c>
+      <c r="AC15" s="63">
+        <f t="shared" si="12"/>
+        <v>2.3079119796752927</v>
+      </c>
+      <c r="AD15" s="63">
+        <f t="shared" si="12"/>
+        <v>3.331889974594116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C16" s="66">
         <v>1.1476E-2</v>
       </c>
-      <c r="D15" s="72">
-        <f>O15-C15</f>
+      <c r="D16" s="72">
+        <f>Q16-C16</f>
         <v>1.4870999999999999E-2</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E16" s="66">
         <v>1.9810000000000001E-3</v>
       </c>
-      <c r="F15" s="72">
-        <f>P15-E15</f>
+      <c r="F16" s="72">
+        <f>R16-E16</f>
         <v>2.5770000000000003E-3</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G16" s="66">
         <v>1.7819999999999999E-3</v>
       </c>
-      <c r="H15" s="72">
-        <f>Q15-G15</f>
+      <c r="H16" s="72">
+        <f>S16-G16</f>
         <v>4.0218000000000004E-2</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I16" s="67">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J15" s="70"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="66">
+      <c r="J16" s="70">
+        <f>T16-I16</f>
+        <v>-1.4000000000000009E-2</v>
+      </c>
+      <c r="K16" s="67">
+        <f>0.001-0.05</f>
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="L16" s="70">
+        <f>U16-K16</f>
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="M16" s="67">
+        <f>0.001-0.15</f>
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="N16" s="154"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="66">
         <v>2.3914999999999999E-2</v>
       </c>
-      <c r="O15" s="66">
+      <c r="Q16" s="66">
         <v>2.6346999999999999E-2</v>
       </c>
-      <c r="P15" s="66">
+      <c r="R16" s="66">
         <v>4.5580000000000004E-3</v>
       </c>
-      <c r="Q15" s="66">
+      <c r="S16" s="66">
         <f>0.002+0.04</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="R15" s="67">
-        <f>Q15*1.08</f>
-        <v>4.5360000000000004E-2</v>
-      </c>
-      <c r="S15" s="67">
-        <f t="shared" ref="S15:AB15" si="10">R15*1.08</f>
-        <v>4.8988800000000006E-2</v>
-      </c>
-      <c r="T15" s="67">
-        <f t="shared" si="10"/>
-        <v>5.2907904000000013E-2</v>
-      </c>
-      <c r="U15" s="67">
-        <f t="shared" si="10"/>
-        <v>5.7140536320000018E-2</v>
-      </c>
-      <c r="V15" s="67">
-        <f t="shared" si="10"/>
-        <v>6.1711779225600026E-2</v>
-      </c>
-      <c r="W15" s="67">
-        <f t="shared" si="10"/>
-        <v>6.6648721563648039E-2</v>
-      </c>
-      <c r="X15" s="67">
-        <f t="shared" si="10"/>
-        <v>7.1980619288739889E-2</v>
-      </c>
-      <c r="Y15" s="67">
-        <f t="shared" si="10"/>
-        <v>7.7739068831839078E-2</v>
-      </c>
-      <c r="Z15" s="67">
-        <f t="shared" si="10"/>
-        <v>8.3958194338386208E-2</v>
-      </c>
-      <c r="AA15" s="67">
-        <f t="shared" si="10"/>
-        <v>9.0674849885457112E-2</v>
-      </c>
-      <c r="AB15" s="67">
-        <f t="shared" si="10"/>
-        <v>9.7928837876293681E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="T16" s="67">
+        <f>-0.003+0.005-1+0.987</f>
+        <v>-1.100000000000001E-2</v>
+      </c>
+      <c r="U16" s="67">
+        <f>-0.168+0.002</f>
+        <v>-0.16600000000000001</v>
+      </c>
+      <c r="V16" s="67">
+        <f t="shared" ref="U16:AD16" si="13">U16*1.08</f>
+        <v>-0.17928000000000002</v>
+      </c>
+      <c r="W16" s="67">
+        <f t="shared" si="13"/>
+        <v>-0.19362240000000003</v>
+      </c>
+      <c r="X16" s="67">
+        <f t="shared" si="13"/>
+        <v>-0.20911219200000003</v>
+      </c>
+      <c r="Y16" s="67">
+        <f t="shared" si="13"/>
+        <v>-0.22584116736000004</v>
+      </c>
+      <c r="Z16" s="67">
+        <f t="shared" si="13"/>
+        <v>-0.24390846074880007</v>
+      </c>
+      <c r="AA16" s="67">
+        <f t="shared" si="13"/>
+        <v>-0.26342113760870411</v>
+      </c>
+      <c r="AB16" s="67">
+        <f t="shared" si="13"/>
+        <v>-0.28449482861740044</v>
+      </c>
+      <c r="AC16" s="67">
+        <f t="shared" si="13"/>
+        <v>-0.30725441490679251</v>
+      </c>
+      <c r="AD16" s="67">
+        <f t="shared" si="13"/>
+        <v>-0.33183476809933593</v>
+      </c>
+    </row>
+    <row r="17" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="63">
-        <f t="shared" ref="C16:I16" si="11">C14-C15</f>
+      <c r="C17" s="63">
+        <f t="shared" ref="C17:M17" si="14">C15-C16</f>
         <v>-1.3302649999999998</v>
       </c>
-      <c r="D16" s="69">
-        <f t="shared" si="11"/>
+      <c r="D17" s="69">
+        <f t="shared" si="14"/>
         <v>-1.1646640000000001</v>
       </c>
-      <c r="E16" s="63">
-        <f t="shared" si="11"/>
+      <c r="E17" s="63">
+        <f t="shared" si="14"/>
         <v>-1.3488820000000001</v>
       </c>
-      <c r="F16" s="69">
-        <f t="shared" si="11"/>
+      <c r="F17" s="69">
+        <f t="shared" si="14"/>
         <v>-2.4136676000000006</v>
       </c>
-      <c r="G16" s="63">
-        <f t="shared" si="11"/>
+      <c r="G17" s="63">
+        <f t="shared" si="14"/>
         <v>-0.2687220000000004</v>
       </c>
-      <c r="H16" s="69">
-        <f t="shared" si="11"/>
+      <c r="H17" s="69">
+        <f t="shared" si="14"/>
         <v>2.2727220000000004</v>
       </c>
-      <c r="I16" s="63">
-        <f t="shared" si="11"/>
+      <c r="I17" s="63">
+        <f t="shared" si="14"/>
         <v>9.0000000000008996E-3</v>
       </c>
-      <c r="J16" s="70"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="63">
-        <f>N14-N15</f>
+      <c r="J17" s="69">
+        <f t="shared" si="14"/>
+        <v>1.5079999999999989</v>
+      </c>
+      <c r="K17" s="63">
+        <f t="shared" si="14"/>
+        <v>-0.35500000000000004</v>
+      </c>
+      <c r="L17" s="69">
+        <f t="shared" si="14"/>
+        <v>0.15999999999999925</v>
+      </c>
+      <c r="M17" s="63">
+        <f t="shared" si="14"/>
+        <v>-1.1990000000000001</v>
+      </c>
+      <c r="N17" s="154"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="63">
+        <f>P15-P16</f>
         <v>-2.8657840000000001</v>
       </c>
-      <c r="O16" s="63">
-        <f>O14-O15</f>
+      <c r="Q17" s="63">
+        <f>Q15-Q16</f>
         <v>-2.494929</v>
       </c>
-      <c r="P16" s="63">
-        <f>P14-P15</f>
+      <c r="R17" s="63">
+        <f>R15-R16</f>
         <v>-3.7625495999999994</v>
       </c>
-      <c r="Q16" s="63">
-        <f>Q14-Q15</f>
+      <c r="S17" s="63">
+        <f>S15-S16</f>
         <v>2.0040000000000018</v>
       </c>
-      <c r="R16" s="63">
-        <f>R14-R15</f>
-        <v>3.2213400000000005</v>
-      </c>
-      <c r="S16" s="63">
-        <f t="shared" ref="S16:AB16" si="12">S14-S15</f>
-        <v>4.8041362000000003</v>
-      </c>
-      <c r="T16" s="63">
-        <f t="shared" si="12"/>
-        <v>6.7832483459999997</v>
-      </c>
-      <c r="U16" s="63">
-        <f t="shared" si="12"/>
-        <v>9.2578047761800004</v>
-      </c>
-      <c r="V16" s="63">
-        <f t="shared" si="12"/>
-        <v>12.351719861399401</v>
-      </c>
-      <c r="W16" s="63">
-        <f t="shared" si="12"/>
-        <v>16.219890829217604</v>
-      </c>
-      <c r="X16" s="63">
-        <f t="shared" si="12"/>
-        <v>21.055943819187824</v>
-      </c>
-      <c r="Y16" s="63">
-        <f t="shared" si="12"/>
-        <v>27.101916479263867</v>
-      </c>
-      <c r="Z16" s="63">
-        <f t="shared" si="12"/>
-        <v>34.660361240781249</v>
-      </c>
-      <c r="AA16" s="63">
-        <f t="shared" si="12"/>
-        <v>44.109474444014083</v>
-      </c>
-      <c r="AB16" s="63">
-        <f t="shared" si="12"/>
-        <v>55.922007779498131</v>
-      </c>
-    </row>
-    <row r="17" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="T17" s="63">
+        <f t="shared" ref="T17:U17" si="15">T15-T16</f>
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="U17" s="63">
+        <f t="shared" si="15"/>
+        <v>-0.19499999999999998</v>
+      </c>
+      <c r="V17" s="63">
+        <f t="shared" ref="U17:AD17" si="16">V15-V16</f>
+        <v>-0.74974499999999999</v>
+      </c>
+      <c r="W17" s="63">
+        <f t="shared" si="16"/>
+        <v>-0.52065885000000001</v>
+      </c>
+      <c r="X17" s="63">
+        <f t="shared" si="16"/>
+        <v>-0.23673937049999993</v>
+      </c>
+      <c r="Y17" s="63">
+        <f t="shared" si="16"/>
+        <v>0.11552671423499983</v>
+      </c>
+      <c r="Z17" s="63">
+        <f t="shared" si="16"/>
+        <v>0.55301539434254998</v>
+      </c>
+      <c r="AA17" s="63">
+        <f t="shared" si="16"/>
+        <v>1.0968048046008916</v>
+      </c>
+      <c r="AB17" s="63">
+        <f t="shared" si="16"/>
+        <v>1.7732244123576346</v>
+      </c>
+      <c r="AC17" s="63">
+        <f t="shared" si="16"/>
+        <v>2.6151663945820851</v>
+      </c>
+      <c r="AD17" s="63">
+        <f t="shared" si="16"/>
+        <v>3.6637247426934518</v>
+      </c>
+    </row>
+    <row r="18" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C18" s="66">
         <v>6.9477999999999998E-2</v>
       </c>
-      <c r="D17" s="72">
-        <f>O17-C17</f>
+      <c r="D18" s="72">
+        <f>Q18-C18</f>
         <v>0.27539800000000003</v>
       </c>
-      <c r="E17" s="66">
-        <v>0</v>
-      </c>
-      <c r="F17" s="72">
-        <f>P17-E17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="66">
-        <v>0</v>
-      </c>
-      <c r="H17" s="72">
-        <f>Q17-G17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="66">
-        <v>0</v>
-      </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66">
+      <c r="E18" s="66">
+        <v>0</v>
+      </c>
+      <c r="F18" s="72">
+        <f>R18-E18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="66">
+        <v>0</v>
+      </c>
+      <c r="H18" s="72">
+        <f>S18-G18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="66">
+        <v>0</v>
+      </c>
+      <c r="J18" s="72">
+        <f>T18-I18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="66">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="L18" s="72">
+        <f>U18-K18</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="66">
+        <v>0</v>
+      </c>
+      <c r="N18" s="156"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66">
         <v>5.2276999999999997E-2</v>
       </c>
-      <c r="O17" s="66">
+      <c r="Q18" s="66">
         <v>0.34487600000000002</v>
       </c>
-      <c r="P17" s="66">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="66">
-        <v>0</v>
-      </c>
-      <c r="R17" s="66">
-        <v>-1</v>
-      </c>
-      <c r="S17" s="66">
-        <v>0</v>
-      </c>
-      <c r="T17" s="66">
+      <c r="R18" s="66">
+        <v>0</v>
+      </c>
+      <c r="S18" s="66">
+        <v>0</v>
+      </c>
+      <c r="T18" s="66">
+        <v>0</v>
+      </c>
+      <c r="U18" s="66">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="V18" s="66">
         <v>1</v>
       </c>
-      <c r="U17" s="66">
+      <c r="W18" s="66">
         <v>2</v>
       </c>
-      <c r="V17" s="66">
+      <c r="X18" s="66">
         <v>3</v>
       </c>
-      <c r="W17" s="66">
+      <c r="Y18" s="66">
         <v>4</v>
       </c>
-      <c r="X17" s="66">
+      <c r="Z18" s="66">
         <v>5</v>
       </c>
-      <c r="Y17" s="66">
+      <c r="AA18" s="66">
         <v>6</v>
       </c>
-      <c r="Z17" s="66">
+      <c r="AB18" s="66">
         <v>7</v>
       </c>
-      <c r="AA17" s="66">
+      <c r="AC18" s="66">
         <v>8</v>
       </c>
-      <c r="AB17" s="66">
+      <c r="AD18" s="66">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+    <row r="19" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="63">
-        <f t="shared" ref="C18:I18" si="13">C16+C17</f>
+      <c r="C19" s="63">
+        <f t="shared" ref="C19:M19" si="17">C17+C18</f>
         <v>-1.2607869999999999</v>
       </c>
-      <c r="D18" s="69">
-        <f t="shared" si="13"/>
+      <c r="D19" s="69">
+        <f t="shared" si="17"/>
         <v>-0.88926600000000011</v>
       </c>
-      <c r="E18" s="63">
-        <f t="shared" si="13"/>
+      <c r="E19" s="63">
+        <f t="shared" si="17"/>
         <v>-1.3488820000000001</v>
       </c>
-      <c r="F18" s="69">
-        <f t="shared" si="13"/>
+      <c r="F19" s="69">
+        <f t="shared" si="17"/>
         <v>-2.4136676000000006</v>
       </c>
-      <c r="G18" s="63">
-        <f t="shared" si="13"/>
+      <c r="G19" s="63">
+        <f t="shared" si="17"/>
         <v>-0.2687220000000004</v>
       </c>
-      <c r="H18" s="69">
-        <f t="shared" si="13"/>
+      <c r="H19" s="69">
+        <f t="shared" si="17"/>
         <v>2.2727220000000004</v>
       </c>
-      <c r="I18" s="63">
-        <f t="shared" si="13"/>
+      <c r="I19" s="63">
+        <f t="shared" si="17"/>
         <v>9.0000000000008996E-3</v>
       </c>
-      <c r="J18" s="70"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="63">
-        <f>N16+N17</f>
+      <c r="J19" s="69">
+        <f t="shared" si="17"/>
+        <v>1.5079999999999989</v>
+      </c>
+      <c r="K19" s="63">
+        <f t="shared" si="17"/>
+        <v>-0.31900000000000006</v>
+      </c>
+      <c r="L19" s="69">
+        <f t="shared" si="17"/>
+        <v>0.15999999999999925</v>
+      </c>
+      <c r="M19" s="63">
+        <f t="shared" si="17"/>
+        <v>-1.1990000000000001</v>
+      </c>
+      <c r="N19" s="154"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="63">
+        <f>P17+P18</f>
         <v>-2.813507</v>
       </c>
-      <c r="O18" s="63">
-        <f>O16+O17</f>
+      <c r="Q19" s="63">
+        <f>Q17+Q18</f>
         <v>-2.1500529999999998</v>
       </c>
-      <c r="P18" s="63">
-        <f>P16+P17</f>
+      <c r="R19" s="63">
+        <f>R17+R18</f>
         <v>-3.7625495999999994</v>
       </c>
-      <c r="Q18" s="63">
-        <f>Q16+Q17</f>
+      <c r="S19" s="63">
+        <f>S17+S18</f>
         <v>2.0040000000000018</v>
       </c>
-      <c r="R18" s="63">
-        <f>R16+R17</f>
-        <v>2.2213400000000005</v>
-      </c>
-      <c r="S18" s="63">
-        <f t="shared" ref="S18:AB18" si="14">S16+S17</f>
-        <v>4.8041362000000003</v>
-      </c>
-      <c r="T18" s="63">
-        <f t="shared" si="14"/>
-        <v>7.7832483459999997</v>
-      </c>
-      <c r="U18" s="63">
-        <f t="shared" si="14"/>
-        <v>11.25780477618</v>
-      </c>
-      <c r="V18" s="63">
-        <f t="shared" si="14"/>
-        <v>15.351719861399401</v>
-      </c>
-      <c r="W18" s="63">
-        <f t="shared" si="14"/>
-        <v>20.219890829217604</v>
-      </c>
-      <c r="X18" s="63">
-        <f t="shared" si="14"/>
-        <v>26.055943819187824</v>
-      </c>
-      <c r="Y18" s="63">
-        <f t="shared" si="14"/>
-        <v>33.101916479263863</v>
-      </c>
-      <c r="Z18" s="63">
-        <f t="shared" si="14"/>
-        <v>41.660361240781249</v>
-      </c>
-      <c r="AA18" s="63">
-        <f t="shared" si="14"/>
-        <v>52.109474444014083</v>
-      </c>
-      <c r="AB18" s="63">
-        <f t="shared" si="14"/>
-        <v>64.922007779498131</v>
-      </c>
-      <c r="AC18" s="53">
-        <f t="shared" ref="AC18:BI18" si="15">AB18*(1+$AE$22)</f>
-        <v>63.948177662805655</v>
-      </c>
-      <c r="AD18" s="53">
-        <f t="shared" si="15"/>
-        <v>62.988954997863573</v>
-      </c>
-      <c r="AE18" s="53">
-        <f t="shared" si="15"/>
-        <v>62.044120672895616</v>
-      </c>
-      <c r="AF18" s="53">
-        <f t="shared" si="15"/>
-        <v>61.113458862802183</v>
-      </c>
-      <c r="AG18" s="53">
-        <f t="shared" si="15"/>
-        <v>60.196756979860147</v>
-      </c>
-      <c r="AH18" s="53">
-        <f t="shared" si="15"/>
-        <v>59.293805625162243</v>
-      </c>
-      <c r="AI18" s="53">
-        <f t="shared" si="15"/>
-        <v>58.404398540784811</v>
-      </c>
-      <c r="AJ18" s="53">
-        <f t="shared" si="15"/>
-        <v>57.528332562673036</v>
-      </c>
-      <c r="AK18" s="53">
-        <f t="shared" si="15"/>
-        <v>56.665407574232937</v>
-      </c>
-      <c r="AL18" s="53">
-        <f t="shared" si="15"/>
-        <v>55.815426460619442</v>
-      </c>
-      <c r="AM18" s="53">
-        <f t="shared" si="15"/>
-        <v>54.978195063710146</v>
-      </c>
-      <c r="AN18" s="53">
-        <f t="shared" si="15"/>
-        <v>54.153522137754493</v>
-      </c>
-      <c r="AO18" s="53">
-        <f t="shared" si="15"/>
-        <v>53.341219305688178</v>
-      </c>
-      <c r="AP18" s="53">
-        <f t="shared" si="15"/>
-        <v>52.541101016102857</v>
-      </c>
-      <c r="AQ18" s="53">
-        <f t="shared" si="15"/>
-        <v>51.752984500861317</v>
-      </c>
-      <c r="AR18" s="53">
-        <f t="shared" si="15"/>
-        <v>50.976689733348394</v>
-      </c>
-      <c r="AS18" s="53">
-        <f t="shared" si="15"/>
-        <v>50.21203938734817</v>
-      </c>
-      <c r="AT18" s="53">
-        <f t="shared" si="15"/>
-        <v>49.458858796537946</v>
-      </c>
-      <c r="AU18" s="53">
-        <f t="shared" si="15"/>
-        <v>48.716975914589874</v>
-      </c>
-      <c r="AV18" s="53">
-        <f t="shared" si="15"/>
-        <v>47.986221275871024</v>
-      </c>
-      <c r="AW18" s="53">
-        <f t="shared" si="15"/>
-        <v>47.266427956732961</v>
-      </c>
-      <c r="AX18" s="53">
-        <f t="shared" si="15"/>
-        <v>46.557431537381966</v>
-      </c>
-      <c r="AY18" s="53">
-        <f t="shared" si="15"/>
-        <v>45.859070064321237</v>
-      </c>
-      <c r="AZ18" s="53">
-        <f t="shared" si="15"/>
-        <v>45.171184013356417</v>
-      </c>
-      <c r="BA18" s="53">
-        <f t="shared" si="15"/>
-        <v>44.49361625315607</v>
-      </c>
-      <c r="BB18" s="53">
-        <f t="shared" si="15"/>
-        <v>43.826212009358727</v>
-      </c>
-      <c r="BC18" s="53">
-        <f t="shared" si="15"/>
-        <v>43.168818829218345</v>
-      </c>
-      <c r="BD18" s="53">
-        <f t="shared" si="15"/>
-        <v>42.521286546780068</v>
-      </c>
-      <c r="BE18" s="53">
-        <f t="shared" si="15"/>
-        <v>41.88346724857837</v>
-      </c>
-      <c r="BF18" s="53">
-        <f t="shared" si="15"/>
-        <v>41.255215239849697</v>
-      </c>
-      <c r="BG18" s="53">
-        <f t="shared" si="15"/>
-        <v>40.636387011251948</v>
-      </c>
-      <c r="BH18" s="53">
-        <f t="shared" si="15"/>
-        <v>40.026841206083169</v>
-      </c>
-      <c r="BI18" s="53">
-        <f t="shared" si="15"/>
-        <v>39.426438587991925</v>
-      </c>
-    </row>
-    <row r="19" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="T19" s="63">
+        <f t="shared" ref="T19:U19" si="18">T17+T18</f>
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="U19" s="63">
+        <f t="shared" si="18"/>
+        <v>-0.15899999999999997</v>
+      </c>
+      <c r="V19" s="63">
+        <f t="shared" ref="U19:AD19" si="19">V17+V18</f>
+        <v>0.25025500000000001</v>
+      </c>
+      <c r="W19" s="63">
+        <f t="shared" si="19"/>
+        <v>1.47934115</v>
+      </c>
+      <c r="X19" s="63">
+        <f t="shared" si="19"/>
+        <v>2.7632606295</v>
+      </c>
+      <c r="Y19" s="63">
+        <f t="shared" si="19"/>
+        <v>4.115526714235</v>
+      </c>
+      <c r="Z19" s="63">
+        <f t="shared" si="19"/>
+        <v>5.55301539434255</v>
+      </c>
+      <c r="AA19" s="63">
+        <f t="shared" si="19"/>
+        <v>7.0968048046008914</v>
+      </c>
+      <c r="AB19" s="63">
+        <f t="shared" si="19"/>
+        <v>8.7732244123576351</v>
+      </c>
+      <c r="AC19" s="63">
+        <f t="shared" si="19"/>
+        <v>10.615166394582085</v>
+      </c>
+      <c r="AD19" s="63">
+        <f t="shared" si="19"/>
+        <v>12.663724742693452</v>
+      </c>
+      <c r="AE19" s="53">
+        <f t="shared" ref="AE19:BK19" si="20">AD19*(1+$AG$23)</f>
+        <v>12.47376887155305</v>
+      </c>
+      <c r="AF19" s="53">
+        <f t="shared" si="20"/>
+        <v>12.286662338479754</v>
+      </c>
+      <c r="AG19" s="53">
+        <f t="shared" si="20"/>
+        <v>12.102362403402557</v>
+      </c>
+      <c r="AH19" s="53">
+        <f t="shared" si="20"/>
+        <v>11.920826967351518</v>
+      </c>
+      <c r="AI19" s="53">
+        <f t="shared" si="20"/>
+        <v>11.742014562841245</v>
+      </c>
+      <c r="AJ19" s="53">
+        <f t="shared" si="20"/>
+        <v>11.565884344398626</v>
+      </c>
+      <c r="AK19" s="53">
+        <f t="shared" si="20"/>
+        <v>11.392396079232647</v>
+      </c>
+      <c r="AL19" s="53">
+        <f t="shared" si="20"/>
+        <v>11.221510138044158</v>
+      </c>
+      <c r="AM19" s="53">
+        <f t="shared" si="20"/>
+        <v>11.053187485973496</v>
+      </c>
+      <c r="AN19" s="53">
+        <f t="shared" si="20"/>
+        <v>10.887389673683893</v>
+      </c>
+      <c r="AO19" s="53">
+        <f t="shared" si="20"/>
+        <v>10.724078828578635</v>
+      </c>
+      <c r="AP19" s="53">
+        <f t="shared" si="20"/>
+        <v>10.563217646149957</v>
+      </c>
+      <c r="AQ19" s="53">
+        <f t="shared" si="20"/>
+        <v>10.404769381457706</v>
+      </c>
+      <c r="AR19" s="53">
+        <f t="shared" si="20"/>
+        <v>10.24869784073584</v>
+      </c>
+      <c r="AS19" s="53">
+        <f t="shared" si="20"/>
+        <v>10.094967373124803</v>
+      </c>
+      <c r="AT19" s="53">
+        <f t="shared" si="20"/>
+        <v>9.9435428625279307</v>
+      </c>
+      <c r="AU19" s="53">
+        <f t="shared" si="20"/>
+        <v>9.7943897195900114</v>
+      </c>
+      <c r="AV19" s="53">
+        <f t="shared" si="20"/>
+        <v>9.6474738737961605</v>
+      </c>
+      <c r="AW19" s="53">
+        <f t="shared" si="20"/>
+        <v>9.5027617656892183</v>
+      </c>
+      <c r="AX19" s="53">
+        <f t="shared" si="20"/>
+        <v>9.3602203392038792</v>
+      </c>
+      <c r="AY19" s="53">
+        <f t="shared" si="20"/>
+        <v>9.2198170341158203</v>
+      </c>
+      <c r="AZ19" s="53">
+        <f t="shared" si="20"/>
+        <v>9.0815197786040827</v>
+      </c>
+      <c r="BA19" s="53">
+        <f t="shared" si="20"/>
+        <v>8.9452969819250221</v>
+      </c>
+      <c r="BB19" s="53">
+        <f t="shared" si="20"/>
+        <v>8.8111175271961475</v>
+      </c>
+      <c r="BC19" s="53">
+        <f t="shared" si="20"/>
+        <v>8.6789507642882047</v>
+      </c>
+      <c r="BD19" s="53">
+        <f t="shared" si="20"/>
+        <v>8.5487665028238808</v>
+      </c>
+      <c r="BE19" s="53">
+        <f t="shared" si="20"/>
+        <v>8.420535005281522</v>
+      </c>
+      <c r="BF19" s="53">
+        <f t="shared" si="20"/>
+        <v>8.2942269802022999</v>
+      </c>
+      <c r="BG19" s="53">
+        <f t="shared" si="20"/>
+        <v>8.1698135754992656</v>
+      </c>
+      <c r="BH19" s="53">
+        <f t="shared" si="20"/>
+        <v>8.0472663718667761</v>
+      </c>
+      <c r="BI19" s="53">
+        <f t="shared" si="20"/>
+        <v>7.9265573762887742</v>
+      </c>
+      <c r="BJ19" s="53">
+        <f t="shared" si="20"/>
+        <v>7.8076590156444423</v>
+      </c>
+      <c r="BK19" s="53">
+        <f t="shared" si="20"/>
+        <v>7.6905441304097755</v>
+      </c>
+    </row>
+    <row r="20" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="66">
-        <f t="shared" ref="C19:I19" si="16">(C18/C20)</f>
+      <c r="C20" s="66">
+        <f t="shared" ref="C20:I20" si="21">(C19/C21)</f>
         <v>-5.8309467350935564E-3</v>
       </c>
-      <c r="D19" s="72">
-        <f t="shared" si="16"/>
+      <c r="D20" s="72">
+        <f t="shared" si="21"/>
         <v>-3.6932717437238396E-3</v>
       </c>
-      <c r="E19" s="66">
-        <f t="shared" si="16"/>
+      <c r="E20" s="66">
+        <f t="shared" si="21"/>
         <v>-3.9258307454951135E-3</v>
       </c>
-      <c r="F19" s="72">
-        <f t="shared" si="16"/>
+      <c r="F20" s="72">
+        <f t="shared" si="21"/>
         <v>-4.6611916836287381E-3</v>
       </c>
-      <c r="G19" s="66">
-        <f t="shared" si="16"/>
+      <c r="G20" s="66">
+        <f t="shared" si="21"/>
         <v>-4.0439192608093311E-4</v>
       </c>
-      <c r="H19" s="72">
-        <f t="shared" si="16"/>
+      <c r="H20" s="72">
+        <f t="shared" si="21"/>
         <v>3.1971802850663715E-3</v>
       </c>
-      <c r="I19" s="66">
-        <f t="shared" si="16"/>
+      <c r="I20" s="66">
+        <f t="shared" si="21"/>
         <v>1.1621600681801736E-5</v>
       </c>
-      <c r="J19" s="70"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="66">
-        <f>(N18/N20)</f>
+      <c r="J20" s="70">
+        <f>J19/J21</f>
+        <v>2.9213369959821909E-2</v>
+      </c>
+      <c r="K20" s="66">
+        <f t="shared" ref="K20:M20" si="22">(K19/K21)</f>
+        <v>-6.1339156463920321E-3</v>
+      </c>
+      <c r="L20" s="70">
+        <f>L19/L21</f>
+        <v>3.0765721110430104E-3</v>
+      </c>
+      <c r="M20" s="66">
+        <f t="shared" si="22"/>
+        <v>-2.3055062257128667E-2</v>
+      </c>
+      <c r="N20" s="154"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="66">
+        <f>(P19/P21)</f>
         <v>-1.7770826388743045E-2</v>
       </c>
-      <c r="O19" s="66">
-        <f>(O18/O20)</f>
+      <c r="Q20" s="66">
+        <f>(Q19/Q21)</f>
         <v>-8.9295328871323888E-3</v>
       </c>
-      <c r="P19" s="66">
-        <f>(P18/P20)</f>
+      <c r="R20" s="66">
+        <f>(R19/R21)</f>
         <v>-7.2661061136838519E-3</v>
       </c>
-      <c r="Q19" s="66">
-        <f>(Q18/Q20)</f>
+      <c r="S20" s="66">
+        <f>(S19/S21)</f>
         <v>2.8191522285932963E-3</v>
       </c>
-      <c r="R19" s="66">
-        <f>(R18/R20)</f>
-        <v>3.1248980097122897E-3</v>
-      </c>
-      <c r="S19" s="66">
-        <f t="shared" ref="S19:AB19" si="17">(S18/S20)</f>
-        <v>6.7582790791894803E-3</v>
-      </c>
-      <c r="T19" s="66">
-        <f t="shared" si="17"/>
-        <v>1.0949182594970542E-2</v>
-      </c>
-      <c r="U19" s="66">
-        <f t="shared" si="17"/>
-        <v>1.583705859472858E-2</v>
-      </c>
-      <c r="V19" s="66">
-        <f t="shared" si="17"/>
-        <v>2.1596225179642742E-2</v>
-      </c>
-      <c r="W19" s="66">
-        <f t="shared" si="17"/>
-        <v>2.8444585974601751E-2</v>
-      </c>
-      <c r="X19" s="66">
-        <f t="shared" si="17"/>
-        <v>3.6654526989004496E-2</v>
-      </c>
-      <c r="Y19" s="66">
-        <f t="shared" si="17"/>
-        <v>4.6566537731150597E-2</v>
-      </c>
-      <c r="Z19" s="66">
-        <f t="shared" si="17"/>
-        <v>5.8606237642689692E-2</v>
-      </c>
-      <c r="AA19" s="66">
-        <f t="shared" si="17"/>
-        <v>7.330565918646087E-2</v>
-      </c>
-      <c r="AB19" s="66">
-        <f t="shared" si="17"/>
-        <v>9.1329851754652344E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="T20" s="66">
+        <f t="shared" ref="T20:AD20" si="23">(T19/T21)</f>
+        <v>2.9387720311041025E-2</v>
+      </c>
+      <c r="U20" s="66">
+        <f t="shared" si="23"/>
+        <v>-3.0573435353490053E-3</v>
+      </c>
+      <c r="V20" s="66">
+        <f t="shared" si="23"/>
+        <v>4.8120472103067007E-3</v>
+      </c>
+      <c r="W20" s="66">
+        <f t="shared" si="23"/>
+        <v>2.8445623280051974E-2</v>
+      </c>
+      <c r="X20" s="66">
+        <f t="shared" si="23"/>
+        <v>5.3133566176643075E-2</v>
+      </c>
+      <c r="Y20" s="66">
+        <f t="shared" si="23"/>
+        <v>7.9135716945424608E-2</v>
+      </c>
+      <c r="Z20" s="66">
+        <f t="shared" si="23"/>
+        <v>0.10677657684016796</v>
+      </c>
+      <c r="AA20" s="66">
+        <f t="shared" si="23"/>
+        <v>0.13646144837094529</v>
+      </c>
+      <c r="AB20" s="66">
+        <f t="shared" si="23"/>
+        <v>0.16869660969363331</v>
+      </c>
+      <c r="AC20" s="66">
+        <f t="shared" si="23"/>
+        <v>0.20411453052282735</v>
+      </c>
+      <c r="AD20" s="66">
+        <f t="shared" si="23"/>
+        <v>0.24350538978310113</v>
+      </c>
+    </row>
+    <row r="21" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C21" s="66">
         <v>216.223378</v>
       </c>
-      <c r="D20" s="72">
-        <f>O20</f>
+      <c r="D21" s="72">
+        <f>Q21</f>
         <v>240.78000800000001</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E21" s="66">
         <v>343.59148099999999</v>
       </c>
-      <c r="F20" s="72">
-        <f>P20</f>
+      <c r="F21" s="72">
+        <f>R21</f>
         <v>517.822</v>
       </c>
-      <c r="G20" s="66">
+      <c r="G21" s="66">
         <v>664.50881600000002</v>
       </c>
-      <c r="H20" s="70">
-        <f>Q20</f>
+      <c r="H21" s="70">
+        <f>S21</f>
         <v>710.85199999999998</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I21" s="67">
         <v>774.42</v>
       </c>
-      <c r="J20" s="70"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="66">
+      <c r="J21" s="70">
+        <f>T21</f>
+        <v>51.620199999999997</v>
+      </c>
+      <c r="K21" s="67">
+        <v>52.005932000000001</v>
+      </c>
+      <c r="L21" s="70">
+        <f>U21</f>
+        <v>52.005932000000001</v>
+      </c>
+      <c r="M21" s="67">
+        <v>52.005932000000001</v>
+      </c>
+      <c r="N21" s="154"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="66">
         <v>158.321675</v>
       </c>
-      <c r="O20" s="66">
+      <c r="Q21" s="66">
         <v>240.78000800000001</v>
       </c>
-      <c r="P20" s="66">
+      <c r="R21" s="66">
         <v>517.822</v>
       </c>
-      <c r="Q20" s="66">
+      <c r="S21" s="66">
         <v>710.85199999999998</v>
       </c>
-      <c r="R20" s="66">
-        <f>Q20</f>
-        <v>710.85199999999998</v>
-      </c>
-      <c r="S20" s="66">
-        <f t="shared" ref="S20:AB20" si="18">R20</f>
-        <v>710.85199999999998</v>
-      </c>
-      <c r="T20" s="66">
-        <f t="shared" si="18"/>
-        <v>710.85199999999998</v>
-      </c>
-      <c r="U20" s="66">
-        <f t="shared" si="18"/>
-        <v>710.85199999999998</v>
-      </c>
-      <c r="V20" s="66">
-        <f t="shared" si="18"/>
-        <v>710.85199999999998</v>
-      </c>
-      <c r="W20" s="66">
-        <f t="shared" si="18"/>
-        <v>710.85199999999998</v>
-      </c>
-      <c r="X20" s="66">
-        <f t="shared" si="18"/>
-        <v>710.85199999999998</v>
-      </c>
-      <c r="Y20" s="66">
-        <f t="shared" si="18"/>
-        <v>710.85199999999998</v>
-      </c>
-      <c r="Z20" s="66">
-        <f t="shared" si="18"/>
-        <v>710.85199999999998</v>
-      </c>
-      <c r="AA20" s="66">
-        <f t="shared" si="18"/>
-        <v>710.85199999999998</v>
-      </c>
-      <c r="AB20" s="66">
-        <f t="shared" si="18"/>
-        <v>710.85199999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="T21" s="66">
+        <v>51.620199999999997</v>
+      </c>
+      <c r="U21" s="66">
+        <v>52.005932000000001</v>
+      </c>
+      <c r="V21" s="66">
+        <f t="shared" ref="U21:AD21" si="24">U21</f>
+        <v>52.005932000000001</v>
+      </c>
+      <c r="W21" s="66">
+        <f t="shared" si="24"/>
+        <v>52.005932000000001</v>
+      </c>
+      <c r="X21" s="66">
+        <f t="shared" si="24"/>
+        <v>52.005932000000001</v>
+      </c>
+      <c r="Y21" s="66">
+        <f t="shared" si="24"/>
+        <v>52.005932000000001</v>
+      </c>
+      <c r="Z21" s="66">
+        <f t="shared" si="24"/>
+        <v>52.005932000000001</v>
+      </c>
+      <c r="AA21" s="66">
+        <f t="shared" si="24"/>
+        <v>52.005932000000001</v>
+      </c>
+      <c r="AB21" s="66">
+        <f t="shared" si="24"/>
+        <v>52.005932000000001</v>
+      </c>
+      <c r="AC21" s="66">
+        <f t="shared" si="24"/>
+        <v>52.005932000000001</v>
+      </c>
+      <c r="AD21" s="66">
+        <f t="shared" si="24"/>
+        <v>52.005932000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="16">
-        <f t="shared" ref="C22:H22" si="19">C7/C4</f>
+      <c r="C23" s="16">
+        <f t="shared" ref="C23:H23" si="25">C7/C4</f>
         <v>-14.275179741680983</v>
       </c>
-      <c r="D22" s="33">
-        <f t="shared" si="19"/>
+      <c r="D23" s="33">
+        <f t="shared" si="25"/>
         <v>-14.508275395311639</v>
       </c>
-      <c r="E22" s="16">
-        <f t="shared" si="19"/>
+      <c r="E23" s="16">
+        <f t="shared" si="25"/>
         <v>-12.698512630833399</v>
       </c>
-      <c r="F22" s="33">
-        <f t="shared" si="19"/>
+      <c r="F23" s="33">
+        <f t="shared" si="25"/>
         <v>-13.024284121502188</v>
       </c>
-      <c r="G22" s="16">
-        <f t="shared" si="19"/>
+      <c r="G23" s="16">
+        <f t="shared" si="25"/>
         <v>0.33592708936226096</v>
       </c>
-      <c r="H22" s="33">
-        <f t="shared" si="19"/>
+      <c r="H23" s="33">
+        <f t="shared" si="25"/>
         <v>0.30721802370732998</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I23" s="36">
         <v>0.31</v>
       </c>
-      <c r="N22" s="16">
-        <f>N7/N4</f>
+      <c r="J23" s="33">
+        <f t="shared" ref="J23" si="26">J7/J4</f>
+        <v>0.26229770870052871</v>
+      </c>
+      <c r="K23" s="36">
+        <v>0.31</v>
+      </c>
+      <c r="L23" s="33">
+        <f t="shared" ref="L23" si="27">L7/L4</f>
+        <v>0.1699753318454128</v>
+      </c>
+      <c r="M23" s="36">
+        <v>0.31</v>
+      </c>
+      <c r="N23" s="159">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P23" s="16">
+        <f>P7/P4</f>
         <v>-110.76539892517569</v>
       </c>
-      <c r="O22" s="16">
-        <f>O7/O4</f>
+      <c r="Q23" s="16">
+        <f>Q7/Q4</f>
         <v>-14.393681576477949</v>
       </c>
-      <c r="P22" s="16">
-        <f>P7/P4</f>
+      <c r="R23" s="16">
+        <f>R7/R4</f>
         <v>-12.940622473726757</v>
       </c>
-      <c r="Q22" s="16">
-        <f>Q7/Q4</f>
+      <c r="S23" s="16">
+        <f>S7/S4</f>
         <v>0.31295798729848567</v>
       </c>
-      <c r="R22" s="16">
-        <f>R7/R4</f>
+      <c r="T23" s="16">
+        <f t="shared" ref="T23:U23" si="28">T7/T4</f>
+        <v>0.21443936542081204</v>
+      </c>
+      <c r="U23" s="16">
+        <f t="shared" si="28"/>
+        <v>0.18657192311196139</v>
+      </c>
+      <c r="V23" s="16">
+        <f t="shared" ref="U23:AD23" si="29">V7/V4</f>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="W23" s="16">
+        <f t="shared" si="29"/>
         <v>0.31</v>
       </c>
-      <c r="S22" s="16">
-        <f t="shared" ref="S22:AB22" si="20">S7/S4</f>
+      <c r="X23" s="16">
+        <f t="shared" si="29"/>
         <v>0.31</v>
       </c>
-      <c r="T22" s="16">
-        <f t="shared" si="20"/>
+      <c r="Y23" s="16">
+        <f t="shared" si="29"/>
         <v>0.31</v>
       </c>
-      <c r="U22" s="16">
-        <f t="shared" si="20"/>
+      <c r="Z23" s="16">
+        <f t="shared" si="29"/>
         <v>0.31</v>
       </c>
-      <c r="V22" s="16">
-        <f t="shared" si="20"/>
+      <c r="AA23" s="16">
+        <f t="shared" si="29"/>
         <v>0.31</v>
       </c>
-      <c r="W22" s="16">
-        <f t="shared" si="20"/>
+      <c r="AB23" s="16">
+        <f t="shared" si="29"/>
         <v>0.31</v>
       </c>
-      <c r="X22" s="16">
-        <f t="shared" si="20"/>
+      <c r="AC23" s="16">
+        <f t="shared" si="29"/>
         <v>0.31</v>
       </c>
-      <c r="Y22" s="16">
-        <f t="shared" si="20"/>
+      <c r="AD23" s="16">
+        <f t="shared" si="29"/>
         <v>0.31</v>
       </c>
-      <c r="Z22" s="16">
-        <f t="shared" si="20"/>
-        <v>0.31</v>
-      </c>
-      <c r="AA22" s="16">
-        <f t="shared" si="20"/>
-        <v>0.31</v>
-      </c>
-      <c r="AB22" s="16">
-        <f t="shared" si="20"/>
-        <v>0.31</v>
-      </c>
-      <c r="AD22" s="41" t="s">
+      <c r="AF23" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="AE22" s="46">
+      <c r="AG23" s="46">
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="24" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="16">
-        <f t="shared" ref="C23:H23" si="21">C14/C4</f>
+      <c r="C24" s="16">
+        <f t="shared" ref="C24:H24" si="30">C15/C4</f>
         <v>-83.908443087103137</v>
       </c>
-      <c r="D23" s="33">
-        <f t="shared" si="21"/>
+      <c r="D24" s="33">
+        <f t="shared" si="30"/>
         <v>-70.743431981787978</v>
       </c>
-      <c r="E23" s="16">
-        <f t="shared" si="21"/>
+      <c r="E24" s="16">
+        <f t="shared" si="30"/>
         <v>-105.99677343196664</v>
       </c>
-      <c r="F23" s="33">
-        <f t="shared" si="21"/>
+      <c r="F24" s="33">
+        <f t="shared" si="30"/>
         <v>-65.566872433578993</v>
       </c>
-      <c r="G23" s="16">
-        <f t="shared" si="21"/>
+      <c r="G24" s="16">
+        <f t="shared" si="30"/>
         <v>-8.1529681794789297E-2</v>
       </c>
-      <c r="H23" s="33">
-        <f t="shared" si="21"/>
+      <c r="H24" s="33">
+        <f t="shared" si="30"/>
         <v>0.1765353074049438</v>
       </c>
-      <c r="I23" s="16">
-        <f t="shared" ref="I23" si="22">I14/I4</f>
+      <c r="I24" s="16">
+        <f t="shared" ref="I24:J24" si="31">I15/I4</f>
         <v>1.220504475183167E-3</v>
       </c>
-      <c r="N23" s="16">
-        <f>N14/N4</f>
+      <c r="J24" s="33">
+        <f t="shared" si="31"/>
+        <v>0.11969235699407138</v>
+      </c>
+      <c r="K24" s="16">
+        <f t="shared" ref="K24:M24" si="32">K15/K4</f>
+        <v>-0.16396103896103897</v>
+      </c>
+      <c r="L24" s="33">
+        <f t="shared" si="32"/>
+        <v>5.0510983202160529E-3</v>
+      </c>
+      <c r="M24" s="16">
+        <f t="shared" si="32"/>
+        <v>-1.5300794551645858</v>
+      </c>
+      <c r="P24" s="16">
+        <f>P15/P4</f>
         <v>-587.40574617610582</v>
       </c>
-      <c r="O23" s="16">
-        <f>O14/O4</f>
+      <c r="Q24" s="16">
+        <f>Q15/Q4</f>
         <v>-77.215577103534571</v>
       </c>
-      <c r="P23" s="16">
-        <f>P14/P4</f>
+      <c r="R24" s="16">
+        <f>R15/R4</f>
         <v>-75.949708973322544</v>
       </c>
-      <c r="Q23" s="16">
-        <f>Q14/Q4</f>
+      <c r="S24" s="16">
+        <f>S15/S4</f>
         <v>0.12493893502686867</v>
       </c>
-      <c r="R23" s="16">
-        <f>R14/R4</f>
-        <v>0.1595847581827064</v>
-      </c>
-      <c r="S23" s="16">
-        <f t="shared" ref="S23:AB23" si="23">S14/S4</f>
-        <v>0.18966780654616511</v>
-      </c>
-      <c r="T23" s="16">
-        <f t="shared" si="23"/>
-        <v>0.21373424523693207</v>
-      </c>
-      <c r="U23" s="16">
-        <f t="shared" si="23"/>
-        <v>0.23298739618954564</v>
-      </c>
-      <c r="V23" s="16">
-        <f t="shared" si="23"/>
-        <v>0.24838991695163654</v>
-      </c>
-      <c r="W23" s="16">
-        <f t="shared" si="23"/>
-        <v>0.26071193356130923</v>
-      </c>
-      <c r="X23" s="16">
-        <f t="shared" si="23"/>
-        <v>0.27056954684904738</v>
-      </c>
-      <c r="Y23" s="16">
-        <f t="shared" si="23"/>
-        <v>0.27845563747923791</v>
-      </c>
-      <c r="Z23" s="16">
-        <f t="shared" si="23"/>
-        <v>0.28476450998339037</v>
-      </c>
-      <c r="AA23" s="16">
-        <f t="shared" si="23"/>
-        <v>0.28981160798671224</v>
-      </c>
-      <c r="AB23" s="16">
-        <f t="shared" si="23"/>
-        <v>0.2938492863893698</v>
-      </c>
-      <c r="AD23" s="42" t="s">
+      <c r="T24" s="16">
+        <f t="shared" ref="T24:U24" si="33">T15/T4</f>
+        <v>6.7491261091691304E-2</v>
+      </c>
+      <c r="U24" s="16">
+        <f t="shared" si="33"/>
+        <v>-3.2886945431356472E-2</v>
+      </c>
+      <c r="V24" s="16">
+        <f t="shared" ref="U24:AD24" si="34">V15/V4</f>
+        <v>-0.28120317820658342</v>
+      </c>
+      <c r="W24" s="16">
+        <f t="shared" si="34"/>
+        <v>-0.17296254256526672</v>
+      </c>
+      <c r="X24" s="16">
+        <f t="shared" si="34"/>
+        <v>-8.6370034052213385E-2</v>
+      </c>
+      <c r="Y24" s="16">
+        <f t="shared" si="34"/>
+        <v>-1.7096027241770749E-2</v>
+      </c>
+      <c r="Z24" s="16">
+        <f t="shared" si="34"/>
+        <v>3.8323178206583423E-2</v>
+      </c>
+      <c r="AA24" s="16">
+        <f t="shared" si="34"/>
+        <v>8.2658542565266738E-2</v>
+      </c>
+      <c r="AB24" s="16">
+        <f t="shared" si="34"/>
+        <v>0.11812683405221337</v>
+      </c>
+      <c r="AC24" s="16">
+        <f t="shared" si="34"/>
+        <v>0.14650146724177071</v>
+      </c>
+      <c r="AD24" s="16">
+        <f t="shared" si="34"/>
+        <v>0.16920117379341656</v>
+      </c>
+      <c r="AF24" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="AE23" s="47">
+      <c r="AG24" s="47">
         <v>0.15</v>
       </c>
     </row>
-    <row r="24" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="16">
-        <f t="shared" ref="C24:H24" si="24">C18/C4</f>
+      <c r="C25" s="16">
+        <f t="shared" ref="C25:H25" si="35">C19/C4</f>
         <v>-80.218044156009412</v>
       </c>
-      <c r="D24" s="33">
-        <f t="shared" si="24"/>
+      <c r="D25" s="33">
+        <f t="shared" si="35"/>
         <v>-54.713960499600077</v>
       </c>
-      <c r="E24" s="16">
-        <f t="shared" si="24"/>
+      <c r="E25" s="16">
+        <f t="shared" si="35"/>
         <v>-106.15267175572521</v>
       </c>
-      <c r="F24" s="33">
-        <f t="shared" si="24"/>
+      <c r="F25" s="33">
+        <f t="shared" si="35"/>
         <v>-65.636951023849036</v>
       </c>
-      <c r="G24" s="16">
-        <f t="shared" si="24"/>
+      <c r="G25" s="16">
+        <f t="shared" si="35"/>
         <v>-8.2073946022549527E-2</v>
       </c>
-      <c r="H24" s="33">
-        <f t="shared" si="24"/>
+      <c r="H25" s="33">
+        <f t="shared" si="35"/>
         <v>0.17346566573969871</v>
       </c>
-      <c r="I24" s="16">
-        <f t="shared" ref="I24" si="25">I18/I4</f>
+      <c r="I25" s="16">
+        <f t="shared" ref="I25:J25" si="36">I19/I4</f>
         <v>9.1537835638739822E-4</v>
       </c>
-      <c r="N24" s="16">
-        <f>N18/N4</f>
+      <c r="J25" s="33">
+        <f t="shared" si="36"/>
+        <v>0.12081397211985251</v>
+      </c>
+      <c r="K25" s="16">
+        <f t="shared" ref="K25:M25" si="37">K19/K4</f>
+        <v>-0.12946428571428575</v>
+      </c>
+      <c r="L25" s="33">
+        <f t="shared" si="37"/>
+        <v>1.8794784447315784E-2</v>
+      </c>
+      <c r="M25" s="16">
+        <f t="shared" si="37"/>
+        <v>-1.3609534619750285</v>
+      </c>
+      <c r="P25" s="16">
+        <f>P19/P4</f>
         <v>-581.54340636626705</v>
       </c>
-      <c r="O24" s="16">
-        <f>O18/O4</f>
+      <c r="Q25" s="16">
+        <f>Q19/Q4</f>
         <v>-67.252205192367839</v>
       </c>
-      <c r="P24" s="16">
-        <f>P18/P4</f>
+      <c r="R25" s="16">
+        <f>R19/R4</f>
         <v>-76.041827000808397</v>
       </c>
-      <c r="Q24" s="16">
-        <f>Q18/Q4</f>
+      <c r="S25" s="16">
+        <f>S19/S4</f>
         <v>0.12237420615534939</v>
       </c>
-      <c r="R24" s="16">
-        <f>R18/R4</f>
-        <v>0.10851685393258428</v>
-      </c>
-      <c r="S24" s="16">
-        <f t="shared" ref="S24:AB24" si="26">S18/S4</f>
-        <v>0.18775324670249144</v>
-      </c>
-      <c r="T24" s="16">
-        <f t="shared" si="26"/>
-        <v>0.24334533177528087</v>
-      </c>
-      <c r="U24" s="16">
-        <f t="shared" si="26"/>
-        <v>0.28158261091373521</v>
-      </c>
-      <c r="V24" s="16">
-        <f t="shared" si="26"/>
-        <v>0.30718438960572514</v>
-      </c>
-      <c r="W24" s="16">
-        <f t="shared" si="26"/>
-        <v>0.32367629833502803</v>
-      </c>
-      <c r="X24" s="16">
-        <f t="shared" si="26"/>
-        <v>0.33367901008974948</v>
-      </c>
-      <c r="Y24" s="16">
-        <f t="shared" si="26"/>
-        <v>0.33912921518476385</v>
-      </c>
-      <c r="Z24" s="16">
-        <f t="shared" si="26"/>
-        <v>0.34144840213708594</v>
-      </c>
-      <c r="AA24" s="16">
-        <f t="shared" si="26"/>
-        <v>0.3416714834953411</v>
-      </c>
-      <c r="AB24" s="16">
-        <f t="shared" si="26"/>
-        <v>0.34054457767904495</v>
-      </c>
-      <c r="AD24" s="42" t="s">
+      <c r="T25" s="16">
+        <f t="shared" ref="T25:U25" si="38">T19/T4</f>
+        <v>6.7984225150129959E-2</v>
+      </c>
+      <c r="U25" s="16">
+        <f t="shared" si="38"/>
+        <v>-1.4484831921289968E-2</v>
+      </c>
+      <c r="V25" s="16">
+        <f t="shared" ref="U25:AD25" si="39">V19/V4</f>
+        <v>7.5748770336738561E-2</v>
+      </c>
+      <c r="W25" s="16">
+        <f t="shared" si="39"/>
+        <v>0.35822108815739689</v>
+      </c>
+      <c r="X25" s="16">
+        <f t="shared" si="39"/>
+        <v>0.53529679996367763</v>
+      </c>
+      <c r="Y25" s="16">
+        <f t="shared" si="39"/>
+        <v>0.63780542646638516</v>
+      </c>
+      <c r="Z25" s="16">
+        <f t="shared" si="39"/>
+        <v>0.68846465547414559</v>
+      </c>
+      <c r="AA25" s="16">
+        <f t="shared" si="39"/>
+        <v>0.70389133511059254</v>
+      </c>
+      <c r="AB25" s="16">
+        <f t="shared" si="39"/>
+        <v>0.69613261910044033</v>
+      </c>
+      <c r="AC25" s="16">
+        <f t="shared" si="39"/>
+        <v>0.67382875322680613</v>
+      </c>
+      <c r="AD25" s="16">
+        <f t="shared" si="39"/>
+        <v>0.64309359174487313</v>
+      </c>
+      <c r="AF25" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="AE24" s="48">
-        <f>NPV(AE23,Q18:BI18)</f>
-        <v>154.42854876708077</v>
-      </c>
-    </row>
-    <row r="25" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="AG25" s="48">
+        <f>NPV(AG24,S19:BK19)</f>
+        <v>31.100081138928633</v>
+      </c>
+    </row>
+    <row r="26" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="16">
-        <f t="shared" ref="C25:H25" si="27">C17/C16</f>
+      <c r="C26" s="16">
+        <f t="shared" ref="C26:H26" si="40">C18/C17</f>
         <v>-5.222869127579844E-2</v>
       </c>
-      <c r="D25" s="33">
-        <f t="shared" si="27"/>
+      <c r="D26" s="33">
+        <f t="shared" si="40"/>
         <v>-0.23646133133676323</v>
       </c>
-      <c r="E25" s="16">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="33">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="16">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="33">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="16">
-        <f t="shared" ref="I25" si="28">I17/I16</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="16">
-        <f>N17/N16</f>
+      <c r="E26" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="33">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="33">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" ref="I26:J26" si="41">I18/I17</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="33">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <f t="shared" ref="K26:M26" si="42">K18/K17</f>
+        <v>-0.10140845070422533</v>
+      </c>
+      <c r="L26" s="33">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="16">
+        <f>P18/P17</f>
         <v>-1.8241779561893007E-2</v>
       </c>
-      <c r="O25" s="16">
-        <f>O17/O16</f>
+      <c r="Q26" s="16">
+        <f>Q18/Q17</f>
         <v>-0.1382307873290182</v>
       </c>
-      <c r="P25" s="16">
-        <f>P17/P16</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="16">
-        <f>Q17/Q16</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="16">
-        <f>R17/R16</f>
-        <v>-0.31042982113033701</v>
-      </c>
-      <c r="S25" s="16">
-        <f t="shared" ref="S25:AB25" si="29">S17/S16</f>
-        <v>0</v>
-      </c>
-      <c r="T25" s="16">
-        <f t="shared" si="29"/>
-        <v>0.14742199444749624</v>
-      </c>
-      <c r="U25" s="16">
-        <f t="shared" si="29"/>
-        <v>0.21603393551200478</v>
-      </c>
-      <c r="V25" s="16">
-        <f t="shared" si="29"/>
-        <v>0.24288115611942901</v>
-      </c>
-      <c r="W25" s="16">
-        <f t="shared" si="29"/>
-        <v>0.24661078438300113</v>
-      </c>
-      <c r="X25" s="16">
-        <f t="shared" si="29"/>
-        <v>0.23746263966774117</v>
-      </c>
-      <c r="Y25" s="16">
-        <f t="shared" si="29"/>
-        <v>0.22138655783219985</v>
-      </c>
-      <c r="Z25" s="16">
-        <f t="shared" si="29"/>
-        <v>0.20195981084478215</v>
-      </c>
-      <c r="AA25" s="16">
-        <f t="shared" si="29"/>
-        <v>0.18136693082013466</v>
-      </c>
-      <c r="AB25" s="16">
-        <f t="shared" si="29"/>
-        <v>0.1609384275952184</v>
-      </c>
-      <c r="AD25" s="42" t="s">
+      <c r="R26" s="16">
+        <f>R18/R17</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="16">
+        <f>S18/S17</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="16">
+        <f t="shared" ref="T26:U26" si="43">T18/T17</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="16">
+        <f t="shared" si="43"/>
+        <v>-0.18461538461538463</v>
+      </c>
+      <c r="V26" s="16">
+        <f t="shared" ref="U26:AD26" si="44">V18/V17</f>
+        <v>-1.3337868208524231</v>
+      </c>
+      <c r="W26" s="16">
+        <f t="shared" si="44"/>
+        <v>-3.8412868618290075</v>
+      </c>
+      <c r="X26" s="16">
+        <f t="shared" si="44"/>
+        <v>-12.672163458337829</v>
+      </c>
+      <c r="Y26" s="16">
+        <f t="shared" si="44"/>
+        <v>34.624026369029764</v>
+      </c>
+      <c r="Z26" s="16">
+        <f t="shared" si="44"/>
+        <v>9.0413396284279379</v>
+      </c>
+      <c r="AA26" s="16">
+        <f t="shared" si="44"/>
+        <v>5.470435555015003</v>
+      </c>
+      <c r="AB26" s="16">
+        <f t="shared" si="44"/>
+        <v>3.9476108896408526</v>
+      </c>
+      <c r="AC26" s="16">
+        <f t="shared" si="44"/>
+        <v>3.0590787708857947</v>
+      </c>
+      <c r="AD26" s="16">
+        <f t="shared" si="44"/>
+        <v>2.4565164230606178</v>
+      </c>
+      <c r="AF26" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AE25" s="49">
+      <c r="AG26" s="49">
         <f>Main!C11</f>
         <v>7.75</v>
       </c>
     </row>
-    <row r="26" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="AD26" s="42" t="s">
+    <row r="27" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="AF27" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="AE26" s="50">
-        <f>AE25+AE24</f>
-        <v>162.17854876708077</v>
-      </c>
-    </row>
-    <row r="27" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="AG27" s="50">
+        <f>AG26+AG25</f>
+        <v>38.85008113892863</v>
+      </c>
+    </row>
+    <row r="28" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="15">
-        <v>0</v>
-      </c>
-      <c r="D27" s="34">
-        <f t="shared" ref="D27:I27" si="30">D4/C4-1</f>
+      <c r="C28" s="15">
+        <v>0</v>
+      </c>
+      <c r="D28" s="34">
+        <f t="shared" ref="D28:M28" si="45">D4/C4-1</f>
         <v>3.410320035630221E-2</v>
       </c>
-      <c r="E27" s="36">
-        <f t="shared" si="30"/>
+      <c r="E28" s="36">
+        <f t="shared" si="45"/>
         <v>-0.21817510613425217</v>
       </c>
-      <c r="F27" s="34">
-        <f t="shared" si="30"/>
+      <c r="F28" s="34">
+        <f t="shared" si="45"/>
         <v>1.893916738805383</v>
       </c>
-      <c r="G27" s="17">
-        <f t="shared" si="30"/>
+      <c r="G28" s="17">
+        <f t="shared" si="45"/>
         <v>88.036657330106323</v>
       </c>
-      <c r="H27" s="34">
-        <f t="shared" si="30"/>
+      <c r="H28" s="34">
+        <f t="shared" si="45"/>
         <v>3.0016111076326801</v>
       </c>
-      <c r="I27" s="17">
-        <f t="shared" si="30"/>
+      <c r="I28" s="17">
+        <f t="shared" si="45"/>
         <v>-0.24957191176363958</v>
       </c>
-      <c r="AD27" s="44" t="s">
+      <c r="J28" s="34">
+        <f t="shared" si="45"/>
+        <v>0.26952807160292913</v>
+      </c>
+      <c r="K28" s="17">
+        <f t="shared" si="45"/>
+        <v>-0.80259573786252203</v>
+      </c>
+      <c r="L28" s="34">
+        <f t="shared" si="45"/>
+        <v>2.4549512987012987</v>
+      </c>
+      <c r="M28" s="17">
+        <f t="shared" si="45"/>
+        <v>-0.89651121813696699</v>
+      </c>
+      <c r="AF28" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="AE27" s="52">
-        <f>AE26/Main!C7</f>
-        <v>3.1184584233950075</v>
-      </c>
-      <c r="AG27" s="95"/>
-    </row>
-    <row r="28" spans="2:61" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
+      <c r="AG28" s="52">
+        <f>AG27/Main!C7</f>
+        <v>0.74703074912372858</v>
+      </c>
+      <c r="AI28" s="94"/>
+    </row>
+    <row r="29" spans="2:63" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="90">
-        <v>0</v>
-      </c>
-      <c r="D28" s="91">
-        <v>0</v>
-      </c>
-      <c r="E28" s="92">
+      <c r="C29" s="89">
+        <v>0</v>
+      </c>
+      <c r="D29" s="90">
+        <v>0</v>
+      </c>
+      <c r="E29" s="91">
         <f>E4/C4-1</f>
         <v>-0.19151237513520392</v>
       </c>
-      <c r="F28" s="93">
+      <c r="F29" s="92">
         <f>F4/D4-1</f>
         <v>1.2625361471728298</v>
       </c>
-      <c r="G28" s="92">
+      <c r="G29" s="91">
         <f>G4/E4-1</f>
         <v>256.6646730148737</v>
       </c>
-      <c r="H28" s="93">
+      <c r="H29" s="92">
         <f>H4/F4-1</f>
         <v>355.29007695863817</v>
       </c>
-      <c r="I28" s="92">
+      <c r="I29" s="91">
         <f>I4/G4-1</f>
         <v>2.0029213733661768</v>
       </c>
-      <c r="J28" s="60"/>
-      <c r="K28" s="92">
+      <c r="J29" s="92">
+        <f>J4/H4-1</f>
+        <v>-4.7310476264620593E-2</v>
+      </c>
+      <c r="K29" s="91">
         <f>K4/I4-1</f>
-        <v>-0.7457282343368592</v>
-      </c>
-      <c r="N28" s="90">
-        <v>0</v>
-      </c>
-      <c r="O28" s="92">
-        <f>O4/N4-1</f>
+        <v>-0.74938974776240852</v>
+      </c>
+      <c r="L29" s="92">
+        <f>L4/J4-1</f>
+        <v>-0.3179778881589489</v>
+      </c>
+      <c r="M29" s="91">
+        <f>M4/K4-1</f>
+        <v>-0.64245129870129869</v>
+      </c>
+      <c r="N29" s="158"/>
+      <c r="P29" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="91">
+        <f>Q4/P4-1</f>
         <v>5.6081025217031826</v>
       </c>
-      <c r="P28" s="92">
-        <f>P4/O4-1</f>
+      <c r="R29" s="91">
+        <f>R4/Q4-1</f>
         <v>0.54770096965905557</v>
       </c>
-      <c r="Q28" s="92">
-        <f>Q4/P4-1</f>
+      <c r="S29" s="91">
+        <f>S4/R4-1</f>
         <v>329.9620048504446</v>
       </c>
-      <c r="R28" s="92">
-        <f>R4/Q4-1</f>
+      <c r="T29" s="91">
+        <f t="shared" ref="T29:U29" si="46">T4/S4-1</f>
+        <v>0.36260381045432322</v>
+      </c>
+      <c r="U29" s="91">
+        <f t="shared" si="46"/>
+        <v>-0.50806668459263249</v>
+      </c>
+      <c r="V29" s="91">
+        <f t="shared" ref="U29:V29" si="47">V4/U4-1</f>
+        <v>-0.69902978955998907</v>
+      </c>
+      <c r="W29" s="91">
+        <f t="shared" ref="W29:AD29" si="48">W4/V4-1</f>
         <v>0.25</v>
       </c>
-      <c r="S28" s="92">
-        <f t="shared" ref="S28:T28" si="31">S4/R4-1</f>
+      <c r="X29" s="91">
+        <f t="shared" si="48"/>
         <v>0.25</v>
       </c>
-      <c r="T28" s="92">
-        <f t="shared" si="31"/>
+      <c r="Y29" s="91">
+        <f t="shared" si="48"/>
         <v>0.25</v>
       </c>
-      <c r="U28" s="92">
-        <f t="shared" ref="U28:AB28" si="32">U4/T4-1</f>
+      <c r="Z29" s="91">
+        <f t="shared" si="48"/>
         <v>0.25</v>
       </c>
-      <c r="V28" s="92">
-        <f t="shared" si="32"/>
+      <c r="AA29" s="91">
+        <f t="shared" si="48"/>
         <v>0.25</v>
       </c>
-      <c r="W28" s="92">
-        <f t="shared" si="32"/>
+      <c r="AB29" s="91">
+        <f t="shared" si="48"/>
         <v>0.25</v>
       </c>
-      <c r="X28" s="92">
-        <f t="shared" si="32"/>
+      <c r="AC29" s="91">
+        <f t="shared" si="48"/>
         <v>0.25</v>
       </c>
-      <c r="Y28" s="92">
-        <f t="shared" si="32"/>
+      <c r="AD29" s="91">
+        <f t="shared" si="48"/>
         <v>0.25</v>
       </c>
-      <c r="Z28" s="92">
-        <f t="shared" si="32"/>
-        <v>0.25</v>
-      </c>
-      <c r="AA28" s="92">
-        <f t="shared" si="32"/>
-        <v>0.25</v>
-      </c>
-      <c r="AB28" s="92">
-        <f t="shared" si="32"/>
-        <v>0.25</v>
-      </c>
-      <c r="AD28" s="44" t="s">
+      <c r="AF29" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="AE28" s="94">
+      <c r="AG29" s="93">
         <f>Main!C6</f>
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+        <v>0.12620000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="15">
-        <v>0</v>
-      </c>
-      <c r="D29" s="35">
-        <f t="shared" ref="D29:I29" si="33">D18/C18-1</f>
+      <c r="C30" s="15">
+        <v>0</v>
+      </c>
+      <c r="D30" s="35">
+        <f t="shared" ref="D30:M30" si="49">D19/C19-1</f>
         <v>-0.29467388226560065</v>
       </c>
-      <c r="E29" s="17">
-        <f t="shared" si="33"/>
+      <c r="E30" s="17">
+        <f t="shared" si="49"/>
         <v>0.51684872692760098</v>
       </c>
-      <c r="F29" s="35">
-        <f t="shared" si="33"/>
+      <c r="F30" s="35">
+        <f t="shared" si="49"/>
         <v>0.78938380080689075</v>
       </c>
-      <c r="G29" s="17">
-        <f t="shared" si="33"/>
+      <c r="G30" s="17">
+        <f t="shared" si="49"/>
         <v>-0.8886665255812356</v>
       </c>
-      <c r="H29" s="35">
-        <f t="shared" si="33"/>
+      <c r="H30" s="35">
+        <f t="shared" si="49"/>
         <v>-9.4575211556924881</v>
       </c>
-      <c r="I29" s="17">
-        <f t="shared" si="33"/>
+      <c r="I30" s="17">
+        <f t="shared" si="49"/>
         <v>-0.99603999081277828</v>
       </c>
-      <c r="N29" s="15">
-        <v>0</v>
-      </c>
-      <c r="O29" s="15">
-        <v>0</v>
-      </c>
-      <c r="P29" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="15">
-        <v>0</v>
-      </c>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AD29" s="42"/>
-      <c r="AE29" s="43"/>
-    </row>
-    <row r="30" spans="2:61" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
+      <c r="J30" s="35">
+        <f t="shared" si="49"/>
+        <v>166.55555555553869</v>
+      </c>
+      <c r="K30" s="17">
+        <f t="shared" si="49"/>
+        <v>-1.2115384615384617</v>
+      </c>
+      <c r="L30" s="35">
+        <f t="shared" si="49"/>
+        <v>-1.5015673981191198</v>
+      </c>
+      <c r="M30" s="17">
+        <f t="shared" si="49"/>
+        <v>-8.4937500000000341</v>
+      </c>
+      <c r="P30" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>0</v>
+      </c>
+      <c r="R30" s="15">
+        <v>0</v>
+      </c>
+      <c r="S30" s="15">
+        <v>0</v>
+      </c>
+      <c r="T30" s="15">
+        <v>0</v>
+      </c>
+      <c r="U30" s="15">
+        <v>0</v>
+      </c>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="43"/>
+    </row>
+    <row r="31" spans="2:63" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="90">
-        <v>0</v>
-      </c>
-      <c r="D30" s="91">
-        <v>0</v>
-      </c>
-      <c r="E30" s="92">
-        <f>E18/C18-1</f>
+      <c r="C31" s="89">
+        <v>0</v>
+      </c>
+      <c r="D31" s="90">
+        <v>0</v>
+      </c>
+      <c r="E31" s="91">
+        <f>E19/C19-1</f>
         <v>6.9873023754210895E-2</v>
       </c>
-      <c r="F30" s="93">
-        <f>F18/D18-1</f>
+      <c r="F31" s="92">
+        <f>F19/D19-1</f>
         <v>1.7142245402388041</v>
       </c>
-      <c r="G30" s="92">
-        <f>G18/E18-1</f>
+      <c r="G31" s="91">
+        <f>G19/E19-1</f>
         <v>-0.80078168438751474</v>
       </c>
-      <c r="H30" s="93">
-        <f>H18/F18-1</f>
+      <c r="H31" s="92">
+        <f>H19/F19-1</f>
         <v>-1.941605215233448</v>
       </c>
-      <c r="I30" s="92">
-        <f>I18/G18-1</f>
+      <c r="I31" s="91">
+        <f>I19/G19-1</f>
         <v>-1.0334918614776643</v>
       </c>
-      <c r="J30" s="60"/>
-      <c r="N30" s="90">
-        <v>0</v>
-      </c>
-      <c r="O30" s="92">
-        <f>O18/N18-1</f>
+      <c r="J31" s="92">
+        <f>J19/H19-1</f>
+        <v>-0.33647846063002929</v>
+      </c>
+      <c r="K31" s="91">
+        <f>K19/I19-1</f>
+        <v>-36.444444444440911</v>
+      </c>
+      <c r="L31" s="92">
+        <f>L19/J19-1</f>
+        <v>-0.89389920424403224</v>
+      </c>
+      <c r="M31" s="91">
+        <f>M19/K19-1</f>
+        <v>2.7586206896551717</v>
+      </c>
+      <c r="N31" s="158"/>
+      <c r="P31" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="91">
+        <f>Q19/P19-1</f>
         <v>-0.23581032497875432</v>
       </c>
-      <c r="P30" s="92">
-        <f>P18/O18-1</f>
+      <c r="R31" s="91">
+        <f>R19/Q19-1</f>
         <v>0.74997993072728897</v>
       </c>
-      <c r="Q30" s="92">
-        <f>Q18/P18-1</f>
+      <c r="S31" s="91">
+        <f>S19/R19-1</f>
         <v>-1.5326175633671386</v>
       </c>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="92"/>
-      <c r="AB30" s="92"/>
-      <c r="AD30" s="44"/>
-      <c r="AE30" s="94"/>
-    </row>
-    <row r="31" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="C31" s="15"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="35"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AD31" s="42"/>
-      <c r="AE31" s="43"/>
-    </row>
-    <row r="32" spans="2:61" x14ac:dyDescent="0.25">
-      <c r="AD32" s="45" t="s">
+      <c r="T31" s="91">
+        <f t="shared" ref="T31:U31" si="50">T19/S19-1</f>
+        <v>-0.24301397205588893</v>
+      </c>
+      <c r="U31" s="91">
+        <f t="shared" si="50"/>
+        <v>-1.1048121292023731</v>
+      </c>
+      <c r="V31" s="91"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="91"/>
+      <c r="AC31" s="91"/>
+      <c r="AD31" s="91"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="93"/>
+    </row>
+    <row r="32" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="C32" s="15"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="35"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="43"/>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF33" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="AE32" s="51">
-        <f>AE27/AE28</f>
-        <v>23.988141718423133</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="29" t="s">
+      <c r="AG33" s="51">
+        <f>AG28/AG29</f>
+        <v>5.9194195651642518</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B34" s="29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="56">
+      <c r="D35" s="56">
         <v>0.25986100000000001</v>
       </c>
-      <c r="E34" s="54">
+      <c r="E35" s="54">
         <v>7.0184999999999997E-2</v>
       </c>
-      <c r="F34" s="56">
-        <f t="shared" ref="F34:F40" si="34">P34</f>
+      <c r="F35" s="56">
+        <f t="shared" ref="F35:F41" si="51">R35</f>
         <v>5.5516999999999997E-2</v>
       </c>
-      <c r="G34" s="54">
+      <c r="G35" s="54">
         <v>0.15177399999999999</v>
       </c>
-      <c r="H34" s="56">
-        <f>Q34</f>
+      <c r="H35" s="56">
+        <f>S35</f>
         <v>0.16300000000000001</v>
       </c>
-      <c r="I34" s="54">
+      <c r="I35" s="54">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="O34" s="54">
+      <c r="Q35" s="54">
         <v>0.25986100000000001</v>
       </c>
-      <c r="P34" s="54">
+      <c r="R35" s="54">
         <v>5.5516999999999997E-2</v>
       </c>
-      <c r="Q34" s="54">
+      <c r="S35" s="54">
         <v>0.16300000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="56">
+      <c r="D36" s="56">
         <v>0.44419799999999998</v>
       </c>
-      <c r="E35" s="55">
-        <v>0</v>
-      </c>
-      <c r="F35" s="56">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="55">
-        <v>0</v>
-      </c>
-      <c r="H35" s="56">
-        <f>Q35</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="39">
+      <c r="E36" s="55">
+        <v>0</v>
+      </c>
+      <c r="F36" s="56">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="55">
+        <v>0</v>
+      </c>
+      <c r="H36" s="56">
+        <f>S36</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="39">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="O35" s="55">
+      <c r="Q36" s="55">
         <v>0.44419799999999998</v>
       </c>
-      <c r="P35" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="R36" s="55">
+        <v>0</v>
+      </c>
+      <c r="S36" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="56">
+      <c r="D37" s="56">
         <v>0.79053300000000004</v>
       </c>
-      <c r="E36" s="54">
+      <c r="E37" s="54">
         <v>0.74207100000000004</v>
       </c>
-      <c r="F36" s="56">
-        <f t="shared" si="34"/>
+      <c r="F37" s="56">
+        <f t="shared" si="51"/>
         <v>0.61656</v>
       </c>
-      <c r="G36" s="54">
+      <c r="G37" s="54">
         <v>0.50338899999999998</v>
       </c>
-      <c r="H36" s="56">
-        <f>Q36</f>
+      <c r="H37" s="56">
+        <f>S37</f>
         <v>2.2890000000000001</v>
       </c>
-      <c r="I36" s="54">
+      <c r="I37" s="54">
         <v>2.52</v>
       </c>
-      <c r="O36" s="54">
+      <c r="Q37" s="54">
         <v>0.79053300000000004</v>
       </c>
-      <c r="P36" s="54">
+      <c r="R37" s="54">
         <v>0.61656</v>
       </c>
-      <c r="Q36" s="54">
+      <c r="S37" s="54">
         <v>2.2890000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="56">
+      <c r="D38" s="56">
         <v>0.38020500000000002</v>
       </c>
-      <c r="E37" s="54">
+      <c r="E38" s="54">
         <v>0.476802</v>
       </c>
-      <c r="F37" s="56">
-        <f t="shared" si="34"/>
+      <c r="F38" s="56">
+        <f t="shared" si="51"/>
         <v>2.8080000000000002E-3</v>
       </c>
-      <c r="G37" s="54">
+      <c r="G38" s="54">
         <v>0.78258399999999995</v>
       </c>
-      <c r="H37" s="56">
-        <f t="shared" ref="H37:H54" si="35">Q37</f>
+      <c r="H38" s="56">
+        <f t="shared" ref="H38:H55" si="52">S38</f>
         <v>0.497</v>
       </c>
-      <c r="I37" s="54">
+      <c r="I38" s="54">
         <v>0.71099999999999997</v>
       </c>
-      <c r="O37" s="54">
+      <c r="Q38" s="54">
         <v>0.38020500000000002</v>
       </c>
-      <c r="P37" s="54">
+      <c r="R38" s="54">
         <v>2.8080000000000002E-3</v>
       </c>
-      <c r="Q37" s="54">
+      <c r="S38" s="54">
         <v>0.497</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="56">
+      <c r="D39" s="56">
         <v>0.122765</v>
       </c>
-      <c r="E38" s="54">
+      <c r="E39" s="54">
         <v>0.22198100000000001</v>
       </c>
-      <c r="F38" s="56">
-        <f t="shared" si="34"/>
+      <c r="F39" s="56">
+        <f t="shared" si="51"/>
         <v>0.19489699999999999</v>
       </c>
-      <c r="G38" s="54">
+      <c r="G39" s="54">
         <v>3.1137700000000001</v>
       </c>
-      <c r="H38" s="56">
-        <f t="shared" si="35"/>
+      <c r="H39" s="56">
+        <f t="shared" si="52"/>
         <v>2.3319999999999999</v>
       </c>
-      <c r="I38" s="54">
+      <c r="I39" s="54">
         <v>3.2240000000000002</v>
       </c>
-      <c r="O38" s="54">
+      <c r="Q39" s="54">
         <v>0.122765</v>
       </c>
-      <c r="P38" s="54">
+      <c r="R39" s="54">
         <v>0.19489699999999999</v>
       </c>
-      <c r="Q38" s="54">
+      <c r="S39" s="54">
         <v>2.3319999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="56">
+      <c r="D40" s="56">
         <v>0.17830299999999999</v>
       </c>
-      <c r="E39" s="54">
+      <c r="E40" s="54">
         <v>0.17830199999999999</v>
       </c>
-      <c r="F39" s="56">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="54">
-        <v>0</v>
-      </c>
-      <c r="H39" s="56">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="54">
-        <v>0</v>
-      </c>
-      <c r="O39" s="54">
+      <c r="F40" s="56">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="54">
+        <v>0</v>
+      </c>
+      <c r="H40" s="56">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="54">
         <v>0.17830299999999999</v>
       </c>
-      <c r="P39" s="54">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="12" t="s">
+      <c r="R40" s="54">
+        <v>0</v>
+      </c>
+      <c r="S40" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="57">
+      <c r="C41" s="12"/>
+      <c r="D41" s="57">
         <v>0.61626300000000001</v>
       </c>
-      <c r="E40" s="58">
+      <c r="E41" s="58">
         <v>1.3517459999999999</v>
       </c>
-      <c r="F40" s="57">
-        <f t="shared" si="34"/>
+      <c r="F41" s="57">
+        <f t="shared" si="51"/>
         <v>0.465671</v>
       </c>
-      <c r="G40" s="58">
+      <c r="G41" s="58">
         <v>2.214496</v>
       </c>
-      <c r="H40" s="57">
-        <f t="shared" si="35"/>
+      <c r="H41" s="57">
+        <f t="shared" si="52"/>
         <v>6.3869999999999996</v>
       </c>
-      <c r="I40" s="80">
+      <c r="I41" s="80">
         <v>6.9950000000000001</v>
       </c>
-      <c r="J40" s="60"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="58">
+      <c r="J41" s="60"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="158"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="58">
         <v>0.61626300000000001</v>
       </c>
-      <c r="P40" s="58">
+      <c r="R41" s="58">
         <v>0.465671</v>
       </c>
-      <c r="Q40" s="58">
+      <c r="S41" s="58">
         <v>6.3869999999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="56">
+      <c r="D42" s="56">
         <v>2.7921279999999999</v>
       </c>
-      <c r="E41" s="39">
-        <f>SUM(E34:E40)</f>
+      <c r="E42" s="39">
+        <f>SUM(E35:E41)</f>
         <v>3.0410870000000001</v>
       </c>
-      <c r="F41" s="56">
-        <f>SUM(F34:F40)</f>
+      <c r="F42" s="56">
+        <f>SUM(F35:F41)</f>
         <v>1.335453</v>
       </c>
-      <c r="G41" s="39">
-        <f>SUM(G34:G40)</f>
+      <c r="G42" s="39">
+        <f>SUM(G35:G41)</f>
         <v>6.7660130000000009</v>
       </c>
-      <c r="H41" s="56">
-        <f t="shared" si="35"/>
+      <c r="H42" s="56">
+        <f t="shared" si="52"/>
         <v>11.667999999999999</v>
       </c>
-      <c r="I41" s="39">
-        <f>SUM(I34:I40)</f>
+      <c r="I42" s="39">
+        <f>SUM(I35:I41)</f>
         <v>13.626000000000001</v>
       </c>
-      <c r="O41" s="39">
-        <f>SUM(O34:O40)</f>
+      <c r="Q42" s="39">
+        <f>SUM(Q35:Q41)</f>
         <v>2.7921279999999999</v>
       </c>
-      <c r="P41" s="39">
-        <f>SUM(P34:P40)</f>
+      <c r="R42" s="39">
+        <f>SUM(R35:R41)</f>
         <v>1.335453</v>
       </c>
-      <c r="Q41" s="39">
-        <f>SUM(Q34:Q40)</f>
+      <c r="S42" s="39">
+        <f>SUM(S35:S41)</f>
         <v>11.667999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D42" s="56"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="56">
-        <f t="shared" ref="F42:F47" si="36">P42</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="39"/>
-      <c r="H42" s="56">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="39"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D43" s="56"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="56">
+        <f t="shared" ref="F43:F48" si="53">R43</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="39"/>
+      <c r="H43" s="56">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="39"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="56">
+      <c r="D44" s="56">
         <v>0.27152300000000001</v>
       </c>
-      <c r="E43" s="39">
+      <c r="E44" s="39">
         <v>0.31251600000000002</v>
       </c>
-      <c r="F43" s="56">
-        <f t="shared" si="36"/>
+      <c r="F44" s="56">
+        <f t="shared" si="53"/>
         <v>0.38318600000000003</v>
       </c>
-      <c r="G43" s="39">
+      <c r="G44" s="39">
         <v>2.9940030000000002</v>
       </c>
-      <c r="H43" s="56">
-        <f t="shared" si="35"/>
+      <c r="H44" s="56">
+        <f t="shared" si="52"/>
         <v>3.3149999999999999</v>
       </c>
-      <c r="I43" s="39">
+      <c r="I44" s="39">
         <v>5.0940000000000003</v>
       </c>
-      <c r="O43" s="39">
+      <c r="Q44" s="39">
         <v>0.27152300000000001</v>
       </c>
-      <c r="P43" s="39">
+      <c r="R44" s="39">
         <v>0.38318600000000003</v>
       </c>
-      <c r="Q43" s="39">
+      <c r="S44" s="39">
         <v>3.3149999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="56">
-        <v>0</v>
-      </c>
-      <c r="E44" s="39">
-        <v>0</v>
-      </c>
-      <c r="F44" s="56">
-        <f t="shared" si="36"/>
+      <c r="D45" s="56">
+        <v>0</v>
+      </c>
+      <c r="E45" s="39">
+        <v>0</v>
+      </c>
+      <c r="F45" s="56">
+        <f t="shared" si="53"/>
         <v>8.7378999999999998E-2</v>
       </c>
-      <c r="G44" s="39">
-        <v>0</v>
-      </c>
-      <c r="H44" s="56">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="39">
-        <v>0</v>
-      </c>
-      <c r="O44" s="39">
-        <v>0</v>
-      </c>
-      <c r="P44" s="39">
+      <c r="G45" s="39">
+        <v>0</v>
+      </c>
+      <c r="H45" s="56">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="39">
+        <v>0</v>
+      </c>
+      <c r="R45" s="39">
         <v>8.7378999999999998E-2</v>
       </c>
-      <c r="Q44" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="S45" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="56">
+      <c r="D46" s="56">
         <v>0.101036</v>
       </c>
-      <c r="E45" s="39">
-        <v>0</v>
-      </c>
-      <c r="F45" s="56">
-        <f t="shared" si="36"/>
+      <c r="E46" s="39">
+        <v>0</v>
+      </c>
+      <c r="F46" s="56">
+        <f t="shared" si="53"/>
         <v>4.895E-3</v>
       </c>
-      <c r="G45" s="39">
-        <v>0</v>
-      </c>
-      <c r="H45" s="56">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="39">
+      <c r="G46" s="39">
+        <v>0</v>
+      </c>
+      <c r="H46" s="56">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="39">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="O45" s="39">
+      <c r="Q46" s="39">
         <v>0.101036</v>
       </c>
-      <c r="P45" s="39">
+      <c r="R46" s="39">
         <v>4.895E-3</v>
       </c>
-      <c r="Q45" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="S46" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="56">
-        <v>0</v>
-      </c>
-      <c r="E46" s="39">
+      <c r="D47" s="56">
+        <v>0</v>
+      </c>
+      <c r="E47" s="39">
         <v>0.102697</v>
       </c>
-      <c r="F46" s="56">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="39">
-        <v>0</v>
-      </c>
-      <c r="H46" s="56">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="39">
-        <v>0</v>
-      </c>
-      <c r="O46" s="39">
-        <v>0</v>
-      </c>
-      <c r="P46" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="F47" s="56">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="39">
+        <v>0</v>
+      </c>
+      <c r="H47" s="56">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="39">
+        <v>0</v>
+      </c>
+      <c r="R47" s="39">
+        <v>0</v>
+      </c>
+      <c r="S47" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="56">
-        <v>0</v>
-      </c>
-      <c r="E47" s="39">
-        <v>0</v>
-      </c>
-      <c r="F47" s="56">
-        <f t="shared" si="36"/>
+      <c r="D48" s="56">
+        <v>0</v>
+      </c>
+      <c r="E48" s="39">
+        <v>0</v>
+      </c>
+      <c r="F48" s="56">
+        <f t="shared" si="53"/>
         <v>0.22625000000000001</v>
       </c>
-      <c r="G47" s="39">
+      <c r="G48" s="39">
         <v>0.22625000000000001</v>
       </c>
-      <c r="H47" s="56">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="39">
-        <v>0</v>
-      </c>
-      <c r="O47" s="39">
-        <v>0</v>
-      </c>
-      <c r="P47" s="39">
+      <c r="H48" s="56">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="39">
+        <v>0</v>
+      </c>
+      <c r="R48" s="39">
         <v>0.22625000000000001</v>
       </c>
-      <c r="Q47" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="S48" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>130</v>
       </c>
-      <c r="D48" s="56">
-        <v>0</v>
-      </c>
-      <c r="E48" s="39">
-        <v>0</v>
-      </c>
-      <c r="F48" s="56">
-        <v>0</v>
-      </c>
-      <c r="G48" s="39">
-        <v>0</v>
-      </c>
-      <c r="H48" s="56">
-        <f t="shared" si="35"/>
+      <c r="D49" s="56">
+        <v>0</v>
+      </c>
+      <c r="E49" s="39">
+        <v>0</v>
+      </c>
+      <c r="F49" s="56">
+        <v>0</v>
+      </c>
+      <c r="G49" s="39">
+        <v>0</v>
+      </c>
+      <c r="H49" s="56">
+        <f t="shared" si="52"/>
         <v>1.24</v>
       </c>
-      <c r="I48" s="39">
-        <v>0</v>
-      </c>
-      <c r="O48" s="39">
-        <v>0</v>
-      </c>
-      <c r="P48" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="39">
+      <c r="I49" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="39">
+        <v>0</v>
+      </c>
+      <c r="R49" s="39">
+        <v>0</v>
+      </c>
+      <c r="S49" s="39">
         <v>1.24</v>
       </c>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>82</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="56">
+      <c r="D50" s="56">
         <v>0.185747</v>
       </c>
-      <c r="E49" s="39">
-        <v>0</v>
-      </c>
-      <c r="F49" s="56">
-        <f>P49</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="39">
-        <v>0</v>
-      </c>
-      <c r="H49" s="56">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="39">
+      <c r="E50" s="39">
+        <v>0</v>
+      </c>
+      <c r="F50" s="56">
+        <f>R50</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="39">
+        <v>0</v>
+      </c>
+      <c r="H50" s="56">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="39">
         <v>0.04</v>
       </c>
-      <c r="O49" s="39">
+      <c r="Q50" s="39">
         <v>0.185747</v>
       </c>
-      <c r="P49" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="12" t="s">
+      <c r="R50" s="39">
+        <v>0</v>
+      </c>
+      <c r="S50" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B51" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="57">
-        <v>0</v>
-      </c>
-      <c r="E50" s="59">
-        <v>0</v>
-      </c>
-      <c r="F50" s="57">
-        <f>P50</f>
+      <c r="D51" s="57">
+        <v>0</v>
+      </c>
+      <c r="E51" s="59">
+        <v>0</v>
+      </c>
+      <c r="F51" s="57">
+        <f>R51</f>
         <v>0.104367</v>
       </c>
-      <c r="G50" s="59">
-        <v>0</v>
-      </c>
-      <c r="H50" s="56">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="59">
-        <v>0</v>
-      </c>
-      <c r="J50" s="60"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="59">
-        <v>0</v>
-      </c>
-      <c r="P50" s="59">
+      <c r="G51" s="59">
+        <v>0</v>
+      </c>
+      <c r="H51" s="56">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="59">
+        <v>0</v>
+      </c>
+      <c r="J51" s="60"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="158"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="59">
+        <v>0</v>
+      </c>
+      <c r="R51" s="59">
         <v>0.104367</v>
       </c>
-      <c r="Q50" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="S51" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="56">
+      <c r="D52" s="56">
         <v>0.55830599999999997</v>
       </c>
-      <c r="E51" s="39">
-        <f>SUM(E43:E50)</f>
+      <c r="E52" s="39">
+        <f>SUM(E44:E51)</f>
         <v>0.415213</v>
       </c>
-      <c r="F51" s="56">
-        <f>SUM(F43:F50)</f>
+      <c r="F52" s="56">
+        <f>SUM(F44:F51)</f>
         <v>0.80607700000000004</v>
       </c>
-      <c r="G51" s="39">
-        <f>SUM(G43:G50)</f>
+      <c r="G52" s="39">
+        <f>SUM(G44:G51)</f>
         <v>3.220253</v>
       </c>
-      <c r="H51" s="56">
-        <f t="shared" si="35"/>
+      <c r="H52" s="56">
+        <f t="shared" si="52"/>
         <v>4.5549999999999997</v>
       </c>
-      <c r="I51" s="39">
-        <f>SUM(I43:I50)</f>
+      <c r="I52" s="39">
+        <f>SUM(I44:I51)</f>
         <v>5.16</v>
       </c>
-      <c r="O51" s="39">
-        <f>SUM(O43:O50)</f>
+      <c r="Q52" s="39">
+        <f>SUM(Q44:Q51)</f>
         <v>0.55830599999999997</v>
       </c>
-      <c r="P51" s="39">
-        <f>SUM(P43:P50)</f>
+      <c r="R52" s="39">
+        <f>SUM(R44:R51)</f>
         <v>0.80607700000000004</v>
       </c>
-      <c r="Q51" s="39">
-        <f>SUM(Q43:Q50)</f>
+      <c r="S52" s="39">
+        <f>SUM(S44:S51)</f>
         <v>4.5549999999999997</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="56"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="56">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D53" s="56"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="56">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="56">
+      <c r="D54" s="56">
         <v>2.233822</v>
       </c>
-      <c r="E53" s="39">
+      <c r="E54" s="39">
         <v>2.625874</v>
       </c>
-      <c r="F53" s="56">
-        <f>P53</f>
+      <c r="F54" s="56">
+        <f>R54</f>
         <v>0.52937599999999996</v>
       </c>
-      <c r="G53" s="39">
+      <c r="G54" s="39">
         <v>3.54576</v>
       </c>
-      <c r="H53" s="56">
-        <f t="shared" si="35"/>
+      <c r="H54" s="56">
+        <f t="shared" si="52"/>
         <v>7.1130000000000004</v>
       </c>
-      <c r="I53" s="39">
+      <c r="I54" s="39">
         <v>8.4659999999999993</v>
       </c>
-      <c r="O53" s="39">
+      <c r="Q54" s="39">
         <v>2.233822</v>
       </c>
-      <c r="P53" s="39">
+      <c r="R54" s="39">
         <v>0.52937599999999996</v>
       </c>
-      <c r="Q53" s="39">
+      <c r="S54" s="39">
         <v>7.1130000000000004</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>86</v>
       </c>
-      <c r="D54" s="56">
+      <c r="D55" s="56">
         <v>2.7921279999999999</v>
       </c>
-      <c r="E54" s="39">
-        <f>E53+E51</f>
+      <c r="E55" s="39">
+        <f>E54+E52</f>
         <v>3.0410870000000001</v>
       </c>
-      <c r="F54" s="56">
-        <f>F53+F51</f>
+      <c r="F55" s="56">
+        <f>F54+F52</f>
         <v>1.335453</v>
       </c>
-      <c r="G54" s="39">
-        <f>G53+G51</f>
+      <c r="G55" s="39">
+        <f>G54+G52</f>
         <v>6.7660130000000001</v>
       </c>
-      <c r="H54" s="56">
-        <f t="shared" si="35"/>
+      <c r="H55" s="56">
+        <f t="shared" si="52"/>
         <v>11.667999999999999</v>
       </c>
-      <c r="I54" s="39">
-        <f>I53+I51</f>
+      <c r="I55" s="39">
+        <f>I54+I52</f>
         <v>13.625999999999999</v>
       </c>
-      <c r="O54" s="39">
-        <f>O53+O51</f>
+      <c r="Q55" s="39">
+        <f>Q54+Q52</f>
         <v>2.7921279999999999</v>
       </c>
-      <c r="P54" s="39">
-        <f>P53+P51</f>
+      <c r="R55" s="39">
+        <f>R54+R52</f>
         <v>1.335453</v>
       </c>
-      <c r="Q54" s="39">
-        <f>Q53+Q51</f>
+      <c r="S55" s="39">
+        <f>S54+S52</f>
         <v>11.667999999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D55" s="56"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="56"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="39"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D56" s="56"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="56"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="56">
-        <f t="shared" ref="D56" si="37">D41-D51</f>
+      <c r="D57" s="56">
+        <f t="shared" ref="D57" si="54">D42-D52</f>
         <v>2.233822</v>
       </c>
-      <c r="E56" s="79">
-        <f t="shared" ref="E56:F56" si="38">E41-E51</f>
+      <c r="E57" s="79">
+        <f t="shared" ref="E57:F57" si="55">E42-E52</f>
         <v>2.625874</v>
       </c>
-      <c r="F56" s="56">
-        <f t="shared" si="38"/>
+      <c r="F57" s="56">
+        <f t="shared" si="55"/>
         <v>0.52937599999999996</v>
       </c>
-      <c r="G56" s="79">
-        <f t="shared" ref="G56:H56" si="39">G41-G51</f>
+      <c r="G57" s="79">
+        <f t="shared" ref="G57:H57" si="56">G42-G52</f>
         <v>3.5457600000000009</v>
       </c>
-      <c r="H56" s="56">
-        <f t="shared" si="39"/>
+      <c r="H57" s="56">
+        <f t="shared" si="56"/>
         <v>7.1129999999999995</v>
       </c>
-      <c r="I56" s="79">
-        <f t="shared" ref="I56" si="40">I41-I51</f>
+      <c r="I57" s="79">
+        <f t="shared" ref="I57" si="57">I42-I52</f>
         <v>8.4660000000000011</v>
       </c>
-      <c r="O56" s="79">
-        <f t="shared" ref="O56:P56" si="41">O41-O51</f>
+      <c r="Q57" s="79">
+        <f t="shared" ref="Q57:R57" si="58">Q42-Q52</f>
         <v>2.233822</v>
       </c>
-      <c r="P56" s="79">
-        <f t="shared" si="41"/>
+      <c r="R57" s="79">
+        <f t="shared" si="58"/>
         <v>0.52937599999999996</v>
       </c>
-      <c r="Q56" s="79">
-        <f>Q41-Q51</f>
+      <c r="S57" s="79">
+        <f>S42-S52</f>
         <v>7.1129999999999995</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>144</v>
       </c>
-      <c r="D57" s="56">
-        <f t="shared" ref="D57:H57" si="42">D56/D20</f>
+      <c r="D58" s="56">
+        <f t="shared" ref="D58:H58" si="59">D57/D21</f>
         <v>9.2774396784636708E-3</v>
       </c>
-      <c r="E57" s="39">
-        <f t="shared" ref="E57" si="43">E56/E20</f>
+      <c r="E58" s="39">
+        <f t="shared" ref="E58" si="60">E57/E21</f>
         <v>7.6424304594443658E-3</v>
       </c>
-      <c r="F57" s="56">
-        <f t="shared" si="42"/>
+      <c r="F58" s="56">
+        <f t="shared" si="59"/>
         <v>1.0223126865988698E-3</v>
       </c>
-      <c r="G57" s="39">
-        <f t="shared" si="42"/>
+      <c r="G58" s="39">
+        <f t="shared" si="59"/>
         <v>5.3359111491456885E-3</v>
       </c>
-      <c r="H57" s="56">
-        <f t="shared" si="42"/>
+      <c r="H58" s="56">
+        <f t="shared" si="59"/>
         <v>1.0006302296399251E-2</v>
       </c>
-      <c r="I57" s="39">
-        <f t="shared" ref="I57" si="44">I56/I20</f>
+      <c r="I58" s="39">
+        <f t="shared" ref="I58" si="61">I57/I21</f>
         <v>1.0932052374680408E-2</v>
       </c>
-      <c r="O57" s="39">
-        <f t="shared" ref="O57:P57" si="45">O56/O20</f>
+      <c r="Q58" s="39">
+        <f t="shared" ref="Q58:R58" si="62">Q57/Q21</f>
         <v>9.2774396784636708E-3</v>
       </c>
-      <c r="P57" s="39">
-        <f t="shared" si="45"/>
+      <c r="R58" s="39">
+        <f t="shared" si="62"/>
         <v>1.0223126865988698E-3</v>
       </c>
-      <c r="Q57" s="39">
-        <f>Q56/Q20</f>
+      <c r="S58" s="39">
+        <f>S57/S21</f>
         <v>1.0006302296399251E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D58" s="56"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="56"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>162</v>
-      </c>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D59" s="56"/>
       <c r="E59" s="39"/>
       <c r="F59" s="56"/>
       <c r="G59" s="39"/>
       <c r="H59" s="56"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
       <c r="Q59" s="39"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="D60" s="56"/>
       <c r="E60" s="39"/>
       <c r="F60" s="56"/>
       <c r="G60" s="39"/>
       <c r="H60" s="56"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
       <c r="Q60" s="39"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D61" s="56"/>
       <c r="E61" s="39"/>
       <c r="F61" s="56"/>
       <c r="G61" s="39"/>
       <c r="H61" s="56"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
       <c r="Q61" s="39"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
       <c r="D62" s="56"/>
       <c r="E62" s="39"/>
       <c r="F62" s="56"/>
       <c r="G62" s="39"/>
       <c r="H62" s="56"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
       <c r="Q62" s="39"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>142</v>
-      </c>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D63" s="56"/>
       <c r="E63" s="39"/>
       <c r="F63" s="56"/>
       <c r="G63" s="39"/>
       <c r="H63" s="56"/>
-      <c r="O63" s="39"/>
-      <c r="P63" s="39"/>
       <c r="Q63" s="39"/>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D64" s="56"/>
       <c r="E64" s="39"/>
       <c r="F64" s="56"/>
       <c r="G64" s="39"/>
       <c r="H64" s="56"/>
-      <c r="O64" s="39"/>
-      <c r="P64" s="39"/>
       <c r="Q64" s="39"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="56"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="56"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>161</v>
       </c>
-      <c r="D68" s="34">
-        <f t="shared" ref="D68:I68" si="46">(D14+C14)/(D41-SUM(D48:D50))</f>
+      <c r="D69" s="34">
+        <f t="shared" ref="D69:I69" si="63">(D15+C15)/(D42-SUM(D49:D51))</f>
         <v>-0.94713013945390168</v>
       </c>
-      <c r="E68" s="36">
-        <f t="shared" si="46"/>
+      <c r="E69" s="36">
+        <f t="shared" si="63"/>
         <v>-0.82098736405765438</v>
       </c>
-      <c r="F68" s="34">
-        <f t="shared" si="46"/>
+      <c r="F69" s="34">
+        <f t="shared" si="63"/>
         <v>-3.0525825165747973</v>
       </c>
-      <c r="G68" s="36">
-        <f t="shared" si="46"/>
+      <c r="G69" s="36">
+        <f t="shared" si="63"/>
         <v>-0.39580630424446428</v>
       </c>
-      <c r="H68" s="34">
-        <f t="shared" si="46"/>
+      <c r="H69" s="34">
+        <f t="shared" si="63"/>
         <v>0.19620253164556961</v>
       </c>
-      <c r="I68" s="36">
-        <f t="shared" si="46"/>
+      <c r="I69" s="36">
+        <f t="shared" si="63"/>
         <v>0.17112763138524958</v>
       </c>
-      <c r="Q68" s="36">
-        <f>Q14/(Q41-SUM(Q48:Q50))</f>
+      <c r="S69" s="36">
+        <f>S15/(S42-SUM(S49:S51))</f>
         <v>0.19620253164556978</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B71" s="29" t="s">
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B72" s="29" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7084,14 +7608,16 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I1" r:id="rId1" xr:uid="{F72BBB7E-F5BE-4BCB-B865-C09658CA6157}"/>
+    <hyperlink ref="M1" r:id="rId2" xr:uid="{25FA71C1-7C3E-46BA-B0C0-E17DED2FC048}"/>
+    <hyperlink ref="U1" r:id="rId3" xr:uid="{263715D6-B09C-4693-A515-EF7FCF907326}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
   <ignoredErrors>
-    <ignoredError sqref="D16 F16 F7 F41 F51 H7 H16 H51 H54 H41" formula="1"/>
-    <ignoredError sqref="I68 Q68 D68:G68" formulaRange="1"/>
+    <ignoredError sqref="D17 F17 F7 F42 F52 H7 H17 H52 H55 H42 L15 L9:L14 L16:L20 J7 J15:J19" formula="1"/>
+    <ignoredError sqref="I69 S69 D69:G69" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -7111,11 +7637,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="145" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" s="21">
@@ -7298,217 +7824,217 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="100" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="100"/>
+    <col min="1" max="1" width="30.85546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="103" t="s">
+    <row r="1" spans="1:5" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="101" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="104">
+      <c r="D2" s="103">
         <v>20.470000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="105">
+      <c r="D3" s="104">
         <v>14.124300000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="106">
+      <c r="D4" s="105">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="104">
+      <c r="D5" s="103">
         <v>6.3457000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="106">
+      <c r="D6" s="105">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="106">
+      <c r="D7" s="105">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="100" t="s">
+      <c r="A8" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="106">
+      <c r="D8" s="105">
         <v>2.5529999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="106">
+      <c r="D9" s="105">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="107">
+      <c r="D10" s="106">
         <v>0.112</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="106">
+      <c r="D11" s="105">
         <v>3.0790000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="108">
+      <c r="D12" s="107">
         <v>3.2667000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="106">
+      <c r="D13" s="105">
         <v>4.5360000000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="108">
+      <c r="D14" s="107">
         <v>3.2213400000000005</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="107">
+      <c r="D15" s="106">
         <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="108">
+      <c r="D16" s="107">
         <v>2.2213400000000005</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="107">
+      <c r="D17" s="106">
         <v>3.1248980097122897E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="107">
+      <c r="D18" s="106">
         <v>710.85199999999998</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="109"/>
+      <c r="D19" s="108"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="110">
+      <c r="D20" s="109">
         <v>0.31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="110">
+      <c r="D21" s="109">
         <v>0.1595847581827064</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="110">
+      <c r="D22" s="109">
         <v>0.10851685393258428</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="110">
+      <c r="D23" s="109">
         <v>-0.31042982113033701</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="109"/>
+      <c r="D24" s="108"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="109"/>
+      <c r="D25" s="108"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="101" t="s">
+      <c r="A26" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="111">
+      <c r="D26" s="110">
         <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="112"/>
+      <c r="D27" s="111"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="111"/>
+      <c r="D28" s="110"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/£MHC.xlsx
+++ b/£MHC.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6B11A4-FC2D-4FDC-B9FF-A82DE4480D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C5B2D8-FEAE-4475-AFB2-7B36604A2DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
-    <sheet name="Substantial Holdings" sheetId="3" r:id="rId3"/>
-    <sheet name="Historical Projections" sheetId="4" r:id="rId4"/>
+    <sheet name="Revenue Breakdown" sheetId="5" r:id="rId3"/>
+    <sheet name="Substantial Holdings" sheetId="3" r:id="rId4"/>
+    <sheet name="Historical Projections" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="253">
   <si>
     <t>Stock Snapshot</t>
   </si>
@@ -784,6 +785,18 @@
   </si>
   <si>
     <t>Projected</t>
+  </si>
+  <si>
+    <t>COVID</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>COVID Y/Y</t>
+  </si>
+  <si>
+    <t>Other Y/Y</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1173,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1348,19 +1361,72 @@
     <xf numFmtId="17" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="15" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1387,62 +1453,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="15" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1960,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A865B090-C0E4-4B85-AA22-AACD646D3083}">
   <dimension ref="A1:AC105"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,11 +2004,11 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="J2" s="123" t="s">
+      <c r="J2" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="124"/>
-      <c r="L2" s="125"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="137"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -2008,10 +2023,10 @@
       <c r="J3" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="126" t="s">
+      <c r="K3" s="151" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="127"/>
+      <c r="L3" s="152"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -2024,16 +2039,16 @@
       <c r="J4" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="152"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="123" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
+      <c r="B5" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2062,10 +2077,10 @@
       <c r="J6" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="129"/>
+      <c r="L6" s="154"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -2109,17 +2124,17 @@
         <v>244</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="123" t="s">
+      <c r="F9" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="125"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="137"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -2239,11 +2254,11 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="125"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="137"/>
       <c r="E15" s="1"/>
       <c r="F15" s="114">
         <v>44287</v>
@@ -2264,10 +2279,10 @@
       <c r="B16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="136"/>
+      <c r="D16" s="138"/>
       <c r="E16" s="1"/>
       <c r="F16" s="114">
         <v>44317</v>
@@ -2287,10 +2302,10 @@
       <c r="B17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="136"/>
+      <c r="D17" s="138"/>
       <c r="F17" s="114">
         <v>44348</v>
       </c>
@@ -2309,8 +2324,8 @@
       <c r="B18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
       <c r="F18" s="114">
         <v>44409</v>
       </c>
@@ -2327,8 +2342,8 @@
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
       <c r="F19" s="114">
         <v>44440</v>
       </c>
@@ -2347,10 +2362,10 @@
       <c r="B20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="136"/>
+      <c r="D20" s="138"/>
       <c r="F20" s="114">
         <v>44501</v>
       </c>
@@ -2367,8 +2382,8 @@
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
       <c r="F21" s="114">
         <v>44652</v>
       </c>
@@ -2385,8 +2400,8 @@
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="138"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="144"/>
       <c r="F22" s="114">
         <v>44726</v>
       </c>
@@ -2415,11 +2430,11 @@
       <c r="N23" s="23"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="140" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="124"/>
-      <c r="D24" s="125"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="137"/>
       <c r="F24" s="114">
         <v>44743</v>
       </c>
@@ -2433,29 +2448,29 @@
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
       <c r="N24" s="23"/>
-      <c r="P24" s="123" t="s">
+      <c r="P24" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="Q24" s="124"/>
-      <c r="R24" s="125"/>
-      <c r="W24" s="123" t="s">
+      <c r="Q24" s="136"/>
+      <c r="R24" s="137"/>
+      <c r="W24" s="140" t="s">
         <v>163</v>
       </c>
-      <c r="X24" s="124"/>
-      <c r="Y24" s="124"/>
-      <c r="Z24" s="124"/>
-      <c r="AA24" s="124"/>
-      <c r="AB24" s="124"/>
-      <c r="AC24" s="125"/>
+      <c r="X24" s="136"/>
+      <c r="Y24" s="136"/>
+      <c r="Z24" s="136"/>
+      <c r="AA24" s="136"/>
+      <c r="AB24" s="136"/>
+      <c r="AC24" s="137"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" s="120">
         <v>45047</v>
       </c>
-      <c r="C25" s="141" t="s">
+      <c r="C25" s="143" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="138"/>
+      <c r="D25" s="144"/>
       <c r="F25" s="114">
         <v>44743</v>
       </c>
@@ -2472,10 +2487,10 @@
       <c r="P25" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="Q25" s="142" t="s">
+      <c r="Q25" s="146" t="s">
         <v>152</v>
       </c>
-      <c r="R25" s="143"/>
+      <c r="R25" s="147"/>
       <c r="W25" s="112" t="s">
         <v>164</v>
       </c>
@@ -2503,10 +2518,10 @@
       <c r="P26" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="Q26" s="142" t="s">
+      <c r="Q26" s="146" t="s">
         <v>152</v>
       </c>
-      <c r="R26" s="143"/>
+      <c r="R26" s="147"/>
       <c r="W26" s="112" t="s">
         <v>169</v>
       </c>
@@ -2518,11 +2533,11 @@
       <c r="AC26" s="23"/>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B27" s="134" t="s">
+      <c r="B27" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="124"/>
-      <c r="D27" s="125"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="137"/>
       <c r="F27" s="114">
         <v>44835</v>
       </c>
@@ -2537,8 +2552,8 @@
       <c r="M27" s="22"/>
       <c r="N27" s="23"/>
       <c r="P27" s="83"/>
-      <c r="Q27" s="144"/>
-      <c r="R27" s="122"/>
+      <c r="Q27" s="148"/>
+      <c r="R27" s="149"/>
       <c r="W27" s="112" t="s">
         <v>165</v>
       </c>
@@ -2553,10 +2568,10 @@
       <c r="B28" s="26">
         <v>43922</v>
       </c>
-      <c r="C28" s="135" t="s">
+      <c r="C28" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="136"/>
+      <c r="D28" s="138"/>
       <c r="F28" s="114">
         <v>45047</v>
       </c>
@@ -2584,10 +2599,10 @@
       <c r="B29" s="27">
         <v>44228</v>
       </c>
-      <c r="C29" s="137" t="s">
+      <c r="C29" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="138"/>
+      <c r="D29" s="144"/>
       <c r="F29" s="114">
         <v>45047</v>
       </c>
@@ -2636,11 +2651,11 @@
       <c r="AC30" s="23"/>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B31" s="134" t="s">
+      <c r="B31" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="124"/>
-      <c r="D31" s="125"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="137"/>
       <c r="F31" s="115">
         <v>45292</v>
       </c>
@@ -2668,10 +2683,10 @@
       <c r="B32" s="26">
         <v>44136</v>
       </c>
-      <c r="C32" s="135" t="s">
+      <c r="C32" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="136"/>
+      <c r="D32" s="138"/>
       <c r="W32" s="117" t="s">
         <v>171</v>
       </c>
@@ -2686,10 +2701,10 @@
       <c r="B33" s="28">
         <v>44348</v>
       </c>
-      <c r="C33" s="137" t="s">
+      <c r="C33" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="138"/>
+      <c r="D33" s="144"/>
       <c r="W33" s="112" t="s">
         <v>172</v>
       </c>
@@ -2723,23 +2738,23 @@
       <c r="AC35" s="23"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B36" s="123" t="s">
+      <c r="B36" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="124"/>
-      <c r="D36" s="125"/>
-      <c r="F36" s="123" t="s">
+      <c r="C36" s="136"/>
+      <c r="D36" s="137"/>
+      <c r="F36" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="124"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="124"/>
-      <c r="M36" s="124"/>
-      <c r="N36" s="124"/>
-      <c r="O36" s="125"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="136"/>
+      <c r="L36" s="136"/>
+      <c r="M36" s="136"/>
+      <c r="N36" s="136"/>
+      <c r="O36" s="137"/>
       <c r="W36" s="112" t="s">
         <v>175</v>
       </c>
@@ -2754,15 +2769,15 @@
       <c r="B37" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="139">
+      <c r="C37" s="141">
         <f>C6/SUM('Financial Model'!H20:I20)</f>
         <v>39.329321190103592</v>
       </c>
-      <c r="D37" s="140"/>
-      <c r="F37" s="130" t="s">
+      <c r="D37" s="142"/>
+      <c r="F37" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="G37" s="131"/>
+      <c r="G37" s="156"/>
       <c r="H37" s="22" t="s">
         <v>108</v>
       </c>
@@ -2787,15 +2802,15 @@
       <c r="B38" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="139">
+      <c r="C38" s="141">
         <f>C6/'Financial Model'!I58</f>
         <v>11.54403543586109</v>
       </c>
-      <c r="D38" s="140"/>
-      <c r="F38" s="130" t="s">
+      <c r="D38" s="142"/>
+      <c r="F38" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="131"/>
+      <c r="G38" s="156"/>
       <c r="H38" s="22" t="s">
         <v>109</v>
       </c>
@@ -2820,15 +2835,15 @@
       <c r="B39" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="139">
+      <c r="C39" s="141">
         <f>C8/SUM('Financial Model'!H4:I4)</f>
         <v>0.28617767052246557</v>
       </c>
-      <c r="D39" s="140"/>
-      <c r="F39" s="132" t="s">
+      <c r="D39" s="142"/>
+      <c r="F39" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="133"/>
+      <c r="G39" s="158"/>
       <c r="H39" s="24" t="s">
         <v>135</v>
       </c>
@@ -2856,11 +2871,11 @@
       <c r="B40" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="139">
+      <c r="C40" s="141">
         <f>C12/SUM('Financial Model'!H4:I4)</f>
         <v>-5.1750689101330759E-2</v>
       </c>
-      <c r="D40" s="140"/>
+      <c r="D40" s="142"/>
       <c r="W40" s="118" t="s">
         <v>179</v>
       </c>
@@ -2875,11 +2890,11 @@
       <c r="B41" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="139">
+      <c r="C41" s="141">
         <f>C12/SUM('Financial Model'!H19:I19)</f>
         <v>-0.52015223589902682</v>
       </c>
-      <c r="D41" s="140"/>
+      <c r="D41" s="142"/>
       <c r="W41" s="112"/>
       <c r="X41" s="22"/>
       <c r="Y41" s="22"/>
@@ -2892,11 +2907,11 @@
       <c r="B42" s="97" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="121">
+      <c r="C42" s="150">
         <f>'Financial Model'!I69</f>
         <v>0.17112763138524958</v>
       </c>
-      <c r="D42" s="122"/>
+      <c r="D42" s="149"/>
       <c r="W42" s="119" t="s">
         <v>180</v>
       </c>
@@ -3588,28 +3603,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="W24:AC24"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -3626,6 +3619,28 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="W24:AC24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K6:L6" r:id="rId1" display="Link" xr:uid="{EBABCF04-F876-4DF1-ADF1-1B6F62DC4548}"/>
@@ -3642,7 +3657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80596E7F-DECF-497C-AD87-2DA392DA01F4}">
   <dimension ref="B1:BK72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3664,7 +3679,7 @@
     <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" style="32" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="157"/>
+    <col min="14" max="14" width="8.85546875" style="132"/>
     <col min="16" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9.140625" bestFit="1" customWidth="1"/>
@@ -3701,10 +3716,10 @@
       <c r="L1" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="149" t="s">
+      <c r="M1" s="124" t="s">
         <v>245</v>
       </c>
-      <c r="N1" s="151" t="s">
+      <c r="N1" s="126" t="s">
         <v>247</v>
       </c>
       <c r="O1" s="13"/>
@@ -3723,7 +3738,7 @@
       <c r="T1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="149" t="s">
+      <c r="U1" s="124" t="s">
         <v>110</v>
       </c>
       <c r="V1" s="13" t="s">
@@ -3791,7 +3806,7 @@
       <c r="M2" s="20">
         <v>45473</v>
       </c>
-      <c r="N2" s="152"/>
+      <c r="N2" s="127"/>
       <c r="P2" s="20">
         <v>43465</v>
       </c>
@@ -3854,10 +3869,10 @@
         <v>45146</v>
       </c>
       <c r="L3" s="76"/>
-      <c r="M3" s="146">
+      <c r="M3" s="121">
         <v>45561</v>
       </c>
-      <c r="N3" s="152" t="s">
+      <c r="N3" s="127" t="s">
         <v>248</v>
       </c>
       <c r="P3" s="20"/>
@@ -3904,21 +3919,21 @@
       <c r="I4" s="71">
         <v>9.8320000000000007</v>
       </c>
-      <c r="J4" s="150">
+      <c r="J4" s="125">
         <f>T4-I4</f>
         <v>12.481999999999999</v>
       </c>
       <c r="K4" s="71">
         <v>2.464</v>
       </c>
-      <c r="L4" s="150">
+      <c r="L4" s="125">
         <f>U4-K4</f>
         <v>8.5129999999999999</v>
       </c>
       <c r="M4" s="71">
         <v>0.88100000000000001</v>
       </c>
-      <c r="N4" s="153">
+      <c r="N4" s="128">
         <f>+M4*2.75</f>
         <v>2.4227500000000002</v>
       </c>
@@ -3946,7 +3961,7 @@
         <v>3.30375</v>
       </c>
       <c r="W4" s="71">
-        <f t="shared" ref="U4:AD4" si="0">V4*1.25</f>
+        <f t="shared" ref="W4:AD4" si="0">V4*1.25</f>
         <v>4.1296875000000002</v>
       </c>
       <c r="X4" s="71">
@@ -4020,7 +4035,7 @@
       <c r="M5" s="67">
         <v>1.167</v>
       </c>
-      <c r="N5" s="154"/>
+      <c r="N5" s="129"/>
       <c r="O5" s="67"/>
       <c r="P5" s="64">
         <v>0.54072100000000001</v>
@@ -4041,7 +4056,7 @@
         <v>8.9290000000000003</v>
       </c>
       <c r="V5" s="68">
-        <f t="shared" ref="U5:AD5" si="1">V4-V7</f>
+        <f t="shared" ref="V5:AD5" si="1">V4-V7</f>
         <v>2.2795874999999999</v>
       </c>
       <c r="W5" s="68">
@@ -4118,7 +4133,7 @@
       <c r="M6" s="67">
         <v>0</v>
       </c>
-      <c r="N6" s="154"/>
+      <c r="N6" s="129"/>
       <c r="O6" s="67"/>
       <c r="P6" s="65">
         <v>0</v>
@@ -4198,7 +4213,7 @@
         <f t="shared" si="2"/>
         <v>1.511000000000001</v>
       </c>
-      <c r="J7" s="150">
+      <c r="J7" s="125">
         <f>T7-I7</f>
         <v>3.2739999999999991</v>
       </c>
@@ -4214,7 +4229,7 @@
         <f t="shared" si="2"/>
         <v>-0.28600000000000003</v>
       </c>
-      <c r="N7" s="154">
+      <c r="N7" s="129">
         <f>N4*N23</f>
         <v>0.67837000000000014</v>
       </c>
@@ -4239,12 +4254,12 @@
         <f t="shared" ref="T7:U7" si="3">T4-T5-T6</f>
         <v>4.7850000000000001</v>
       </c>
-      <c r="U7" s="147">
+      <c r="U7" s="122">
         <f t="shared" si="3"/>
         <v>2.048</v>
       </c>
       <c r="V7" s="71">
-        <f t="shared" ref="U7:AD7" si="4">V4*0.31</f>
+        <f t="shared" ref="V7:AD7" si="4">V4*0.31</f>
         <v>1.0241625000000001</v>
       </c>
       <c r="W7" s="71">
@@ -4316,13 +4331,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="70">
-        <f>U8-K8</f>
+        <f t="shared" ref="L8:L14" si="6">U8-K8</f>
         <v>0</v>
       </c>
       <c r="M8" s="67">
         <v>0</v>
       </c>
-      <c r="N8" s="154"/>
+      <c r="N8" s="129"/>
       <c r="O8" s="67"/>
       <c r="P8" s="65">
         <v>0</v>
@@ -4406,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="L9" s="70">
-        <f>U9-K9</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M9" s="67">
         <v>0</v>
       </c>
-      <c r="N9" s="154"/>
+      <c r="N9" s="129"/>
       <c r="O9" s="67"/>
       <c r="P9" s="65">
         <v>0</v>
@@ -4496,13 +4511,13 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="L10" s="70">
-        <f>U10-K10</f>
+        <f t="shared" si="6"/>
         <v>0.87999999999999989</v>
       </c>
       <c r="M10" s="67">
         <v>0.76</v>
       </c>
-      <c r="N10" s="155"/>
+      <c r="N10" s="130"/>
       <c r="O10" s="67"/>
       <c r="P10" s="66">
         <v>2.213695</v>
@@ -4523,39 +4538,39 @@
         <v>1.6359999999999999</v>
       </c>
       <c r="V10" s="67">
-        <f t="shared" ref="U10:AD10" si="6">U10*1</f>
+        <f t="shared" ref="V10:AD10" si="7">U10*1</f>
         <v>1.6359999999999999</v>
       </c>
       <c r="W10" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6359999999999999</v>
       </c>
       <c r="X10" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6359999999999999</v>
       </c>
       <c r="Y10" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6359999999999999</v>
       </c>
       <c r="Z10" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6359999999999999</v>
       </c>
       <c r="AA10" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6359999999999999</v>
       </c>
       <c r="AB10" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6359999999999999</v>
       </c>
       <c r="AC10" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6359999999999999</v>
       </c>
       <c r="AD10" s="67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.6359999999999999</v>
       </c>
     </row>
@@ -4595,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="L11" s="70">
-        <f>U11-K11</f>
+        <f t="shared" si="6"/>
         <v>0.114</v>
       </c>
       <c r="M11" s="67">
         <v>0</v>
       </c>
-      <c r="N11" s="154"/>
+      <c r="N11" s="129"/>
       <c r="O11" s="67"/>
       <c r="P11" s="65">
         <v>0</v>
@@ -4686,13 +4701,13 @@
         <v>1.9E-2</v>
       </c>
       <c r="L12" s="70">
-        <f>U12-K12</f>
+        <f t="shared" si="6"/>
         <v>1.9E-2</v>
       </c>
       <c r="M12" s="67">
         <v>0.03</v>
       </c>
-      <c r="N12" s="154"/>
+      <c r="N12" s="129"/>
       <c r="O12" s="67"/>
       <c r="P12" s="66">
         <v>9.2290999999999998E-2</v>
@@ -4713,39 +4728,39 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="V12" s="66">
-        <f t="shared" ref="U12:AD12" si="7">U12</f>
+        <f t="shared" ref="V12:AD12" si="8">U12</f>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="W12" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="X12" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="Y12" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="Z12" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="AA12" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="AB12" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="AC12" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="AD12" s="66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
@@ -4754,27 +4769,27 @@
         <v>22</v>
       </c>
       <c r="C13" s="66">
-        <f t="shared" ref="C13:H13" si="8">SUM(C8:C12)</f>
+        <f t="shared" ref="C13:H13" si="9">SUM(C8:C12)</f>
         <v>1.0944259999999999</v>
       </c>
       <c r="D13" s="72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.91399000000000008</v>
       </c>
       <c r="E13" s="66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1855410000000002</v>
       </c>
       <c r="F13" s="72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9321486000000003</v>
       </c>
       <c r="G13" s="66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.3668140000000002</v>
       </c>
       <c r="H13" s="72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.7121859999999998</v>
       </c>
       <c r="I13" s="67">
@@ -4788,72 +4803,72 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="L13" s="70">
-        <f>U13-K13</f>
+        <f t="shared" si="6"/>
         <v>1.0129999999999999</v>
       </c>
       <c r="M13" s="67">
         <v>0.79</v>
       </c>
-      <c r="N13" s="154"/>
+      <c r="N13" s="129"/>
       <c r="O13" s="67"/>
       <c r="P13" s="66">
-        <f>SUM(P8:P12)</f>
+        <f t="shared" ref="P13:U13" si="10">SUM(P8:P12)</f>
         <v>2.3059859999999999</v>
       </c>
       <c r="Q13" s="66">
-        <f>SUM(Q8:Q12)</f>
+        <f t="shared" si="10"/>
         <v>2.008416</v>
       </c>
       <c r="R13" s="66">
-        <f>SUM(R8:R12)</f>
+        <f t="shared" si="10"/>
         <v>3.1176895999999998</v>
       </c>
       <c r="S13" s="66">
-        <f>SUM(S8:S12)</f>
+        <f t="shared" si="10"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="T13" s="148">
-        <f>SUM(T8:T12)</f>
+      <c r="T13" s="123">
+        <f t="shared" si="10"/>
         <v>2.3430000000000004</v>
       </c>
       <c r="U13" s="66">
-        <f>SUM(U8:U12)</f>
+        <f t="shared" si="10"/>
         <v>1.788</v>
       </c>
       <c r="V13" s="67">
-        <f t="shared" ref="U13:AD13" si="9">U13</f>
+        <f t="shared" ref="V13:AD13" si="11">U13</f>
         <v>1.788</v>
       </c>
       <c r="W13" s="67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.788</v>
       </c>
       <c r="X13" s="67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.788</v>
       </c>
       <c r="Y13" s="67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.788</v>
       </c>
       <c r="Z13" s="67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.788</v>
       </c>
       <c r="AA13" s="67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.788</v>
       </c>
       <c r="AB13" s="67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.788</v>
       </c>
       <c r="AC13" s="67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.788</v>
       </c>
       <c r="AD13" s="67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.788</v>
       </c>
     </row>
@@ -4890,13 +4905,13 @@
         <v>0.23</v>
       </c>
       <c r="L14" s="70">
-        <f>U14-K14</f>
+        <f t="shared" si="6"/>
         <v>0.39100000000000001</v>
       </c>
       <c r="M14" s="67">
         <v>0.27200000000000002</v>
       </c>
-      <c r="N14" s="154"/>
+      <c r="N14" s="129"/>
       <c r="O14" s="67"/>
       <c r="P14" s="66">
         <v>0</v>
@@ -4921,35 +4936,35 @@
         <v>0.16518750000000001</v>
       </c>
       <c r="W14" s="67">
-        <f t="shared" ref="W14:AD14" si="10">W4*0.05</f>
+        <f t="shared" ref="W14:AD14" si="12">W4*0.05</f>
         <v>0.20648437500000003</v>
       </c>
       <c r="X14" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.25810546875000001</v>
       </c>
       <c r="Y14" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.3226318359375</v>
       </c>
       <c r="Z14" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.403289794921875</v>
       </c>
       <c r="AA14" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.50411224365234375</v>
       </c>
       <c r="AB14" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.63014030456542969</v>
       </c>
       <c r="AC14" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.78767538070678711</v>
       </c>
       <c r="AD14" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.98459422588348389</v>
       </c>
     </row>
@@ -4958,31 +4973,31 @@
         <v>55</v>
       </c>
       <c r="C15" s="63">
-        <f t="shared" ref="C15:M15" si="11">C7-C13</f>
+        <f t="shared" ref="C15:I15" si="13">C7-C13</f>
         <v>-1.3187889999999998</v>
       </c>
       <c r="D15" s="69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.1497930000000001</v>
       </c>
       <c r="E15" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-1.3469010000000001</v>
       </c>
       <c r="F15" s="69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2.4110906000000005</v>
       </c>
       <c r="G15" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.2669400000000004</v>
       </c>
       <c r="H15" s="69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.3129400000000002</v>
       </c>
       <c r="I15" s="63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.2000000000000899E-2</v>
       </c>
       <c r="J15" s="69">
@@ -5001,7 +5016,7 @@
         <f>M7-M13-M14</f>
         <v>-1.3480000000000001</v>
       </c>
-      <c r="N15" s="154"/>
+      <c r="N15" s="129"/>
       <c r="O15" s="67"/>
       <c r="P15" s="63">
         <f>P7-P13</f>
@@ -5028,39 +5043,39 @@
         <v>-0.36099999999999999</v>
       </c>
       <c r="V15" s="63">
-        <f t="shared" ref="V15:AD15" si="12">V7-V13-V14</f>
+        <f t="shared" ref="V15:AD15" si="14">V7-V13-V14</f>
         <v>-0.92902499999999999</v>
       </c>
       <c r="W15" s="63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.71428124999999998</v>
       </c>
       <c r="X15" s="63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.44585156249999996</v>
       </c>
       <c r="Y15" s="63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-0.11031445312500021</v>
       </c>
       <c r="Z15" s="63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.30910693359374997</v>
       </c>
       <c r="AA15" s="63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.83338366699218747</v>
       </c>
       <c r="AB15" s="63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.4887295837402341</v>
       </c>
       <c r="AC15" s="63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.3079119796752927</v>
       </c>
       <c r="AD15" s="63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.331889974594116</v>
       </c>
     </row>
@@ -5108,7 +5123,7 @@
         <f>0.001-0.15</f>
         <v>-0.14899999999999999</v>
       </c>
-      <c r="N16" s="154"/>
+      <c r="N16" s="129"/>
       <c r="O16" s="67"/>
       <c r="P16" s="66">
         <v>2.3914999999999999E-2</v>
@@ -5132,39 +5147,39 @@
         <v>-0.16600000000000001</v>
       </c>
       <c r="V16" s="67">
-        <f t="shared" ref="U16:AD16" si="13">U16*1.08</f>
+        <f t="shared" ref="V16:AD16" si="15">U16*1.08</f>
         <v>-0.17928000000000002</v>
       </c>
       <c r="W16" s="67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.19362240000000003</v>
       </c>
       <c r="X16" s="67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.20911219200000003</v>
       </c>
       <c r="Y16" s="67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.22584116736000004</v>
       </c>
       <c r="Z16" s="67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.24390846074880007</v>
       </c>
       <c r="AA16" s="67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.26342113760870411</v>
       </c>
       <c r="AB16" s="67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.28449482861740044</v>
       </c>
       <c r="AC16" s="67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.30725441490679251</v>
       </c>
       <c r="AD16" s="67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.33183476809933593</v>
       </c>
     </row>
@@ -5173,50 +5188,50 @@
         <v>26</v>
       </c>
       <c r="C17" s="63">
-        <f t="shared" ref="C17:M17" si="14">C15-C16</f>
+        <f t="shared" ref="C17:M17" si="16">C15-C16</f>
         <v>-1.3302649999999998</v>
       </c>
       <c r="D17" s="69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-1.1646640000000001</v>
       </c>
       <c r="E17" s="63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-1.3488820000000001</v>
       </c>
       <c r="F17" s="69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-2.4136676000000006</v>
       </c>
       <c r="G17" s="63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.2687220000000004</v>
       </c>
       <c r="H17" s="69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.2727220000000004</v>
       </c>
       <c r="I17" s="63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.0000000000008996E-3</v>
       </c>
       <c r="J17" s="69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.5079999999999989</v>
       </c>
       <c r="K17" s="63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.35500000000000004</v>
       </c>
       <c r="L17" s="69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.15999999999999925</v>
       </c>
       <c r="M17" s="63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-1.1990000000000001</v>
       </c>
-      <c r="N17" s="154"/>
+      <c r="N17" s="129"/>
       <c r="O17" s="67"/>
       <c r="P17" s="63">
         <f>P15-P16</f>
@@ -5235,47 +5250,47 @@
         <v>2.0040000000000018</v>
       </c>
       <c r="T17" s="63">
-        <f t="shared" ref="T17:U17" si="15">T15-T16</f>
+        <f t="shared" ref="T17:U17" si="17">T15-T16</f>
         <v>1.5169999999999999</v>
       </c>
       <c r="U17" s="63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-0.19499999999999998</v>
       </c>
       <c r="V17" s="63">
-        <f t="shared" ref="U17:AD17" si="16">V15-V16</f>
+        <f t="shared" ref="V17:AD17" si="18">V15-V16</f>
         <v>-0.74974499999999999</v>
       </c>
       <c r="W17" s="63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.52065885000000001</v>
       </c>
       <c r="X17" s="63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.23673937049999993</v>
       </c>
       <c r="Y17" s="63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.11552671423499983</v>
       </c>
       <c r="Z17" s="63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.55301539434254998</v>
       </c>
       <c r="AA17" s="63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0968048046008916</v>
       </c>
       <c r="AB17" s="63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.7732244123576346</v>
       </c>
       <c r="AC17" s="63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.6151663945820851</v>
       </c>
       <c r="AD17" s="63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.6637247426934518</v>
       </c>
     </row>
@@ -5321,7 +5336,7 @@
       <c r="M18" s="66">
         <v>0</v>
       </c>
-      <c r="N18" s="156"/>
+      <c r="N18" s="131"/>
       <c r="O18" s="66"/>
       <c r="P18" s="66">
         <v>5.2276999999999997E-2</v>
@@ -5374,50 +5389,50 @@
         <v>25</v>
       </c>
       <c r="C19" s="63">
-        <f t="shared" ref="C19:M19" si="17">C17+C18</f>
+        <f t="shared" ref="C19:M19" si="19">C17+C18</f>
         <v>-1.2607869999999999</v>
       </c>
       <c r="D19" s="69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.88926600000000011</v>
       </c>
       <c r="E19" s="63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1.3488820000000001</v>
       </c>
       <c r="F19" s="69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.4136676000000006</v>
       </c>
       <c r="G19" s="63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.2687220000000004</v>
       </c>
       <c r="H19" s="69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.2727220000000004</v>
       </c>
       <c r="I19" s="63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.0000000000008996E-3</v>
       </c>
       <c r="J19" s="69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.5079999999999989</v>
       </c>
       <c r="K19" s="63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-0.31900000000000006</v>
       </c>
       <c r="L19" s="69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.15999999999999925</v>
       </c>
       <c r="M19" s="63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1.1990000000000001</v>
       </c>
-      <c r="N19" s="154"/>
+      <c r="N19" s="129"/>
       <c r="O19" s="67"/>
       <c r="P19" s="63">
         <f>P17+P18</f>
@@ -5436,179 +5451,179 @@
         <v>2.0040000000000018</v>
       </c>
       <c r="T19" s="63">
-        <f t="shared" ref="T19:U19" si="18">T17+T18</f>
+        <f t="shared" ref="T19:U19" si="20">T17+T18</f>
         <v>1.5169999999999999</v>
       </c>
       <c r="U19" s="63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-0.15899999999999997</v>
       </c>
       <c r="V19" s="63">
-        <f t="shared" ref="U19:AD19" si="19">V17+V18</f>
+        <f t="shared" ref="V19:AD19" si="21">V17+V18</f>
         <v>0.25025500000000001</v>
       </c>
       <c r="W19" s="63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.47934115</v>
       </c>
       <c r="X19" s="63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.7632606295</v>
       </c>
       <c r="Y19" s="63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.115526714235</v>
       </c>
       <c r="Z19" s="63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.55301539434255</v>
       </c>
       <c r="AA19" s="63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7.0968048046008914</v>
       </c>
       <c r="AB19" s="63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>8.7732244123576351</v>
       </c>
       <c r="AC19" s="63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>10.615166394582085</v>
       </c>
       <c r="AD19" s="63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>12.663724742693452</v>
       </c>
       <c r="AE19" s="53">
-        <f t="shared" ref="AE19:BK19" si="20">AD19*(1+$AG$23)</f>
+        <f t="shared" ref="AE19:BK19" si="22">AD19*(1+$AG$23)</f>
         <v>12.47376887155305</v>
       </c>
       <c r="AF19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>12.286662338479754</v>
       </c>
       <c r="AG19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>12.102362403402557</v>
       </c>
       <c r="AH19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>11.920826967351518</v>
       </c>
       <c r="AI19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>11.742014562841245</v>
       </c>
       <c r="AJ19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>11.565884344398626</v>
       </c>
       <c r="AK19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>11.392396079232647</v>
       </c>
       <c r="AL19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>11.221510138044158</v>
       </c>
       <c r="AM19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>11.053187485973496</v>
       </c>
       <c r="AN19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10.887389673683893</v>
       </c>
       <c r="AO19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10.724078828578635</v>
       </c>
       <c r="AP19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10.563217646149957</v>
       </c>
       <c r="AQ19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10.404769381457706</v>
       </c>
       <c r="AR19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10.24869784073584</v>
       </c>
       <c r="AS19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>10.094967373124803</v>
       </c>
       <c r="AT19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.9435428625279307</v>
       </c>
       <c r="AU19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.7943897195900114</v>
       </c>
       <c r="AV19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.6474738737961605</v>
       </c>
       <c r="AW19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.5027617656892183</v>
       </c>
       <c r="AX19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.3602203392038792</v>
       </c>
       <c r="AY19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.2198170341158203</v>
       </c>
       <c r="AZ19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.0815197786040827</v>
       </c>
       <c r="BA19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.9452969819250221</v>
       </c>
       <c r="BB19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.8111175271961475</v>
       </c>
       <c r="BC19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.6789507642882047</v>
       </c>
       <c r="BD19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.5487665028238808</v>
       </c>
       <c r="BE19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.420535005281522</v>
       </c>
       <c r="BF19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.2942269802022999</v>
       </c>
       <c r="BG19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.1698135754992656</v>
       </c>
       <c r="BH19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.0472663718667761</v>
       </c>
       <c r="BI19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.9265573762887742</v>
       </c>
       <c r="BJ19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.8076590156444423</v>
       </c>
       <c r="BK19" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.6905441304097755</v>
       </c>
     </row>
@@ -5617,31 +5632,31 @@
         <v>32</v>
       </c>
       <c r="C20" s="66">
-        <f t="shared" ref="C20:I20" si="21">(C19/C21)</f>
+        <f t="shared" ref="C20:I20" si="23">(C19/C21)</f>
         <v>-5.8309467350935564E-3</v>
       </c>
       <c r="D20" s="72">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-3.6932717437238396E-3</v>
       </c>
       <c r="E20" s="66">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-3.9258307454951135E-3</v>
       </c>
       <c r="F20" s="72">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-4.6611916836287381E-3</v>
       </c>
       <c r="G20" s="66">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-4.0439192608093311E-4</v>
       </c>
       <c r="H20" s="72">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.1971802850663715E-3</v>
       </c>
       <c r="I20" s="66">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.1621600681801736E-5</v>
       </c>
       <c r="J20" s="70">
@@ -5649,7 +5664,7 @@
         <v>2.9213369959821909E-2</v>
       </c>
       <c r="K20" s="66">
-        <f t="shared" ref="K20:M20" si="22">(K19/K21)</f>
+        <f t="shared" ref="K20:M20" si="24">(K19/K21)</f>
         <v>-6.1339156463920321E-3</v>
       </c>
       <c r="L20" s="70">
@@ -5657,10 +5672,10 @@
         <v>3.0765721110430104E-3</v>
       </c>
       <c r="M20" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-2.3055062257128667E-2</v>
       </c>
-      <c r="N20" s="154"/>
+      <c r="N20" s="129"/>
       <c r="O20" s="67"/>
       <c r="P20" s="66">
         <f>(P19/P21)</f>
@@ -5679,47 +5694,47 @@
         <v>2.8191522285932963E-3</v>
       </c>
       <c r="T20" s="66">
-        <f t="shared" ref="T20:AD20" si="23">(T19/T21)</f>
+        <f t="shared" ref="T20:AD20" si="25">(T19/T21)</f>
         <v>2.9387720311041025E-2</v>
       </c>
       <c r="U20" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-3.0573435353490053E-3</v>
       </c>
       <c r="V20" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.8120472103067007E-3</v>
       </c>
       <c r="W20" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2.8445623280051974E-2</v>
       </c>
       <c r="X20" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.3133566176643075E-2</v>
       </c>
       <c r="Y20" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.9135716945424608E-2</v>
       </c>
       <c r="Z20" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.10677657684016796</v>
       </c>
       <c r="AA20" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.13646144837094529</v>
       </c>
       <c r="AB20" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.16869660969363331</v>
       </c>
       <c r="AC20" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.20411453052282735</v>
       </c>
       <c r="AD20" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.24350538978310113</v>
       </c>
     </row>
@@ -5765,7 +5780,7 @@
       <c r="M21" s="67">
         <v>52.005932000000001</v>
       </c>
-      <c r="N21" s="154"/>
+      <c r="N21" s="129"/>
       <c r="O21" s="67"/>
       <c r="P21" s="66">
         <v>158.321675</v>
@@ -5786,39 +5801,39 @@
         <v>52.005932000000001</v>
       </c>
       <c r="V21" s="66">
-        <f t="shared" ref="U21:AD21" si="24">U21</f>
+        <f t="shared" ref="V21:AD21" si="26">U21</f>
         <v>52.005932000000001</v>
       </c>
       <c r="W21" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>52.005932000000001</v>
       </c>
       <c r="X21" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>52.005932000000001</v>
       </c>
       <c r="Y21" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>52.005932000000001</v>
       </c>
       <c r="Z21" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>52.005932000000001</v>
       </c>
       <c r="AA21" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>52.005932000000001</v>
       </c>
       <c r="AB21" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>52.005932000000001</v>
       </c>
       <c r="AC21" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>52.005932000000001</v>
       </c>
       <c r="AD21" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>52.005932000000001</v>
       </c>
     </row>
@@ -5827,47 +5842,47 @@
         <v>28</v>
       </c>
       <c r="C23" s="16">
-        <f t="shared" ref="C23:H23" si="25">C7/C4</f>
+        <f t="shared" ref="C23:H23" si="27">C7/C4</f>
         <v>-14.275179741680983</v>
       </c>
       <c r="D23" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-14.508275395311639</v>
       </c>
       <c r="E23" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-12.698512630833399</v>
       </c>
       <c r="F23" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-13.024284121502188</v>
       </c>
       <c r="G23" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.33592708936226096</v>
       </c>
       <c r="H23" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.30721802370732998</v>
       </c>
       <c r="I23" s="36">
         <v>0.31</v>
       </c>
       <c r="J23" s="33">
-        <f t="shared" ref="J23" si="26">J7/J4</f>
+        <f t="shared" ref="J23" si="28">J7/J4</f>
         <v>0.26229770870052871</v>
       </c>
       <c r="K23" s="36">
         <v>0.31</v>
       </c>
       <c r="L23" s="33">
-        <f t="shared" ref="L23" si="27">L7/L4</f>
+        <f t="shared" ref="L23" si="29">L7/L4</f>
         <v>0.1699753318454128</v>
       </c>
       <c r="M23" s="36">
         <v>0.31</v>
       </c>
-      <c r="N23" s="159">
+      <c r="N23" s="134">
         <v>0.28000000000000003</v>
       </c>
       <c r="P23" s="16">
@@ -5887,47 +5902,47 @@
         <v>0.31295798729848567</v>
       </c>
       <c r="T23" s="16">
-        <f t="shared" ref="T23:U23" si="28">T7/T4</f>
+        <f t="shared" ref="T23:U23" si="30">T7/T4</f>
         <v>0.21443936542081204</v>
       </c>
       <c r="U23" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.18657192311196139</v>
       </c>
       <c r="V23" s="16">
-        <f t="shared" ref="U23:AD23" si="29">V7/V4</f>
+        <f t="shared" ref="V23:AD23" si="31">V7/V4</f>
         <v>0.31000000000000005</v>
       </c>
       <c r="W23" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.31</v>
       </c>
       <c r="X23" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.31</v>
       </c>
       <c r="Y23" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.31</v>
       </c>
       <c r="Z23" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.31</v>
       </c>
       <c r="AA23" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.31</v>
       </c>
       <c r="AB23" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.31</v>
       </c>
       <c r="AC23" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.31</v>
       </c>
       <c r="AD23" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.31</v>
       </c>
       <c r="AF23" s="41" t="s">
@@ -5942,47 +5957,47 @@
         <v>29</v>
       </c>
       <c r="C24" s="16">
-        <f t="shared" ref="C24:H24" si="30">C15/C4</f>
+        <f t="shared" ref="C24:H24" si="32">C15/C4</f>
         <v>-83.908443087103137</v>
       </c>
       <c r="D24" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-70.743431981787978</v>
       </c>
       <c r="E24" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-105.99677343196664</v>
       </c>
       <c r="F24" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-65.566872433578993</v>
       </c>
       <c r="G24" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-8.1529681794789297E-2</v>
       </c>
       <c r="H24" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.1765353074049438</v>
       </c>
       <c r="I24" s="16">
-        <f t="shared" ref="I24:J24" si="31">I15/I4</f>
+        <f t="shared" ref="I24:J24" si="33">I15/I4</f>
         <v>1.220504475183167E-3</v>
       </c>
       <c r="J24" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.11969235699407138</v>
       </c>
       <c r="K24" s="16">
-        <f t="shared" ref="K24:M24" si="32">K15/K4</f>
+        <f t="shared" ref="K24:M24" si="34">K15/K4</f>
         <v>-0.16396103896103897</v>
       </c>
       <c r="L24" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>5.0510983202160529E-3</v>
       </c>
       <c r="M24" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-1.5300794551645858</v>
       </c>
       <c r="P24" s="16">
@@ -6002,47 +6017,47 @@
         <v>0.12493893502686867</v>
       </c>
       <c r="T24" s="16">
-        <f t="shared" ref="T24:U24" si="33">T15/T4</f>
+        <f t="shared" ref="T24:U24" si="35">T15/T4</f>
         <v>6.7491261091691304E-2</v>
       </c>
       <c r="U24" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-3.2886945431356472E-2</v>
       </c>
       <c r="V24" s="16">
-        <f t="shared" ref="U24:AD24" si="34">V15/V4</f>
+        <f t="shared" ref="V24:AD24" si="36">V15/V4</f>
         <v>-0.28120317820658342</v>
       </c>
       <c r="W24" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-0.17296254256526672</v>
       </c>
       <c r="X24" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-8.6370034052213385E-2</v>
       </c>
       <c r="Y24" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-1.7096027241770749E-2</v>
       </c>
       <c r="Z24" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3.8323178206583423E-2</v>
       </c>
       <c r="AA24" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>8.2658542565266738E-2</v>
       </c>
       <c r="AB24" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.11812683405221337</v>
       </c>
       <c r="AC24" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.14650146724177071</v>
       </c>
       <c r="AD24" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.16920117379341656</v>
       </c>
       <c r="AF24" s="42" t="s">
@@ -6057,47 +6072,47 @@
         <v>30</v>
       </c>
       <c r="C25" s="16">
-        <f t="shared" ref="C25:H25" si="35">C19/C4</f>
+        <f t="shared" ref="C25:H25" si="37">C19/C4</f>
         <v>-80.218044156009412</v>
       </c>
       <c r="D25" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-54.713960499600077</v>
       </c>
       <c r="E25" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-106.15267175572521</v>
       </c>
       <c r="F25" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-65.636951023849036</v>
       </c>
       <c r="G25" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-8.2073946022549527E-2</v>
       </c>
       <c r="H25" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.17346566573969871</v>
       </c>
       <c r="I25" s="16">
-        <f t="shared" ref="I25:J25" si="36">I19/I4</f>
+        <f t="shared" ref="I25:J25" si="38">I19/I4</f>
         <v>9.1537835638739822E-4</v>
       </c>
       <c r="J25" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.12081397211985251</v>
       </c>
       <c r="K25" s="16">
-        <f t="shared" ref="K25:M25" si="37">K19/K4</f>
+        <f t="shared" ref="K25:M25" si="39">K19/K4</f>
         <v>-0.12946428571428575</v>
       </c>
       <c r="L25" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.8794784447315784E-2</v>
       </c>
       <c r="M25" s="16">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-1.3609534619750285</v>
       </c>
       <c r="P25" s="16">
@@ -6117,47 +6132,47 @@
         <v>0.12237420615534939</v>
       </c>
       <c r="T25" s="16">
-        <f t="shared" ref="T25:U25" si="38">T19/T4</f>
+        <f t="shared" ref="T25:U25" si="40">T19/T4</f>
         <v>6.7984225150129959E-2</v>
       </c>
       <c r="U25" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-1.4484831921289968E-2</v>
       </c>
       <c r="V25" s="16">
-        <f t="shared" ref="U25:AD25" si="39">V19/V4</f>
+        <f t="shared" ref="V25:AD25" si="41">V19/V4</f>
         <v>7.5748770336738561E-2</v>
       </c>
       <c r="W25" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.35822108815739689</v>
       </c>
       <c r="X25" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.53529679996367763</v>
       </c>
       <c r="Y25" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.63780542646638516</v>
       </c>
       <c r="Z25" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.68846465547414559</v>
       </c>
       <c r="AA25" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.70389133511059254</v>
       </c>
       <c r="AB25" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.69613261910044033</v>
       </c>
       <c r="AC25" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.67382875322680613</v>
       </c>
       <c r="AD25" s="16">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.64309359174487313</v>
       </c>
       <c r="AF25" s="42" t="s">
@@ -6173,47 +6188,47 @@
         <v>31</v>
       </c>
       <c r="C26" s="16">
-        <f t="shared" ref="C26:H26" si="40">C18/C17</f>
+        <f t="shared" ref="C26:H26" si="42">C18/C17</f>
         <v>-5.222869127579844E-2</v>
       </c>
       <c r="D26" s="33">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-0.23646133133676323</v>
       </c>
       <c r="E26" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F26" s="33">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G26" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="H26" s="33">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="I26" s="16">
-        <f t="shared" ref="I26:J26" si="41">I18/I17</f>
+        <f t="shared" ref="I26:J26" si="43">I18/I17</f>
         <v>0</v>
       </c>
       <c r="J26" s="33">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="K26" s="16">
-        <f t="shared" ref="K26:M26" si="42">K18/K17</f>
+        <f t="shared" ref="K26:M26" si="44">K18/K17</f>
         <v>-0.10140845070422533</v>
       </c>
       <c r="L26" s="33">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="M26" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="P26" s="16">
@@ -6233,47 +6248,47 @@
         <v>0</v>
       </c>
       <c r="T26" s="16">
-        <f t="shared" ref="T26:U26" si="43">T18/T17</f>
+        <f t="shared" ref="T26:U26" si="45">T18/T17</f>
         <v>0</v>
       </c>
       <c r="U26" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>-0.18461538461538463</v>
       </c>
       <c r="V26" s="16">
-        <f t="shared" ref="U26:AD26" si="44">V18/V17</f>
+        <f t="shared" ref="V26:AD26" si="46">V18/V17</f>
         <v>-1.3337868208524231</v>
       </c>
       <c r="W26" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-3.8412868618290075</v>
       </c>
       <c r="X26" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-12.672163458337829</v>
       </c>
       <c r="Y26" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>34.624026369029764</v>
       </c>
       <c r="Z26" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>9.0413396284279379</v>
       </c>
       <c r="AA26" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>5.470435555015003</v>
       </c>
       <c r="AB26" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3.9476108896408526</v>
       </c>
       <c r="AC26" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>3.0590787708857947</v>
       </c>
       <c r="AD26" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>2.4565164230606178</v>
       </c>
       <c r="AF26" s="42" t="s">
@@ -6301,43 +6316,43 @@
         <v>0</v>
       </c>
       <c r="D28" s="34">
-        <f t="shared" ref="D28:M28" si="45">D4/C4-1</f>
+        <f t="shared" ref="D28:M28" si="47">D4/C4-1</f>
         <v>3.410320035630221E-2</v>
       </c>
       <c r="E28" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-0.21817510613425217</v>
       </c>
       <c r="F28" s="34">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.893916738805383</v>
       </c>
       <c r="G28" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>88.036657330106323</v>
       </c>
       <c r="H28" s="34">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>3.0016111076326801</v>
       </c>
       <c r="I28" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-0.24957191176363958</v>
       </c>
       <c r="J28" s="34">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.26952807160292913</v>
       </c>
       <c r="K28" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-0.80259573786252203</v>
       </c>
       <c r="L28" s="34">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>2.4549512987012987</v>
       </c>
       <c r="M28" s="17">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-0.89651121813696699</v>
       </c>
       <c r="AF28" s="44" t="s">
@@ -6360,42 +6375,42 @@
         <v>0</v>
       </c>
       <c r="E29" s="91">
-        <f>E4/C4-1</f>
+        <f t="shared" ref="E29:M29" si="48">E4/C4-1</f>
         <v>-0.19151237513520392</v>
       </c>
       <c r="F29" s="92">
-        <f>F4/D4-1</f>
+        <f t="shared" si="48"/>
         <v>1.2625361471728298</v>
       </c>
       <c r="G29" s="91">
-        <f>G4/E4-1</f>
+        <f t="shared" si="48"/>
         <v>256.6646730148737</v>
       </c>
       <c r="H29" s="92">
-        <f>H4/F4-1</f>
+        <f t="shared" si="48"/>
         <v>355.29007695863817</v>
       </c>
       <c r="I29" s="91">
-        <f>I4/G4-1</f>
+        <f t="shared" si="48"/>
         <v>2.0029213733661768</v>
       </c>
       <c r="J29" s="92">
-        <f>J4/H4-1</f>
+        <f t="shared" si="48"/>
         <v>-4.7310476264620593E-2</v>
       </c>
       <c r="K29" s="91">
-        <f>K4/I4-1</f>
+        <f t="shared" si="48"/>
         <v>-0.74938974776240852</v>
       </c>
       <c r="L29" s="92">
-        <f>L4/J4-1</f>
+        <f t="shared" si="48"/>
         <v>-0.3179778881589489</v>
       </c>
       <c r="M29" s="91">
-        <f>M4/K4-1</f>
+        <f t="shared" si="48"/>
         <v>-0.64245129870129869</v>
       </c>
-      <c r="N29" s="158"/>
+      <c r="N29" s="133"/>
       <c r="P29" s="89">
         <v>0</v>
       </c>
@@ -6412,47 +6427,47 @@
         <v>329.9620048504446</v>
       </c>
       <c r="T29" s="91">
-        <f t="shared" ref="T29:U29" si="46">T4/S4-1</f>
+        <f t="shared" ref="T29:U29" si="49">T4/S4-1</f>
         <v>0.36260381045432322</v>
       </c>
       <c r="U29" s="91">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-0.50806668459263249</v>
       </c>
       <c r="V29" s="91">
-        <f t="shared" ref="U29:V29" si="47">V4/U4-1</f>
+        <f t="shared" ref="V29" si="50">V4/U4-1</f>
         <v>-0.69902978955998907</v>
       </c>
       <c r="W29" s="91">
-        <f t="shared" ref="W29:AD29" si="48">W4/V4-1</f>
+        <f t="shared" ref="W29:AD29" si="51">W4/V4-1</f>
         <v>0.25</v>
       </c>
       <c r="X29" s="91">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.25</v>
       </c>
       <c r="Y29" s="91">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.25</v>
       </c>
       <c r="Z29" s="91">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.25</v>
       </c>
       <c r="AA29" s="91">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.25</v>
       </c>
       <c r="AB29" s="91">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.25</v>
       </c>
       <c r="AC29" s="91">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.25</v>
       </c>
       <c r="AD29" s="91">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.25</v>
       </c>
       <c r="AF29" s="44" t="s">
@@ -6471,43 +6486,43 @@
         <v>0</v>
       </c>
       <c r="D30" s="35">
-        <f t="shared" ref="D30:M30" si="49">D19/C19-1</f>
+        <f t="shared" ref="D30:M30" si="52">D19/C19-1</f>
         <v>-0.29467388226560065</v>
       </c>
       <c r="E30" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0.51684872692760098</v>
       </c>
       <c r="F30" s="35">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0.78938380080689075</v>
       </c>
       <c r="G30" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-0.8886665255812356</v>
       </c>
       <c r="H30" s="35">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-9.4575211556924881</v>
       </c>
       <c r="I30" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-0.99603999081277828</v>
       </c>
       <c r="J30" s="35">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>166.55555555553869</v>
       </c>
       <c r="K30" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-1.2115384615384617</v>
       </c>
       <c r="L30" s="35">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-1.5015673981191198</v>
       </c>
       <c r="M30" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>-8.4937500000000341</v>
       </c>
       <c r="P30" s="15">
@@ -6551,42 +6566,42 @@
         <v>0</v>
       </c>
       <c r="E31" s="91">
-        <f>E19/C19-1</f>
+        <f t="shared" ref="E31:M31" si="53">E19/C19-1</f>
         <v>6.9873023754210895E-2</v>
       </c>
       <c r="F31" s="92">
-        <f>F19/D19-1</f>
+        <f t="shared" si="53"/>
         <v>1.7142245402388041</v>
       </c>
       <c r="G31" s="91">
-        <f>G19/E19-1</f>
+        <f t="shared" si="53"/>
         <v>-0.80078168438751474</v>
       </c>
       <c r="H31" s="92">
-        <f>H19/F19-1</f>
+        <f t="shared" si="53"/>
         <v>-1.941605215233448</v>
       </c>
       <c r="I31" s="91">
-        <f>I19/G19-1</f>
+        <f t="shared" si="53"/>
         <v>-1.0334918614776643</v>
       </c>
       <c r="J31" s="92">
-        <f>J19/H19-1</f>
+        <f t="shared" si="53"/>
         <v>-0.33647846063002929</v>
       </c>
       <c r="K31" s="91">
-        <f>K19/I19-1</f>
+        <f t="shared" si="53"/>
         <v>-36.444444444440911</v>
       </c>
       <c r="L31" s="92">
-        <f>L19/J19-1</f>
+        <f t="shared" si="53"/>
         <v>-0.89389920424403224</v>
       </c>
       <c r="M31" s="91">
-        <f>M19/K19-1</f>
+        <f t="shared" si="53"/>
         <v>2.7586206896551717</v>
       </c>
-      <c r="N31" s="158"/>
+      <c r="N31" s="133"/>
       <c r="P31" s="89">
         <v>0</v>
       </c>
@@ -6603,11 +6618,11 @@
         <v>-1.5326175633671386</v>
       </c>
       <c r="T31" s="91">
-        <f t="shared" ref="T31:U31" si="50">T19/S19-1</f>
+        <f t="shared" ref="T31:U31" si="54">T19/S19-1</f>
         <v>-0.24301397205588893</v>
       </c>
       <c r="U31" s="91">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>-1.1048121292023731</v>
       </c>
       <c r="V31" s="91"/>
@@ -6672,7 +6687,7 @@
         <v>7.0184999999999997E-2</v>
       </c>
       <c r="F35" s="56">
-        <f t="shared" ref="F35:F41" si="51">R35</f>
+        <f t="shared" ref="F35:F41" si="55">R35</f>
         <v>5.5516999999999997E-2</v>
       </c>
       <c r="G35" s="54">
@@ -6706,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="56">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="G36" s="55">
@@ -6740,7 +6755,7 @@
         <v>0.74207100000000004</v>
       </c>
       <c r="F37" s="56">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.61656</v>
       </c>
       <c r="G37" s="54">
@@ -6774,14 +6789,14 @@
         <v>0.476802</v>
       </c>
       <c r="F38" s="56">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>2.8080000000000002E-3</v>
       </c>
       <c r="G38" s="54">
         <v>0.78258399999999995</v>
       </c>
       <c r="H38" s="56">
-        <f t="shared" ref="H38:H55" si="52">S38</f>
+        <f t="shared" ref="H38:H55" si="56">S38</f>
         <v>0.497</v>
       </c>
       <c r="I38" s="54">
@@ -6808,14 +6823,14 @@
         <v>0.22198100000000001</v>
       </c>
       <c r="F39" s="56">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.19489699999999999</v>
       </c>
       <c r="G39" s="54">
         <v>3.1137700000000001</v>
       </c>
       <c r="H39" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>2.3319999999999999</v>
       </c>
       <c r="I39" s="54">
@@ -6842,14 +6857,14 @@
         <v>0.17830199999999999</v>
       </c>
       <c r="F40" s="56">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="G40" s="54">
         <v>0</v>
       </c>
       <c r="H40" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I40" s="54">
@@ -6877,14 +6892,14 @@
         <v>1.3517459999999999</v>
       </c>
       <c r="F41" s="57">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0.465671</v>
       </c>
       <c r="G41" s="58">
         <v>2.214496</v>
       </c>
       <c r="H41" s="57">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>6.3869999999999996</v>
       </c>
       <c r="I41" s="80">
@@ -6894,7 +6909,7 @@
       <c r="K41" s="12"/>
       <c r="L41" s="60"/>
       <c r="M41" s="12"/>
-      <c r="N41" s="158"/>
+      <c r="N41" s="133"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="58">
@@ -6927,7 +6942,7 @@
         <v>6.7660130000000009</v>
       </c>
       <c r="H42" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>11.667999999999999</v>
       </c>
       <c r="I42" s="39">
@@ -6951,12 +6966,12 @@
       <c r="D43" s="56"/>
       <c r="E43" s="39"/>
       <c r="F43" s="56">
-        <f t="shared" ref="F43:F48" si="53">R43</f>
+        <f t="shared" ref="F43:F48" si="57">R43</f>
         <v>0</v>
       </c>
       <c r="G43" s="39"/>
       <c r="H43" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Q43" s="39"/>
@@ -6974,14 +6989,14 @@
         <v>0.31251600000000002</v>
       </c>
       <c r="F44" s="56">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0.38318600000000003</v>
       </c>
       <c r="G44" s="39">
         <v>2.9940030000000002</v>
       </c>
       <c r="H44" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>3.3149999999999999</v>
       </c>
       <c r="I44" s="39">
@@ -7008,14 +7023,14 @@
         <v>0</v>
       </c>
       <c r="F45" s="56">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>8.7378999999999998E-2</v>
       </c>
       <c r="G45" s="39">
         <v>0</v>
       </c>
       <c r="H45" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I45" s="39">
@@ -7042,14 +7057,14 @@
         <v>0</v>
       </c>
       <c r="F46" s="56">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>4.895E-3</v>
       </c>
       <c r="G46" s="39">
         <v>0</v>
       </c>
       <c r="H46" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I46" s="39">
@@ -7076,14 +7091,14 @@
         <v>0.102697</v>
       </c>
       <c r="F47" s="56">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="G47" s="39">
         <v>0</v>
       </c>
       <c r="H47" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I47" s="39">
@@ -7110,14 +7125,14 @@
         <v>0</v>
       </c>
       <c r="F48" s="56">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0.22625000000000001</v>
       </c>
       <c r="G48" s="39">
         <v>0.22625000000000001</v>
       </c>
       <c r="H48" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I48" s="39">
@@ -7150,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1.24</v>
       </c>
       <c r="I49" s="39">
@@ -7187,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I50" s="39">
@@ -7224,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="I51" s="59">
@@ -7234,7 +7249,7 @@
       <c r="K51" s="12"/>
       <c r="L51" s="60"/>
       <c r="M51" s="12"/>
-      <c r="N51" s="158"/>
+      <c r="N51" s="133"/>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="59">
@@ -7267,7 +7282,7 @@
         <v>3.220253</v>
       </c>
       <c r="H52" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>4.5549999999999997</v>
       </c>
       <c r="I52" s="39">
@@ -7293,7 +7308,7 @@
       <c r="F53" s="56"/>
       <c r="G53" s="39"/>
       <c r="H53" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Q53" s="39"/>
@@ -7318,7 +7333,7 @@
         <v>3.54576</v>
       </c>
       <c r="H54" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>7.1130000000000004</v>
       </c>
       <c r="I54" s="39">
@@ -7354,7 +7369,7 @@
         <v>6.7660130000000001</v>
       </c>
       <c r="H55" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>11.667999999999999</v>
       </c>
       <c r="I55" s="39">
@@ -7389,35 +7404,35 @@
         <v>143</v>
       </c>
       <c r="D57" s="56">
-        <f t="shared" ref="D57" si="54">D42-D52</f>
+        <f t="shared" ref="D57" si="58">D42-D52</f>
         <v>2.233822</v>
       </c>
       <c r="E57" s="79">
-        <f t="shared" ref="E57:F57" si="55">E42-E52</f>
+        <f t="shared" ref="E57:F57" si="59">E42-E52</f>
         <v>2.625874</v>
       </c>
       <c r="F57" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.52937599999999996</v>
       </c>
       <c r="G57" s="79">
-        <f t="shared" ref="G57:H57" si="56">G42-G52</f>
+        <f t="shared" ref="G57:H57" si="60">G42-G52</f>
         <v>3.5457600000000009</v>
       </c>
       <c r="H57" s="56">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>7.1129999999999995</v>
       </c>
       <c r="I57" s="79">
-        <f t="shared" ref="I57" si="57">I42-I52</f>
+        <f t="shared" ref="I57" si="61">I42-I52</f>
         <v>8.4660000000000011</v>
       </c>
       <c r="Q57" s="79">
-        <f t="shared" ref="Q57:R57" si="58">Q42-Q52</f>
+        <f t="shared" ref="Q57:R57" si="62">Q42-Q52</f>
         <v>2.233822</v>
       </c>
       <c r="R57" s="79">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>0.52937599999999996</v>
       </c>
       <c r="S57" s="79">
@@ -7430,35 +7445,35 @@
         <v>144</v>
       </c>
       <c r="D58" s="56">
-        <f t="shared" ref="D58:H58" si="59">D57/D21</f>
+        <f t="shared" ref="D58:H58" si="63">D57/D21</f>
         <v>9.2774396784636708E-3</v>
       </c>
       <c r="E58" s="39">
-        <f t="shared" ref="E58" si="60">E57/E21</f>
+        <f t="shared" ref="E58" si="64">E57/E21</f>
         <v>7.6424304594443658E-3</v>
       </c>
       <c r="F58" s="56">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>1.0223126865988698E-3</v>
       </c>
       <c r="G58" s="39">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>5.3359111491456885E-3</v>
       </c>
       <c r="H58" s="56">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>1.0006302296399251E-2</v>
       </c>
       <c r="I58" s="39">
-        <f t="shared" ref="I58" si="61">I57/I21</f>
+        <f t="shared" ref="I58" si="65">I57/I21</f>
         <v>1.0932052374680408E-2</v>
       </c>
       <c r="Q58" s="39">
-        <f t="shared" ref="Q58:R58" si="62">Q57/Q21</f>
+        <f t="shared" ref="Q58:R58" si="66">Q57/Q21</f>
         <v>9.2774396784636708E-3</v>
       </c>
       <c r="R58" s="39">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1.0223126865988698E-3</v>
       </c>
       <c r="S58" s="39">
@@ -7571,27 +7586,27 @@
         <v>161</v>
       </c>
       <c r="D69" s="34">
-        <f t="shared" ref="D69:I69" si="63">(D15+C15)/(D42-SUM(D49:D51))</f>
+        <f t="shared" ref="D69:I69" si="67">(D15+C15)/(D42-SUM(D49:D51))</f>
         <v>-0.94713013945390168</v>
       </c>
       <c r="E69" s="36">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>-0.82098736405765438</v>
       </c>
       <c r="F69" s="34">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>-3.0525825165747973</v>
       </c>
       <c r="G69" s="36">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>-0.39580630424446428</v>
       </c>
       <c r="H69" s="34">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>0.19620253164556961</v>
       </c>
       <c r="I69" s="36">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>0.17112763138524958</v>
       </c>
       <c r="S69" s="36">
@@ -7622,6 +7637,81 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CE0562-FC62-4793-9141-96B57A1A963D}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="99"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="101" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="101" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="101" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="101" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="160" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="160" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="160">
+        <v>2342000</v>
+      </c>
+      <c r="D3" s="160">
+        <v>572000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="160" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="160" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="160">
+        <v>122000</v>
+      </c>
+      <c r="D4" s="160">
+        <v>309000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="161" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="161" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="161">
+        <f>D3/B3-1</f>
+        <v>-0.75576430401366357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="161" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="161" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="161">
+        <f>D4/B4-1</f>
+        <v>1.5327868852459017</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B616A8F7-A0BD-4E7F-9020-9AE5BBA9C9F8}">
   <dimension ref="B1:D16"/>
   <sheetViews>
@@ -7637,11 +7727,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C2" s="21">
@@ -7814,7 +7904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07E9ED6-1590-4E51-9AEA-DA97942BD76A}">
   <dimension ref="A1:E28"/>
   <sheetViews>

--- a/£MHC.xlsx
+++ b/£MHC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C5B2D8-FEAE-4475-AFB2-7B36604A2DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7177EFA-CFA5-4AA5-9355-ACDDFA4CBB0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E461C7AA-D693-45DC-846F-4B1D3C8E259B}"/>
   </bookViews>
@@ -24,21 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="254">
   <si>
     <t>Stock Snapshot</t>
   </si>
@@ -797,6 +788,9 @@
   </si>
   <si>
     <t>Other Y/Y</t>
+  </si>
+  <si>
+    <t>MHC receive regulatory approval for Phlebotomy Testing in UK &amp; EU</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1167,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1275,9 +1269,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1321,9 +1312,6 @@
     </xf>
     <xf numFmtId="17" fontId="2" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1381,52 +1369,21 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1453,11 +1410,49 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
@@ -1975,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A865B090-C0E4-4B85-AA22-AACD646D3083}">
   <dimension ref="A1:AC105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,11 +1999,11 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="J2" s="140" t="s">
+      <c r="J2" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="136"/>
-      <c r="L2" s="137"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="139"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -2020,13 +2015,13 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="J3" s="82" t="s">
+      <c r="J3" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="151" t="s">
+      <c r="K3" s="140" t="s">
         <v>153</v>
       </c>
-      <c r="L3" s="152"/>
+      <c r="L3" s="141"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -2036,29 +2031,29 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="J4" s="82" t="s">
+      <c r="J4" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="K4" s="151"/>
-      <c r="L4" s="152"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="141"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
+      <c r="B5" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="138"/>
+      <c r="D5" s="139"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="J5" s="82" t="s">
+      <c r="J5" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="81" t="s">
+      <c r="K5" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="95">
+      <c r="L5" s="94">
         <v>44825</v>
       </c>
     </row>
@@ -2068,19 +2063,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="65">
-        <v>0.12620000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="J6" s="83" t="s">
+      <c r="J6" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="K6" s="153" t="s">
+      <c r="K6" s="142" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="154"/>
+      <c r="L6" s="143"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -2105,7 +2100,7 @@
       </c>
       <c r="C8" s="6">
         <f>C6*C7</f>
-        <v>6.5631572</v>
+        <v>8.8410200000000003</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="1"/>
@@ -2124,17 +2119,17 @@
         <v>244</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
-      <c r="N9" s="137"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="139"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -2148,18 +2143,18 @@
         <v>244</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="114">
+      <c r="F10" s="112">
         <v>43770</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="160"/>
       <c r="N10" s="23"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2173,18 +2168,18 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="114">
+      <c r="F11" s="112">
         <v>43891</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="160"/>
+      <c r="M11" s="160"/>
       <c r="N11" s="23"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2194,22 +2189,22 @@
       </c>
       <c r="C12" s="10">
         <f>C8-C9+C10</f>
-        <v>-1.1868428</v>
+        <v>1.0910200000000003</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="114">
+      <c r="F12" s="112">
         <v>44166</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="160"/>
+      <c r="M12" s="160"/>
       <c r="N12" s="23"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2218,18 +2213,18 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="114">
+      <c r="F13" s="112">
         <v>44166</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="160" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="160"/>
+      <c r="M13" s="160"/>
       <c r="N13" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2238,40 +2233,40 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="114">
+      <c r="F14" s="112">
         <v>44197</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
       <c r="N14" s="23"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="136"/>
-      <c r="D15" s="137"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="114">
+      <c r="F15" s="112">
         <v>44287</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="160"/>
+      <c r="M15" s="160"/>
       <c r="N15" s="23"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2279,219 +2274,219 @@
       <c r="B16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="138"/>
+      <c r="D16" s="150"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="114">
+      <c r="F16" s="112">
         <v>44317</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="160"/>
       <c r="N16" s="23"/>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="139" t="s">
+      <c r="C17" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="138"/>
-      <c r="F17" s="114">
+      <c r="D17" s="150"/>
+      <c r="F17" s="112">
         <v>44348</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
+      <c r="K17" s="160"/>
+      <c r="L17" s="160"/>
+      <c r="M17" s="160"/>
       <c r="N17" s="23"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="F18" s="114">
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
+      <c r="F18" s="112">
         <v>44409</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="160"/>
       <c r="N18" s="23"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="F19" s="114">
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="F19" s="112">
         <v>44440</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="160"/>
+      <c r="M19" s="160"/>
       <c r="N19" s="23"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="138"/>
-      <c r="F20" s="114">
+      <c r="D20" s="150"/>
+      <c r="F20" s="112">
         <v>44501</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="160" t="s">
         <v>147</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
       <c r="N20" s="23"/>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="F21" s="114">
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="F21" s="112">
         <v>44652</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="160" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="160"/>
+      <c r="L21" s="160"/>
+      <c r="M21" s="160"/>
       <c r="N21" s="23"/>
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
-      <c r="C22" s="145"/>
-      <c r="D22" s="144"/>
-      <c r="F22" s="114">
+      <c r="C22" s="151"/>
+      <c r="D22" s="152"/>
+      <c r="F22" s="112">
         <v>44726</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="160"/>
+      <c r="K22" s="160"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="160"/>
       <c r="N22" s="23"/>
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F23" s="114"/>
-      <c r="G23" s="77" t="s">
+      <c r="F23" s="112"/>
+      <c r="G23" s="161" t="s">
         <v>134</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="160"/>
       <c r="N23" s="23"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B24" s="140" t="s">
+      <c r="B24" s="137" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="136"/>
-      <c r="D24" s="137"/>
-      <c r="F24" s="114">
+      <c r="C24" s="138"/>
+      <c r="D24" s="139"/>
+      <c r="F24" s="112">
         <v>44743</v>
       </c>
-      <c r="G24" s="77" t="s">
+      <c r="G24" s="161" t="s">
         <v>136</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="160"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="160"/>
       <c r="N24" s="23"/>
-      <c r="P24" s="140" t="s">
+      <c r="P24" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="Q24" s="136"/>
-      <c r="R24" s="137"/>
-      <c r="W24" s="140" t="s">
+      <c r="Q24" s="138"/>
+      <c r="R24" s="139"/>
+      <c r="W24" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="X24" s="136"/>
-      <c r="Y24" s="136"/>
-      <c r="Z24" s="136"/>
-      <c r="AA24" s="136"/>
-      <c r="AB24" s="136"/>
-      <c r="AC24" s="137"/>
+      <c r="X24" s="138"/>
+      <c r="Y24" s="138"/>
+      <c r="Z24" s="138"/>
+      <c r="AA24" s="138"/>
+      <c r="AB24" s="138"/>
+      <c r="AC24" s="139"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B25" s="120">
+      <c r="B25" s="118">
         <v>45047</v>
       </c>
-      <c r="C25" s="143" t="s">
+      <c r="C25" s="158" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="144"/>
-      <c r="F25" s="114">
+      <c r="D25" s="152"/>
+      <c r="F25" s="112">
         <v>44743</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="160" t="s">
         <v>139</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="160"/>
+      <c r="M25" s="160"/>
       <c r="N25" s="23"/>
-      <c r="P25" s="82" t="s">
+      <c r="P25" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="Q25" s="146" t="s">
+      <c r="Q25" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="R25" s="147"/>
-      <c r="W25" s="112" t="s">
+      <c r="R25" s="154"/>
+      <c r="W25" s="110" t="s">
         <v>164</v>
       </c>
       <c r="X25" s="22"/>
@@ -2502,27 +2497,27 @@
       <c r="AC25" s="23"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F26" s="114">
+      <c r="F26" s="112">
         <v>44774</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="160" t="s">
         <v>138</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="160"/>
       <c r="N26" s="23"/>
-      <c r="P26" s="82" t="s">
+      <c r="P26" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="Q26" s="146" t="s">
+      <c r="Q26" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="R26" s="147"/>
-      <c r="W26" s="112" t="s">
+      <c r="R26" s="154"/>
+      <c r="W26" s="110" t="s">
         <v>169</v>
       </c>
       <c r="X26" s="22"/>
@@ -2533,28 +2528,28 @@
       <c r="AC26" s="23"/>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B27" s="135" t="s">
+      <c r="B27" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="136"/>
-      <c r="D27" s="137"/>
-      <c r="F27" s="114">
+      <c r="C27" s="138"/>
+      <c r="D27" s="139"/>
+      <c r="F27" s="112">
         <v>44835</v>
       </c>
-      <c r="G27" s="98" t="s">
+      <c r="G27" s="162" t="s">
         <v>158</v>
       </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="160"/>
+      <c r="M27" s="160"/>
       <c r="N27" s="23"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="148"/>
-      <c r="R27" s="149"/>
-      <c r="W27" s="112" t="s">
+      <c r="P27" s="82"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="136"/>
+      <c r="W27" s="110" t="s">
         <v>165</v>
       </c>
       <c r="X27" s="22"/>
@@ -2568,24 +2563,24 @@
       <c r="B28" s="26">
         <v>43922</v>
       </c>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="F28" s="114">
+      <c r="D28" s="150"/>
+      <c r="F28" s="112">
         <v>45047</v>
       </c>
-      <c r="G28" s="98" t="s">
+      <c r="G28" s="162" t="s">
         <v>240</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="160"/>
+      <c r="M28" s="160"/>
       <c r="N28" s="23"/>
-      <c r="W28" s="112" t="s">
+      <c r="W28" s="110" t="s">
         <v>166</v>
       </c>
       <c r="X28" s="22"/>
@@ -2599,24 +2594,24 @@
       <c r="B29" s="27">
         <v>44228</v>
       </c>
-      <c r="C29" s="145" t="s">
+      <c r="C29" s="151" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="144"/>
-      <c r="F29" s="114">
+      <c r="D29" s="152"/>
+      <c r="F29" s="112">
         <v>45047</v>
       </c>
-      <c r="G29" s="98" t="s">
+      <c r="G29" s="162" t="s">
         <v>239</v>
       </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="160"/>
+      <c r="M29" s="160"/>
       <c r="N29" s="23"/>
-      <c r="W29" s="112" t="s">
+      <c r="W29" s="110" t="s">
         <v>167</v>
       </c>
       <c r="X29" s="22"/>
@@ -2627,20 +2622,20 @@
       <c r="AC29" s="23"/>
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="F30" s="114">
+      <c r="F30" s="112">
         <v>45108</v>
       </c>
-      <c r="G30" s="98" t="s">
+      <c r="G30" s="162" t="s">
         <v>241</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="160"/>
       <c r="N30" s="23"/>
-      <c r="W30" s="112" t="s">
+      <c r="W30" s="110" t="s">
         <v>168</v>
       </c>
       <c r="X30" s="22"/>
@@ -2651,25 +2646,25 @@
       <c r="AC30" s="23"/>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B31" s="135" t="s">
+      <c r="B31" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="136"/>
-      <c r="D31" s="137"/>
-      <c r="F31" s="115">
+      <c r="C31" s="138"/>
+      <c r="D31" s="139"/>
+      <c r="F31" s="112">
         <v>45292</v>
       </c>
-      <c r="G31" s="78" t="s">
+      <c r="G31" s="162" t="s">
         <v>243</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="25"/>
-      <c r="W31" s="112" t="s">
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="160"/>
+      <c r="M31" s="160"/>
+      <c r="N31" s="23"/>
+      <c r="W31" s="110" t="s">
         <v>170</v>
       </c>
       <c r="X31" s="22"/>
@@ -2683,11 +2678,24 @@
       <c r="B32" s="26">
         <v>44136</v>
       </c>
-      <c r="C32" s="139" t="s">
+      <c r="C32" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="138"/>
-      <c r="W32" s="117" t="s">
+      <c r="D32" s="150"/>
+      <c r="F32" s="113">
+        <v>45658</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="25"/>
+      <c r="W32" s="115" t="s">
         <v>171</v>
       </c>
       <c r="X32" s="22"/>
@@ -2701,11 +2709,11 @@
       <c r="B33" s="28">
         <v>44348</v>
       </c>
-      <c r="C33" s="145" t="s">
+      <c r="C33" s="151" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="144"/>
-      <c r="W33" s="112" t="s">
+      <c r="D33" s="152"/>
+      <c r="W33" s="110" t="s">
         <v>172</v>
       </c>
       <c r="X33" s="22"/>
@@ -2716,7 +2724,7 @@
       <c r="AC33" s="23"/>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W34" s="112" t="s">
+      <c r="W34" s="110" t="s">
         <v>173</v>
       </c>
       <c r="X34" s="22"/>
@@ -2727,7 +2735,7 @@
       <c r="AC34" s="23"/>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W35" s="117" t="s">
+      <c r="W35" s="115" t="s">
         <v>174</v>
       </c>
       <c r="X35" s="22"/>
@@ -2738,24 +2746,24 @@
       <c r="AC35" s="23"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B36" s="140" t="s">
+      <c r="B36" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="136"/>
-      <c r="D36" s="137"/>
-      <c r="F36" s="140" t="s">
+      <c r="C36" s="138"/>
+      <c r="D36" s="139"/>
+      <c r="F36" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="136"/>
-      <c r="K36" s="136"/>
-      <c r="L36" s="136"/>
-      <c r="M36" s="136"/>
-      <c r="N36" s="136"/>
-      <c r="O36" s="137"/>
-      <c r="W36" s="112" t="s">
+      <c r="G36" s="138"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="138"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="138"/>
+      <c r="N36" s="138"/>
+      <c r="O36" s="139"/>
+      <c r="W36" s="110" t="s">
         <v>175</v>
       </c>
       <c r="X36" s="22"/>
@@ -2766,18 +2774,18 @@
       <c r="AC36" s="23"/>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B37" s="96" t="s">
+      <c r="B37" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="141">
+      <c r="C37" s="156">
         <f>C6/SUM('Financial Model'!H20:I20)</f>
-        <v>39.329321190103592</v>
-      </c>
-      <c r="D37" s="142"/>
-      <c r="F37" s="155" t="s">
+        <v>52.979275771137964</v>
+      </c>
+      <c r="D37" s="157"/>
+      <c r="F37" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="G37" s="156"/>
+      <c r="G37" s="145"/>
       <c r="H37" s="22" t="s">
         <v>108</v>
       </c>
@@ -2788,7 +2796,7 @@
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="23"/>
-      <c r="W37" s="117" t="s">
+      <c r="W37" s="115" t="s">
         <v>176</v>
       </c>
       <c r="X37" s="22"/>
@@ -2799,18 +2807,18 @@
       <c r="AC37" s="23"/>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="141">
+      <c r="C38" s="156">
         <f>C6/'Financial Model'!I58</f>
-        <v>11.54403543586109</v>
-      </c>
-      <c r="D38" s="142"/>
-      <c r="F38" s="155" t="s">
+        <v>15.550602409638554</v>
+      </c>
+      <c r="D38" s="157"/>
+      <c r="F38" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="156"/>
+      <c r="G38" s="145"/>
       <c r="H38" s="22" t="s">
         <v>109</v>
       </c>
@@ -2821,7 +2829,7 @@
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="23"/>
-      <c r="W38" s="117" t="s">
+      <c r="W38" s="115" t="s">
         <v>177</v>
       </c>
       <c r="X38" s="22"/>
@@ -2832,18 +2840,18 @@
       <c r="AC38" s="23"/>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B39" s="96" t="s">
+      <c r="B39" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="141">
+      <c r="C39" s="156">
         <f>C8/SUM('Financial Model'!H4:I4)</f>
-        <v>0.28617767052246557</v>
-      </c>
-      <c r="D39" s="142"/>
-      <c r="F39" s="157" t="s">
+        <v>0.38550082400015173</v>
+      </c>
+      <c r="D39" s="157"/>
+      <c r="F39" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="158"/>
+      <c r="G39" s="147"/>
       <c r="H39" s="24" t="s">
         <v>135</v>
       </c>
@@ -2857,7 +2865,7 @@
       <c r="P39" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="W39" s="112" t="s">
+      <c r="W39" s="110" t="s">
         <v>178</v>
       </c>
       <c r="X39" s="22"/>
@@ -2868,15 +2876,15 @@
       <c r="AC39" s="23"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B40" s="96" t="s">
+      <c r="B40" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="141">
+      <c r="C40" s="156">
         <f>C12/SUM('Financial Model'!H4:I4)</f>
-        <v>-5.1750689101330759E-2</v>
-      </c>
-      <c r="D40" s="142"/>
-      <c r="W40" s="118" t="s">
+        <v>4.7572464376355407E-2</v>
+      </c>
+      <c r="D40" s="157"/>
+      <c r="W40" s="116" t="s">
         <v>179</v>
       </c>
       <c r="X40" s="22"/>
@@ -2887,15 +2895,15 @@
       <c r="AC40" s="23"/>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="141">
+      <c r="C41" s="156">
         <f>C12/SUM('Financial Model'!H19:I19)</f>
-        <v>-0.52015223589902682</v>
-      </c>
-      <c r="D41" s="142"/>
-      <c r="W41" s="112"/>
+        <v>0.47815640993951047</v>
+      </c>
+      <c r="D41" s="157"/>
+      <c r="W41" s="110"/>
       <c r="X41" s="22"/>
       <c r="Y41" s="22"/>
       <c r="Z41" s="22"/>
@@ -2904,15 +2912,15 @@
       <c r="AC41" s="23"/>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B42" s="97" t="s">
+      <c r="B42" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="C42" s="150">
+      <c r="C42" s="135">
         <f>'Financial Model'!I69</f>
         <v>0.17112763138524958</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="W42" s="119" t="s">
+      <c r="D42" s="136"/>
+      <c r="W42" s="117" t="s">
         <v>180</v>
       </c>
       <c r="X42" s="22"/>
@@ -2923,7 +2931,7 @@
       <c r="AC42" s="23"/>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W43" s="112" t="s">
+      <c r="W43" s="110" t="s">
         <v>181</v>
       </c>
       <c r="X43" s="22"/>
@@ -2934,7 +2942,7 @@
       <c r="AC43" s="23"/>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W44" s="112" t="s">
+      <c r="W44" s="110" t="s">
         <v>182</v>
       </c>
       <c r="X44" s="22"/>
@@ -2945,7 +2953,7 @@
       <c r="AC44" s="23"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W45" s="112" t="s">
+      <c r="W45" s="110" t="s">
         <v>183</v>
       </c>
       <c r="X45" s="22"/>
@@ -2956,7 +2964,7 @@
       <c r="AC45" s="23"/>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W46" s="112" t="s">
+      <c r="W46" s="110" t="s">
         <v>184</v>
       </c>
       <c r="X46" s="22"/>
@@ -2967,7 +2975,7 @@
       <c r="AC46" s="23"/>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W47" s="112" t="s">
+      <c r="W47" s="110" t="s">
         <v>185</v>
       </c>
       <c r="X47" s="22"/>
@@ -2978,7 +2986,7 @@
       <c r="AC47" s="23"/>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="W48" s="112" t="s">
+      <c r="W48" s="110" t="s">
         <v>186</v>
       </c>
       <c r="X48" s="22"/>
@@ -2989,7 +2997,7 @@
       <c r="AC48" s="23"/>
     </row>
     <row r="49" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W49" s="112" t="s">
+      <c r="W49" s="110" t="s">
         <v>187</v>
       </c>
       <c r="X49" s="22"/>
@@ -3000,7 +3008,7 @@
       <c r="AC49" s="23"/>
     </row>
     <row r="50" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W50" s="112" t="s">
+      <c r="W50" s="110" t="s">
         <v>188</v>
       </c>
       <c r="X50" s="22"/>
@@ -3011,7 +3019,7 @@
       <c r="AC50" s="23"/>
     </row>
     <row r="51" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W51" s="112" t="s">
+      <c r="W51" s="110" t="s">
         <v>189</v>
       </c>
       <c r="X51" s="22"/>
@@ -3022,7 +3030,7 @@
       <c r="AC51" s="23"/>
     </row>
     <row r="52" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W52" s="112"/>
+      <c r="W52" s="110"/>
       <c r="X52" s="22"/>
       <c r="Y52" s="22"/>
       <c r="Z52" s="22"/>
@@ -3031,7 +3039,7 @@
       <c r="AC52" s="23"/>
     </row>
     <row r="53" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W53" s="112" t="s">
+      <c r="W53" s="110" t="s">
         <v>190</v>
       </c>
       <c r="X53" s="22"/>
@@ -3042,7 +3050,7 @@
       <c r="AC53" s="23"/>
     </row>
     <row r="54" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W54" s="112" t="s">
+      <c r="W54" s="110" t="s">
         <v>191</v>
       </c>
       <c r="X54" s="22"/>
@@ -3053,7 +3061,7 @@
       <c r="AC54" s="23"/>
     </row>
     <row r="55" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W55" s="112"/>
+      <c r="W55" s="110"/>
       <c r="X55" s="22"/>
       <c r="Y55" s="22"/>
       <c r="Z55" s="22"/>
@@ -3062,7 +3070,7 @@
       <c r="AC55" s="23"/>
     </row>
     <row r="56" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W56" s="119" t="s">
+      <c r="W56" s="117" t="s">
         <v>192</v>
       </c>
       <c r="X56" s="22"/>
@@ -3073,7 +3081,7 @@
       <c r="AC56" s="23"/>
     </row>
     <row r="57" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W57" s="112" t="s">
+      <c r="W57" s="110" t="s">
         <v>193</v>
       </c>
       <c r="X57" s="22"/>
@@ -3084,7 +3092,7 @@
       <c r="AC57" s="23"/>
     </row>
     <row r="58" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W58" s="112" t="s">
+      <c r="W58" s="110" t="s">
         <v>194</v>
       </c>
       <c r="X58" s="22"/>
@@ -3095,7 +3103,7 @@
       <c r="AC58" s="23"/>
     </row>
     <row r="59" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W59" s="112" t="s">
+      <c r="W59" s="110" t="s">
         <v>195</v>
       </c>
       <c r="X59" s="22"/>
@@ -3106,7 +3114,7 @@
       <c r="AC59" s="23"/>
     </row>
     <row r="60" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W60" s="112" t="s">
+      <c r="W60" s="110" t="s">
         <v>196</v>
       </c>
       <c r="X60" s="22"/>
@@ -3117,7 +3125,7 @@
       <c r="AC60" s="23"/>
     </row>
     <row r="61" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W61" s="116" t="s">
+      <c r="W61" s="114" t="s">
         <v>197</v>
       </c>
       <c r="X61" s="22"/>
@@ -3128,7 +3136,7 @@
       <c r="AC61" s="23"/>
     </row>
     <row r="62" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W62" s="112" t="s">
+      <c r="W62" s="110" t="s">
         <v>198</v>
       </c>
       <c r="X62" s="22"/>
@@ -3139,7 +3147,7 @@
       <c r="AC62" s="23"/>
     </row>
     <row r="63" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W63" s="112" t="s">
+      <c r="W63" s="110" t="s">
         <v>199</v>
       </c>
       <c r="X63" s="22"/>
@@ -3150,7 +3158,7 @@
       <c r="AC63" s="23"/>
     </row>
     <row r="64" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W64" s="112"/>
+      <c r="W64" s="110"/>
       <c r="X64" s="22"/>
       <c r="Y64" s="22"/>
       <c r="Z64" s="22"/>
@@ -3159,7 +3167,7 @@
       <c r="AC64" s="23"/>
     </row>
     <row r="65" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W65" s="119" t="s">
+      <c r="W65" s="117" t="s">
         <v>200</v>
       </c>
       <c r="X65" s="22"/>
@@ -3170,7 +3178,7 @@
       <c r="AC65" s="23"/>
     </row>
     <row r="66" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W66" s="112" t="s">
+      <c r="W66" s="110" t="s">
         <v>201</v>
       </c>
       <c r="X66" s="22"/>
@@ -3181,7 +3189,7 @@
       <c r="AC66" s="23"/>
     </row>
     <row r="67" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W67" s="112" t="s">
+      <c r="W67" s="110" t="s">
         <v>202</v>
       </c>
       <c r="X67" s="22"/>
@@ -3192,7 +3200,7 @@
       <c r="AC67" s="23"/>
     </row>
     <row r="68" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W68" s="112" t="s">
+      <c r="W68" s="110" t="s">
         <v>203</v>
       </c>
       <c r="X68" s="22"/>
@@ -3203,7 +3211,7 @@
       <c r="AC68" s="23"/>
     </row>
     <row r="69" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W69" s="112" t="s">
+      <c r="W69" s="110" t="s">
         <v>204</v>
       </c>
       <c r="X69" s="22"/>
@@ -3214,7 +3222,7 @@
       <c r="AC69" s="23"/>
     </row>
     <row r="70" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W70" s="116" t="s">
+      <c r="W70" s="114" t="s">
         <v>205</v>
       </c>
       <c r="X70" s="22"/>
@@ -3225,7 +3233,7 @@
       <c r="AC70" s="23"/>
     </row>
     <row r="71" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W71" s="112"/>
+      <c r="W71" s="110"/>
       <c r="X71" s="22"/>
       <c r="Y71" s="22"/>
       <c r="Z71" s="22"/>
@@ -3234,7 +3242,7 @@
       <c r="AC71" s="23"/>
     </row>
     <row r="72" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W72" s="119" t="s">
+      <c r="W72" s="117" t="s">
         <v>206</v>
       </c>
       <c r="X72" s="22"/>
@@ -3245,7 +3253,7 @@
       <c r="AC72" s="23"/>
     </row>
     <row r="73" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W73" s="112" t="s">
+      <c r="W73" s="110" t="s">
         <v>207</v>
       </c>
       <c r="X73" s="22"/>
@@ -3256,7 +3264,7 @@
       <c r="AC73" s="23"/>
     </row>
     <row r="74" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W74" s="116" t="s">
+      <c r="W74" s="114" t="s">
         <v>208</v>
       </c>
       <c r="X74" s="22"/>
@@ -3267,7 +3275,7 @@
       <c r="AC74" s="23"/>
     </row>
     <row r="75" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W75" s="112" t="s">
+      <c r="W75" s="110" t="s">
         <v>209</v>
       </c>
       <c r="X75" s="22"/>
@@ -3278,7 +3286,7 @@
       <c r="AC75" s="23"/>
     </row>
     <row r="76" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W76" s="116" t="s">
+      <c r="W76" s="114" t="s">
         <v>210</v>
       </c>
       <c r="X76" s="22"/>
@@ -3289,7 +3297,7 @@
       <c r="AC76" s="23"/>
     </row>
     <row r="77" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W77" s="112" t="s">
+      <c r="W77" s="110" t="s">
         <v>211</v>
       </c>
       <c r="X77" s="22"/>
@@ -3300,7 +3308,7 @@
       <c r="AC77" s="23"/>
     </row>
     <row r="78" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W78" s="112" t="s">
+      <c r="W78" s="110" t="s">
         <v>212</v>
       </c>
       <c r="X78" s="22"/>
@@ -3311,7 +3319,7 @@
       <c r="AC78" s="23"/>
     </row>
     <row r="79" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W79" s="116" t="s">
+      <c r="W79" s="114" t="s">
         <v>213</v>
       </c>
       <c r="X79" s="22"/>
@@ -3322,7 +3330,7 @@
       <c r="AC79" s="23"/>
     </row>
     <row r="80" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W80" s="112" t="s">
+      <c r="W80" s="110" t="s">
         <v>214</v>
       </c>
       <c r="X80" s="22"/>
@@ -3333,7 +3341,7 @@
       <c r="AC80" s="23"/>
     </row>
     <row r="81" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W81" s="112" t="s">
+      <c r="W81" s="110" t="s">
         <v>215</v>
       </c>
       <c r="X81" s="22"/>
@@ -3344,7 +3352,7 @@
       <c r="AC81" s="23"/>
     </row>
     <row r="82" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W82" s="112" t="s">
+      <c r="W82" s="110" t="s">
         <v>216</v>
       </c>
       <c r="X82" s="22"/>
@@ -3355,7 +3363,7 @@
       <c r="AC82" s="23"/>
     </row>
     <row r="83" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W83" s="112"/>
+      <c r="W83" s="110"/>
       <c r="X83" s="22"/>
       <c r="Y83" s="22"/>
       <c r="Z83" s="22"/>
@@ -3364,7 +3372,7 @@
       <c r="AC83" s="23"/>
     </row>
     <row r="84" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W84" s="119" t="s">
+      <c r="W84" s="117" t="s">
         <v>217</v>
       </c>
       <c r="X84" s="22"/>
@@ -3375,7 +3383,7 @@
       <c r="AC84" s="23"/>
     </row>
     <row r="85" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W85" s="112" t="s">
+      <c r="W85" s="110" t="s">
         <v>218</v>
       </c>
       <c r="X85" s="22"/>
@@ -3386,7 +3394,7 @@
       <c r="AC85" s="23"/>
     </row>
     <row r="86" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W86" s="112" t="s">
+      <c r="W86" s="110" t="s">
         <v>219</v>
       </c>
       <c r="X86" s="22"/>
@@ -3397,7 +3405,7 @@
       <c r="AC86" s="23"/>
     </row>
     <row r="87" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W87" s="116" t="s">
+      <c r="W87" s="114" t="s">
         <v>220</v>
       </c>
       <c r="X87" s="22"/>
@@ -3408,7 +3416,7 @@
       <c r="AC87" s="23"/>
     </row>
     <row r="88" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W88" s="112" t="s">
+      <c r="W88" s="110" t="s">
         <v>221</v>
       </c>
       <c r="X88" s="22"/>
@@ -3419,7 +3427,7 @@
       <c r="AC88" s="23"/>
     </row>
     <row r="89" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W89" s="116" t="s">
+      <c r="W89" s="114" t="s">
         <v>222</v>
       </c>
       <c r="X89" s="22"/>
@@ -3430,7 +3438,7 @@
       <c r="AC89" s="23"/>
     </row>
     <row r="90" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W90" s="112" t="s">
+      <c r="W90" s="110" t="s">
         <v>223</v>
       </c>
       <c r="X90" s="22"/>
@@ -3441,7 +3449,7 @@
       <c r="AC90" s="23"/>
     </row>
     <row r="91" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W91" s="112" t="s">
+      <c r="W91" s="110" t="s">
         <v>224</v>
       </c>
       <c r="X91" s="22"/>
@@ -3452,7 +3460,7 @@
       <c r="AC91" s="23"/>
     </row>
     <row r="92" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W92" s="116" t="s">
+      <c r="W92" s="114" t="s">
         <v>225</v>
       </c>
       <c r="X92" s="22"/>
@@ -3463,7 +3471,7 @@
       <c r="AC92" s="23"/>
     </row>
     <row r="93" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W93" s="112"/>
+      <c r="W93" s="110"/>
       <c r="X93" s="22"/>
       <c r="Y93" s="22"/>
       <c r="Z93" s="22"/>
@@ -3472,7 +3480,7 @@
       <c r="AC93" s="23"/>
     </row>
     <row r="94" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W94" s="112"/>
+      <c r="W94" s="110"/>
       <c r="X94" s="22"/>
       <c r="Y94" s="22"/>
       <c r="Z94" s="22"/>
@@ -3481,7 +3489,7 @@
       <c r="AC94" s="23"/>
     </row>
     <row r="95" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W95" s="119" t="s">
+      <c r="W95" s="117" t="s">
         <v>226</v>
       </c>
       <c r="X95" s="22"/>
@@ -3492,7 +3500,7 @@
       <c r="AC95" s="23"/>
     </row>
     <row r="96" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W96" s="112" t="s">
+      <c r="W96" s="110" t="s">
         <v>227</v>
       </c>
       <c r="X96" s="22"/>
@@ -3503,7 +3511,7 @@
       <c r="AC96" s="23"/>
     </row>
     <row r="97" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W97" s="112" t="s">
+      <c r="W97" s="110" t="s">
         <v>228</v>
       </c>
       <c r="X97" s="22"/>
@@ -3514,7 +3522,7 @@
       <c r="AC97" s="23"/>
     </row>
     <row r="98" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W98" s="112" t="s">
+      <c r="W98" s="110" t="s">
         <v>229</v>
       </c>
       <c r="X98" s="22"/>
@@ -3525,7 +3533,7 @@
       <c r="AC98" s="23"/>
     </row>
     <row r="99" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W99" s="112" t="s">
+      <c r="W99" s="110" t="s">
         <v>230</v>
       </c>
       <c r="X99" s="22"/>
@@ -3536,7 +3544,7 @@
       <c r="AC99" s="23"/>
     </row>
     <row r="100" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W100" s="112" t="s">
+      <c r="W100" s="110" t="s">
         <v>231</v>
       </c>
       <c r="X100" s="22"/>
@@ -3547,7 +3555,7 @@
       <c r="AC100" s="23"/>
     </row>
     <row r="101" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W101" s="112" t="s">
+      <c r="W101" s="110" t="s">
         <v>232</v>
       </c>
       <c r="X101" s="22"/>
@@ -3558,7 +3566,7 @@
       <c r="AC101" s="23"/>
     </row>
     <row r="102" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W102" s="112" t="s">
+      <c r="W102" s="110" t="s">
         <v>233</v>
       </c>
       <c r="X102" s="22"/>
@@ -3569,7 +3577,7 @@
       <c r="AC102" s="23"/>
     </row>
     <row r="103" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W103" s="112" t="s">
+      <c r="W103" s="110" t="s">
         <v>234</v>
       </c>
       <c r="X103" s="22"/>
@@ -3580,7 +3588,7 @@
       <c r="AC103" s="23"/>
     </row>
     <row r="104" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W104" s="112" t="s">
+      <c r="W104" s="110" t="s">
         <v>235</v>
       </c>
       <c r="X104" s="22"/>
@@ -3591,7 +3599,7 @@
       <c r="AC104" s="23"/>
     </row>
     <row r="105" spans="23:29" x14ac:dyDescent="0.25">
-      <c r="W105" s="113" t="s">
+      <c r="W105" s="111" t="s">
         <v>236</v>
       </c>
       <c r="X105" s="24"/>
@@ -3603,6 +3611,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="W24:AC24"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="K3:L3"/>
@@ -3619,28 +3649,6 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="W24:AC24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K6:L6" r:id="rId1" display="Link" xr:uid="{EBABCF04-F876-4DF1-ADF1-1B6F62DC4548}"/>
@@ -3679,7 +3687,7 @@
     <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" style="32" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="132"/>
+    <col min="14" max="14" width="8.85546875" style="130"/>
     <col min="16" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9.140625" bestFit="1" customWidth="1"/>
@@ -3704,7 +3712,7 @@
       <c r="H1" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="83" t="s">
         <v>90</v>
       </c>
       <c r="J1" s="30" t="s">
@@ -3716,10 +3724,10 @@
       <c r="L1" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="124" t="s">
+      <c r="M1" s="122" t="s">
         <v>245</v>
       </c>
-      <c r="N1" s="126" t="s">
+      <c r="N1" s="124" t="s">
         <v>247</v>
       </c>
       <c r="O1" s="13"/>
@@ -3738,7 +3746,7 @@
       <c r="T1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="124" t="s">
+      <c r="U1" s="122" t="s">
         <v>110</v>
       </c>
       <c r="V1" s="13" t="s">
@@ -3769,44 +3777,44 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="2:30" s="88" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="86"/>
+    <row r="2" spans="2:30" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="85"/>
       <c r="C2" s="20">
         <v>43646</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="86" t="s">
         <v>92</v>
       </c>
       <c r="E2" s="20">
         <v>44012</v>
       </c>
-      <c r="F2" s="87">
+      <c r="F2" s="86">
         <v>44196</v>
       </c>
       <c r="G2" s="20">
         <v>44377</v>
       </c>
-      <c r="H2" s="87">
+      <c r="H2" s="86">
         <v>44561</v>
       </c>
       <c r="I2" s="20">
         <v>44742</v>
       </c>
-      <c r="J2" s="87">
+      <c r="J2" s="86">
         <f>T2</f>
         <v>44926</v>
       </c>
       <c r="K2" s="20">
         <v>45107</v>
       </c>
-      <c r="L2" s="87">
+      <c r="L2" s="86">
         <f>U2</f>
         <v>45291</v>
       </c>
       <c r="M2" s="20">
         <v>45473</v>
       </c>
-      <c r="N2" s="127"/>
+      <c r="N2" s="125"/>
       <c r="P2" s="20">
         <v>43465</v>
       </c>
@@ -3861,18 +3869,18 @@
       <c r="F3" s="31"/>
       <c r="G3" s="14"/>
       <c r="H3" s="31"/>
-      <c r="I3" s="85">
+      <c r="I3" s="84">
         <v>44825</v>
       </c>
       <c r="J3" s="76"/>
-      <c r="K3" s="85">
+      <c r="K3" s="84">
         <v>45146</v>
       </c>
       <c r="L3" s="76"/>
-      <c r="M3" s="121">
+      <c r="M3" s="119">
         <v>45561</v>
       </c>
-      <c r="N3" s="127" t="s">
+      <c r="N3" s="125" t="s">
         <v>248</v>
       </c>
       <c r="P3" s="20"/>
@@ -3919,21 +3927,21 @@
       <c r="I4" s="71">
         <v>9.8320000000000007</v>
       </c>
-      <c r="J4" s="125">
+      <c r="J4" s="123">
         <f>T4-I4</f>
         <v>12.481999999999999</v>
       </c>
       <c r="K4" s="71">
         <v>2.464</v>
       </c>
-      <c r="L4" s="125">
+      <c r="L4" s="123">
         <f>U4-K4</f>
         <v>8.5129999999999999</v>
       </c>
       <c r="M4" s="71">
         <v>0.88100000000000001</v>
       </c>
-      <c r="N4" s="128">
+      <c r="N4" s="126">
         <f>+M4*2.75</f>
         <v>2.4227500000000002</v>
       </c>
@@ -4035,7 +4043,7 @@
       <c r="M5" s="67">
         <v>1.167</v>
       </c>
-      <c r="N5" s="129"/>
+      <c r="N5" s="127"/>
       <c r="O5" s="67"/>
       <c r="P5" s="64">
         <v>0.54072100000000001</v>
@@ -4133,7 +4141,7 @@
       <c r="M6" s="67">
         <v>0</v>
       </c>
-      <c r="N6" s="129"/>
+      <c r="N6" s="127"/>
       <c r="O6" s="67"/>
       <c r="P6" s="65">
         <v>0</v>
@@ -4213,7 +4221,7 @@
         <f t="shared" si="2"/>
         <v>1.511000000000001</v>
       </c>
-      <c r="J7" s="125">
+      <c r="J7" s="123">
         <f>T7-I7</f>
         <v>3.2739999999999991</v>
       </c>
@@ -4229,7 +4237,7 @@
         <f t="shared" si="2"/>
         <v>-0.28600000000000003</v>
       </c>
-      <c r="N7" s="129">
+      <c r="N7" s="127">
         <f>N4*N23</f>
         <v>0.67837000000000014</v>
       </c>
@@ -4254,7 +4262,7 @@
         <f t="shared" ref="T7:U7" si="3">T4-T5-T6</f>
         <v>4.7850000000000001</v>
       </c>
-      <c r="U7" s="122">
+      <c r="U7" s="120">
         <f t="shared" si="3"/>
         <v>2.048</v>
       </c>
@@ -4337,7 +4345,7 @@
       <c r="M8" s="67">
         <v>0</v>
       </c>
-      <c r="N8" s="129"/>
+      <c r="N8" s="127"/>
       <c r="O8" s="67"/>
       <c r="P8" s="65">
         <v>0</v>
@@ -4427,7 +4435,7 @@
       <c r="M9" s="67">
         <v>0</v>
       </c>
-      <c r="N9" s="129"/>
+      <c r="N9" s="127"/>
       <c r="O9" s="67"/>
       <c r="P9" s="65">
         <v>0</v>
@@ -4517,7 +4525,7 @@
       <c r="M10" s="67">
         <v>0.76</v>
       </c>
-      <c r="N10" s="130"/>
+      <c r="N10" s="128"/>
       <c r="O10" s="67"/>
       <c r="P10" s="66">
         <v>2.213695</v>
@@ -4616,7 +4624,7 @@
       <c r="M11" s="67">
         <v>0</v>
       </c>
-      <c r="N11" s="129"/>
+      <c r="N11" s="127"/>
       <c r="O11" s="67"/>
       <c r="P11" s="65">
         <v>0</v>
@@ -4707,7 +4715,7 @@
       <c r="M12" s="67">
         <v>0.03</v>
       </c>
-      <c r="N12" s="129"/>
+      <c r="N12" s="127"/>
       <c r="O12" s="67"/>
       <c r="P12" s="66">
         <v>9.2290999999999998E-2</v>
@@ -4809,7 +4817,7 @@
       <c r="M13" s="67">
         <v>0.79</v>
       </c>
-      <c r="N13" s="129"/>
+      <c r="N13" s="127"/>
       <c r="O13" s="67"/>
       <c r="P13" s="66">
         <f t="shared" ref="P13:U13" si="10">SUM(P8:P12)</f>
@@ -4827,7 +4835,7 @@
         <f t="shared" si="10"/>
         <v>3.0790000000000002</v>
       </c>
-      <c r="T13" s="123">
+      <c r="T13" s="121">
         <f t="shared" si="10"/>
         <v>2.3430000000000004</v>
       </c>
@@ -4911,7 +4919,7 @@
       <c r="M14" s="67">
         <v>0.27200000000000002</v>
       </c>
-      <c r="N14" s="129"/>
+      <c r="N14" s="127"/>
       <c r="O14" s="67"/>
       <c r="P14" s="66">
         <v>0</v>
@@ -5016,7 +5024,7 @@
         <f>M7-M13-M14</f>
         <v>-1.3480000000000001</v>
       </c>
-      <c r="N15" s="129"/>
+      <c r="N15" s="127"/>
       <c r="O15" s="67"/>
       <c r="P15" s="63">
         <f>P7-P13</f>
@@ -5123,7 +5131,7 @@
         <f>0.001-0.15</f>
         <v>-0.14899999999999999</v>
       </c>
-      <c r="N16" s="129"/>
+      <c r="N16" s="127"/>
       <c r="O16" s="67"/>
       <c r="P16" s="66">
         <v>2.3914999999999999E-2</v>
@@ -5231,7 +5239,7 @@
         <f t="shared" si="16"/>
         <v>-1.1990000000000001</v>
       </c>
-      <c r="N17" s="129"/>
+      <c r="N17" s="127"/>
       <c r="O17" s="67"/>
       <c r="P17" s="63">
         <f>P15-P16</f>
@@ -5336,7 +5344,7 @@
       <c r="M18" s="66">
         <v>0</v>
       </c>
-      <c r="N18" s="131"/>
+      <c r="N18" s="129"/>
       <c r="O18" s="66"/>
       <c r="P18" s="66">
         <v>5.2276999999999997E-2</v>
@@ -5432,7 +5440,7 @@
         <f t="shared" si="19"/>
         <v>-1.1990000000000001</v>
       </c>
-      <c r="N19" s="129"/>
+      <c r="N19" s="127"/>
       <c r="O19" s="67"/>
       <c r="P19" s="63">
         <f>P17+P18</f>
@@ -5675,7 +5683,7 @@
         <f t="shared" si="24"/>
         <v>-2.3055062257128667E-2</v>
       </c>
-      <c r="N20" s="129"/>
+      <c r="N20" s="127"/>
       <c r="O20" s="67"/>
       <c r="P20" s="66">
         <f>(P19/P21)</f>
@@ -5780,7 +5788,7 @@
       <c r="M21" s="67">
         <v>52.005932000000001</v>
       </c>
-      <c r="N21" s="129"/>
+      <c r="N21" s="127"/>
       <c r="O21" s="67"/>
       <c r="P21" s="66">
         <v>158.321675</v>
@@ -5882,7 +5890,7 @@
       <c r="M23" s="36">
         <v>0.31</v>
       </c>
-      <c r="N23" s="134">
+      <c r="N23" s="132">
         <v>0.28000000000000003</v>
       </c>
       <c r="P23" s="16">
@@ -6362,120 +6370,120 @@
         <f>AG27/Main!C7</f>
         <v>0.74703074912372858</v>
       </c>
-      <c r="AI28" s="94"/>
+      <c r="AI28" s="93"/>
     </row>
     <row r="29" spans="2:63" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="89">
-        <v>0</v>
-      </c>
-      <c r="D29" s="90">
-        <v>0</v>
-      </c>
-      <c r="E29" s="91">
+      <c r="C29" s="88">
+        <v>0</v>
+      </c>
+      <c r="D29" s="89">
+        <v>0</v>
+      </c>
+      <c r="E29" s="90">
         <f t="shared" ref="E29:M29" si="48">E4/C4-1</f>
         <v>-0.19151237513520392</v>
       </c>
-      <c r="F29" s="92">
+      <c r="F29" s="91">
         <f t="shared" si="48"/>
         <v>1.2625361471728298</v>
       </c>
-      <c r="G29" s="91">
+      <c r="G29" s="90">
         <f t="shared" si="48"/>
         <v>256.6646730148737</v>
       </c>
-      <c r="H29" s="92">
+      <c r="H29" s="91">
         <f t="shared" si="48"/>
         <v>355.29007695863817</v>
       </c>
-      <c r="I29" s="91">
+      <c r="I29" s="90">
         <f t="shared" si="48"/>
         <v>2.0029213733661768</v>
       </c>
-      <c r="J29" s="92">
+      <c r="J29" s="91">
         <f t="shared" si="48"/>
         <v>-4.7310476264620593E-2</v>
       </c>
-      <c r="K29" s="91">
+      <c r="K29" s="90">
         <f t="shared" si="48"/>
         <v>-0.74938974776240852</v>
       </c>
-      <c r="L29" s="92">
+      <c r="L29" s="91">
         <f t="shared" si="48"/>
         <v>-0.3179778881589489</v>
       </c>
-      <c r="M29" s="91">
+      <c r="M29" s="90">
         <f t="shared" si="48"/>
         <v>-0.64245129870129869</v>
       </c>
-      <c r="N29" s="133"/>
-      <c r="P29" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="91">
+      <c r="N29" s="131"/>
+      <c r="P29" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="90">
         <f>Q4/P4-1</f>
         <v>5.6081025217031826</v>
       </c>
-      <c r="R29" s="91">
+      <c r="R29" s="90">
         <f>R4/Q4-1</f>
         <v>0.54770096965905557</v>
       </c>
-      <c r="S29" s="91">
+      <c r="S29" s="90">
         <f>S4/R4-1</f>
         <v>329.9620048504446</v>
       </c>
-      <c r="T29" s="91">
+      <c r="T29" s="90">
         <f t="shared" ref="T29:U29" si="49">T4/S4-1</f>
         <v>0.36260381045432322</v>
       </c>
-      <c r="U29" s="91">
+      <c r="U29" s="90">
         <f t="shared" si="49"/>
         <v>-0.50806668459263249</v>
       </c>
-      <c r="V29" s="91">
+      <c r="V29" s="90">
         <f t="shared" ref="V29" si="50">V4/U4-1</f>
         <v>-0.69902978955998907</v>
       </c>
-      <c r="W29" s="91">
+      <c r="W29" s="90">
         <f t="shared" ref="W29:AD29" si="51">W4/V4-1</f>
         <v>0.25</v>
       </c>
-      <c r="X29" s="91">
+      <c r="X29" s="90">
         <f t="shared" si="51"/>
         <v>0.25</v>
       </c>
-      <c r="Y29" s="91">
+      <c r="Y29" s="90">
         <f t="shared" si="51"/>
         <v>0.25</v>
       </c>
-      <c r="Z29" s="91">
+      <c r="Z29" s="90">
         <f t="shared" si="51"/>
         <v>0.25</v>
       </c>
-      <c r="AA29" s="91">
+      <c r="AA29" s="90">
         <f t="shared" si="51"/>
         <v>0.25</v>
       </c>
-      <c r="AB29" s="91">
+      <c r="AB29" s="90">
         <f t="shared" si="51"/>
         <v>0.25</v>
       </c>
-      <c r="AC29" s="91">
+      <c r="AC29" s="90">
         <f t="shared" si="51"/>
         <v>0.25</v>
       </c>
-      <c r="AD29" s="91">
+      <c r="AD29" s="90">
         <f t="shared" si="51"/>
         <v>0.25</v>
       </c>
       <c r="AF29" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="AG29" s="93">
+      <c r="AG29" s="92">
         <f>Main!C6</f>
-        <v>0.12620000000000001</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="30" spans="2:63" x14ac:dyDescent="0.25">
@@ -6559,83 +6567,83 @@
       <c r="B31" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="89">
-        <v>0</v>
-      </c>
-      <c r="D31" s="90">
-        <v>0</v>
-      </c>
-      <c r="E31" s="91">
+      <c r="C31" s="88">
+        <v>0</v>
+      </c>
+      <c r="D31" s="89">
+        <v>0</v>
+      </c>
+      <c r="E31" s="90">
         <f t="shared" ref="E31:M31" si="53">E19/C19-1</f>
         <v>6.9873023754210895E-2</v>
       </c>
-      <c r="F31" s="92">
+      <c r="F31" s="91">
         <f t="shared" si="53"/>
         <v>1.7142245402388041</v>
       </c>
-      <c r="G31" s="91">
+      <c r="G31" s="90">
         <f t="shared" si="53"/>
         <v>-0.80078168438751474</v>
       </c>
-      <c r="H31" s="92">
+      <c r="H31" s="91">
         <f t="shared" si="53"/>
         <v>-1.941605215233448</v>
       </c>
-      <c r="I31" s="91">
+      <c r="I31" s="90">
         <f t="shared" si="53"/>
         <v>-1.0334918614776643</v>
       </c>
-      <c r="J31" s="92">
+      <c r="J31" s="91">
         <f t="shared" si="53"/>
         <v>-0.33647846063002929</v>
       </c>
-      <c r="K31" s="91">
+      <c r="K31" s="90">
         <f t="shared" si="53"/>
         <v>-36.444444444440911</v>
       </c>
-      <c r="L31" s="92">
+      <c r="L31" s="91">
         <f t="shared" si="53"/>
         <v>-0.89389920424403224</v>
       </c>
-      <c r="M31" s="91">
+      <c r="M31" s="90">
         <f t="shared" si="53"/>
         <v>2.7586206896551717</v>
       </c>
-      <c r="N31" s="133"/>
-      <c r="P31" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="91">
+      <c r="N31" s="131"/>
+      <c r="P31" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="90">
         <f>Q19/P19-1</f>
         <v>-0.23581032497875432</v>
       </c>
-      <c r="R31" s="91">
+      <c r="R31" s="90">
         <f>R19/Q19-1</f>
         <v>0.74997993072728897</v>
       </c>
-      <c r="S31" s="91">
+      <c r="S31" s="90">
         <f>S19/R19-1</f>
         <v>-1.5326175633671386</v>
       </c>
-      <c r="T31" s="91">
+      <c r="T31" s="90">
         <f t="shared" ref="T31:U31" si="54">T19/S19-1</f>
         <v>-0.24301397205588893</v>
       </c>
-      <c r="U31" s="91">
+      <c r="U31" s="90">
         <f t="shared" si="54"/>
         <v>-1.1048121292023731</v>
       </c>
-      <c r="V31" s="91"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="91"/>
-      <c r="AC31" s="91"/>
-      <c r="AD31" s="91"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="90"/>
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="90"/>
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="90"/>
       <c r="AF31" s="44"/>
-      <c r="AG31" s="93"/>
+      <c r="AG31" s="92"/>
     </row>
     <row r="32" spans="2:63" x14ac:dyDescent="0.25">
       <c r="C32" s="15"/>
@@ -6668,7 +6676,7 @@
       </c>
       <c r="AG33" s="51">
         <f>AG28/AG29</f>
-        <v>5.9194195651642518</v>
+        <v>4.394298524257227</v>
       </c>
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.25">
@@ -6902,14 +6910,14 @@
         <f t="shared" si="56"/>
         <v>6.3869999999999996</v>
       </c>
-      <c r="I41" s="80">
+      <c r="I41" s="79">
         <v>6.9950000000000001</v>
       </c>
       <c r="J41" s="60"/>
       <c r="K41" s="12"/>
       <c r="L41" s="60"/>
       <c r="M41" s="12"/>
-      <c r="N41" s="133"/>
+      <c r="N41" s="131"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="58">
@@ -7249,7 +7257,7 @@
       <c r="K51" s="12"/>
       <c r="L51" s="60"/>
       <c r="M51" s="12"/>
-      <c r="N51" s="133"/>
+      <c r="N51" s="131"/>
       <c r="O51" s="12"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="59">
@@ -7407,7 +7415,7 @@
         <f t="shared" ref="D57" si="58">D42-D52</f>
         <v>2.233822</v>
       </c>
-      <c r="E57" s="79">
+      <c r="E57" s="78">
         <f t="shared" ref="E57:F57" si="59">E42-E52</f>
         <v>2.625874</v>
       </c>
@@ -7415,7 +7423,7 @@
         <f t="shared" si="59"/>
         <v>0.52937599999999996</v>
       </c>
-      <c r="G57" s="79">
+      <c r="G57" s="78">
         <f t="shared" ref="G57:H57" si="60">G42-G52</f>
         <v>3.5457600000000009</v>
       </c>
@@ -7423,19 +7431,19 @@
         <f t="shared" si="60"/>
         <v>7.1129999999999995</v>
       </c>
-      <c r="I57" s="79">
+      <c r="I57" s="78">
         <f t="shared" ref="I57" si="61">I42-I52</f>
         <v>8.4660000000000011</v>
       </c>
-      <c r="Q57" s="79">
+      <c r="Q57" s="78">
         <f t="shared" ref="Q57:R57" si="62">Q42-Q52</f>
         <v>2.233822</v>
       </c>
-      <c r="R57" s="79">
+      <c r="R57" s="78">
         <f t="shared" si="62"/>
         <v>0.52937599999999996</v>
       </c>
-      <c r="S57" s="79">
+      <c r="S57" s="78">
         <f>S42-S52</f>
         <v>7.1129999999999995</v>
       </c>
@@ -7649,59 +7657,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="99"/>
+    <col min="1" max="16384" width="9.140625" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="101" t="s">
+    <row r="1" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="99" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="99" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="99" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="160" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="160" t="s">
+    <row r="3" spans="1:5" s="133" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="133" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="160">
+      <c r="B3" s="133">
         <v>2342000</v>
       </c>
-      <c r="D3" s="160">
+      <c r="D3" s="133">
         <v>572000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="160" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="160" t="s">
+    <row r="4" spans="1:5" s="133" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="133" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="160">
+      <c r="B4" s="133">
         <v>122000</v>
       </c>
-      <c r="D4" s="160">
+      <c r="D4" s="133">
         <v>309000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="161" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="161" t="s">
+    <row r="6" spans="1:5" s="134" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="134" t="s">
         <v>251</v>
       </c>
-      <c r="D6" s="161">
+      <c r="D6" s="134">
         <f>D3/B3-1</f>
         <v>-0.75576430401366357</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="161" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="161" t="s">
+    <row r="7" spans="1:5" s="134" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="134" t="s">
         <v>252</v>
       </c>
-      <c r="D7" s="161">
+      <c r="D7" s="134">
         <f>D4/B4-1</f>
         <v>1.5327868852459017</v>
       </c>
@@ -7914,217 +7922,217 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="99"/>
+    <col min="1" max="1" width="30.85546875" style="97" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="101" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="102" t="s">
+    <row r="1" spans="1:5" s="99" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="99" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="103">
+      <c r="D2" s="101">
         <v>20.470000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="104">
+      <c r="D3" s="102">
         <v>14.124300000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="105">
+      <c r="D4" s="103">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="103">
+      <c r="D5" s="101">
         <v>6.3457000000000008</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="105">
+      <c r="D6" s="103">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="105">
+      <c r="D7" s="103">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="105">
+      <c r="D8" s="103">
         <v>2.5529999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="105">
+      <c r="D9" s="103">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="106">
+      <c r="D10" s="104">
         <v>0.112</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="105">
+      <c r="D11" s="103">
         <v>3.0790000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="107">
+      <c r="D12" s="105">
         <v>3.2667000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="105">
+      <c r="D13" s="103">
         <v>4.5360000000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="107">
+      <c r="D14" s="105">
         <v>3.2213400000000005</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="106">
+      <c r="D15" s="104">
         <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="107">
+      <c r="D16" s="105">
         <v>2.2213400000000005</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="106">
+      <c r="D17" s="104">
         <v>3.1248980097122897E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="106">
+      <c r="D18" s="104">
         <v>710.85199999999998</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="108"/>
+      <c r="D19" s="106"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="109">
+      <c r="D20" s="107">
         <v>0.31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="109">
+      <c r="D21" s="107">
         <v>0.1595847581827064</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="109">
+      <c r="D22" s="107">
         <v>0.10851685393258428</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="109">
+      <c r="D23" s="107">
         <v>-0.31042982113033701</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="108"/>
+      <c r="D24" s="106"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="99" t="s">
+      <c r="A25" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="108"/>
+      <c r="D25" s="106"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="110">
+      <c r="D26" s="108">
         <v>0.25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="111"/>
+      <c r="D27" s="109"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="110"/>
+      <c r="D28" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
